--- a/dispatchers_rep/Doklad_Dispecheri_2025!.xlsx
+++ b/dispatchers_rep/Doklad_Dispecheri_2025!.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F238BA-0F0A-4326-B58E-8D4BF1EC3998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F271A7F6-0866-4D37-A078-FD1B7F2FCB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,12 +507,120 @@
         </r>
       </text>
     </comment>
+    <comment ref="AL116" authorId="0" shapeId="0" xr:uid="{B350F811-FFD3-457C-92BF-1C9810C6A85D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+ФП Metso - 73
+ФП Larox - 66</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM116" authorId="0" shapeId="0" xr:uid="{25AD9B3C-260E-4DC5-9E71-AF9FB927C8EE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+ФП Metso - 8,8
+ФП Larox - 10,5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL117" authorId="0" shapeId="0" xr:uid="{7B13DD25-0C67-4384-948D-B67922542B7E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+ФП Metso - 158т
+ФП Larox - 26т</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM117" authorId="0" shapeId="0" xr:uid="{AE8BAC69-B544-466F-9BFA-E5CC1D18BCC9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+ФП Metso - 9,7
+ФП Larox - 10,6</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="67">
   <si>
     <t xml:space="preserve">Подадена руда
  от МГТЛ 
@@ -1564,6 +1672,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1571,6 +1682,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1590,12 +1704,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1971,13 +2079,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="187" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -2106,19 +2214,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="191" t="s">
+      <c r="AX1" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="191"/>
-      <c r="AZ1" s="191" t="s">
+      <c r="AY1" s="182"/>
+      <c r="AZ1" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="191"/>
+      <c r="BA1" s="182"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="186"/>
+      <c r="A2" s="192"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="188"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -2309,7 +2417,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="182">
+      <c r="A4" s="183">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -2471,7 +2579,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" s="183"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -2631,7 +2739,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="183"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -2791,7 +2899,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -2962,7 +3070,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="182">
+      <c r="A8" s="183">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -3126,7 +3234,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" s="183"/>
+      <c r="A9" s="184"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -3286,7 +3394,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" s="183"/>
+      <c r="A10" s="184"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -3446,7 +3554,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="184"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -3617,7 +3725,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182">
+      <c r="A12" s="183">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -3781,7 +3889,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" s="183"/>
+      <c r="A13" s="184"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -3941,7 +4049,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14" s="183"/>
+      <c r="A14" s="184"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -4101,7 +4209,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="184"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -4272,7 +4380,7 @@
       <c r="BA15" s="57"/>
     </row>
     <row r="16" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182">
+      <c r="A16" s="183">
         <v>4</v>
       </c>
       <c r="B16" s="22">
@@ -4436,7 +4544,7 @@
       <c r="BA16" s="19"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A17" s="183"/>
+      <c r="A17" s="184"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -4596,7 +4704,7 @@
       <c r="BA17" s="44"/>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18" s="183"/>
+      <c r="A18" s="184"/>
       <c r="B18" s="32">
         <v>3</v>
       </c>
@@ -4756,7 +4864,7 @@
       <c r="BA18" s="40"/>
     </row>
     <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="184"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="48" t="s">
         <v>35</v>
       </c>
@@ -4927,7 +5035,7 @@
       <c r="BA19" s="57"/>
     </row>
     <row r="20" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="182">
+      <c r="A20" s="183">
         <v>5</v>
       </c>
       <c r="B20" s="22">
@@ -5091,7 +5199,7 @@
       <c r="BA20" s="19"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" s="183"/>
+      <c r="A21" s="184"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
@@ -5251,7 +5359,7 @@
       <c r="BA21" s="44"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22" s="183"/>
+      <c r="A22" s="184"/>
       <c r="B22" s="32">
         <v>3</v>
       </c>
@@ -5411,7 +5519,7 @@
       <c r="BA22" s="40"/>
     </row>
     <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="184"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
@@ -5582,7 +5690,7 @@
       <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182">
+      <c r="A24" s="183">
         <v>6</v>
       </c>
       <c r="B24" s="22">
@@ -5748,7 +5856,7 @@
       <c r="BA24" s="19"/>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A25" s="183"/>
+      <c r="A25" s="184"/>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -5908,7 +6016,7 @@
       <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A26" s="183"/>
+      <c r="A26" s="184"/>
       <c r="B26" s="32">
         <v>3</v>
       </c>
@@ -6068,7 +6176,7 @@
       <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="184"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="48" t="s">
         <v>35</v>
       </c>
@@ -6239,7 +6347,7 @@
       <c r="BA27" s="57"/>
     </row>
     <row r="28" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="182">
+      <c r="A28" s="183">
         <v>7</v>
       </c>
       <c r="B28" s="22">
@@ -6401,7 +6509,7 @@
       <c r="BA28" s="19"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A29" s="183"/>
+      <c r="A29" s="184"/>
       <c r="B29" s="32">
         <v>2</v>
       </c>
@@ -6561,7 +6669,7 @@
       <c r="BA29" s="44"/>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A30" s="183"/>
+      <c r="A30" s="184"/>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -6721,7 +6829,7 @@
       <c r="BA30" s="40"/>
     </row>
     <row r="31" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="184"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="48" t="s">
         <v>35</v>
       </c>
@@ -6892,7 +7000,7 @@
       <c r="BA31" s="57"/>
     </row>
     <row r="32" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="182">
+      <c r="A32" s="183">
         <v>8</v>
       </c>
       <c r="B32" s="22">
@@ -7054,7 +7162,7 @@
       <c r="BA32" s="19"/>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A33" s="183"/>
+      <c r="A33" s="184"/>
       <c r="B33" s="32">
         <v>2</v>
       </c>
@@ -7214,7 +7322,7 @@
       <c r="BA33" s="44"/>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A34" s="183"/>
+      <c r="A34" s="184"/>
       <c r="B34" s="32">
         <v>3</v>
       </c>
@@ -7374,7 +7482,7 @@
       <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="184"/>
+      <c r="A35" s="185"/>
       <c r="B35" s="48" t="s">
         <v>35</v>
       </c>
@@ -7545,7 +7653,7 @@
       <c r="BA35" s="57"/>
     </row>
     <row r="36" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="182">
+      <c r="A36" s="183">
         <v>9</v>
       </c>
       <c r="B36" s="22">
@@ -7709,7 +7817,7 @@
       <c r="BA36" s="19"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A37" s="183"/>
+      <c r="A37" s="184"/>
       <c r="B37" s="32">
         <v>2</v>
       </c>
@@ -7869,7 +7977,7 @@
       <c r="BA37" s="44"/>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A38" s="183"/>
+      <c r="A38" s="184"/>
       <c r="B38" s="32">
         <v>3</v>
       </c>
@@ -8029,7 +8137,7 @@
       <c r="BA38" s="40"/>
     </row>
     <row r="39" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="184"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="48" t="s">
         <v>35</v>
       </c>
@@ -8200,7 +8308,7 @@
       <c r="BA39" s="57"/>
     </row>
     <row r="40" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="182">
+      <c r="A40" s="183">
         <v>10</v>
       </c>
       <c r="B40" s="22">
@@ -8364,7 +8472,7 @@
       <c r="BA40" s="19"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A41" s="183"/>
+      <c r="A41" s="184"/>
       <c r="B41" s="32">
         <v>2</v>
       </c>
@@ -8524,7 +8632,7 @@
       <c r="BA41" s="44"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A42" s="183"/>
+      <c r="A42" s="184"/>
       <c r="B42" s="32">
         <v>3</v>
       </c>
@@ -8684,7 +8792,7 @@
       <c r="BA42" s="40"/>
     </row>
     <row r="43" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="184"/>
+      <c r="A43" s="185"/>
       <c r="B43" s="48" t="s">
         <v>35</v>
       </c>
@@ -8855,7 +8963,7 @@
       <c r="BA43" s="57"/>
     </row>
     <row r="44" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="182">
+      <c r="A44" s="183">
         <v>11</v>
       </c>
       <c r="B44" s="22">
@@ -9019,7 +9127,7 @@
       <c r="BA44" s="19"/>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A45" s="183"/>
+      <c r="A45" s="184"/>
       <c r="B45" s="32">
         <v>2</v>
       </c>
@@ -9179,7 +9287,7 @@
       <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A46" s="183"/>
+      <c r="A46" s="184"/>
       <c r="B46" s="32">
         <v>3</v>
       </c>
@@ -9339,7 +9447,7 @@
       <c r="BA46" s="40"/>
     </row>
     <row r="47" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="184"/>
+      <c r="A47" s="185"/>
       <c r="B47" s="48" t="s">
         <v>35</v>
       </c>
@@ -9510,7 +9618,7 @@
       <c r="BA47" s="57"/>
     </row>
     <row r="48" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="182">
+      <c r="A48" s="183">
         <v>12</v>
       </c>
       <c r="B48" s="22">
@@ -9676,7 +9784,7 @@
       <c r="BA48" s="19"/>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A49" s="183"/>
+      <c r="A49" s="184"/>
       <c r="B49" s="32">
         <v>2</v>
       </c>
@@ -9836,7 +9944,7 @@
       <c r="BA49" s="44"/>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A50" s="183"/>
+      <c r="A50" s="184"/>
       <c r="B50" s="32">
         <v>3</v>
       </c>
@@ -9996,7 +10104,7 @@
       <c r="BA50" s="40"/>
     </row>
     <row r="51" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="184"/>
+      <c r="A51" s="185"/>
       <c r="B51" s="48" t="s">
         <v>35</v>
       </c>
@@ -10167,7 +10275,7 @@
       <c r="BA51" s="57"/>
     </row>
     <row r="52" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="182">
+      <c r="A52" s="183">
         <v>13</v>
       </c>
       <c r="B52" s="22">
@@ -10331,7 +10439,7 @@
       <c r="BA52" s="19"/>
     </row>
     <row r="53" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A53" s="183"/>
+      <c r="A53" s="184"/>
       <c r="B53" s="32">
         <v>2</v>
       </c>
@@ -10491,7 +10599,7 @@
       <c r="BA53" s="44"/>
     </row>
     <row r="54" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A54" s="183"/>
+      <c r="A54" s="184"/>
       <c r="B54" s="32">
         <v>3</v>
       </c>
@@ -10651,7 +10759,7 @@
       <c r="BA54" s="40"/>
     </row>
     <row r="55" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="184"/>
+      <c r="A55" s="185"/>
       <c r="B55" s="48" t="s">
         <v>35</v>
       </c>
@@ -10822,7 +10930,7 @@
       <c r="BA55" s="57"/>
     </row>
     <row r="56" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="182">
+      <c r="A56" s="183">
         <v>14</v>
       </c>
       <c r="B56" s="22">
@@ -10984,7 +11092,7 @@
       <c r="BA56" s="19"/>
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A57" s="183"/>
+      <c r="A57" s="184"/>
       <c r="B57" s="32">
         <v>2</v>
       </c>
@@ -11144,7 +11252,7 @@
       <c r="BA57" s="44"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A58" s="183"/>
+      <c r="A58" s="184"/>
       <c r="B58" s="32">
         <v>3</v>
       </c>
@@ -11304,7 +11412,7 @@
       <c r="BA58" s="40"/>
     </row>
     <row r="59" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="184"/>
+      <c r="A59" s="185"/>
       <c r="B59" s="48" t="s">
         <v>35</v>
       </c>
@@ -11475,7 +11583,7 @@
       <c r="BA59" s="57"/>
     </row>
     <row r="60" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="182">
+      <c r="A60" s="183">
         <v>15</v>
       </c>
       <c r="B60" s="22">
@@ -11637,7 +11745,7 @@
       <c r="BA60" s="19"/>
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A61" s="183"/>
+      <c r="A61" s="184"/>
       <c r="B61" s="32">
         <v>2</v>
       </c>
@@ -11797,7 +11905,7 @@
       <c r="BA61" s="44"/>
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A62" s="183"/>
+      <c r="A62" s="184"/>
       <c r="B62" s="32">
         <v>3</v>
       </c>
@@ -11957,7 +12065,7 @@
       <c r="BA62" s="40"/>
     </row>
     <row r="63" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="184"/>
+      <c r="A63" s="185"/>
       <c r="B63" s="48" t="s">
         <v>35</v>
       </c>
@@ -12128,7 +12236,7 @@
       <c r="BA63" s="57"/>
     </row>
     <row r="64" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="182">
+      <c r="A64" s="183">
         <v>16</v>
       </c>
       <c r="B64" s="22">
@@ -12292,7 +12400,7 @@
       <c r="BA64" s="19"/>
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A65" s="183"/>
+      <c r="A65" s="184"/>
       <c r="B65" s="32">
         <v>2</v>
       </c>
@@ -12452,7 +12560,7 @@
       <c r="BA65" s="44"/>
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A66" s="183"/>
+      <c r="A66" s="184"/>
       <c r="B66" s="32">
         <v>3</v>
       </c>
@@ -12612,7 +12720,7 @@
       <c r="BA66" s="40"/>
     </row>
     <row r="67" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="184"/>
+      <c r="A67" s="185"/>
       <c r="B67" s="48" t="s">
         <v>35</v>
       </c>
@@ -12783,7 +12891,7 @@
       <c r="BA67" s="57"/>
     </row>
     <row r="68" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="182">
+      <c r="A68" s="183">
         <v>17</v>
       </c>
       <c r="B68" s="22">
@@ -12947,7 +13055,7 @@
       <c r="BA68" s="19"/>
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A69" s="183"/>
+      <c r="A69" s="184"/>
       <c r="B69" s="32">
         <v>2</v>
       </c>
@@ -13107,7 +13215,7 @@
       <c r="BA69" s="44"/>
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A70" s="183"/>
+      <c r="A70" s="184"/>
       <c r="B70" s="32">
         <v>3</v>
       </c>
@@ -13267,7 +13375,7 @@
       <c r="BA70" s="40"/>
     </row>
     <row r="71" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="184"/>
+      <c r="A71" s="185"/>
       <c r="B71" s="48" t="s">
         <v>35</v>
       </c>
@@ -13438,7 +13546,7 @@
       <c r="BA71" s="57"/>
     </row>
     <row r="72" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="182">
+      <c r="A72" s="183">
         <v>18</v>
       </c>
       <c r="B72" s="22">
@@ -13604,7 +13712,7 @@
       <c r="BA72" s="19"/>
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A73" s="183"/>
+      <c r="A73" s="184"/>
       <c r="B73" s="32">
         <v>2</v>
       </c>
@@ -13764,7 +13872,7 @@
       <c r="BA73" s="44"/>
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A74" s="183"/>
+      <c r="A74" s="184"/>
       <c r="B74" s="32">
         <v>3</v>
       </c>
@@ -13924,7 +14032,7 @@
       <c r="BA74" s="40"/>
     </row>
     <row r="75" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="184"/>
+      <c r="A75" s="185"/>
       <c r="B75" s="48" t="s">
         <v>35</v>
       </c>
@@ -14095,7 +14203,7 @@
       <c r="BA75" s="57"/>
     </row>
     <row r="76" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="182">
+      <c r="A76" s="183">
         <v>19</v>
       </c>
       <c r="B76" s="22">
@@ -14259,7 +14367,7 @@
       <c r="BA76" s="175"/>
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A77" s="183"/>
+      <c r="A77" s="184"/>
       <c r="B77" s="32">
         <v>2</v>
       </c>
@@ -14419,7 +14527,7 @@
       <c r="BA77" s="176"/>
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A78" s="183"/>
+      <c r="A78" s="184"/>
       <c r="B78" s="32">
         <v>3</v>
       </c>
@@ -14579,7 +14687,7 @@
       <c r="BA78" s="177"/>
     </row>
     <row r="79" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="184"/>
+      <c r="A79" s="185"/>
       <c r="B79" s="48" t="s">
         <v>35</v>
       </c>
@@ -14750,7 +14858,7 @@
       <c r="BA79" s="179"/>
     </row>
     <row r="80" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="183">
+      <c r="A80" s="184">
         <v>20</v>
       </c>
       <c r="B80" s="32">
@@ -14916,7 +15024,7 @@
       <c r="BA80" s="168"/>
     </row>
     <row r="81" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A81" s="183"/>
+      <c r="A81" s="184"/>
       <c r="B81" s="32">
         <v>2</v>
       </c>
@@ -15076,7 +15184,7 @@
       <c r="BA81" s="44"/>
     </row>
     <row r="82" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A82" s="183"/>
+      <c r="A82" s="184"/>
       <c r="B82" s="32">
         <v>3</v>
       </c>
@@ -15236,7 +15344,7 @@
       <c r="BA82" s="40"/>
     </row>
     <row r="83" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="184"/>
+      <c r="A83" s="185"/>
       <c r="B83" s="48" t="s">
         <v>35</v>
       </c>
@@ -15407,7 +15515,7 @@
       <c r="BA83" s="57"/>
     </row>
     <row r="84" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="182">
+      <c r="A84" s="183">
         <v>21</v>
       </c>
       <c r="B84" s="22">
@@ -15569,7 +15677,7 @@
       <c r="BA84" s="19"/>
     </row>
     <row r="85" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A85" s="183"/>
+      <c r="A85" s="184"/>
       <c r="B85" s="32">
         <v>2</v>
       </c>
@@ -15729,7 +15837,7 @@
       <c r="BA85" s="44"/>
     </row>
     <row r="86" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A86" s="183"/>
+      <c r="A86" s="184"/>
       <c r="B86" s="32">
         <v>3</v>
       </c>
@@ -15889,7 +15997,7 @@
       <c r="BA86" s="40"/>
     </row>
     <row r="87" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="184"/>
+      <c r="A87" s="185"/>
       <c r="B87" s="48" t="s">
         <v>35</v>
       </c>
@@ -16060,7 +16168,7 @@
       <c r="BA87" s="57"/>
     </row>
     <row r="88" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="182">
+      <c r="A88" s="183">
         <v>22</v>
       </c>
       <c r="B88" s="22">
@@ -16222,7 +16330,7 @@
       <c r="BA88" s="19"/>
     </row>
     <row r="89" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A89" s="183"/>
+      <c r="A89" s="184"/>
       <c r="B89" s="32">
         <v>2</v>
       </c>
@@ -16382,7 +16490,7 @@
       <c r="BA89" s="44"/>
     </row>
     <row r="90" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A90" s="183"/>
+      <c r="A90" s="184"/>
       <c r="B90" s="32">
         <v>3</v>
       </c>
@@ -16542,7 +16650,7 @@
       <c r="BA90" s="40"/>
     </row>
     <row r="91" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="184"/>
+      <c r="A91" s="185"/>
       <c r="B91" s="48" t="s">
         <v>35</v>
       </c>
@@ -16713,7 +16821,7 @@
       <c r="BA91" s="57"/>
     </row>
     <row r="92" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="182">
+      <c r="A92" s="183">
         <v>23</v>
       </c>
       <c r="B92" s="22">
@@ -16877,7 +16985,7 @@
       <c r="BA92" s="19"/>
     </row>
     <row r="93" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A93" s="183"/>
+      <c r="A93" s="184"/>
       <c r="B93" s="32">
         <v>2</v>
       </c>
@@ -17037,7 +17145,7 @@
       <c r="BA93" s="44"/>
     </row>
     <row r="94" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A94" s="183"/>
+      <c r="A94" s="184"/>
       <c r="B94" s="32">
         <v>3</v>
       </c>
@@ -17197,7 +17305,7 @@
       <c r="BA94" s="40"/>
     </row>
     <row r="95" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="184"/>
+      <c r="A95" s="185"/>
       <c r="B95" s="48" t="s">
         <v>35</v>
       </c>
@@ -17368,7 +17476,7 @@
       <c r="BA95" s="57"/>
     </row>
     <row r="96" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="182">
+      <c r="A96" s="183">
         <v>24</v>
       </c>
       <c r="B96" s="22">
@@ -17534,7 +17642,7 @@
       <c r="BA96" s="19"/>
     </row>
     <row r="97" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A97" s="183"/>
+      <c r="A97" s="184"/>
       <c r="B97" s="32">
         <v>2</v>
       </c>
@@ -17694,7 +17802,7 @@
       <c r="BA97" s="44"/>
     </row>
     <row r="98" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A98" s="183"/>
+      <c r="A98" s="184"/>
       <c r="B98" s="32">
         <v>3</v>
       </c>
@@ -17854,7 +17962,7 @@
       <c r="BA98" s="40"/>
     </row>
     <row r="99" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="184"/>
+      <c r="A99" s="185"/>
       <c r="B99" s="48" t="s">
         <v>35</v>
       </c>
@@ -18022,7 +18130,7 @@
       <c r="BA99" s="57"/>
     </row>
     <row r="100" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="192">
+      <c r="A100" s="186">
         <v>25</v>
       </c>
       <c r="B100" s="32">
@@ -18188,7 +18296,7 @@
       <c r="BA100" s="19"/>
     </row>
     <row r="101" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A101" s="192"/>
+      <c r="A101" s="186"/>
       <c r="B101" s="32">
         <v>2</v>
       </c>
@@ -18348,7 +18456,7 @@
       <c r="BA101" s="44"/>
     </row>
     <row r="102" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A102" s="192"/>
+      <c r="A102" s="186"/>
       <c r="B102" s="32">
         <v>3</v>
       </c>
@@ -18508,7 +18616,7 @@
       <c r="BA102" s="40"/>
     </row>
     <row r="103" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="192"/>
+      <c r="A103" s="186"/>
       <c r="B103" s="65" t="s">
         <v>35</v>
       </c>
@@ -18679,7 +18787,7 @@
       <c r="BA103" s="57"/>
     </row>
     <row r="104" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="182">
+      <c r="A104" s="183">
         <v>26</v>
       </c>
       <c r="B104" s="22">
@@ -18845,7 +18953,7 @@
       <c r="BA104" s="19"/>
     </row>
     <row r="105" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A105" s="183"/>
+      <c r="A105" s="184"/>
       <c r="B105" s="32">
         <v>2</v>
       </c>
@@ -19005,7 +19113,7 @@
       <c r="BA105" s="44"/>
     </row>
     <row r="106" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A106" s="183"/>
+      <c r="A106" s="184"/>
       <c r="B106" s="32">
         <v>3</v>
       </c>
@@ -19165,7 +19273,7 @@
       <c r="BA106" s="40"/>
     </row>
     <row r="107" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="184"/>
+      <c r="A107" s="185"/>
       <c r="B107" s="48" t="s">
         <v>35</v>
       </c>
@@ -19336,7 +19444,7 @@
       <c r="BA107" s="57"/>
     </row>
     <row r="108" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="182">
+      <c r="A108" s="183">
         <v>27</v>
       </c>
       <c r="B108" s="22">
@@ -19502,7 +19610,7 @@
       <c r="BA108" s="19"/>
     </row>
     <row r="109" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A109" s="183"/>
+      <c r="A109" s="184"/>
       <c r="B109" s="32">
         <v>2</v>
       </c>
@@ -19662,7 +19770,7 @@
       <c r="BA109" s="44"/>
     </row>
     <row r="110" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A110" s="183"/>
+      <c r="A110" s="184"/>
       <c r="B110" s="32">
         <v>3</v>
       </c>
@@ -19822,7 +19930,7 @@
       <c r="BA110" s="40"/>
     </row>
     <row r="111" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="184"/>
+      <c r="A111" s="185"/>
       <c r="B111" s="48" t="s">
         <v>35</v>
       </c>
@@ -19993,7 +20101,7 @@
       <c r="BA111" s="57"/>
     </row>
     <row r="112" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="182">
+      <c r="A112" s="183">
         <v>28</v>
       </c>
       <c r="B112" s="22">
@@ -20155,7 +20263,7 @@
       <c r="BA112" s="19"/>
     </row>
     <row r="113" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A113" s="183"/>
+      <c r="A113" s="184"/>
       <c r="B113" s="32">
         <v>2</v>
       </c>
@@ -20315,7 +20423,7 @@
       <c r="BA113" s="44"/>
     </row>
     <row r="114" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A114" s="183"/>
+      <c r="A114" s="184"/>
       <c r="B114" s="32">
         <v>3</v>
       </c>
@@ -20475,7 +20583,7 @@
       <c r="BA114" s="40"/>
     </row>
     <row r="115" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="184"/>
+      <c r="A115" s="185"/>
       <c r="B115" s="48" t="s">
         <v>35</v>
       </c>
@@ -20646,7 +20754,7 @@
       <c r="BA115" s="57"/>
     </row>
     <row r="116" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="183">
+      <c r="A116" s="184">
         <v>29</v>
       </c>
       <c r="B116" s="32">
@@ -20808,7 +20916,7 @@
       <c r="BA116" s="19"/>
     </row>
     <row r="117" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A117" s="183"/>
+      <c r="A117" s="184"/>
       <c r="B117" s="32">
         <v>2</v>
       </c>
@@ -20968,7 +21076,7 @@
       <c r="BA117" s="44"/>
     </row>
     <row r="118" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A118" s="183"/>
+      <c r="A118" s="184"/>
       <c r="B118" s="32">
         <v>3</v>
       </c>
@@ -21128,7 +21236,7 @@
       <c r="BA118" s="40"/>
     </row>
     <row r="119" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="184"/>
+      <c r="A119" s="185"/>
       <c r="B119" s="48" t="s">
         <v>35</v>
       </c>
@@ -21299,7 +21407,7 @@
       <c r="BA119" s="57"/>
     </row>
     <row r="120" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="182">
+      <c r="A120" s="183">
         <v>30</v>
       </c>
       <c r="B120" s="22">
@@ -21465,7 +21573,7 @@
       <c r="BA120" s="19"/>
     </row>
     <row r="121" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A121" s="183"/>
+      <c r="A121" s="184"/>
       <c r="B121" s="32">
         <v>2</v>
       </c>
@@ -21625,7 +21733,7 @@
       <c r="BA121" s="44"/>
     </row>
     <row r="122" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A122" s="183"/>
+      <c r="A122" s="184"/>
       <c r="B122" s="32">
         <v>3</v>
       </c>
@@ -21785,7 +21893,7 @@
       <c r="BA122" s="40"/>
     </row>
     <row r="123" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="184"/>
+      <c r="A123" s="185"/>
       <c r="B123" s="48" t="s">
         <v>35</v>
       </c>
@@ -21956,7 +22064,7 @@
       <c r="BA123" s="57"/>
     </row>
     <row r="124" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="182">
+      <c r="A124" s="183">
         <v>31</v>
       </c>
       <c r="B124" s="22">
@@ -22066,7 +22174,7 @@
       <c r="BA124" s="19"/>
     </row>
     <row r="125" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A125" s="183"/>
+      <c r="A125" s="184"/>
       <c r="B125" s="32">
         <v>2</v>
       </c>
@@ -22174,7 +22282,7 @@
       <c r="BA125" s="44"/>
     </row>
     <row r="126" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A126" s="183"/>
+      <c r="A126" s="184"/>
       <c r="B126" s="32">
         <v>3</v>
       </c>
@@ -22282,7 +22390,7 @@
       <c r="BA126" s="40"/>
     </row>
     <row r="127" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="184"/>
+      <c r="A127" s="185"/>
       <c r="B127" s="48" t="s">
         <v>35</v>
       </c>
@@ -22675,6 +22783,26 @@
     <protectedRange sqref="AB1" name="Range1_1_1_1_1_1_1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="36">
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="A120:A123"/>
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A100:A103"/>
@@ -22691,26 +22819,6 @@
     <mergeCell ref="A68:A71"/>
     <mergeCell ref="A84:A87"/>
     <mergeCell ref="AX1:AY1"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22720,13 +22828,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:BA111"/>
+  <dimension ref="A1:BA128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E101" sqref="E101"/>
+      <selection pane="bottomRight" activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22788,13 +22896,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="187" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -22923,19 +23031,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="191" t="s">
+      <c r="AX1" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="191"/>
-      <c r="AZ1" s="191" t="s">
+      <c r="AY1" s="182"/>
+      <c r="AZ1" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="191"/>
+      <c r="BA1" s="182"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="186"/>
+      <c r="A2" s="192"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="188"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -23126,7 +23234,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="182">
+      <c r="A4" s="183">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -23290,7 +23398,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" s="183"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -23449,7 +23557,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="183"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -23608,7 +23716,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -23779,7 +23887,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="182">
+      <c r="A8" s="183">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -23943,7 +24051,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" s="183"/>
+      <c r="A9" s="184"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -24103,7 +24211,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" s="183"/>
+      <c r="A10" s="184"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -24263,7 +24371,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="184"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -24434,7 +24542,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182">
+      <c r="A12" s="183">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -24596,7 +24704,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" s="183"/>
+      <c r="A13" s="184"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -24756,7 +24864,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14" s="183"/>
+      <c r="A14" s="184"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -24916,7 +25024,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="184"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -25087,7 +25195,7 @@
       <c r="BA15" s="57"/>
     </row>
     <row r="16" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182">
+      <c r="A16" s="183">
         <v>4</v>
       </c>
       <c r="B16" s="22">
@@ -25249,7 +25357,7 @@
       <c r="BA16" s="19"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A17" s="183"/>
+      <c r="A17" s="184"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -25409,7 +25517,7 @@
       <c r="BA17" s="44"/>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18" s="183"/>
+      <c r="A18" s="184"/>
       <c r="B18" s="32">
         <v>3</v>
       </c>
@@ -25569,7 +25677,7 @@
       <c r="BA18" s="40"/>
     </row>
     <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="184"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="48" t="s">
         <v>35</v>
       </c>
@@ -25740,7 +25848,7 @@
       <c r="BA19" s="57"/>
     </row>
     <row r="20" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="182">
+      <c r="A20" s="183">
         <v>5</v>
       </c>
       <c r="B20" s="22">
@@ -25902,7 +26010,7 @@
       <c r="BA20" s="19"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" s="183"/>
+      <c r="A21" s="184"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
@@ -26062,7 +26170,7 @@
       <c r="BA21" s="44"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22" s="183"/>
+      <c r="A22" s="184"/>
       <c r="B22" s="32">
         <v>3</v>
       </c>
@@ -26222,7 +26330,7 @@
       <c r="BA22" s="40"/>
     </row>
     <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="184"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
@@ -26393,7 +26501,7 @@
       <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182">
+      <c r="A24" s="183">
         <v>6</v>
       </c>
       <c r="B24" s="22">
@@ -26555,7 +26663,7 @@
       <c r="BA24" s="19"/>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A25" s="183"/>
+      <c r="A25" s="184"/>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -26715,7 +26823,7 @@
       <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A26" s="183"/>
+      <c r="A26" s="184"/>
       <c r="B26" s="32">
         <v>3</v>
       </c>
@@ -26875,7 +26983,7 @@
       <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="184"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="48" t="s">
         <v>35</v>
       </c>
@@ -27046,7 +27154,7 @@
       <c r="BA27" s="57"/>
     </row>
     <row r="28" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="182">
+      <c r="A28" s="183">
         <v>7</v>
       </c>
       <c r="B28" s="22">
@@ -27210,7 +27318,7 @@
       <c r="BA28" s="19"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A29" s="183"/>
+      <c r="A29" s="184"/>
       <c r="B29" s="32">
         <v>2</v>
       </c>
@@ -27368,7 +27476,7 @@
       <c r="BA29" s="44"/>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A30" s="183"/>
+      <c r="A30" s="184"/>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -27526,7 +27634,7 @@
       <c r="BA30" s="40"/>
     </row>
     <row r="31" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="184"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="48" t="s">
         <v>35</v>
       </c>
@@ -27697,7 +27805,7 @@
       <c r="BA31" s="57"/>
     </row>
     <row r="32" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="182">
+      <c r="A32" s="183">
         <v>8</v>
       </c>
       <c r="B32" s="22">
@@ -27861,7 +27969,7 @@
       <c r="BA32" s="19"/>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A33" s="183"/>
+      <c r="A33" s="184"/>
       <c r="B33" s="32">
         <v>2</v>
       </c>
@@ -28021,7 +28129,7 @@
       <c r="BA33" s="44"/>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A34" s="183"/>
+      <c r="A34" s="184"/>
       <c r="B34" s="32">
         <v>3</v>
       </c>
@@ -28181,7 +28289,7 @@
       <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="184"/>
+      <c r="A35" s="185"/>
       <c r="B35" s="48" t="s">
         <v>35</v>
       </c>
@@ -28352,7 +28460,7 @@
       <c r="BA35" s="57"/>
     </row>
     <row r="36" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="182">
+      <c r="A36" s="183">
         <v>9</v>
       </c>
       <c r="B36" s="22">
@@ -28516,7 +28624,7 @@
       <c r="BA36" s="19"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A37" s="183"/>
+      <c r="A37" s="184"/>
       <c r="B37" s="32">
         <v>2</v>
       </c>
@@ -28676,7 +28784,7 @@
       <c r="BA37" s="44"/>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A38" s="183"/>
+      <c r="A38" s="184"/>
       <c r="B38" s="32">
         <v>3</v>
       </c>
@@ -28836,7 +28944,7 @@
       <c r="BA38" s="40"/>
     </row>
     <row r="39" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="184"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="48" t="s">
         <v>35</v>
       </c>
@@ -29007,7 +29115,7 @@
       <c r="BA39" s="57"/>
     </row>
     <row r="40" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="182">
+      <c r="A40" s="183">
         <v>10</v>
       </c>
       <c r="B40" s="22">
@@ -29171,7 +29279,7 @@
       <c r="BA40" s="19"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A41" s="183"/>
+      <c r="A41" s="184"/>
       <c r="B41" s="32">
         <v>2</v>
       </c>
@@ -29327,7 +29435,7 @@
       <c r="BA41" s="44"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A42" s="183"/>
+      <c r="A42" s="184"/>
       <c r="B42" s="32">
         <v>3</v>
       </c>
@@ -29475,7 +29583,7 @@
       <c r="BA42" s="40"/>
     </row>
     <row r="43" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="184"/>
+      <c r="A43" s="185"/>
       <c r="B43" s="48" t="s">
         <v>35</v>
       </c>
@@ -29646,7 +29754,7 @@
       <c r="BA43" s="57"/>
     </row>
     <row r="44" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="182">
+      <c r="A44" s="183">
         <v>11</v>
       </c>
       <c r="B44" s="22">
@@ -29808,7 +29916,7 @@
       <c r="BA44" s="19"/>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A45" s="183"/>
+      <c r="A45" s="184"/>
       <c r="B45" s="32">
         <v>2</v>
       </c>
@@ -29968,7 +30076,7 @@
       <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A46" s="183"/>
+      <c r="A46" s="184"/>
       <c r="B46" s="32">
         <v>3</v>
       </c>
@@ -30128,7 +30236,7 @@
       <c r="BA46" s="40"/>
     </row>
     <row r="47" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="184"/>
+      <c r="A47" s="185"/>
       <c r="B47" s="48" t="s">
         <v>35</v>
       </c>
@@ -30299,7 +30407,7 @@
       <c r="BA47" s="57"/>
     </row>
     <row r="48" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="182">
+      <c r="A48" s="183">
         <v>12</v>
       </c>
       <c r="B48" s="22">
@@ -30461,7 +30569,7 @@
       <c r="BA48" s="19"/>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A49" s="183"/>
+      <c r="A49" s="184"/>
       <c r="B49" s="32">
         <v>2</v>
       </c>
@@ -30621,7 +30729,7 @@
       <c r="BA49" s="44"/>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A50" s="183"/>
+      <c r="A50" s="184"/>
       <c r="B50" s="32">
         <v>3</v>
       </c>
@@ -30781,7 +30889,7 @@
       <c r="BA50" s="40"/>
     </row>
     <row r="51" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="184"/>
+      <c r="A51" s="185"/>
       <c r="B51" s="48" t="s">
         <v>35</v>
       </c>
@@ -31586,7 +31694,7 @@
       <c r="BA55" s="57"/>
     </row>
     <row r="56" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="182">
+      <c r="A56" s="183">
         <v>14</v>
       </c>
       <c r="B56" s="22">
@@ -31750,7 +31858,7 @@
       <c r="BA56" s="19"/>
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A57" s="183"/>
+      <c r="A57" s="184"/>
       <c r="B57" s="32">
         <v>2</v>
       </c>
@@ -31910,7 +32018,7 @@
       <c r="BA57" s="44"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A58" s="183"/>
+      <c r="A58" s="184"/>
       <c r="B58" s="32">
         <v>3</v>
       </c>
@@ -32070,7 +32178,7 @@
       <c r="BA58" s="40"/>
     </row>
     <row r="59" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="184"/>
+      <c r="A59" s="185"/>
       <c r="B59" s="48" t="s">
         <v>35</v>
       </c>
@@ -32241,7 +32349,7 @@
       <c r="BA59" s="57"/>
     </row>
     <row r="60" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="182">
+      <c r="A60" s="183">
         <v>15</v>
       </c>
       <c r="B60" s="22">
@@ -32405,7 +32513,7 @@
       <c r="BA60" s="19"/>
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A61" s="183"/>
+      <c r="A61" s="184"/>
       <c r="B61" s="32">
         <v>2</v>
       </c>
@@ -32565,7 +32673,7 @@
       <c r="BA61" s="44"/>
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A62" s="183"/>
+      <c r="A62" s="184"/>
       <c r="B62" s="32">
         <v>3</v>
       </c>
@@ -32725,7 +32833,7 @@
       <c r="BA62" s="40"/>
     </row>
     <row r="63" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="184"/>
+      <c r="A63" s="185"/>
       <c r="B63" s="48" t="s">
         <v>35</v>
       </c>
@@ -32896,7 +33004,7 @@
       <c r="BA63" s="57"/>
     </row>
     <row r="64" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="182">
+      <c r="A64" s="183">
         <v>16</v>
       </c>
       <c r="B64" s="22">
@@ -33062,7 +33170,7 @@
       <c r="BA64" s="19"/>
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A65" s="183"/>
+      <c r="A65" s="184"/>
       <c r="B65" s="32">
         <v>2</v>
       </c>
@@ -33222,7 +33330,7 @@
       <c r="BA65" s="44"/>
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A66" s="183"/>
+      <c r="A66" s="184"/>
       <c r="B66" s="32">
         <v>3</v>
       </c>
@@ -33382,7 +33490,7 @@
       <c r="BA66" s="40"/>
     </row>
     <row r="67" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="184"/>
+      <c r="A67" s="185"/>
       <c r="B67" s="48" t="s">
         <v>35</v>
       </c>
@@ -33553,7 +33661,7 @@
       <c r="BA67" s="57"/>
     </row>
     <row r="68" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="182">
+      <c r="A68" s="183">
         <v>17</v>
       </c>
       <c r="B68" s="22">
@@ -33675,7 +33783,7 @@
         <v>0.8939037251566434</v>
       </c>
       <c r="AK68" s="59">
-        <f t="shared" ref="AK68:AK111" si="680">IF(AND(AE68&gt;0,AN68&gt;0,AF68&gt;0),((AN68*(AE68-AF68))/(AE68*(AN68-AF68))),0)</f>
+        <f t="shared" ref="AK68:AK127" si="680">IF(AND(AE68&gt;0,AN68&gt;0,AF68&gt;0),((AN68*(AE68-AF68))/(AE68*(AN68-AF68))),0)</f>
         <v>0.8936788541004308</v>
       </c>
       <c r="AL68" s="11">
@@ -33717,7 +33825,7 @@
       <c r="BA68" s="19"/>
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A69" s="183"/>
+      <c r="A69" s="184"/>
       <c r="B69" s="32">
         <v>2</v>
       </c>
@@ -33877,7 +33985,7 @@
       <c r="BA69" s="44"/>
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A70" s="183"/>
+      <c r="A70" s="184"/>
       <c r="B70" s="32">
         <v>3</v>
       </c>
@@ -34037,7 +34145,7 @@
       <c r="BA70" s="40"/>
     </row>
     <row r="71" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="184"/>
+      <c r="A71" s="185"/>
       <c r="B71" s="48" t="s">
         <v>35</v>
       </c>
@@ -34208,7 +34316,7 @@
       <c r="BA71" s="57"/>
     </row>
     <row r="72" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="182">
+      <c r="A72" s="183">
         <v>18</v>
       </c>
       <c r="B72" s="22">
@@ -34372,7 +34480,7 @@
       <c r="BA72" s="19"/>
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A73" s="183"/>
+      <c r="A73" s="184"/>
       <c r="B73" s="32">
         <v>2</v>
       </c>
@@ -34532,7 +34640,7 @@
       <c r="BA73" s="44"/>
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A74" s="183"/>
+      <c r="A74" s="184"/>
       <c r="B74" s="32">
         <v>3</v>
       </c>
@@ -34692,7 +34800,7 @@
       <c r="BA74" s="40"/>
     </row>
     <row r="75" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="184"/>
+      <c r="A75" s="185"/>
       <c r="B75" s="48" t="s">
         <v>35</v>
       </c>
@@ -34863,7 +34971,7 @@
       <c r="BA75" s="57"/>
     </row>
     <row r="76" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="182">
+      <c r="A76" s="183">
         <v>19</v>
       </c>
       <c r="B76" s="22">
@@ -35025,7 +35133,7 @@
       <c r="BA76" s="19"/>
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A77" s="183"/>
+      <c r="A77" s="184"/>
       <c r="B77" s="32">
         <v>2</v>
       </c>
@@ -35185,7 +35293,7 @@
       <c r="BA77" s="44"/>
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A78" s="183"/>
+      <c r="A78" s="184"/>
       <c r="B78" s="32">
         <v>3</v>
       </c>
@@ -35345,7 +35453,7 @@
       <c r="BA78" s="40"/>
     </row>
     <row r="79" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="184"/>
+      <c r="A79" s="185"/>
       <c r="B79" s="48" t="s">
         <v>35</v>
       </c>
@@ -35516,7 +35624,7 @@
       <c r="BA79" s="57"/>
     </row>
     <row r="80" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="182">
+      <c r="A80" s="183">
         <v>20</v>
       </c>
       <c r="B80" s="22">
@@ -35678,7 +35786,7 @@
       <c r="BA80" s="19"/>
     </row>
     <row r="81" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A81" s="183"/>
+      <c r="A81" s="184"/>
       <c r="B81" s="32">
         <v>2</v>
       </c>
@@ -35838,7 +35946,7 @@
       <c r="BA81" s="44"/>
     </row>
     <row r="82" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A82" s="183"/>
+      <c r="A82" s="184"/>
       <c r="B82" s="32">
         <v>3</v>
       </c>
@@ -35998,7 +36106,7 @@
       <c r="BA82" s="40"/>
     </row>
     <row r="83" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="184"/>
+      <c r="A83" s="185"/>
       <c r="B83" s="48" t="s">
         <v>35</v>
       </c>
@@ -36169,7 +36277,7 @@
       <c r="BA83" s="57"/>
     </row>
     <row r="84" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="182">
+      <c r="A84" s="183">
         <v>21</v>
       </c>
       <c r="B84" s="22">
@@ -36333,7 +36441,7 @@
       <c r="BA84" s="19"/>
     </row>
     <row r="85" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A85" s="183"/>
+      <c r="A85" s="184"/>
       <c r="B85" s="32">
         <v>2</v>
       </c>
@@ -36493,7 +36601,7 @@
       <c r="BA85" s="44"/>
     </row>
     <row r="86" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A86" s="183"/>
+      <c r="A86" s="184"/>
       <c r="B86" s="32">
         <v>3</v>
       </c>
@@ -36653,7 +36761,7 @@
       <c r="BA86" s="40"/>
     </row>
     <row r="87" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="184"/>
+      <c r="A87" s="185"/>
       <c r="B87" s="48" t="s">
         <v>35</v>
       </c>
@@ -36824,7 +36932,7 @@
       <c r="BA87" s="57"/>
     </row>
     <row r="88" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="182">
+      <c r="A88" s="183">
         <v>22</v>
       </c>
       <c r="B88" s="22">
@@ -36988,7 +37096,7 @@
       <c r="BA88" s="19"/>
     </row>
     <row r="89" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A89" s="183"/>
+      <c r="A89" s="184"/>
       <c r="B89" s="32">
         <v>2</v>
       </c>
@@ -37148,7 +37256,7 @@
       <c r="BA89" s="44"/>
     </row>
     <row r="90" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A90" s="183"/>
+      <c r="A90" s="184"/>
       <c r="B90" s="32">
         <v>3</v>
       </c>
@@ -37308,7 +37416,7 @@
       <c r="BA90" s="40"/>
     </row>
     <row r="91" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="184"/>
+      <c r="A91" s="185"/>
       <c r="B91" s="48" t="s">
         <v>35</v>
       </c>
@@ -37479,7 +37587,7 @@
       <c r="BA91" s="57"/>
     </row>
     <row r="92" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="182">
+      <c r="A92" s="183">
         <v>23</v>
       </c>
       <c r="B92" s="22">
@@ -37643,7 +37751,7 @@
       <c r="BA92" s="19"/>
     </row>
     <row r="93" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A93" s="183"/>
+      <c r="A93" s="184"/>
       <c r="B93" s="32">
         <v>2</v>
       </c>
@@ -37801,7 +37909,7 @@
       <c r="BA93" s="44"/>
     </row>
     <row r="94" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A94" s="183"/>
+      <c r="A94" s="184"/>
       <c r="B94" s="32">
         <v>3</v>
       </c>
@@ -37955,7 +38063,7 @@
       <c r="BA94" s="40"/>
     </row>
     <row r="95" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="184"/>
+      <c r="A95" s="185"/>
       <c r="B95" s="48" t="s">
         <v>35</v>
       </c>
@@ -38126,7 +38234,7 @@
       <c r="BA95" s="57"/>
     </row>
     <row r="96" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="182">
+      <c r="A96" s="183">
         <v>24</v>
       </c>
       <c r="B96" s="22">
@@ -38290,7 +38398,7 @@
       <c r="BA96" s="19"/>
     </row>
     <row r="97" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A97" s="183"/>
+      <c r="A97" s="184"/>
       <c r="B97" s="32">
         <v>2</v>
       </c>
@@ -38450,7 +38558,7 @@
       <c r="BA97" s="44"/>
     </row>
     <row r="98" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A98" s="183"/>
+      <c r="A98" s="184"/>
       <c r="B98" s="32">
         <v>3</v>
       </c>
@@ -38610,7 +38718,7 @@
       <c r="BA98" s="40"/>
     </row>
     <row r="99" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="184"/>
+      <c r="A99" s="185"/>
       <c r="B99" s="48" t="s">
         <v>35</v>
       </c>
@@ -38781,7 +38889,7 @@
       <c r="BA99" s="57"/>
     </row>
     <row r="100" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="192">
+      <c r="A100" s="186">
         <v>25</v>
       </c>
       <c r="B100" s="32">
@@ -38945,7 +39053,7 @@
       <c r="BA100" s="19"/>
     </row>
     <row r="101" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A101" s="192"/>
+      <c r="A101" s="186"/>
       <c r="B101" s="32">
         <v>2</v>
       </c>
@@ -39105,7 +39213,7 @@
       <c r="BA101" s="44"/>
     </row>
     <row r="102" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A102" s="192"/>
+      <c r="A102" s="186"/>
       <c r="B102" s="32">
         <v>3</v>
       </c>
@@ -39265,7 +39373,7 @@
       <c r="BA102" s="40"/>
     </row>
     <row r="103" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="192"/>
+      <c r="A103" s="186"/>
       <c r="B103" s="65" t="s">
         <v>35</v>
       </c>
@@ -39436,7 +39544,7 @@
       <c r="BA103" s="57"/>
     </row>
     <row r="104" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="182">
+      <c r="A104" s="183">
         <v>26</v>
       </c>
       <c r="B104" s="22">
@@ -39598,7 +39706,7 @@
       <c r="BA104" s="19"/>
     </row>
     <row r="105" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A105" s="183"/>
+      <c r="A105" s="184"/>
       <c r="B105" s="32">
         <v>2</v>
       </c>
@@ -39758,7 +39866,7 @@
       <c r="BA105" s="44"/>
     </row>
     <row r="106" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A106" s="183"/>
+      <c r="A106" s="184"/>
       <c r="B106" s="32">
         <v>3</v>
       </c>
@@ -39918,7 +40026,7 @@
       <c r="BA106" s="40"/>
     </row>
     <row r="107" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="184"/>
+      <c r="A107" s="185"/>
       <c r="B107" s="48" t="s">
         <v>35</v>
       </c>
@@ -40089,7 +40197,7 @@
       <c r="BA107" s="57"/>
     </row>
     <row r="108" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="182">
+      <c r="A108" s="183">
         <v>27</v>
       </c>
       <c r="B108" s="22">
@@ -40251,7 +40359,7 @@
       <c r="BA108" s="19"/>
     </row>
     <row r="109" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A109" s="183"/>
+      <c r="A109" s="184"/>
       <c r="B109" s="32">
         <v>2</v>
       </c>
@@ -40407,7 +40515,7 @@
       <c r="BA109" s="44"/>
     </row>
     <row r="110" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A110" s="183"/>
+      <c r="A110" s="184"/>
       <c r="B110" s="32">
         <v>3</v>
       </c>
@@ -40557,7 +40665,7 @@
       <c r="BA110" s="40"/>
     </row>
     <row r="111" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="184"/>
+      <c r="A111" s="185"/>
       <c r="B111" s="48" t="s">
         <v>35</v>
       </c>
@@ -40727,10 +40835,2784 @@
       <c r="AZ111" s="57"/>
       <c r="BA111" s="57"/>
     </row>
+    <row r="112" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="183">
+        <v>28</v>
+      </c>
+      <c r="B112" s="22">
+        <v>1</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D112" s="11">
+        <v>5509</v>
+      </c>
+      <c r="E112" s="11">
+        <v>0</v>
+      </c>
+      <c r="F112" s="11">
+        <v>8470</v>
+      </c>
+      <c r="G112" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="H112" s="12">
+        <v>8</v>
+      </c>
+      <c r="I112" s="11">
+        <v>9099</v>
+      </c>
+      <c r="J112" s="12">
+        <v>4.7</v>
+      </c>
+      <c r="K112" s="11">
+        <v>16312</v>
+      </c>
+      <c r="L112" s="13">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="M112" s="23">
+        <f>ROUND(K112*(1-L112),0)</f>
+        <v>15399</v>
+      </c>
+      <c r="N112" s="14">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="O112" s="24">
+        <f t="shared" ref="O112:O114" si="1156">M112*N112</f>
+        <v>9362.5920000000006</v>
+      </c>
+      <c r="P112" s="13">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="Q112" s="24">
+        <f t="shared" ref="Q112:Q114" si="1157">M112*P112</f>
+        <v>4665.8969999999999</v>
+      </c>
+      <c r="R112" s="15">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="S112" s="143">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="T112" s="24">
+        <f t="shared" ref="T112:T114" si="1158">M112*R112</f>
+        <v>1370.511</v>
+      </c>
+      <c r="U112" s="25">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="V112" s="24">
+        <f t="shared" ref="V112:V114" si="1159">M112*U112</f>
+        <v>3757.3559999999998</v>
+      </c>
+      <c r="W112" s="15">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="X112" s="24">
+        <f t="shared" ref="X112:X114" si="1160">M112*W112</f>
+        <v>7453.116</v>
+      </c>
+      <c r="Y112" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="Z112" s="24">
+        <f t="shared" ref="Z112:Z114" si="1161">Y112*M112</f>
+        <v>6467.58</v>
+      </c>
+      <c r="AA112" s="145">
+        <v>2.49E-3</v>
+      </c>
+      <c r="AB112" s="18">
+        <f t="shared" ref="AB112:AB126" si="1162">M112*AA112</f>
+        <v>38.343510000000002</v>
+      </c>
+      <c r="AC112" s="16">
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="AD112" s="17">
+        <f t="shared" ref="AD112:AD114" si="1163">M112*AC112</f>
+        <v>39.883409999999998</v>
+      </c>
+      <c r="AE112" s="26">
+        <f>IF(M112&gt;0,(AG112+AP112)/M112,0)</f>
+        <v>2.7873487629066825E-3</v>
+      </c>
+      <c r="AF112" s="16">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="AG112" s="23">
+        <f t="shared" ref="AG112:AG114" si="1164">AF112*M112</f>
+        <v>3.8497500000000002</v>
+      </c>
+      <c r="AH112" s="114">
+        <v>0.2059</v>
+      </c>
+      <c r="AI112" s="29">
+        <f t="shared" ref="AI112:AI114" si="1165">AL112*(1-AM112)*AH112</f>
+        <v>34.1761056</v>
+      </c>
+      <c r="AJ112" s="27">
+        <f t="shared" ref="AJ112:AJ114" si="1166">IF(AND(AH112&gt;0,AF112&gt;0,AC112&gt;0),((AC112-AF112)*AH112)/((AH112-AF112)*AC112),0)</f>
+        <v>0.90457321967168791</v>
+      </c>
+      <c r="AK112" s="59">
+        <f t="shared" si="680"/>
+        <v>0.91127683124572234</v>
+      </c>
+      <c r="AL112" s="11">
+        <v>182</v>
+      </c>
+      <c r="AM112" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AN112" s="14">
+        <v>0.2354</v>
+      </c>
+      <c r="AO112" s="130">
+        <v>0.2316</v>
+      </c>
+      <c r="AP112" s="29">
+        <f>AL112*(1-AM112)*AN112</f>
+        <v>39.072633600000003</v>
+      </c>
+      <c r="AQ112" s="131">
+        <f t="shared" ref="AQ112:AQ126" si="1167">AL112*(1-AM112)*AO112</f>
+        <v>38.441894400000002</v>
+      </c>
+      <c r="AR112" s="18">
+        <v>1.55</v>
+      </c>
+      <c r="AS112" s="18">
+        <v>903.92</v>
+      </c>
+      <c r="AT112" s="98" t="e">
+        <f>AT110+AL112-AS112</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AU112" s="99"/>
+      <c r="AV112" s="11"/>
+      <c r="AW112" s="30"/>
+      <c r="AX112" s="19"/>
+      <c r="AY112" s="19"/>
+      <c r="AZ112" s="19"/>
+      <c r="BA112" s="19"/>
+    </row>
+    <row r="113" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A113" s="184"/>
+      <c r="B113" s="32">
+        <v>2</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" s="33">
+        <v>20600</v>
+      </c>
+      <c r="E113" s="33">
+        <v>3</v>
+      </c>
+      <c r="F113" s="33">
+        <v>20197</v>
+      </c>
+      <c r="G113" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="H113" s="34">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I113" s="33">
+        <v>18675</v>
+      </c>
+      <c r="J113" s="34">
+        <v>2.9</v>
+      </c>
+      <c r="K113" s="33">
+        <v>16211</v>
+      </c>
+      <c r="L113" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M113" s="36">
+        <f>ROUND(K113*(1-L113),0)</f>
+        <v>15400</v>
+      </c>
+      <c r="N113" s="37">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="O113" s="24">
+        <f t="shared" si="1156"/>
+        <v>10225.6</v>
+      </c>
+      <c r="P113" s="35">
+        <v>0.251</v>
+      </c>
+      <c r="Q113" s="24">
+        <f t="shared" si="1157"/>
+        <v>3865.4</v>
+      </c>
+      <c r="R113" s="38">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S113" s="134">
+        <v>0.23319999999999999</v>
+      </c>
+      <c r="T113" s="24">
+        <f t="shared" si="1158"/>
+        <v>1309</v>
+      </c>
+      <c r="U113" s="27">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="V113" s="24">
+        <f t="shared" si="1159"/>
+        <v>3649.7999999999997</v>
+      </c>
+      <c r="W113" s="38">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="X113" s="24">
+        <f t="shared" si="1160"/>
+        <v>7823.2</v>
+      </c>
+      <c r="Y113" s="38">
+        <v>0.43</v>
+      </c>
+      <c r="Z113" s="24">
+        <f t="shared" si="1161"/>
+        <v>6622</v>
+      </c>
+      <c r="AA113" s="146">
+        <v>2.49E-3</v>
+      </c>
+      <c r="AB113" s="18">
+        <f t="shared" si="1162"/>
+        <v>38.346000000000004</v>
+      </c>
+      <c r="AC113" s="39">
+        <v>2.65E-3</v>
+      </c>
+      <c r="AD113" s="17">
+        <f t="shared" si="1163"/>
+        <v>40.81</v>
+      </c>
+      <c r="AE113" s="26">
+        <f>IF(M113&gt;0,(AG113+AP113)/M113,0)</f>
+        <v>2.4682661298701301E-3</v>
+      </c>
+      <c r="AF113" s="39">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="AG113" s="36">
+        <f t="shared" si="1164"/>
+        <v>3.85</v>
+      </c>
+      <c r="AH113" s="27">
+        <v>0.20810000000000001</v>
+      </c>
+      <c r="AI113" s="40">
+        <f t="shared" si="1165"/>
+        <v>32.714984800000003</v>
+      </c>
+      <c r="AJ113" s="27">
+        <f t="shared" si="1166"/>
+        <v>0.9067496970329656</v>
+      </c>
+      <c r="AK113" s="28">
+        <f t="shared" si="680"/>
+        <v>0.89974947207726386</v>
+      </c>
+      <c r="AL113" s="33">
+        <v>172</v>
+      </c>
+      <c r="AM113" s="35">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AN113" s="37">
+        <v>0.21729999999999999</v>
+      </c>
+      <c r="AO113" s="132">
+        <v>0.216</v>
+      </c>
+      <c r="AP113" s="40">
+        <f>AL113*(1-AM113)*AN113</f>
+        <v>34.1612984</v>
+      </c>
+      <c r="AQ113" s="133">
+        <f t="shared" si="1167"/>
+        <v>33.956927999999998</v>
+      </c>
+      <c r="AR113" s="41">
+        <v>1.55</v>
+      </c>
+      <c r="AS113" s="41"/>
+      <c r="AT113" s="117" t="e">
+        <f>AT112+AL113-AS113</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AU113" s="101"/>
+      <c r="AV113" s="42"/>
+      <c r="AW113" s="43"/>
+      <c r="AX113" s="44"/>
+      <c r="AY113" s="44"/>
+      <c r="AZ113" s="44"/>
+      <c r="BA113" s="44"/>
+    </row>
+    <row r="114" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A114" s="184"/>
+      <c r="B114" s="32">
+        <v>3</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D114" s="42">
+        <v>20991</v>
+      </c>
+      <c r="E114" s="42">
+        <v>0</v>
+      </c>
+      <c r="F114" s="42">
+        <v>18133</v>
+      </c>
+      <c r="G114" s="36">
+        <v>1</v>
+      </c>
+      <c r="H114" s="36">
+        <v>7.1</v>
+      </c>
+      <c r="I114" s="42">
+        <v>18052</v>
+      </c>
+      <c r="J114" s="36">
+        <v>2</v>
+      </c>
+      <c r="K114" s="42">
+        <v>16300</v>
+      </c>
+      <c r="L114" s="38">
+        <v>6.3E-2</v>
+      </c>
+      <c r="M114" s="36">
+        <f>ROUND(K114*(1-L114),0)</f>
+        <v>15273</v>
+      </c>
+      <c r="N114" s="27">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="O114" s="24">
+        <f t="shared" si="1156"/>
+        <v>9820.5390000000007</v>
+      </c>
+      <c r="P114" s="38">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="Q114" s="24">
+        <f t="shared" si="1157"/>
+        <v>4062.6180000000004</v>
+      </c>
+      <c r="R114" s="38">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="S114" s="134">
+        <v>0.21179999999999999</v>
+      </c>
+      <c r="T114" s="24">
+        <f t="shared" si="1158"/>
+        <v>1389.8430000000001</v>
+      </c>
+      <c r="U114" s="27">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="V114" s="24">
+        <f t="shared" si="1159"/>
+        <v>3680.7929999999997</v>
+      </c>
+      <c r="W114" s="38">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="X114" s="24">
+        <f t="shared" si="1160"/>
+        <v>7254.6749999999993</v>
+      </c>
+      <c r="Y114" s="38">
+        <v>0.43</v>
+      </c>
+      <c r="Z114" s="24">
+        <f t="shared" si="1161"/>
+        <v>6567.39</v>
+      </c>
+      <c r="AA114" s="147">
+        <v>2.5699999999999998E-3</v>
+      </c>
+      <c r="AB114" s="148">
+        <f t="shared" si="1162"/>
+        <v>39.251609999999999</v>
+      </c>
+      <c r="AC114" s="46">
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="AD114" s="17">
+        <f t="shared" si="1163"/>
+        <v>41.389830000000003</v>
+      </c>
+      <c r="AE114" s="26">
+        <f>IF(M114&gt;0,(AG114+AP114)/M114,0)</f>
+        <v>2.6124163949453288E-3</v>
+      </c>
+      <c r="AF114" s="46">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="AG114" s="36">
+        <f t="shared" si="1164"/>
+        <v>3.8182499999999999</v>
+      </c>
+      <c r="AH114" s="27">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="AI114" s="40">
+        <f t="shared" si="1165"/>
+        <v>37.377107200000005</v>
+      </c>
+      <c r="AJ114" s="27">
+        <f t="shared" si="1166"/>
+        <v>0.90878555736916122</v>
+      </c>
+      <c r="AK114" s="28">
+        <f t="shared" si="680"/>
+        <v>0.90537283250821354</v>
+      </c>
+      <c r="AL114" s="42">
+        <v>188</v>
+      </c>
+      <c r="AM114" s="38">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AN114" s="27">
+        <v>0.21160000000000001</v>
+      </c>
+      <c r="AO114" s="134">
+        <v>0.20530000000000001</v>
+      </c>
+      <c r="AP114" s="40">
+        <f>AL114*(1-AM114)*AN114</f>
+        <v>36.081185600000005</v>
+      </c>
+      <c r="AQ114" s="135">
+        <f t="shared" si="1167"/>
+        <v>35.006934800000003</v>
+      </c>
+      <c r="AR114" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="AS114" s="17"/>
+      <c r="AT114" s="117" t="e">
+        <f>AT113+AL114-AS114</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AU114" s="101"/>
+      <c r="AV114" s="42"/>
+      <c r="AW114" s="47"/>
+      <c r="AX114" s="40"/>
+      <c r="AY114" s="40"/>
+      <c r="AZ114" s="40"/>
+      <c r="BA114" s="40"/>
+    </row>
+    <row r="115" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="185"/>
+      <c r="B115" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C115" s="49"/>
+      <c r="D115" s="50">
+        <f t="shared" ref="D115" si="1168">SUM(D112:D114)</f>
+        <v>47100</v>
+      </c>
+      <c r="E115" s="50"/>
+      <c r="F115" s="50">
+        <f t="shared" ref="F115" si="1169">SUM(F112:F114)</f>
+        <v>46800</v>
+      </c>
+      <c r="G115" s="51"/>
+      <c r="H115" s="51"/>
+      <c r="I115" s="50">
+        <f t="shared" ref="I115:K115" si="1170">SUM(I112:I114)</f>
+        <v>45826</v>
+      </c>
+      <c r="J115" s="51"/>
+      <c r="K115" s="50">
+        <f t="shared" si="1170"/>
+        <v>48823</v>
+      </c>
+      <c r="L115" s="20">
+        <f t="shared" ref="L115" si="1171">IF(K115&gt;0,(K112*L112+K113*L113+K114*L114)/K115,0)</f>
+        <v>5.6344796509841671E-2</v>
+      </c>
+      <c r="M115" s="51">
+        <f t="shared" ref="M115" si="1172">M112+M113+M114</f>
+        <v>46072</v>
+      </c>
+      <c r="N115" s="52">
+        <f t="shared" ref="N115" si="1173">IF(M115&gt;0,O115/M115,0)</f>
+        <v>0.6383211277999653</v>
+      </c>
+      <c r="O115" s="53">
+        <f t="shared" ref="O115" si="1174">O112+O113+O114</f>
+        <v>29408.731000000003</v>
+      </c>
+      <c r="P115" s="20">
+        <f t="shared" ref="P115" si="1175">IF(M115&gt;0,Q115/M115,0)</f>
+        <v>0.27335290415002605</v>
+      </c>
+      <c r="Q115" s="53">
+        <f t="shared" ref="Q115" si="1176">Q112+Q113+Q114</f>
+        <v>12593.915000000001</v>
+      </c>
+      <c r="R115" s="20">
+        <f t="shared" ref="R115" si="1177">IF(M115&gt;0,T115/M115,0)</f>
+        <v>8.8325968050008682E-2</v>
+      </c>
+      <c r="S115" s="136"/>
+      <c r="T115" s="53">
+        <f t="shared" ref="T115" si="1178">T112+T113+T114</f>
+        <v>4069.3540000000003</v>
+      </c>
+      <c r="U115" s="20">
+        <f t="shared" ref="U115" si="1179">IF(M115&gt;0,V115/M115,0)</f>
+        <v>0.24066567546449033</v>
+      </c>
+      <c r="V115" s="53">
+        <f t="shared" ref="V115" si="1180">V112+V113+V114</f>
+        <v>11087.948999999999</v>
+      </c>
+      <c r="W115" s="20">
+        <f t="shared" ref="W115" si="1181">IF(M115&gt;0,X115/M115,0)</f>
+        <v>0.48903870029519009</v>
+      </c>
+      <c r="X115" s="53">
+        <f t="shared" ref="X115" si="1182">X112+X113+X114</f>
+        <v>22530.990999999998</v>
+      </c>
+      <c r="Y115" s="20">
+        <f t="shared" ref="Y115" si="1183">IF(M115&gt;0,Z115/M115,0)</f>
+        <v>0.42665762285118947</v>
+      </c>
+      <c r="Z115" s="53">
+        <f t="shared" ref="Z115" si="1184">Z112+Z113+Z114</f>
+        <v>19656.97</v>
+      </c>
+      <c r="AA115" s="152">
+        <f t="shared" ref="AA115" si="1185">IF(M115&gt;0,AB115/M115,0)</f>
+        <v>2.5165202292064598E-3</v>
+      </c>
+      <c r="AB115" s="55">
+        <f t="shared" ref="AB115" si="1186">SUM(AB112:AB114)</f>
+        <v>115.94112000000001</v>
+      </c>
+      <c r="AC115" s="54">
+        <f t="shared" ref="AC115" si="1187">IF(M115&gt;0,AD115/M115,0)</f>
+        <v>2.6498359090119813E-3</v>
+      </c>
+      <c r="AD115" s="55">
+        <f t="shared" ref="AD115" si="1188">SUM(AD112:AD114)</f>
+        <v>122.08324</v>
+      </c>
+      <c r="AE115" s="54">
+        <f t="shared" ref="AE115" si="1189">IF(M115&gt;0,(AE112*M112+AE113*M113+AE114*M114)/M115,0)</f>
+        <v>2.6227018058690749E-3</v>
+      </c>
+      <c r="AF115" s="54">
+        <f t="shared" ref="AF115" si="1190">IF(K115&gt;0,(K112*AF112+K113*AF113+K114*AF114)/K115,0)</f>
+        <v>2.5000000000000006E-4</v>
+      </c>
+      <c r="AG115" s="51">
+        <f t="shared" ref="AG115" si="1191">SUM(AG112:AG114)</f>
+        <v>11.518000000000001</v>
+      </c>
+      <c r="AH115" s="52">
+        <f t="shared" ref="AH115" si="1192">IF(K115&gt;0,(K112*AH112+K113*AH113+K114*AH114)/K115,0)</f>
+        <v>0.21107080474366588</v>
+      </c>
+      <c r="AI115" s="57">
+        <f t="shared" ref="AI115" si="1193">SUM(AI112:AI114)</f>
+        <v>104.26819760000001</v>
+      </c>
+      <c r="AJ115" s="52">
+        <f t="shared" ref="AJ115" si="1194">IF(AND(AD115&gt;0),((AD112*AJ112+AD113*AJ113+AD114*AJ114)/AD115),0)</f>
+        <v>0.90672887987791073</v>
+      </c>
+      <c r="AK115" s="56">
+        <f t="shared" si="680"/>
+        <v>0.90570094345197949</v>
+      </c>
+      <c r="AL115" s="50">
+        <f t="shared" ref="AL115" si="1195">SUM(AL112:AL114)</f>
+        <v>542</v>
+      </c>
+      <c r="AM115" s="20">
+        <f t="shared" ref="AM115" si="1196">IF(AL115&gt;0,(AM112*AL112+AM113*AL113+AM114*AL114)/AL115,0)</f>
+        <v>8.909963099630995E-2</v>
+      </c>
+      <c r="AN115" s="52">
+        <f>IF(K115&gt;0,(AN112*K112+AN113*K113+AN114*K114)/K115,0)</f>
+        <v>0.22144430084181635</v>
+      </c>
+      <c r="AO115" s="136">
+        <f>IF(L115&gt;0,(AO112*K112+AO113*K113+AO114*K114)/K115,0)</f>
+        <v>0.21763974356348442</v>
+      </c>
+      <c r="AP115" s="57">
+        <f t="shared" ref="AP115" si="1197">SUM(AP112:AP114)</f>
+        <v>109.31511760000001</v>
+      </c>
+      <c r="AQ115" s="137">
+        <f t="shared" ref="AQ115:AQ123" si="1198">SUM(AQ112:AQ114)</f>
+        <v>107.40575720000001</v>
+      </c>
+      <c r="AR115" s="55"/>
+      <c r="AS115" s="55">
+        <f t="shared" ref="AS115" si="1199">SUM(AS112:AS114)</f>
+        <v>903.92</v>
+      </c>
+      <c r="AT115" s="102"/>
+      <c r="AU115" s="103" t="e">
+        <f>AT114</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AV115" s="50">
+        <f t="shared" ref="AV115" si="1200">SUM(AV112:AV114)</f>
+        <v>0</v>
+      </c>
+      <c r="AW115" s="58"/>
+      <c r="AX115" s="57"/>
+      <c r="AY115" s="57"/>
+      <c r="AZ115" s="57"/>
+      <c r="BA115" s="57"/>
+    </row>
+    <row r="116" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="184">
+        <v>29</v>
+      </c>
+      <c r="B116" s="32">
+        <v>1</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D116" s="11">
+        <v>3222</v>
+      </c>
+      <c r="E116" s="11">
+        <v>1</v>
+      </c>
+      <c r="F116" s="11">
+        <v>11147</v>
+      </c>
+      <c r="G116" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="H116" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="I116" s="11">
+        <v>11230</v>
+      </c>
+      <c r="J116" s="12">
+        <v>3.6</v>
+      </c>
+      <c r="K116" s="11">
+        <v>15970</v>
+      </c>
+      <c r="L116" s="13">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="M116" s="23">
+        <f>ROUND(K116*(1-L116),0)</f>
+        <v>15060</v>
+      </c>
+      <c r="N116" s="14">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="O116" s="24">
+        <f t="shared" ref="O116:O118" si="1201">M116*N116</f>
+        <v>9879.36</v>
+      </c>
+      <c r="P116" s="13">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="Q116" s="24">
+        <f t="shared" ref="Q116:Q118" si="1202">M116*P116</f>
+        <v>3448.7400000000002</v>
+      </c>
+      <c r="R116" s="15">
+        <v>0.115</v>
+      </c>
+      <c r="S116" s="143">
+        <v>0.21390000000000001</v>
+      </c>
+      <c r="T116" s="24">
+        <f t="shared" ref="T116:T118" si="1203">M116*R116</f>
+        <v>1731.9</v>
+      </c>
+      <c r="U116" s="25">
+        <v>0.247</v>
+      </c>
+      <c r="V116" s="24">
+        <f t="shared" ref="V116:V118" si="1204">M116*U116</f>
+        <v>3719.82</v>
+      </c>
+      <c r="W116" s="15">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="X116" s="24">
+        <f t="shared" ref="X116:X118" si="1205">M116*W116</f>
+        <v>7017.96</v>
+      </c>
+      <c r="Y116" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="Z116" s="24">
+        <f t="shared" ref="Z116:Z118" si="1206">Y116*M116</f>
+        <v>6325.2</v>
+      </c>
+      <c r="AA116" s="145">
+        <v>2.49E-3</v>
+      </c>
+      <c r="AB116" s="18">
+        <f t="shared" ref="AB116" si="1207">M116*AA116</f>
+        <v>37.499400000000001</v>
+      </c>
+      <c r="AC116" s="16">
+        <v>2.6199999999999999E-3</v>
+      </c>
+      <c r="AD116" s="17">
+        <f t="shared" ref="AD116:AD118" si="1208">M116*AC116</f>
+        <v>39.4572</v>
+      </c>
+      <c r="AE116" s="26">
+        <f>IF(M116&gt;0,(AG116+AP116)/M116,0)</f>
+        <v>2.1461634860557772E-3</v>
+      </c>
+      <c r="AF116" s="16">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="AG116" s="23">
+        <f t="shared" ref="AG116:AG118" si="1209">AF116*M116</f>
+        <v>3.6144000000000003</v>
+      </c>
+      <c r="AH116" s="114">
+        <v>0.21479999999999999</v>
+      </c>
+      <c r="AI116" s="29">
+        <f t="shared" ref="AI116:AI118" si="1210">AL116*(1-AM116)*AH116</f>
+        <v>27.080480399999999</v>
+      </c>
+      <c r="AJ116" s="27">
+        <f t="shared" ref="AJ116:AJ118" si="1211">IF(AND(AH116&gt;0,AF116&gt;0,AC116&gt;0),((AC116-AF116)*AH116)/((AH116-AF116)*AC116),0)</f>
+        <v>0.90941305053196009</v>
+      </c>
+      <c r="AK116" s="59">
+        <f t="shared" si="680"/>
+        <v>0.88910968331344109</v>
+      </c>
+      <c r="AL116" s="11">
+        <v>139</v>
+      </c>
+      <c r="AM116" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AN116" s="14">
+        <v>0.22770000000000001</v>
+      </c>
+      <c r="AO116" s="130">
+        <v>0.2238</v>
+      </c>
+      <c r="AP116" s="29">
+        <f>AL116*(1-AM116)*AN116</f>
+        <v>28.706822100000004</v>
+      </c>
+      <c r="AQ116" s="131">
+        <f t="shared" ref="AQ116" si="1212">AL116*(1-AM116)*AO116</f>
+        <v>28.215137400000003</v>
+      </c>
+      <c r="AR116" s="18">
+        <v>1.7</v>
+      </c>
+      <c r="AS116" s="18">
+        <v>454.22</v>
+      </c>
+      <c r="AT116" s="98" t="e">
+        <f>AT114+AL116-AS116</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AU116" s="116"/>
+      <c r="AV116" s="11"/>
+      <c r="AW116" s="30"/>
+      <c r="AX116" s="19"/>
+      <c r="AY116" s="19"/>
+      <c r="AZ116" s="19"/>
+      <c r="BA116" s="19"/>
+    </row>
+    <row r="117" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A117" s="184"/>
+      <c r="B117" s="32">
+        <v>2</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D117" s="33">
+        <v>21200</v>
+      </c>
+      <c r="E117" s="33">
+        <v>3</v>
+      </c>
+      <c r="F117" s="33">
+        <v>15876</v>
+      </c>
+      <c r="G117" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="H117" s="34">
+        <v>7</v>
+      </c>
+      <c r="I117" s="33">
+        <v>15350</v>
+      </c>
+      <c r="J117" s="34">
+        <v>3.3</v>
+      </c>
+      <c r="K117" s="33">
+        <v>15819</v>
+      </c>
+      <c r="L117" s="35">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="M117" s="36">
+        <f>ROUND(K117*(1-L117),0)</f>
+        <v>14933</v>
+      </c>
+      <c r="N117" s="37">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="O117" s="24">
+        <f t="shared" si="1201"/>
+        <v>9616.8520000000008</v>
+      </c>
+      <c r="P117" s="35">
+        <v>0.309</v>
+      </c>
+      <c r="Q117" s="24">
+        <f t="shared" si="1202"/>
+        <v>4614.2969999999996</v>
+      </c>
+      <c r="R117" s="38">
+        <v>4.7E-2</v>
+      </c>
+      <c r="S117" s="134">
+        <v>0.21160000000000001</v>
+      </c>
+      <c r="T117" s="24">
+        <f t="shared" si="1203"/>
+        <v>701.851</v>
+      </c>
+      <c r="U117" s="27">
+        <v>0.23</v>
+      </c>
+      <c r="V117" s="24">
+        <f t="shared" si="1204"/>
+        <v>3434.59</v>
+      </c>
+      <c r="W117" s="38">
+        <v>0.497</v>
+      </c>
+      <c r="X117" s="24">
+        <f t="shared" si="1205"/>
+        <v>7421.701</v>
+      </c>
+      <c r="Y117" s="38">
+        <v>0.43</v>
+      </c>
+      <c r="Z117" s="24">
+        <f t="shared" si="1206"/>
+        <v>6421.19</v>
+      </c>
+      <c r="AA117" s="146">
+        <v>2.48E-3</v>
+      </c>
+      <c r="AB117" s="18">
+        <f t="shared" si="1162"/>
+        <v>37.033839999999998</v>
+      </c>
+      <c r="AC117" s="39">
+        <v>2.5300000000000001E-3</v>
+      </c>
+      <c r="AD117" s="17">
+        <f t="shared" si="1208"/>
+        <v>37.78049</v>
+      </c>
+      <c r="AE117" s="26">
+        <f>IF(M117&gt;0,(AG117+AP117)/M117,0)</f>
+        <v>2.8054821937989684E-3</v>
+      </c>
+      <c r="AF117" s="39">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="AG117" s="36">
+        <f t="shared" si="1209"/>
+        <v>3.58392</v>
+      </c>
+      <c r="AH117" s="27">
+        <v>0.21310000000000001</v>
+      </c>
+      <c r="AI117" s="40">
+        <f t="shared" si="1210"/>
+        <v>35.2501496</v>
+      </c>
+      <c r="AJ117" s="27">
+        <f t="shared" si="1211"/>
+        <v>0.90615888488750418</v>
+      </c>
+      <c r="AK117" s="28">
+        <f t="shared" si="680"/>
+        <v>0.91540181151681621</v>
+      </c>
+      <c r="AL117" s="33">
+        <v>184</v>
+      </c>
+      <c r="AM117" s="35">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="AN117" s="37">
+        <v>0.2316</v>
+      </c>
+      <c r="AO117" s="132">
+        <v>0.22189999999999999</v>
+      </c>
+      <c r="AP117" s="40">
+        <f>AL117*(1-AM117)*AN117</f>
+        <v>38.310345599999998</v>
+      </c>
+      <c r="AQ117" s="133">
+        <f t="shared" si="1167"/>
+        <v>36.705810399999997</v>
+      </c>
+      <c r="AR117" s="41">
+        <v>1.55</v>
+      </c>
+      <c r="AS117" s="41"/>
+      <c r="AT117" s="117" t="e">
+        <f>AT116+AL117-AS117</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AU117" s="101"/>
+      <c r="AV117" s="42"/>
+      <c r="AW117" s="43"/>
+      <c r="AX117" s="44"/>
+      <c r="AY117" s="44"/>
+      <c r="AZ117" s="44"/>
+      <c r="BA117" s="44"/>
+    </row>
+    <row r="118" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A118" s="184"/>
+      <c r="B118" s="32">
+        <v>3</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D118" s="42">
+        <v>18300</v>
+      </c>
+      <c r="E118" s="42">
+        <v>0</v>
+      </c>
+      <c r="F118" s="42">
+        <v>19122</v>
+      </c>
+      <c r="G118" s="36">
+        <v>1.4</v>
+      </c>
+      <c r="H118" s="36">
+        <v>10.4</v>
+      </c>
+      <c r="I118" s="42">
+        <v>18612</v>
+      </c>
+      <c r="J118" s="36">
+        <v>2</v>
+      </c>
+      <c r="K118" s="42">
+        <v>16141</v>
+      </c>
+      <c r="L118" s="38">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="M118" s="36">
+        <f>ROUND(K118*(1-L118),0)</f>
+        <v>15269</v>
+      </c>
+      <c r="N118" s="27">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="O118" s="24">
+        <f t="shared" si="1201"/>
+        <v>10367.651</v>
+      </c>
+      <c r="P118" s="38">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="Q118" s="24">
+        <f t="shared" si="1202"/>
+        <v>4412.741</v>
+      </c>
+      <c r="R118" s="38">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="S118" s="134">
+        <v>0.21560000000000001</v>
+      </c>
+      <c r="T118" s="24">
+        <f t="shared" si="1203"/>
+        <v>488.608</v>
+      </c>
+      <c r="U118" s="27">
+        <v>0.24</v>
+      </c>
+      <c r="V118" s="24">
+        <f t="shared" si="1204"/>
+        <v>3664.56</v>
+      </c>
+      <c r="W118" s="38">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="X118" s="24">
+        <f t="shared" si="1205"/>
+        <v>7527.6170000000002</v>
+      </c>
+      <c r="Y118" s="38">
+        <v>0.42</v>
+      </c>
+      <c r="Z118" s="24">
+        <f t="shared" si="1206"/>
+        <v>6412.98</v>
+      </c>
+      <c r="AA118" s="147">
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="AB118" s="148">
+        <f t="shared" si="1162"/>
+        <v>37.409050000000001</v>
+      </c>
+      <c r="AC118" s="46">
+        <v>2.5699999999999998E-3</v>
+      </c>
+      <c r="AD118" s="17">
+        <f t="shared" si="1208"/>
+        <v>39.241329999999998</v>
+      </c>
+      <c r="AE118" s="26">
+        <f>IF(M118&gt;0,(AG118+AP118)/M118,0)</f>
+        <v>2.5163049184622438E-3</v>
+      </c>
+      <c r="AF118" s="46">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="AG118" s="36">
+        <f t="shared" si="1209"/>
+        <v>3.81725</v>
+      </c>
+      <c r="AH118" s="27">
+        <v>0.21229999999999999</v>
+      </c>
+      <c r="AI118" s="40">
+        <f t="shared" si="1210"/>
+        <v>33.362732699999995</v>
+      </c>
+      <c r="AJ118" s="27">
+        <f t="shared" si="1211"/>
+        <v>0.90378801710557599</v>
+      </c>
+      <c r="AK118" s="28">
+        <f t="shared" si="680"/>
+        <v>0.90167166695605572</v>
+      </c>
+      <c r="AL118" s="42">
+        <v>171</v>
+      </c>
+      <c r="AM118" s="38">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="AN118" s="27">
+        <v>0.22020000000000001</v>
+      </c>
+      <c r="AO118" s="134">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="AP118" s="40">
+        <f>AL118*(1-AM118)*AN118</f>
+        <v>34.6042098</v>
+      </c>
+      <c r="AQ118" s="135">
+        <f t="shared" si="1167"/>
+        <v>34.305626699999998</v>
+      </c>
+      <c r="AR118" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="AS118" s="17"/>
+      <c r="AT118" s="117" t="e">
+        <f>AT117+AL118-AS118</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AU118" s="101"/>
+      <c r="AV118" s="42"/>
+      <c r="AW118" s="47"/>
+      <c r="AX118" s="40"/>
+      <c r="AY118" s="40"/>
+      <c r="AZ118" s="40"/>
+      <c r="BA118" s="40"/>
+    </row>
+    <row r="119" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="185"/>
+      <c r="B119" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" s="49"/>
+      <c r="D119" s="50">
+        <f t="shared" ref="D119" si="1213">SUM(D116:D118)</f>
+        <v>42722</v>
+      </c>
+      <c r="E119" s="50"/>
+      <c r="F119" s="50">
+        <f t="shared" ref="F119" si="1214">SUM(F116:F118)</f>
+        <v>46145</v>
+      </c>
+      <c r="G119" s="51"/>
+      <c r="H119" s="51"/>
+      <c r="I119" s="50">
+        <f t="shared" ref="I119:K119" si="1215">SUM(I116:I118)</f>
+        <v>45192</v>
+      </c>
+      <c r="J119" s="51"/>
+      <c r="K119" s="50">
+        <f t="shared" si="1215"/>
+        <v>47930</v>
+      </c>
+      <c r="L119" s="20">
+        <f t="shared" ref="L119" si="1216">IF(K119&gt;0,(K116*L116+K117*L117+K118*L118)/K119,0)</f>
+        <v>5.5659670352597536E-2</v>
+      </c>
+      <c r="M119" s="51">
+        <f t="shared" ref="M119" si="1217">M116+M117+M118</f>
+        <v>45262</v>
+      </c>
+      <c r="N119" s="52">
+        <f t="shared" ref="N119" si="1218">IF(M119&gt;0,O119/M119,0)</f>
+        <v>0.65979989836949315</v>
+      </c>
+      <c r="O119" s="53">
+        <f t="shared" ref="O119" si="1219">O116+O117+O118</f>
+        <v>29863.862999999998</v>
+      </c>
+      <c r="P119" s="20">
+        <f t="shared" ref="P119" si="1220">IF(M119&gt;0,Q119/M119,0)</f>
+        <v>0.27563470460872258</v>
+      </c>
+      <c r="Q119" s="53">
+        <f t="shared" ref="Q119" si="1221">Q116+Q117+Q118</f>
+        <v>12475.778</v>
+      </c>
+      <c r="R119" s="20">
+        <f t="shared" ref="R119" si="1222">IF(M119&gt;0,T119/M119,0)</f>
+        <v>6.4565397021784293E-2</v>
+      </c>
+      <c r="S119" s="136"/>
+      <c r="T119" s="53">
+        <f t="shared" ref="T119" si="1223">T116+T117+T118</f>
+        <v>2922.3590000000004</v>
+      </c>
+      <c r="U119" s="20">
+        <f t="shared" ref="U119" si="1224">IF(M119&gt;0,V119/M119,0)</f>
+        <v>0.23902987053157174</v>
+      </c>
+      <c r="V119" s="53">
+        <f t="shared" ref="V119" si="1225">V116+V117+V118</f>
+        <v>10818.97</v>
+      </c>
+      <c r="W119" s="20">
+        <f t="shared" ref="W119" si="1226">IF(M119&gt;0,X119/M119,0)</f>
+        <v>0.48533599929300514</v>
+      </c>
+      <c r="X119" s="53">
+        <f t="shared" ref="X119" si="1227">X116+X117+X118</f>
+        <v>21967.277999999998</v>
+      </c>
+      <c r="Y119" s="20">
+        <f t="shared" ref="Y119" si="1228">IF(M119&gt;0,Z119/M119,0)</f>
+        <v>0.4232992355618399</v>
+      </c>
+      <c r="Z119" s="53">
+        <f t="shared" ref="Z119" si="1229">Z116+Z117+Z118</f>
+        <v>19159.37</v>
+      </c>
+      <c r="AA119" s="152">
+        <f t="shared" ref="AA119" si="1230">IF(M119&gt;0,AB119/M119,0)</f>
+        <v>2.4732068843621585E-3</v>
+      </c>
+      <c r="AB119" s="55">
+        <f t="shared" ref="AB119" si="1231">SUM(AB116:AB118)</f>
+        <v>111.94229000000001</v>
+      </c>
+      <c r="AC119" s="54">
+        <f t="shared" ref="AC119" si="1232">IF(M119&gt;0,AD119/M119,0)</f>
+        <v>2.573439529848438E-3</v>
+      </c>
+      <c r="AD119" s="55">
+        <f t="shared" ref="AD119" si="1233">SUM(AD116:AD118)</f>
+        <v>116.47901999999999</v>
+      </c>
+      <c r="AE119" s="54">
+        <f t="shared" ref="AE119" si="1234">IF(M119&gt;0,(AE116*M116+AE117*M117+AE118*M118)/M119,0)</f>
+        <v>2.4885543612743585E-3</v>
+      </c>
+      <c r="AF119" s="54">
+        <f t="shared" ref="AF119" si="1235">IF(K119&gt;0,(K116*AF116+K117*AF117+K118*AF118)/K119,0)</f>
+        <v>2.4336761944502398E-4</v>
+      </c>
+      <c r="AG119" s="51">
+        <f t="shared" ref="AG119" si="1236">SUM(AG116:AG118)</f>
+        <v>11.01557</v>
+      </c>
+      <c r="AH119" s="52">
+        <f t="shared" ref="AH119" si="1237">IF(K119&gt;0,(K116*AH116+K117*AH117+K118*AH118)/K119,0)</f>
+        <v>0.21339702065512203</v>
+      </c>
+      <c r="AI119" s="57">
+        <f t="shared" ref="AI119" si="1238">SUM(AI116:AI118)</f>
+        <v>95.693362699999994</v>
+      </c>
+      <c r="AJ119" s="52">
+        <f t="shared" ref="AJ119" si="1239">IF(AND(AD119&gt;0),((AD116*AJ116+AD117*AJ117+AD118*AJ118)/AD119),0)</f>
+        <v>0.90646249544028379</v>
+      </c>
+      <c r="AK119" s="56">
+        <f t="shared" si="680"/>
+        <v>0.90317582389741669</v>
+      </c>
+      <c r="AL119" s="50">
+        <f t="shared" ref="AL119" si="1240">SUM(AL116:AL118)</f>
+        <v>494</v>
+      </c>
+      <c r="AM119" s="20">
+        <f t="shared" ref="AM119" si="1241">IF(AL119&gt;0,(AM116*AL116+AM117*AL117+AM118*AL118)/AL119,0)</f>
+        <v>9.1825910931174093E-2</v>
+      </c>
+      <c r="AN119" s="52">
+        <f>IF(K119&gt;0,(AN116*K116+AN117*K117+AN118*K118)/K119,0)</f>
+        <v>0.22646145629042352</v>
+      </c>
+      <c r="AO119" s="136">
+        <f>IF(L119&gt;0,(AO116*K116+AO117*K117+AO118*K118)/K119,0)</f>
+        <v>0.22132072605883579</v>
+      </c>
+      <c r="AP119" s="57">
+        <f t="shared" ref="AP119" si="1242">SUM(AP116:AP118)</f>
+        <v>101.62137749999999</v>
+      </c>
+      <c r="AQ119" s="137">
+        <f t="shared" si="1198"/>
+        <v>99.226574499999998</v>
+      </c>
+      <c r="AR119" s="55"/>
+      <c r="AS119" s="55">
+        <f t="shared" ref="AS119" si="1243">SUM(AS116:AS118)</f>
+        <v>454.22</v>
+      </c>
+      <c r="AT119" s="102"/>
+      <c r="AU119" s="103" t="e">
+        <f>AT118</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AV119" s="50">
+        <f t="shared" ref="AV119" si="1244">SUM(AV116:AV118)</f>
+        <v>0</v>
+      </c>
+      <c r="AW119" s="58"/>
+      <c r="AX119" s="57"/>
+      <c r="AY119" s="57"/>
+      <c r="AZ119" s="57"/>
+      <c r="BA119" s="57"/>
+    </row>
+    <row r="120" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="183">
+        <v>30</v>
+      </c>
+      <c r="B120" s="22">
+        <v>1</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D120" s="11">
+        <v>4700</v>
+      </c>
+      <c r="E120" s="11">
+        <v>1</v>
+      </c>
+      <c r="F120" s="11">
+        <v>8590</v>
+      </c>
+      <c r="G120" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H120" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="I120" s="11">
+        <v>8075</v>
+      </c>
+      <c r="J120" s="12">
+        <v>6.3</v>
+      </c>
+      <c r="K120" s="11">
+        <v>16294</v>
+      </c>
+      <c r="L120" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="M120" s="36">
+        <f>ROUND(K120*(1-L120),0)</f>
+        <v>15479</v>
+      </c>
+      <c r="N120" s="14">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="O120" s="24">
+        <f t="shared" ref="O120:O122" si="1245">M120*N120</f>
+        <v>11160.359</v>
+      </c>
+      <c r="P120" s="13">
+        <v>0.253</v>
+      </c>
+      <c r="Q120" s="24">
+        <f t="shared" ref="Q120:Q122" si="1246">M120*P120</f>
+        <v>3916.1869999999999</v>
+      </c>
+      <c r="R120" s="15">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="S120" s="143">
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="T120" s="24">
+        <f t="shared" ref="T120:T122" si="1247">M120*R120</f>
+        <v>402.45400000000001</v>
+      </c>
+      <c r="U120" s="25">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="V120" s="24">
+        <f t="shared" ref="V120:V122" si="1248">M120*U120</f>
+        <v>3730.4389999999999</v>
+      </c>
+      <c r="W120" s="15">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="X120" s="24">
+        <f t="shared" ref="X120:X122" si="1249">M120*W120</f>
+        <v>7522.7939999999999</v>
+      </c>
+      <c r="Y120" s="15">
+        <v>0.43</v>
+      </c>
+      <c r="Z120" s="24">
+        <f t="shared" ref="Z120:Z122" si="1250">Y120*M120</f>
+        <v>6655.97</v>
+      </c>
+      <c r="AA120" s="145">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="AB120" s="18">
+        <f t="shared" ref="AB120" si="1251">M120*AA120</f>
+        <v>40.245399999999997</v>
+      </c>
+      <c r="AC120" s="16">
+        <v>2.6099999999999999E-3</v>
+      </c>
+      <c r="AD120" s="17">
+        <f t="shared" ref="AD120:AD122" si="1252">M120*AC120</f>
+        <v>40.400190000000002</v>
+      </c>
+      <c r="AE120" s="26">
+        <f>IF(M120&gt;0,(AG120+AP120)/M120,0)</f>
+        <v>2.5394799922475613E-3</v>
+      </c>
+      <c r="AF120" s="16">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="AG120" s="23">
+        <f t="shared" ref="AG120:AG122" si="1253">AF120*M120</f>
+        <v>3.8697500000000002</v>
+      </c>
+      <c r="AH120" s="114">
+        <v>0.21840000000000001</v>
+      </c>
+      <c r="AI120" s="29">
+        <f t="shared" ref="AI120:AI122" si="1254">AL120*(1-AM120)*AH120</f>
+        <v>33.462374400000002</v>
+      </c>
+      <c r="AJ120" s="27">
+        <f t="shared" ref="AJ120:AJ122" si="1255">IF(AND(AH120&gt;0,AF120&gt;0,AC120&gt;0),((AC120-AF120)*AH120)/((AH120-AF120)*AC120),0)</f>
+        <v>0.90525078968652273</v>
+      </c>
+      <c r="AK120" s="59">
+        <f t="shared" si="680"/>
+        <v>0.90253014603035919</v>
+      </c>
+      <c r="AL120" s="11">
+        <v>168</v>
+      </c>
+      <c r="AM120" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AN120" s="14">
+        <v>0.23130000000000001</v>
+      </c>
+      <c r="AO120" s="130">
+        <v>0.22720000000000001</v>
+      </c>
+      <c r="AP120" s="29">
+        <f>AL120*(1-AM120)*AN120</f>
+        <v>35.4388608</v>
+      </c>
+      <c r="AQ120" s="131">
+        <f t="shared" ref="AQ120" si="1256">AL120*(1-AM120)*AO120</f>
+        <v>34.810675200000006</v>
+      </c>
+      <c r="AR120" s="18">
+        <v>1.58</v>
+      </c>
+      <c r="AS120" s="18">
+        <v>502.98</v>
+      </c>
+      <c r="AT120" s="98" t="e">
+        <f>AT118+AL120-AS120</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AU120" s="99"/>
+      <c r="AV120" s="11"/>
+      <c r="AW120" s="30"/>
+      <c r="AX120" s="19"/>
+      <c r="AY120" s="19"/>
+      <c r="AZ120" s="19"/>
+      <c r="BA120" s="19"/>
+    </row>
+    <row r="121" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A121" s="184"/>
+      <c r="B121" s="32">
+        <v>2</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D121" s="33">
+        <v>23478</v>
+      </c>
+      <c r="E121" s="33">
+        <v>1</v>
+      </c>
+      <c r="F121" s="33">
+        <v>17771</v>
+      </c>
+      <c r="G121" s="34">
+        <v>1.6</v>
+      </c>
+      <c r="H121" s="34">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I121" s="33">
+        <v>17746</v>
+      </c>
+      <c r="J121" s="34">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K121" s="33">
+        <v>16189</v>
+      </c>
+      <c r="L121" s="35">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="M121" s="36">
+        <f>ROUND(K121*(1-L121),0)</f>
+        <v>15363</v>
+      </c>
+      <c r="N121" s="37">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="O121" s="24">
+        <f t="shared" si="1245"/>
+        <v>10170.306</v>
+      </c>
+      <c r="P121" s="35">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="Q121" s="24">
+        <f t="shared" si="1246"/>
+        <v>4639.6260000000002</v>
+      </c>
+      <c r="R121" s="38">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S121" s="134">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="T121" s="24">
+        <f t="shared" si="1247"/>
+        <v>553.06799999999998</v>
+      </c>
+      <c r="U121" s="27">
+        <v>0.246</v>
+      </c>
+      <c r="V121" s="24">
+        <f t="shared" si="1248"/>
+        <v>3779.2979999999998</v>
+      </c>
+      <c r="W121" s="38">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="X121" s="24">
+        <f t="shared" si="1249"/>
+        <v>7543.2330000000002</v>
+      </c>
+      <c r="Y121" s="38">
+        <v>0.43</v>
+      </c>
+      <c r="Z121" s="24">
+        <f t="shared" si="1250"/>
+        <v>6606.09</v>
+      </c>
+      <c r="AA121" s="146">
+        <v>2.3600000000000001E-3</v>
+      </c>
+      <c r="AB121" s="18">
+        <f t="shared" si="1162"/>
+        <v>36.256680000000003</v>
+      </c>
+      <c r="AC121" s="39">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="AD121" s="17">
+        <f t="shared" si="1252"/>
+        <v>38.561129999999999</v>
+      </c>
+      <c r="AE121" s="26">
+        <f>IF(M121&gt;0,(AG121+AP121)/M121,0)</f>
+        <v>2.4048916227299359E-3</v>
+      </c>
+      <c r="AF121" s="39">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="AG121" s="36">
+        <f t="shared" si="1253"/>
+        <v>3.8407499999999999</v>
+      </c>
+      <c r="AH121" s="27">
+        <v>0.20810000000000001</v>
+      </c>
+      <c r="AI121" s="40">
+        <f t="shared" si="1254"/>
+        <v>31.314888000000003</v>
+      </c>
+      <c r="AJ121" s="27">
+        <f t="shared" si="1255"/>
+        <v>0.90148139700040331</v>
+      </c>
+      <c r="AK121" s="28">
+        <f t="shared" si="680"/>
+        <v>0.89706460309705327</v>
+      </c>
+      <c r="AL121" s="33">
+        <v>165</v>
+      </c>
+      <c r="AM121" s="35">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AN121" s="37">
+        <v>0.22</v>
+      </c>
+      <c r="AO121" s="132">
+        <v>0.22059999999999999</v>
+      </c>
+      <c r="AP121" s="40">
+        <f>AL121*(1-AM121)*AN121</f>
+        <v>33.105600000000003</v>
+      </c>
+      <c r="AQ121" s="133">
+        <f t="shared" si="1167"/>
+        <v>33.195888000000004</v>
+      </c>
+      <c r="AR121" s="41">
+        <v>1.55</v>
+      </c>
+      <c r="AS121" s="41"/>
+      <c r="AT121" s="117" t="e">
+        <f>AT120+AL121-AS121</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AU121" s="101"/>
+      <c r="AV121" s="42"/>
+      <c r="AW121" s="43"/>
+      <c r="AX121" s="44"/>
+      <c r="AY121" s="44"/>
+      <c r="AZ121" s="44"/>
+      <c r="BA121" s="44"/>
+    </row>
+    <row r="122" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A122" s="184"/>
+      <c r="B122" s="32">
+        <v>3</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D122" s="42">
+        <v>16600</v>
+      </c>
+      <c r="E122" s="42">
+        <v>1</v>
+      </c>
+      <c r="F122" s="42">
+        <v>18243</v>
+      </c>
+      <c r="G122" s="36">
+        <v>1.4</v>
+      </c>
+      <c r="H122" s="36">
+        <v>7.2</v>
+      </c>
+      <c r="I122" s="42">
+        <v>17426</v>
+      </c>
+      <c r="J122" s="36">
+        <v>4</v>
+      </c>
+      <c r="K122" s="42">
+        <v>16345</v>
+      </c>
+      <c r="L122" s="38">
+        <v>4.7E-2</v>
+      </c>
+      <c r="M122" s="36">
+        <f>ROUND(K122*(1-L122),0)</f>
+        <v>15577</v>
+      </c>
+      <c r="N122" s="27">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="O122" s="24">
+        <f t="shared" si="1245"/>
+        <v>8847.735999999999</v>
+      </c>
+      <c r="P122" s="38">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="Q122" s="24">
+        <f t="shared" si="1246"/>
+        <v>5997.1450000000004</v>
+      </c>
+      <c r="R122" s="38">
+        <v>4.7E-2</v>
+      </c>
+      <c r="S122" s="134">
+        <v>0.20349999999999999</v>
+      </c>
+      <c r="T122" s="24">
+        <f t="shared" si="1247"/>
+        <v>732.11900000000003</v>
+      </c>
+      <c r="U122" s="27">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="V122" s="24">
+        <f t="shared" si="1248"/>
+        <v>3769.634</v>
+      </c>
+      <c r="W122" s="38">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="X122" s="24">
+        <f t="shared" si="1249"/>
+        <v>7695.0379999999996</v>
+      </c>
+      <c r="Y122" s="38">
+        <v>0.43</v>
+      </c>
+      <c r="Z122" s="24">
+        <f t="shared" si="1250"/>
+        <v>6698.11</v>
+      </c>
+      <c r="AA122" s="147">
+        <v>2.2100000000000002E-3</v>
+      </c>
+      <c r="AB122" s="148">
+        <f t="shared" si="1162"/>
+        <v>34.425170000000001</v>
+      </c>
+      <c r="AC122" s="46">
+        <v>2.3700000000000001E-3</v>
+      </c>
+      <c r="AD122" s="17">
+        <f t="shared" si="1252"/>
+        <v>36.917490000000001</v>
+      </c>
+      <c r="AE122" s="26">
+        <f>IF(M122&gt;0,(AG122+AP122)/M122,0)</f>
+        <v>2.3164896321499649E-3</v>
+      </c>
+      <c r="AF122" s="46">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="AG122" s="36">
+        <f t="shared" si="1253"/>
+        <v>3.89425</v>
+      </c>
+      <c r="AH122" s="27">
+        <v>0.2114</v>
+      </c>
+      <c r="AI122" s="40">
+        <f t="shared" si="1254"/>
+        <v>30.721916399999998</v>
+      </c>
+      <c r="AJ122" s="27">
+        <f t="shared" si="1255"/>
+        <v>0.8955738666394899</v>
+      </c>
+      <c r="AK122" s="28">
+        <f t="shared" si="680"/>
+        <v>0.89308608161710779</v>
+      </c>
+      <c r="AL122" s="42">
+        <v>159</v>
+      </c>
+      <c r="AM122" s="38">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AN122" s="27">
+        <v>0.2215</v>
+      </c>
+      <c r="AO122" s="134">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="AP122" s="40">
+        <f>AL122*(1-AM122)*AN122</f>
+        <v>32.189709000000001</v>
+      </c>
+      <c r="AQ122" s="135">
+        <f t="shared" si="1167"/>
+        <v>32.291437199999997</v>
+      </c>
+      <c r="AR122" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="AS122" s="17"/>
+      <c r="AT122" s="117" t="e">
+        <f>AT121+AL122-AS122</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AU122" s="101"/>
+      <c r="AV122" s="42"/>
+      <c r="AW122" s="47"/>
+      <c r="AX122" s="40"/>
+      <c r="AY122" s="40"/>
+      <c r="AZ122" s="40"/>
+      <c r="BA122" s="40"/>
+    </row>
+    <row r="123" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="185"/>
+      <c r="B123" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" s="49"/>
+      <c r="D123" s="50">
+        <f t="shared" ref="D123" si="1257">SUM(D120:D122)</f>
+        <v>44778</v>
+      </c>
+      <c r="E123" s="50"/>
+      <c r="F123" s="50">
+        <f t="shared" ref="F123" si="1258">SUM(F120:F122)</f>
+        <v>44604</v>
+      </c>
+      <c r="G123" s="51"/>
+      <c r="H123" s="51"/>
+      <c r="I123" s="50">
+        <f t="shared" ref="I123:K123" si="1259">SUM(I120:I122)</f>
+        <v>43247</v>
+      </c>
+      <c r="J123" s="51"/>
+      <c r="K123" s="50">
+        <f t="shared" si="1259"/>
+        <v>48828</v>
+      </c>
+      <c r="L123" s="20">
+        <f t="shared" ref="L123" si="1260">IF(K123&gt;0,(K120*L120+K121*L121+K122*L122)/K123,0)</f>
+        <v>4.9327312197919228E-2</v>
+      </c>
+      <c r="M123" s="51">
+        <f t="shared" ref="M123" si="1261">M120+M121+M122</f>
+        <v>46419</v>
+      </c>
+      <c r="N123" s="52">
+        <f t="shared" ref="N123" si="1262">IF(M123&gt;0,O123/M123,0)</f>
+        <v>0.65013035610418146</v>
+      </c>
+      <c r="O123" s="53">
+        <f t="shared" ref="O123" si="1263">O120+O121+O122</f>
+        <v>30178.400999999998</v>
+      </c>
+      <c r="P123" s="20">
+        <f t="shared" ref="P123" si="1264">IF(M123&gt;0,Q123/M123,0)</f>
+        <v>0.31351295805596846</v>
+      </c>
+      <c r="Q123" s="53">
+        <f t="shared" ref="Q123" si="1265">Q120+Q121+Q122</f>
+        <v>14552.958000000001</v>
+      </c>
+      <c r="R123" s="20">
+        <f t="shared" ref="R123" si="1266">IF(M123&gt;0,T123/M123,0)</f>
+        <v>3.6356685839850064E-2</v>
+      </c>
+      <c r="S123" s="136"/>
+      <c r="T123" s="53">
+        <f t="shared" ref="T123" si="1267">T120+T121+T122</f>
+        <v>1687.6410000000001</v>
+      </c>
+      <c r="U123" s="20">
+        <f t="shared" ref="U123" si="1268">IF(M123&gt;0,V123/M123,0)</f>
+        <v>0.24299039186539992</v>
+      </c>
+      <c r="V123" s="53">
+        <f t="shared" ref="V123" si="1269">V120+V121+V122</f>
+        <v>11279.370999999999</v>
+      </c>
+      <c r="W123" s="20">
+        <f t="shared" ref="W123" si="1270">IF(M123&gt;0,X123/M123,0)</f>
+        <v>0.49033940843189211</v>
+      </c>
+      <c r="X123" s="53">
+        <f t="shared" ref="X123" si="1271">X120+X121+X122</f>
+        <v>22761.064999999999</v>
+      </c>
+      <c r="Y123" s="20">
+        <f t="shared" ref="Y123" si="1272">IF(M123&gt;0,Z123/M123,0)</f>
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="Z123" s="53">
+        <f t="shared" ref="Z123" si="1273">Z120+Z121+Z122</f>
+        <v>19960.170000000002</v>
+      </c>
+      <c r="AA123" s="152">
+        <f t="shared" ref="AA123" si="1274">IF(M123&gt;0,AB123/M123,0)</f>
+        <v>2.3896949524978999E-3</v>
+      </c>
+      <c r="AB123" s="55">
+        <f t="shared" ref="AB123" si="1275">SUM(AB120:AB122)</f>
+        <v>110.92725000000002</v>
+      </c>
+      <c r="AC123" s="54">
+        <f t="shared" ref="AC123" si="1276">IF(M123&gt;0,AD123/M123,0)</f>
+        <v>2.4963659277451042E-3</v>
+      </c>
+      <c r="AD123" s="55">
+        <f t="shared" ref="AD123" si="1277">SUM(AD120:AD122)</f>
+        <v>115.87881</v>
+      </c>
+      <c r="AE123" s="54">
+        <f t="shared" ref="AE123" si="1278">IF(M123&gt;0,(AE120*M120+AE121*M121+AE122*M122)/M123,0)</f>
+        <v>2.4201064176307117E-3</v>
+      </c>
+      <c r="AF123" s="54">
+        <f t="shared" ref="AF123" si="1279">IF(K123&gt;0,(K120*AF120+K121*AF121+K122*AF122)/K123,0)</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="AG123" s="51">
+        <f t="shared" ref="AG123" si="1280">SUM(AG120:AG122)</f>
+        <v>11.604749999999999</v>
+      </c>
+      <c r="AH123" s="52">
+        <f t="shared" ref="AH123" si="1281">IF(K123&gt;0,(K120*AH120+K121*AH121+K122*AH122)/K123,0)</f>
+        <v>0.21264179364299177</v>
+      </c>
+      <c r="AI123" s="57">
+        <f t="shared" ref="AI123" si="1282">SUM(AI120:AI122)</f>
+        <v>95.49917880000001</v>
+      </c>
+      <c r="AJ123" s="52">
+        <f t="shared" ref="AJ123" si="1283">IF(AND(AD123&gt;0),((AD120*AJ120+AD121*AJ121+AD122*AJ122)/AD123),0)</f>
+        <v>0.90091350186651398</v>
+      </c>
+      <c r="AK123" s="56">
+        <f t="shared" si="680"/>
+        <v>0.89769943479796166</v>
+      </c>
+      <c r="AL123" s="50">
+        <f t="shared" ref="AL123" si="1284">SUM(AL120:AL122)</f>
+        <v>492</v>
+      </c>
+      <c r="AM123" s="20">
+        <f t="shared" ref="AM123" si="1285">IF(AL123&gt;0,(AM120*AL120+AM121*AL121+AM122*AL122)/AL123,0)</f>
+        <v>8.735365853658536E-2</v>
+      </c>
+      <c r="AN123" s="52">
+        <f>IF(K123&gt;0,(AN120*K120+AN121*K121+AN122*K122)/K123,0)</f>
+        <v>0.22427295199475711</v>
+      </c>
+      <c r="AO123" s="136">
+        <f>IF(L123&gt;0,(AO120*K120+AO121*K121+AO122*K122)/K123,0)</f>
+        <v>0.22333802736135006</v>
+      </c>
+      <c r="AP123" s="57">
+        <f t="shared" ref="AP123" si="1286">SUM(AP120:AP122)</f>
+        <v>100.73416979999999</v>
+      </c>
+      <c r="AQ123" s="137">
+        <f t="shared" si="1198"/>
+        <v>100.29800040000001</v>
+      </c>
+      <c r="AR123" s="55"/>
+      <c r="AS123" s="55">
+        <f t="shared" ref="AS123" si="1287">SUM(AS120:AS122)</f>
+        <v>502.98</v>
+      </c>
+      <c r="AT123" s="102"/>
+      <c r="AU123" s="103" t="e">
+        <f>AT122</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AV123" s="50">
+        <f t="shared" ref="AV123" si="1288">SUM(AV120:AV122)</f>
+        <v>0</v>
+      </c>
+      <c r="AW123" s="58"/>
+      <c r="AX123" s="57"/>
+      <c r="AY123" s="57"/>
+      <c r="AZ123" s="57"/>
+      <c r="BA123" s="57"/>
+    </row>
+    <row r="124" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="183">
+        <v>31</v>
+      </c>
+      <c r="B124" s="22">
+        <v>1</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D124" s="11">
+        <v>5300</v>
+      </c>
+      <c r="E124" s="11">
+        <v>0</v>
+      </c>
+      <c r="F124" s="11">
+        <v>13435</v>
+      </c>
+      <c r="G124" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="H124" s="12">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I124" s="11">
+        <v>13226</v>
+      </c>
+      <c r="J124" s="12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K124" s="11">
+        <v>16125</v>
+      </c>
+      <c r="L124" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="M124" s="23">
+        <f>ROUND(K124*(1-L124),0)</f>
+        <v>15319</v>
+      </c>
+      <c r="N124" s="14">
+        <v>0.71</v>
+      </c>
+      <c r="O124" s="24">
+        <f t="shared" ref="O124:O126" si="1289">M124*N124</f>
+        <v>10876.49</v>
+      </c>
+      <c r="P124" s="13">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="Q124" s="24">
+        <f t="shared" ref="Q124:Q126" si="1290">M124*P124</f>
+        <v>4243.3630000000003</v>
+      </c>
+      <c r="R124" s="15">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="S124" s="143">
+        <v>0.221</v>
+      </c>
+      <c r="T124" s="24">
+        <f t="shared" ref="T124:T126" si="1291">M124*R124</f>
+        <v>199.14699999999999</v>
+      </c>
+      <c r="U124" s="25">
+        <v>0.218</v>
+      </c>
+      <c r="V124" s="24">
+        <f t="shared" ref="V124:V126" si="1292">M124*U124</f>
+        <v>3339.5419999999999</v>
+      </c>
+      <c r="W124" s="15">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="X124" s="24">
+        <f t="shared" ref="X124:X126" si="1293">M124*W124</f>
+        <v>8302.898000000001</v>
+      </c>
+      <c r="Y124" s="15">
+        <v>0.43</v>
+      </c>
+      <c r="Z124" s="24">
+        <f t="shared" ref="Z124:Z126" si="1294">Y124*M124</f>
+        <v>6587.17</v>
+      </c>
+      <c r="AA124" s="145">
+        <v>2.2200000000000002E-3</v>
+      </c>
+      <c r="AB124" s="18">
+        <f t="shared" ref="AB124" si="1295">M124*AA124</f>
+        <v>34.008180000000003</v>
+      </c>
+      <c r="AC124" s="16">
+        <v>2.3700000000000001E-3</v>
+      </c>
+      <c r="AD124" s="17">
+        <f t="shared" ref="AD124:AD126" si="1296">M124*AC124</f>
+        <v>36.30603</v>
+      </c>
+      <c r="AE124" s="26">
+        <f>IF(M124&gt;0,(AG124+AP124)/M124,0)</f>
+        <v>2.3769357138194395E-3</v>
+      </c>
+      <c r="AF124" s="16">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="AG124" s="23">
+        <f t="shared" ref="AG124:AG126" si="1297">AF124*M124</f>
+        <v>3.9829399999999997</v>
+      </c>
+      <c r="AH124" s="114">
+        <v>0.2087</v>
+      </c>
+      <c r="AI124" s="29">
+        <f t="shared" ref="AI124:AI126" si="1298">AL124*(1-AM124)*AH124</f>
+        <v>31.0032198</v>
+      </c>
+      <c r="AJ124" s="27">
+        <f t="shared" ref="AJ124:AJ126" si="1299">IF(AND(AH124&gt;0,AF124&gt;0,AC124&gt;0),((AC124-AF124)*AH124)/((AH124-AF124)*AC124),0)</f>
+        <v>0.89140587867113319</v>
+      </c>
+      <c r="AK124" s="59">
+        <f t="shared" si="680"/>
+        <v>0.89167747534451169</v>
+      </c>
+      <c r="AL124" s="11">
+        <v>162</v>
+      </c>
+      <c r="AM124" s="13">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AN124" s="14">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="AO124" s="130">
+        <v>0.2114</v>
+      </c>
+      <c r="AP124" s="29">
+        <f>AL124*(1-AM124)*AN124</f>
+        <v>32.429338199999997</v>
+      </c>
+      <c r="AQ124" s="131">
+        <f t="shared" ref="AQ124" si="1300">AL124*(1-AM124)*AO124</f>
+        <v>31.4043156</v>
+      </c>
+      <c r="AR124" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="AS124" s="18">
+        <v>491.94</v>
+      </c>
+      <c r="AT124" s="98" t="e">
+        <f>AT122+AL124-AS124</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AU124" s="99"/>
+      <c r="AV124" s="11"/>
+      <c r="AW124" s="30"/>
+      <c r="AX124" s="19"/>
+      <c r="AY124" s="19"/>
+      <c r="AZ124" s="19"/>
+      <c r="BA124" s="19"/>
+    </row>
+    <row r="125" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A125" s="184"/>
+      <c r="B125" s="32">
+        <v>2</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D125" s="33">
+        <v>20700</v>
+      </c>
+      <c r="E125" s="33">
+        <v>3</v>
+      </c>
+      <c r="F125" s="33">
+        <v>16323</v>
+      </c>
+      <c r="G125" s="34">
+        <v>2</v>
+      </c>
+      <c r="H125" s="34">
+        <v>7.9</v>
+      </c>
+      <c r="I125" s="33">
+        <v>16358</v>
+      </c>
+      <c r="J125" s="34">
+        <v>4.5</v>
+      </c>
+      <c r="K125" s="33">
+        <v>16357</v>
+      </c>
+      <c r="L125" s="35">
+        <v>6.2E-2</v>
+      </c>
+      <c r="M125" s="36">
+        <f>ROUND(K125*(1-L125),0)</f>
+        <v>15343</v>
+      </c>
+      <c r="N125" s="37">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="O125" s="24">
+        <f t="shared" si="1289"/>
+        <v>8484.6790000000001</v>
+      </c>
+      <c r="P125" s="35">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="Q125" s="24">
+        <f t="shared" si="1290"/>
+        <v>6490.0889999999999</v>
+      </c>
+      <c r="R125" s="38">
+        <v>2.4E-2</v>
+      </c>
+      <c r="S125" s="134">
+        <v>0.21310000000000001</v>
+      </c>
+      <c r="T125" s="24">
+        <f t="shared" si="1291"/>
+        <v>368.23200000000003</v>
+      </c>
+      <c r="U125" s="27">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="V125" s="24">
+        <f t="shared" si="1292"/>
+        <v>3666.9769999999999</v>
+      </c>
+      <c r="W125" s="38">
+        <v>0.49</v>
+      </c>
+      <c r="X125" s="24">
+        <f t="shared" si="1293"/>
+        <v>7518.07</v>
+      </c>
+      <c r="Y125" s="38">
+        <v>0.43</v>
+      </c>
+      <c r="Z125" s="24">
+        <f t="shared" si="1294"/>
+        <v>6597.49</v>
+      </c>
+      <c r="AA125" s="146"/>
+      <c r="AB125" s="18">
+        <f t="shared" si="1162"/>
+        <v>0</v>
+      </c>
+      <c r="AC125" s="39">
+        <v>2.3400000000000001E-3</v>
+      </c>
+      <c r="AD125" s="17">
+        <f t="shared" si="1296"/>
+        <v>35.902619999999999</v>
+      </c>
+      <c r="AE125" s="26">
+        <f>IF(M125&gt;0,(AG125+AP125)/M125,0)</f>
+        <v>2.2446842208173109E-3</v>
+      </c>
+      <c r="AF125" s="39">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="AG125" s="36">
+        <f t="shared" si="1297"/>
+        <v>3.83575</v>
+      </c>
+      <c r="AH125" s="27">
+        <v>0.2064</v>
+      </c>
+      <c r="AI125" s="40">
+        <f t="shared" si="1298"/>
+        <v>29.176704000000004</v>
+      </c>
+      <c r="AJ125" s="27">
+        <f t="shared" si="1299"/>
+        <v>0.8942455394068296</v>
+      </c>
+      <c r="AK125" s="28">
+        <f t="shared" si="680"/>
+        <v>0.88965307263088067</v>
+      </c>
+      <c r="AL125" s="33">
+        <v>155</v>
+      </c>
+      <c r="AM125" s="35">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AN125" s="37">
+        <v>0.2165</v>
+      </c>
+      <c r="AO125" s="132"/>
+      <c r="AP125" s="40">
+        <f>AL125*(1-AM125)*AN125</f>
+        <v>30.604440000000004</v>
+      </c>
+      <c r="AQ125" s="133">
+        <f t="shared" si="1167"/>
+        <v>0</v>
+      </c>
+      <c r="AR125" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="AS125" s="41"/>
+      <c r="AT125" s="117" t="e">
+        <f>AT124+AL125-AS125</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AU125" s="101"/>
+      <c r="AV125" s="42"/>
+      <c r="AW125" s="43"/>
+      <c r="AX125" s="44"/>
+      <c r="AY125" s="44"/>
+      <c r="AZ125" s="44"/>
+      <c r="BA125" s="44"/>
+    </row>
+    <row r="126" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A126" s="184"/>
+      <c r="B126" s="32">
+        <v>3</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D126" s="42">
+        <v>21600</v>
+      </c>
+      <c r="E126" s="42">
+        <v>1</v>
+      </c>
+      <c r="F126" s="42">
+        <v>19623</v>
+      </c>
+      <c r="G126" s="36">
+        <v>1.3</v>
+      </c>
+      <c r="H126" s="36">
+        <v>10.1</v>
+      </c>
+      <c r="I126" s="42">
+        <v>18857</v>
+      </c>
+      <c r="J126" s="36">
+        <v>3.6</v>
+      </c>
+      <c r="K126" s="42">
+        <v>16461</v>
+      </c>
+      <c r="L126" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="M126" s="36">
+        <f>ROUND(K126*(1-L126),0)</f>
+        <v>15638</v>
+      </c>
+      <c r="N126" s="27">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="O126" s="24">
+        <f t="shared" si="1289"/>
+        <v>11274.998</v>
+      </c>
+      <c r="P126" s="38">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="Q126" s="24">
+        <f t="shared" si="1290"/>
+        <v>3784.3959999999997</v>
+      </c>
+      <c r="R126" s="38">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="S126" s="134">
+        <v>0.21490000000000001</v>
+      </c>
+      <c r="T126" s="24">
+        <f t="shared" si="1291"/>
+        <v>578.60599999999999</v>
+      </c>
+      <c r="U126" s="27"/>
+      <c r="V126" s="24">
+        <f t="shared" si="1292"/>
+        <v>0</v>
+      </c>
+      <c r="W126" s="38"/>
+      <c r="X126" s="24">
+        <f t="shared" si="1293"/>
+        <v>0</v>
+      </c>
+      <c r="Y126" s="38">
+        <v>0.43</v>
+      </c>
+      <c r="Z126" s="24">
+        <f t="shared" si="1294"/>
+        <v>6724.34</v>
+      </c>
+      <c r="AA126" s="147"/>
+      <c r="AB126" s="148">
+        <f t="shared" si="1162"/>
+        <v>0</v>
+      </c>
+      <c r="AC126" s="46">
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="AD126" s="17">
+        <f t="shared" si="1296"/>
+        <v>40.502420000000001</v>
+      </c>
+      <c r="AE126" s="26">
+        <f>IF(M126&gt;0,(AG126+AP126)/M126,0)</f>
+        <v>2.7E-4</v>
+      </c>
+      <c r="AF126" s="46">
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG126" s="36">
+        <f t="shared" si="1297"/>
+        <v>4.2222600000000003</v>
+      </c>
+      <c r="AH126" s="27">
+        <v>0.2046</v>
+      </c>
+      <c r="AI126" s="40">
+        <f t="shared" si="1298"/>
+        <v>32.761575000000001</v>
+      </c>
+      <c r="AJ126" s="27">
+        <f t="shared" si="1299"/>
+        <v>0.89693653634337833</v>
+      </c>
+      <c r="AK126" s="28">
+        <f t="shared" si="680"/>
+        <v>0</v>
+      </c>
+      <c r="AL126" s="42">
+        <v>175</v>
+      </c>
+      <c r="AM126" s="38">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AN126" s="27"/>
+      <c r="AO126" s="134"/>
+      <c r="AP126" s="40">
+        <f>AL126*(1-AM126)*AN126</f>
+        <v>0</v>
+      </c>
+      <c r="AQ126" s="135">
+        <f t="shared" si="1167"/>
+        <v>0</v>
+      </c>
+      <c r="AR126" s="17">
+        <v>1.55</v>
+      </c>
+      <c r="AS126" s="17"/>
+      <c r="AT126" s="117" t="e">
+        <f>AT125+AL126-AS126</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AU126" s="101"/>
+      <c r="AV126" s="42"/>
+      <c r="AW126" s="47"/>
+      <c r="AX126" s="40"/>
+      <c r="AY126" s="40"/>
+      <c r="AZ126" s="40"/>
+      <c r="BA126" s="40"/>
+    </row>
+    <row r="127" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="185"/>
+      <c r="B127" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127" s="49"/>
+      <c r="D127" s="50">
+        <f>SUM(D124:D126)</f>
+        <v>47600</v>
+      </c>
+      <c r="E127" s="60"/>
+      <c r="F127" s="50">
+        <f>SUM(F124:F126)</f>
+        <v>49381</v>
+      </c>
+      <c r="G127" s="61"/>
+      <c r="H127" s="61"/>
+      <c r="I127" s="50">
+        <f>SUM(I124:I126)</f>
+        <v>48441</v>
+      </c>
+      <c r="J127" s="51"/>
+      <c r="K127" s="50">
+        <f>SUM(K124:K126)</f>
+        <v>48943</v>
+      </c>
+      <c r="L127" s="20">
+        <f>IF(K127&gt;0,(K124*L124+K125*L125+K126*L126)/K127,0)</f>
+        <v>5.4010461148683166E-2</v>
+      </c>
+      <c r="M127" s="51">
+        <f>M124+M125+M126</f>
+        <v>46300</v>
+      </c>
+      <c r="N127" s="52">
+        <f>IF(M127&gt;0,O127/M127,0)</f>
+        <v>0.66168827213822901</v>
+      </c>
+      <c r="O127" s="53">
+        <f t="shared" ref="O127" si="1301">O124+O125+O126</f>
+        <v>30636.167000000001</v>
+      </c>
+      <c r="P127" s="20">
+        <f>IF(M127&gt;0,Q127/M127,0)</f>
+        <v>0.31356043196544281</v>
+      </c>
+      <c r="Q127" s="53">
+        <f t="shared" ref="Q127" si="1302">Q124+Q125+Q126</f>
+        <v>14517.848000000002</v>
+      </c>
+      <c r="R127" s="20">
+        <f>IF(M127&gt;0,T127/M127,0)</f>
+        <v>2.4751295896328296E-2</v>
+      </c>
+      <c r="S127" s="136"/>
+      <c r="T127" s="53">
+        <f t="shared" ref="T127" si="1303">T124+T125+T126</f>
+        <v>1145.9850000000001</v>
+      </c>
+      <c r="U127" s="20">
+        <f>IF(M127&gt;0,V127/M127,0)</f>
+        <v>0.15132870410367172</v>
+      </c>
+      <c r="V127" s="53">
+        <f t="shared" ref="V127" si="1304">V124+V125+V126</f>
+        <v>7006.5190000000002</v>
+      </c>
+      <c r="W127" s="20">
+        <f>IF(M127&gt;0,X127/M127,0)</f>
+        <v>0.34170557235421167</v>
+      </c>
+      <c r="X127" s="53">
+        <f t="shared" ref="X127" si="1305">X124+X125+X126</f>
+        <v>15820.968000000001</v>
+      </c>
+      <c r="Y127" s="20">
+        <f>IF(M127&gt;0,Z127/M127,0)</f>
+        <v>0.43</v>
+      </c>
+      <c r="Z127" s="53">
+        <f t="shared" ref="Z127" si="1306">Z124+Z125+Z126</f>
+        <v>19909</v>
+      </c>
+      <c r="AA127" s="152">
+        <f t="shared" ref="AA127" si="1307">IF(M127&gt;0,AB127/M127,0)</f>
+        <v>7.3451792656587477E-4</v>
+      </c>
+      <c r="AB127" s="55">
+        <f t="shared" ref="AB127" si="1308">SUM(AB124:AB126)</f>
+        <v>34.008180000000003</v>
+      </c>
+      <c r="AC127" s="54">
+        <f>IF(M127&gt;0,AD127/M127,0)</f>
+        <v>2.434364362850972E-3</v>
+      </c>
+      <c r="AD127" s="55">
+        <f t="shared" ref="AD127" si="1309">SUM(AD124:AD126)</f>
+        <v>112.71107000000001</v>
+      </c>
+      <c r="AE127" s="54">
+        <f t="shared" ref="AE127" si="1310">IF(M127&gt;0,(AE124*M124+AE125*M125+AE126*M126)/M127,0)</f>
+        <v>1.6214844103671709E-3</v>
+      </c>
+      <c r="AF127" s="54">
+        <f>IF(K127&gt;0,(K124*AF124+K125*AF125+K126*AF126)/K127,0)</f>
+        <v>2.6002124920826262E-4</v>
+      </c>
+      <c r="AG127" s="51">
+        <f t="shared" ref="AG127" si="1311">SUM(AG124:AG126)</f>
+        <v>12.04095</v>
+      </c>
+      <c r="AH127" s="52">
+        <f>IF(K127&gt;0,(K124*AH124+K125*AH125+K126*AH126)/K127,0)</f>
+        <v>0.2065523752119813</v>
+      </c>
+      <c r="AI127" s="57">
+        <f>SUM(AI124:AI126)</f>
+        <v>92.941498800000005</v>
+      </c>
+      <c r="AJ127" s="52">
+        <f>IF(AND(AD127&gt;0),((AD124*AJ124+AD125*AJ125+AD126*AJ126)/AD127),0)</f>
+        <v>0.8942978419915073</v>
+      </c>
+      <c r="AK127" s="56">
+        <f t="shared" si="680"/>
+        <v>0.84115594997111487</v>
+      </c>
+      <c r="AL127" s="50">
+        <f>SUM(AL124:AL126)</f>
+        <v>492</v>
+      </c>
+      <c r="AM127" s="20">
+        <f>IF(AL127&gt;0,(AM124*AL124+AM125*AL125+AM126*AL126)/AL127,0)</f>
+        <v>8.5286585365853651E-2</v>
+      </c>
+      <c r="AN127" s="52">
+        <f>IF(K127&gt;0,(AN124*K124+AN125*K125+AN126*K126)/K127,0)</f>
+        <v>0.1442775882148622</v>
+      </c>
+      <c r="AO127" s="136">
+        <f>IF(L127&gt;0,(AO124*K124+AO125*K125+AO126*K126)/K127,0)</f>
+        <v>6.964887726539036E-2</v>
+      </c>
+      <c r="AP127" s="57">
+        <f>SUM(AP124:AP126)</f>
+        <v>63.0337782</v>
+      </c>
+      <c r="AQ127" s="137">
+        <f t="shared" ref="AQ127" si="1312">SUM(AQ124:AQ126)</f>
+        <v>31.4043156</v>
+      </c>
+      <c r="AR127" s="62"/>
+      <c r="AS127" s="55">
+        <f>SUM(AS124:AS126)</f>
+        <v>491.94</v>
+      </c>
+      <c r="AT127" s="102"/>
+      <c r="AU127" s="103" t="e">
+        <f>AT126</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AV127" s="50">
+        <f>SUM(AV124:AV126)</f>
+        <v>0</v>
+      </c>
+      <c r="AW127" s="63"/>
+      <c r="AX127" s="64"/>
+      <c r="AY127" s="64"/>
+      <c r="AZ127" s="64"/>
+      <c r="BA127" s="64"/>
+    </row>
+    <row r="128" spans="1:53" s="77" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="66"/>
+      <c r="B128" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C128" s="67"/>
+      <c r="D128" s="68">
+        <f>SUM(D127,D123,D119,D115,D111,D107,D103,D99,D95,D91,D87,D83,D79,D75,D71,D67,D63,D59,D55,D51,D47,D43,D39,D35,D31,D27,D23,D19,D15,D11,D7)</f>
+        <v>1437922</v>
+      </c>
+      <c r="E128" s="68"/>
+      <c r="F128" s="68">
+        <f>SUM(F127,F123,F119,F115,F111,F107,F103,F99,F95,F91,F87,F83,F79,F75,F71,F67,F63,F59,F55,F51,F47,F43,F39,F35,F31,F27,F23,F19,F15,F11,F7)</f>
+        <v>1480897</v>
+      </c>
+      <c r="G128" s="74"/>
+      <c r="H128" s="68"/>
+      <c r="I128" s="68">
+        <f>SUM(I127,I123,I119,I115,I111,I107,I103,I99,I95,I91,I87,I83,I79,I75,I71,I67,I63,I59,I55,I51,I47,I43,I39,I35,I31,I27,I23,I19,I15,I11,I7)</f>
+        <v>1450036</v>
+      </c>
+      <c r="J128" s="74"/>
+      <c r="K128" s="68">
+        <f>SUM(K127,K123,K119,K115,K111,K107,K103,K99,K95,K91,K87,K83,K79,K75,K71,K67,K63,K59,K55,K51,K47,K43,K39,K35,K31,K27,K23,K19,K15,K11,K7)</f>
+        <v>1481242</v>
+      </c>
+      <c r="L128" s="69">
+        <f>1-M128/K128</f>
+        <v>5.983559742432365E-2</v>
+      </c>
+      <c r="M128" s="68">
+        <f>SUM(M127,M123,M119,M115,M111,M107,M103,M99,M95,M91,M87,M83,M79,M75,M71,M67,M63,M59,M55,M51,M47,M43,M39,M35,M31,M27,M23,M19,M15,M11,M7)</f>
+        <v>1392611</v>
+      </c>
+      <c r="N128" s="70">
+        <f>IF(AND(M128&gt;0),(O128/M128),0)</f>
+        <v>0.62268513389596958</v>
+      </c>
+      <c r="O128" s="68">
+        <f>SUM(O127,O123,O119,O115,O111,O107,O103,O99,O95,O91,O87,O83,O79,O75,O71,O67,O63,O59,O55,O51,O47,O43,O39,O35,O31,O27,O23,O19,O15,O11,O7)</f>
+        <v>867158.16700000002</v>
+      </c>
+      <c r="P128" s="70">
+        <f>Q128/M128</f>
+        <v>0.30454448945182827</v>
+      </c>
+      <c r="Q128" s="68">
+        <f>SUM(Q127,Q123,Q119,Q115,Q111,Q107,Q103,Q99,Q95,Q91,Q87,Q83,Q79,Q75,Q71,Q67,Q63,Q59,Q55,Q51,Q47,Q43,Q39,Q35,Q31,Q27,Q23,Q19,Q15,Q11,Q7)</f>
+        <v>424112.00600000005</v>
+      </c>
+      <c r="R128" s="70">
+        <f>T128/M128</f>
+        <v>7.2781227492817471E-2</v>
+      </c>
+      <c r="S128" s="138"/>
+      <c r="T128" s="68">
+        <f>SUM(T127,T123,T119,T115,T111,T107,T103,T99,T95,T91,T87,T83,T79,T75,T71,T67,T63,T59,T55,T51,T47,T43,T39,T35,T31,T27,T23,T19,T15,T11,T7)</f>
+        <v>101355.93800000002</v>
+      </c>
+      <c r="U128" s="70">
+        <f>V128/M128</f>
+        <v>0.21585679705244329</v>
+      </c>
+      <c r="V128" s="68">
+        <f>SUM(V127,V123,V119,V115,V111,V107,V103,V99,V95,V91,V87,V83,V79,V75,V71,V67,V63,V59,V55,V51,V47,V43,V39,V35,V31,V27,V23,V19,V15,V11,V7)</f>
+        <v>300604.5500000001</v>
+      </c>
+      <c r="W128" s="70">
+        <f>X128/M128</f>
+        <v>0.48125562342965839</v>
+      </c>
+      <c r="X128" s="68">
+        <f>SUM(X127,X123,X119,X115,X111,X107,X103,X99,X95,X91,X87,X83,X79,X75,X71,X67,X63,X59,X55,X51,X47,X43,X39,X35,X31,X27,X23,X19,X15,X11,X7)</f>
+        <v>670201.875</v>
+      </c>
+      <c r="Y128" s="70">
+        <f>IF(AND(M128&gt;0),(Z128/M128),0)</f>
+        <v>0.42406773320044139</v>
+      </c>
+      <c r="Z128" s="68">
+        <f>SUM(Z127,Z123,Z119,Z115,Z111,Z107,Z103,Z99,Z95,Z91,Z87,Z83,Z79,Z75,Z71,Z67,Z63,Z59,Z55,Z51,Z47,Z43,Z39,Z35,Z31,Z27,Z23,Z19,Z15,Z11,Z7)</f>
+        <v>590561.3899999999</v>
+      </c>
+      <c r="AA128" s="153">
+        <f>IF(AND(K128&gt;0),(AB128/K128),0)</f>
+        <v>2.1221326359906084E-3</v>
+      </c>
+      <c r="AB128" s="68">
+        <f>SUM(AB127,AB123,AB119,AB115,AB111,AB107,AB103,AB99,AB95,AB91,AB87,AB83,AB79,AB75,AB71,AB67,AB63,AB59,AB55,AB51,AB47,AB43,AB39,AB35,AB31,AB27,AB23,AB19,AB15,AB11,AB7)</f>
+        <v>3143.3919900000005</v>
+      </c>
+      <c r="AC128" s="71">
+        <f>IF(AND(M128&gt;0),(AD128/M128),0)</f>
+        <v>2.5155081928837273E-3</v>
+      </c>
+      <c r="AD128" s="68">
+        <f>SUM(AD127,AD123,AD119,AD115,AD111,AD107,AD103,AD99,AD95,AD91,AD87,AD83,AD79,AD75,AD71,AD67,AD63,AD59,AD55,AD51,AD47,AD43,AD39,AD35,AD31,AD27,AD23,AD19,AD15,AD11,AD7)</f>
+        <v>3503.1243800000002</v>
+      </c>
+      <c r="AE128" s="72">
+        <f>(AG128+AP128)/M128</f>
+        <v>2.5299585501622492E-3</v>
+      </c>
+      <c r="AF128" s="73">
+        <f>AG128/(M128-AL128)</f>
+        <v>3.1326607941164082E-4</v>
+      </c>
+      <c r="AG128" s="74">
+        <f>SUM(AG127,AG123,AG119,AG115,AG111,AG107,AG103,AG99,AG95,AG91,AG87,AG83,AG79,AG75,AG71,AG67,AG63,AG59,AG55,AG51,AG47,AG43,AG39,AG35,AG31,AG27,AG23,AG19,AG15,AG11,AG7)</f>
+        <v>431.23394000000002</v>
+      </c>
+      <c r="AH128" s="70">
+        <f>AI128/AL128</f>
+        <v>0.19446404031302617</v>
+      </c>
+      <c r="AI128" s="68">
+        <f>SUM(AI127,AI123,AI119,AI115,AI111,AI107,AI103,AI99,AI95,AI91,AI87,AI83,AI79,AI75,AI71,AI67,AI63,AI59,AI55,AI51,AI47,AI43,AI39,AI35,AI31,AI27,AI23,AI19,AI15,AI11,AI7)</f>
+        <v>3118.6198145000008</v>
+      </c>
+      <c r="AJ128" s="75">
+        <f>((AC128-AF128)*AH128)/((AH128-AF128)*AC128)</f>
+        <v>0.87687866830420369</v>
+      </c>
+      <c r="AK128" s="76">
+        <f>((AE128-AF128)*AN128)/((AN128-AF128)*AE128)</f>
+        <v>0.8776033004305257</v>
+      </c>
+      <c r="AL128" s="68">
+        <f>SUM(AL127,AL123,AL119,AL115,AL111,AL107,AL103,AL99,AL95,AL91,AL87,AL83,AL79,AL75,AL71,AL67,AL63,AL59,AL55,AL51,AL47,AL43,AL39,AL35,AL31,AL27,AL23,AL19,AL15,AL11,AL7)</f>
+        <v>16037</v>
+      </c>
+      <c r="AM128" s="69">
+        <f>(AM7*AL7+AL11*AM11+AL15*AM15+AM19*AL19+AM23*AL23+AL27*AM27+AL31*AM31+AL35*AM35+AL39*AM39+AL43*AM43+AL47*AM47+AL51*AM51+AL55*AM55+AL59*AM59+AL63*AM63+AL67*AM67+AL71*AM71+AL75*AM75+AL79*AM79+AL83*AM83+AL87*AM87+AL91*AM91+AL95*AM95+AL99*AM99+AL103*AM103+AL107*AM107+AL111*AM111+AL115*AM115+AL119*AM119+AL123*AM123+AL127*AM127)/AL128</f>
+        <v>8.7699382677558155E-2</v>
+      </c>
+      <c r="AN128" s="70">
+        <f>AP128/AL128</f>
+        <v>0.19280502378873854</v>
+      </c>
+      <c r="AO128" s="138">
+        <f>AQ128/AL128</f>
+        <v>0.18031768413668392</v>
+      </c>
+      <c r="AP128" s="68">
+        <f>SUM(AP127,AP123,AP119,AP115,AP111,AP107,AP103,AP99,AP95,AP91,AP87,AP83,AP79,AP75,AP71,AP67,AP63,AP59,AP55,AP51,AP47,AP43,AP39,AP35,AP31,AP27,AP23,AP19,AP15,AP11,AP7)</f>
+        <v>3092.0141665000001</v>
+      </c>
+      <c r="AQ128" s="139">
+        <f>SUM(AQ127,AQ123,AQ119,AQ115,AQ111,AQ107,AQ103,AQ99,AQ95,AQ91,AQ87,AQ83,AQ79,AQ75,AQ71,AQ67,AQ63,AQ59,AQ55,AQ51,AQ47,AQ43,AQ39,AQ35,AQ31,AQ27,AQ23,AQ19,AQ15,AQ11,AQ7)</f>
+        <v>2891.7547005000001</v>
+      </c>
+      <c r="AR128" s="68"/>
+      <c r="AS128" s="104">
+        <f>SUM(AS127,AS123,AS119,AS115,AS111,AS107,AS103,AS99,AS95,AS91,AS87,AS83,AS79,AS75,AS71,AS67,AS63,AS59,AS55,AS51,AS47,AS43,AS39,AS35,AS31,AS27,AS23,AS19,AS15,AS11,AS7)</f>
+        <v>16189.419999999998</v>
+      </c>
+      <c r="AT128" s="105"/>
+      <c r="AU128" s="106"/>
+      <c r="AV128" s="68">
+        <f>SUM(AV127,AV123,AV119,AV115,AV111,AV107,AV103,AV99,AV95,AV91,AV87,AV83,AV79,AV75,AV71,AV67,AV63,AV59,AV55,AV51,AV47,AV43,AV39,AV35,AV31,AV27,AV23,AV19,AV15,AV11,AV7)</f>
+        <v>0</v>
+      </c>
+      <c r="AW128" s="68"/>
+      <c r="AX128" s="68"/>
+      <c r="AY128" s="68"/>
+      <c r="AZ128" s="68"/>
+      <c r="BA128" s="68"/>
+    </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="Q1:Q3 V1:V3 X1:X3 Z1:Z3 O1:O3 T1:T3 AG1:AG3 AD1:AE3 AD112:AE1048576 O112:O1048576 Q112:Q1048576 T112:T1048576 V112:V1048576 X112:X1048576 Z112:Z1048576 AG112:AG1048576 M1:M43 AK1:AK43 AP1:AQ43 M112:M1048576 AK112:AK1048576 AP112:AQ1048576" name="Range1_1_1_1_1_1_1_1_1"/>
-    <protectedRange sqref="AH3:AJ3 AH7:AJ7 AI1:AJ2 AH4:AI6 AH28:AI30 AH32:AI34 AH11:AJ11 AH15:AJ15 AH19:AJ19 AH23:AJ23 AH27:AJ27 AH31:AJ31 AH35:AJ35 AH39:AJ39 AH43:AJ43 AH36:AI38 AH40:AI42 AH8:AI10 AH12:AI14 AH16:AI18 AH20:AI22 AH24:AI26 AH112:AJ1048576" name="Range1_1_1_1_1_1_1"/>
+    <protectedRange sqref="Q1:Q3 V1:V3 X1:X3 Z1:Z3 O1:O3 T1:T3 AG1:AG3 AD1:AE3 AD129:AE1048576 O129:O1048576 Q129:Q1048576 T129:T1048576 V129:V1048576 X129:X1048576 Z129:Z1048576 AG129:AG1048576 M1:M43 AK1:AK43 AP1:AQ43 M129:M1048576 AK129:AK1048576 AP129:AQ1048576" name="Range1_1_1_1_1_1_1_1_1"/>
+    <protectedRange sqref="AH3:AJ3 AH7:AJ7 AI1:AJ2 AH4:AI6 AH28:AI30 AH32:AI34 AH11:AJ11 AH15:AJ15 AH19:AJ19 AH23:AJ23 AH27:AJ27 AH31:AJ31 AH35:AJ35 AH39:AJ39 AH43:AJ43 AH36:AI38 AH40:AI42 AH8:AI10 AH12:AI14 AH16:AI18 AH20:AI22 AH24:AI26 AH129:AJ1048576" name="Range1_1_1_1_1_1_1"/>
     <protectedRange sqref="AJ4:AJ6 AJ8:AJ10 AJ12:AJ14 AJ16:AJ18 AJ20:AJ22 AJ24:AJ26 AJ28:AJ30 AJ32:AJ34 AJ36:AJ38 AJ40:AJ42" name="Range1_1_1_1"/>
     <protectedRange sqref="AD7:AE7 AD4:AD6 AD11:AE11 AD8:AD10 AD15:AE15 AD12:AD14 AD19:AE19 AD16:AD18 AD23:AE23 AD20:AD22 AD27:AE27 AD24:AD26 AD31:AE31 AD28:AD30 AD35:AE35 AD32:AD34 AD39:AE39 AD36:AD38 AD43:AE43 AD40:AD42" name="Range1_1_1_1_1_2_2_1"/>
     <protectedRange sqref="O4:O43" name="Range1_1_1_1_1_5_1_1"/>
@@ -40750,7 +43632,7 @@
     <protectedRange sqref="AE32:AE34" name="Range1_1_1_1_1_2_1_7_1_1_1"/>
     <protectedRange sqref="AE36:AE38" name="Range1_1_1_1_1_2_1_8_1_1_1"/>
     <protectedRange sqref="AE40:AE42" name="Range1_1_1_1_1_2_1_9_1_1_1"/>
-    <protectedRange sqref="AA3:AB3 AA112:AB1048576" name="Range1_1_1_1_1_1_1_1_1_1"/>
+    <protectedRange sqref="AA3:AB3 AA129:AB1048576" name="Range1_1_1_1_1_1_1_1_1_1"/>
     <protectedRange sqref="AB4:AB43" name="Range1_1_1_1_1_2_2_1_1"/>
     <protectedRange sqref="AB1" name="Range1_1_1_1_1_1_1_1_1_1_1"/>
     <protectedRange sqref="AP44:AQ54 AK44:AK54 M44:M54" name="Range1_1_1_1_1_1_1_1_1_2"/>
@@ -40806,16 +43688,31 @@
     <protectedRange sqref="AE104:AE106" name="Range1_1_1_1_1_2_1_25_1_1_1"/>
     <protectedRange sqref="AE108:AE110" name="Range1_1_1_1_1_2_1_26_1_1_1"/>
     <protectedRange sqref="AB96:AB111" name="Range1_1_1_1_1_2_2_1_1_3"/>
+    <protectedRange sqref="AP112:AQ128 AK112:AK128 AD128:AE128 O128 Q128 T128 V128 X128 Z128 AG128 M112:M128" name="Range1_1_1_1_1_1_1_1_1_5"/>
+    <protectedRange sqref="AJ127:AJ128 AI128 AH115:AJ115 AH119:AJ119 AH123:AJ123 AH112:AI114 AH116:AI118 AH120:AI122 AH124:AI127" name="Range1_1_1_1_1_1_1_4"/>
+    <protectedRange sqref="AJ112:AJ114 AJ116:AJ118 AJ120:AJ122 AJ124:AJ126" name="Range1_1_1_1_4"/>
+    <protectedRange sqref="AD115:AE115 AD112:AD114 AD119:AE119 AD116:AD118 AD123:AE123 AD120:AD122 AD127:AE127 AD124:AD126" name="Range1_1_1_1_1_2_2_1_5"/>
+    <protectedRange sqref="O112:O127" name="Range1_1_1_1_1_5_1_1_4"/>
+    <protectedRange sqref="Q112:Q127" name="Range1_1_1_1_1_7_1_1_4"/>
+    <protectedRange sqref="T112:T127" name="Range1_1_1_1_1_8_1_1_4"/>
+    <protectedRange sqref="V112:V127" name="Range1_1_1_1_1_10_1_1_4"/>
+    <protectedRange sqref="X112:X127" name="Range1_1_1_1_1_12_1_1_4"/>
+    <protectedRange sqref="Z112:Z127" name="Range1_1_1_1_1_16_1_1_4"/>
+    <protectedRange sqref="AG112:AG127" name="Range1_1_1_1_1_18_1_1_4"/>
+    <protectedRange sqref="AE112:AE114" name="Range1_1_1_1_1_2_1_27_1_1_1"/>
+    <protectedRange sqref="AE116:AE118" name="Range1_1_1_1_1_2_1_28_1_1_1"/>
+    <protectedRange sqref="AE120:AE122" name="Range1_1_1_1_1_2_1_29_1_1_1"/>
+    <protectedRange sqref="AE124:AE126" name="Range1_1_1_1_1_2_1_30_1_1_1"/>
+    <protectedRange sqref="AA128:AB128" name="Range1_1_1_1_1_1_1_1_1_1_2"/>
+    <protectedRange sqref="AB112:AB127" name="Range1_1_1_1_1_2_2_1_1_4"/>
   </protectedRanges>
-  <mergeCells count="31">
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
+  <mergeCells count="35">
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="A120:A123"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A32:A35"/>
@@ -40829,6 +43726,14 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="A60:A63"/>
     <mergeCell ref="A64:A67"/>
@@ -40837,8 +43742,6 @@
     <mergeCell ref="A76:A79"/>
     <mergeCell ref="A80:A83"/>
     <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A92:A95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dispatchers_rep/Doklad_Dispecheri_2025!.xlsx
+++ b/dispatchers_rep/Doklad_Dispecheri_2025!.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F271A7F6-0866-4D37-A078-FD1B7F2FCB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7821C385-163F-4051-ADD6-1EF91D4DCF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Юни" sheetId="6" r:id="rId1"/>
     <sheet name="Юли" sheetId="7" r:id="rId2"/>
+    <sheet name="Август" sheetId="8" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -620,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="70">
   <si>
     <t xml:space="preserve">Подадена руда
  от МГТЛ 
@@ -864,6 +868,18 @@
   <si>
     <t>Смилане 
  класа     + 0,20мм</t>
+  </si>
+  <si>
+    <t>Класа 
+ +12,5мм.</t>
+  </si>
+  <si>
+    <t>Смилане 
+ класа         +0,20мм</t>
+  </si>
+  <si>
+    <t>Меден 
+концентра, автомобилна везна</t>
   </si>
 </sst>
 </file>
@@ -1672,9 +1688,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1682,9 +1695,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1705,6 +1715,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1722,6 +1738,50 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Януари "/>
+      <sheetName val="Февруари"/>
+      <sheetName val="Март"/>
+      <sheetName val="Април"/>
+      <sheetName val="Май"/>
+      <sheetName val="Юни"/>
+      <sheetName val="Юли"/>
+      <sheetName val="Август"/>
+      <sheetName val="Септември"/>
+      <sheetName val="Октомври"/>
+      <sheetName val="Ноември"/>
+      <sheetName val="Декември"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="127">
+          <cell r="AU127">
+            <v>1478.34</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2014,7 +2074,7 @@
   <dimension ref="A1:BA132"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="P1" sqref="P1:P1048576"/>
@@ -2079,13 +2139,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="185" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -2214,19 +2274,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="182" t="s">
+      <c r="AX1" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="182"/>
-      <c r="AZ1" s="182" t="s">
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="182"/>
+      <c r="BA1" s="191"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="192"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="188"/>
+      <c r="A2" s="190"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="186"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -2417,7 +2477,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183">
+      <c r="A4" s="182">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -2579,7 +2639,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" s="184"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -2739,7 +2799,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="184"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -2899,7 +2959,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="184"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -3070,7 +3130,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="183">
+      <c r="A8" s="182">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -3234,7 +3294,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" s="184"/>
+      <c r="A9" s="183"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -3394,7 +3454,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" s="184"/>
+      <c r="A10" s="183"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -3554,7 +3614,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="184"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -3725,7 +3785,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="183">
+      <c r="A12" s="182">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -3889,7 +3949,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" s="184"/>
+      <c r="A13" s="183"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -4049,7 +4109,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14" s="184"/>
+      <c r="A14" s="183"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -4209,7 +4269,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="184"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -4380,7 +4440,7 @@
       <c r="BA15" s="57"/>
     </row>
     <row r="16" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="183">
+      <c r="A16" s="182">
         <v>4</v>
       </c>
       <c r="B16" s="22">
@@ -4544,7 +4604,7 @@
       <c r="BA16" s="19"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A17" s="184"/>
+      <c r="A17" s="183"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -4704,7 +4764,7 @@
       <c r="BA17" s="44"/>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18" s="184"/>
+      <c r="A18" s="183"/>
       <c r="B18" s="32">
         <v>3</v>
       </c>
@@ -4864,7 +4924,7 @@
       <c r="BA18" s="40"/>
     </row>
     <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+      <c r="A19" s="184"/>
       <c r="B19" s="48" t="s">
         <v>35</v>
       </c>
@@ -5035,7 +5095,7 @@
       <c r="BA19" s="57"/>
     </row>
     <row r="20" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="183">
+      <c r="A20" s="182">
         <v>5</v>
       </c>
       <c r="B20" s="22">
@@ -5199,7 +5259,7 @@
       <c r="BA20" s="19"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" s="184"/>
+      <c r="A21" s="183"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
@@ -5359,7 +5419,7 @@
       <c r="BA21" s="44"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22" s="184"/>
+      <c r="A22" s="183"/>
       <c r="B22" s="32">
         <v>3</v>
       </c>
@@ -5519,7 +5579,7 @@
       <c r="BA22" s="40"/>
     </row>
     <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="185"/>
+      <c r="A23" s="184"/>
       <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
@@ -5690,7 +5750,7 @@
       <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="183">
+      <c r="A24" s="182">
         <v>6</v>
       </c>
       <c r="B24" s="22">
@@ -5856,7 +5916,7 @@
       <c r="BA24" s="19"/>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A25" s="184"/>
+      <c r="A25" s="183"/>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -6016,7 +6076,7 @@
       <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A26" s="184"/>
+      <c r="A26" s="183"/>
       <c r="B26" s="32">
         <v>3</v>
       </c>
@@ -6176,7 +6236,7 @@
       <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
+      <c r="A27" s="184"/>
       <c r="B27" s="48" t="s">
         <v>35</v>
       </c>
@@ -6347,7 +6407,7 @@
       <c r="BA27" s="57"/>
     </row>
     <row r="28" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="183">
+      <c r="A28" s="182">
         <v>7</v>
       </c>
       <c r="B28" s="22">
@@ -6509,7 +6569,7 @@
       <c r="BA28" s="19"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A29" s="184"/>
+      <c r="A29" s="183"/>
       <c r="B29" s="32">
         <v>2</v>
       </c>
@@ -6669,7 +6729,7 @@
       <c r="BA29" s="44"/>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A30" s="184"/>
+      <c r="A30" s="183"/>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -6829,7 +6889,7 @@
       <c r="BA30" s="40"/>
     </row>
     <row r="31" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185"/>
+      <c r="A31" s="184"/>
       <c r="B31" s="48" t="s">
         <v>35</v>
       </c>
@@ -7000,7 +7060,7 @@
       <c r="BA31" s="57"/>
     </row>
     <row r="32" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="183">
+      <c r="A32" s="182">
         <v>8</v>
       </c>
       <c r="B32" s="22">
@@ -7162,7 +7222,7 @@
       <c r="BA32" s="19"/>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A33" s="184"/>
+      <c r="A33" s="183"/>
       <c r="B33" s="32">
         <v>2</v>
       </c>
@@ -7322,7 +7382,7 @@
       <c r="BA33" s="44"/>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A34" s="184"/>
+      <c r="A34" s="183"/>
       <c r="B34" s="32">
         <v>3</v>
       </c>
@@ -7482,7 +7542,7 @@
       <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="185"/>
+      <c r="A35" s="184"/>
       <c r="B35" s="48" t="s">
         <v>35</v>
       </c>
@@ -7653,7 +7713,7 @@
       <c r="BA35" s="57"/>
     </row>
     <row r="36" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="183">
+      <c r="A36" s="182">
         <v>9</v>
       </c>
       <c r="B36" s="22">
@@ -7817,7 +7877,7 @@
       <c r="BA36" s="19"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A37" s="184"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="32">
         <v>2</v>
       </c>
@@ -7977,7 +8037,7 @@
       <c r="BA37" s="44"/>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A38" s="184"/>
+      <c r="A38" s="183"/>
       <c r="B38" s="32">
         <v>3</v>
       </c>
@@ -8137,7 +8197,7 @@
       <c r="BA38" s="40"/>
     </row>
     <row r="39" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="185"/>
+      <c r="A39" s="184"/>
       <c r="B39" s="48" t="s">
         <v>35</v>
       </c>
@@ -8308,7 +8368,7 @@
       <c r="BA39" s="57"/>
     </row>
     <row r="40" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="183">
+      <c r="A40" s="182">
         <v>10</v>
       </c>
       <c r="B40" s="22">
@@ -8472,7 +8532,7 @@
       <c r="BA40" s="19"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A41" s="184"/>
+      <c r="A41" s="183"/>
       <c r="B41" s="32">
         <v>2</v>
       </c>
@@ -8632,7 +8692,7 @@
       <c r="BA41" s="44"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A42" s="184"/>
+      <c r="A42" s="183"/>
       <c r="B42" s="32">
         <v>3</v>
       </c>
@@ -8792,7 +8852,7 @@
       <c r="BA42" s="40"/>
     </row>
     <row r="43" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="185"/>
+      <c r="A43" s="184"/>
       <c r="B43" s="48" t="s">
         <v>35</v>
       </c>
@@ -8963,7 +9023,7 @@
       <c r="BA43" s="57"/>
     </row>
     <row r="44" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="183">
+      <c r="A44" s="182">
         <v>11</v>
       </c>
       <c r="B44" s="22">
@@ -9127,7 +9187,7 @@
       <c r="BA44" s="19"/>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A45" s="184"/>
+      <c r="A45" s="183"/>
       <c r="B45" s="32">
         <v>2</v>
       </c>
@@ -9287,7 +9347,7 @@
       <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A46" s="184"/>
+      <c r="A46" s="183"/>
       <c r="B46" s="32">
         <v>3</v>
       </c>
@@ -9447,7 +9507,7 @@
       <c r="BA46" s="40"/>
     </row>
     <row r="47" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="185"/>
+      <c r="A47" s="184"/>
       <c r="B47" s="48" t="s">
         <v>35</v>
       </c>
@@ -9618,7 +9678,7 @@
       <c r="BA47" s="57"/>
     </row>
     <row r="48" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="183">
+      <c r="A48" s="182">
         <v>12</v>
       </c>
       <c r="B48" s="22">
@@ -9784,7 +9844,7 @@
       <c r="BA48" s="19"/>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A49" s="184"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="32">
         <v>2</v>
       </c>
@@ -9944,7 +10004,7 @@
       <c r="BA49" s="44"/>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A50" s="184"/>
+      <c r="A50" s="183"/>
       <c r="B50" s="32">
         <v>3</v>
       </c>
@@ -10104,7 +10164,7 @@
       <c r="BA50" s="40"/>
     </row>
     <row r="51" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="185"/>
+      <c r="A51" s="184"/>
       <c r="B51" s="48" t="s">
         <v>35</v>
       </c>
@@ -10275,7 +10335,7 @@
       <c r="BA51" s="57"/>
     </row>
     <row r="52" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="183">
+      <c r="A52" s="182">
         <v>13</v>
       </c>
       <c r="B52" s="22">
@@ -10439,7 +10499,7 @@
       <c r="BA52" s="19"/>
     </row>
     <row r="53" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A53" s="184"/>
+      <c r="A53" s="183"/>
       <c r="B53" s="32">
         <v>2</v>
       </c>
@@ -10599,7 +10659,7 @@
       <c r="BA53" s="44"/>
     </row>
     <row r="54" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A54" s="184"/>
+      <c r="A54" s="183"/>
       <c r="B54" s="32">
         <v>3</v>
       </c>
@@ -10759,7 +10819,7 @@
       <c r="BA54" s="40"/>
     </row>
     <row r="55" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="185"/>
+      <c r="A55" s="184"/>
       <c r="B55" s="48" t="s">
         <v>35</v>
       </c>
@@ -10930,7 +10990,7 @@
       <c r="BA55" s="57"/>
     </row>
     <row r="56" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="183">
+      <c r="A56" s="182">
         <v>14</v>
       </c>
       <c r="B56" s="22">
@@ -11092,7 +11152,7 @@
       <c r="BA56" s="19"/>
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A57" s="184"/>
+      <c r="A57" s="183"/>
       <c r="B57" s="32">
         <v>2</v>
       </c>
@@ -11252,7 +11312,7 @@
       <c r="BA57" s="44"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A58" s="184"/>
+      <c r="A58" s="183"/>
       <c r="B58" s="32">
         <v>3</v>
       </c>
@@ -11412,7 +11472,7 @@
       <c r="BA58" s="40"/>
     </row>
     <row r="59" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="185"/>
+      <c r="A59" s="184"/>
       <c r="B59" s="48" t="s">
         <v>35</v>
       </c>
@@ -11583,7 +11643,7 @@
       <c r="BA59" s="57"/>
     </row>
     <row r="60" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="183">
+      <c r="A60" s="182">
         <v>15</v>
       </c>
       <c r="B60" s="22">
@@ -11745,7 +11805,7 @@
       <c r="BA60" s="19"/>
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A61" s="184"/>
+      <c r="A61" s="183"/>
       <c r="B61" s="32">
         <v>2</v>
       </c>
@@ -11905,7 +11965,7 @@
       <c r="BA61" s="44"/>
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A62" s="184"/>
+      <c r="A62" s="183"/>
       <c r="B62" s="32">
         <v>3</v>
       </c>
@@ -12065,7 +12125,7 @@
       <c r="BA62" s="40"/>
     </row>
     <row r="63" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="185"/>
+      <c r="A63" s="184"/>
       <c r="B63" s="48" t="s">
         <v>35</v>
       </c>
@@ -12236,7 +12296,7 @@
       <c r="BA63" s="57"/>
     </row>
     <row r="64" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="183">
+      <c r="A64" s="182">
         <v>16</v>
       </c>
       <c r="B64" s="22">
@@ -12400,7 +12460,7 @@
       <c r="BA64" s="19"/>
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A65" s="184"/>
+      <c r="A65" s="183"/>
       <c r="B65" s="32">
         <v>2</v>
       </c>
@@ -12560,7 +12620,7 @@
       <c r="BA65" s="44"/>
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A66" s="184"/>
+      <c r="A66" s="183"/>
       <c r="B66" s="32">
         <v>3</v>
       </c>
@@ -12720,7 +12780,7 @@
       <c r="BA66" s="40"/>
     </row>
     <row r="67" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="185"/>
+      <c r="A67" s="184"/>
       <c r="B67" s="48" t="s">
         <v>35</v>
       </c>
@@ -12891,7 +12951,7 @@
       <c r="BA67" s="57"/>
     </row>
     <row r="68" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="183">
+      <c r="A68" s="182">
         <v>17</v>
       </c>
       <c r="B68" s="22">
@@ -13055,7 +13115,7 @@
       <c r="BA68" s="19"/>
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A69" s="184"/>
+      <c r="A69" s="183"/>
       <c r="B69" s="32">
         <v>2</v>
       </c>
@@ -13215,7 +13275,7 @@
       <c r="BA69" s="44"/>
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A70" s="184"/>
+      <c r="A70" s="183"/>
       <c r="B70" s="32">
         <v>3</v>
       </c>
@@ -13375,7 +13435,7 @@
       <c r="BA70" s="40"/>
     </row>
     <row r="71" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="185"/>
+      <c r="A71" s="184"/>
       <c r="B71" s="48" t="s">
         <v>35</v>
       </c>
@@ -13546,7 +13606,7 @@
       <c r="BA71" s="57"/>
     </row>
     <row r="72" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="183">
+      <c r="A72" s="182">
         <v>18</v>
       </c>
       <c r="B72" s="22">
@@ -13712,7 +13772,7 @@
       <c r="BA72" s="19"/>
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A73" s="184"/>
+      <c r="A73" s="183"/>
       <c r="B73" s="32">
         <v>2</v>
       </c>
@@ -13872,7 +13932,7 @@
       <c r="BA73" s="44"/>
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A74" s="184"/>
+      <c r="A74" s="183"/>
       <c r="B74" s="32">
         <v>3</v>
       </c>
@@ -14032,7 +14092,7 @@
       <c r="BA74" s="40"/>
     </row>
     <row r="75" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="185"/>
+      <c r="A75" s="184"/>
       <c r="B75" s="48" t="s">
         <v>35</v>
       </c>
@@ -14203,7 +14263,7 @@
       <c r="BA75" s="57"/>
     </row>
     <row r="76" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="183">
+      <c r="A76" s="182">
         <v>19</v>
       </c>
       <c r="B76" s="22">
@@ -14367,7 +14427,7 @@
       <c r="BA76" s="175"/>
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A77" s="184"/>
+      <c r="A77" s="183"/>
       <c r="B77" s="32">
         <v>2</v>
       </c>
@@ -14527,7 +14587,7 @@
       <c r="BA77" s="176"/>
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A78" s="184"/>
+      <c r="A78" s="183"/>
       <c r="B78" s="32">
         <v>3</v>
       </c>
@@ -14687,7 +14747,7 @@
       <c r="BA78" s="177"/>
     </row>
     <row r="79" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="185"/>
+      <c r="A79" s="184"/>
       <c r="B79" s="48" t="s">
         <v>35</v>
       </c>
@@ -14858,7 +14918,7 @@
       <c r="BA79" s="179"/>
     </row>
     <row r="80" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="184">
+      <c r="A80" s="183">
         <v>20</v>
       </c>
       <c r="B80" s="32">
@@ -15024,7 +15084,7 @@
       <c r="BA80" s="168"/>
     </row>
     <row r="81" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A81" s="184"/>
+      <c r="A81" s="183"/>
       <c r="B81" s="32">
         <v>2</v>
       </c>
@@ -15184,7 +15244,7 @@
       <c r="BA81" s="44"/>
     </row>
     <row r="82" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A82" s="184"/>
+      <c r="A82" s="183"/>
       <c r="B82" s="32">
         <v>3</v>
       </c>
@@ -15344,7 +15404,7 @@
       <c r="BA82" s="40"/>
     </row>
     <row r="83" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="185"/>
+      <c r="A83" s="184"/>
       <c r="B83" s="48" t="s">
         <v>35</v>
       </c>
@@ -15515,7 +15575,7 @@
       <c r="BA83" s="57"/>
     </row>
     <row r="84" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="183">
+      <c r="A84" s="182">
         <v>21</v>
       </c>
       <c r="B84" s="22">
@@ -15677,7 +15737,7 @@
       <c r="BA84" s="19"/>
     </row>
     <row r="85" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A85" s="184"/>
+      <c r="A85" s="183"/>
       <c r="B85" s="32">
         <v>2</v>
       </c>
@@ -15837,7 +15897,7 @@
       <c r="BA85" s="44"/>
     </row>
     <row r="86" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A86" s="184"/>
+      <c r="A86" s="183"/>
       <c r="B86" s="32">
         <v>3</v>
       </c>
@@ -15997,7 +16057,7 @@
       <c r="BA86" s="40"/>
     </row>
     <row r="87" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="185"/>
+      <c r="A87" s="184"/>
       <c r="B87" s="48" t="s">
         <v>35</v>
       </c>
@@ -16168,7 +16228,7 @@
       <c r="BA87" s="57"/>
     </row>
     <row r="88" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="183">
+      <c r="A88" s="182">
         <v>22</v>
       </c>
       <c r="B88" s="22">
@@ -16330,7 +16390,7 @@
       <c r="BA88" s="19"/>
     </row>
     <row r="89" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A89" s="184"/>
+      <c r="A89" s="183"/>
       <c r="B89" s="32">
         <v>2</v>
       </c>
@@ -16490,7 +16550,7 @@
       <c r="BA89" s="44"/>
     </row>
     <row r="90" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A90" s="184"/>
+      <c r="A90" s="183"/>
       <c r="B90" s="32">
         <v>3</v>
       </c>
@@ -16650,7 +16710,7 @@
       <c r="BA90" s="40"/>
     </row>
     <row r="91" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="185"/>
+      <c r="A91" s="184"/>
       <c r="B91" s="48" t="s">
         <v>35</v>
       </c>
@@ -16821,7 +16881,7 @@
       <c r="BA91" s="57"/>
     </row>
     <row r="92" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="183">
+      <c r="A92" s="182">
         <v>23</v>
       </c>
       <c r="B92" s="22">
@@ -16985,7 +17045,7 @@
       <c r="BA92" s="19"/>
     </row>
     <row r="93" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A93" s="184"/>
+      <c r="A93" s="183"/>
       <c r="B93" s="32">
         <v>2</v>
       </c>
@@ -17145,7 +17205,7 @@
       <c r="BA93" s="44"/>
     </row>
     <row r="94" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A94" s="184"/>
+      <c r="A94" s="183"/>
       <c r="B94" s="32">
         <v>3</v>
       </c>
@@ -17305,7 +17365,7 @@
       <c r="BA94" s="40"/>
     </row>
     <row r="95" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="185"/>
+      <c r="A95" s="184"/>
       <c r="B95" s="48" t="s">
         <v>35</v>
       </c>
@@ -17476,7 +17536,7 @@
       <c r="BA95" s="57"/>
     </row>
     <row r="96" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="183">
+      <c r="A96" s="182">
         <v>24</v>
       </c>
       <c r="B96" s="22">
@@ -17642,7 +17702,7 @@
       <c r="BA96" s="19"/>
     </row>
     <row r="97" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A97" s="184"/>
+      <c r="A97" s="183"/>
       <c r="B97" s="32">
         <v>2</v>
       </c>
@@ -17802,7 +17862,7 @@
       <c r="BA97" s="44"/>
     </row>
     <row r="98" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A98" s="184"/>
+      <c r="A98" s="183"/>
       <c r="B98" s="32">
         <v>3</v>
       </c>
@@ -17962,7 +18022,7 @@
       <c r="BA98" s="40"/>
     </row>
     <row r="99" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="185"/>
+      <c r="A99" s="184"/>
       <c r="B99" s="48" t="s">
         <v>35</v>
       </c>
@@ -18130,7 +18190,7 @@
       <c r="BA99" s="57"/>
     </row>
     <row r="100" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="186">
+      <c r="A100" s="192">
         <v>25</v>
       </c>
       <c r="B100" s="32">
@@ -18296,7 +18356,7 @@
       <c r="BA100" s="19"/>
     </row>
     <row r="101" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A101" s="186"/>
+      <c r="A101" s="192"/>
       <c r="B101" s="32">
         <v>2</v>
       </c>
@@ -18456,7 +18516,7 @@
       <c r="BA101" s="44"/>
     </row>
     <row r="102" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A102" s="186"/>
+      <c r="A102" s="192"/>
       <c r="B102" s="32">
         <v>3</v>
       </c>
@@ -18616,7 +18676,7 @@
       <c r="BA102" s="40"/>
     </row>
     <row r="103" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="186"/>
+      <c r="A103" s="192"/>
       <c r="B103" s="65" t="s">
         <v>35</v>
       </c>
@@ -18787,7 +18847,7 @@
       <c r="BA103" s="57"/>
     </row>
     <row r="104" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="183">
+      <c r="A104" s="182">
         <v>26</v>
       </c>
       <c r="B104" s="22">
@@ -18953,7 +19013,7 @@
       <c r="BA104" s="19"/>
     </row>
     <row r="105" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A105" s="184"/>
+      <c r="A105" s="183"/>
       <c r="B105" s="32">
         <v>2</v>
       </c>
@@ -19113,7 +19173,7 @@
       <c r="BA105" s="44"/>
     </row>
     <row r="106" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A106" s="184"/>
+      <c r="A106" s="183"/>
       <c r="B106" s="32">
         <v>3</v>
       </c>
@@ -19273,7 +19333,7 @@
       <c r="BA106" s="40"/>
     </row>
     <row r="107" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="185"/>
+      <c r="A107" s="184"/>
       <c r="B107" s="48" t="s">
         <v>35</v>
       </c>
@@ -19444,7 +19504,7 @@
       <c r="BA107" s="57"/>
     </row>
     <row r="108" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="183">
+      <c r="A108" s="182">
         <v>27</v>
       </c>
       <c r="B108" s="22">
@@ -19610,7 +19670,7 @@
       <c r="BA108" s="19"/>
     </row>
     <row r="109" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A109" s="184"/>
+      <c r="A109" s="183"/>
       <c r="B109" s="32">
         <v>2</v>
       </c>
@@ -19770,7 +19830,7 @@
       <c r="BA109" s="44"/>
     </row>
     <row r="110" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A110" s="184"/>
+      <c r="A110" s="183"/>
       <c r="B110" s="32">
         <v>3</v>
       </c>
@@ -19930,7 +19990,7 @@
       <c r="BA110" s="40"/>
     </row>
     <row r="111" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="185"/>
+      <c r="A111" s="184"/>
       <c r="B111" s="48" t="s">
         <v>35</v>
       </c>
@@ -20101,7 +20161,7 @@
       <c r="BA111" s="57"/>
     </row>
     <row r="112" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="183">
+      <c r="A112" s="182">
         <v>28</v>
       </c>
       <c r="B112" s="22">
@@ -20263,7 +20323,7 @@
       <c r="BA112" s="19"/>
     </row>
     <row r="113" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A113" s="184"/>
+      <c r="A113" s="183"/>
       <c r="B113" s="32">
         <v>2</v>
       </c>
@@ -20423,7 +20483,7 @@
       <c r="BA113" s="44"/>
     </row>
     <row r="114" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A114" s="184"/>
+      <c r="A114" s="183"/>
       <c r="B114" s="32">
         <v>3</v>
       </c>
@@ -20583,7 +20643,7 @@
       <c r="BA114" s="40"/>
     </row>
     <row r="115" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="185"/>
+      <c r="A115" s="184"/>
       <c r="B115" s="48" t="s">
         <v>35</v>
       </c>
@@ -20754,7 +20814,7 @@
       <c r="BA115" s="57"/>
     </row>
     <row r="116" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="184">
+      <c r="A116" s="183">
         <v>29</v>
       </c>
       <c r="B116" s="32">
@@ -20916,7 +20976,7 @@
       <c r="BA116" s="19"/>
     </row>
     <row r="117" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A117" s="184"/>
+      <c r="A117" s="183"/>
       <c r="B117" s="32">
         <v>2</v>
       </c>
@@ -21076,7 +21136,7 @@
       <c r="BA117" s="44"/>
     </row>
     <row r="118" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A118" s="184"/>
+      <c r="A118" s="183"/>
       <c r="B118" s="32">
         <v>3</v>
       </c>
@@ -21236,7 +21296,7 @@
       <c r="BA118" s="40"/>
     </row>
     <row r="119" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="185"/>
+      <c r="A119" s="184"/>
       <c r="B119" s="48" t="s">
         <v>35</v>
       </c>
@@ -21407,7 +21467,7 @@
       <c r="BA119" s="57"/>
     </row>
     <row r="120" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="183">
+      <c r="A120" s="182">
         <v>30</v>
       </c>
       <c r="B120" s="22">
@@ -21573,7 +21633,7 @@
       <c r="BA120" s="19"/>
     </row>
     <row r="121" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A121" s="184"/>
+      <c r="A121" s="183"/>
       <c r="B121" s="32">
         <v>2</v>
       </c>
@@ -21733,7 +21793,7 @@
       <c r="BA121" s="44"/>
     </row>
     <row r="122" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A122" s="184"/>
+      <c r="A122" s="183"/>
       <c r="B122" s="32">
         <v>3</v>
       </c>
@@ -21893,7 +21953,7 @@
       <c r="BA122" s="40"/>
     </row>
     <row r="123" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="185"/>
+      <c r="A123" s="184"/>
       <c r="B123" s="48" t="s">
         <v>35</v>
       </c>
@@ -22064,7 +22124,7 @@
       <c r="BA123" s="57"/>
     </row>
     <row r="124" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="183">
+      <c r="A124" s="182">
         <v>31</v>
       </c>
       <c r="B124" s="22">
@@ -22174,7 +22234,7 @@
       <c r="BA124" s="19"/>
     </row>
     <row r="125" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A125" s="184"/>
+      <c r="A125" s="183"/>
       <c r="B125" s="32">
         <v>2</v>
       </c>
@@ -22282,7 +22342,7 @@
       <c r="BA125" s="44"/>
     </row>
     <row r="126" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A126" s="184"/>
+      <c r="A126" s="183"/>
       <c r="B126" s="32">
         <v>3</v>
       </c>
@@ -22390,7 +22450,7 @@
       <c r="BA126" s="40"/>
     </row>
     <row r="127" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="185"/>
+      <c r="A127" s="184"/>
       <c r="B127" s="48" t="s">
         <v>35</v>
       </c>
@@ -22783,26 +22843,6 @@
     <protectedRange sqref="AB1" name="Range1_1_1_1_1_1_1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="36">
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="A120:A123"/>
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A100:A103"/>
@@ -22819,6 +22859,26 @@
     <mergeCell ref="A68:A71"/>
     <mergeCell ref="A84:A87"/>
     <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22830,8 +22890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BA128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D102" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D122" sqref="D122"/>
@@ -22896,13 +22956,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="185" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -23031,19 +23091,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="182" t="s">
+      <c r="AX1" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="182"/>
-      <c r="AZ1" s="182" t="s">
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="182"/>
+      <c r="BA1" s="191"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="192"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="188"/>
+      <c r="A2" s="190"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="186"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -23234,7 +23294,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183">
+      <c r="A4" s="182">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -23398,7 +23458,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" s="184"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -23557,7 +23617,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="184"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -23716,7 +23776,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="184"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -23887,7 +23947,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="183">
+      <c r="A8" s="182">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -24051,7 +24111,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" s="184"/>
+      <c r="A9" s="183"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -24211,7 +24271,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" s="184"/>
+      <c r="A10" s="183"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -24371,7 +24431,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="184"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -24542,7 +24602,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="183">
+      <c r="A12" s="182">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -24704,7 +24764,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" s="184"/>
+      <c r="A13" s="183"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -24864,7 +24924,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14" s="184"/>
+      <c r="A14" s="183"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -25024,7 +25084,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="184"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -25195,7 +25255,7 @@
       <c r="BA15" s="57"/>
     </row>
     <row r="16" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="183">
+      <c r="A16" s="182">
         <v>4</v>
       </c>
       <c r="B16" s="22">
@@ -25357,7 +25417,7 @@
       <c r="BA16" s="19"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A17" s="184"/>
+      <c r="A17" s="183"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -25517,7 +25577,7 @@
       <c r="BA17" s="44"/>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18" s="184"/>
+      <c r="A18" s="183"/>
       <c r="B18" s="32">
         <v>3</v>
       </c>
@@ -25677,7 +25737,7 @@
       <c r="BA18" s="40"/>
     </row>
     <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+      <c r="A19" s="184"/>
       <c r="B19" s="48" t="s">
         <v>35</v>
       </c>
@@ -25848,7 +25908,7 @@
       <c r="BA19" s="57"/>
     </row>
     <row r="20" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="183">
+      <c r="A20" s="182">
         <v>5</v>
       </c>
       <c r="B20" s="22">
@@ -26010,7 +26070,7 @@
       <c r="BA20" s="19"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" s="184"/>
+      <c r="A21" s="183"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
@@ -26170,7 +26230,7 @@
       <c r="BA21" s="44"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22" s="184"/>
+      <c r="A22" s="183"/>
       <c r="B22" s="32">
         <v>3</v>
       </c>
@@ -26330,7 +26390,7 @@
       <c r="BA22" s="40"/>
     </row>
     <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="185"/>
+      <c r="A23" s="184"/>
       <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
@@ -26501,7 +26561,7 @@
       <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="183">
+      <c r="A24" s="182">
         <v>6</v>
       </c>
       <c r="B24" s="22">
@@ -26663,7 +26723,7 @@
       <c r="BA24" s="19"/>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A25" s="184"/>
+      <c r="A25" s="183"/>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -26823,7 +26883,7 @@
       <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A26" s="184"/>
+      <c r="A26" s="183"/>
       <c r="B26" s="32">
         <v>3</v>
       </c>
@@ -26983,7 +27043,7 @@
       <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
+      <c r="A27" s="184"/>
       <c r="B27" s="48" t="s">
         <v>35</v>
       </c>
@@ -27154,7 +27214,7 @@
       <c r="BA27" s="57"/>
     </row>
     <row r="28" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="183">
+      <c r="A28" s="182">
         <v>7</v>
       </c>
       <c r="B28" s="22">
@@ -27318,7 +27378,7 @@
       <c r="BA28" s="19"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A29" s="184"/>
+      <c r="A29" s="183"/>
       <c r="B29" s="32">
         <v>2</v>
       </c>
@@ -27476,7 +27536,7 @@
       <c r="BA29" s="44"/>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A30" s="184"/>
+      <c r="A30" s="183"/>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -27634,7 +27694,7 @@
       <c r="BA30" s="40"/>
     </row>
     <row r="31" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185"/>
+      <c r="A31" s="184"/>
       <c r="B31" s="48" t="s">
         <v>35</v>
       </c>
@@ -27805,7 +27865,7 @@
       <c r="BA31" s="57"/>
     </row>
     <row r="32" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="183">
+      <c r="A32" s="182">
         <v>8</v>
       </c>
       <c r="B32" s="22">
@@ -27969,7 +28029,7 @@
       <c r="BA32" s="19"/>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A33" s="184"/>
+      <c r="A33" s="183"/>
       <c r="B33" s="32">
         <v>2</v>
       </c>
@@ -28129,7 +28189,7 @@
       <c r="BA33" s="44"/>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A34" s="184"/>
+      <c r="A34" s="183"/>
       <c r="B34" s="32">
         <v>3</v>
       </c>
@@ -28289,7 +28349,7 @@
       <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="185"/>
+      <c r="A35" s="184"/>
       <c r="B35" s="48" t="s">
         <v>35</v>
       </c>
@@ -28460,7 +28520,7 @@
       <c r="BA35" s="57"/>
     </row>
     <row r="36" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="183">
+      <c r="A36" s="182">
         <v>9</v>
       </c>
       <c r="B36" s="22">
@@ -28624,7 +28684,7 @@
       <c r="BA36" s="19"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A37" s="184"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="32">
         <v>2</v>
       </c>
@@ -28784,7 +28844,7 @@
       <c r="BA37" s="44"/>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A38" s="184"/>
+      <c r="A38" s="183"/>
       <c r="B38" s="32">
         <v>3</v>
       </c>
@@ -28944,7 +29004,7 @@
       <c r="BA38" s="40"/>
     </row>
     <row r="39" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="185"/>
+      <c r="A39" s="184"/>
       <c r="B39" s="48" t="s">
         <v>35</v>
       </c>
@@ -29115,7 +29175,7 @@
       <c r="BA39" s="57"/>
     </row>
     <row r="40" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="183">
+      <c r="A40" s="182">
         <v>10</v>
       </c>
       <c r="B40" s="22">
@@ -29279,7 +29339,7 @@
       <c r="BA40" s="19"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A41" s="184"/>
+      <c r="A41" s="183"/>
       <c r="B41" s="32">
         <v>2</v>
       </c>
@@ -29435,7 +29495,7 @@
       <c r="BA41" s="44"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A42" s="184"/>
+      <c r="A42" s="183"/>
       <c r="B42" s="32">
         <v>3</v>
       </c>
@@ -29583,7 +29643,7 @@
       <c r="BA42" s="40"/>
     </row>
     <row r="43" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="185"/>
+      <c r="A43" s="184"/>
       <c r="B43" s="48" t="s">
         <v>35</v>
       </c>
@@ -29754,7 +29814,7 @@
       <c r="BA43" s="57"/>
     </row>
     <row r="44" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="183">
+      <c r="A44" s="182">
         <v>11</v>
       </c>
       <c r="B44" s="22">
@@ -29916,7 +29976,7 @@
       <c r="BA44" s="19"/>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A45" s="184"/>
+      <c r="A45" s="183"/>
       <c r="B45" s="32">
         <v>2</v>
       </c>
@@ -30076,7 +30136,7 @@
       <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A46" s="184"/>
+      <c r="A46" s="183"/>
       <c r="B46" s="32">
         <v>3</v>
       </c>
@@ -30236,7 +30296,7 @@
       <c r="BA46" s="40"/>
     </row>
     <row r="47" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="185"/>
+      <c r="A47" s="184"/>
       <c r="B47" s="48" t="s">
         <v>35</v>
       </c>
@@ -30407,7 +30467,7 @@
       <c r="BA47" s="57"/>
     </row>
     <row r="48" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="183">
+      <c r="A48" s="182">
         <v>12</v>
       </c>
       <c r="B48" s="22">
@@ -30569,7 +30629,7 @@
       <c r="BA48" s="19"/>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A49" s="184"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="32">
         <v>2</v>
       </c>
@@ -30729,7 +30789,7 @@
       <c r="BA49" s="44"/>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A50" s="184"/>
+      <c r="A50" s="183"/>
       <c r="B50" s="32">
         <v>3</v>
       </c>
@@ -30889,7 +30949,7 @@
       <c r="BA50" s="40"/>
     </row>
     <row r="51" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="185"/>
+      <c r="A51" s="184"/>
       <c r="B51" s="48" t="s">
         <v>35</v>
       </c>
@@ -31694,7 +31754,7 @@
       <c r="BA55" s="57"/>
     </row>
     <row r="56" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="183">
+      <c r="A56" s="182">
         <v>14</v>
       </c>
       <c r="B56" s="22">
@@ -31858,7 +31918,7 @@
       <c r="BA56" s="19"/>
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A57" s="184"/>
+      <c r="A57" s="183"/>
       <c r="B57" s="32">
         <v>2</v>
       </c>
@@ -32018,7 +32078,7 @@
       <c r="BA57" s="44"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A58" s="184"/>
+      <c r="A58" s="183"/>
       <c r="B58" s="32">
         <v>3</v>
       </c>
@@ -32178,7 +32238,7 @@
       <c r="BA58" s="40"/>
     </row>
     <row r="59" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="185"/>
+      <c r="A59" s="184"/>
       <c r="B59" s="48" t="s">
         <v>35</v>
       </c>
@@ -32349,7 +32409,7 @@
       <c r="BA59" s="57"/>
     </row>
     <row r="60" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="183">
+      <c r="A60" s="182">
         <v>15</v>
       </c>
       <c r="B60" s="22">
@@ -32513,7 +32573,7 @@
       <c r="BA60" s="19"/>
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A61" s="184"/>
+      <c r="A61" s="183"/>
       <c r="B61" s="32">
         <v>2</v>
       </c>
@@ -32673,7 +32733,7 @@
       <c r="BA61" s="44"/>
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A62" s="184"/>
+      <c r="A62" s="183"/>
       <c r="B62" s="32">
         <v>3</v>
       </c>
@@ -32833,7 +32893,7 @@
       <c r="BA62" s="40"/>
     </row>
     <row r="63" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="185"/>
+      <c r="A63" s="184"/>
       <c r="B63" s="48" t="s">
         <v>35</v>
       </c>
@@ -33004,7 +33064,7 @@
       <c r="BA63" s="57"/>
     </row>
     <row r="64" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="183">
+      <c r="A64" s="182">
         <v>16</v>
       </c>
       <c r="B64" s="22">
@@ -33170,7 +33230,7 @@
       <c r="BA64" s="19"/>
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A65" s="184"/>
+      <c r="A65" s="183"/>
       <c r="B65" s="32">
         <v>2</v>
       </c>
@@ -33330,7 +33390,7 @@
       <c r="BA65" s="44"/>
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A66" s="184"/>
+      <c r="A66" s="183"/>
       <c r="B66" s="32">
         <v>3</v>
       </c>
@@ -33490,7 +33550,7 @@
       <c r="BA66" s="40"/>
     </row>
     <row r="67" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="185"/>
+      <c r="A67" s="184"/>
       <c r="B67" s="48" t="s">
         <v>35</v>
       </c>
@@ -33661,7 +33721,7 @@
       <c r="BA67" s="57"/>
     </row>
     <row r="68" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="183">
+      <c r="A68" s="182">
         <v>17</v>
       </c>
       <c r="B68" s="22">
@@ -33825,7 +33885,7 @@
       <c r="BA68" s="19"/>
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A69" s="184"/>
+      <c r="A69" s="183"/>
       <c r="B69" s="32">
         <v>2</v>
       </c>
@@ -33985,7 +34045,7 @@
       <c r="BA69" s="44"/>
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A70" s="184"/>
+      <c r="A70" s="183"/>
       <c r="B70" s="32">
         <v>3</v>
       </c>
@@ -34145,7 +34205,7 @@
       <c r="BA70" s="40"/>
     </row>
     <row r="71" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="185"/>
+      <c r="A71" s="184"/>
       <c r="B71" s="48" t="s">
         <v>35</v>
       </c>
@@ -34316,7 +34376,7 @@
       <c r="BA71" s="57"/>
     </row>
     <row r="72" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="183">
+      <c r="A72" s="182">
         <v>18</v>
       </c>
       <c r="B72" s="22">
@@ -34480,7 +34540,7 @@
       <c r="BA72" s="19"/>
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A73" s="184"/>
+      <c r="A73" s="183"/>
       <c r="B73" s="32">
         <v>2</v>
       </c>
@@ -34640,7 +34700,7 @@
       <c r="BA73" s="44"/>
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A74" s="184"/>
+      <c r="A74" s="183"/>
       <c r="B74" s="32">
         <v>3</v>
       </c>
@@ -34800,7 +34860,7 @@
       <c r="BA74" s="40"/>
     </row>
     <row r="75" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="185"/>
+      <c r="A75" s="184"/>
       <c r="B75" s="48" t="s">
         <v>35</v>
       </c>
@@ -34971,7 +35031,7 @@
       <c r="BA75" s="57"/>
     </row>
     <row r="76" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="183">
+      <c r="A76" s="182">
         <v>19</v>
       </c>
       <c r="B76" s="22">
@@ -35133,7 +35193,7 @@
       <c r="BA76" s="19"/>
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A77" s="184"/>
+      <c r="A77" s="183"/>
       <c r="B77" s="32">
         <v>2</v>
       </c>
@@ -35293,7 +35353,7 @@
       <c r="BA77" s="44"/>
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A78" s="184"/>
+      <c r="A78" s="183"/>
       <c r="B78" s="32">
         <v>3</v>
       </c>
@@ -35453,7 +35513,7 @@
       <c r="BA78" s="40"/>
     </row>
     <row r="79" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="185"/>
+      <c r="A79" s="184"/>
       <c r="B79" s="48" t="s">
         <v>35</v>
       </c>
@@ -35624,7 +35684,7 @@
       <c r="BA79" s="57"/>
     </row>
     <row r="80" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="183">
+      <c r="A80" s="182">
         <v>20</v>
       </c>
       <c r="B80" s="22">
@@ -35786,7 +35846,7 @@
       <c r="BA80" s="19"/>
     </row>
     <row r="81" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A81" s="184"/>
+      <c r="A81" s="183"/>
       <c r="B81" s="32">
         <v>2</v>
       </c>
@@ -35946,7 +36006,7 @@
       <c r="BA81" s="44"/>
     </row>
     <row r="82" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A82" s="184"/>
+      <c r="A82" s="183"/>
       <c r="B82" s="32">
         <v>3</v>
       </c>
@@ -36106,7 +36166,7 @@
       <c r="BA82" s="40"/>
     </row>
     <row r="83" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="185"/>
+      <c r="A83" s="184"/>
       <c r="B83" s="48" t="s">
         <v>35</v>
       </c>
@@ -36277,7 +36337,7 @@
       <c r="BA83" s="57"/>
     </row>
     <row r="84" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="183">
+      <c r="A84" s="182">
         <v>21</v>
       </c>
       <c r="B84" s="22">
@@ -36441,7 +36501,7 @@
       <c r="BA84" s="19"/>
     </row>
     <row r="85" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A85" s="184"/>
+      <c r="A85" s="183"/>
       <c r="B85" s="32">
         <v>2</v>
       </c>
@@ -36601,7 +36661,7 @@
       <c r="BA85" s="44"/>
     </row>
     <row r="86" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A86" s="184"/>
+      <c r="A86" s="183"/>
       <c r="B86" s="32">
         <v>3</v>
       </c>
@@ -36761,7 +36821,7 @@
       <c r="BA86" s="40"/>
     </row>
     <row r="87" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="185"/>
+      <c r="A87" s="184"/>
       <c r="B87" s="48" t="s">
         <v>35</v>
       </c>
@@ -36932,7 +36992,7 @@
       <c r="BA87" s="57"/>
     </row>
     <row r="88" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="183">
+      <c r="A88" s="182">
         <v>22</v>
       </c>
       <c r="B88" s="22">
@@ -37096,7 +37156,7 @@
       <c r="BA88" s="19"/>
     </row>
     <row r="89" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A89" s="184"/>
+      <c r="A89" s="183"/>
       <c r="B89" s="32">
         <v>2</v>
       </c>
@@ -37256,7 +37316,7 @@
       <c r="BA89" s="44"/>
     </row>
     <row r="90" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A90" s="184"/>
+      <c r="A90" s="183"/>
       <c r="B90" s="32">
         <v>3</v>
       </c>
@@ -37416,7 +37476,7 @@
       <c r="BA90" s="40"/>
     </row>
     <row r="91" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="185"/>
+      <c r="A91" s="184"/>
       <c r="B91" s="48" t="s">
         <v>35</v>
       </c>
@@ -37587,7 +37647,7 @@
       <c r="BA91" s="57"/>
     </row>
     <row r="92" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="183">
+      <c r="A92" s="182">
         <v>23</v>
       </c>
       <c r="B92" s="22">
@@ -37751,7 +37811,7 @@
       <c r="BA92" s="19"/>
     </row>
     <row r="93" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A93" s="184"/>
+      <c r="A93" s="183"/>
       <c r="B93" s="32">
         <v>2</v>
       </c>
@@ -37909,7 +37969,7 @@
       <c r="BA93" s="44"/>
     </row>
     <row r="94" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A94" s="184"/>
+      <c r="A94" s="183"/>
       <c r="B94" s="32">
         <v>3</v>
       </c>
@@ -38063,7 +38123,7 @@
       <c r="BA94" s="40"/>
     </row>
     <row r="95" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="185"/>
+      <c r="A95" s="184"/>
       <c r="B95" s="48" t="s">
         <v>35</v>
       </c>
@@ -38234,7 +38294,7 @@
       <c r="BA95" s="57"/>
     </row>
     <row r="96" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="183">
+      <c r="A96" s="182">
         <v>24</v>
       </c>
       <c r="B96" s="22">
@@ -38398,7 +38458,7 @@
       <c r="BA96" s="19"/>
     </row>
     <row r="97" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A97" s="184"/>
+      <c r="A97" s="183"/>
       <c r="B97" s="32">
         <v>2</v>
       </c>
@@ -38558,7 +38618,7 @@
       <c r="BA97" s="44"/>
     </row>
     <row r="98" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A98" s="184"/>
+      <c r="A98" s="183"/>
       <c r="B98" s="32">
         <v>3</v>
       </c>
@@ -38718,7 +38778,7 @@
       <c r="BA98" s="40"/>
     </row>
     <row r="99" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="185"/>
+      <c r="A99" s="184"/>
       <c r="B99" s="48" t="s">
         <v>35</v>
       </c>
@@ -38889,7 +38949,7 @@
       <c r="BA99" s="57"/>
     </row>
     <row r="100" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="186">
+      <c r="A100" s="192">
         <v>25</v>
       </c>
       <c r="B100" s="32">
@@ -39053,7 +39113,7 @@
       <c r="BA100" s="19"/>
     </row>
     <row r="101" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A101" s="186"/>
+      <c r="A101" s="192"/>
       <c r="B101" s="32">
         <v>2</v>
       </c>
@@ -39213,7 +39273,7 @@
       <c r="BA101" s="44"/>
     </row>
     <row r="102" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A102" s="186"/>
+      <c r="A102" s="192"/>
       <c r="B102" s="32">
         <v>3</v>
       </c>
@@ -39373,7 +39433,7 @@
       <c r="BA102" s="40"/>
     </row>
     <row r="103" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="186"/>
+      <c r="A103" s="192"/>
       <c r="B103" s="65" t="s">
         <v>35</v>
       </c>
@@ -39544,7 +39604,7 @@
       <c r="BA103" s="57"/>
     </row>
     <row r="104" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="183">
+      <c r="A104" s="182">
         <v>26</v>
       </c>
       <c r="B104" s="22">
@@ -39706,7 +39766,7 @@
       <c r="BA104" s="19"/>
     </row>
     <row r="105" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A105" s="184"/>
+      <c r="A105" s="183"/>
       <c r="B105" s="32">
         <v>2</v>
       </c>
@@ -39866,7 +39926,7 @@
       <c r="BA105" s="44"/>
     </row>
     <row r="106" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A106" s="184"/>
+      <c r="A106" s="183"/>
       <c r="B106" s="32">
         <v>3</v>
       </c>
@@ -40026,7 +40086,7 @@
       <c r="BA106" s="40"/>
     </row>
     <row r="107" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="185"/>
+      <c r="A107" s="184"/>
       <c r="B107" s="48" t="s">
         <v>35</v>
       </c>
@@ -40197,7 +40257,7 @@
       <c r="BA107" s="57"/>
     </row>
     <row r="108" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="183">
+      <c r="A108" s="182">
         <v>27</v>
       </c>
       <c r="B108" s="22">
@@ -40359,7 +40419,7 @@
       <c r="BA108" s="19"/>
     </row>
     <row r="109" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A109" s="184"/>
+      <c r="A109" s="183"/>
       <c r="B109" s="32">
         <v>2</v>
       </c>
@@ -40515,7 +40575,7 @@
       <c r="BA109" s="44"/>
     </row>
     <row r="110" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A110" s="184"/>
+      <c r="A110" s="183"/>
       <c r="B110" s="32">
         <v>3</v>
       </c>
@@ -40665,7 +40725,7 @@
       <c r="BA110" s="40"/>
     </row>
     <row r="111" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="185"/>
+      <c r="A111" s="184"/>
       <c r="B111" s="48" t="s">
         <v>35</v>
       </c>
@@ -40836,7 +40896,7 @@
       <c r="BA111" s="57"/>
     </row>
     <row r="112" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="183">
+      <c r="A112" s="182">
         <v>28</v>
       </c>
       <c r="B112" s="22">
@@ -41000,7 +41060,7 @@
       <c r="BA112" s="19"/>
     </row>
     <row r="113" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A113" s="184"/>
+      <c r="A113" s="183"/>
       <c r="B113" s="32">
         <v>2</v>
       </c>
@@ -41160,7 +41220,7 @@
       <c r="BA113" s="44"/>
     </row>
     <row r="114" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A114" s="184"/>
+      <c r="A114" s="183"/>
       <c r="B114" s="32">
         <v>3</v>
       </c>
@@ -41320,7 +41380,7 @@
       <c r="BA114" s="40"/>
     </row>
     <row r="115" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="185"/>
+      <c r="A115" s="184"/>
       <c r="B115" s="48" t="s">
         <v>35</v>
       </c>
@@ -41491,7 +41551,7 @@
       <c r="BA115" s="57"/>
     </row>
     <row r="116" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="184">
+      <c r="A116" s="183">
         <v>29</v>
       </c>
       <c r="B116" s="32">
@@ -41655,7 +41715,7 @@
       <c r="BA116" s="19"/>
     </row>
     <row r="117" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A117" s="184"/>
+      <c r="A117" s="183"/>
       <c r="B117" s="32">
         <v>2</v>
       </c>
@@ -41815,7 +41875,7 @@
       <c r="BA117" s="44"/>
     </row>
     <row r="118" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A118" s="184"/>
+      <c r="A118" s="183"/>
       <c r="B118" s="32">
         <v>3</v>
       </c>
@@ -41975,7 +42035,7 @@
       <c r="BA118" s="40"/>
     </row>
     <row r="119" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="185"/>
+      <c r="A119" s="184"/>
       <c r="B119" s="48" t="s">
         <v>35</v>
       </c>
@@ -42146,7 +42206,7 @@
       <c r="BA119" s="57"/>
     </row>
     <row r="120" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="183">
+      <c r="A120" s="182">
         <v>30</v>
       </c>
       <c r="B120" s="22">
@@ -42310,7 +42370,7 @@
       <c r="BA120" s="19"/>
     </row>
     <row r="121" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A121" s="184"/>
+      <c r="A121" s="183"/>
       <c r="B121" s="32">
         <v>2</v>
       </c>
@@ -42470,7 +42530,7 @@
       <c r="BA121" s="44"/>
     </row>
     <row r="122" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A122" s="184"/>
+      <c r="A122" s="183"/>
       <c r="B122" s="32">
         <v>3</v>
       </c>
@@ -42630,7 +42690,7 @@
       <c r="BA122" s="40"/>
     </row>
     <row r="123" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="185"/>
+      <c r="A123" s="184"/>
       <c r="B123" s="48" t="s">
         <v>35</v>
       </c>
@@ -42801,7 +42861,7 @@
       <c r="BA123" s="57"/>
     </row>
     <row r="124" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="183">
+      <c r="A124" s="182">
         <v>31</v>
       </c>
       <c r="B124" s="22">
@@ -42965,7 +43025,7 @@
       <c r="BA124" s="19"/>
     </row>
     <row r="125" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A125" s="184"/>
+      <c r="A125" s="183"/>
       <c r="B125" s="32">
         <v>2</v>
       </c>
@@ -43121,7 +43181,7 @@
       <c r="BA125" s="44"/>
     </row>
     <row r="126" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A126" s="184"/>
+      <c r="A126" s="183"/>
       <c r="B126" s="32">
         <v>3</v>
       </c>
@@ -43271,7 +43331,7 @@
       <c r="BA126" s="40"/>
     </row>
     <row r="127" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="185"/>
+      <c r="A127" s="184"/>
       <c r="B127" s="48" t="s">
         <v>35</v>
       </c>
@@ -43707,12 +43767,18 @@
     <protectedRange sqref="AB112:AB127" name="Range1_1_1_1_1_2_2_1_1_4"/>
   </protectedRanges>
   <mergeCells count="35">
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A56:A59"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A32:A35"/>
@@ -43726,25 +43792,2348 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="A120:A123"/>
     <mergeCell ref="A96:A99"/>
     <mergeCell ref="A100:A103"/>
     <mergeCell ref="A104:A107"/>
     <mergeCell ref="A108:A111"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6555BB66-49A2-4157-88D4-D9BD7AEDD16F}">
+  <dimension ref="A1:BA15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="189" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="187" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="185" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="120" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="125" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="125" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="125"/>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="127" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="125" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="149" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" s="127" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC1" s="125" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD1" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE1" s="125" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF1" s="125" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG1" s="125" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH1" s="111" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ1" s="125" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK1" s="125" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL1" s="125" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="126" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP1" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ1" s="127" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR1" s="125" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS1" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT1" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU1" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW1" s="125" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX1" s="191" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA1" s="191"/>
+    </row>
+    <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="190"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="150" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH2" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ2" s="128"/>
+      <c r="AR2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS2" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT2" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU2" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="113"/>
+      <c r="AI3" s="115"/>
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="89"/>
+      <c r="AL3" s="85"/>
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="87"/>
+      <c r="AO3" s="87"/>
+      <c r="AP3" s="85"/>
+      <c r="AQ3" s="129"/>
+      <c r="AR3" s="85"/>
+      <c r="AS3" s="96"/>
+      <c r="AT3" s="119">
+        <f>[1]Юли!AU127</f>
+        <v>1478.34</v>
+      </c>
+      <c r="AU3" s="97"/>
+      <c r="AV3" s="88"/>
+      <c r="AW3" s="85"/>
+      <c r="AX3" s="85"/>
+      <c r="AY3" s="85"/>
+      <c r="AZ3" s="85"/>
+      <c r="BA3" s="85"/>
+    </row>
+    <row r="4" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="182">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="11">
+        <v>6500</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>11055</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="H4" s="12">
+        <v>7.9</v>
+      </c>
+      <c r="I4" s="11">
+        <v>10680</v>
+      </c>
+      <c r="J4" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="K4" s="11">
+        <v>16319</v>
+      </c>
+      <c r="L4" s="13">
+        <v>5.5E-2</v>
+      </c>
+      <c r="M4" s="23">
+        <f>ROUND(K4*(1-L4),0)</f>
+        <v>15421</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="O4" s="24">
+        <f t="shared" ref="O4:O6" si="0">M4*N4</f>
+        <v>10887.225999999999</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0.253</v>
+      </c>
+      <c r="Q4" s="24">
+        <f t="shared" ref="Q4:Q6" si="1">M4*P4</f>
+        <v>3901.5129999999999</v>
+      </c>
+      <c r="R4" s="15">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="S4" s="142">
+        <v>0.2097</v>
+      </c>
+      <c r="T4" s="24">
+        <f t="shared" ref="T4:T6" si="2">M4*R4</f>
+        <v>632.26100000000008</v>
+      </c>
+      <c r="U4" s="25">
+        <v>0.23</v>
+      </c>
+      <c r="V4" s="24">
+        <f t="shared" ref="V4:V6" si="3">M4*U4</f>
+        <v>3546.83</v>
+      </c>
+      <c r="W4" s="15">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="X4" s="24">
+        <f>M4*W4</f>
+        <v>7525.4479999999994</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>0.43</v>
+      </c>
+      <c r="Z4" s="124">
+        <f t="shared" ref="Z4:Z6" si="4">Y4*M4</f>
+        <v>6631.03</v>
+      </c>
+      <c r="AA4" s="145">
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="AB4" s="18">
+        <f>M4*AA4</f>
+        <v>41.790910000000004</v>
+      </c>
+      <c r="AC4" s="16">
+        <v>2.6900000000000001E-3</v>
+      </c>
+      <c r="AD4" s="18">
+        <f>M4*AC4</f>
+        <v>41.482489999999999</v>
+      </c>
+      <c r="AE4" s="26">
+        <f>IF(M4&gt;0,(AG4+AP4)/M4,0)</f>
+        <v>2.7350149795733088E-3</v>
+      </c>
+      <c r="AF4" s="16">
+        <v>2.9E-4</v>
+      </c>
+      <c r="AG4" s="23">
+        <f t="shared" ref="AG4:AG6" si="5">AF4*M4</f>
+        <v>4.4720899999999997</v>
+      </c>
+      <c r="AH4" s="114">
+        <v>0.21149999999999999</v>
+      </c>
+      <c r="AI4" s="29">
+        <f>AL4*(1-AM4)*AH4</f>
+        <v>36.953279999999999</v>
+      </c>
+      <c r="AJ4" s="27">
+        <f>IF(AND(AH4&gt;0,AF4&gt;0,AC4&gt;0),((AC4-AF4)*AH4)/((AH4-AF4)*AC4),0)</f>
+        <v>0.89341832658664044</v>
+      </c>
+      <c r="AK4" s="59">
+        <f t="shared" ref="AK4:AK15" si="6">IF(AND(AE4&gt;0,AN4&gt;0,AF4&gt;0),((AN4*(AE4-AF4))/(AE4*(AN4-AF4))),0)</f>
+        <v>0.89517063729570767</v>
+      </c>
+      <c r="AL4" s="11">
+        <v>192</v>
+      </c>
+      <c r="AM4" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="AN4" s="14">
+        <v>0.21579999999999999</v>
+      </c>
+      <c r="AO4" s="130">
+        <v>0.21190000000000001</v>
+      </c>
+      <c r="AP4" s="29">
+        <f>AL4*(1-AM4)*AN4</f>
+        <v>37.704575999999996</v>
+      </c>
+      <c r="AQ4" s="131">
+        <f>AL4*(1-AM4)*AO4</f>
+        <v>37.023167999999998</v>
+      </c>
+      <c r="AR4" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="AS4" s="18">
+        <v>502.42</v>
+      </c>
+      <c r="AT4" s="110">
+        <f>AT3+AL4-AS4</f>
+        <v>1167.9199999999998</v>
+      </c>
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="30"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="19"/>
+    </row>
+    <row r="5" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="183"/>
+      <c r="B5" s="32">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="33">
+        <v>19500</v>
+      </c>
+      <c r="E5" s="33">
+        <v>3</v>
+      </c>
+      <c r="F5" s="33">
+        <v>18972</v>
+      </c>
+      <c r="G5" s="34">
+        <v>1</v>
+      </c>
+      <c r="H5" s="34">
+        <v>8.1</v>
+      </c>
+      <c r="I5" s="33">
+        <v>18386</v>
+      </c>
+      <c r="J5" s="34">
+        <v>4.5</v>
+      </c>
+      <c r="K5" s="33">
+        <v>15725</v>
+      </c>
+      <c r="L5" s="35">
+        <v>0.06</v>
+      </c>
+      <c r="M5" s="36">
+        <f>ROUND(K5*(1-L5),0)</f>
+        <v>14782</v>
+      </c>
+      <c r="N5" s="37">
+        <v>0.71</v>
+      </c>
+      <c r="O5" s="24">
+        <f t="shared" si="0"/>
+        <v>10495.22</v>
+      </c>
+      <c r="P5" s="35">
+        <v>0.248</v>
+      </c>
+      <c r="Q5" s="24">
+        <f t="shared" si="1"/>
+        <v>3665.9360000000001</v>
+      </c>
+      <c r="R5" s="38">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S5" s="134">
+        <v>0.18840000000000001</v>
+      </c>
+      <c r="T5" s="24">
+        <f t="shared" si="2"/>
+        <v>620.84400000000005</v>
+      </c>
+      <c r="U5" s="27">
+        <v>0.22</v>
+      </c>
+      <c r="V5" s="24">
+        <f t="shared" si="3"/>
+        <v>3252.04</v>
+      </c>
+      <c r="W5" s="38">
+        <v>0.46</v>
+      </c>
+      <c r="X5" s="24">
+        <f>M5*W5</f>
+        <v>6799.72</v>
+      </c>
+      <c r="Y5" s="38">
+        <v>0.42</v>
+      </c>
+      <c r="Z5" s="24">
+        <f t="shared" si="4"/>
+        <v>6208.44</v>
+      </c>
+      <c r="AA5" s="146">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="AB5" s="18">
+        <f t="shared" ref="AB5:AB6" si="7">M5*AA5</f>
+        <v>37.102820000000001</v>
+      </c>
+      <c r="AC5" s="39">
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="AD5" s="17">
+        <f>M5*AC5</f>
+        <v>38.285379999999996</v>
+      </c>
+      <c r="AE5" s="26">
+        <f>IF(M5&gt;0,(AG5+AP5)/M5,0)</f>
+        <v>2.6494704370179953E-3</v>
+      </c>
+      <c r="AF5" s="39">
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG5" s="36">
+        <f t="shared" si="5"/>
+        <v>3.9911400000000001</v>
+      </c>
+      <c r="AH5" s="27">
+        <v>0.22620000000000001</v>
+      </c>
+      <c r="AI5" s="40">
+        <f>AL5*(1-AM5)*AH5</f>
+        <v>35.392383000000002</v>
+      </c>
+      <c r="AJ5" s="27">
+        <f>IF(AND(AH5&gt;0,AF5&gt;0,AC5&gt;0),((AC5-AF5)*AH5)/((AH5-AF5)*AC5),0)</f>
+        <v>0.89682337458197237</v>
+      </c>
+      <c r="AK5" s="28">
+        <f t="shared" si="6"/>
+        <v>0.89917281026480267</v>
+      </c>
+      <c r="AL5" s="33">
+        <v>171</v>
+      </c>
+      <c r="AM5" s="35">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AN5" s="37">
+        <v>0.2248</v>
+      </c>
+      <c r="AO5" s="132">
+        <v>0.21759999999999999</v>
+      </c>
+      <c r="AP5" s="40">
+        <f>AL5*(1-AM5)*AN5</f>
+        <v>35.173332000000002</v>
+      </c>
+      <c r="AQ5" s="133">
+        <f t="shared" ref="AQ5:AQ6" si="8">AL5*(1-AM5)*AO5</f>
+        <v>34.046784000000002</v>
+      </c>
+      <c r="AR5" s="41">
+        <v>1.6</v>
+      </c>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="110">
+        <f>AT4+AL5-AS5</f>
+        <v>1338.9199999999998</v>
+      </c>
+      <c r="AU5" s="100"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="43"/>
+      <c r="AX5" s="44"/>
+      <c r="AY5" s="44"/>
+      <c r="AZ5" s="44"/>
+      <c r="BA5" s="44"/>
+    </row>
+    <row r="6" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="183"/>
+      <c r="B6" s="32">
+        <v>3</v>
+      </c>
+      <c r="C6" s="180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="42">
+        <v>17100</v>
+      </c>
+      <c r="E6" s="42">
+        <v>3</v>
+      </c>
+      <c r="F6" s="42">
+        <v>17836</v>
+      </c>
+      <c r="G6" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="H6" s="36">
+        <v>6.5</v>
+      </c>
+      <c r="I6" s="42">
+        <v>16955</v>
+      </c>
+      <c r="J6" s="36">
+        <v>3.8</v>
+      </c>
+      <c r="K6" s="42">
+        <v>15464</v>
+      </c>
+      <c r="L6" s="38">
+        <v>0.06</v>
+      </c>
+      <c r="M6" s="36">
+        <f>ROUND(K6*(1-L6),0)</f>
+        <v>14536</v>
+      </c>
+      <c r="N6" s="27">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="O6" s="24">
+        <f t="shared" si="0"/>
+        <v>10422.312</v>
+      </c>
+      <c r="P6" s="38">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="Q6" s="24">
+        <f t="shared" si="1"/>
+        <v>3415.9599999999996</v>
+      </c>
+      <c r="R6" s="38">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="S6" s="134">
+        <v>0.1711</v>
+      </c>
+      <c r="T6" s="24">
+        <f t="shared" si="2"/>
+        <v>697.72800000000007</v>
+      </c>
+      <c r="U6" s="27">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="V6" s="24">
+        <f t="shared" si="3"/>
+        <v>2849.056</v>
+      </c>
+      <c r="W6" s="38">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="X6" s="24">
+        <f>M6*W6</f>
+        <v>7544.1840000000002</v>
+      </c>
+      <c r="Y6" s="38">
+        <v>0.41</v>
+      </c>
+      <c r="Z6" s="24">
+        <f t="shared" si="4"/>
+        <v>5959.7599999999993</v>
+      </c>
+      <c r="AA6" s="147">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="AB6" s="148">
+        <f t="shared" si="7"/>
+        <v>35.031759999999998</v>
+      </c>
+      <c r="AC6" s="46">
+        <v>2.49E-3</v>
+      </c>
+      <c r="AD6" s="17">
+        <f>M6*AC6</f>
+        <v>36.19464</v>
+      </c>
+      <c r="AE6" s="26">
+        <f>IF(M6&gt;0,(AG6+AP6)/M6,0)</f>
+        <v>2.907700880572372E-3</v>
+      </c>
+      <c r="AF6" s="46">
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG6" s="36">
+        <f t="shared" si="5"/>
+        <v>3.9247200000000002</v>
+      </c>
+      <c r="AH6" s="27">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="AI6" s="40">
+        <f>AL6*(1-AM6)*AH6</f>
+        <v>35.785511999999997</v>
+      </c>
+      <c r="AJ6" s="27">
+        <f>IF(AND(AH6&gt;0,AF6&gt;0,AC6&gt;0),((AC6-AF6)*AH6)/((AH6-AF6)*AC6),0)</f>
+        <v>0.89269891876355945</v>
+      </c>
+      <c r="AK6" s="28">
+        <f t="shared" si="6"/>
+        <v>0.90821865300602855</v>
+      </c>
+      <c r="AL6" s="42">
+        <v>185</v>
+      </c>
+      <c r="AM6" s="38">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="AN6" s="27">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="AO6" s="134">
+        <v>0.22189999999999999</v>
+      </c>
+      <c r="AP6" s="40">
+        <f>AL6*(1-AM6)*AN6</f>
+        <v>38.341619999999999</v>
+      </c>
+      <c r="AQ6" s="135">
+        <f t="shared" si="8"/>
+        <v>37.315813499999997</v>
+      </c>
+      <c r="AR6" s="17">
+        <v>1.55</v>
+      </c>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="110">
+        <f>AT5+AL6-AS6</f>
+        <v>1523.9199999999998</v>
+      </c>
+      <c r="AU6" s="101"/>
+      <c r="AV6" s="42"/>
+      <c r="AW6" s="47"/>
+      <c r="AX6" s="40"/>
+      <c r="AY6" s="40"/>
+      <c r="AZ6" s="40"/>
+      <c r="BA6" s="40"/>
+    </row>
+    <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="184"/>
+      <c r="B7" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50">
+        <f>SUM(D4:D6)</f>
+        <v>43100</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50">
+        <f>SUM(F4:F6)</f>
+        <v>47863</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="50">
+        <f>SUM(I4:I6)</f>
+        <v>46021</v>
+      </c>
+      <c r="J7" s="51"/>
+      <c r="K7" s="50">
+        <f>SUM(K4:K6)</f>
+        <v>47508</v>
+      </c>
+      <c r="L7" s="20">
+        <f>IF(K7&gt;0,(K4*L4+K5*L5+K6*L6)/K7,0)</f>
+        <v>5.828249978950914E-2</v>
+      </c>
+      <c r="M7" s="51">
+        <f>M4+M5+M6</f>
+        <v>44739</v>
+      </c>
+      <c r="N7" s="52">
+        <f>IF(M7&gt;0,O7/M7,0)</f>
+        <v>0.71089559444779715</v>
+      </c>
+      <c r="O7" s="53">
+        <f>O4+O5+O6</f>
+        <v>31804.757999999994</v>
+      </c>
+      <c r="P7" s="20">
+        <f>IF(M7&gt;0,Q7/M7,0)</f>
+        <v>0.24549965354612305</v>
+      </c>
+      <c r="Q7" s="53">
+        <f>Q4+Q5+Q6</f>
+        <v>10983.409</v>
+      </c>
+      <c r="R7" s="20">
+        <f>IF(M7&gt;0,T7/M7,0)</f>
+        <v>4.360475200607971E-2</v>
+      </c>
+      <c r="S7" s="136"/>
+      <c r="T7" s="53">
+        <f>T4+T5+T6</f>
+        <v>1950.8330000000001</v>
+      </c>
+      <c r="U7" s="20">
+        <f>IF(M7&gt;0,V7/M7,0)</f>
+        <v>0.21564912045418985</v>
+      </c>
+      <c r="V7" s="53">
+        <f>V4+V5+V6</f>
+        <v>9647.9259999999995</v>
+      </c>
+      <c r="W7" s="20">
+        <f>IF(M7&gt;0,X7/M7,0)</f>
+        <v>0.4888207604103802</v>
+      </c>
+      <c r="X7" s="53">
+        <f>X4+X5+X6</f>
+        <v>21869.351999999999</v>
+      </c>
+      <c r="Y7" s="20">
+        <f>IF(M7&gt;0,Z7/M7,0)</f>
+        <v>0.42019781398779588</v>
+      </c>
+      <c r="Z7" s="53">
+        <f>Z4+Z5+Z6</f>
+        <v>18799.23</v>
+      </c>
+      <c r="AA7" s="152">
+        <f>IF(M7&gt;0,AB7/M7,0)</f>
+        <v>2.5464469478531037E-3</v>
+      </c>
+      <c r="AB7" s="55">
+        <f t="shared" ref="AB7" si="9">SUM(AB4:AB6)</f>
+        <v>113.92549</v>
+      </c>
+      <c r="AC7" s="54">
+        <f>IF(M7&gt;0,AD7/M7,0)</f>
+        <v>2.5919781398779586E-3</v>
+      </c>
+      <c r="AD7" s="55">
+        <f>SUM(AD4:AD6)</f>
+        <v>115.96250999999998</v>
+      </c>
+      <c r="AE7" s="54">
+        <f>IF(M7&gt;0,(AE4*M4+AE5*M5+AE6*M6)/M7,0)</f>
+        <v>2.7628574174657456E-3</v>
+      </c>
+      <c r="AF7" s="54">
+        <f>IF(K7&gt;0,(K4*AF4+K5*AF5+K6*AF6)/K7,0)</f>
+        <v>2.7687000084196346E-4</v>
+      </c>
+      <c r="AG7" s="51">
+        <f>SUM(AG4:AG6)</f>
+        <v>12.38795</v>
+      </c>
+      <c r="AH7" s="52">
+        <f>IF(K7&gt;0,(K4*AH4+K5*AH5+K6*AH6)/K7,0)</f>
+        <v>0.21678880820072408</v>
+      </c>
+      <c r="AI7" s="57">
+        <f>SUM(AI4:AI6)</f>
+        <v>108.131175</v>
+      </c>
+      <c r="AJ7" s="52">
+        <f>IF(AND(AD7&gt;0),((AD4*AJ4+AD5*AJ5+AD6*AJ6)/AD7),0)</f>
+        <v>0.89431796949062681</v>
+      </c>
+      <c r="AK7" s="56">
+        <f t="shared" si="6"/>
+        <v>0.90090832599054893</v>
+      </c>
+      <c r="AL7" s="50">
+        <f>SUM(AL4:AL6)</f>
+        <v>548</v>
+      </c>
+      <c r="AM7" s="20">
+        <f>IF(AL7&gt;0,(AM4*AL4+AM5*AL5+AM6*AL6)/AL7,0)</f>
+        <v>8.8777372262773727E-2</v>
+      </c>
+      <c r="AN7" s="52">
+        <f>IF(K7&gt;0,(AN4*K4+AN5*K5+AN6*K6)/K7,0)</f>
+        <v>0.22275010945524962</v>
+      </c>
+      <c r="AO7" s="136">
+        <f>IF(K7&gt;0,(AO4*K4+AO5*K5+AO6*K6)/K7,0)</f>
+        <v>0.21704171297465691</v>
+      </c>
+      <c r="AP7" s="57">
+        <f>SUM(AP4:AP6)</f>
+        <v>111.219528</v>
+      </c>
+      <c r="AQ7" s="137">
+        <f t="shared" ref="AQ7" si="10">SUM(AQ4:AQ6)</f>
+        <v>108.38576549999999</v>
+      </c>
+      <c r="AR7" s="55"/>
+      <c r="AS7" s="55">
+        <f>SUM(AS4:AS6)</f>
+        <v>502.42</v>
+      </c>
+      <c r="AT7" s="102"/>
+      <c r="AU7" s="103">
+        <f>AT6</f>
+        <v>1523.9199999999998</v>
+      </c>
+      <c r="AV7" s="50">
+        <f>SUM(AV4:AV6)</f>
+        <v>0</v>
+      </c>
+      <c r="AW7" s="58"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="57"/>
+      <c r="BA7" s="57"/>
+    </row>
+    <row r="8" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="182">
+        <v>2</v>
+      </c>
+      <c r="B8" s="22">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="11">
+        <v>17000</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>18048</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="12">
+        <v>6.3</v>
+      </c>
+      <c r="I8" s="11">
+        <v>17595</v>
+      </c>
+      <c r="J8" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="K8" s="11">
+        <v>15448</v>
+      </c>
+      <c r="L8" s="13">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="M8" s="23">
+        <f>ROUND(K8*(1-L8),0)</f>
+        <v>14614</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="O8" s="24">
+        <f t="shared" ref="O8:O10" si="11">M8*N8</f>
+        <v>10010.59</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q8" s="24">
+        <f t="shared" ref="Q8:Q10" si="12">M8*P8</f>
+        <v>4091.9200000000005</v>
+      </c>
+      <c r="R8" s="15">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="S8" s="143">
+        <v>0.1749</v>
+      </c>
+      <c r="T8" s="24">
+        <f t="shared" ref="T8:T10" si="13">M8*R8</f>
+        <v>511.49000000000007</v>
+      </c>
+      <c r="U8" s="25">
+        <v>0.191</v>
+      </c>
+      <c r="V8" s="24">
+        <f t="shared" ref="V8:V10" si="14">M8*U8</f>
+        <v>2791.2739999999999</v>
+      </c>
+      <c r="W8" s="15">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="X8" s="24">
+        <f t="shared" ref="X8:X10" si="15">M8*W8</f>
+        <v>7482.3680000000004</v>
+      </c>
+      <c r="Y8" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="Z8" s="24">
+        <f t="shared" ref="Z8:Z10" si="16">Y8*M8</f>
+        <v>5845.6</v>
+      </c>
+      <c r="AA8" s="145">
+        <v>2.5300000000000001E-3</v>
+      </c>
+      <c r="AB8" s="18">
+        <f>M8*AA8</f>
+        <v>36.973420000000004</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="AD8" s="17">
+        <f t="shared" ref="AD8:AD10" si="17">M8*AC8</f>
+        <v>35.219739999999994</v>
+      </c>
+      <c r="AE8" s="26">
+        <f>IF(M8&gt;0,(AG8+AP8)/M8,0)</f>
+        <v>2.4521158341316547E-3</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG8" s="23">
+        <f t="shared" ref="AG8:AG10" si="18">AF8*M8</f>
+        <v>3.9457800000000001</v>
+      </c>
+      <c r="AH8" s="114">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="AI8" s="29">
+        <f t="shared" ref="AI8:AI10" si="19">AL8*(1-AM8)*AH8</f>
+        <v>31.206837599999997</v>
+      </c>
+      <c r="AJ8" s="27">
+        <f t="shared" ref="AJ8:AJ10" si="20">IF(AND(AH8&gt;0,AF8&gt;0,AC8&gt;0),((AC8-AF8)*AH8)/((AH8-AF8)*AC8),0)</f>
+        <v>0.88910831351300734</v>
+      </c>
+      <c r="AK8" s="59">
+        <f t="shared" si="6"/>
+        <v>0.89101047319287685</v>
+      </c>
+      <c r="AL8" s="11">
+        <v>162</v>
+      </c>
+      <c r="AM8" s="13">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AN8" s="14">
+        <v>0.21490000000000001</v>
+      </c>
+      <c r="AO8" s="130">
+        <v>0.21240000000000001</v>
+      </c>
+      <c r="AP8" s="29">
+        <f>AL8*(1-AM8)*AN8</f>
+        <v>31.889440799999999</v>
+      </c>
+      <c r="AQ8" s="131">
+        <f t="shared" ref="AQ8:AQ15" si="21">AL8*(1-AM8)*AO8</f>
+        <v>31.5184608</v>
+      </c>
+      <c r="AR8" s="18">
+        <v>1.55</v>
+      </c>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="98">
+        <f>AT6+AL8-AS8</f>
+        <v>1685.9199999999998</v>
+      </c>
+      <c r="AU8" s="99"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="30"/>
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="19"/>
+      <c r="AZ8" s="19"/>
+      <c r="BA8" s="19"/>
+    </row>
+    <row r="9" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="183"/>
+      <c r="B9" s="32">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="33">
+        <v>19410</v>
+      </c>
+      <c r="E9" s="33">
+        <v>3</v>
+      </c>
+      <c r="F9" s="33">
+        <v>19184</v>
+      </c>
+      <c r="G9" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="H9" s="34">
+        <v>5.7</v>
+      </c>
+      <c r="I9" s="33">
+        <v>18743</v>
+      </c>
+      <c r="J9" s="34">
+        <v>2</v>
+      </c>
+      <c r="K9" s="33">
+        <v>15583</v>
+      </c>
+      <c r="L9" s="35">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M9" s="36">
+        <f>ROUND(K9*(1-L9),0)</f>
+        <v>14679</v>
+      </c>
+      <c r="N9" s="37">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="O9" s="24">
+        <f t="shared" si="11"/>
+        <v>9761.5349999999999</v>
+      </c>
+      <c r="P9" s="35">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q9" s="24">
+        <f t="shared" si="12"/>
+        <v>4110.1200000000008</v>
+      </c>
+      <c r="R9" s="38">
+        <v>5.5E-2</v>
+      </c>
+      <c r="S9" s="134">
+        <v>0.1825</v>
+      </c>
+      <c r="T9" s="24">
+        <f t="shared" si="13"/>
+        <v>807.34500000000003</v>
+      </c>
+      <c r="U9" s="27">
+        <v>0.189</v>
+      </c>
+      <c r="V9" s="24">
+        <f t="shared" si="14"/>
+        <v>2774.3310000000001</v>
+      </c>
+      <c r="W9" s="38">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="X9" s="24">
+        <f t="shared" si="15"/>
+        <v>7677.1170000000002</v>
+      </c>
+      <c r="Y9" s="38">
+        <v>0.39</v>
+      </c>
+      <c r="Z9" s="24">
+        <f t="shared" si="16"/>
+        <v>5724.81</v>
+      </c>
+      <c r="AA9" s="146">
+        <v>2.4299999999999999E-3</v>
+      </c>
+      <c r="AB9" s="18">
+        <f t="shared" ref="AB9:AB10" si="22">M9*AA9</f>
+        <v>35.669969999999999</v>
+      </c>
+      <c r="AC9" s="39">
+        <v>2.4299999999999999E-3</v>
+      </c>
+      <c r="AD9" s="17">
+        <f t="shared" si="17"/>
+        <v>35.669969999999999</v>
+      </c>
+      <c r="AE9" s="26">
+        <f>IF(M9&gt;0,(AG9+AP9)/M9,0)</f>
+        <v>2.6671968935213569E-3</v>
+      </c>
+      <c r="AF9" s="39">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="AG9" s="36">
+        <f t="shared" si="18"/>
+        <v>4.1101199999999993</v>
+      </c>
+      <c r="AH9" s="27">
+        <v>0.2172</v>
+      </c>
+      <c r="AI9" s="40">
+        <f t="shared" si="19"/>
+        <v>34.145577600000003</v>
+      </c>
+      <c r="AJ9" s="27">
+        <f t="shared" si="20"/>
+        <v>0.88591572702458443</v>
+      </c>
+      <c r="AK9" s="28">
+        <f t="shared" si="6"/>
+        <v>0.89614658480947706</v>
+      </c>
+      <c r="AL9" s="33">
+        <v>172</v>
+      </c>
+      <c r="AM9" s="35">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AN9" s="37">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="AO9" s="132">
+        <v>0.2203</v>
+      </c>
+      <c r="AP9" s="40">
+        <f>AL9*(1-AM9)*AN9</f>
+        <v>35.041663199999995</v>
+      </c>
+      <c r="AQ9" s="133">
+        <f t="shared" si="21"/>
+        <v>34.632922399999998</v>
+      </c>
+      <c r="AR9" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="AS9" s="41"/>
+      <c r="AT9" s="110">
+        <f>AT8+AL9-AS9</f>
+        <v>1857.9199999999998</v>
+      </c>
+      <c r="AU9" s="101"/>
+      <c r="AV9" s="42"/>
+      <c r="AW9" s="43"/>
+      <c r="AX9" s="44"/>
+      <c r="AY9" s="44"/>
+      <c r="AZ9" s="44"/>
+      <c r="BA9" s="44"/>
+    </row>
+    <row r="10" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="183"/>
+      <c r="B10" s="32">
+        <v>3</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="42">
+        <v>18356</v>
+      </c>
+      <c r="E10" s="42">
+        <v>1</v>
+      </c>
+      <c r="F10" s="42">
+        <v>16869</v>
+      </c>
+      <c r="G10" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="36">
+        <v>6.4</v>
+      </c>
+      <c r="I10" s="42">
+        <v>16105</v>
+      </c>
+      <c r="J10" s="36">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K10" s="42">
+        <v>15699</v>
+      </c>
+      <c r="L10" s="38">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="M10" s="36">
+        <f>ROUND(K10*(1-L10),0)</f>
+        <v>14804</v>
+      </c>
+      <c r="N10" s="27">
+        <v>0.629</v>
+      </c>
+      <c r="O10" s="24">
+        <f t="shared" si="11"/>
+        <v>9311.7160000000003</v>
+      </c>
+      <c r="P10" s="38">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="Q10" s="24">
+        <f t="shared" si="12"/>
+        <v>4041.4920000000002</v>
+      </c>
+      <c r="R10" s="38">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S10" s="134">
+        <v>0.17760000000000001</v>
+      </c>
+      <c r="T10" s="24">
+        <f t="shared" si="13"/>
+        <v>1450.7920000000001</v>
+      </c>
+      <c r="U10" s="27">
+        <v>0.185</v>
+      </c>
+      <c r="V10" s="24">
+        <f t="shared" si="14"/>
+        <v>2738.74</v>
+      </c>
+      <c r="W10" s="38">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="X10" s="24">
+        <f t="shared" si="15"/>
+        <v>7683.2759999999998</v>
+      </c>
+      <c r="Y10" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="Z10" s="24">
+        <f t="shared" si="16"/>
+        <v>5921.6</v>
+      </c>
+      <c r="AA10" s="147">
+        <v>2.5300000000000001E-3</v>
+      </c>
+      <c r="AB10" s="148">
+        <f t="shared" si="22"/>
+        <v>37.454120000000003</v>
+      </c>
+      <c r="AC10" s="46">
+        <v>2.4399999999999999E-3</v>
+      </c>
+      <c r="AD10" s="17">
+        <f t="shared" si="17"/>
+        <v>36.121760000000002</v>
+      </c>
+      <c r="AE10" s="26">
+        <f>IF(M10&gt;0,(AG10+AP10)/M10,0)</f>
+        <v>2.6220147932991085E-3</v>
+      </c>
+      <c r="AF10" s="46">
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG10" s="36">
+        <f t="shared" si="18"/>
+        <v>3.99708</v>
+      </c>
+      <c r="AH10" s="27">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="AI10" s="40">
+        <f t="shared" si="19"/>
+        <v>33.083838000000007</v>
+      </c>
+      <c r="AJ10" s="27">
+        <f t="shared" si="20"/>
+        <v>0.89050131405058564</v>
+      </c>
+      <c r="AK10" s="28">
+        <f t="shared" si="6"/>
+        <v>0.89813456070407471</v>
+      </c>
+      <c r="AL10" s="42">
+        <v>174</v>
+      </c>
+      <c r="AM10" s="38">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AN10" s="27">
+        <v>0.21870000000000001</v>
+      </c>
+      <c r="AO10" s="134">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="AP10" s="40">
+        <f>AL10*(1-AM10)*AN10</f>
+        <v>34.819227000000005</v>
+      </c>
+      <c r="AQ10" s="135">
+        <f t="shared" si="21"/>
+        <v>34.532649000000006</v>
+      </c>
+      <c r="AR10" s="17">
+        <v>1.55</v>
+      </c>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="110">
+        <f>AT9+AL10-AS10</f>
+        <v>2031.9199999999998</v>
+      </c>
+      <c r="AU10" s="101"/>
+      <c r="AV10" s="42"/>
+      <c r="AW10" s="47"/>
+      <c r="AX10" s="40"/>
+      <c r="AY10" s="40"/>
+      <c r="AZ10" s="40"/>
+      <c r="BA10" s="40"/>
+    </row>
+    <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="184"/>
+      <c r="B11" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50">
+        <f t="shared" ref="D11" si="23">SUM(D8:D10)</f>
+        <v>54766</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50">
+        <f t="shared" ref="F11" si="24">SUM(F8:F10)</f>
+        <v>54101</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="50">
+        <f t="shared" ref="I11:K11" si="25">SUM(I8:I10)</f>
+        <v>52443</v>
+      </c>
+      <c r="J11" s="51"/>
+      <c r="K11" s="50">
+        <f t="shared" si="25"/>
+        <v>46730</v>
+      </c>
+      <c r="L11" s="20">
+        <f t="shared" ref="L11" si="26">IF(K11&gt;0,(K8*L8+K9*L9+K10*L10)/K11,0)</f>
+        <v>5.6341729081960203E-2</v>
+      </c>
+      <c r="M11" s="51">
+        <f t="shared" ref="M11" si="27">M8+M9+M10</f>
+        <v>44097</v>
+      </c>
+      <c r="N11" s="52">
+        <f t="shared" ref="N11" si="28">IF(M11&gt;0,O11/M11,0)</f>
+        <v>0.65954239517427493</v>
+      </c>
+      <c r="O11" s="53">
+        <f t="shared" ref="O11" si="29">O8+O9+O10</f>
+        <v>29083.841</v>
+      </c>
+      <c r="P11" s="20">
+        <f t="shared" ref="P11" si="30">IF(M11&gt;0,Q11/M11,0)</f>
+        <v>0.27764999886613606</v>
+      </c>
+      <c r="Q11" s="53">
+        <f t="shared" ref="Q11" si="31">Q8+Q9+Q10</f>
+        <v>12243.532000000001</v>
+      </c>
+      <c r="R11" s="20">
+        <f t="shared" ref="R11" si="32">IF(M11&gt;0,T11/M11,0)</f>
+        <v>6.2807605959589091E-2</v>
+      </c>
+      <c r="S11" s="136"/>
+      <c r="T11" s="53">
+        <f t="shared" ref="T11" si="33">T8+T9+T10</f>
+        <v>2769.6270000000004</v>
+      </c>
+      <c r="U11" s="20">
+        <f t="shared" ref="U11" si="34">IF(M11&gt;0,V11/M11,0)</f>
+        <v>0.18831995373834953</v>
+      </c>
+      <c r="V11" s="53">
+        <f t="shared" ref="V11" si="35">V8+V9+V10</f>
+        <v>8304.3449999999993</v>
+      </c>
+      <c r="W11" s="20">
+        <f t="shared" ref="W11" si="36">IF(M11&gt;0,X11/M11,0)</f>
+        <v>0.51801167879901122</v>
+      </c>
+      <c r="X11" s="53">
+        <f t="shared" ref="X11" si="37">X8+X9+X10</f>
+        <v>22842.760999999999</v>
+      </c>
+      <c r="Y11" s="20">
+        <f t="shared" ref="Y11" si="38">IF(M11&gt;0,Z11/M11,0)</f>
+        <v>0.39667120212259344</v>
+      </c>
+      <c r="Z11" s="53">
+        <f t="shared" ref="Z11" si="39">Z8+Z9+Z10</f>
+        <v>17492.010000000002</v>
+      </c>
+      <c r="AA11" s="152">
+        <f>IF(M11&gt;0,AB11/M11,0)</f>
+        <v>2.4967120212259341E-3</v>
+      </c>
+      <c r="AB11" s="55">
+        <f t="shared" ref="AB11" si="40">SUM(AB8:AB10)</f>
+        <v>110.09751000000001</v>
+      </c>
+      <c r="AC11" s="54">
+        <f t="shared" ref="AC11" si="41">IF(M11&gt;0,AD11/M11,0)</f>
+        <v>2.426729029185659E-3</v>
+      </c>
+      <c r="AD11" s="55">
+        <f t="shared" ref="AD11" si="42">SUM(AD8:AD10)</f>
+        <v>107.01147</v>
+      </c>
+      <c r="AE11" s="54">
+        <f t="shared" ref="AE11" si="43">IF(M11&gt;0,(AE8*M8+AE9*M9+AE10*M10)/M11,0)</f>
+        <v>2.5807495067691681E-3</v>
+      </c>
+      <c r="AF11" s="54">
+        <f t="shared" ref="AF11" si="44">IF(K11&gt;0,(K8*AF8+K9*AF9+K10*AF10)/K11,0)</f>
+        <v>2.7333468863684999E-4</v>
+      </c>
+      <c r="AG11" s="51">
+        <f t="shared" ref="AG11" si="45">SUM(AG8:AG10)</f>
+        <v>12.05298</v>
+      </c>
+      <c r="AH11" s="52">
+        <f t="shared" ref="AH11" si="46">IF(K11&gt;0,(K8*AH8+K9*AH9+K10*AH10)/K11,0)</f>
+        <v>0.21176105713674301</v>
+      </c>
+      <c r="AI11" s="57">
+        <f t="shared" ref="AI11" si="47">SUM(AI8:AI10)</f>
+        <v>98.43625320000001</v>
+      </c>
+      <c r="AJ11" s="52">
+        <f t="shared" ref="AJ11" si="48">IF(AND(AD11&gt;0),((AD8*AJ8+AD9*AJ9+AD10*AJ10)/AD11),0)</f>
+        <v>0.88851434136061858</v>
+      </c>
+      <c r="AK11" s="56">
+        <f t="shared" si="6"/>
+        <v>0.89520519403989141</v>
+      </c>
+      <c r="AL11" s="50">
+        <f t="shared" ref="AL11" si="49">SUM(AL8:AL10)</f>
+        <v>508</v>
+      </c>
+      <c r="AM11" s="20">
+        <f t="shared" ref="AM11" si="50">IF(AL11&gt;0,(AM8*AL8+AM9*AL9+AM10*AL10)/AL11,0)</f>
+        <v>8.5019685039370074E-2</v>
+      </c>
+      <c r="AN11" s="52">
+        <f>IF(K11&gt;0,(AN8*K8+AN9*K9+AN10*K10)/K11,0)</f>
+        <v>0.21884436550395892</v>
+      </c>
+      <c r="AO11" s="136">
+        <f>IF(K11&gt;0,(AO8*K8+AO9*K9+AO10*K10)/K11,0)</f>
+        <v>0.2165461844639418</v>
+      </c>
+      <c r="AP11" s="57">
+        <f t="shared" ref="AP11" si="51">SUM(AP8:AP10)</f>
+        <v>101.75033099999999</v>
+      </c>
+      <c r="AQ11" s="137">
+        <f t="shared" ref="AQ11:AQ15" si="52">SUM(AQ8:AQ10)</f>
+        <v>100.6840322</v>
+      </c>
+      <c r="AR11" s="55"/>
+      <c r="AS11" s="55">
+        <f t="shared" ref="AS11" si="53">SUM(AS8:AS10)</f>
+        <v>0</v>
+      </c>
+      <c r="AT11" s="102"/>
+      <c r="AU11" s="103">
+        <f>AT10</f>
+        <v>2031.9199999999998</v>
+      </c>
+      <c r="AV11" s="50">
+        <f t="shared" ref="AV11" si="54">SUM(AV8:AV10)</f>
+        <v>0</v>
+      </c>
+      <c r="AW11" s="58"/>
+      <c r="AX11" s="57"/>
+      <c r="AY11" s="57"/>
+      <c r="AZ11" s="57"/>
+      <c r="BA11" s="57"/>
+    </row>
+    <row r="12" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="182">
+        <v>3</v>
+      </c>
+      <c r="B12" s="22">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="11">
+        <v>12000</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>14206</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="H12" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="I12" s="11">
+        <v>13586</v>
+      </c>
+      <c r="J12" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K12" s="11">
+        <v>15878</v>
+      </c>
+      <c r="L12" s="13">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="M12" s="23">
+        <f>ROUND(K12*(1-L12),0)</f>
+        <v>14941</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="O12" s="24">
+        <f t="shared" ref="O12:O14" si="55">M12*N12</f>
+        <v>8591.0749999999989</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="Q12" s="24">
+        <f t="shared" ref="Q12:Q14" si="56">M12*P12</f>
+        <v>4049.0110000000004</v>
+      </c>
+      <c r="R12" s="15">
+        <v>0.154</v>
+      </c>
+      <c r="S12" s="143">
+        <v>0.1883</v>
+      </c>
+      <c r="T12" s="24">
+        <f t="shared" ref="T12:T14" si="57">M12*R12</f>
+        <v>2300.9139999999998</v>
+      </c>
+      <c r="U12" s="25">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="V12" s="24">
+        <f t="shared" ref="V12:V14" si="58">M12*U12</f>
+        <v>2973.259</v>
+      </c>
+      <c r="W12" s="15">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="X12" s="24">
+        <f t="shared" ref="X12:X14" si="59">M12*W12</f>
+        <v>7590.0280000000002</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="Z12" s="24">
+        <f t="shared" ref="Z12:Z14" si="60">Y12*M12</f>
+        <v>5976.4000000000005</v>
+      </c>
+      <c r="AA12" s="145">
+        <v>2.47E-3</v>
+      </c>
+      <c r="AB12" s="18">
+        <f t="shared" ref="AB12:AB15" si="61">M12*AA12</f>
+        <v>36.904269999999997</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AD12" s="17">
+        <f t="shared" ref="AD12:AD14" si="62">M12*AC12</f>
+        <v>35.858399999999996</v>
+      </c>
+      <c r="AE12" s="26">
+        <f>IF(M12&gt;0,(AG12+AP12)/M12,0)</f>
+        <v>2.4513728398366909E-3</v>
+      </c>
+      <c r="AF12" s="16">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="AG12" s="23">
+        <f t="shared" ref="AG12:AG14" si="63">AF12*M12</f>
+        <v>3.8846599999999998</v>
+      </c>
+      <c r="AH12" s="114">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="AI12" s="29">
+        <f t="shared" ref="AI12:AI14" si="64">AL12*(1-AM12)*AH12</f>
+        <v>31.092352200000004</v>
+      </c>
+      <c r="AJ12" s="27">
+        <f t="shared" ref="AJ12:AJ14" si="65">IF(AND(AH12&gt;0,AF12&gt;0,AC12&gt;0),((AC12-AF12)*AH12)/((AH12-AF12)*AC12),0)</f>
+        <v>0.89277570480928703</v>
+      </c>
+      <c r="AK12" s="59">
+        <f t="shared" si="6"/>
+        <v>0.89499278177486474</v>
+      </c>
+      <c r="AL12" s="11">
+        <v>162</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AN12" s="14">
+        <v>0.22040000000000001</v>
+      </c>
+      <c r="AO12" s="130">
+        <v>0.2233</v>
+      </c>
+      <c r="AP12" s="29">
+        <f>AL12*(1-AM12)*AN12</f>
+        <v>32.7413016</v>
+      </c>
+      <c r="AQ12" s="131">
+        <f t="shared" ref="AQ12" si="66">AL12*(1-AM12)*AO12</f>
+        <v>33.172108199999997</v>
+      </c>
+      <c r="AR12" s="18">
+        <v>1.55</v>
+      </c>
+      <c r="AS12" s="18"/>
+      <c r="AT12" s="98">
+        <f>AT10+AL12-AS12</f>
+        <v>2193.92</v>
+      </c>
+      <c r="AU12" s="99"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="30"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="19"/>
+      <c r="BA12" s="19"/>
+    </row>
+    <row r="13" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="183"/>
+      <c r="B13" s="32">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="33">
+        <v>20300</v>
+      </c>
+      <c r="E13" s="33">
+        <v>3</v>
+      </c>
+      <c r="F13" s="33">
+        <v>17555</v>
+      </c>
+      <c r="G13" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="H13" s="34">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I13" s="33">
+        <v>17177</v>
+      </c>
+      <c r="J13" s="34">
+        <v>2</v>
+      </c>
+      <c r="K13" s="33">
+        <v>15996</v>
+      </c>
+      <c r="L13" s="35">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="M13" s="36">
+        <f>ROUND(K13*(1-L13),0)</f>
+        <v>15148</v>
+      </c>
+      <c r="N13" s="37">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="O13" s="24">
+        <f t="shared" si="55"/>
+        <v>10164.308000000001</v>
+      </c>
+      <c r="P13" s="35">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="Q13" s="24">
+        <f t="shared" si="56"/>
+        <v>4044.5160000000001</v>
+      </c>
+      <c r="R13" s="38">
+        <v>6.2E-2</v>
+      </c>
+      <c r="S13" s="134">
+        <v>0.18590000000000001</v>
+      </c>
+      <c r="T13" s="24">
+        <f t="shared" si="57"/>
+        <v>939.17600000000004</v>
+      </c>
+      <c r="U13" s="27">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="V13" s="24">
+        <f t="shared" si="58"/>
+        <v>3196.2280000000001</v>
+      </c>
+      <c r="W13" s="38">
+        <v>0.503</v>
+      </c>
+      <c r="X13" s="24">
+        <f t="shared" si="59"/>
+        <v>7619.4440000000004</v>
+      </c>
+      <c r="Y13" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="Z13" s="24">
+        <f t="shared" si="60"/>
+        <v>6059.2000000000007</v>
+      </c>
+      <c r="AA13" s="146"/>
+      <c r="AB13" s="18">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="39">
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="AD13" s="17">
+        <f t="shared" si="62"/>
+        <v>37.1126</v>
+      </c>
+      <c r="AE13" s="26">
+        <f>IF(M13&gt;0,(AG13+AP13)/M13,0)</f>
+        <v>2.6098444151043038E-3</v>
+      </c>
+      <c r="AF13" s="39">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="AG13" s="36">
+        <f t="shared" si="63"/>
+        <v>3.9384799999999998</v>
+      </c>
+      <c r="AH13" s="27">
+        <v>0.2175</v>
+      </c>
+      <c r="AI13" s="40">
+        <f t="shared" si="64"/>
+        <v>35.579084999999999</v>
+      </c>
+      <c r="AJ13" s="27">
+        <f t="shared" si="65"/>
+        <v>0.89494737316764317</v>
+      </c>
+      <c r="AK13" s="28">
+        <f t="shared" si="6"/>
+        <v>0.90145430847263552</v>
+      </c>
+      <c r="AL13" s="33">
+        <v>178</v>
+      </c>
+      <c r="AM13" s="35">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="AN13" s="37">
+        <v>0.21759999999999999</v>
+      </c>
+      <c r="AO13" s="132"/>
+      <c r="AP13" s="40">
+        <f>AL13*(1-AM13)*AN13</f>
+        <v>35.595443199999998</v>
+      </c>
+      <c r="AQ13" s="133">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AR13" s="41">
+        <v>1.55</v>
+      </c>
+      <c r="AS13" s="41"/>
+      <c r="AT13" s="110">
+        <f>AT12+AL13-AS13</f>
+        <v>2371.92</v>
+      </c>
+      <c r="AU13" s="101"/>
+      <c r="AV13" s="42"/>
+      <c r="AW13" s="43"/>
+      <c r="AX13" s="44"/>
+      <c r="AY13" s="44"/>
+      <c r="AZ13" s="44"/>
+      <c r="BA13" s="44"/>
+    </row>
+    <row r="14" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="183"/>
+      <c r="B14" s="32">
+        <v>3</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="42">
+        <v>17879</v>
+      </c>
+      <c r="E14" s="42">
+        <v>1</v>
+      </c>
+      <c r="F14" s="42">
+        <v>18694</v>
+      </c>
+      <c r="G14" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="36">
+        <v>7.2</v>
+      </c>
+      <c r="I14" s="42">
+        <v>18039</v>
+      </c>
+      <c r="J14" s="36">
+        <v>1.6</v>
+      </c>
+      <c r="K14" s="42">
+        <v>15758</v>
+      </c>
+      <c r="L14" s="38">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M14" s="36">
+        <f>ROUND(K14*(1-L14),0)</f>
+        <v>14844</v>
+      </c>
+      <c r="N14" s="27">
+        <v>0.65</v>
+      </c>
+      <c r="O14" s="24">
+        <f t="shared" si="55"/>
+        <v>9648.6</v>
+      </c>
+      <c r="P14" s="38">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="Q14" s="24">
+        <f t="shared" si="56"/>
+        <v>4230.54</v>
+      </c>
+      <c r="R14" s="38">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="S14" s="134">
+        <v>0.1802</v>
+      </c>
+      <c r="T14" s="24">
+        <f t="shared" si="57"/>
+        <v>964.86</v>
+      </c>
+      <c r="U14" s="27"/>
+      <c r="V14" s="24">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="38"/>
+      <c r="X14" s="24">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="38">
+        <v>0.41</v>
+      </c>
+      <c r="Z14" s="24">
+        <f t="shared" si="60"/>
+        <v>6086.04</v>
+      </c>
+      <c r="AA14" s="147"/>
+      <c r="AB14" s="148">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="46">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="AD14" s="17">
+        <f t="shared" si="62"/>
+        <v>35.774039999999999</v>
+      </c>
+      <c r="AE14" s="26">
+        <f>IF(M14&gt;0,(AG14+AP14)/M14,0)</f>
+        <v>2.7E-4</v>
+      </c>
+      <c r="AF14" s="46">
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG14" s="36">
+        <f t="shared" si="63"/>
+        <v>4.0078800000000001</v>
+      </c>
+      <c r="AH14" s="27">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="AI14" s="40">
+        <f t="shared" si="64"/>
+        <v>34.171728000000002</v>
+      </c>
+      <c r="AJ14" s="27">
+        <f t="shared" si="65"/>
+        <v>0.88910722755140936</v>
+      </c>
+      <c r="AK14" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="42">
+        <v>178</v>
+      </c>
+      <c r="AM14" s="38">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="134"/>
+      <c r="AP14" s="40">
+        <f>AL14*(1-AM14)*AN14</f>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="135">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AR14" s="17">
+        <v>1.55</v>
+      </c>
+      <c r="AS14" s="17"/>
+      <c r="AT14" s="110">
+        <f>AT13+AL14-AS14</f>
+        <v>2549.92</v>
+      </c>
+      <c r="AU14" s="101"/>
+      <c r="AV14" s="42"/>
+      <c r="AW14" s="47"/>
+      <c r="AX14" s="40"/>
+      <c r="AY14" s="40"/>
+      <c r="AZ14" s="40"/>
+      <c r="BA14" s="40"/>
+    </row>
+    <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="184"/>
+      <c r="B15" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50">
+        <f t="shared" ref="D15" si="67">SUM(D12:D14)</f>
+        <v>50179</v>
+      </c>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50">
+        <f t="shared" ref="F15" si="68">SUM(F12:F14)</f>
+        <v>50455</v>
+      </c>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="50">
+        <f t="shared" ref="I15:K15" si="69">SUM(I12:I14)</f>
+        <v>48802</v>
+      </c>
+      <c r="J15" s="51"/>
+      <c r="K15" s="50">
+        <f t="shared" si="69"/>
+        <v>47632</v>
+      </c>
+      <c r="L15" s="20">
+        <f t="shared" ref="L15" si="70">IF(K15&gt;0,(K12*L12+K13*L13+K14*L14)/K15,0)</f>
+        <v>5.6654224051058112E-2</v>
+      </c>
+      <c r="M15" s="51">
+        <f t="shared" ref="M15" si="71">M12+M13+M14</f>
+        <v>44933</v>
+      </c>
+      <c r="N15" s="52">
+        <f t="shared" ref="N15" si="72">IF(M15&gt;0,O15/M15,0)</f>
+        <v>0.63214080964992325</v>
+      </c>
+      <c r="O15" s="53">
+        <f t="shared" ref="O15" si="73">O12+O13+O14</f>
+        <v>28403.983</v>
+      </c>
+      <c r="P15" s="20">
+        <f t="shared" ref="P15" si="74">IF(M15&gt;0,Q15/M15,0)</f>
+        <v>0.27427652282286957</v>
+      </c>
+      <c r="Q15" s="53">
+        <f t="shared" ref="Q15" si="75">Q12+Q13+Q14</f>
+        <v>12324.066999999999</v>
+      </c>
+      <c r="R15" s="20">
+        <f t="shared" ref="R15" si="76">IF(M15&gt;0,T15/M15,0)</f>
+        <v>9.3582667527207175E-2</v>
+      </c>
+      <c r="S15" s="136"/>
+      <c r="T15" s="53">
+        <f t="shared" ref="T15" si="77">T12+T13+T14</f>
+        <v>4204.95</v>
+      </c>
+      <c r="U15" s="20">
+        <f t="shared" ref="U15" si="78">IF(M15&gt;0,V15/M15,0)</f>
+        <v>0.1373041417221196</v>
+      </c>
+      <c r="V15" s="53">
+        <f t="shared" ref="V15" si="79">V12+V13+V14</f>
+        <v>6169.4870000000001</v>
+      </c>
+      <c r="W15" s="20">
+        <f t="shared" ref="W15" si="80">IF(M15&gt;0,X15/M15,0)</f>
+        <v>0.33849224400774491</v>
+      </c>
+      <c r="X15" s="53">
+        <f t="shared" ref="X15" si="81">X12+X13+X14</f>
+        <v>15209.472000000002</v>
+      </c>
+      <c r="Y15" s="20">
+        <f t="shared" ref="Y15" si="82">IF(M15&gt;0,Z15/M15,0)</f>
+        <v>0.40330358533817023</v>
+      </c>
+      <c r="Z15" s="53">
+        <f t="shared" ref="Z15" si="83">Z12+Z13+Z14</f>
+        <v>18121.640000000003</v>
+      </c>
+      <c r="AA15" s="152">
+        <f>IF(M15&gt;0,AB15/M15,0)</f>
+        <v>8.2131773974584369E-4</v>
+      </c>
+      <c r="AB15" s="55">
+        <f t="shared" ref="AB15" si="84">SUM(AB12:AB14)</f>
+        <v>36.904269999999997</v>
+      </c>
+      <c r="AC15" s="54">
+        <f t="shared" ref="AC15" si="85">IF(M15&gt;0,AD15/M15,0)</f>
+        <v>2.420159793470278E-3</v>
+      </c>
+      <c r="AD15" s="55">
+        <f t="shared" ref="AD15" si="86">SUM(AD12:AD14)</f>
+        <v>108.74504</v>
+      </c>
+      <c r="AE15" s="54">
+        <f t="shared" ref="AE15" si="87">IF(M15&gt;0,(AE12*M12+AE13*M13+AE14*M14)/M15,0)</f>
+        <v>1.7841623038746576E-3</v>
+      </c>
+      <c r="AF15" s="54">
+        <f t="shared" ref="AF15" si="88">IF(K15&gt;0,(K12*AF12+K13*AF13+K14*AF14)/K15,0)</f>
+        <v>2.6330828014779978E-4</v>
+      </c>
+      <c r="AG15" s="51">
+        <f t="shared" ref="AG15" si="89">SUM(AG12:AG14)</f>
+        <v>11.831019999999999</v>
+      </c>
+      <c r="AH15" s="52">
+        <f t="shared" ref="AH15" si="90">IF(K15&gt;0,(K12*AH12+K13*AH13+K14*AH14)/K15,0)</f>
+        <v>0.21245075579442393</v>
+      </c>
+      <c r="AI15" s="57">
+        <f t="shared" ref="AI15" si="91">SUM(AI12:AI14)</f>
+        <v>100.8431652</v>
+      </c>
+      <c r="AJ15" s="52">
+        <f t="shared" ref="AJ15" si="92">IF(AND(AD15&gt;0),((AD12*AJ12+AD13*AJ13+AD14*AJ14)/AD15),0)</f>
+        <v>0.89231002846169372</v>
+      </c>
+      <c r="AK15" s="56">
+        <f t="shared" si="6"/>
+        <v>0.85395345861968397</v>
+      </c>
+      <c r="AL15" s="50">
+        <f t="shared" ref="AL15" si="93">SUM(AL12:AL14)</f>
+        <v>518</v>
+      </c>
+      <c r="AM15" s="20">
+        <f t="shared" ref="AM15" si="94">IF(AL15&gt;0,(AM12*AL12+AM13*AL13+AM14*AL14)/AL15,0)</f>
+        <v>8.403088803088804E-2</v>
+      </c>
+      <c r="AN15" s="52">
+        <f>IF(K15&gt;0,(AN12*K12+AN13*K13+AN14*K14)/K15,0)</f>
+        <v>0.14654519650655021</v>
+      </c>
+      <c r="AO15" s="136">
+        <f>IF(K15&gt;0,(AO12*K12+AO13*K13+AO14*K14)/K15,0)</f>
+        <v>7.4436458683238158E-2</v>
+      </c>
+      <c r="AP15" s="57">
+        <f t="shared" ref="AP15" si="95">SUM(AP12:AP14)</f>
+        <v>68.336744799999991</v>
+      </c>
+      <c r="AQ15" s="137">
+        <f t="shared" si="52"/>
+        <v>33.172108199999997</v>
+      </c>
+      <c r="AR15" s="55"/>
+      <c r="AS15" s="55">
+        <f t="shared" ref="AS15" si="96">SUM(AS12:AS14)</f>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="102"/>
+      <c r="AU15" s="103">
+        <f>AT14</f>
+        <v>2549.92</v>
+      </c>
+      <c r="AV15" s="50">
+        <f t="shared" ref="AV15" si="97">SUM(AV12:AV14)</f>
+        <v>0</v>
+      </c>
+      <c r="AW15" s="58"/>
+      <c r="AX15" s="57"/>
+      <c r="AY15" s="57"/>
+      <c r="AZ15" s="57"/>
+      <c r="BA15" s="57"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="Q1:Q3 V1:V3 X1:X3 Z1:Z3 AP1:AQ15 O1:O3 T1:T3 AG1:AG3 AK1:AK15 AD1:AE3 M1:M15" name="Range1_1_1_1_1_1_1_1_1"/>
+    <protectedRange sqref="AH3:AJ3 AH7:AJ7 AI1:AJ2 AH4:AI6 AH11:AJ11 AH15:AJ15 AH8:AI10 AH12:AI14" name="Range1_1_1_1_1_1_1"/>
+    <protectedRange sqref="AJ4:AJ6 AJ8:AJ10 AJ12:AJ14" name="Range1_1_1_1"/>
+    <protectedRange sqref="AD7:AE7 AD4:AD6 AD11:AE11 AD8:AD10 AD15:AE15 AD12:AD14" name="Range1_1_1_1_1_2_2_1"/>
+    <protectedRange sqref="O4:O15" name="Range1_1_1_1_1_5_1_1"/>
+    <protectedRange sqref="Q4:Q15" name="Range1_1_1_1_1_7_1_1"/>
+    <protectedRange sqref="T4:T15" name="Range1_1_1_1_1_8_1_1"/>
+    <protectedRange sqref="V4:V15" name="Range1_1_1_1_1_10_1_1"/>
+    <protectedRange sqref="X4:X15" name="Range1_1_1_1_1_12_1_1"/>
+    <protectedRange sqref="Z4:Z15" name="Range1_1_1_1_1_16_1_1"/>
+    <protectedRange sqref="AG4:AG15" name="Range1_1_1_1_1_18_1_1"/>
+    <protectedRange sqref="AE4:AE6" name="Range1_1_1_1_1_2_1_31_1_1"/>
+    <protectedRange sqref="AE8:AE10" name="Range1_1_1_1_1_2_1_1_2_1_1"/>
+    <protectedRange sqref="AE12:AE14" name="Range1_1_1_1_1_2_1_2_1_1_1"/>
+    <protectedRange sqref="AA3:AB3" name="Range1_1_1_1_1_1_1_1_1_1_2"/>
+    <protectedRange sqref="AB4:AB15" name="Range1_1_1_1_1_2_2_1_1_1"/>
+    <protectedRange sqref="AB1" name="Range1_1_1_1_1_1_1_1_1_1_1_1"/>
+  </protectedRanges>
+  <mergeCells count="8">
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="A4:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dispatchers_rep/Doklad_Dispecheri_2025!.xlsx
+++ b/dispatchers_rep/Doklad_Dispecheri_2025!.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7821C385-163F-4051-ADD6-1EF91D4DCF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56B22EF-423A-40D9-BA99-F1CD05A9273D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="70">
   <si>
     <t xml:space="preserve">Подадена руда
  от МГТЛ 
@@ -1688,6 +1688,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1695,6 +1698,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1714,12 +1720,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1770,7 +1770,7 @@
       <sheetData sheetId="6">
         <row r="127">
           <cell r="AU127">
-            <v>1478.34</v>
+            <v>1519.34</v>
           </cell>
         </row>
       </sheetData>
@@ -2139,13 +2139,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="187" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -2274,19 +2274,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="191" t="s">
+      <c r="AX1" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="191"/>
-      <c r="AZ1" s="191" t="s">
+      <c r="AY1" s="182"/>
+      <c r="AZ1" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="191"/>
+      <c r="BA1" s="182"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="186"/>
+      <c r="A2" s="192"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="188"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -2477,7 +2477,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="182">
+      <c r="A4" s="183">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -2639,7 +2639,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" s="183"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -2799,7 +2799,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="183"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -2959,7 +2959,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -3130,7 +3130,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="182">
+      <c r="A8" s="183">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -3294,7 +3294,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" s="183"/>
+      <c r="A9" s="184"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -3454,7 +3454,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" s="183"/>
+      <c r="A10" s="184"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -3614,7 +3614,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="184"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -3785,7 +3785,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182">
+      <c r="A12" s="183">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -3949,7 +3949,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" s="183"/>
+      <c r="A13" s="184"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -4109,7 +4109,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14" s="183"/>
+      <c r="A14" s="184"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -4269,7 +4269,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="184"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -4440,7 +4440,7 @@
       <c r="BA15" s="57"/>
     </row>
     <row r="16" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182">
+      <c r="A16" s="183">
         <v>4</v>
       </c>
       <c r="B16" s="22">
@@ -4604,7 +4604,7 @@
       <c r="BA16" s="19"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A17" s="183"/>
+      <c r="A17" s="184"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -4764,7 +4764,7 @@
       <c r="BA17" s="44"/>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18" s="183"/>
+      <c r="A18" s="184"/>
       <c r="B18" s="32">
         <v>3</v>
       </c>
@@ -4924,7 +4924,7 @@
       <c r="BA18" s="40"/>
     </row>
     <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="184"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="48" t="s">
         <v>35</v>
       </c>
@@ -5095,7 +5095,7 @@
       <c r="BA19" s="57"/>
     </row>
     <row r="20" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="182">
+      <c r="A20" s="183">
         <v>5</v>
       </c>
       <c r="B20" s="22">
@@ -5259,7 +5259,7 @@
       <c r="BA20" s="19"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" s="183"/>
+      <c r="A21" s="184"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
@@ -5419,7 +5419,7 @@
       <c r="BA21" s="44"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22" s="183"/>
+      <c r="A22" s="184"/>
       <c r="B22" s="32">
         <v>3</v>
       </c>
@@ -5579,7 +5579,7 @@
       <c r="BA22" s="40"/>
     </row>
     <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="184"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
@@ -5750,7 +5750,7 @@
       <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182">
+      <c r="A24" s="183">
         <v>6</v>
       </c>
       <c r="B24" s="22">
@@ -5916,7 +5916,7 @@
       <c r="BA24" s="19"/>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A25" s="183"/>
+      <c r="A25" s="184"/>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -6076,7 +6076,7 @@
       <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A26" s="183"/>
+      <c r="A26" s="184"/>
       <c r="B26" s="32">
         <v>3</v>
       </c>
@@ -6236,7 +6236,7 @@
       <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="184"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="48" t="s">
         <v>35</v>
       </c>
@@ -6407,7 +6407,7 @@
       <c r="BA27" s="57"/>
     </row>
     <row r="28" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="182">
+      <c r="A28" s="183">
         <v>7</v>
       </c>
       <c r="B28" s="22">
@@ -6569,7 +6569,7 @@
       <c r="BA28" s="19"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A29" s="183"/>
+      <c r="A29" s="184"/>
       <c r="B29" s="32">
         <v>2</v>
       </c>
@@ -6729,7 +6729,7 @@
       <c r="BA29" s="44"/>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A30" s="183"/>
+      <c r="A30" s="184"/>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -6889,7 +6889,7 @@
       <c r="BA30" s="40"/>
     </row>
     <row r="31" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="184"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="48" t="s">
         <v>35</v>
       </c>
@@ -7060,7 +7060,7 @@
       <c r="BA31" s="57"/>
     </row>
     <row r="32" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="182">
+      <c r="A32" s="183">
         <v>8</v>
       </c>
       <c r="B32" s="22">
@@ -7222,7 +7222,7 @@
       <c r="BA32" s="19"/>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A33" s="183"/>
+      <c r="A33" s="184"/>
       <c r="B33" s="32">
         <v>2</v>
       </c>
@@ -7382,7 +7382,7 @@
       <c r="BA33" s="44"/>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A34" s="183"/>
+      <c r="A34" s="184"/>
       <c r="B34" s="32">
         <v>3</v>
       </c>
@@ -7542,7 +7542,7 @@
       <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="184"/>
+      <c r="A35" s="185"/>
       <c r="B35" s="48" t="s">
         <v>35</v>
       </c>
@@ -7713,7 +7713,7 @@
       <c r="BA35" s="57"/>
     </row>
     <row r="36" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="182">
+      <c r="A36" s="183">
         <v>9</v>
       </c>
       <c r="B36" s="22">
@@ -7877,7 +7877,7 @@
       <c r="BA36" s="19"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A37" s="183"/>
+      <c r="A37" s="184"/>
       <c r="B37" s="32">
         <v>2</v>
       </c>
@@ -8037,7 +8037,7 @@
       <c r="BA37" s="44"/>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A38" s="183"/>
+      <c r="A38" s="184"/>
       <c r="B38" s="32">
         <v>3</v>
       </c>
@@ -8197,7 +8197,7 @@
       <c r="BA38" s="40"/>
     </row>
     <row r="39" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="184"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="48" t="s">
         <v>35</v>
       </c>
@@ -8368,7 +8368,7 @@
       <c r="BA39" s="57"/>
     </row>
     <row r="40" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="182">
+      <c r="A40" s="183">
         <v>10</v>
       </c>
       <c r="B40" s="22">
@@ -8532,7 +8532,7 @@
       <c r="BA40" s="19"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A41" s="183"/>
+      <c r="A41" s="184"/>
       <c r="B41" s="32">
         <v>2</v>
       </c>
@@ -8692,7 +8692,7 @@
       <c r="BA41" s="44"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A42" s="183"/>
+      <c r="A42" s="184"/>
       <c r="B42" s="32">
         <v>3</v>
       </c>
@@ -8852,7 +8852,7 @@
       <c r="BA42" s="40"/>
     </row>
     <row r="43" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="184"/>
+      <c r="A43" s="185"/>
       <c r="B43" s="48" t="s">
         <v>35</v>
       </c>
@@ -9023,7 +9023,7 @@
       <c r="BA43" s="57"/>
     </row>
     <row r="44" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="182">
+      <c r="A44" s="183">
         <v>11</v>
       </c>
       <c r="B44" s="22">
@@ -9187,7 +9187,7 @@
       <c r="BA44" s="19"/>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A45" s="183"/>
+      <c r="A45" s="184"/>
       <c r="B45" s="32">
         <v>2</v>
       </c>
@@ -9347,7 +9347,7 @@
       <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A46" s="183"/>
+      <c r="A46" s="184"/>
       <c r="B46" s="32">
         <v>3</v>
       </c>
@@ -9507,7 +9507,7 @@
       <c r="BA46" s="40"/>
     </row>
     <row r="47" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="184"/>
+      <c r="A47" s="185"/>
       <c r="B47" s="48" t="s">
         <v>35</v>
       </c>
@@ -9678,7 +9678,7 @@
       <c r="BA47" s="57"/>
     </row>
     <row r="48" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="182">
+      <c r="A48" s="183">
         <v>12</v>
       </c>
       <c r="B48" s="22">
@@ -9844,7 +9844,7 @@
       <c r="BA48" s="19"/>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A49" s="183"/>
+      <c r="A49" s="184"/>
       <c r="B49" s="32">
         <v>2</v>
       </c>
@@ -10004,7 +10004,7 @@
       <c r="BA49" s="44"/>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A50" s="183"/>
+      <c r="A50" s="184"/>
       <c r="B50" s="32">
         <v>3</v>
       </c>
@@ -10164,7 +10164,7 @@
       <c r="BA50" s="40"/>
     </row>
     <row r="51" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="184"/>
+      <c r="A51" s="185"/>
       <c r="B51" s="48" t="s">
         <v>35</v>
       </c>
@@ -10335,7 +10335,7 @@
       <c r="BA51" s="57"/>
     </row>
     <row r="52" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="182">
+      <c r="A52" s="183">
         <v>13</v>
       </c>
       <c r="B52" s="22">
@@ -10499,7 +10499,7 @@
       <c r="BA52" s="19"/>
     </row>
     <row r="53" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A53" s="183"/>
+      <c r="A53" s="184"/>
       <c r="B53" s="32">
         <v>2</v>
       </c>
@@ -10659,7 +10659,7 @@
       <c r="BA53" s="44"/>
     </row>
     <row r="54" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A54" s="183"/>
+      <c r="A54" s="184"/>
       <c r="B54" s="32">
         <v>3</v>
       </c>
@@ -10819,7 +10819,7 @@
       <c r="BA54" s="40"/>
     </row>
     <row r="55" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="184"/>
+      <c r="A55" s="185"/>
       <c r="B55" s="48" t="s">
         <v>35</v>
       </c>
@@ -10990,7 +10990,7 @@
       <c r="BA55" s="57"/>
     </row>
     <row r="56" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="182">
+      <c r="A56" s="183">
         <v>14</v>
       </c>
       <c r="B56" s="22">
@@ -11152,7 +11152,7 @@
       <c r="BA56" s="19"/>
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A57" s="183"/>
+      <c r="A57" s="184"/>
       <c r="B57" s="32">
         <v>2</v>
       </c>
@@ -11312,7 +11312,7 @@
       <c r="BA57" s="44"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A58" s="183"/>
+      <c r="A58" s="184"/>
       <c r="B58" s="32">
         <v>3</v>
       </c>
@@ -11472,7 +11472,7 @@
       <c r="BA58" s="40"/>
     </row>
     <row r="59" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="184"/>
+      <c r="A59" s="185"/>
       <c r="B59" s="48" t="s">
         <v>35</v>
       </c>
@@ -11643,7 +11643,7 @@
       <c r="BA59" s="57"/>
     </row>
     <row r="60" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="182">
+      <c r="A60" s="183">
         <v>15</v>
       </c>
       <c r="B60" s="22">
@@ -11805,7 +11805,7 @@
       <c r="BA60" s="19"/>
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A61" s="183"/>
+      <c r="A61" s="184"/>
       <c r="B61" s="32">
         <v>2</v>
       </c>
@@ -11965,7 +11965,7 @@
       <c r="BA61" s="44"/>
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A62" s="183"/>
+      <c r="A62" s="184"/>
       <c r="B62" s="32">
         <v>3</v>
       </c>
@@ -12125,7 +12125,7 @@
       <c r="BA62" s="40"/>
     </row>
     <row r="63" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="184"/>
+      <c r="A63" s="185"/>
       <c r="B63" s="48" t="s">
         <v>35</v>
       </c>
@@ -12296,7 +12296,7 @@
       <c r="BA63" s="57"/>
     </row>
     <row r="64" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="182">
+      <c r="A64" s="183">
         <v>16</v>
       </c>
       <c r="B64" s="22">
@@ -12460,7 +12460,7 @@
       <c r="BA64" s="19"/>
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A65" s="183"/>
+      <c r="A65" s="184"/>
       <c r="B65" s="32">
         <v>2</v>
       </c>
@@ -12620,7 +12620,7 @@
       <c r="BA65" s="44"/>
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A66" s="183"/>
+      <c r="A66" s="184"/>
       <c r="B66" s="32">
         <v>3</v>
       </c>
@@ -12780,7 +12780,7 @@
       <c r="BA66" s="40"/>
     </row>
     <row r="67" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="184"/>
+      <c r="A67" s="185"/>
       <c r="B67" s="48" t="s">
         <v>35</v>
       </c>
@@ -12951,7 +12951,7 @@
       <c r="BA67" s="57"/>
     </row>
     <row r="68" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="182">
+      <c r="A68" s="183">
         <v>17</v>
       </c>
       <c r="B68" s="22">
@@ -13115,7 +13115,7 @@
       <c r="BA68" s="19"/>
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A69" s="183"/>
+      <c r="A69" s="184"/>
       <c r="B69" s="32">
         <v>2</v>
       </c>
@@ -13275,7 +13275,7 @@
       <c r="BA69" s="44"/>
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A70" s="183"/>
+      <c r="A70" s="184"/>
       <c r="B70" s="32">
         <v>3</v>
       </c>
@@ -13435,7 +13435,7 @@
       <c r="BA70" s="40"/>
     </row>
     <row r="71" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="184"/>
+      <c r="A71" s="185"/>
       <c r="B71" s="48" t="s">
         <v>35</v>
       </c>
@@ -13606,7 +13606,7 @@
       <c r="BA71" s="57"/>
     </row>
     <row r="72" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="182">
+      <c r="A72" s="183">
         <v>18</v>
       </c>
       <c r="B72" s="22">
@@ -13772,7 +13772,7 @@
       <c r="BA72" s="19"/>
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A73" s="183"/>
+      <c r="A73" s="184"/>
       <c r="B73" s="32">
         <v>2</v>
       </c>
@@ -13932,7 +13932,7 @@
       <c r="BA73" s="44"/>
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A74" s="183"/>
+      <c r="A74" s="184"/>
       <c r="B74" s="32">
         <v>3</v>
       </c>
@@ -14092,7 +14092,7 @@
       <c r="BA74" s="40"/>
     </row>
     <row r="75" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="184"/>
+      <c r="A75" s="185"/>
       <c r="B75" s="48" t="s">
         <v>35</v>
       </c>
@@ -14263,7 +14263,7 @@
       <c r="BA75" s="57"/>
     </row>
     <row r="76" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="182">
+      <c r="A76" s="183">
         <v>19</v>
       </c>
       <c r="B76" s="22">
@@ -14427,7 +14427,7 @@
       <c r="BA76" s="175"/>
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A77" s="183"/>
+      <c r="A77" s="184"/>
       <c r="B77" s="32">
         <v>2</v>
       </c>
@@ -14587,7 +14587,7 @@
       <c r="BA77" s="176"/>
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A78" s="183"/>
+      <c r="A78" s="184"/>
       <c r="B78" s="32">
         <v>3</v>
       </c>
@@ -14747,7 +14747,7 @@
       <c r="BA78" s="177"/>
     </row>
     <row r="79" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="184"/>
+      <c r="A79" s="185"/>
       <c r="B79" s="48" t="s">
         <v>35</v>
       </c>
@@ -14918,7 +14918,7 @@
       <c r="BA79" s="179"/>
     </row>
     <row r="80" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="183">
+      <c r="A80" s="184">
         <v>20</v>
       </c>
       <c r="B80" s="32">
@@ -15084,7 +15084,7 @@
       <c r="BA80" s="168"/>
     </row>
     <row r="81" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A81" s="183"/>
+      <c r="A81" s="184"/>
       <c r="B81" s="32">
         <v>2</v>
       </c>
@@ -15244,7 +15244,7 @@
       <c r="BA81" s="44"/>
     </row>
     <row r="82" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A82" s="183"/>
+      <c r="A82" s="184"/>
       <c r="B82" s="32">
         <v>3</v>
       </c>
@@ -15404,7 +15404,7 @@
       <c r="BA82" s="40"/>
     </row>
     <row r="83" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="184"/>
+      <c r="A83" s="185"/>
       <c r="B83" s="48" t="s">
         <v>35</v>
       </c>
@@ -15575,7 +15575,7 @@
       <c r="BA83" s="57"/>
     </row>
     <row r="84" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="182">
+      <c r="A84" s="183">
         <v>21</v>
       </c>
       <c r="B84" s="22">
@@ -15737,7 +15737,7 @@
       <c r="BA84" s="19"/>
     </row>
     <row r="85" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A85" s="183"/>
+      <c r="A85" s="184"/>
       <c r="B85" s="32">
         <v>2</v>
       </c>
@@ -15897,7 +15897,7 @@
       <c r="BA85" s="44"/>
     </row>
     <row r="86" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A86" s="183"/>
+      <c r="A86" s="184"/>
       <c r="B86" s="32">
         <v>3</v>
       </c>
@@ -16057,7 +16057,7 @@
       <c r="BA86" s="40"/>
     </row>
     <row r="87" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="184"/>
+      <c r="A87" s="185"/>
       <c r="B87" s="48" t="s">
         <v>35</v>
       </c>
@@ -16228,7 +16228,7 @@
       <c r="BA87" s="57"/>
     </row>
     <row r="88" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="182">
+      <c r="A88" s="183">
         <v>22</v>
       </c>
       <c r="B88" s="22">
@@ -16390,7 +16390,7 @@
       <c r="BA88" s="19"/>
     </row>
     <row r="89" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A89" s="183"/>
+      <c r="A89" s="184"/>
       <c r="B89" s="32">
         <v>2</v>
       </c>
@@ -16550,7 +16550,7 @@
       <c r="BA89" s="44"/>
     </row>
     <row r="90" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A90" s="183"/>
+      <c r="A90" s="184"/>
       <c r="B90" s="32">
         <v>3</v>
       </c>
@@ -16710,7 +16710,7 @@
       <c r="BA90" s="40"/>
     </row>
     <row r="91" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="184"/>
+      <c r="A91" s="185"/>
       <c r="B91" s="48" t="s">
         <v>35</v>
       </c>
@@ -16881,7 +16881,7 @@
       <c r="BA91" s="57"/>
     </row>
     <row r="92" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="182">
+      <c r="A92" s="183">
         <v>23</v>
       </c>
       <c r="B92" s="22">
@@ -17045,7 +17045,7 @@
       <c r="BA92" s="19"/>
     </row>
     <row r="93" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A93" s="183"/>
+      <c r="A93" s="184"/>
       <c r="B93" s="32">
         <v>2</v>
       </c>
@@ -17205,7 +17205,7 @@
       <c r="BA93" s="44"/>
     </row>
     <row r="94" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A94" s="183"/>
+      <c r="A94" s="184"/>
       <c r="B94" s="32">
         <v>3</v>
       </c>
@@ -17365,7 +17365,7 @@
       <c r="BA94" s="40"/>
     </row>
     <row r="95" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="184"/>
+      <c r="A95" s="185"/>
       <c r="B95" s="48" t="s">
         <v>35</v>
       </c>
@@ -17536,7 +17536,7 @@
       <c r="BA95" s="57"/>
     </row>
     <row r="96" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="182">
+      <c r="A96" s="183">
         <v>24</v>
       </c>
       <c r="B96" s="22">
@@ -17702,7 +17702,7 @@
       <c r="BA96" s="19"/>
     </row>
     <row r="97" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A97" s="183"/>
+      <c r="A97" s="184"/>
       <c r="B97" s="32">
         <v>2</v>
       </c>
@@ -17862,7 +17862,7 @@
       <c r="BA97" s="44"/>
     </row>
     <row r="98" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A98" s="183"/>
+      <c r="A98" s="184"/>
       <c r="B98" s="32">
         <v>3</v>
       </c>
@@ -18022,7 +18022,7 @@
       <c r="BA98" s="40"/>
     </row>
     <row r="99" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="184"/>
+      <c r="A99" s="185"/>
       <c r="B99" s="48" t="s">
         <v>35</v>
       </c>
@@ -18190,7 +18190,7 @@
       <c r="BA99" s="57"/>
     </row>
     <row r="100" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="192">
+      <c r="A100" s="186">
         <v>25</v>
       </c>
       <c r="B100" s="32">
@@ -18356,7 +18356,7 @@
       <c r="BA100" s="19"/>
     </row>
     <row r="101" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A101" s="192"/>
+      <c r="A101" s="186"/>
       <c r="B101" s="32">
         <v>2</v>
       </c>
@@ -18516,7 +18516,7 @@
       <c r="BA101" s="44"/>
     </row>
     <row r="102" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A102" s="192"/>
+      <c r="A102" s="186"/>
       <c r="B102" s="32">
         <v>3</v>
       </c>
@@ -18676,7 +18676,7 @@
       <c r="BA102" s="40"/>
     </row>
     <row r="103" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="192"/>
+      <c r="A103" s="186"/>
       <c r="B103" s="65" t="s">
         <v>35</v>
       </c>
@@ -18847,7 +18847,7 @@
       <c r="BA103" s="57"/>
     </row>
     <row r="104" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="182">
+      <c r="A104" s="183">
         <v>26</v>
       </c>
       <c r="B104" s="22">
@@ -19013,7 +19013,7 @@
       <c r="BA104" s="19"/>
     </row>
     <row r="105" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A105" s="183"/>
+      <c r="A105" s="184"/>
       <c r="B105" s="32">
         <v>2</v>
       </c>
@@ -19173,7 +19173,7 @@
       <c r="BA105" s="44"/>
     </row>
     <row r="106" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A106" s="183"/>
+      <c r="A106" s="184"/>
       <c r="B106" s="32">
         <v>3</v>
       </c>
@@ -19333,7 +19333,7 @@
       <c r="BA106" s="40"/>
     </row>
     <row r="107" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="184"/>
+      <c r="A107" s="185"/>
       <c r="B107" s="48" t="s">
         <v>35</v>
       </c>
@@ -19504,7 +19504,7 @@
       <c r="BA107" s="57"/>
     </row>
     <row r="108" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="182">
+      <c r="A108" s="183">
         <v>27</v>
       </c>
       <c r="B108" s="22">
@@ -19670,7 +19670,7 @@
       <c r="BA108" s="19"/>
     </row>
     <row r="109" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A109" s="183"/>
+      <c r="A109" s="184"/>
       <c r="B109" s="32">
         <v>2</v>
       </c>
@@ -19830,7 +19830,7 @@
       <c r="BA109" s="44"/>
     </row>
     <row r="110" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A110" s="183"/>
+      <c r="A110" s="184"/>
       <c r="B110" s="32">
         <v>3</v>
       </c>
@@ -19990,7 +19990,7 @@
       <c r="BA110" s="40"/>
     </row>
     <row r="111" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="184"/>
+      <c r="A111" s="185"/>
       <c r="B111" s="48" t="s">
         <v>35</v>
       </c>
@@ -20161,7 +20161,7 @@
       <c r="BA111" s="57"/>
     </row>
     <row r="112" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="182">
+      <c r="A112" s="183">
         <v>28</v>
       </c>
       <c r="B112" s="22">
@@ -20323,7 +20323,7 @@
       <c r="BA112" s="19"/>
     </row>
     <row r="113" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A113" s="183"/>
+      <c r="A113" s="184"/>
       <c r="B113" s="32">
         <v>2</v>
       </c>
@@ -20483,7 +20483,7 @@
       <c r="BA113" s="44"/>
     </row>
     <row r="114" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A114" s="183"/>
+      <c r="A114" s="184"/>
       <c r="B114" s="32">
         <v>3</v>
       </c>
@@ -20643,7 +20643,7 @@
       <c r="BA114" s="40"/>
     </row>
     <row r="115" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="184"/>
+      <c r="A115" s="185"/>
       <c r="B115" s="48" t="s">
         <v>35</v>
       </c>
@@ -20814,7 +20814,7 @@
       <c r="BA115" s="57"/>
     </row>
     <row r="116" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="183">
+      <c r="A116" s="184">
         <v>29</v>
       </c>
       <c r="B116" s="32">
@@ -20976,7 +20976,7 @@
       <c r="BA116" s="19"/>
     </row>
     <row r="117" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A117" s="183"/>
+      <c r="A117" s="184"/>
       <c r="B117" s="32">
         <v>2</v>
       </c>
@@ -21136,7 +21136,7 @@
       <c r="BA117" s="44"/>
     </row>
     <row r="118" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A118" s="183"/>
+      <c r="A118" s="184"/>
       <c r="B118" s="32">
         <v>3</v>
       </c>
@@ -21296,7 +21296,7 @@
       <c r="BA118" s="40"/>
     </row>
     <row r="119" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="184"/>
+      <c r="A119" s="185"/>
       <c r="B119" s="48" t="s">
         <v>35</v>
       </c>
@@ -21467,7 +21467,7 @@
       <c r="BA119" s="57"/>
     </row>
     <row r="120" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="182">
+      <c r="A120" s="183">
         <v>30</v>
       </c>
       <c r="B120" s="22">
@@ -21633,7 +21633,7 @@
       <c r="BA120" s="19"/>
     </row>
     <row r="121" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A121" s="183"/>
+      <c r="A121" s="184"/>
       <c r="B121" s="32">
         <v>2</v>
       </c>
@@ -21793,7 +21793,7 @@
       <c r="BA121" s="44"/>
     </row>
     <row r="122" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A122" s="183"/>
+      <c r="A122" s="184"/>
       <c r="B122" s="32">
         <v>3</v>
       </c>
@@ -21953,7 +21953,7 @@
       <c r="BA122" s="40"/>
     </row>
     <row r="123" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="184"/>
+      <c r="A123" s="185"/>
       <c r="B123" s="48" t="s">
         <v>35</v>
       </c>
@@ -22124,7 +22124,7 @@
       <c r="BA123" s="57"/>
     </row>
     <row r="124" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="182">
+      <c r="A124" s="183">
         <v>31</v>
       </c>
       <c r="B124" s="22">
@@ -22234,7 +22234,7 @@
       <c r="BA124" s="19"/>
     </row>
     <row r="125" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A125" s="183"/>
+      <c r="A125" s="184"/>
       <c r="B125" s="32">
         <v>2</v>
       </c>
@@ -22342,7 +22342,7 @@
       <c r="BA125" s="44"/>
     </row>
     <row r="126" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A126" s="183"/>
+      <c r="A126" s="184"/>
       <c r="B126" s="32">
         <v>3</v>
       </c>
@@ -22450,7 +22450,7 @@
       <c r="BA126" s="40"/>
     </row>
     <row r="127" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="184"/>
+      <c r="A127" s="185"/>
       <c r="B127" s="48" t="s">
         <v>35</v>
       </c>
@@ -22843,6 +22843,26 @@
     <protectedRange sqref="AB1" name="Range1_1_1_1_1_1_1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="36">
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="A120:A123"/>
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A100:A103"/>
@@ -22859,26 +22879,6 @@
     <mergeCell ref="A68:A71"/>
     <mergeCell ref="A84:A87"/>
     <mergeCell ref="AX1:AY1"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22956,13 +22956,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="187" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -23091,19 +23091,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="191" t="s">
+      <c r="AX1" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="191"/>
-      <c r="AZ1" s="191" t="s">
+      <c r="AY1" s="182"/>
+      <c r="AZ1" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="191"/>
+      <c r="BA1" s="182"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="186"/>
+      <c r="A2" s="192"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="188"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -23294,7 +23294,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="182">
+      <c r="A4" s="183">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -23458,7 +23458,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" s="183"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -23617,7 +23617,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="183"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -23776,7 +23776,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -23947,7 +23947,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="182">
+      <c r="A8" s="183">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -24111,7 +24111,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" s="183"/>
+      <c r="A9" s="184"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -24271,7 +24271,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" s="183"/>
+      <c r="A10" s="184"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -24431,7 +24431,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="184"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -24602,7 +24602,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182">
+      <c r="A12" s="183">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -24764,7 +24764,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" s="183"/>
+      <c r="A13" s="184"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -24924,7 +24924,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14" s="183"/>
+      <c r="A14" s="184"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -25084,7 +25084,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="184"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -25255,7 +25255,7 @@
       <c r="BA15" s="57"/>
     </row>
     <row r="16" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182">
+      <c r="A16" s="183">
         <v>4</v>
       </c>
       <c r="B16" s="22">
@@ -25417,7 +25417,7 @@
       <c r="BA16" s="19"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A17" s="183"/>
+      <c r="A17" s="184"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -25577,7 +25577,7 @@
       <c r="BA17" s="44"/>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18" s="183"/>
+      <c r="A18" s="184"/>
       <c r="B18" s="32">
         <v>3</v>
       </c>
@@ -25737,7 +25737,7 @@
       <c r="BA18" s="40"/>
     </row>
     <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="184"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="48" t="s">
         <v>35</v>
       </c>
@@ -25908,7 +25908,7 @@
       <c r="BA19" s="57"/>
     </row>
     <row r="20" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="182">
+      <c r="A20" s="183">
         <v>5</v>
       </c>
       <c r="B20" s="22">
@@ -26070,7 +26070,7 @@
       <c r="BA20" s="19"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" s="183"/>
+      <c r="A21" s="184"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
@@ -26230,7 +26230,7 @@
       <c r="BA21" s="44"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22" s="183"/>
+      <c r="A22" s="184"/>
       <c r="B22" s="32">
         <v>3</v>
       </c>
@@ -26390,7 +26390,7 @@
       <c r="BA22" s="40"/>
     </row>
     <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="184"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
@@ -26561,7 +26561,7 @@
       <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182">
+      <c r="A24" s="183">
         <v>6</v>
       </c>
       <c r="B24" s="22">
@@ -26723,7 +26723,7 @@
       <c r="BA24" s="19"/>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A25" s="183"/>
+      <c r="A25" s="184"/>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -26883,7 +26883,7 @@
       <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A26" s="183"/>
+      <c r="A26" s="184"/>
       <c r="B26" s="32">
         <v>3</v>
       </c>
@@ -27043,7 +27043,7 @@
       <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="184"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="48" t="s">
         <v>35</v>
       </c>
@@ -27214,7 +27214,7 @@
       <c r="BA27" s="57"/>
     </row>
     <row r="28" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="182">
+      <c r="A28" s="183">
         <v>7</v>
       </c>
       <c r="B28" s="22">
@@ -27378,7 +27378,7 @@
       <c r="BA28" s="19"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A29" s="183"/>
+      <c r="A29" s="184"/>
       <c r="B29" s="32">
         <v>2</v>
       </c>
@@ -27536,7 +27536,7 @@
       <c r="BA29" s="44"/>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A30" s="183"/>
+      <c r="A30" s="184"/>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -27694,7 +27694,7 @@
       <c r="BA30" s="40"/>
     </row>
     <row r="31" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="184"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="48" t="s">
         <v>35</v>
       </c>
@@ -27865,7 +27865,7 @@
       <c r="BA31" s="57"/>
     </row>
     <row r="32" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="182">
+      <c r="A32" s="183">
         <v>8</v>
       </c>
       <c r="B32" s="22">
@@ -28029,7 +28029,7 @@
       <c r="BA32" s="19"/>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A33" s="183"/>
+      <c r="A33" s="184"/>
       <c r="B33" s="32">
         <v>2</v>
       </c>
@@ -28189,7 +28189,7 @@
       <c r="BA33" s="44"/>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A34" s="183"/>
+      <c r="A34" s="184"/>
       <c r="B34" s="32">
         <v>3</v>
       </c>
@@ -28349,7 +28349,7 @@
       <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="184"/>
+      <c r="A35" s="185"/>
       <c r="B35" s="48" t="s">
         <v>35</v>
       </c>
@@ -28520,7 +28520,7 @@
       <c r="BA35" s="57"/>
     </row>
     <row r="36" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="182">
+      <c r="A36" s="183">
         <v>9</v>
       </c>
       <c r="B36" s="22">
@@ -28684,7 +28684,7 @@
       <c r="BA36" s="19"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A37" s="183"/>
+      <c r="A37" s="184"/>
       <c r="B37" s="32">
         <v>2</v>
       </c>
@@ -28844,7 +28844,7 @@
       <c r="BA37" s="44"/>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A38" s="183"/>
+      <c r="A38" s="184"/>
       <c r="B38" s="32">
         <v>3</v>
       </c>
@@ -29004,7 +29004,7 @@
       <c r="BA38" s="40"/>
     </row>
     <row r="39" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="184"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="48" t="s">
         <v>35</v>
       </c>
@@ -29175,7 +29175,7 @@
       <c r="BA39" s="57"/>
     </row>
     <row r="40" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="182">
+      <c r="A40" s="183">
         <v>10</v>
       </c>
       <c r="B40" s="22">
@@ -29339,7 +29339,7 @@
       <c r="BA40" s="19"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A41" s="183"/>
+      <c r="A41" s="184"/>
       <c r="B41" s="32">
         <v>2</v>
       </c>
@@ -29495,7 +29495,7 @@
       <c r="BA41" s="44"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A42" s="183"/>
+      <c r="A42" s="184"/>
       <c r="B42" s="32">
         <v>3</v>
       </c>
@@ -29643,7 +29643,7 @@
       <c r="BA42" s="40"/>
     </row>
     <row r="43" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="184"/>
+      <c r="A43" s="185"/>
       <c r="B43" s="48" t="s">
         <v>35</v>
       </c>
@@ -29814,7 +29814,7 @@
       <c r="BA43" s="57"/>
     </row>
     <row r="44" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="182">
+      <c r="A44" s="183">
         <v>11</v>
       </c>
       <c r="B44" s="22">
@@ -29976,7 +29976,7 @@
       <c r="BA44" s="19"/>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A45" s="183"/>
+      <c r="A45" s="184"/>
       <c r="B45" s="32">
         <v>2</v>
       </c>
@@ -30136,7 +30136,7 @@
       <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A46" s="183"/>
+      <c r="A46" s="184"/>
       <c r="B46" s="32">
         <v>3</v>
       </c>
@@ -30296,7 +30296,7 @@
       <c r="BA46" s="40"/>
     </row>
     <row r="47" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="184"/>
+      <c r="A47" s="185"/>
       <c r="B47" s="48" t="s">
         <v>35</v>
       </c>
@@ -30467,7 +30467,7 @@
       <c r="BA47" s="57"/>
     </row>
     <row r="48" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="182">
+      <c r="A48" s="183">
         <v>12</v>
       </c>
       <c r="B48" s="22">
@@ -30629,7 +30629,7 @@
       <c r="BA48" s="19"/>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A49" s="183"/>
+      <c r="A49" s="184"/>
       <c r="B49" s="32">
         <v>2</v>
       </c>
@@ -30789,7 +30789,7 @@
       <c r="BA49" s="44"/>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A50" s="183"/>
+      <c r="A50" s="184"/>
       <c r="B50" s="32">
         <v>3</v>
       </c>
@@ -30949,7 +30949,7 @@
       <c r="BA50" s="40"/>
     </row>
     <row r="51" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="184"/>
+      <c r="A51" s="185"/>
       <c r="B51" s="48" t="s">
         <v>35</v>
       </c>
@@ -31754,7 +31754,7 @@
       <c r="BA55" s="57"/>
     </row>
     <row r="56" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="182">
+      <c r="A56" s="183">
         <v>14</v>
       </c>
       <c r="B56" s="22">
@@ -31918,7 +31918,7 @@
       <c r="BA56" s="19"/>
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A57" s="183"/>
+      <c r="A57" s="184"/>
       <c r="B57" s="32">
         <v>2</v>
       </c>
@@ -32078,7 +32078,7 @@
       <c r="BA57" s="44"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A58" s="183"/>
+      <c r="A58" s="184"/>
       <c r="B58" s="32">
         <v>3</v>
       </c>
@@ -32238,7 +32238,7 @@
       <c r="BA58" s="40"/>
     </row>
     <row r="59" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="184"/>
+      <c r="A59" s="185"/>
       <c r="B59" s="48" t="s">
         <v>35</v>
       </c>
@@ -32409,7 +32409,7 @@
       <c r="BA59" s="57"/>
     </row>
     <row r="60" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="182">
+      <c r="A60" s="183">
         <v>15</v>
       </c>
       <c r="B60" s="22">
@@ -32573,7 +32573,7 @@
       <c r="BA60" s="19"/>
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A61" s="183"/>
+      <c r="A61" s="184"/>
       <c r="B61" s="32">
         <v>2</v>
       </c>
@@ -32733,7 +32733,7 @@
       <c r="BA61" s="44"/>
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A62" s="183"/>
+      <c r="A62" s="184"/>
       <c r="B62" s="32">
         <v>3</v>
       </c>
@@ -32893,7 +32893,7 @@
       <c r="BA62" s="40"/>
     </row>
     <row r="63" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="184"/>
+      <c r="A63" s="185"/>
       <c r="B63" s="48" t="s">
         <v>35</v>
       </c>
@@ -33064,7 +33064,7 @@
       <c r="BA63" s="57"/>
     </row>
     <row r="64" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="182">
+      <c r="A64" s="183">
         <v>16</v>
       </c>
       <c r="B64" s="22">
@@ -33230,7 +33230,7 @@
       <c r="BA64" s="19"/>
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A65" s="183"/>
+      <c r="A65" s="184"/>
       <c r="B65" s="32">
         <v>2</v>
       </c>
@@ -33390,7 +33390,7 @@
       <c r="BA65" s="44"/>
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A66" s="183"/>
+      <c r="A66" s="184"/>
       <c r="B66" s="32">
         <v>3</v>
       </c>
@@ -33550,7 +33550,7 @@
       <c r="BA66" s="40"/>
     </row>
     <row r="67" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="184"/>
+      <c r="A67" s="185"/>
       <c r="B67" s="48" t="s">
         <v>35</v>
       </c>
@@ -33721,7 +33721,7 @@
       <c r="BA67" s="57"/>
     </row>
     <row r="68" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="182">
+      <c r="A68" s="183">
         <v>17</v>
       </c>
       <c r="B68" s="22">
@@ -33885,7 +33885,7 @@
       <c r="BA68" s="19"/>
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A69" s="183"/>
+      <c r="A69" s="184"/>
       <c r="B69" s="32">
         <v>2</v>
       </c>
@@ -34045,7 +34045,7 @@
       <c r="BA69" s="44"/>
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A70" s="183"/>
+      <c r="A70" s="184"/>
       <c r="B70" s="32">
         <v>3</v>
       </c>
@@ -34205,7 +34205,7 @@
       <c r="BA70" s="40"/>
     </row>
     <row r="71" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="184"/>
+      <c r="A71" s="185"/>
       <c r="B71" s="48" t="s">
         <v>35</v>
       </c>
@@ -34376,7 +34376,7 @@
       <c r="BA71" s="57"/>
     </row>
     <row r="72" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="182">
+      <c r="A72" s="183">
         <v>18</v>
       </c>
       <c r="B72" s="22">
@@ -34540,7 +34540,7 @@
       <c r="BA72" s="19"/>
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A73" s="183"/>
+      <c r="A73" s="184"/>
       <c r="B73" s="32">
         <v>2</v>
       </c>
@@ -34700,7 +34700,7 @@
       <c r="BA73" s="44"/>
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A74" s="183"/>
+      <c r="A74" s="184"/>
       <c r="B74" s="32">
         <v>3</v>
       </c>
@@ -34860,7 +34860,7 @@
       <c r="BA74" s="40"/>
     </row>
     <row r="75" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="184"/>
+      <c r="A75" s="185"/>
       <c r="B75" s="48" t="s">
         <v>35</v>
       </c>
@@ -35031,7 +35031,7 @@
       <c r="BA75" s="57"/>
     </row>
     <row r="76" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="182">
+      <c r="A76" s="183">
         <v>19</v>
       </c>
       <c r="B76" s="22">
@@ -35193,7 +35193,7 @@
       <c r="BA76" s="19"/>
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A77" s="183"/>
+      <c r="A77" s="184"/>
       <c r="B77" s="32">
         <v>2</v>
       </c>
@@ -35353,7 +35353,7 @@
       <c r="BA77" s="44"/>
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A78" s="183"/>
+      <c r="A78" s="184"/>
       <c r="B78" s="32">
         <v>3</v>
       </c>
@@ -35513,7 +35513,7 @@
       <c r="BA78" s="40"/>
     </row>
     <row r="79" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="184"/>
+      <c r="A79" s="185"/>
       <c r="B79" s="48" t="s">
         <v>35</v>
       </c>
@@ -35684,7 +35684,7 @@
       <c r="BA79" s="57"/>
     </row>
     <row r="80" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="182">
+      <c r="A80" s="183">
         <v>20</v>
       </c>
       <c r="B80" s="22">
@@ -35846,7 +35846,7 @@
       <c r="BA80" s="19"/>
     </row>
     <row r="81" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A81" s="183"/>
+      <c r="A81" s="184"/>
       <c r="B81" s="32">
         <v>2</v>
       </c>
@@ -36006,7 +36006,7 @@
       <c r="BA81" s="44"/>
     </row>
     <row r="82" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A82" s="183"/>
+      <c r="A82" s="184"/>
       <c r="B82" s="32">
         <v>3</v>
       </c>
@@ -36166,7 +36166,7 @@
       <c r="BA82" s="40"/>
     </row>
     <row r="83" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="184"/>
+      <c r="A83" s="185"/>
       <c r="B83" s="48" t="s">
         <v>35</v>
       </c>
@@ -36337,7 +36337,7 @@
       <c r="BA83" s="57"/>
     </row>
     <row r="84" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="182">
+      <c r="A84" s="183">
         <v>21</v>
       </c>
       <c r="B84" s="22">
@@ -36501,7 +36501,7 @@
       <c r="BA84" s="19"/>
     </row>
     <row r="85" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A85" s="183"/>
+      <c r="A85" s="184"/>
       <c r="B85" s="32">
         <v>2</v>
       </c>
@@ -36661,7 +36661,7 @@
       <c r="BA85" s="44"/>
     </row>
     <row r="86" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A86" s="183"/>
+      <c r="A86" s="184"/>
       <c r="B86" s="32">
         <v>3</v>
       </c>
@@ -36821,7 +36821,7 @@
       <c r="BA86" s="40"/>
     </row>
     <row r="87" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="184"/>
+      <c r="A87" s="185"/>
       <c r="B87" s="48" t="s">
         <v>35</v>
       </c>
@@ -36992,7 +36992,7 @@
       <c r="BA87" s="57"/>
     </row>
     <row r="88" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="182">
+      <c r="A88" s="183">
         <v>22</v>
       </c>
       <c r="B88" s="22">
@@ -37156,7 +37156,7 @@
       <c r="BA88" s="19"/>
     </row>
     <row r="89" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A89" s="183"/>
+      <c r="A89" s="184"/>
       <c r="B89" s="32">
         <v>2</v>
       </c>
@@ -37316,7 +37316,7 @@
       <c r="BA89" s="44"/>
     </row>
     <row r="90" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A90" s="183"/>
+      <c r="A90" s="184"/>
       <c r="B90" s="32">
         <v>3</v>
       </c>
@@ -37476,7 +37476,7 @@
       <c r="BA90" s="40"/>
     </row>
     <row r="91" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="184"/>
+      <c r="A91" s="185"/>
       <c r="B91" s="48" t="s">
         <v>35</v>
       </c>
@@ -37647,7 +37647,7 @@
       <c r="BA91" s="57"/>
     </row>
     <row r="92" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="182">
+      <c r="A92" s="183">
         <v>23</v>
       </c>
       <c r="B92" s="22">
@@ -37811,7 +37811,7 @@
       <c r="BA92" s="19"/>
     </row>
     <row r="93" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A93" s="183"/>
+      <c r="A93" s="184"/>
       <c r="B93" s="32">
         <v>2</v>
       </c>
@@ -37969,7 +37969,7 @@
       <c r="BA93" s="44"/>
     </row>
     <row r="94" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A94" s="183"/>
+      <c r="A94" s="184"/>
       <c r="B94" s="32">
         <v>3</v>
       </c>
@@ -38123,7 +38123,7 @@
       <c r="BA94" s="40"/>
     </row>
     <row r="95" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="184"/>
+      <c r="A95" s="185"/>
       <c r="B95" s="48" t="s">
         <v>35</v>
       </c>
@@ -38294,7 +38294,7 @@
       <c r="BA95" s="57"/>
     </row>
     <row r="96" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="182">
+      <c r="A96" s="183">
         <v>24</v>
       </c>
       <c r="B96" s="22">
@@ -38458,7 +38458,7 @@
       <c r="BA96" s="19"/>
     </row>
     <row r="97" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A97" s="183"/>
+      <c r="A97" s="184"/>
       <c r="B97" s="32">
         <v>2</v>
       </c>
@@ -38618,7 +38618,7 @@
       <c r="BA97" s="44"/>
     </row>
     <row r="98" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A98" s="183"/>
+      <c r="A98" s="184"/>
       <c r="B98" s="32">
         <v>3</v>
       </c>
@@ -38778,7 +38778,7 @@
       <c r="BA98" s="40"/>
     </row>
     <row r="99" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="184"/>
+      <c r="A99" s="185"/>
       <c r="B99" s="48" t="s">
         <v>35</v>
       </c>
@@ -38949,7 +38949,7 @@
       <c r="BA99" s="57"/>
     </row>
     <row r="100" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="192">
+      <c r="A100" s="186">
         <v>25</v>
       </c>
       <c r="B100" s="32">
@@ -39113,7 +39113,7 @@
       <c r="BA100" s="19"/>
     </row>
     <row r="101" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A101" s="192"/>
+      <c r="A101" s="186"/>
       <c r="B101" s="32">
         <v>2</v>
       </c>
@@ -39273,7 +39273,7 @@
       <c r="BA101" s="44"/>
     </row>
     <row r="102" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A102" s="192"/>
+      <c r="A102" s="186"/>
       <c r="B102" s="32">
         <v>3</v>
       </c>
@@ -39433,7 +39433,7 @@
       <c r="BA102" s="40"/>
     </row>
     <row r="103" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="192"/>
+      <c r="A103" s="186"/>
       <c r="B103" s="65" t="s">
         <v>35</v>
       </c>
@@ -39604,7 +39604,7 @@
       <c r="BA103" s="57"/>
     </row>
     <row r="104" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="182">
+      <c r="A104" s="183">
         <v>26</v>
       </c>
       <c r="B104" s="22">
@@ -39766,7 +39766,7 @@
       <c r="BA104" s="19"/>
     </row>
     <row r="105" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A105" s="183"/>
+      <c r="A105" s="184"/>
       <c r="B105" s="32">
         <v>2</v>
       </c>
@@ -39926,7 +39926,7 @@
       <c r="BA105" s="44"/>
     </row>
     <row r="106" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A106" s="183"/>
+      <c r="A106" s="184"/>
       <c r="B106" s="32">
         <v>3</v>
       </c>
@@ -40086,7 +40086,7 @@
       <c r="BA106" s="40"/>
     </row>
     <row r="107" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="184"/>
+      <c r="A107" s="185"/>
       <c r="B107" s="48" t="s">
         <v>35</v>
       </c>
@@ -40257,7 +40257,7 @@
       <c r="BA107" s="57"/>
     </row>
     <row r="108" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="182">
+      <c r="A108" s="183">
         <v>27</v>
       </c>
       <c r="B108" s="22">
@@ -40419,7 +40419,7 @@
       <c r="BA108" s="19"/>
     </row>
     <row r="109" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A109" s="183"/>
+      <c r="A109" s="184"/>
       <c r="B109" s="32">
         <v>2</v>
       </c>
@@ -40575,7 +40575,7 @@
       <c r="BA109" s="44"/>
     </row>
     <row r="110" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A110" s="183"/>
+      <c r="A110" s="184"/>
       <c r="B110" s="32">
         <v>3</v>
       </c>
@@ -40725,7 +40725,7 @@
       <c r="BA110" s="40"/>
     </row>
     <row r="111" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="184"/>
+      <c r="A111" s="185"/>
       <c r="B111" s="48" t="s">
         <v>35</v>
       </c>
@@ -40896,7 +40896,7 @@
       <c r="BA111" s="57"/>
     </row>
     <row r="112" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="182">
+      <c r="A112" s="183">
         <v>28</v>
       </c>
       <c r="B112" s="22">
@@ -41060,7 +41060,7 @@
       <c r="BA112" s="19"/>
     </row>
     <row r="113" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A113" s="183"/>
+      <c r="A113" s="184"/>
       <c r="B113" s="32">
         <v>2</v>
       </c>
@@ -41220,7 +41220,7 @@
       <c r="BA113" s="44"/>
     </row>
     <row r="114" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A114" s="183"/>
+      <c r="A114" s="184"/>
       <c r="B114" s="32">
         <v>3</v>
       </c>
@@ -41380,7 +41380,7 @@
       <c r="BA114" s="40"/>
     </row>
     <row r="115" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="184"/>
+      <c r="A115" s="185"/>
       <c r="B115" s="48" t="s">
         <v>35</v>
       </c>
@@ -41551,7 +41551,7 @@
       <c r="BA115" s="57"/>
     </row>
     <row r="116" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="183">
+      <c r="A116" s="184">
         <v>29</v>
       </c>
       <c r="B116" s="32">
@@ -41715,7 +41715,7 @@
       <c r="BA116" s="19"/>
     </row>
     <row r="117" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A117" s="183"/>
+      <c r="A117" s="184"/>
       <c r="B117" s="32">
         <v>2</v>
       </c>
@@ -41875,7 +41875,7 @@
       <c r="BA117" s="44"/>
     </row>
     <row r="118" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A118" s="183"/>
+      <c r="A118" s="184"/>
       <c r="B118" s="32">
         <v>3</v>
       </c>
@@ -42035,7 +42035,7 @@
       <c r="BA118" s="40"/>
     </row>
     <row r="119" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="184"/>
+      <c r="A119" s="185"/>
       <c r="B119" s="48" t="s">
         <v>35</v>
       </c>
@@ -42206,7 +42206,7 @@
       <c r="BA119" s="57"/>
     </row>
     <row r="120" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="182">
+      <c r="A120" s="183">
         <v>30</v>
       </c>
       <c r="B120" s="22">
@@ -42370,7 +42370,7 @@
       <c r="BA120" s="19"/>
     </row>
     <row r="121" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A121" s="183"/>
+      <c r="A121" s="184"/>
       <c r="B121" s="32">
         <v>2</v>
       </c>
@@ -42530,7 +42530,7 @@
       <c r="BA121" s="44"/>
     </row>
     <row r="122" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A122" s="183"/>
+      <c r="A122" s="184"/>
       <c r="B122" s="32">
         <v>3</v>
       </c>
@@ -42690,7 +42690,7 @@
       <c r="BA122" s="40"/>
     </row>
     <row r="123" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="184"/>
+      <c r="A123" s="185"/>
       <c r="B123" s="48" t="s">
         <v>35</v>
       </c>
@@ -42861,7 +42861,7 @@
       <c r="BA123" s="57"/>
     </row>
     <row r="124" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="182">
+      <c r="A124" s="183">
         <v>31</v>
       </c>
       <c r="B124" s="22">
@@ -43025,7 +43025,7 @@
       <c r="BA124" s="19"/>
     </row>
     <row r="125" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A125" s="183"/>
+      <c r="A125" s="184"/>
       <c r="B125" s="32">
         <v>2</v>
       </c>
@@ -43181,7 +43181,7 @@
       <c r="BA125" s="44"/>
     </row>
     <row r="126" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A126" s="183"/>
+      <c r="A126" s="184"/>
       <c r="B126" s="32">
         <v>3</v>
       </c>
@@ -43331,7 +43331,7 @@
       <c r="BA126" s="40"/>
     </row>
     <row r="127" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="184"/>
+      <c r="A127" s="185"/>
       <c r="B127" s="48" t="s">
         <v>35</v>
       </c>
@@ -43767,18 +43767,16 @@
     <protectedRange sqref="AB112:AB127" name="Range1_1_1_1_1_2_2_1_1_4"/>
   </protectedRanges>
   <mergeCells count="35">
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A32:A35"/>
@@ -43792,16 +43790,18 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -43811,22 +43811,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6555BB66-49A2-4157-88D4-D9BD7AEDD16F}">
-  <dimension ref="A1:BA15"/>
+  <dimension ref="A1:BA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="187" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -43955,19 +43955,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="191" t="s">
+      <c r="AX1" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="191"/>
-      <c r="AZ1" s="191" t="s">
+      <c r="AY1" s="182"/>
+      <c r="AZ1" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="191"/>
+      <c r="BA1" s="182"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="186"/>
+      <c r="A2" s="192"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="188"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -44147,7 +44147,7 @@
       <c r="AS3" s="96"/>
       <c r="AT3" s="119">
         <f>[1]Юли!AU127</f>
-        <v>1478.34</v>
+        <v>1519.34</v>
       </c>
       <c r="AU3" s="97"/>
       <c r="AV3" s="88"/>
@@ -44158,7 +44158,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="182">
+      <c r="A4" s="183">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -44280,7 +44280,7 @@
         <v>0.89341832658664044</v>
       </c>
       <c r="AK4" s="59">
-        <f t="shared" ref="AK4:AK15" si="6">IF(AND(AE4&gt;0,AN4&gt;0,AF4&gt;0),((AN4*(AE4-AF4))/(AE4*(AN4-AF4))),0)</f>
+        <f t="shared" ref="AK4:AK27" si="6">IF(AND(AE4&gt;0,AN4&gt;0,AF4&gt;0),((AN4*(AE4-AF4))/(AE4*(AN4-AF4))),0)</f>
         <v>0.89517063729570767</v>
       </c>
       <c r="AL4" s="11">
@@ -44311,7 +44311,7 @@
       </c>
       <c r="AT4" s="110">
         <f>AT3+AL4-AS4</f>
-        <v>1167.9199999999998</v>
+        <v>1208.9199999999998</v>
       </c>
       <c r="AU4" s="99"/>
       <c r="AV4" s="11"/>
@@ -44322,7 +44322,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="183"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -44471,7 +44471,7 @@
       <c r="AS5" s="41"/>
       <c r="AT5" s="110">
         <f>AT4+AL5-AS5</f>
-        <v>1338.9199999999998</v>
+        <v>1379.9199999999998</v>
       </c>
       <c r="AU5" s="100"/>
       <c r="AV5" s="42"/>
@@ -44482,7 +44482,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="183"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -44631,7 +44631,7 @@
       <c r="AS6" s="17"/>
       <c r="AT6" s="110">
         <f>AT5+AL6-AS6</f>
-        <v>1523.9199999999998</v>
+        <v>1564.9199999999998</v>
       </c>
       <c r="AU6" s="101"/>
       <c r="AV6" s="42"/>
@@ -44642,7 +44642,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -44800,7 +44800,7 @@
       <c r="AT7" s="102"/>
       <c r="AU7" s="103">
         <f>AT6</f>
-        <v>1523.9199999999998</v>
+        <v>1564.9199999999998</v>
       </c>
       <c r="AV7" s="50">
         <f>SUM(AV4:AV6)</f>
@@ -44813,7 +44813,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="182">
+      <c r="A8" s="183">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -44955,7 +44955,7 @@
         <v>31.889440799999999</v>
       </c>
       <c r="AQ8" s="131">
-        <f t="shared" ref="AQ8:AQ15" si="21">AL8*(1-AM8)*AO8</f>
+        <f t="shared" ref="AQ8:AQ14" si="21">AL8*(1-AM8)*AO8</f>
         <v>31.5184608</v>
       </c>
       <c r="AR8" s="18">
@@ -44964,7 +44964,7 @@
       <c r="AS8" s="18"/>
       <c r="AT8" s="98">
         <f>AT6+AL8-AS8</f>
-        <v>1685.9199999999998</v>
+        <v>1726.9199999999998</v>
       </c>
       <c r="AU8" s="99"/>
       <c r="AV8" s="11"/>
@@ -44975,7 +44975,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="183"/>
+      <c r="A9" s="184"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -45124,7 +45124,7 @@
       <c r="AS9" s="41"/>
       <c r="AT9" s="110">
         <f>AT8+AL9-AS9</f>
-        <v>1857.9199999999998</v>
+        <v>1898.9199999999998</v>
       </c>
       <c r="AU9" s="101"/>
       <c r="AV9" s="42"/>
@@ -45135,7 +45135,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="183"/>
+      <c r="A10" s="184"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -45284,7 +45284,7 @@
       <c r="AS10" s="17"/>
       <c r="AT10" s="110">
         <f>AT9+AL10-AS10</f>
-        <v>2031.9199999999998</v>
+        <v>2072.92</v>
       </c>
       <c r="AU10" s="101"/>
       <c r="AV10" s="42"/>
@@ -45295,7 +45295,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="184"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -45453,7 +45453,7 @@
       <c r="AT11" s="102"/>
       <c r="AU11" s="103">
         <f>AT10</f>
-        <v>2031.9199999999998</v>
+        <v>2072.92</v>
       </c>
       <c r="AV11" s="50">
         <f t="shared" ref="AV11" si="54">SUM(AV8:AV10)</f>
@@ -45466,7 +45466,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182">
+      <c r="A12" s="183">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -45555,7 +45555,7 @@
         <v>2.47E-3</v>
       </c>
       <c r="AB12" s="18">
-        <f t="shared" ref="AB12:AB15" si="61">M12*AA12</f>
+        <f t="shared" ref="AB12:AB14" si="61">M12*AA12</f>
         <v>36.904269999999997</v>
       </c>
       <c r="AC12" s="16">
@@ -45617,7 +45617,7 @@
       <c r="AS12" s="18"/>
       <c r="AT12" s="98">
         <f>AT10+AL12-AS12</f>
-        <v>2193.92</v>
+        <v>2234.92</v>
       </c>
       <c r="AU12" s="99"/>
       <c r="AV12" s="11"/>
@@ -45628,7 +45628,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="183"/>
+      <c r="A13" s="184"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -45773,7 +45773,7 @@
       <c r="AS13" s="41"/>
       <c r="AT13" s="110">
         <f>AT12+AL13-AS13</f>
-        <v>2371.92</v>
+        <v>2412.92</v>
       </c>
       <c r="AU13" s="101"/>
       <c r="AV13" s="42"/>
@@ -45784,7 +45784,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="183"/>
+      <c r="A14" s="184"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -45923,7 +45923,7 @@
       <c r="AS14" s="17"/>
       <c r="AT14" s="110">
         <f>AT13+AL14-AS14</f>
-        <v>2549.92</v>
+        <v>2590.92</v>
       </c>
       <c r="AU14" s="101"/>
       <c r="AV14" s="42"/>
@@ -45934,7 +45934,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="184"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -46092,7 +46092,7 @@
       <c r="AT15" s="102"/>
       <c r="AU15" s="103">
         <f>AT14</f>
-        <v>2549.92</v>
+        <v>2590.92</v>
       </c>
       <c r="AV15" s="50">
         <f t="shared" ref="AV15" si="97">SUM(AV12:AV14)</f>
@@ -46103,6 +46103,1957 @@
       <c r="AY15" s="57"/>
       <c r="AZ15" s="57"/>
       <c r="BA15" s="57"/>
+    </row>
+    <row r="16" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="183">
+        <v>4</v>
+      </c>
+      <c r="B16" s="22">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4000</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>9268</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="H16" s="12">
+        <v>5.4</v>
+      </c>
+      <c r="I16" s="11">
+        <v>9219</v>
+      </c>
+      <c r="J16" s="12">
+        <v>3.9</v>
+      </c>
+      <c r="K16" s="11">
+        <v>15811</v>
+      </c>
+      <c r="L16" s="13">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="M16" s="23">
+        <f>ROUND(K16*(1-L16),0)</f>
+        <v>14878</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0.66</v>
+      </c>
+      <c r="O16" s="24">
+        <f t="shared" ref="O16:O18" si="98">M16*N16</f>
+        <v>9819.48</v>
+      </c>
+      <c r="P16" s="13">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="Q16" s="24">
+        <f t="shared" ref="Q16:Q18" si="99">M16*P16</f>
+        <v>4136.0840000000007</v>
+      </c>
+      <c r="R16" s="15">
+        <v>6.2E-2</v>
+      </c>
+      <c r="S16" s="143">
+        <v>0.18140000000000001</v>
+      </c>
+      <c r="T16" s="24">
+        <f t="shared" ref="T16:T18" si="100">M16*R16</f>
+        <v>922.43600000000004</v>
+      </c>
+      <c r="U16" s="25">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="V16" s="24">
+        <f t="shared" ref="V16:V18" si="101">M16*U16</f>
+        <v>2901.21</v>
+      </c>
+      <c r="W16" s="15">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="X16" s="24">
+        <f t="shared" ref="X16:X18" si="102">M16*W16</f>
+        <v>7647.2920000000004</v>
+      </c>
+      <c r="Y16" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="Z16" s="24">
+        <f t="shared" ref="Z16:Z18" si="103">Y16*M16</f>
+        <v>5951.2000000000007</v>
+      </c>
+      <c r="AA16" s="145">
+        <v>2.4399999999999999E-3</v>
+      </c>
+      <c r="AB16" s="18">
+        <f t="shared" ref="AB16:AB26" si="104">M16*AA16</f>
+        <v>36.302320000000002</v>
+      </c>
+      <c r="AC16" s="16">
+        <v>2.33E-3</v>
+      </c>
+      <c r="AD16" s="17">
+        <f t="shared" ref="AD16:AD18" si="105">M16*AC16</f>
+        <v>34.66574</v>
+      </c>
+      <c r="AE16" s="26">
+        <f>IF(M16&gt;0,(AG16+AP16)/M16,0)</f>
+        <v>2.3499799166554645E-3</v>
+      </c>
+      <c r="AF16" s="16">
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG16" s="23">
+        <f t="shared" ref="AG16:AG18" si="106">AF16*M16</f>
+        <v>4.0170599999999999</v>
+      </c>
+      <c r="AH16" s="114">
+        <v>0.2084</v>
+      </c>
+      <c r="AI16" s="29">
+        <f t="shared" ref="AI16:AI18" si="107">AL16*(1-AM16)*AH16</f>
+        <v>30.9459412</v>
+      </c>
+      <c r="AJ16" s="27">
+        <f t="shared" ref="AJ16:AJ18" si="108">IF(AND(AH16&gt;0,AF16&gt;0,AC16&gt;0),((AC16-AF16)*AH16)/((AH16-AF16)*AC16),0)</f>
+        <v>0.8852671108289244</v>
+      </c>
+      <c r="AK16" s="59">
+        <f t="shared" si="6"/>
+        <v>0.88625361833736738</v>
+      </c>
+      <c r="AL16" s="11">
+        <v>163</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AN16" s="14">
+        <v>0.2084</v>
+      </c>
+      <c r="AO16" s="130">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="AP16" s="29">
+        <f>AL16*(1-AM16)*AN16</f>
+        <v>30.9459412</v>
+      </c>
+      <c r="AQ16" s="131">
+        <f t="shared" ref="AQ16:AQ26" si="109">AL16*(1-AM16)*AO16</f>
+        <v>31.257776499999999</v>
+      </c>
+      <c r="AR16" s="18">
+        <v>1.55</v>
+      </c>
+      <c r="AS16" s="18">
+        <v>1049.24</v>
+      </c>
+      <c r="AT16" s="98">
+        <f>AT14+AL16-AS16</f>
+        <v>1704.68</v>
+      </c>
+      <c r="AU16" s="99"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="30"/>
+      <c r="AX16" s="19"/>
+      <c r="AY16" s="19"/>
+      <c r="AZ16" s="19"/>
+      <c r="BA16" s="19"/>
+    </row>
+    <row r="17" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="184"/>
+      <c r="B17" s="32">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="33">
+        <v>20500</v>
+      </c>
+      <c r="E17" s="33">
+        <v>3</v>
+      </c>
+      <c r="F17" s="33">
+        <v>16898</v>
+      </c>
+      <c r="G17" s="34">
+        <v>1.3</v>
+      </c>
+      <c r="H17" s="34">
+        <v>10.8</v>
+      </c>
+      <c r="I17" s="33">
+        <v>16942</v>
+      </c>
+      <c r="J17" s="34">
+        <v>2.7</v>
+      </c>
+      <c r="K17" s="33">
+        <v>15868</v>
+      </c>
+      <c r="L17" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M17" s="36">
+        <f>ROUND(K17*(1-L17),0)</f>
+        <v>15075</v>
+      </c>
+      <c r="N17" s="37">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="O17" s="24">
+        <f t="shared" si="98"/>
+        <v>8683.1999999999989</v>
+      </c>
+      <c r="P17" s="35">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="Q17" s="24">
+        <f t="shared" si="99"/>
+        <v>5773.7250000000004</v>
+      </c>
+      <c r="R17" s="38">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="S17" s="134">
+        <v>0.1817</v>
+      </c>
+      <c r="T17" s="24">
+        <f t="shared" si="100"/>
+        <v>618.07500000000005</v>
+      </c>
+      <c r="U17" s="27">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="V17" s="24">
+        <f t="shared" si="101"/>
+        <v>3180.8249999999998</v>
+      </c>
+      <c r="W17" s="38">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="X17" s="24">
+        <f t="shared" si="102"/>
+        <v>7205.8499999999995</v>
+      </c>
+      <c r="Y17" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="Z17" s="24">
+        <f t="shared" si="103"/>
+        <v>6030</v>
+      </c>
+      <c r="AA17" s="146">
+        <v>2.4199999999999998E-3</v>
+      </c>
+      <c r="AB17" s="18">
+        <f t="shared" si="104"/>
+        <v>36.481499999999997</v>
+      </c>
+      <c r="AC17" s="39">
+        <v>2.31E-3</v>
+      </c>
+      <c r="AD17" s="17">
+        <f t="shared" si="105"/>
+        <v>34.823250000000002</v>
+      </c>
+      <c r="AE17" s="26">
+        <f>IF(M17&gt;0,(AG17+AP17)/M17,0)</f>
+        <v>2.4951113499170814E-3</v>
+      </c>
+      <c r="AF17" s="39">
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG17" s="36">
+        <f t="shared" si="106"/>
+        <v>4.0702499999999997</v>
+      </c>
+      <c r="AH17" s="27">
+        <v>0.21160000000000001</v>
+      </c>
+      <c r="AI17" s="40">
+        <f t="shared" si="107"/>
+        <v>32.175049600000001</v>
+      </c>
+      <c r="AJ17" s="27">
+        <f t="shared" si="108"/>
+        <v>0.88424517327181418</v>
+      </c>
+      <c r="AK17" s="28">
+        <f t="shared" si="6"/>
+        <v>0.89288122486936006</v>
+      </c>
+      <c r="AL17" s="33">
+        <v>166</v>
+      </c>
+      <c r="AM17" s="35">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AN17" s="37">
+        <v>0.22059999999999999</v>
+      </c>
+      <c r="AO17" s="132">
+        <v>0.2203</v>
+      </c>
+      <c r="AP17" s="40">
+        <f>AL17*(1-AM17)*AN17</f>
+        <v>33.543553600000003</v>
+      </c>
+      <c r="AQ17" s="133">
+        <f t="shared" si="109"/>
+        <v>33.497936800000005</v>
+      </c>
+      <c r="AR17" s="41">
+        <v>1.55</v>
+      </c>
+      <c r="AS17" s="41"/>
+      <c r="AT17" s="110">
+        <f>AT16+AL17-AS17</f>
+        <v>1870.68</v>
+      </c>
+      <c r="AU17" s="101"/>
+      <c r="AV17" s="42"/>
+      <c r="AW17" s="43"/>
+      <c r="AX17" s="44"/>
+      <c r="AY17" s="44"/>
+      <c r="AZ17" s="44"/>
+      <c r="BA17" s="44"/>
+    </row>
+    <row r="18" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="184"/>
+      <c r="B18" s="32">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="42">
+        <v>19750</v>
+      </c>
+      <c r="E18" s="42">
+        <v>1</v>
+      </c>
+      <c r="F18" s="42">
+        <v>19317</v>
+      </c>
+      <c r="G18" s="36">
+        <v>1.3</v>
+      </c>
+      <c r="H18" s="36">
+        <v>7.6</v>
+      </c>
+      <c r="I18" s="42">
+        <v>18773</v>
+      </c>
+      <c r="J18" s="36">
+        <v>1.2</v>
+      </c>
+      <c r="K18" s="42">
+        <v>15715</v>
+      </c>
+      <c r="L18" s="38">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="M18" s="36">
+        <f>ROUND(K18*(1-L18),0)</f>
+        <v>14662</v>
+      </c>
+      <c r="N18" s="27">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="O18" s="24">
+        <f t="shared" si="98"/>
+        <v>8034.7760000000007</v>
+      </c>
+      <c r="P18" s="38">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="Q18" s="24">
+        <f t="shared" si="99"/>
+        <v>6289.9979999999996</v>
+      </c>
+      <c r="R18" s="38">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S18" s="134">
+        <v>0.1757</v>
+      </c>
+      <c r="T18" s="24">
+        <f t="shared" si="100"/>
+        <v>337.226</v>
+      </c>
+      <c r="U18" s="27">
+        <v>0.19</v>
+      </c>
+      <c r="V18" s="24">
+        <f t="shared" si="101"/>
+        <v>2785.78</v>
+      </c>
+      <c r="W18" s="38">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="X18" s="24">
+        <f t="shared" si="102"/>
+        <v>7506.9440000000004</v>
+      </c>
+      <c r="Y18" s="38">
+        <v>0.41</v>
+      </c>
+      <c r="Z18" s="24">
+        <f t="shared" si="103"/>
+        <v>6011.42</v>
+      </c>
+      <c r="AA18" s="147">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="AB18" s="148">
+        <f t="shared" si="104"/>
+        <v>32.9895</v>
+      </c>
+      <c r="AC18" s="46">
+        <v>2.31E-3</v>
+      </c>
+      <c r="AD18" s="17">
+        <f t="shared" si="105"/>
+        <v>33.869219999999999</v>
+      </c>
+      <c r="AE18" s="26">
+        <f>IF(M18&gt;0,(AG18+AP18)/M18,0)</f>
+        <v>2.4519773223298327E-3</v>
+      </c>
+      <c r="AF18" s="46">
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG18" s="36">
+        <f t="shared" si="106"/>
+        <v>3.9587400000000001</v>
+      </c>
+      <c r="AH18" s="27">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="AI18" s="40">
+        <f t="shared" si="107"/>
+        <v>30.915562500000004</v>
+      </c>
+      <c r="AJ18" s="27">
+        <f t="shared" si="108"/>
+        <v>0.88424038855174891</v>
+      </c>
+      <c r="AK18" s="28">
+        <f t="shared" si="6"/>
+        <v>0.8909787602806194</v>
+      </c>
+      <c r="AL18" s="42">
+        <v>159</v>
+      </c>
+      <c r="AM18" s="38">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AN18" s="27">
+        <v>0.21990000000000001</v>
+      </c>
+      <c r="AO18" s="134">
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="AP18" s="40">
+        <f>AL18*(1-AM18)*AN18</f>
+        <v>31.992151500000006</v>
+      </c>
+      <c r="AQ18" s="135">
+        <f t="shared" si="109"/>
+        <v>31.686633</v>
+      </c>
+      <c r="AR18" s="17">
+        <v>1.55</v>
+      </c>
+      <c r="AS18" s="17"/>
+      <c r="AT18" s="110">
+        <f>AT17+AL18-AS18</f>
+        <v>2029.68</v>
+      </c>
+      <c r="AU18" s="101"/>
+      <c r="AV18" s="42"/>
+      <c r="AW18" s="47"/>
+      <c r="AX18" s="40"/>
+      <c r="AY18" s="40"/>
+      <c r="AZ18" s="40"/>
+      <c r="BA18" s="40"/>
+    </row>
+    <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="185"/>
+      <c r="B19" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50">
+        <f t="shared" ref="D19" si="110">SUM(D16:D18)</f>
+        <v>44250</v>
+      </c>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50">
+        <f t="shared" ref="F19" si="111">SUM(F16:F18)</f>
+        <v>45483</v>
+      </c>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="50">
+        <f t="shared" ref="I19:K19" si="112">SUM(I16:I18)</f>
+        <v>44934</v>
+      </c>
+      <c r="J19" s="51"/>
+      <c r="K19" s="50">
+        <f t="shared" si="112"/>
+        <v>47394</v>
+      </c>
+      <c r="L19" s="20">
+        <f t="shared" ref="L19" si="113">IF(K19&gt;0,(K16*L16+K17*L17+K18*L18)/K19,0)</f>
+        <v>5.8639363632527322E-2</v>
+      </c>
+      <c r="M19" s="51">
+        <f t="shared" ref="M19" si="114">M16+M17+M18</f>
+        <v>44615</v>
+      </c>
+      <c r="N19" s="52">
+        <f t="shared" ref="N19" si="115">IF(M19&gt;0,O19/M19,0)</f>
+        <v>0.59481017594979269</v>
+      </c>
+      <c r="O19" s="53">
+        <f t="shared" ref="O19" si="116">O16+O17+O18</f>
+        <v>26537.456000000002</v>
+      </c>
+      <c r="P19" s="20">
+        <f t="shared" ref="P19" si="117">IF(M19&gt;0,Q19/M19,0)</f>
+        <v>0.36310225260562595</v>
+      </c>
+      <c r="Q19" s="53">
+        <f t="shared" ref="Q19" si="118">Q16+Q17+Q18</f>
+        <v>16199.807000000001</v>
+      </c>
+      <c r="R19" s="20">
+        <f t="shared" ref="R19" si="119">IF(M19&gt;0,T19/M19,0)</f>
+        <v>4.2087571444581418E-2</v>
+      </c>
+      <c r="S19" s="136"/>
+      <c r="T19" s="53">
+        <f t="shared" ref="T19" si="120">T16+T17+T18</f>
+        <v>1877.7370000000001</v>
+      </c>
+      <c r="U19" s="20">
+        <f t="shared" ref="U19" si="121">IF(M19&gt;0,V19/M19,0)</f>
+        <v>0.19876308416451868</v>
+      </c>
+      <c r="V19" s="53">
+        <f t="shared" ref="V19" si="122">V16+V17+V18</f>
+        <v>8867.8150000000005</v>
+      </c>
+      <c r="W19" s="20">
+        <f t="shared" ref="W19" si="123">IF(M19&gt;0,X19/M19,0)</f>
+        <v>0.50117866188501625</v>
+      </c>
+      <c r="X19" s="53">
+        <f t="shared" ref="X19" si="124">X16+X17+X18</f>
+        <v>22360.085999999999</v>
+      </c>
+      <c r="Y19" s="20">
+        <f t="shared" ref="Y19" si="125">IF(M19&gt;0,Z19/M19,0)</f>
+        <v>0.40328633867533348</v>
+      </c>
+      <c r="Z19" s="53">
+        <f t="shared" ref="Z19" si="126">Z16+Z17+Z18</f>
+        <v>17992.620000000003</v>
+      </c>
+      <c r="AA19" s="152">
+        <f>IF(M19&gt;0,AB19/M19,0)</f>
+        <v>2.3708017482909332E-3</v>
+      </c>
+      <c r="AB19" s="55">
+        <f t="shared" ref="AB19" si="127">SUM(AB16:AB18)</f>
+        <v>105.77331999999998</v>
+      </c>
+      <c r="AC19" s="54">
+        <f t="shared" ref="AC19" si="128">IF(M19&gt;0,AD19/M19,0)</f>
+        <v>2.3166695057716016E-3</v>
+      </c>
+      <c r="AD19" s="55">
+        <f t="shared" ref="AD19" si="129">SUM(AD16:AD18)</f>
+        <v>103.35821</v>
+      </c>
+      <c r="AE19" s="54">
+        <f t="shared" ref="AE19" si="130">IF(M19&gt;0,(AE16*M16+AE17*M17+AE18*M18)/M19,0)</f>
+        <v>2.4325383010198364E-3</v>
+      </c>
+      <c r="AF19" s="54">
+        <f t="shared" ref="AF19" si="131">IF(K19&gt;0,(K16*AF16+K17*AF17+K18*AF18)/K19,0)</f>
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG19" s="51">
+        <f t="shared" ref="AG19" si="132">SUM(AG16:AG18)</f>
+        <v>12.046049999999999</v>
+      </c>
+      <c r="AH19" s="52">
+        <f t="shared" ref="AH19" si="133">IF(K19&gt;0,(K16*AH16+K17*AH17+K18*AH18)/K19,0)</f>
+        <v>0.21083087943621556</v>
+      </c>
+      <c r="AI19" s="57">
+        <f t="shared" ref="AI19" si="134">SUM(AI16:AI18)</f>
+        <v>94.036553300000008</v>
+      </c>
+      <c r="AJ19" s="52">
+        <f t="shared" ref="AJ19" si="135">IF(AND(AD19&gt;0),((AD16*AJ16+AD17*AJ17+AD18*AJ18)/AD19),0)</f>
+        <v>0.88458635726594947</v>
+      </c>
+      <c r="AK19" s="56">
+        <f t="shared" si="6"/>
+        <v>0.89011594355178614</v>
+      </c>
+      <c r="AL19" s="50">
+        <f t="shared" ref="AL19" si="136">SUM(AL16:AL18)</f>
+        <v>488</v>
+      </c>
+      <c r="AM19" s="20">
+        <f t="shared" ref="AM19" si="137">IF(AL19&gt;0,(AM16*AL16+AM17*AL17+AM18*AL18)/AL19,0)</f>
+        <v>8.5995901639344258E-2</v>
+      </c>
+      <c r="AN19" s="52">
+        <f>IF(K19&gt;0,(AN16*K16+AN17*K17+AN18*K18)/K19,0)</f>
+        <v>0.216297879478415</v>
+      </c>
+      <c r="AO19" s="136">
+        <f>IF(K19&gt;0,(AO16*K16+AO17*K17+AO18*K18)/K19,0)</f>
+        <v>0.21620169008735282</v>
+      </c>
+      <c r="AP19" s="57">
+        <f t="shared" ref="AP19" si="138">SUM(AP16:AP18)</f>
+        <v>96.481646300000008</v>
+      </c>
+      <c r="AQ19" s="137">
+        <f t="shared" ref="AQ19:AQ27" si="139">SUM(AQ16:AQ18)</f>
+        <v>96.442346299999997</v>
+      </c>
+      <c r="AR19" s="55"/>
+      <c r="AS19" s="55">
+        <f t="shared" ref="AS19" si="140">SUM(AS16:AS18)</f>
+        <v>1049.24</v>
+      </c>
+      <c r="AT19" s="102"/>
+      <c r="AU19" s="103">
+        <f>AT18</f>
+        <v>2029.68</v>
+      </c>
+      <c r="AV19" s="50">
+        <f t="shared" ref="AV19" si="141">SUM(AV16:AV18)</f>
+        <v>0</v>
+      </c>
+      <c r="AW19" s="58"/>
+      <c r="AX19" s="57"/>
+      <c r="AY19" s="57"/>
+      <c r="AZ19" s="57"/>
+      <c r="BA19" s="57"/>
+    </row>
+    <row r="20" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="183">
+        <v>5</v>
+      </c>
+      <c r="B20" s="22">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="11">
+        <v>5628</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <v>6232</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="H20" s="12">
+        <v>6</v>
+      </c>
+      <c r="I20" s="11">
+        <v>6261</v>
+      </c>
+      <c r="J20" s="12">
+        <v>5.3</v>
+      </c>
+      <c r="K20" s="11">
+        <v>14699</v>
+      </c>
+      <c r="L20" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M20" s="23">
+        <f>ROUND(K20*(1-L20),0)</f>
+        <v>13670</v>
+      </c>
+      <c r="N20" s="14">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="O20" s="24">
+        <f t="shared" ref="O20:O22" si="142">M20*N20</f>
+        <v>9104.2200000000012</v>
+      </c>
+      <c r="P20" s="13">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="Q20" s="24">
+        <f t="shared" ref="Q20:Q22" si="143">M20*P20</f>
+        <v>4183.0199999999995</v>
+      </c>
+      <c r="R20" s="15">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="S20" s="143">
+        <v>0.1915</v>
+      </c>
+      <c r="T20" s="24">
+        <f t="shared" ref="T20:T22" si="144">M20*R20</f>
+        <v>382.76</v>
+      </c>
+      <c r="U20" s="25">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="V20" s="24">
+        <f t="shared" ref="V20:V22" si="145">M20*U20</f>
+        <v>2665.65</v>
+      </c>
+      <c r="W20" s="15">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="X20" s="24">
+        <f t="shared" ref="X20:X22" si="146">M20*W20</f>
+        <v>7135.7400000000007</v>
+      </c>
+      <c r="Y20" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="Z20" s="24">
+        <f t="shared" ref="Z20:Z22" si="147">Y20*M20</f>
+        <v>5468</v>
+      </c>
+      <c r="AA20" s="145">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AB20" s="18">
+        <f t="shared" ref="AB20" si="148">M20*AA20</f>
+        <v>34.174999999999997</v>
+      </c>
+      <c r="AC20" s="16">
+        <v>2.3900000000000002E-3</v>
+      </c>
+      <c r="AD20" s="17">
+        <f t="shared" ref="AD20:AD22" si="149">M20*AC20</f>
+        <v>32.671300000000002</v>
+      </c>
+      <c r="AE20" s="26">
+        <f>IF(M20&gt;0,(AG20+AP20)/M20,0)</f>
+        <v>2.4940054864667155E-3</v>
+      </c>
+      <c r="AF20" s="16">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="AG20" s="23">
+        <f t="shared" ref="AG20:AG22" si="150">AF20*M20</f>
+        <v>3.8275999999999994</v>
+      </c>
+      <c r="AH20" s="114">
+        <v>0.2132</v>
+      </c>
+      <c r="AI20" s="29">
+        <f t="shared" ref="AI20:AI22" si="151">AL20*(1-AM20)*AH20</f>
+        <v>30.237090000000002</v>
+      </c>
+      <c r="AJ20" s="27">
+        <f t="shared" ref="AJ20:AJ22" si="152">IF(AND(AH20&gt;0,AF20&gt;0,AC20&gt;0),((AC20-AF20)*AH20)/((AH20-AF20)*AC20),0)</f>
+        <v>0.88400617200009135</v>
+      </c>
+      <c r="AK20" s="59">
+        <f t="shared" si="6"/>
+        <v>0.88889711329361265</v>
+      </c>
+      <c r="AL20" s="11">
+        <v>155</v>
+      </c>
+      <c r="AM20" s="13">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AN20" s="14">
+        <v>0.21340000000000001</v>
+      </c>
+      <c r="AO20" s="130">
+        <v>0.21160000000000001</v>
+      </c>
+      <c r="AP20" s="29">
+        <f>AL20*(1-AM20)*AN20</f>
+        <v>30.265455000000003</v>
+      </c>
+      <c r="AQ20" s="131">
+        <f t="shared" ref="AQ20" si="153">AL20*(1-AM20)*AO20</f>
+        <v>30.010170000000006</v>
+      </c>
+      <c r="AR20" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="AS20" s="18">
+        <v>1009.52</v>
+      </c>
+      <c r="AT20" s="98">
+        <f>AT18+AL20-AS20</f>
+        <v>1175.1600000000003</v>
+      </c>
+      <c r="AU20" s="99"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="30"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="19"/>
+      <c r="AZ20" s="19"/>
+      <c r="BA20" s="19"/>
+    </row>
+    <row r="21" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="184"/>
+      <c r="B21" s="32">
+        <v>2</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="33">
+        <v>20800</v>
+      </c>
+      <c r="E21" s="33">
+        <v>2</v>
+      </c>
+      <c r="F21" s="33">
+        <v>19506</v>
+      </c>
+      <c r="G21" s="34">
+        <v>1</v>
+      </c>
+      <c r="H21" s="34">
+        <v>9.1</v>
+      </c>
+      <c r="I21" s="33">
+        <v>18803</v>
+      </c>
+      <c r="J21" s="34">
+        <v>2.5</v>
+      </c>
+      <c r="K21" s="33">
+        <v>14484</v>
+      </c>
+      <c r="L21" s="35">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="M21" s="36">
+        <f>ROUND(K21*(1-L21),0)</f>
+        <v>13600</v>
+      </c>
+      <c r="N21" s="37">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="O21" s="24">
+        <f t="shared" si="142"/>
+        <v>9479.1999999999989</v>
+      </c>
+      <c r="P21" s="35">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="Q21" s="24">
+        <f t="shared" si="143"/>
+        <v>3196</v>
+      </c>
+      <c r="R21" s="38">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="S21" s="134">
+        <v>0.18909999999999999</v>
+      </c>
+      <c r="T21" s="24">
+        <f t="shared" si="144"/>
+        <v>924.80000000000007</v>
+      </c>
+      <c r="U21" s="27">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="V21" s="24">
+        <f t="shared" si="145"/>
+        <v>2747.2000000000003</v>
+      </c>
+      <c r="W21" s="38">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="X21" s="24">
+        <f t="shared" si="146"/>
+        <v>7099.2</v>
+      </c>
+      <c r="Y21" s="38">
+        <v>0.41</v>
+      </c>
+      <c r="Z21" s="24">
+        <f t="shared" si="147"/>
+        <v>5576</v>
+      </c>
+      <c r="AA21" s="146">
+        <v>2.4399999999999999E-3</v>
+      </c>
+      <c r="AB21" s="18">
+        <f t="shared" si="104"/>
+        <v>33.183999999999997</v>
+      </c>
+      <c r="AC21" s="39">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="AD21" s="17">
+        <f t="shared" si="149"/>
+        <v>32.775999999999996</v>
+      </c>
+      <c r="AE21" s="26">
+        <f>IF(M21&gt;0,(AG21+AP21)/M21,0)</f>
+        <v>2.5449681250000003E-3</v>
+      </c>
+      <c r="AF21" s="39">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="AG21" s="36">
+        <f t="shared" si="150"/>
+        <v>3.8079999999999998</v>
+      </c>
+      <c r="AH21" s="27">
+        <v>0.20569999999999999</v>
+      </c>
+      <c r="AI21" s="40">
+        <f t="shared" si="151"/>
+        <v>30.302695499999999</v>
+      </c>
+      <c r="AJ21" s="27">
+        <f t="shared" si="152"/>
+        <v>0.88502212449263951</v>
+      </c>
+      <c r="AK21" s="28">
+        <f t="shared" si="6"/>
+        <v>0.89117231976138456</v>
+      </c>
+      <c r="AL21" s="33">
+        <v>161</v>
+      </c>
+      <c r="AM21" s="35">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AN21" s="37">
+        <v>0.20910000000000001</v>
+      </c>
+      <c r="AO21" s="132">
+        <v>0.2077</v>
+      </c>
+      <c r="AP21" s="40">
+        <f>AL21*(1-AM21)*AN21</f>
+        <v>30.803566500000002</v>
+      </c>
+      <c r="AQ21" s="133">
+        <f t="shared" si="109"/>
+        <v>30.5973255</v>
+      </c>
+      <c r="AR21" s="41">
+        <v>1.55</v>
+      </c>
+      <c r="AS21" s="41"/>
+      <c r="AT21" s="117">
+        <f>AT20+AL21-AS21</f>
+        <v>1336.1600000000003</v>
+      </c>
+      <c r="AU21" s="101"/>
+      <c r="AV21" s="42"/>
+      <c r="AW21" s="43"/>
+      <c r="AX21" s="44"/>
+      <c r="AY21" s="44"/>
+      <c r="AZ21" s="44"/>
+      <c r="BA21" s="44"/>
+    </row>
+    <row r="22" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="184"/>
+      <c r="B22" s="32">
+        <v>3</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="42">
+        <v>17822</v>
+      </c>
+      <c r="E22" s="42">
+        <v>1</v>
+      </c>
+      <c r="F22" s="42">
+        <v>18635</v>
+      </c>
+      <c r="G22" s="36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H22" s="36">
+        <v>7.2</v>
+      </c>
+      <c r="I22" s="42">
+        <v>18157</v>
+      </c>
+      <c r="J22" s="36">
+        <v>1.3</v>
+      </c>
+      <c r="K22" s="42">
+        <v>14796</v>
+      </c>
+      <c r="L22" s="38">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="M22" s="36">
+        <f>ROUND(K22*(1-L22),0)</f>
+        <v>13731</v>
+      </c>
+      <c r="N22" s="27">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="O22" s="24">
+        <f t="shared" si="142"/>
+        <v>7510.8570000000009</v>
+      </c>
+      <c r="P22" s="38">
+        <v>0.435</v>
+      </c>
+      <c r="Q22" s="24">
+        <f t="shared" si="143"/>
+        <v>5972.9849999999997</v>
+      </c>
+      <c r="R22" s="38">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="S22" s="134">
+        <v>0.1835</v>
+      </c>
+      <c r="T22" s="24">
+        <f t="shared" si="144"/>
+        <v>247.15799999999999</v>
+      </c>
+      <c r="U22" s="27">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="V22" s="24">
+        <f t="shared" si="145"/>
+        <v>2787.393</v>
+      </c>
+      <c r="W22" s="38">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="X22" s="24">
+        <f t="shared" si="146"/>
+        <v>7249.9680000000008</v>
+      </c>
+      <c r="Y22" s="38">
+        <v>0.41</v>
+      </c>
+      <c r="Z22" s="24">
+        <f t="shared" si="147"/>
+        <v>5629.71</v>
+      </c>
+      <c r="AA22" s="147">
+        <v>2.4299999999999999E-3</v>
+      </c>
+      <c r="AB22" s="148">
+        <f t="shared" si="104"/>
+        <v>33.366329999999998</v>
+      </c>
+      <c r="AC22" s="46">
+        <v>2.5200000000000001E-3</v>
+      </c>
+      <c r="AD22" s="17">
+        <f t="shared" si="149"/>
+        <v>34.602119999999999</v>
+      </c>
+      <c r="AE22" s="26">
+        <f>IF(M22&gt;0,(AG22+AP22)/M22,0)</f>
+        <v>2.483840106328745E-3</v>
+      </c>
+      <c r="AF22" s="46">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="AG22" s="36">
+        <f t="shared" si="150"/>
+        <v>3.8446799999999999</v>
+      </c>
+      <c r="AH22" s="27">
+        <v>0.2135</v>
+      </c>
+      <c r="AI22" s="40">
+        <f t="shared" si="151"/>
+        <v>29.433750499999999</v>
+      </c>
+      <c r="AJ22" s="27">
+        <f t="shared" si="152"/>
+        <v>0.89005617567666162</v>
+      </c>
+      <c r="AK22" s="28">
+        <f t="shared" si="6"/>
+        <v>0.8884045990314372</v>
+      </c>
+      <c r="AL22" s="42">
+        <v>151</v>
+      </c>
+      <c r="AM22" s="38">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="AN22" s="27">
+        <v>0.2195</v>
+      </c>
+      <c r="AO22" s="134">
+        <v>0.2135</v>
+      </c>
+      <c r="AP22" s="40">
+        <f>AL22*(1-AM22)*AN22</f>
+        <v>30.260928499999999</v>
+      </c>
+      <c r="AQ22" s="135">
+        <f t="shared" si="109"/>
+        <v>29.433750499999999</v>
+      </c>
+      <c r="AR22" s="17">
+        <v>1.55</v>
+      </c>
+      <c r="AS22" s="17"/>
+      <c r="AT22" s="117">
+        <f>AT21+AL22-AS22</f>
+        <v>1487.1600000000003</v>
+      </c>
+      <c r="AU22" s="101"/>
+      <c r="AV22" s="42"/>
+      <c r="AW22" s="47"/>
+      <c r="AX22" s="40"/>
+      <c r="AY22" s="40"/>
+      <c r="AZ22" s="40"/>
+      <c r="BA22" s="40"/>
+    </row>
+    <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="185"/>
+      <c r="B23" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="50">
+        <f t="shared" ref="D23" si="154">SUM(D20:D22)</f>
+        <v>44250</v>
+      </c>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50">
+        <f t="shared" ref="F23" si="155">SUM(F20:F22)</f>
+        <v>44373</v>
+      </c>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="50">
+        <f t="shared" ref="I23:K23" si="156">SUM(I20:I22)</f>
+        <v>43221</v>
+      </c>
+      <c r="J23" s="51"/>
+      <c r="K23" s="50">
+        <f t="shared" si="156"/>
+        <v>43979</v>
+      </c>
+      <c r="L23" s="20">
+        <f t="shared" ref="L23" si="157">IF(K23&gt;0,(K20*L20+K21*L21+K22*L22)/K23,0)</f>
+        <v>6.7708815571068018E-2</v>
+      </c>
+      <c r="M23" s="51">
+        <f t="shared" ref="M23" si="158">M20+M21+M22</f>
+        <v>41001</v>
+      </c>
+      <c r="N23" s="52">
+        <f t="shared" ref="N23" si="159">IF(M23&gt;0,O23/M23,0)</f>
+        <v>0.63643025779859019</v>
+      </c>
+      <c r="O23" s="53">
+        <f t="shared" ref="O23" si="160">O20+O21+O22</f>
+        <v>26094.276999999998</v>
+      </c>
+      <c r="P23" s="20">
+        <f t="shared" ref="P23" si="161">IF(M23&gt;0,Q23/M23,0)</f>
+        <v>0.32565071583619909</v>
+      </c>
+      <c r="Q23" s="53">
+        <f t="shared" ref="Q23" si="162">Q20+Q21+Q22</f>
+        <v>13352.004999999999</v>
+      </c>
+      <c r="R23" s="20">
+        <f t="shared" ref="R23" si="163">IF(M23&gt;0,T23/M23,0)</f>
+        <v>3.7919026365210599E-2</v>
+      </c>
+      <c r="S23" s="136"/>
+      <c r="T23" s="53">
+        <f t="shared" ref="T23" si="164">T20+T21+T22</f>
+        <v>1554.7179999999998</v>
+      </c>
+      <c r="U23" s="20">
+        <f t="shared" ref="U23" si="165">IF(M23&gt;0,V23/M23,0)</f>
+        <v>0.20000104875490843</v>
+      </c>
+      <c r="V23" s="53">
+        <f t="shared" ref="V23" si="166">V20+V21+V22</f>
+        <v>8200.2430000000004</v>
+      </c>
+      <c r="W23" s="20">
+        <f t="shared" ref="W23" si="167">IF(M23&gt;0,X23/M23,0)</f>
+        <v>0.52400936562522871</v>
+      </c>
+      <c r="X23" s="53">
+        <f t="shared" ref="X23" si="168">X20+X21+X22</f>
+        <v>21484.908000000003</v>
+      </c>
+      <c r="Y23" s="20">
+        <f t="shared" ref="Y23" si="169">IF(M23&gt;0,Z23/M23,0)</f>
+        <v>0.40666593497719566</v>
+      </c>
+      <c r="Z23" s="53">
+        <f t="shared" ref="Z23" si="170">Z20+Z21+Z22</f>
+        <v>16673.71</v>
+      </c>
+      <c r="AA23" s="152">
+        <f>IF(M23&gt;0,AB23/M23,0)</f>
+        <v>2.4566554474281114E-3</v>
+      </c>
+      <c r="AB23" s="55">
+        <f t="shared" ref="AB23" si="171">SUM(AB20:AB22)</f>
+        <v>100.72532999999999</v>
+      </c>
+      <c r="AC23" s="54">
+        <f t="shared" ref="AC23" si="172">IF(M23&gt;0,AD23/M23,0)</f>
+        <v>2.4401702397502498E-3</v>
+      </c>
+      <c r="AD23" s="55">
+        <f t="shared" ref="AD23" si="173">SUM(AD20:AD22)</f>
+        <v>100.04942</v>
+      </c>
+      <c r="AE23" s="54">
+        <f t="shared" ref="AE23" si="174">IF(M23&gt;0,(AE20*M20+AE21*M21+AE22*M22)/M23,0)</f>
+        <v>2.5075054266969097E-3</v>
+      </c>
+      <c r="AF23" s="54">
+        <f t="shared" ref="AF23" si="175">IF(K23&gt;0,(K20*AF20+K21*AF21+K22*AF22)/K23,0)</f>
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="AG23" s="51">
+        <f t="shared" ref="AG23" si="176">SUM(AG20:AG22)</f>
+        <v>11.480279999999999</v>
+      </c>
+      <c r="AH23" s="52">
+        <f t="shared" ref="AH23" si="177">IF(K23&gt;0,(K20*AH20+K21*AH21+K22*AH22)/K23,0)</f>
+        <v>0.21083088746901932</v>
+      </c>
+      <c r="AI23" s="57">
+        <f t="shared" ref="AI23" si="178">SUM(AI20:AI22)</f>
+        <v>89.973535999999996</v>
+      </c>
+      <c r="AJ23" s="52">
+        <f t="shared" ref="AJ23" si="179">IF(AND(AD23&gt;0),((AD20*AJ20+AD21*AJ21+AD22*AJ22)/AD23),0)</f>
+        <v>0.8864313915777049</v>
+      </c>
+      <c r="AK23" s="56">
+        <f t="shared" si="6"/>
+        <v>0.8894988707605691</v>
+      </c>
+      <c r="AL23" s="50">
+        <f t="shared" ref="AL23" si="180">SUM(AL20:AL22)</f>
+        <v>467</v>
+      </c>
+      <c r="AM23" s="20">
+        <f t="shared" ref="AM23" si="181">IF(AL23&gt;0,(AM20*AL20+AM21*AL21+AM22*AL22)/AL23,0)</f>
+        <v>8.5646680942184153E-2</v>
+      </c>
+      <c r="AN23" s="52">
+        <f>IF(K23&gt;0,(AN20*K20+AN21*K21+AN22*K22)/K23,0)</f>
+        <v>0.21403608540439756</v>
+      </c>
+      <c r="AO23" s="136">
+        <f>IF(K23&gt;0,(AO20*K20+AO21*K21+AO22*K22)/K23,0)</f>
+        <v>0.21095480115509677</v>
+      </c>
+      <c r="AP23" s="57">
+        <f t="shared" ref="AP23" si="182">SUM(AP20:AP22)</f>
+        <v>91.329949999999997</v>
+      </c>
+      <c r="AQ23" s="137">
+        <f t="shared" si="139"/>
+        <v>90.041246000000001</v>
+      </c>
+      <c r="AR23" s="55"/>
+      <c r="AS23" s="55">
+        <f t="shared" ref="AS23" si="183">SUM(AS20:AS22)</f>
+        <v>1009.52</v>
+      </c>
+      <c r="AT23" s="102"/>
+      <c r="AU23" s="103">
+        <f>AT22</f>
+        <v>1487.1600000000003</v>
+      </c>
+      <c r="AV23" s="50">
+        <f t="shared" ref="AV23" si="184">SUM(AV20:AV22)</f>
+        <v>0</v>
+      </c>
+      <c r="AW23" s="58"/>
+      <c r="AX23" s="57"/>
+      <c r="AY23" s="57"/>
+      <c r="AZ23" s="57"/>
+      <c r="BA23" s="57"/>
+    </row>
+    <row r="24" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="183">
+        <v>6</v>
+      </c>
+      <c r="B24" s="22">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="11">
+        <v>3003</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>6116</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="H24" s="12">
+        <v>7.4</v>
+      </c>
+      <c r="I24" s="11">
+        <v>6113</v>
+      </c>
+      <c r="J24" s="12">
+        <v>5.4</v>
+      </c>
+      <c r="K24" s="11">
+        <v>14834</v>
+      </c>
+      <c r="L24" s="13">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="M24" s="23">
+        <f>ROUND(K24*(1-L24),0)</f>
+        <v>13885</v>
+      </c>
+      <c r="N24" s="14">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="O24" s="24">
+        <f t="shared" ref="O24:O26" si="185">M24*N24</f>
+        <v>8206.0349999999999</v>
+      </c>
+      <c r="P24" s="13">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="Q24" s="24">
+        <f t="shared" ref="Q24:Q26" si="186">M24*P24</f>
+        <v>4818.0949999999993</v>
+      </c>
+      <c r="R24" s="15">
+        <v>6.2E-2</v>
+      </c>
+      <c r="S24" s="143">
+        <v>0.19789999999999999</v>
+      </c>
+      <c r="T24" s="24">
+        <f t="shared" ref="T24:T26" si="187">M24*R24</f>
+        <v>860.87</v>
+      </c>
+      <c r="U24" s="25">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="V24" s="24">
+        <f t="shared" ref="V24:V26" si="188">M24*U24</f>
+        <v>2846.4249999999997</v>
+      </c>
+      <c r="W24" s="15">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="X24" s="24">
+        <f t="shared" ref="X24:X26" si="189">M24*W24</f>
+        <v>7164.66</v>
+      </c>
+      <c r="Y24" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="Z24" s="24">
+        <f t="shared" ref="Z24:Z26" si="190">Y24*M24</f>
+        <v>5831.7</v>
+      </c>
+      <c r="AA24" s="145">
+        <v>2.5300000000000001E-3</v>
+      </c>
+      <c r="AB24" s="18">
+        <f t="shared" ref="AB24" si="191">M24*AA24</f>
+        <v>35.129049999999999</v>
+      </c>
+      <c r="AC24" s="16">
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="AD24" s="17">
+        <f t="shared" ref="AD24:AD26" si="192">M24*AC24</f>
+        <v>35.406750000000002</v>
+      </c>
+      <c r="AE24" s="26">
+        <f>IF(M24&gt;0,(AG24+AP24)/M24,0)</f>
+        <v>2.6065172488296726E-3</v>
+      </c>
+      <c r="AF24" s="16">
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG24" s="23">
+        <f t="shared" ref="AG24:AG26" si="193">AF24*M24</f>
+        <v>3.7489500000000002</v>
+      </c>
+      <c r="AH24" s="114">
+        <v>0.218</v>
+      </c>
+      <c r="AI24" s="29">
+        <f t="shared" ref="AI24:AI26" si="194">AL24*(1-AM24)*AH24</f>
+        <v>32.442542000000003</v>
+      </c>
+      <c r="AJ24" s="27">
+        <f t="shared" ref="AJ24:AJ26" si="195">IF(AND(AH24&gt;0,AF24&gt;0,AC24&gt;0),((AC24-AF24)*AH24)/((AH24-AF24)*AC24),0)</f>
+        <v>0.89522641371801548</v>
+      </c>
+      <c r="AK24" s="59">
+        <f t="shared" si="6"/>
+        <v>0.8975251132871912</v>
+      </c>
+      <c r="AL24" s="11">
+        <v>163</v>
+      </c>
+      <c r="AM24" s="13">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="AN24" s="14">
+        <v>0.218</v>
+      </c>
+      <c r="AO24" s="130">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="AP24" s="29">
+        <f>AL24*(1-AM24)*AN24</f>
+        <v>32.442542000000003</v>
+      </c>
+      <c r="AQ24" s="131">
+        <f t="shared" ref="AQ24" si="196">AL24*(1-AM24)*AO24</f>
+        <v>32.278841100000008</v>
+      </c>
+      <c r="AR24" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="AS24" s="18">
+        <v>1015.94</v>
+      </c>
+      <c r="AT24" s="98">
+        <f>AT22+AL24-AS24</f>
+        <v>634.22000000000025</v>
+      </c>
+      <c r="AU24" s="99"/>
+      <c r="AV24" s="11"/>
+      <c r="AW24" s="30"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="19"/>
+      <c r="AZ24" s="19"/>
+      <c r="BA24" s="19"/>
+    </row>
+    <row r="25" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="184"/>
+      <c r="B25" s="32">
+        <v>2</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="33">
+        <v>18900</v>
+      </c>
+      <c r="E25" s="33">
+        <v>1</v>
+      </c>
+      <c r="F25" s="33">
+        <v>15628</v>
+      </c>
+      <c r="G25" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="H25" s="34">
+        <v>7.3</v>
+      </c>
+      <c r="I25" s="33">
+        <v>15274</v>
+      </c>
+      <c r="J25" s="34">
+        <v>3.6</v>
+      </c>
+      <c r="K25" s="33">
+        <v>14827</v>
+      </c>
+      <c r="L25" s="35">
+        <v>6.2E-2</v>
+      </c>
+      <c r="M25" s="36">
+        <f>ROUND(K25*(1-L25),0)</f>
+        <v>13908</v>
+      </c>
+      <c r="N25" s="37">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="O25" s="24">
+        <f t="shared" si="185"/>
+        <v>9234.9120000000003</v>
+      </c>
+      <c r="P25" s="35">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="Q25" s="24">
+        <f t="shared" si="186"/>
+        <v>3796.8840000000005</v>
+      </c>
+      <c r="R25" s="38">
+        <v>6.3E-2</v>
+      </c>
+      <c r="S25" s="134">
+        <v>0.20619999999999999</v>
+      </c>
+      <c r="T25" s="24">
+        <f t="shared" si="187"/>
+        <v>876.20399999999995</v>
+      </c>
+      <c r="U25" s="27">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="V25" s="24">
+        <f t="shared" si="188"/>
+        <v>2865.0479999999998</v>
+      </c>
+      <c r="W25" s="38">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="X25" s="24">
+        <f t="shared" si="189"/>
+        <v>7176.5280000000002</v>
+      </c>
+      <c r="Y25" s="38">
+        <v>0.42</v>
+      </c>
+      <c r="Z25" s="24">
+        <f t="shared" si="190"/>
+        <v>5841.36</v>
+      </c>
+      <c r="AA25" s="146"/>
+      <c r="AB25" s="18">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="39">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AD25" s="17">
+        <f t="shared" si="192"/>
+        <v>34.770000000000003</v>
+      </c>
+      <c r="AE25" s="26">
+        <f>IF(M25&gt;0,(AG25+AP25)/M25,0)</f>
+        <v>2.5755921052631582E-3</v>
+      </c>
+      <c r="AF25" s="39">
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG25" s="36">
+        <f t="shared" si="193"/>
+        <v>3.7551600000000001</v>
+      </c>
+      <c r="AH25" s="27">
+        <v>0.2072</v>
+      </c>
+      <c r="AI25" s="40">
+        <f t="shared" si="194"/>
+        <v>30.902844000000002</v>
+      </c>
+      <c r="AJ25" s="27">
+        <f t="shared" si="195"/>
+        <v>0.8931638718407191</v>
+      </c>
+      <c r="AK25" s="28">
+        <f t="shared" si="6"/>
+        <v>0.89629531630095682</v>
+      </c>
+      <c r="AL25" s="33">
+        <v>163</v>
+      </c>
+      <c r="AM25" s="35">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AN25" s="37">
+        <v>0.215</v>
+      </c>
+      <c r="AO25" s="132"/>
+      <c r="AP25" s="40">
+        <f>AL25*(1-AM25)*AN25</f>
+        <v>32.066175000000001</v>
+      </c>
+      <c r="AQ25" s="133">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="AR25" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="AS25" s="41"/>
+      <c r="AT25" s="117">
+        <f>AT24+AL25-AS25</f>
+        <v>797.22000000000025</v>
+      </c>
+      <c r="AU25" s="101"/>
+      <c r="AV25" s="42"/>
+      <c r="AW25" s="43"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
+    </row>
+    <row r="26" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="184"/>
+      <c r="B26" s="32">
+        <v>3</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="42">
+        <v>16000</v>
+      </c>
+      <c r="E26" s="42">
+        <v>0</v>
+      </c>
+      <c r="F26" s="42">
+        <v>18490</v>
+      </c>
+      <c r="G26" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="H26" s="36">
+        <v>5.7</v>
+      </c>
+      <c r="I26" s="42">
+        <v>17390</v>
+      </c>
+      <c r="J26" s="36">
+        <v>3</v>
+      </c>
+      <c r="K26" s="42">
+        <v>15540</v>
+      </c>
+      <c r="L26" s="38">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M26" s="36">
+        <f>ROUND(K26*(1-L26),0)</f>
+        <v>14530</v>
+      </c>
+      <c r="N26" s="27">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="O26" s="24">
+        <f t="shared" si="185"/>
+        <v>10359.89</v>
+      </c>
+      <c r="P26" s="38">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="Q26" s="24">
+        <f t="shared" si="186"/>
+        <v>3864.98</v>
+      </c>
+      <c r="R26" s="38">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="S26" s="134">
+        <v>0.20280000000000001</v>
+      </c>
+      <c r="T26" s="24">
+        <f t="shared" si="187"/>
+        <v>305.13</v>
+      </c>
+      <c r="U26" s="27"/>
+      <c r="V26" s="24">
+        <f t="shared" si="188"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="38"/>
+      <c r="X26" s="24">
+        <f t="shared" si="189"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="38">
+        <v>0.41</v>
+      </c>
+      <c r="Z26" s="24">
+        <f t="shared" si="190"/>
+        <v>5957.2999999999993</v>
+      </c>
+      <c r="AA26" s="147"/>
+      <c r="AB26" s="148">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="46">
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="AD26" s="17">
+        <f t="shared" si="192"/>
+        <v>37.6327</v>
+      </c>
+      <c r="AE26" s="26">
+        <f>IF(M26&gt;0,(AG26+AP26)/M26,0)</f>
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="AF26" s="46">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="AG26" s="36">
+        <f t="shared" si="193"/>
+        <v>3.7777999999999996</v>
+      </c>
+      <c r="AH26" s="27">
+        <v>0.2094</v>
+      </c>
+      <c r="AI26" s="40">
+        <f t="shared" si="194"/>
+        <v>32.799578400000001</v>
+      </c>
+      <c r="AJ26" s="27">
+        <f t="shared" si="195"/>
+        <v>0.90073228736325239</v>
+      </c>
+      <c r="AK26" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AL26" s="42">
+        <v>171</v>
+      </c>
+      <c r="AM26" s="38">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AN26" s="27"/>
+      <c r="AO26" s="134"/>
+      <c r="AP26" s="40">
+        <f>AL26*(1-AM26)*AN26</f>
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="135">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="AR26" s="17">
+        <v>1.55</v>
+      </c>
+      <c r="AS26" s="17"/>
+      <c r="AT26" s="117">
+        <f>AT25+AL26-AS26</f>
+        <v>968.22000000000025</v>
+      </c>
+      <c r="AU26" s="101"/>
+      <c r="AV26" s="42"/>
+      <c r="AW26" s="47"/>
+      <c r="AX26" s="40"/>
+      <c r="AY26" s="40"/>
+      <c r="AZ26" s="40"/>
+      <c r="BA26" s="40"/>
+    </row>
+    <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="185"/>
+      <c r="B27" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="50">
+        <f t="shared" ref="D27" si="197">SUM(D24:D26)</f>
+        <v>37903</v>
+      </c>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50">
+        <f t="shared" ref="F27" si="198">SUM(F24:F26)</f>
+        <v>40234</v>
+      </c>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="50">
+        <f t="shared" ref="I27:K27" si="199">SUM(I24:I26)</f>
+        <v>38777</v>
+      </c>
+      <c r="J27" s="51"/>
+      <c r="K27" s="50">
+        <f t="shared" si="199"/>
+        <v>45201</v>
+      </c>
+      <c r="L27" s="20">
+        <f t="shared" ref="L27" si="200">IF(K27&gt;0,(K24*L24+K25*L25+K26*L26)/K27,0)</f>
+        <v>6.36877502710117E-2</v>
+      </c>
+      <c r="M27" s="51">
+        <f t="shared" ref="M27" si="201">M24+M25+M26</f>
+        <v>42323</v>
+      </c>
+      <c r="N27" s="52">
+        <f t="shared" ref="N27" si="202">IF(M27&gt;0,O27/M27,0)</f>
+        <v>0.65687302412399873</v>
+      </c>
+      <c r="O27" s="53">
+        <f t="shared" ref="O27" si="203">O24+O25+O26</f>
+        <v>27800.837</v>
+      </c>
+      <c r="P27" s="20">
+        <f t="shared" ref="P27" si="204">IF(M27&gt;0,Q27/M27,0)</f>
+        <v>0.29487415825910257</v>
+      </c>
+      <c r="Q27" s="53">
+        <f t="shared" ref="Q27" si="205">Q24+Q25+Q26</f>
+        <v>12479.958999999999</v>
+      </c>
+      <c r="R27" s="20">
+        <f t="shared" ref="R27" si="206">IF(M27&gt;0,T27/M27,0)</f>
+        <v>4.8252817616898619E-2</v>
+      </c>
+      <c r="S27" s="136"/>
+      <c r="T27" s="53">
+        <f t="shared" ref="T27" si="207">T24+T25+T26</f>
+        <v>2042.2040000000002</v>
+      </c>
+      <c r="U27" s="20">
+        <f t="shared" ref="U27" si="208">IF(M27&gt;0,V27/M27,0)</f>
+        <v>0.13494962549913758</v>
+      </c>
+      <c r="V27" s="53">
+        <f t="shared" ref="V27" si="209">V24+V25+V26</f>
+        <v>5711.473</v>
+      </c>
+      <c r="W27" s="20">
+        <f t="shared" ref="W27" si="210">IF(M27&gt;0,X27/M27,0)</f>
+        <v>0.33885093211728845</v>
+      </c>
+      <c r="X27" s="53">
+        <f t="shared" ref="X27" si="211">X24+X25+X26</f>
+        <v>14341.188</v>
+      </c>
+      <c r="Y27" s="20">
+        <f t="shared" ref="Y27" si="212">IF(M27&gt;0,Z27/M27,0)</f>
+        <v>0.41656687852940483</v>
+      </c>
+      <c r="Z27" s="53">
+        <f t="shared" ref="Z27" si="213">Z24+Z25+Z26</f>
+        <v>17630.36</v>
+      </c>
+      <c r="AA27" s="152">
+        <f>IF(M27&gt;0,AB27/M27,0)</f>
+        <v>8.3002268270207687E-4</v>
+      </c>
+      <c r="AB27" s="55">
+        <f t="shared" ref="AB27" si="214">SUM(AB24:AB26)</f>
+        <v>35.129049999999999</v>
+      </c>
+      <c r="AC27" s="54">
+        <f t="shared" ref="AC27" si="215">IF(M27&gt;0,AD27/M27,0)</f>
+        <v>2.5473017035654373E-3</v>
+      </c>
+      <c r="AD27" s="55">
+        <f t="shared" ref="AD27" si="216">SUM(AD24:AD26)</f>
+        <v>107.80945</v>
+      </c>
+      <c r="AE27" s="54">
+        <f t="shared" ref="AE27" si="217">IF(M27&gt;0,(AE24*M24+AE25*M25+AE26*M26)/M27,0)</f>
+        <v>1.790766887980531E-3</v>
+      </c>
+      <c r="AF27" s="54">
+        <f t="shared" ref="AF27" si="218">IF(K27&gt;0,(K24*AF24+K25*AF25+K26*AF26)/K27,0)</f>
+        <v>2.6656202296409371E-4</v>
+      </c>
+      <c r="AG27" s="51">
+        <f t="shared" ref="AG27" si="219">SUM(AG24:AG26)</f>
+        <v>11.28191</v>
+      </c>
+      <c r="AH27" s="52">
+        <f t="shared" ref="AH27" si="220">IF(K27&gt;0,(K24*AH24+K25*AH25+K26*AH26)/K27,0)</f>
+        <v>0.21150068361319435</v>
+      </c>
+      <c r="AI27" s="57">
+        <f t="shared" ref="AI27" si="221">SUM(AI24:AI26)</f>
+        <v>96.144964400000006</v>
+      </c>
+      <c r="AJ27" s="52">
+        <f t="shared" ref="AJ27" si="222">IF(AND(AD27&gt;0),((AD24*AJ24+AD25*AJ25+AD26*AJ26)/AD27),0)</f>
+        <v>0.89648313388545464</v>
+      </c>
+      <c r="AK27" s="56">
+        <f t="shared" si="6"/>
+        <v>0.85274644875895866</v>
+      </c>
+      <c r="AL27" s="50">
+        <f t="shared" ref="AL27" si="223">SUM(AL24:AL26)</f>
+        <v>497</v>
+      </c>
+      <c r="AM27" s="20">
+        <f t="shared" ref="AM27" si="224">IF(AL27&gt;0,(AM24*AL24+AM25*AL25+AM26*AL26)/AL27,0)</f>
+        <v>8.5311871227364194E-2</v>
+      </c>
+      <c r="AN27" s="52">
+        <f>IF(K27&gt;0,(AN24*K24+AN25*K25+AN26*K26)/K27,0)</f>
+        <v>0.1420680294683746</v>
+      </c>
+      <c r="AO27" s="136">
+        <f>IF(K27&gt;0,(AO24*K24+AO25*K25+AO26*K26)/K27,0)</f>
+        <v>7.1181934028008223E-2</v>
+      </c>
+      <c r="AP27" s="57">
+        <f t="shared" ref="AP27" si="225">SUM(AP24:AP26)</f>
+        <v>64.508717000000004</v>
+      </c>
+      <c r="AQ27" s="137">
+        <f t="shared" si="139"/>
+        <v>32.278841100000008</v>
+      </c>
+      <c r="AR27" s="55"/>
+      <c r="AS27" s="55">
+        <f t="shared" ref="AS27" si="226">SUM(AS24:AS26)</f>
+        <v>1015.94</v>
+      </c>
+      <c r="AT27" s="102"/>
+      <c r="AU27" s="103">
+        <f>AT26</f>
+        <v>968.22000000000025</v>
+      </c>
+      <c r="AV27" s="50">
+        <f t="shared" ref="AV27" si="227">SUM(AV24:AV26)</f>
+        <v>0</v>
+      </c>
+      <c r="AW27" s="58"/>
+      <c r="AX27" s="57"/>
+      <c r="AY27" s="57"/>
+      <c r="AZ27" s="57"/>
+      <c r="BA27" s="57"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -46123,16 +48074,34 @@
     <protectedRange sqref="AA3:AB3" name="Range1_1_1_1_1_1_1_1_1_1_2"/>
     <protectedRange sqref="AB4:AB15" name="Range1_1_1_1_1_2_2_1_1_1"/>
     <protectedRange sqref="AB1" name="Range1_1_1_1_1_1_1_1_1_1_1_1"/>
+    <protectedRange sqref="AP16:AQ27 AK16:AK27 M16:M27" name="Range1_1_1_1_1_1_1_1_1_1"/>
+    <protectedRange sqref="AH19:AJ19 AH23:AJ23 AH27:AJ27 AH16:AI18 AH20:AI22 AH24:AI26" name="Range1_1_1_1_1_1_1_1"/>
+    <protectedRange sqref="AJ16:AJ18 AJ20:AJ22 AJ24:AJ26" name="Range1_1_1_1_1"/>
+    <protectedRange sqref="AD19:AE19 AD16:AD18 AD23:AE23 AD20:AD22 AD27:AE27 AD24:AD26" name="Range1_1_1_1_1_2_2_1_1"/>
+    <protectedRange sqref="O16:O27" name="Range1_1_1_1_1_5_1_1_1"/>
+    <protectedRange sqref="Q16:Q27" name="Range1_1_1_1_1_7_1_1_1"/>
+    <protectedRange sqref="T16:T27" name="Range1_1_1_1_1_8_1_1_1"/>
+    <protectedRange sqref="V16:V27" name="Range1_1_1_1_1_10_1_1_1"/>
+    <protectedRange sqref="X16:X27" name="Range1_1_1_1_1_12_1_1_1"/>
+    <protectedRange sqref="Z16:Z27" name="Range1_1_1_1_1_16_1_1_1"/>
+    <protectedRange sqref="AG16:AG27" name="Range1_1_1_1_1_18_1_1_1"/>
+    <protectedRange sqref="AE16:AE18" name="Range1_1_1_1_1_2_1_3_1_1_1"/>
+    <protectedRange sqref="AE20:AE22" name="Range1_1_1_1_1_2_1_4_1_1_1"/>
+    <protectedRange sqref="AE24:AE26" name="Range1_1_1_1_1_2_1_5_1_1_1"/>
+    <protectedRange sqref="AB16:AB27" name="Range1_1_1_1_1_2_2_1_1_1_1"/>
   </protectedRanges>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="AX1:AY1"/>
-    <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="A4:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dispatchers_rep/Doklad_Dispecheri_2025!.xlsx
+++ b/dispatchers_rep/Doklad_Dispecheri_2025!.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56B22EF-423A-40D9-BA99-F1CD05A9273D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E761D1-2FF6-44A8-B593-C2167EBE6562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -623,8 +623,70 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="AU28" authorId="0" shapeId="0" xr:uid="{E6C03971-98DA-4531-AAD8-EB443166A746}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+корекция на концентрат
+след замер на 
+автомобилна везна.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU32" authorId="0" shapeId="0" xr:uid="{B703D23A-B271-457F-B061-626A6A2CD741}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+корекция на концентрат
+след замер на 
+автомобилна везна.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="70">
   <si>
     <t xml:space="preserve">Подадена руда
  от МГТЛ 
@@ -892,7 +954,7 @@
     <numFmt numFmtId="166" formatCode="0.000%"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1038,6 +1100,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1688,9 +1763,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1698,9 +1770,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1720,6 +1789,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2139,13 +2214,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="185" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -2274,19 +2349,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="182" t="s">
+      <c r="AX1" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="182"/>
-      <c r="AZ1" s="182" t="s">
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="182"/>
+      <c r="BA1" s="191"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="192"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="188"/>
+      <c r="A2" s="190"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="186"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -2477,7 +2552,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183">
+      <c r="A4" s="182">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -2639,7 +2714,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" s="184"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -2799,7 +2874,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="184"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -2959,7 +3034,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="184"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -3130,7 +3205,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="183">
+      <c r="A8" s="182">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -3294,7 +3369,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" s="184"/>
+      <c r="A9" s="183"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -3454,7 +3529,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" s="184"/>
+      <c r="A10" s="183"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -3614,7 +3689,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="184"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -3785,7 +3860,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="183">
+      <c r="A12" s="182">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -3949,7 +4024,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" s="184"/>
+      <c r="A13" s="183"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -4109,7 +4184,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14" s="184"/>
+      <c r="A14" s="183"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -4269,7 +4344,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="184"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -4440,7 +4515,7 @@
       <c r="BA15" s="57"/>
     </row>
     <row r="16" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="183">
+      <c r="A16" s="182">
         <v>4</v>
       </c>
       <c r="B16" s="22">
@@ -4604,7 +4679,7 @@
       <c r="BA16" s="19"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A17" s="184"/>
+      <c r="A17" s="183"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -4764,7 +4839,7 @@
       <c r="BA17" s="44"/>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18" s="184"/>
+      <c r="A18" s="183"/>
       <c r="B18" s="32">
         <v>3</v>
       </c>
@@ -4924,7 +4999,7 @@
       <c r="BA18" s="40"/>
     </row>
     <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+      <c r="A19" s="184"/>
       <c r="B19" s="48" t="s">
         <v>35</v>
       </c>
@@ -5095,7 +5170,7 @@
       <c r="BA19" s="57"/>
     </row>
     <row r="20" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="183">
+      <c r="A20" s="182">
         <v>5</v>
       </c>
       <c r="B20" s="22">
@@ -5259,7 +5334,7 @@
       <c r="BA20" s="19"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" s="184"/>
+      <c r="A21" s="183"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
@@ -5419,7 +5494,7 @@
       <c r="BA21" s="44"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22" s="184"/>
+      <c r="A22" s="183"/>
       <c r="B22" s="32">
         <v>3</v>
       </c>
@@ -5579,7 +5654,7 @@
       <c r="BA22" s="40"/>
     </row>
     <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="185"/>
+      <c r="A23" s="184"/>
       <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
@@ -5750,7 +5825,7 @@
       <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="183">
+      <c r="A24" s="182">
         <v>6</v>
       </c>
       <c r="B24" s="22">
@@ -5916,7 +5991,7 @@
       <c r="BA24" s="19"/>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A25" s="184"/>
+      <c r="A25" s="183"/>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -6076,7 +6151,7 @@
       <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A26" s="184"/>
+      <c r="A26" s="183"/>
       <c r="B26" s="32">
         <v>3</v>
       </c>
@@ -6236,7 +6311,7 @@
       <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
+      <c r="A27" s="184"/>
       <c r="B27" s="48" t="s">
         <v>35</v>
       </c>
@@ -6407,7 +6482,7 @@
       <c r="BA27" s="57"/>
     </row>
     <row r="28" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="183">
+      <c r="A28" s="182">
         <v>7</v>
       </c>
       <c r="B28" s="22">
@@ -6569,7 +6644,7 @@
       <c r="BA28" s="19"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A29" s="184"/>
+      <c r="A29" s="183"/>
       <c r="B29" s="32">
         <v>2</v>
       </c>
@@ -6729,7 +6804,7 @@
       <c r="BA29" s="44"/>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A30" s="184"/>
+      <c r="A30" s="183"/>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -6889,7 +6964,7 @@
       <c r="BA30" s="40"/>
     </row>
     <row r="31" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185"/>
+      <c r="A31" s="184"/>
       <c r="B31" s="48" t="s">
         <v>35</v>
       </c>
@@ -7060,7 +7135,7 @@
       <c r="BA31" s="57"/>
     </row>
     <row r="32" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="183">
+      <c r="A32" s="182">
         <v>8</v>
       </c>
       <c r="B32" s="22">
@@ -7222,7 +7297,7 @@
       <c r="BA32" s="19"/>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A33" s="184"/>
+      <c r="A33" s="183"/>
       <c r="B33" s="32">
         <v>2</v>
       </c>
@@ -7382,7 +7457,7 @@
       <c r="BA33" s="44"/>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A34" s="184"/>
+      <c r="A34" s="183"/>
       <c r="B34" s="32">
         <v>3</v>
       </c>
@@ -7542,7 +7617,7 @@
       <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="185"/>
+      <c r="A35" s="184"/>
       <c r="B35" s="48" t="s">
         <v>35</v>
       </c>
@@ -7713,7 +7788,7 @@
       <c r="BA35" s="57"/>
     </row>
     <row r="36" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="183">
+      <c r="A36" s="182">
         <v>9</v>
       </c>
       <c r="B36" s="22">
@@ -7877,7 +7952,7 @@
       <c r="BA36" s="19"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A37" s="184"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="32">
         <v>2</v>
       </c>
@@ -8037,7 +8112,7 @@
       <c r="BA37" s="44"/>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A38" s="184"/>
+      <c r="A38" s="183"/>
       <c r="B38" s="32">
         <v>3</v>
       </c>
@@ -8197,7 +8272,7 @@
       <c r="BA38" s="40"/>
     </row>
     <row r="39" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="185"/>
+      <c r="A39" s="184"/>
       <c r="B39" s="48" t="s">
         <v>35</v>
       </c>
@@ -8368,7 +8443,7 @@
       <c r="BA39" s="57"/>
     </row>
     <row r="40" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="183">
+      <c r="A40" s="182">
         <v>10</v>
       </c>
       <c r="B40" s="22">
@@ -8532,7 +8607,7 @@
       <c r="BA40" s="19"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A41" s="184"/>
+      <c r="A41" s="183"/>
       <c r="B41" s="32">
         <v>2</v>
       </c>
@@ -8692,7 +8767,7 @@
       <c r="BA41" s="44"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A42" s="184"/>
+      <c r="A42" s="183"/>
       <c r="B42" s="32">
         <v>3</v>
       </c>
@@ -8852,7 +8927,7 @@
       <c r="BA42" s="40"/>
     </row>
     <row r="43" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="185"/>
+      <c r="A43" s="184"/>
       <c r="B43" s="48" t="s">
         <v>35</v>
       </c>
@@ -9023,7 +9098,7 @@
       <c r="BA43" s="57"/>
     </row>
     <row r="44" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="183">
+      <c r="A44" s="182">
         <v>11</v>
       </c>
       <c r="B44" s="22">
@@ -9187,7 +9262,7 @@
       <c r="BA44" s="19"/>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A45" s="184"/>
+      <c r="A45" s="183"/>
       <c r="B45" s="32">
         <v>2</v>
       </c>
@@ -9347,7 +9422,7 @@
       <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A46" s="184"/>
+      <c r="A46" s="183"/>
       <c r="B46" s="32">
         <v>3</v>
       </c>
@@ -9507,7 +9582,7 @@
       <c r="BA46" s="40"/>
     </row>
     <row r="47" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="185"/>
+      <c r="A47" s="184"/>
       <c r="B47" s="48" t="s">
         <v>35</v>
       </c>
@@ -9678,7 +9753,7 @@
       <c r="BA47" s="57"/>
     </row>
     <row r="48" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="183">
+      <c r="A48" s="182">
         <v>12</v>
       </c>
       <c r="B48" s="22">
@@ -9844,7 +9919,7 @@
       <c r="BA48" s="19"/>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A49" s="184"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="32">
         <v>2</v>
       </c>
@@ -10004,7 +10079,7 @@
       <c r="BA49" s="44"/>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A50" s="184"/>
+      <c r="A50" s="183"/>
       <c r="B50" s="32">
         <v>3</v>
       </c>
@@ -10164,7 +10239,7 @@
       <c r="BA50" s="40"/>
     </row>
     <row r="51" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="185"/>
+      <c r="A51" s="184"/>
       <c r="B51" s="48" t="s">
         <v>35</v>
       </c>
@@ -10335,7 +10410,7 @@
       <c r="BA51" s="57"/>
     </row>
     <row r="52" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="183">
+      <c r="A52" s="182">
         <v>13</v>
       </c>
       <c r="B52" s="22">
@@ -10499,7 +10574,7 @@
       <c r="BA52" s="19"/>
     </row>
     <row r="53" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A53" s="184"/>
+      <c r="A53" s="183"/>
       <c r="B53" s="32">
         <v>2</v>
       </c>
@@ -10659,7 +10734,7 @@
       <c r="BA53" s="44"/>
     </row>
     <row r="54" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A54" s="184"/>
+      <c r="A54" s="183"/>
       <c r="B54" s="32">
         <v>3</v>
       </c>
@@ -10819,7 +10894,7 @@
       <c r="BA54" s="40"/>
     </row>
     <row r="55" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="185"/>
+      <c r="A55" s="184"/>
       <c r="B55" s="48" t="s">
         <v>35</v>
       </c>
@@ -10990,7 +11065,7 @@
       <c r="BA55" s="57"/>
     </row>
     <row r="56" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="183">
+      <c r="A56" s="182">
         <v>14</v>
       </c>
       <c r="B56" s="22">
@@ -11152,7 +11227,7 @@
       <c r="BA56" s="19"/>
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A57" s="184"/>
+      <c r="A57" s="183"/>
       <c r="B57" s="32">
         <v>2</v>
       </c>
@@ -11312,7 +11387,7 @@
       <c r="BA57" s="44"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A58" s="184"/>
+      <c r="A58" s="183"/>
       <c r="B58" s="32">
         <v>3</v>
       </c>
@@ -11472,7 +11547,7 @@
       <c r="BA58" s="40"/>
     </row>
     <row r="59" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="185"/>
+      <c r="A59" s="184"/>
       <c r="B59" s="48" t="s">
         <v>35</v>
       </c>
@@ -11643,7 +11718,7 @@
       <c r="BA59" s="57"/>
     </row>
     <row r="60" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="183">
+      <c r="A60" s="182">
         <v>15</v>
       </c>
       <c r="B60" s="22">
@@ -11805,7 +11880,7 @@
       <c r="BA60" s="19"/>
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A61" s="184"/>
+      <c r="A61" s="183"/>
       <c r="B61" s="32">
         <v>2</v>
       </c>
@@ -11965,7 +12040,7 @@
       <c r="BA61" s="44"/>
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A62" s="184"/>
+      <c r="A62" s="183"/>
       <c r="B62" s="32">
         <v>3</v>
       </c>
@@ -12125,7 +12200,7 @@
       <c r="BA62" s="40"/>
     </row>
     <row r="63" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="185"/>
+      <c r="A63" s="184"/>
       <c r="B63" s="48" t="s">
         <v>35</v>
       </c>
@@ -12296,7 +12371,7 @@
       <c r="BA63" s="57"/>
     </row>
     <row r="64" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="183">
+      <c r="A64" s="182">
         <v>16</v>
       </c>
       <c r="B64" s="22">
@@ -12460,7 +12535,7 @@
       <c r="BA64" s="19"/>
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A65" s="184"/>
+      <c r="A65" s="183"/>
       <c r="B65" s="32">
         <v>2</v>
       </c>
@@ -12620,7 +12695,7 @@
       <c r="BA65" s="44"/>
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A66" s="184"/>
+      <c r="A66" s="183"/>
       <c r="B66" s="32">
         <v>3</v>
       </c>
@@ -12780,7 +12855,7 @@
       <c r="BA66" s="40"/>
     </row>
     <row r="67" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="185"/>
+      <c r="A67" s="184"/>
       <c r="B67" s="48" t="s">
         <v>35</v>
       </c>
@@ -12951,7 +13026,7 @@
       <c r="BA67" s="57"/>
     </row>
     <row r="68" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="183">
+      <c r="A68" s="182">
         <v>17</v>
       </c>
       <c r="B68" s="22">
@@ -13115,7 +13190,7 @@
       <c r="BA68" s="19"/>
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A69" s="184"/>
+      <c r="A69" s="183"/>
       <c r="B69" s="32">
         <v>2</v>
       </c>
@@ -13275,7 +13350,7 @@
       <c r="BA69" s="44"/>
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A70" s="184"/>
+      <c r="A70" s="183"/>
       <c r="B70" s="32">
         <v>3</v>
       </c>
@@ -13435,7 +13510,7 @@
       <c r="BA70" s="40"/>
     </row>
     <row r="71" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="185"/>
+      <c r="A71" s="184"/>
       <c r="B71" s="48" t="s">
         <v>35</v>
       </c>
@@ -13606,7 +13681,7 @@
       <c r="BA71" s="57"/>
     </row>
     <row r="72" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="183">
+      <c r="A72" s="182">
         <v>18</v>
       </c>
       <c r="B72" s="22">
@@ -13772,7 +13847,7 @@
       <c r="BA72" s="19"/>
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A73" s="184"/>
+      <c r="A73" s="183"/>
       <c r="B73" s="32">
         <v>2</v>
       </c>
@@ -13932,7 +14007,7 @@
       <c r="BA73" s="44"/>
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A74" s="184"/>
+      <c r="A74" s="183"/>
       <c r="B74" s="32">
         <v>3</v>
       </c>
@@ -14092,7 +14167,7 @@
       <c r="BA74" s="40"/>
     </row>
     <row r="75" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="185"/>
+      <c r="A75" s="184"/>
       <c r="B75" s="48" t="s">
         <v>35</v>
       </c>
@@ -14263,7 +14338,7 @@
       <c r="BA75" s="57"/>
     </row>
     <row r="76" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="183">
+      <c r="A76" s="182">
         <v>19</v>
       </c>
       <c r="B76" s="22">
@@ -14427,7 +14502,7 @@
       <c r="BA76" s="175"/>
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A77" s="184"/>
+      <c r="A77" s="183"/>
       <c r="B77" s="32">
         <v>2</v>
       </c>
@@ -14587,7 +14662,7 @@
       <c r="BA77" s="176"/>
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A78" s="184"/>
+      <c r="A78" s="183"/>
       <c r="B78" s="32">
         <v>3</v>
       </c>
@@ -14747,7 +14822,7 @@
       <c r="BA78" s="177"/>
     </row>
     <row r="79" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="185"/>
+      <c r="A79" s="184"/>
       <c r="B79" s="48" t="s">
         <v>35</v>
       </c>
@@ -14918,7 +14993,7 @@
       <c r="BA79" s="179"/>
     </row>
     <row r="80" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="184">
+      <c r="A80" s="183">
         <v>20</v>
       </c>
       <c r="B80" s="32">
@@ -15084,7 +15159,7 @@
       <c r="BA80" s="168"/>
     </row>
     <row r="81" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A81" s="184"/>
+      <c r="A81" s="183"/>
       <c r="B81" s="32">
         <v>2</v>
       </c>
@@ -15244,7 +15319,7 @@
       <c r="BA81" s="44"/>
     </row>
     <row r="82" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A82" s="184"/>
+      <c r="A82" s="183"/>
       <c r="B82" s="32">
         <v>3</v>
       </c>
@@ -15404,7 +15479,7 @@
       <c r="BA82" s="40"/>
     </row>
     <row r="83" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="185"/>
+      <c r="A83" s="184"/>
       <c r="B83" s="48" t="s">
         <v>35</v>
       </c>
@@ -15575,7 +15650,7 @@
       <c r="BA83" s="57"/>
     </row>
     <row r="84" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="183">
+      <c r="A84" s="182">
         <v>21</v>
       </c>
       <c r="B84" s="22">
@@ -15737,7 +15812,7 @@
       <c r="BA84" s="19"/>
     </row>
     <row r="85" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A85" s="184"/>
+      <c r="A85" s="183"/>
       <c r="B85" s="32">
         <v>2</v>
       </c>
@@ -15897,7 +15972,7 @@
       <c r="BA85" s="44"/>
     </row>
     <row r="86" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A86" s="184"/>
+      <c r="A86" s="183"/>
       <c r="B86" s="32">
         <v>3</v>
       </c>
@@ -16057,7 +16132,7 @@
       <c r="BA86" s="40"/>
     </row>
     <row r="87" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="185"/>
+      <c r="A87" s="184"/>
       <c r="B87" s="48" t="s">
         <v>35</v>
       </c>
@@ -16228,7 +16303,7 @@
       <c r="BA87" s="57"/>
     </row>
     <row r="88" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="183">
+      <c r="A88" s="182">
         <v>22</v>
       </c>
       <c r="B88" s="22">
@@ -16390,7 +16465,7 @@
       <c r="BA88" s="19"/>
     </row>
     <row r="89" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A89" s="184"/>
+      <c r="A89" s="183"/>
       <c r="B89" s="32">
         <v>2</v>
       </c>
@@ -16550,7 +16625,7 @@
       <c r="BA89" s="44"/>
     </row>
     <row r="90" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A90" s="184"/>
+      <c r="A90" s="183"/>
       <c r="B90" s="32">
         <v>3</v>
       </c>
@@ -16710,7 +16785,7 @@
       <c r="BA90" s="40"/>
     </row>
     <row r="91" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="185"/>
+      <c r="A91" s="184"/>
       <c r="B91" s="48" t="s">
         <v>35</v>
       </c>
@@ -16881,7 +16956,7 @@
       <c r="BA91" s="57"/>
     </row>
     <row r="92" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="183">
+      <c r="A92" s="182">
         <v>23</v>
       </c>
       <c r="B92" s="22">
@@ -17045,7 +17120,7 @@
       <c r="BA92" s="19"/>
     </row>
     <row r="93" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A93" s="184"/>
+      <c r="A93" s="183"/>
       <c r="B93" s="32">
         <v>2</v>
       </c>
@@ -17205,7 +17280,7 @@
       <c r="BA93" s="44"/>
     </row>
     <row r="94" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A94" s="184"/>
+      <c r="A94" s="183"/>
       <c r="B94" s="32">
         <v>3</v>
       </c>
@@ -17365,7 +17440,7 @@
       <c r="BA94" s="40"/>
     </row>
     <row r="95" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="185"/>
+      <c r="A95" s="184"/>
       <c r="B95" s="48" t="s">
         <v>35</v>
       </c>
@@ -17536,7 +17611,7 @@
       <c r="BA95" s="57"/>
     </row>
     <row r="96" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="183">
+      <c r="A96" s="182">
         <v>24</v>
       </c>
       <c r="B96" s="22">
@@ -17702,7 +17777,7 @@
       <c r="BA96" s="19"/>
     </row>
     <row r="97" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A97" s="184"/>
+      <c r="A97" s="183"/>
       <c r="B97" s="32">
         <v>2</v>
       </c>
@@ -17862,7 +17937,7 @@
       <c r="BA97" s="44"/>
     </row>
     <row r="98" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A98" s="184"/>
+      <c r="A98" s="183"/>
       <c r="B98" s="32">
         <v>3</v>
       </c>
@@ -18022,7 +18097,7 @@
       <c r="BA98" s="40"/>
     </row>
     <row r="99" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="185"/>
+      <c r="A99" s="184"/>
       <c r="B99" s="48" t="s">
         <v>35</v>
       </c>
@@ -18190,7 +18265,7 @@
       <c r="BA99" s="57"/>
     </row>
     <row r="100" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="186">
+      <c r="A100" s="192">
         <v>25</v>
       </c>
       <c r="B100" s="32">
@@ -18356,7 +18431,7 @@
       <c r="BA100" s="19"/>
     </row>
     <row r="101" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A101" s="186"/>
+      <c r="A101" s="192"/>
       <c r="B101" s="32">
         <v>2</v>
       </c>
@@ -18516,7 +18591,7 @@
       <c r="BA101" s="44"/>
     </row>
     <row r="102" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A102" s="186"/>
+      <c r="A102" s="192"/>
       <c r="B102" s="32">
         <v>3</v>
       </c>
@@ -18676,7 +18751,7 @@
       <c r="BA102" s="40"/>
     </row>
     <row r="103" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="186"/>
+      <c r="A103" s="192"/>
       <c r="B103" s="65" t="s">
         <v>35</v>
       </c>
@@ -18847,7 +18922,7 @@
       <c r="BA103" s="57"/>
     </row>
     <row r="104" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="183">
+      <c r="A104" s="182">
         <v>26</v>
       </c>
       <c r="B104" s="22">
@@ -19013,7 +19088,7 @@
       <c r="BA104" s="19"/>
     </row>
     <row r="105" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A105" s="184"/>
+      <c r="A105" s="183"/>
       <c r="B105" s="32">
         <v>2</v>
       </c>
@@ -19173,7 +19248,7 @@
       <c r="BA105" s="44"/>
     </row>
     <row r="106" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A106" s="184"/>
+      <c r="A106" s="183"/>
       <c r="B106" s="32">
         <v>3</v>
       </c>
@@ -19333,7 +19408,7 @@
       <c r="BA106" s="40"/>
     </row>
     <row r="107" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="185"/>
+      <c r="A107" s="184"/>
       <c r="B107" s="48" t="s">
         <v>35</v>
       </c>
@@ -19504,7 +19579,7 @@
       <c r="BA107" s="57"/>
     </row>
     <row r="108" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="183">
+      <c r="A108" s="182">
         <v>27</v>
       </c>
       <c r="B108" s="22">
@@ -19670,7 +19745,7 @@
       <c r="BA108" s="19"/>
     </row>
     <row r="109" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A109" s="184"/>
+      <c r="A109" s="183"/>
       <c r="B109" s="32">
         <v>2</v>
       </c>
@@ -19830,7 +19905,7 @@
       <c r="BA109" s="44"/>
     </row>
     <row r="110" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A110" s="184"/>
+      <c r="A110" s="183"/>
       <c r="B110" s="32">
         <v>3</v>
       </c>
@@ -19990,7 +20065,7 @@
       <c r="BA110" s="40"/>
     </row>
     <row r="111" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="185"/>
+      <c r="A111" s="184"/>
       <c r="B111" s="48" t="s">
         <v>35</v>
       </c>
@@ -20161,7 +20236,7 @@
       <c r="BA111" s="57"/>
     </row>
     <row r="112" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="183">
+      <c r="A112" s="182">
         <v>28</v>
       </c>
       <c r="B112" s="22">
@@ -20323,7 +20398,7 @@
       <c r="BA112" s="19"/>
     </row>
     <row r="113" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A113" s="184"/>
+      <c r="A113" s="183"/>
       <c r="B113" s="32">
         <v>2</v>
       </c>
@@ -20483,7 +20558,7 @@
       <c r="BA113" s="44"/>
     </row>
     <row r="114" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A114" s="184"/>
+      <c r="A114" s="183"/>
       <c r="B114" s="32">
         <v>3</v>
       </c>
@@ -20643,7 +20718,7 @@
       <c r="BA114" s="40"/>
     </row>
     <row r="115" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="185"/>
+      <c r="A115" s="184"/>
       <c r="B115" s="48" t="s">
         <v>35</v>
       </c>
@@ -20814,7 +20889,7 @@
       <c r="BA115" s="57"/>
     </row>
     <row r="116" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="184">
+      <c r="A116" s="183">
         <v>29</v>
       </c>
       <c r="B116" s="32">
@@ -20976,7 +21051,7 @@
       <c r="BA116" s="19"/>
     </row>
     <row r="117" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A117" s="184"/>
+      <c r="A117" s="183"/>
       <c r="B117" s="32">
         <v>2</v>
       </c>
@@ -21136,7 +21211,7 @@
       <c r="BA117" s="44"/>
     </row>
     <row r="118" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A118" s="184"/>
+      <c r="A118" s="183"/>
       <c r="B118" s="32">
         <v>3</v>
       </c>
@@ -21296,7 +21371,7 @@
       <c r="BA118" s="40"/>
     </row>
     <row r="119" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="185"/>
+      <c r="A119" s="184"/>
       <c r="B119" s="48" t="s">
         <v>35</v>
       </c>
@@ -21467,7 +21542,7 @@
       <c r="BA119" s="57"/>
     </row>
     <row r="120" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="183">
+      <c r="A120" s="182">
         <v>30</v>
       </c>
       <c r="B120" s="22">
@@ -21633,7 +21708,7 @@
       <c r="BA120" s="19"/>
     </row>
     <row r="121" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A121" s="184"/>
+      <c r="A121" s="183"/>
       <c r="B121" s="32">
         <v>2</v>
       </c>
@@ -21793,7 +21868,7 @@
       <c r="BA121" s="44"/>
     </row>
     <row r="122" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A122" s="184"/>
+      <c r="A122" s="183"/>
       <c r="B122" s="32">
         <v>3</v>
       </c>
@@ -21953,7 +22028,7 @@
       <c r="BA122" s="40"/>
     </row>
     <row r="123" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="185"/>
+      <c r="A123" s="184"/>
       <c r="B123" s="48" t="s">
         <v>35</v>
       </c>
@@ -22124,7 +22199,7 @@
       <c r="BA123" s="57"/>
     </row>
     <row r="124" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="183">
+      <c r="A124" s="182">
         <v>31</v>
       </c>
       <c r="B124" s="22">
@@ -22234,7 +22309,7 @@
       <c r="BA124" s="19"/>
     </row>
     <row r="125" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A125" s="184"/>
+      <c r="A125" s="183"/>
       <c r="B125" s="32">
         <v>2</v>
       </c>
@@ -22342,7 +22417,7 @@
       <c r="BA125" s="44"/>
     </row>
     <row r="126" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A126" s="184"/>
+      <c r="A126" s="183"/>
       <c r="B126" s="32">
         <v>3</v>
       </c>
@@ -22450,7 +22525,7 @@
       <c r="BA126" s="40"/>
     </row>
     <row r="127" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="185"/>
+      <c r="A127" s="184"/>
       <c r="B127" s="48" t="s">
         <v>35</v>
       </c>
@@ -22843,26 +22918,6 @@
     <protectedRange sqref="AB1" name="Range1_1_1_1_1_1_1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="36">
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="A120:A123"/>
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A100:A103"/>
@@ -22879,6 +22934,26 @@
     <mergeCell ref="A68:A71"/>
     <mergeCell ref="A84:A87"/>
     <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22956,13 +23031,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="185" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -23091,19 +23166,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="182" t="s">
+      <c r="AX1" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="182"/>
-      <c r="AZ1" s="182" t="s">
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="182"/>
+      <c r="BA1" s="191"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="192"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="188"/>
+      <c r="A2" s="190"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="186"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -23294,7 +23369,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183">
+      <c r="A4" s="182">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -23458,7 +23533,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" s="184"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -23617,7 +23692,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="184"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -23776,7 +23851,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="184"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -23947,7 +24022,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="183">
+      <c r="A8" s="182">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -24111,7 +24186,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" s="184"/>
+      <c r="A9" s="183"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -24271,7 +24346,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" s="184"/>
+      <c r="A10" s="183"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -24431,7 +24506,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="184"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -24602,7 +24677,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="183">
+      <c r="A12" s="182">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -24764,7 +24839,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" s="184"/>
+      <c r="A13" s="183"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -24924,7 +24999,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14" s="184"/>
+      <c r="A14" s="183"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -25084,7 +25159,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="184"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -25255,7 +25330,7 @@
       <c r="BA15" s="57"/>
     </row>
     <row r="16" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="183">
+      <c r="A16" s="182">
         <v>4</v>
       </c>
       <c r="B16" s="22">
@@ -25417,7 +25492,7 @@
       <c r="BA16" s="19"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A17" s="184"/>
+      <c r="A17" s="183"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -25577,7 +25652,7 @@
       <c r="BA17" s="44"/>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18" s="184"/>
+      <c r="A18" s="183"/>
       <c r="B18" s="32">
         <v>3</v>
       </c>
@@ -25737,7 +25812,7 @@
       <c r="BA18" s="40"/>
     </row>
     <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+      <c r="A19" s="184"/>
       <c r="B19" s="48" t="s">
         <v>35</v>
       </c>
@@ -25908,7 +25983,7 @@
       <c r="BA19" s="57"/>
     </row>
     <row r="20" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="183">
+      <c r="A20" s="182">
         <v>5</v>
       </c>
       <c r="B20" s="22">
@@ -26070,7 +26145,7 @@
       <c r="BA20" s="19"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" s="184"/>
+      <c r="A21" s="183"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
@@ -26230,7 +26305,7 @@
       <c r="BA21" s="44"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22" s="184"/>
+      <c r="A22" s="183"/>
       <c r="B22" s="32">
         <v>3</v>
       </c>
@@ -26390,7 +26465,7 @@
       <c r="BA22" s="40"/>
     </row>
     <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="185"/>
+      <c r="A23" s="184"/>
       <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
@@ -26561,7 +26636,7 @@
       <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="183">
+      <c r="A24" s="182">
         <v>6</v>
       </c>
       <c r="B24" s="22">
@@ -26723,7 +26798,7 @@
       <c r="BA24" s="19"/>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A25" s="184"/>
+      <c r="A25" s="183"/>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -26883,7 +26958,7 @@
       <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A26" s="184"/>
+      <c r="A26" s="183"/>
       <c r="B26" s="32">
         <v>3</v>
       </c>
@@ -27043,7 +27118,7 @@
       <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
+      <c r="A27" s="184"/>
       <c r="B27" s="48" t="s">
         <v>35</v>
       </c>
@@ -27214,7 +27289,7 @@
       <c r="BA27" s="57"/>
     </row>
     <row r="28" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="183">
+      <c r="A28" s="182">
         <v>7</v>
       </c>
       <c r="B28" s="22">
@@ -27378,7 +27453,7 @@
       <c r="BA28" s="19"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A29" s="184"/>
+      <c r="A29" s="183"/>
       <c r="B29" s="32">
         <v>2</v>
       </c>
@@ -27536,7 +27611,7 @@
       <c r="BA29" s="44"/>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A30" s="184"/>
+      <c r="A30" s="183"/>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -27694,7 +27769,7 @@
       <c r="BA30" s="40"/>
     </row>
     <row r="31" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185"/>
+      <c r="A31" s="184"/>
       <c r="B31" s="48" t="s">
         <v>35</v>
       </c>
@@ -27865,7 +27940,7 @@
       <c r="BA31" s="57"/>
     </row>
     <row r="32" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="183">
+      <c r="A32" s="182">
         <v>8</v>
       </c>
       <c r="B32" s="22">
@@ -28029,7 +28104,7 @@
       <c r="BA32" s="19"/>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A33" s="184"/>
+      <c r="A33" s="183"/>
       <c r="B33" s="32">
         <v>2</v>
       </c>
@@ -28189,7 +28264,7 @@
       <c r="BA33" s="44"/>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A34" s="184"/>
+      <c r="A34" s="183"/>
       <c r="B34" s="32">
         <v>3</v>
       </c>
@@ -28349,7 +28424,7 @@
       <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="185"/>
+      <c r="A35" s="184"/>
       <c r="B35" s="48" t="s">
         <v>35</v>
       </c>
@@ -28520,7 +28595,7 @@
       <c r="BA35" s="57"/>
     </row>
     <row r="36" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="183">
+      <c r="A36" s="182">
         <v>9</v>
       </c>
       <c r="B36" s="22">
@@ -28684,7 +28759,7 @@
       <c r="BA36" s="19"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A37" s="184"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="32">
         <v>2</v>
       </c>
@@ -28844,7 +28919,7 @@
       <c r="BA37" s="44"/>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A38" s="184"/>
+      <c r="A38" s="183"/>
       <c r="B38" s="32">
         <v>3</v>
       </c>
@@ -29004,7 +29079,7 @@
       <c r="BA38" s="40"/>
     </row>
     <row r="39" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="185"/>
+      <c r="A39" s="184"/>
       <c r="B39" s="48" t="s">
         <v>35</v>
       </c>
@@ -29175,7 +29250,7 @@
       <c r="BA39" s="57"/>
     </row>
     <row r="40" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="183">
+      <c r="A40" s="182">
         <v>10</v>
       </c>
       <c r="B40" s="22">
@@ -29339,7 +29414,7 @@
       <c r="BA40" s="19"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A41" s="184"/>
+      <c r="A41" s="183"/>
       <c r="B41" s="32">
         <v>2</v>
       </c>
@@ -29495,7 +29570,7 @@
       <c r="BA41" s="44"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A42" s="184"/>
+      <c r="A42" s="183"/>
       <c r="B42" s="32">
         <v>3</v>
       </c>
@@ -29643,7 +29718,7 @@
       <c r="BA42" s="40"/>
     </row>
     <row r="43" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="185"/>
+      <c r="A43" s="184"/>
       <c r="B43" s="48" t="s">
         <v>35</v>
       </c>
@@ -29814,7 +29889,7 @@
       <c r="BA43" s="57"/>
     </row>
     <row r="44" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="183">
+      <c r="A44" s="182">
         <v>11</v>
       </c>
       <c r="B44" s="22">
@@ -29976,7 +30051,7 @@
       <c r="BA44" s="19"/>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A45" s="184"/>
+      <c r="A45" s="183"/>
       <c r="B45" s="32">
         <v>2</v>
       </c>
@@ -30136,7 +30211,7 @@
       <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A46" s="184"/>
+      <c r="A46" s="183"/>
       <c r="B46" s="32">
         <v>3</v>
       </c>
@@ -30296,7 +30371,7 @@
       <c r="BA46" s="40"/>
     </row>
     <row r="47" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="185"/>
+      <c r="A47" s="184"/>
       <c r="B47" s="48" t="s">
         <v>35</v>
       </c>
@@ -30467,7 +30542,7 @@
       <c r="BA47" s="57"/>
     </row>
     <row r="48" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="183">
+      <c r="A48" s="182">
         <v>12</v>
       </c>
       <c r="B48" s="22">
@@ -30629,7 +30704,7 @@
       <c r="BA48" s="19"/>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A49" s="184"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="32">
         <v>2</v>
       </c>
@@ -30789,7 +30864,7 @@
       <c r="BA49" s="44"/>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A50" s="184"/>
+      <c r="A50" s="183"/>
       <c r="B50" s="32">
         <v>3</v>
       </c>
@@ -30949,7 +31024,7 @@
       <c r="BA50" s="40"/>
     </row>
     <row r="51" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="185"/>
+      <c r="A51" s="184"/>
       <c r="B51" s="48" t="s">
         <v>35</v>
       </c>
@@ -31754,7 +31829,7 @@
       <c r="BA55" s="57"/>
     </row>
     <row r="56" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="183">
+      <c r="A56" s="182">
         <v>14</v>
       </c>
       <c r="B56" s="22">
@@ -31918,7 +31993,7 @@
       <c r="BA56" s="19"/>
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A57" s="184"/>
+      <c r="A57" s="183"/>
       <c r="B57" s="32">
         <v>2</v>
       </c>
@@ -32078,7 +32153,7 @@
       <c r="BA57" s="44"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A58" s="184"/>
+      <c r="A58" s="183"/>
       <c r="B58" s="32">
         <v>3</v>
       </c>
@@ -32238,7 +32313,7 @@
       <c r="BA58" s="40"/>
     </row>
     <row r="59" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="185"/>
+      <c r="A59" s="184"/>
       <c r="B59" s="48" t="s">
         <v>35</v>
       </c>
@@ -32409,7 +32484,7 @@
       <c r="BA59" s="57"/>
     </row>
     <row r="60" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="183">
+      <c r="A60" s="182">
         <v>15</v>
       </c>
       <c r="B60" s="22">
@@ -32573,7 +32648,7 @@
       <c r="BA60" s="19"/>
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A61" s="184"/>
+      <c r="A61" s="183"/>
       <c r="B61" s="32">
         <v>2</v>
       </c>
@@ -32733,7 +32808,7 @@
       <c r="BA61" s="44"/>
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A62" s="184"/>
+      <c r="A62" s="183"/>
       <c r="B62" s="32">
         <v>3</v>
       </c>
@@ -32893,7 +32968,7 @@
       <c r="BA62" s="40"/>
     </row>
     <row r="63" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="185"/>
+      <c r="A63" s="184"/>
       <c r="B63" s="48" t="s">
         <v>35</v>
       </c>
@@ -33064,7 +33139,7 @@
       <c r="BA63" s="57"/>
     </row>
     <row r="64" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="183">
+      <c r="A64" s="182">
         <v>16</v>
       </c>
       <c r="B64" s="22">
@@ -33230,7 +33305,7 @@
       <c r="BA64" s="19"/>
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A65" s="184"/>
+      <c r="A65" s="183"/>
       <c r="B65" s="32">
         <v>2</v>
       </c>
@@ -33390,7 +33465,7 @@
       <c r="BA65" s="44"/>
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A66" s="184"/>
+      <c r="A66" s="183"/>
       <c r="B66" s="32">
         <v>3</v>
       </c>
@@ -33550,7 +33625,7 @@
       <c r="BA66" s="40"/>
     </row>
     <row r="67" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="185"/>
+      <c r="A67" s="184"/>
       <c r="B67" s="48" t="s">
         <v>35</v>
       </c>
@@ -33721,7 +33796,7 @@
       <c r="BA67" s="57"/>
     </row>
     <row r="68" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="183">
+      <c r="A68" s="182">
         <v>17</v>
       </c>
       <c r="B68" s="22">
@@ -33885,7 +33960,7 @@
       <c r="BA68" s="19"/>
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A69" s="184"/>
+      <c r="A69" s="183"/>
       <c r="B69" s="32">
         <v>2</v>
       </c>
@@ -34045,7 +34120,7 @@
       <c r="BA69" s="44"/>
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A70" s="184"/>
+      <c r="A70" s="183"/>
       <c r="B70" s="32">
         <v>3</v>
       </c>
@@ -34205,7 +34280,7 @@
       <c r="BA70" s="40"/>
     </row>
     <row r="71" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="185"/>
+      <c r="A71" s="184"/>
       <c r="B71" s="48" t="s">
         <v>35</v>
       </c>
@@ -34376,7 +34451,7 @@
       <c r="BA71" s="57"/>
     </row>
     <row r="72" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="183">
+      <c r="A72" s="182">
         <v>18</v>
       </c>
       <c r="B72" s="22">
@@ -34540,7 +34615,7 @@
       <c r="BA72" s="19"/>
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A73" s="184"/>
+      <c r="A73" s="183"/>
       <c r="B73" s="32">
         <v>2</v>
       </c>
@@ -34700,7 +34775,7 @@
       <c r="BA73" s="44"/>
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A74" s="184"/>
+      <c r="A74" s="183"/>
       <c r="B74" s="32">
         <v>3</v>
       </c>
@@ -34860,7 +34935,7 @@
       <c r="BA74" s="40"/>
     </row>
     <row r="75" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="185"/>
+      <c r="A75" s="184"/>
       <c r="B75" s="48" t="s">
         <v>35</v>
       </c>
@@ -35031,7 +35106,7 @@
       <c r="BA75" s="57"/>
     </row>
     <row r="76" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="183">
+      <c r="A76" s="182">
         <v>19</v>
       </c>
       <c r="B76" s="22">
@@ -35193,7 +35268,7 @@
       <c r="BA76" s="19"/>
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A77" s="184"/>
+      <c r="A77" s="183"/>
       <c r="B77" s="32">
         <v>2</v>
       </c>
@@ -35353,7 +35428,7 @@
       <c r="BA77" s="44"/>
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A78" s="184"/>
+      <c r="A78" s="183"/>
       <c r="B78" s="32">
         <v>3</v>
       </c>
@@ -35513,7 +35588,7 @@
       <c r="BA78" s="40"/>
     </row>
     <row r="79" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="185"/>
+      <c r="A79" s="184"/>
       <c r="B79" s="48" t="s">
         <v>35</v>
       </c>
@@ -35684,7 +35759,7 @@
       <c r="BA79" s="57"/>
     </row>
     <row r="80" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="183">
+      <c r="A80" s="182">
         <v>20</v>
       </c>
       <c r="B80" s="22">
@@ -35846,7 +35921,7 @@
       <c r="BA80" s="19"/>
     </row>
     <row r="81" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A81" s="184"/>
+      <c r="A81" s="183"/>
       <c r="B81" s="32">
         <v>2</v>
       </c>
@@ -36006,7 +36081,7 @@
       <c r="BA81" s="44"/>
     </row>
     <row r="82" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A82" s="184"/>
+      <c r="A82" s="183"/>
       <c r="B82" s="32">
         <v>3</v>
       </c>
@@ -36166,7 +36241,7 @@
       <c r="BA82" s="40"/>
     </row>
     <row r="83" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="185"/>
+      <c r="A83" s="184"/>
       <c r="B83" s="48" t="s">
         <v>35</v>
       </c>
@@ -36337,7 +36412,7 @@
       <c r="BA83" s="57"/>
     </row>
     <row r="84" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="183">
+      <c r="A84" s="182">
         <v>21</v>
       </c>
       <c r="B84" s="22">
@@ -36501,7 +36576,7 @@
       <c r="BA84" s="19"/>
     </row>
     <row r="85" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A85" s="184"/>
+      <c r="A85" s="183"/>
       <c r="B85" s="32">
         <v>2</v>
       </c>
@@ -36661,7 +36736,7 @@
       <c r="BA85" s="44"/>
     </row>
     <row r="86" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A86" s="184"/>
+      <c r="A86" s="183"/>
       <c r="B86" s="32">
         <v>3</v>
       </c>
@@ -36821,7 +36896,7 @@
       <c r="BA86" s="40"/>
     </row>
     <row r="87" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="185"/>
+      <c r="A87" s="184"/>
       <c r="B87" s="48" t="s">
         <v>35</v>
       </c>
@@ -36992,7 +37067,7 @@
       <c r="BA87" s="57"/>
     </row>
     <row r="88" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="183">
+      <c r="A88" s="182">
         <v>22</v>
       </c>
       <c r="B88" s="22">
@@ -37156,7 +37231,7 @@
       <c r="BA88" s="19"/>
     </row>
     <row r="89" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A89" s="184"/>
+      <c r="A89" s="183"/>
       <c r="B89" s="32">
         <v>2</v>
       </c>
@@ -37316,7 +37391,7 @@
       <c r="BA89" s="44"/>
     </row>
     <row r="90" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A90" s="184"/>
+      <c r="A90" s="183"/>
       <c r="B90" s="32">
         <v>3</v>
       </c>
@@ -37476,7 +37551,7 @@
       <c r="BA90" s="40"/>
     </row>
     <row r="91" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="185"/>
+      <c r="A91" s="184"/>
       <c r="B91" s="48" t="s">
         <v>35</v>
       </c>
@@ -37647,7 +37722,7 @@
       <c r="BA91" s="57"/>
     </row>
     <row r="92" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="183">
+      <c r="A92" s="182">
         <v>23</v>
       </c>
       <c r="B92" s="22">
@@ -37811,7 +37886,7 @@
       <c r="BA92" s="19"/>
     </row>
     <row r="93" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A93" s="184"/>
+      <c r="A93" s="183"/>
       <c r="B93" s="32">
         <v>2</v>
       </c>
@@ -37969,7 +38044,7 @@
       <c r="BA93" s="44"/>
     </row>
     <row r="94" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A94" s="184"/>
+      <c r="A94" s="183"/>
       <c r="B94" s="32">
         <v>3</v>
       </c>
@@ -38123,7 +38198,7 @@
       <c r="BA94" s="40"/>
     </row>
     <row r="95" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="185"/>
+      <c r="A95" s="184"/>
       <c r="B95" s="48" t="s">
         <v>35</v>
       </c>
@@ -38294,7 +38369,7 @@
       <c r="BA95" s="57"/>
     </row>
     <row r="96" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="183">
+      <c r="A96" s="182">
         <v>24</v>
       </c>
       <c r="B96" s="22">
@@ -38458,7 +38533,7 @@
       <c r="BA96" s="19"/>
     </row>
     <row r="97" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A97" s="184"/>
+      <c r="A97" s="183"/>
       <c r="B97" s="32">
         <v>2</v>
       </c>
@@ -38618,7 +38693,7 @@
       <c r="BA97" s="44"/>
     </row>
     <row r="98" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A98" s="184"/>
+      <c r="A98" s="183"/>
       <c r="B98" s="32">
         <v>3</v>
       </c>
@@ -38778,7 +38853,7 @@
       <c r="BA98" s="40"/>
     </row>
     <row r="99" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="185"/>
+      <c r="A99" s="184"/>
       <c r="B99" s="48" t="s">
         <v>35</v>
       </c>
@@ -38949,7 +39024,7 @@
       <c r="BA99" s="57"/>
     </row>
     <row r="100" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="186">
+      <c r="A100" s="192">
         <v>25</v>
       </c>
       <c r="B100" s="32">
@@ -39113,7 +39188,7 @@
       <c r="BA100" s="19"/>
     </row>
     <row r="101" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A101" s="186"/>
+      <c r="A101" s="192"/>
       <c r="B101" s="32">
         <v>2</v>
       </c>
@@ -39273,7 +39348,7 @@
       <c r="BA101" s="44"/>
     </row>
     <row r="102" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A102" s="186"/>
+      <c r="A102" s="192"/>
       <c r="B102" s="32">
         <v>3</v>
       </c>
@@ -39433,7 +39508,7 @@
       <c r="BA102" s="40"/>
     </row>
     <row r="103" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="186"/>
+      <c r="A103" s="192"/>
       <c r="B103" s="65" t="s">
         <v>35</v>
       </c>
@@ -39604,7 +39679,7 @@
       <c r="BA103" s="57"/>
     </row>
     <row r="104" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="183">
+      <c r="A104" s="182">
         <v>26</v>
       </c>
       <c r="B104" s="22">
@@ -39766,7 +39841,7 @@
       <c r="BA104" s="19"/>
     </row>
     <row r="105" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A105" s="184"/>
+      <c r="A105" s="183"/>
       <c r="B105" s="32">
         <v>2</v>
       </c>
@@ -39926,7 +40001,7 @@
       <c r="BA105" s="44"/>
     </row>
     <row r="106" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A106" s="184"/>
+      <c r="A106" s="183"/>
       <c r="B106" s="32">
         <v>3</v>
       </c>
@@ -40086,7 +40161,7 @@
       <c r="BA106" s="40"/>
     </row>
     <row r="107" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="185"/>
+      <c r="A107" s="184"/>
       <c r="B107" s="48" t="s">
         <v>35</v>
       </c>
@@ -40257,7 +40332,7 @@
       <c r="BA107" s="57"/>
     </row>
     <row r="108" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="183">
+      <c r="A108" s="182">
         <v>27</v>
       </c>
       <c r="B108" s="22">
@@ -40419,7 +40494,7 @@
       <c r="BA108" s="19"/>
     </row>
     <row r="109" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A109" s="184"/>
+      <c r="A109" s="183"/>
       <c r="B109" s="32">
         <v>2</v>
       </c>
@@ -40575,7 +40650,7 @@
       <c r="BA109" s="44"/>
     </row>
     <row r="110" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A110" s="184"/>
+      <c r="A110" s="183"/>
       <c r="B110" s="32">
         <v>3</v>
       </c>
@@ -40725,7 +40800,7 @@
       <c r="BA110" s="40"/>
     </row>
     <row r="111" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="185"/>
+      <c r="A111" s="184"/>
       <c r="B111" s="48" t="s">
         <v>35</v>
       </c>
@@ -40896,7 +40971,7 @@
       <c r="BA111" s="57"/>
     </row>
     <row r="112" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="183">
+      <c r="A112" s="182">
         <v>28</v>
       </c>
       <c r="B112" s="22">
@@ -41060,7 +41135,7 @@
       <c r="BA112" s="19"/>
     </row>
     <row r="113" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A113" s="184"/>
+      <c r="A113" s="183"/>
       <c r="B113" s="32">
         <v>2</v>
       </c>
@@ -41220,7 +41295,7 @@
       <c r="BA113" s="44"/>
     </row>
     <row r="114" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A114" s="184"/>
+      <c r="A114" s="183"/>
       <c r="B114" s="32">
         <v>3</v>
       </c>
@@ -41380,7 +41455,7 @@
       <c r="BA114" s="40"/>
     </row>
     <row r="115" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="185"/>
+      <c r="A115" s="184"/>
       <c r="B115" s="48" t="s">
         <v>35</v>
       </c>
@@ -41551,7 +41626,7 @@
       <c r="BA115" s="57"/>
     </row>
     <row r="116" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="184">
+      <c r="A116" s="183">
         <v>29</v>
       </c>
       <c r="B116" s="32">
@@ -41715,7 +41790,7 @@
       <c r="BA116" s="19"/>
     </row>
     <row r="117" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A117" s="184"/>
+      <c r="A117" s="183"/>
       <c r="B117" s="32">
         <v>2</v>
       </c>
@@ -41875,7 +41950,7 @@
       <c r="BA117" s="44"/>
     </row>
     <row r="118" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A118" s="184"/>
+      <c r="A118" s="183"/>
       <c r="B118" s="32">
         <v>3</v>
       </c>
@@ -42035,7 +42110,7 @@
       <c r="BA118" s="40"/>
     </row>
     <row r="119" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="185"/>
+      <c r="A119" s="184"/>
       <c r="B119" s="48" t="s">
         <v>35</v>
       </c>
@@ -42206,7 +42281,7 @@
       <c r="BA119" s="57"/>
     </row>
     <row r="120" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="183">
+      <c r="A120" s="182">
         <v>30</v>
       </c>
       <c r="B120" s="22">
@@ -42370,7 +42445,7 @@
       <c r="BA120" s="19"/>
     </row>
     <row r="121" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A121" s="184"/>
+      <c r="A121" s="183"/>
       <c r="B121" s="32">
         <v>2</v>
       </c>
@@ -42530,7 +42605,7 @@
       <c r="BA121" s="44"/>
     </row>
     <row r="122" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A122" s="184"/>
+      <c r="A122" s="183"/>
       <c r="B122" s="32">
         <v>3</v>
       </c>
@@ -42690,7 +42765,7 @@
       <c r="BA122" s="40"/>
     </row>
     <row r="123" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="185"/>
+      <c r="A123" s="184"/>
       <c r="B123" s="48" t="s">
         <v>35</v>
       </c>
@@ -42861,7 +42936,7 @@
       <c r="BA123" s="57"/>
     </row>
     <row r="124" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="183">
+      <c r="A124" s="182">
         <v>31</v>
       </c>
       <c r="B124" s="22">
@@ -43025,7 +43100,7 @@
       <c r="BA124" s="19"/>
     </row>
     <row r="125" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A125" s="184"/>
+      <c r="A125" s="183"/>
       <c r="B125" s="32">
         <v>2</v>
       </c>
@@ -43181,7 +43256,7 @@
       <c r="BA125" s="44"/>
     </row>
     <row r="126" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A126" s="184"/>
+      <c r="A126" s="183"/>
       <c r="B126" s="32">
         <v>3</v>
       </c>
@@ -43331,7 +43406,7 @@
       <c r="BA126" s="40"/>
     </row>
     <row r="127" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="185"/>
+      <c r="A127" s="184"/>
       <c r="B127" s="48" t="s">
         <v>35</v>
       </c>
@@ -43767,16 +43842,18 @@
     <protectedRange sqref="AB112:AB127" name="Range1_1_1_1_1_2_2_1_1_4"/>
   </protectedRanges>
   <mergeCells count="35">
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A56:A59"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A32:A35"/>
@@ -43790,18 +43867,16 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -43810,23 +43885,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6555BB66-49A2-4157-88D4-D9BD7AEDD16F}">
-  <dimension ref="A1:BA27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6555BB66-49A2-4157-88D4-D9BD7AEDD16F}">
+  <dimension ref="A1:BA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="185" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -43955,19 +44030,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="182" t="s">
+      <c r="AX1" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="182"/>
-      <c r="AZ1" s="182" t="s">
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="182"/>
+      <c r="BA1" s="191"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="192"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="188"/>
+      <c r="A2" s="190"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="186"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -44158,7 +44233,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183">
+      <c r="A4" s="182">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -44280,7 +44355,7 @@
         <v>0.89341832658664044</v>
       </c>
       <c r="AK4" s="59">
-        <f t="shared" ref="AK4:AK27" si="6">IF(AND(AE4&gt;0,AN4&gt;0,AF4&gt;0),((AN4*(AE4-AF4))/(AE4*(AN4-AF4))),0)</f>
+        <f t="shared" ref="AK4:AK43" si="6">IF(AND(AE4&gt;0,AN4&gt;0,AF4&gt;0),((AN4*(AE4-AF4))/(AE4*(AN4-AF4))),0)</f>
         <v>0.89517063729570767</v>
       </c>
       <c r="AL4" s="11">
@@ -44322,7 +44397,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="184"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -44482,7 +44557,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="184"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -44642,7 +44717,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="184"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -44813,7 +44888,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="183">
+      <c r="A8" s="182">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -44975,7 +45050,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="184"/>
+      <c r="A9" s="183"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -45135,7 +45210,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="184"/>
+      <c r="A10" s="183"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -45295,7 +45370,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="184"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -45466,7 +45541,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="183">
+      <c r="A12" s="182">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -45628,7 +45703,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="184"/>
+      <c r="A13" s="183"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -45784,7 +45859,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="184"/>
+      <c r="A14" s="183"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -45934,7 +46009,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="184"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -46105,7 +46180,7 @@
       <c r="BA15" s="57"/>
     </row>
     <row r="16" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="183">
+      <c r="A16" s="182">
         <v>4</v>
       </c>
       <c r="B16" s="22">
@@ -46269,7 +46344,7 @@
       <c r="BA16" s="19"/>
     </row>
     <row r="17" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="184"/>
+      <c r="A17" s="183"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -46429,7 +46504,7 @@
       <c r="BA17" s="44"/>
     </row>
     <row r="18" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="184"/>
+      <c r="A18" s="183"/>
       <c r="B18" s="32">
         <v>3</v>
       </c>
@@ -46589,7 +46664,7 @@
       <c r="BA18" s="40"/>
     </row>
     <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+      <c r="A19" s="184"/>
       <c r="B19" s="48" t="s">
         <v>35</v>
       </c>
@@ -46760,7 +46835,7 @@
       <c r="BA19" s="57"/>
     </row>
     <row r="20" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="183">
+      <c r="A20" s="182">
         <v>5</v>
       </c>
       <c r="B20" s="22">
@@ -46924,7 +46999,7 @@
       <c r="BA20" s="19"/>
     </row>
     <row r="21" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="184"/>
+      <c r="A21" s="183"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
@@ -47084,7 +47159,7 @@
       <c r="BA21" s="44"/>
     </row>
     <row r="22" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="184"/>
+      <c r="A22" s="183"/>
       <c r="B22" s="32">
         <v>3</v>
       </c>
@@ -47244,7 +47319,7 @@
       <c r="BA22" s="40"/>
     </row>
     <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="185"/>
+      <c r="A23" s="184"/>
       <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
@@ -47415,7 +47490,7 @@
       <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="183">
+      <c r="A24" s="182">
         <v>6</v>
       </c>
       <c r="B24" s="22">
@@ -47579,7 +47654,7 @@
       <c r="BA24" s="19"/>
     </row>
     <row r="25" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="184"/>
+      <c r="A25" s="183"/>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -47735,7 +47810,7 @@
       <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="184"/>
+      <c r="A26" s="183"/>
       <c r="B26" s="32">
         <v>3</v>
       </c>
@@ -47885,7 +47960,7 @@
       <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
+      <c r="A27" s="184"/>
       <c r="B27" s="48" t="s">
         <v>35</v>
       </c>
@@ -48054,6 +48129,2612 @@
       <c r="AY27" s="57"/>
       <c r="AZ27" s="57"/>
       <c r="BA27" s="57"/>
+    </row>
+    <row r="28" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="182">
+        <v>7</v>
+      </c>
+      <c r="B28" s="22">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="11">
+        <v>4689</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0</v>
+      </c>
+      <c r="F28" s="11">
+        <v>10802</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="H28" s="12">
+        <v>6.3</v>
+      </c>
+      <c r="I28" s="11">
+        <v>11293</v>
+      </c>
+      <c r="J28" s="12">
+        <v>5</v>
+      </c>
+      <c r="K28" s="11">
+        <v>16237</v>
+      </c>
+      <c r="L28" s="13">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M28" s="23">
+        <f>ROUND(K28*(1-L28),0)</f>
+        <v>15182</v>
+      </c>
+      <c r="N28" s="14">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="O28" s="24">
+        <f t="shared" ref="O28:O30" si="228">M28*N28</f>
+        <v>9640.57</v>
+      </c>
+      <c r="P28" s="13">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="Q28" s="24">
+        <f t="shared" ref="Q28:Q30" si="229">M28*P28</f>
+        <v>4433.1439999999993</v>
+      </c>
+      <c r="R28" s="15">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="S28" s="143">
+        <v>0.2127</v>
+      </c>
+      <c r="T28" s="24">
+        <f t="shared" ref="T28:T30" si="230">M28*R28</f>
+        <v>1108.2859999999998</v>
+      </c>
+      <c r="U28" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="V28" s="24">
+        <f t="shared" ref="V28:V30" si="231">M28*U28</f>
+        <v>3340.04</v>
+      </c>
+      <c r="W28" s="15">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="X28" s="24">
+        <f t="shared" ref="X28:X30" si="232">M28*W28</f>
+        <v>7727.6379999999999</v>
+      </c>
+      <c r="Y28" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="Z28" s="24">
+        <f t="shared" ref="Z28:Z30" si="233">Y28*M28</f>
+        <v>6376.44</v>
+      </c>
+      <c r="AA28" s="145">
+        <v>2.4399999999999999E-3</v>
+      </c>
+      <c r="AB28" s="18">
+        <f t="shared" ref="AB28:AB42" si="234">M28*AA28</f>
+        <v>37.044080000000001</v>
+      </c>
+      <c r="AC28" s="16">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="AD28" s="17">
+        <f t="shared" ref="AD28:AD30" si="235">M28*AC28</f>
+        <v>36.588619999999999</v>
+      </c>
+      <c r="AE28" s="26">
+        <f>IF(M28&gt;0,(AG28+AP28)/M28,0)</f>
+        <v>2.502063917797392E-3</v>
+      </c>
+      <c r="AF28" s="16">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="AG28" s="23">
+        <f t="shared" ref="AG28:AG30" si="236">AF28*M28</f>
+        <v>4.2509599999999992</v>
+      </c>
+      <c r="AH28" s="114">
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="AI28" s="29">
+        <f t="shared" ref="AI28:AI30" si="237">AL28*(1-AM28)*AH28</f>
+        <v>31.016772800000002</v>
+      </c>
+      <c r="AJ28" s="27">
+        <f t="shared" ref="AJ28:AJ30" si="238">IF(AND(AH28&gt;0,AF28&gt;0,AC28&gt;0),((AC28-AF28)*AH28)/((AH28-AF28)*AC28),0)</f>
+        <v>0.88505156303155375</v>
+      </c>
+      <c r="AK28" s="59">
+        <f t="shared" si="6"/>
+        <v>0.88923242882086251</v>
+      </c>
+      <c r="AL28" s="11">
+        <v>169</v>
+      </c>
+      <c r="AM28" s="13">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AN28" s="14">
+        <v>0.21840000000000001</v>
+      </c>
+      <c r="AO28" s="130">
+        <v>0.21460000000000001</v>
+      </c>
+      <c r="AP28" s="29">
+        <f>AL28*(1-AM28)*AN28</f>
+        <v>33.735374400000005</v>
+      </c>
+      <c r="AQ28" s="131">
+        <f t="shared" ref="AQ28:AQ42" si="239">AL28*(1-AM28)*AO28</f>
+        <v>33.148403600000002</v>
+      </c>
+      <c r="AR28" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="AS28" s="18">
+        <v>945.38</v>
+      </c>
+      <c r="AT28" s="98">
+        <f>AT26+AL28-AS28+AU28</f>
+        <v>217.70000000000027</v>
+      </c>
+      <c r="AU28" s="99">
+        <v>25.86</v>
+      </c>
+      <c r="AV28" s="11"/>
+      <c r="AW28" s="30"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="19"/>
+      <c r="AZ28" s="19"/>
+      <c r="BA28" s="19"/>
+    </row>
+    <row r="29" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="183"/>
+      <c r="B29" s="32">
+        <v>2</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="33">
+        <v>21308</v>
+      </c>
+      <c r="E29" s="33">
+        <v>3</v>
+      </c>
+      <c r="F29" s="33">
+        <v>16890</v>
+      </c>
+      <c r="G29" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="H29" s="34">
+        <v>6.9</v>
+      </c>
+      <c r="I29" s="33">
+        <v>16685</v>
+      </c>
+      <c r="J29" s="34">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K29" s="33">
+        <v>16462</v>
+      </c>
+      <c r="L29" s="35">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="M29" s="36">
+        <f>ROUND(K29*(1-L29),0)</f>
+        <v>15326</v>
+      </c>
+      <c r="N29" s="37">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="O29" s="24">
+        <f t="shared" si="228"/>
+        <v>10176.464</v>
+      </c>
+      <c r="P29" s="35">
+        <v>0.248</v>
+      </c>
+      <c r="Q29" s="24">
+        <f t="shared" si="229"/>
+        <v>3800.848</v>
+      </c>
+      <c r="R29" s="38">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="S29" s="134">
+        <v>0.2046</v>
+      </c>
+      <c r="T29" s="24">
+        <f t="shared" si="230"/>
+        <v>1348.6879999999999</v>
+      </c>
+      <c r="U29" s="27">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="V29" s="24">
+        <f t="shared" si="231"/>
+        <v>3463.6759999999999</v>
+      </c>
+      <c r="W29" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="X29" s="24">
+        <f t="shared" si="232"/>
+        <v>7663</v>
+      </c>
+      <c r="Y29" s="38">
+        <v>0.43</v>
+      </c>
+      <c r="Z29" s="24">
+        <f t="shared" si="233"/>
+        <v>6590.18</v>
+      </c>
+      <c r="AA29" s="146">
+        <v>2.3400000000000001E-3</v>
+      </c>
+      <c r="AB29" s="18">
+        <f t="shared" si="234"/>
+        <v>35.862839999999998</v>
+      </c>
+      <c r="AC29" s="39">
+        <v>2.2699999999999999E-3</v>
+      </c>
+      <c r="AD29" s="17">
+        <f t="shared" si="235"/>
+        <v>34.790019999999998</v>
+      </c>
+      <c r="AE29" s="26">
+        <f>IF(M29&gt;0,(AG29+AP29)/M29,0)</f>
+        <v>2.4929061725172908E-3</v>
+      </c>
+      <c r="AF29" s="39">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="AG29" s="36">
+        <f t="shared" si="236"/>
+        <v>4.2912799999999995</v>
+      </c>
+      <c r="AH29" s="27">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="AI29" s="40">
+        <f t="shared" si="237"/>
+        <v>33.196799999999996</v>
+      </c>
+      <c r="AJ29" s="27">
+        <f t="shared" si="238"/>
+        <v>0.87783368156557751</v>
+      </c>
+      <c r="AK29" s="28">
+        <f t="shared" si="6"/>
+        <v>0.88885248604944422</v>
+      </c>
+      <c r="AL29" s="33">
+        <v>175</v>
+      </c>
+      <c r="AM29" s="35">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AN29" s="37">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="AO29" s="132">
+        <v>0.215</v>
+      </c>
+      <c r="AP29" s="40">
+        <f>AL29*(1-AM29)*AN29</f>
+        <v>33.914999999999999</v>
+      </c>
+      <c r="AQ29" s="133">
+        <f t="shared" si="239"/>
+        <v>34.314</v>
+      </c>
+      <c r="AR29" s="41">
+        <v>1.6</v>
+      </c>
+      <c r="AS29" s="41"/>
+      <c r="AT29" s="117">
+        <f>AT28+AL29-AS29</f>
+        <v>392.70000000000027</v>
+      </c>
+      <c r="AU29" s="101"/>
+      <c r="AV29" s="42"/>
+      <c r="AW29" s="43"/>
+      <c r="AX29" s="44"/>
+      <c r="AY29" s="44"/>
+      <c r="AZ29" s="44"/>
+      <c r="BA29" s="44"/>
+    </row>
+    <row r="30" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="183"/>
+      <c r="B30" s="32">
+        <v>3</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="42">
+        <v>21400</v>
+      </c>
+      <c r="E30" s="42">
+        <v>0</v>
+      </c>
+      <c r="F30" s="42">
+        <v>20271</v>
+      </c>
+      <c r="G30" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="H30" s="36">
+        <v>7.1</v>
+      </c>
+      <c r="I30" s="42">
+        <v>19493</v>
+      </c>
+      <c r="J30" s="36">
+        <v>3.8</v>
+      </c>
+      <c r="K30" s="42">
+        <v>16722</v>
+      </c>
+      <c r="L30" s="38">
+        <v>6.3E-2</v>
+      </c>
+      <c r="M30" s="36">
+        <f>ROUND(K30*(1-L30),0)</f>
+        <v>15669</v>
+      </c>
+      <c r="N30" s="27">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="O30" s="24">
+        <f t="shared" si="228"/>
+        <v>11454.038999999999</v>
+      </c>
+      <c r="P30" s="38">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="Q30" s="24">
+        <f t="shared" si="229"/>
+        <v>3572.5320000000002</v>
+      </c>
+      <c r="R30" s="38">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="S30" s="134">
+        <v>0.2046</v>
+      </c>
+      <c r="T30" s="24">
+        <f t="shared" si="230"/>
+        <v>642.42899999999997</v>
+      </c>
+      <c r="U30" s="27">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="V30" s="24">
+        <f t="shared" si="231"/>
+        <v>3697.884</v>
+      </c>
+      <c r="W30" s="38">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="X30" s="24">
+        <f t="shared" si="232"/>
+        <v>7662.1409999999996</v>
+      </c>
+      <c r="Y30" s="38">
+        <v>0.43</v>
+      </c>
+      <c r="Z30" s="24">
+        <f t="shared" si="233"/>
+        <v>6737.67</v>
+      </c>
+      <c r="AA30" s="147">
+        <v>2.2599999999999999E-3</v>
+      </c>
+      <c r="AB30" s="148">
+        <f t="shared" si="234"/>
+        <v>35.411939999999994</v>
+      </c>
+      <c r="AC30" s="46">
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="AD30" s="17">
+        <f t="shared" si="235"/>
+        <v>35.098559999999999</v>
+      </c>
+      <c r="AE30" s="26">
+        <f>IF(M30&gt;0,(AG30+AP30)/M30,0)</f>
+        <v>2.2718091263003387E-3</v>
+      </c>
+      <c r="AF30" s="46">
+        <v>2.9E-4</v>
+      </c>
+      <c r="AG30" s="36">
+        <f t="shared" si="236"/>
+        <v>4.5440100000000001</v>
+      </c>
+      <c r="AH30" s="27">
+        <v>0.2059</v>
+      </c>
+      <c r="AI30" s="40">
+        <f t="shared" si="237"/>
+        <v>29.546238200000005</v>
+      </c>
+      <c r="AJ30" s="27">
+        <f t="shared" si="238"/>
+        <v>0.87176355027201291</v>
+      </c>
+      <c r="AK30" s="28">
+        <f t="shared" si="6"/>
+        <v>0.87351904314992213</v>
+      </c>
+      <c r="AL30" s="42">
+        <v>157</v>
+      </c>
+      <c r="AM30" s="38">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AN30" s="27">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="AO30" s="134">
+        <v>0.2185</v>
+      </c>
+      <c r="AP30" s="40">
+        <f>AL30*(1-AM30)*AN30</f>
+        <v>31.052967200000005</v>
+      </c>
+      <c r="AQ30" s="135">
+        <f t="shared" si="239"/>
+        <v>31.354313000000005</v>
+      </c>
+      <c r="AR30" s="17">
+        <v>1.55</v>
+      </c>
+      <c r="AS30" s="17"/>
+      <c r="AT30" s="117">
+        <f>AT29+AL30-AS30</f>
+        <v>549.70000000000027</v>
+      </c>
+      <c r="AU30" s="101"/>
+      <c r="AV30" s="42"/>
+      <c r="AW30" s="47"/>
+      <c r="AX30" s="40"/>
+      <c r="AY30" s="40"/>
+      <c r="AZ30" s="40"/>
+      <c r="BA30" s="40"/>
+    </row>
+    <row r="31" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="184"/>
+      <c r="B31" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="49"/>
+      <c r="D31" s="50">
+        <f t="shared" ref="D31" si="240">SUM(D28:D30)</f>
+        <v>47397</v>
+      </c>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50">
+        <f t="shared" ref="F31" si="241">SUM(F28:F30)</f>
+        <v>47963</v>
+      </c>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="50">
+        <f t="shared" ref="I31:K31" si="242">SUM(I28:I30)</f>
+        <v>47471</v>
+      </c>
+      <c r="J31" s="51"/>
+      <c r="K31" s="50">
+        <f t="shared" si="242"/>
+        <v>49421</v>
+      </c>
+      <c r="L31" s="20">
+        <f t="shared" ref="L31" si="243">IF(K31&gt;0,(K28*L28+K29*L29+K30*L30)/K31,0)</f>
+        <v>6.5655672689747271E-2</v>
+      </c>
+      <c r="M31" s="51">
+        <f t="shared" ref="M31" si="244">M28+M29+M30</f>
+        <v>46177</v>
+      </c>
+      <c r="N31" s="52">
+        <f t="shared" ref="N31" si="245">IF(M31&gt;0,O31/M31,0)</f>
+        <v>0.67720018623990286</v>
+      </c>
+      <c r="O31" s="53">
+        <f t="shared" ref="O31" si="246">O28+O29+O30</f>
+        <v>31271.072999999997</v>
+      </c>
+      <c r="P31" s="20">
+        <f t="shared" ref="P31" si="247">IF(M31&gt;0,Q31/M31,0)</f>
+        <v>0.25567975399008158</v>
+      </c>
+      <c r="Q31" s="53">
+        <f t="shared" ref="Q31" si="248">Q28+Q29+Q30</f>
+        <v>11806.523999999998</v>
+      </c>
+      <c r="R31" s="20">
+        <f t="shared" ref="R31" si="249">IF(M31&gt;0,T31/M31,0)</f>
+        <v>6.7120059770015367E-2</v>
+      </c>
+      <c r="S31" s="136"/>
+      <c r="T31" s="53">
+        <f t="shared" ref="T31" si="250">T28+T29+T30</f>
+        <v>3099.4029999999998</v>
+      </c>
+      <c r="U31" s="20">
+        <f t="shared" ref="U31" si="251">IF(M31&gt;0,V31/M31,0)</f>
+        <v>0.22742057734369925</v>
+      </c>
+      <c r="V31" s="53">
+        <f t="shared" ref="V31" si="252">V28+V29+V30</f>
+        <v>10501.6</v>
+      </c>
+      <c r="W31" s="20">
+        <f t="shared" ref="W31" si="253">IF(M31&gt;0,X31/M31,0)</f>
+        <v>0.49922643307274184</v>
+      </c>
+      <c r="X31" s="53">
+        <f t="shared" ref="X31" si="254">X28+X29+X30</f>
+        <v>23052.778999999999</v>
+      </c>
+      <c r="Y31" s="20">
+        <f t="shared" ref="Y31" si="255">IF(M31&gt;0,Z31/M31,0)</f>
+        <v>0.42671221603828746</v>
+      </c>
+      <c r="Z31" s="53">
+        <f t="shared" ref="Z31" si="256">Z28+Z29+Z30</f>
+        <v>19704.29</v>
+      </c>
+      <c r="AA31" s="152">
+        <f t="shared" ref="AA31" si="257">IF(M31&gt;0,AB31/M31,0)</f>
+        <v>2.3457318578513115E-3</v>
+      </c>
+      <c r="AB31" s="55">
+        <f t="shared" ref="AB31" si="258">SUM(AB28:AB30)</f>
+        <v>108.31886</v>
+      </c>
+      <c r="AC31" s="54">
+        <f t="shared" ref="AC31" si="259">IF(M31&gt;0,AD31/M31,0)</f>
+        <v>2.305849232301795E-3</v>
+      </c>
+      <c r="AD31" s="55">
+        <f t="shared" ref="AD31" si="260">SUM(AD28:AD30)</f>
+        <v>106.47719999999998</v>
+      </c>
+      <c r="AE31" s="54">
+        <f t="shared" ref="AE31" si="261">IF(M31&gt;0,(AE28*M28+AE29*M29+AE30*M30)/M31,0)</f>
+        <v>2.4208933365095177E-3</v>
+      </c>
+      <c r="AF31" s="54">
+        <f t="shared" ref="AF31" si="262">IF(K31&gt;0,(K28*AF28+K29*AF29+K30*AF30)/K31,0)</f>
+        <v>2.8338358187814892E-4</v>
+      </c>
+      <c r="AG31" s="51">
+        <f t="shared" ref="AG31" si="263">SUM(AG28:AG30)</f>
+        <v>13.08625</v>
+      </c>
+      <c r="AH31" s="52">
+        <f t="shared" ref="AH31" si="264">IF(K31&gt;0,(K28*AH28+K29*AH29+K30*AH30)/K31,0)</f>
+        <v>0.20492392707553467</v>
+      </c>
+      <c r="AI31" s="57">
+        <f t="shared" ref="AI31" si="265">SUM(AI28:AI30)</f>
+        <v>93.759810999999999</v>
+      </c>
+      <c r="AJ31" s="52">
+        <f t="shared" ref="AJ31" si="266">IF(AND(AD31&gt;0),((AD28*AJ28+AD29*AJ29+AD30*AJ30)/AD31),0)</f>
+        <v>0.87831302789275933</v>
+      </c>
+      <c r="AK31" s="56">
+        <f t="shared" si="6"/>
+        <v>0.88410376839387994</v>
+      </c>
+      <c r="AL31" s="50">
+        <f t="shared" ref="AL31" si="267">SUM(AL28:AL30)</f>
+        <v>501</v>
+      </c>
+      <c r="AM31" s="20">
+        <f t="shared" ref="AM31" si="268">IF(AL31&gt;0,(AM28*AL28+AM29*AL29+AM30*AL30)/AL31,0)</f>
+        <v>8.6698602794411161E-2</v>
+      </c>
+      <c r="AN31" s="52">
+        <f>IF(K31&gt;0,(AN28*K28+AN29*K29+AN30*K30)/K31,0)</f>
+        <v>0.21575800975293905</v>
+      </c>
+      <c r="AO31" s="136">
+        <f>IF(L31&gt;0,(AO28*K28+AO29*K29+AO30*K30)/K31,0)</f>
+        <v>0.21605283583901577</v>
+      </c>
+      <c r="AP31" s="57">
+        <f t="shared" ref="AP31" si="269">SUM(AP28:AP30)</f>
+        <v>98.703341600000016</v>
+      </c>
+      <c r="AQ31" s="137">
+        <f t="shared" ref="AQ31:AQ43" si="270">SUM(AQ28:AQ30)</f>
+        <v>98.816716600000007</v>
+      </c>
+      <c r="AR31" s="55"/>
+      <c r="AS31" s="55">
+        <f t="shared" ref="AS31" si="271">SUM(AS28:AS30)</f>
+        <v>945.38</v>
+      </c>
+      <c r="AT31" s="102"/>
+      <c r="AU31" s="103">
+        <f>AT30</f>
+        <v>549.70000000000027</v>
+      </c>
+      <c r="AV31" s="50">
+        <f t="shared" ref="AV31" si="272">SUM(AV28:AV30)</f>
+        <v>0</v>
+      </c>
+      <c r="AW31" s="58"/>
+      <c r="AX31" s="57"/>
+      <c r="AY31" s="57"/>
+      <c r="AZ31" s="57"/>
+      <c r="BA31" s="57"/>
+    </row>
+    <row r="32" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="182">
+        <v>8</v>
+      </c>
+      <c r="B32" s="22">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="11">
+        <v>4712</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>10240</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="H32" s="12">
+        <v>7.2</v>
+      </c>
+      <c r="I32" s="11">
+        <v>10664</v>
+      </c>
+      <c r="J32" s="12">
+        <v>5</v>
+      </c>
+      <c r="K32" s="11">
+        <v>16512</v>
+      </c>
+      <c r="L32" s="13">
+        <v>6.3E-2</v>
+      </c>
+      <c r="M32" s="23">
+        <f>ROUND(K32*(1-L32),0)</f>
+        <v>15472</v>
+      </c>
+      <c r="N32" s="14">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="O32" s="24">
+        <f t="shared" ref="O32:O34" si="273">M32*N32</f>
+        <v>10103.216</v>
+      </c>
+      <c r="P32" s="13">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="Q32" s="24">
+        <f t="shared" ref="Q32:Q34" si="274">M32*P32</f>
+        <v>4471.4079999999994</v>
+      </c>
+      <c r="R32" s="15">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="S32" s="143">
+        <v>0.19539999999999999</v>
+      </c>
+      <c r="T32" s="24">
+        <f t="shared" ref="T32:T34" si="275">M32*R32</f>
+        <v>897.37600000000009</v>
+      </c>
+      <c r="U32" s="25">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="V32" s="24">
+        <f t="shared" ref="V32:V34" si="276">M32*U32</f>
+        <v>3620.4480000000003</v>
+      </c>
+      <c r="W32" s="15">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="X32" s="24">
+        <f t="shared" ref="X32:X34" si="277">M32*W32</f>
+        <v>7937.1360000000004</v>
+      </c>
+      <c r="Y32" s="15">
+        <v>0.43</v>
+      </c>
+      <c r="Z32" s="24">
+        <f t="shared" ref="Z32:Z34" si="278">Y32*M32</f>
+        <v>6652.96</v>
+      </c>
+      <c r="AA32" s="145">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AB32" s="18">
+        <f t="shared" ref="AB32" si="279">M32*AA32</f>
+        <v>37.132799999999996</v>
+      </c>
+      <c r="AC32" s="16">
+        <v>2.2200000000000002E-3</v>
+      </c>
+      <c r="AD32" s="17">
+        <f t="shared" ref="AD32:AD34" si="280">M32*AC32</f>
+        <v>34.347840000000005</v>
+      </c>
+      <c r="AE32" s="26">
+        <f>IF(M32&gt;0,(AG32+AP32)/M32,0)</f>
+        <v>2.4293580920372281E-3</v>
+      </c>
+      <c r="AF32" s="16">
+        <v>3.3E-4</v>
+      </c>
+      <c r="AG32" s="23">
+        <f t="shared" ref="AG32:AG34" si="281">AF32*M32</f>
+        <v>5.1057600000000001</v>
+      </c>
+      <c r="AH32" s="114">
+        <v>0.1973</v>
+      </c>
+      <c r="AI32" s="29">
+        <f t="shared" ref="AI32:AI34" si="282">AL32*(1-AM32)*AH32</f>
+        <v>32.3500972</v>
+      </c>
+      <c r="AJ32" s="27">
+        <f t="shared" ref="AJ32:AJ34" si="283">IF(AND(AH32&gt;0,AF32&gt;0,AC32&gt;0),((AC32-AF32)*AH32)/((AH32-AF32)*AC32),0)</f>
+        <v>0.85277769011332494</v>
+      </c>
+      <c r="AK32" s="59">
+        <f t="shared" si="6"/>
+        <v>0.86560359225090011</v>
+      </c>
+      <c r="AL32" s="11">
+        <v>179</v>
+      </c>
+      <c r="AM32" s="13">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AN32" s="14">
+        <v>0.1981</v>
+      </c>
+      <c r="AO32" s="130">
+        <v>0.1958</v>
+      </c>
+      <c r="AP32" s="29">
+        <f>AL32*(1-AM32)*AN32</f>
+        <v>32.481268399999998</v>
+      </c>
+      <c r="AQ32" s="131">
+        <f t="shared" ref="AQ32" si="284">AL32*(1-AM32)*AO32</f>
+        <v>32.104151199999997</v>
+      </c>
+      <c r="AR32" s="18">
+        <v>1.55</v>
+      </c>
+      <c r="AS32" s="18">
+        <v>502.22</v>
+      </c>
+      <c r="AT32" s="98">
+        <f>AT30+AL32-AS32-AU32</f>
+        <v>219.48000000000025</v>
+      </c>
+      <c r="AU32" s="99">
+        <v>7</v>
+      </c>
+      <c r="AV32" s="11"/>
+      <c r="AW32" s="30"/>
+      <c r="AX32" s="19"/>
+      <c r="AY32" s="19"/>
+      <c r="AZ32" s="19"/>
+      <c r="BA32" s="19"/>
+    </row>
+    <row r="33" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="183"/>
+      <c r="B33" s="32">
+        <v>2</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="33">
+        <v>20518</v>
+      </c>
+      <c r="E33" s="33">
+        <v>2</v>
+      </c>
+      <c r="F33" s="33">
+        <v>18057</v>
+      </c>
+      <c r="G33" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="H33" s="34">
+        <v>8.4</v>
+      </c>
+      <c r="I33" s="33">
+        <v>18330</v>
+      </c>
+      <c r="J33" s="34">
+        <v>4.7</v>
+      </c>
+      <c r="K33" s="33">
+        <v>16249</v>
+      </c>
+      <c r="L33" s="35">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="M33" s="36">
+        <f>ROUND(K33*(1-L33),0)</f>
+        <v>15209</v>
+      </c>
+      <c r="N33" s="37">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="O33" s="24">
+        <f t="shared" si="273"/>
+        <v>9657.7150000000001</v>
+      </c>
+      <c r="P33" s="35">
+        <v>0.224</v>
+      </c>
+      <c r="Q33" s="24">
+        <f t="shared" si="274"/>
+        <v>3406.8160000000003</v>
+      </c>
+      <c r="R33" s="38">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="S33" s="134">
+        <v>0.1943</v>
+      </c>
+      <c r="T33" s="24">
+        <f t="shared" si="275"/>
+        <v>2144.4689999999996</v>
+      </c>
+      <c r="U33" s="27">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="V33" s="24">
+        <f t="shared" si="276"/>
+        <v>3634.951</v>
+      </c>
+      <c r="W33" s="38">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="X33" s="24">
+        <f t="shared" si="277"/>
+        <v>7513.2460000000001</v>
+      </c>
+      <c r="Y33" s="38">
+        <v>0.43</v>
+      </c>
+      <c r="Z33" s="24">
+        <f t="shared" si="278"/>
+        <v>6539.87</v>
+      </c>
+      <c r="AA33" s="146">
+        <v>2.15E-3</v>
+      </c>
+      <c r="AB33" s="18">
+        <f t="shared" si="234"/>
+        <v>32.699350000000003</v>
+      </c>
+      <c r="AC33" s="39">
+        <v>2.0799999999999998E-3</v>
+      </c>
+      <c r="AD33" s="17">
+        <f t="shared" si="280"/>
+        <v>31.634719999999998</v>
+      </c>
+      <c r="AE33" s="26">
+        <f>IF(M33&gt;0,(AG33+AP33)/M33,0)</f>
+        <v>2.3892922611611547E-3</v>
+      </c>
+      <c r="AF33" s="39">
+        <v>3.1E-4</v>
+      </c>
+      <c r="AG33" s="36">
+        <f t="shared" si="281"/>
+        <v>4.7147899999999998</v>
+      </c>
+      <c r="AH33" s="27">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="AI33" s="40">
+        <f t="shared" si="282"/>
+        <v>31.041920000000001</v>
+      </c>
+      <c r="AJ33" s="27">
+        <f t="shared" si="283"/>
+        <v>0.85223169146323863</v>
+      </c>
+      <c r="AK33" s="28">
+        <f t="shared" si="6"/>
+        <v>0.87152947385309176</v>
+      </c>
+      <c r="AL33" s="33">
+        <v>164</v>
+      </c>
+      <c r="AM33" s="35">
+        <v>0.09</v>
+      </c>
+      <c r="AN33" s="37">
+        <v>0.21190000000000001</v>
+      </c>
+      <c r="AO33" s="132">
+        <v>0.215</v>
+      </c>
+      <c r="AP33" s="40">
+        <f>AL33*(1-AM33)*AN33</f>
+        <v>31.623956000000003</v>
+      </c>
+      <c r="AQ33" s="133">
+        <f t="shared" si="239"/>
+        <v>32.086600000000004</v>
+      </c>
+      <c r="AR33" s="41">
+        <v>1.55</v>
+      </c>
+      <c r="AS33" s="41"/>
+      <c r="AT33" s="117">
+        <f>AT32+AL33-AS33</f>
+        <v>383.48000000000025</v>
+      </c>
+      <c r="AU33" s="101"/>
+      <c r="AV33" s="42"/>
+      <c r="AW33" s="43"/>
+      <c r="AX33" s="44"/>
+      <c r="AY33" s="44"/>
+      <c r="AZ33" s="44"/>
+      <c r="BA33" s="44"/>
+    </row>
+    <row r="34" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="183"/>
+      <c r="B34" s="32">
+        <v>3</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="42">
+        <v>18200</v>
+      </c>
+      <c r="E34" s="42">
+        <v>1</v>
+      </c>
+      <c r="F34" s="42">
+        <v>18404</v>
+      </c>
+      <c r="G34" s="36">
+        <v>1</v>
+      </c>
+      <c r="H34" s="36">
+        <v>6.6</v>
+      </c>
+      <c r="I34" s="42">
+        <v>17645</v>
+      </c>
+      <c r="J34" s="36">
+        <v>3.5</v>
+      </c>
+      <c r="K34" s="42">
+        <v>16317</v>
+      </c>
+      <c r="L34" s="38">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="M34" s="36">
+        <f>ROUND(K34*(1-L34),0)</f>
+        <v>15273</v>
+      </c>
+      <c r="N34" s="27">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="O34" s="24">
+        <f t="shared" si="273"/>
+        <v>9056.8889999999992</v>
+      </c>
+      <c r="P34" s="38">
+        <v>0.217</v>
+      </c>
+      <c r="Q34" s="24">
+        <f t="shared" si="274"/>
+        <v>3314.241</v>
+      </c>
+      <c r="R34" s="38">
+        <v>0.19</v>
+      </c>
+      <c r="S34" s="134">
+        <v>0.19470000000000001</v>
+      </c>
+      <c r="T34" s="24">
+        <f t="shared" si="275"/>
+        <v>2901.87</v>
+      </c>
+      <c r="U34" s="27">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="V34" s="24">
+        <f t="shared" si="276"/>
+        <v>3696.0659999999998</v>
+      </c>
+      <c r="W34" s="38">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="X34" s="24">
+        <f t="shared" si="277"/>
+        <v>7285.2209999999995</v>
+      </c>
+      <c r="Y34" s="38">
+        <v>0.43</v>
+      </c>
+      <c r="Z34" s="24">
+        <f t="shared" si="278"/>
+        <v>6567.39</v>
+      </c>
+      <c r="AA34" s="147">
+        <v>2.0600000000000002E-3</v>
+      </c>
+      <c r="AB34" s="148">
+        <f t="shared" si="234"/>
+        <v>31.462380000000003</v>
+      </c>
+      <c r="AC34" s="46">
+        <v>2.0300000000000001E-3</v>
+      </c>
+      <c r="AD34" s="17">
+        <f t="shared" si="280"/>
+        <v>31.004190000000001</v>
+      </c>
+      <c r="AE34" s="26">
+        <f>IF(M34&gt;0,(AG34+AP34)/M34,0)</f>
+        <v>2.1826945066457147E-3</v>
+      </c>
+      <c r="AF34" s="46">
+        <v>2.9E-4</v>
+      </c>
+      <c r="AG34" s="36">
+        <f t="shared" si="281"/>
+        <v>4.4291700000000001</v>
+      </c>
+      <c r="AH34" s="27">
+        <v>0.2019</v>
+      </c>
+      <c r="AI34" s="40">
+        <f t="shared" si="282"/>
+        <v>27.221773200000001</v>
+      </c>
+      <c r="AJ34" s="27">
+        <f t="shared" si="283"/>
+        <v>0.85837578918279278</v>
+      </c>
+      <c r="AK34" s="28">
+        <f t="shared" si="6"/>
+        <v>0.86831118580760658</v>
+      </c>
+      <c r="AL34" s="42">
+        <v>148</v>
+      </c>
+      <c r="AM34" s="38">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AN34" s="27">
+        <v>0.21440000000000001</v>
+      </c>
+      <c r="AO34" s="134">
+        <v>0.21410000000000001</v>
+      </c>
+      <c r="AP34" s="40">
+        <f>AL34*(1-AM34)*AN34</f>
+        <v>28.907123200000001</v>
+      </c>
+      <c r="AQ34" s="135">
+        <f t="shared" si="239"/>
+        <v>28.866674800000002</v>
+      </c>
+      <c r="AR34" s="17">
+        <v>1.55</v>
+      </c>
+      <c r="AS34" s="17"/>
+      <c r="AT34" s="117">
+        <f>AT33+AL34-AS34</f>
+        <v>531.48000000000025</v>
+      </c>
+      <c r="AU34" s="101"/>
+      <c r="AV34" s="42"/>
+      <c r="AW34" s="47"/>
+      <c r="AX34" s="40"/>
+      <c r="AY34" s="40"/>
+      <c r="AZ34" s="40"/>
+      <c r="BA34" s="40"/>
+    </row>
+    <row r="35" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="184"/>
+      <c r="B35" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="49"/>
+      <c r="D35" s="50">
+        <f t="shared" ref="D35" si="285">SUM(D32:D34)</f>
+        <v>43430</v>
+      </c>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50">
+        <f t="shared" ref="F35" si="286">SUM(F32:F34)</f>
+        <v>46701</v>
+      </c>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="50">
+        <f t="shared" ref="I35:K35" si="287">SUM(I32:I34)</f>
+        <v>46639</v>
+      </c>
+      <c r="J35" s="51"/>
+      <c r="K35" s="50">
+        <f t="shared" si="287"/>
+        <v>49078</v>
+      </c>
+      <c r="L35" s="20">
+        <f t="shared" ref="L35" si="288">IF(K35&gt;0,(K32*L32+K33*L33+K34*L34)/K35,0)</f>
+        <v>6.3663555972126001E-2</v>
+      </c>
+      <c r="M35" s="51">
+        <f t="shared" ref="M35" si="289">M32+M33+M34</f>
+        <v>45954</v>
+      </c>
+      <c r="N35" s="52">
+        <f t="shared" ref="N35" si="290">IF(M35&gt;0,O35/M35,0)</f>
+        <v>0.62710144927536227</v>
+      </c>
+      <c r="O35" s="53">
+        <f t="shared" ref="O35" si="291">O32+O33+O34</f>
+        <v>28817.82</v>
+      </c>
+      <c r="P35" s="20">
+        <f t="shared" ref="P35" si="292">IF(M35&gt;0,Q35/M35,0)</f>
+        <v>0.2435580145362754</v>
+      </c>
+      <c r="Q35" s="53">
+        <f t="shared" ref="Q35" si="293">Q32+Q33+Q34</f>
+        <v>11192.465</v>
+      </c>
+      <c r="R35" s="20">
+        <f t="shared" ref="R35" si="294">IF(M35&gt;0,T35/M35,0)</f>
+        <v>0.12934053618836228</v>
+      </c>
+      <c r="S35" s="136"/>
+      <c r="T35" s="53">
+        <f t="shared" ref="T35" si="295">T32+T33+T34</f>
+        <v>5943.7150000000001</v>
+      </c>
+      <c r="U35" s="20">
+        <f t="shared" ref="U35" si="296">IF(M35&gt;0,V35/M35,0)</f>
+        <v>0.23831363972668321</v>
+      </c>
+      <c r="V35" s="53">
+        <f t="shared" ref="V35" si="297">V32+V33+V34</f>
+        <v>10951.465</v>
+      </c>
+      <c r="W35" s="20">
+        <f t="shared" ref="W35" si="298">IF(M35&gt;0,X35/M35,0)</f>
+        <v>0.49474698611655138</v>
+      </c>
+      <c r="X35" s="53">
+        <f t="shared" ref="X35" si="299">X32+X33+X34</f>
+        <v>22735.603000000003</v>
+      </c>
+      <c r="Y35" s="20">
+        <f t="shared" ref="Y35" si="300">IF(M35&gt;0,Z35/M35,0)</f>
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="Z35" s="53">
+        <f t="shared" ref="Z35" si="301">Z32+Z33+Z34</f>
+        <v>19760.22</v>
+      </c>
+      <c r="AA35" s="152">
+        <f t="shared" ref="AA35" si="302">IF(M35&gt;0,AB35/M35,0)</f>
+        <v>2.2042592592592595E-3</v>
+      </c>
+      <c r="AB35" s="55">
+        <f t="shared" ref="AB35" si="303">SUM(AB32:AB34)</f>
+        <v>101.29453000000001</v>
+      </c>
+      <c r="AC35" s="54">
+        <f t="shared" ref="AC35" si="304">IF(M35&gt;0,AD35/M35,0)</f>
+        <v>2.1105181268224749E-3</v>
+      </c>
+      <c r="AD35" s="55">
+        <f t="shared" ref="AD35" si="305">SUM(AD32:AD34)</f>
+        <v>96.986750000000001</v>
+      </c>
+      <c r="AE35" s="54">
+        <f t="shared" ref="AE35" si="306">IF(M35&gt;0,(AE32*M32+AE33*M33+AE34*M34)/M35,0)</f>
+        <v>2.3341181964573266E-3</v>
+      </c>
+      <c r="AF35" s="54">
+        <f t="shared" ref="AF35" si="307">IF(K35&gt;0,(K32*AF32+K33*AF33+K34*AF34)/K35,0)</f>
+        <v>3.1007946534088588E-4</v>
+      </c>
+      <c r="AG35" s="51">
+        <f t="shared" ref="AG35" si="308">SUM(AG32:AG34)</f>
+        <v>14.24972</v>
+      </c>
+      <c r="AH35" s="52">
+        <f t="shared" ref="AH35" si="309">IF(K35&gt;0,(K32*AH32+K33*AH33+K34*AH34)/K35,0)</f>
+        <v>0.20237197726068706</v>
+      </c>
+      <c r="AI35" s="57">
+        <f t="shared" ref="AI35" si="310">SUM(AI32:AI34)</f>
+        <v>90.613790399999999</v>
+      </c>
+      <c r="AJ35" s="52">
+        <f t="shared" ref="AJ35" si="311">IF(AND(AD35&gt;0),((AD32*AJ32+AD33*AJ33+AD34*AJ34)/AD35),0)</f>
+        <v>0.8543891681015322</v>
+      </c>
+      <c r="AK35" s="56">
+        <f t="shared" si="6"/>
+        <v>0.86844758979465897</v>
+      </c>
+      <c r="AL35" s="50">
+        <f t="shared" ref="AL35" si="312">SUM(AL32:AL34)</f>
+        <v>491</v>
+      </c>
+      <c r="AM35" s="20">
+        <f t="shared" ref="AM35" si="313">IF(AL35&gt;0,(AM32*AL32+AM33*AL33+AM34*AL34)/AL35,0)</f>
+        <v>8.7511201629327892E-2</v>
+      </c>
+      <c r="AN35" s="52">
+        <f>IF(K35&gt;0,(AN32*K32+AN33*K33+AN34*K34)/K35,0)</f>
+        <v>0.20808824931741313</v>
+      </c>
+      <c r="AO35" s="136">
+        <f>IF(L35&gt;0,(AO32*K32+AO33*K33+AO34*K34)/K35,0)</f>
+        <v>0.20824105098007253</v>
+      </c>
+      <c r="AP35" s="57">
+        <f t="shared" ref="AP35" si="314">SUM(AP32:AP34)</f>
+        <v>93.012347599999998</v>
+      </c>
+      <c r="AQ35" s="137">
+        <f t="shared" si="270"/>
+        <v>93.057425999999992</v>
+      </c>
+      <c r="AR35" s="55"/>
+      <c r="AS35" s="55">
+        <f t="shared" ref="AS35" si="315">SUM(AS32:AS34)</f>
+        <v>502.22</v>
+      </c>
+      <c r="AT35" s="102"/>
+      <c r="AU35" s="103">
+        <f>AT34</f>
+        <v>531.48000000000025</v>
+      </c>
+      <c r="AV35" s="50">
+        <f t="shared" ref="AV35" si="316">SUM(AV32:AV34)</f>
+        <v>0</v>
+      </c>
+      <c r="AW35" s="58"/>
+      <c r="AX35" s="57"/>
+      <c r="AY35" s="57"/>
+      <c r="AZ35" s="57"/>
+      <c r="BA35" s="57"/>
+    </row>
+    <row r="36" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="182">
+        <v>9</v>
+      </c>
+      <c r="B36" s="22">
+        <v>1</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="11">
+        <v>13700</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>18786</v>
+      </c>
+      <c r="G36" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="H36" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="I36" s="11">
+        <v>18773</v>
+      </c>
+      <c r="J36" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="K36" s="11">
+        <v>16331</v>
+      </c>
+      <c r="L36" s="13">
+        <v>6.3E-2</v>
+      </c>
+      <c r="M36" s="23">
+        <f>ROUND(K36*(1-L36),0)</f>
+        <v>15302</v>
+      </c>
+      <c r="N36" s="14">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="O36" s="24">
+        <f t="shared" ref="O36:O38" si="317">M36*N36</f>
+        <v>11185.762000000001</v>
+      </c>
+      <c r="P36" s="13">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="Q36" s="24">
+        <f t="shared" ref="Q36:Q38" si="318">M36*P36</f>
+        <v>3167.5139999999997</v>
+      </c>
+      <c r="R36" s="15">
+        <v>6.2E-2</v>
+      </c>
+      <c r="S36" s="143">
+        <v>0.1946</v>
+      </c>
+      <c r="T36" s="24">
+        <f t="shared" ref="T36:T38" si="319">M36*R36</f>
+        <v>948.72400000000005</v>
+      </c>
+      <c r="U36" s="25">
+        <v>0.221</v>
+      </c>
+      <c r="V36" s="24">
+        <f t="shared" ref="V36:V38" si="320">M36*U36</f>
+        <v>3381.7420000000002</v>
+      </c>
+      <c r="W36" s="15">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="X36" s="24">
+        <f t="shared" ref="X36:X38" si="321">M36*W36</f>
+        <v>7972.3420000000006</v>
+      </c>
+      <c r="Y36" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="Z36" s="24">
+        <f t="shared" ref="Z36:Z38" si="322">Y36*M36</f>
+        <v>6426.84</v>
+      </c>
+      <c r="AA36" s="145">
+        <v>2.0200000000000001E-3</v>
+      </c>
+      <c r="AB36" s="18">
+        <f t="shared" ref="AB36" si="323">M36*AA36</f>
+        <v>30.910040000000002</v>
+      </c>
+      <c r="AC36" s="16">
+        <v>2.0300000000000001E-3</v>
+      </c>
+      <c r="AD36" s="17">
+        <f t="shared" ref="AD36:AD38" si="324">M36*AC36</f>
+        <v>31.06306</v>
+      </c>
+      <c r="AE36" s="26">
+        <f>IF(M36&gt;0,(AG36+AP36)/M36,0)</f>
+        <v>2.123268755718207E-3</v>
+      </c>
+      <c r="AF36" s="16">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="AG36" s="23">
+        <f t="shared" ref="AG36:AG38" si="325">AF36*M36</f>
+        <v>4.2845599999999999</v>
+      </c>
+      <c r="AH36" s="114">
+        <v>0.21110000000000001</v>
+      </c>
+      <c r="AI36" s="29">
+        <f t="shared" ref="AI36:AI38" si="326">AL36*(1-AM36)*AH36</f>
+        <v>28.394005499999999</v>
+      </c>
+      <c r="AJ36" s="27">
+        <f t="shared" ref="AJ36:AJ38" si="327">IF(AND(AH36&gt;0,AF36&gt;0,AC36&gt;0),((AC36-AF36)*AH36)/((AH36-AF36)*AC36),0)</f>
+        <v>0.86321392002983421</v>
+      </c>
+      <c r="AK36" s="59">
+        <f t="shared" si="6"/>
+        <v>0.86928856704152446</v>
+      </c>
+      <c r="AL36" s="11">
+        <v>147</v>
+      </c>
+      <c r="AM36" s="13">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AN36" s="14">
+        <v>0.2097</v>
+      </c>
+      <c r="AO36" s="130">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="AP36" s="29">
+        <f>AL36*(1-AM36)*AN36</f>
+        <v>28.2056985</v>
+      </c>
+      <c r="AQ36" s="131">
+        <f t="shared" ref="AQ36" si="328">AL36*(1-AM36)*AO36</f>
+        <v>28.313302499999999</v>
+      </c>
+      <c r="AR36" s="18">
+        <v>1.55</v>
+      </c>
+      <c r="AS36" s="18"/>
+      <c r="AT36" s="98">
+        <f>AT34+AL36-AS36</f>
+        <v>678.48000000000025</v>
+      </c>
+      <c r="AU36" s="99"/>
+      <c r="AV36" s="11"/>
+      <c r="AW36" s="30"/>
+      <c r="AX36" s="19"/>
+      <c r="AY36" s="19"/>
+      <c r="AZ36" s="19"/>
+      <c r="BA36" s="19"/>
+    </row>
+    <row r="37" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="183"/>
+      <c r="B37" s="32">
+        <v>2</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="33">
+        <v>20420</v>
+      </c>
+      <c r="E37" s="33">
+        <v>5</v>
+      </c>
+      <c r="F37" s="33">
+        <v>19577</v>
+      </c>
+      <c r="G37" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="H37" s="34">
+        <v>7.8</v>
+      </c>
+      <c r="I37" s="33">
+        <v>19377</v>
+      </c>
+      <c r="J37" s="34">
+        <v>2</v>
+      </c>
+      <c r="K37" s="33">
+        <v>16534</v>
+      </c>
+      <c r="L37" s="35">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="M37" s="36">
+        <f>ROUND(K37*(1-L37),0)</f>
+        <v>15178</v>
+      </c>
+      <c r="N37" s="37">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="O37" s="24">
+        <f t="shared" si="317"/>
+        <v>8666.637999999999</v>
+      </c>
+      <c r="P37" s="35">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="Q37" s="24">
+        <f t="shared" si="318"/>
+        <v>5206.0540000000001</v>
+      </c>
+      <c r="R37" s="38">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="S37" s="134">
+        <v>0.20760000000000001</v>
+      </c>
+      <c r="T37" s="24">
+        <f t="shared" si="319"/>
+        <v>1305.308</v>
+      </c>
+      <c r="U37" s="27">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="V37" s="24">
+        <f t="shared" si="320"/>
+        <v>3551.652</v>
+      </c>
+      <c r="W37" s="38">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="X37" s="24">
+        <f t="shared" si="321"/>
+        <v>7422.0419999999995</v>
+      </c>
+      <c r="Y37" s="38">
+        <v>0.41</v>
+      </c>
+      <c r="Z37" s="24">
+        <f t="shared" si="322"/>
+        <v>6222.98</v>
+      </c>
+      <c r="AA37" s="146">
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="AB37" s="18">
+        <f t="shared" si="234"/>
+        <v>33.998719999999999</v>
+      </c>
+      <c r="AC37" s="39">
+        <v>2.2200000000000002E-3</v>
+      </c>
+      <c r="AD37" s="17">
+        <f t="shared" si="324"/>
+        <v>33.695160000000001</v>
+      </c>
+      <c r="AE37" s="26">
+        <f>IF(M37&gt;0,(AG37+AP37)/M37,0)</f>
+        <v>2.2195287916721568E-3</v>
+      </c>
+      <c r="AF37" s="39">
+        <v>2.9E-4</v>
+      </c>
+      <c r="AG37" s="36">
+        <f t="shared" si="325"/>
+        <v>4.4016200000000003</v>
+      </c>
+      <c r="AH37" s="27">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="AI37" s="40">
+        <f t="shared" si="326"/>
+        <v>28.894099199999999</v>
+      </c>
+      <c r="AJ37" s="27">
+        <f t="shared" si="327"/>
+        <v>0.87055129762925942</v>
+      </c>
+      <c r="AK37" s="28">
+        <f t="shared" si="6"/>
+        <v>0.87050767434061538</v>
+      </c>
+      <c r="AL37" s="33">
+        <v>148</v>
+      </c>
+      <c r="AM37" s="35">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AN37" s="37">
+        <v>0.2165</v>
+      </c>
+      <c r="AO37" s="132">
+        <v>0.21529999999999999</v>
+      </c>
+      <c r="AP37" s="40">
+        <f>AL37*(1-AM37)*AN37</f>
+        <v>29.286387999999999</v>
+      </c>
+      <c r="AQ37" s="133">
+        <f t="shared" si="239"/>
+        <v>29.124061599999997</v>
+      </c>
+      <c r="AR37" s="41">
+        <v>1.55</v>
+      </c>
+      <c r="AS37" s="41"/>
+      <c r="AT37" s="117">
+        <f>AT36+AL37-AS37</f>
+        <v>826.48000000000025</v>
+      </c>
+      <c r="AU37" s="101"/>
+      <c r="AV37" s="42"/>
+      <c r="AW37" s="43"/>
+      <c r="AX37" s="44"/>
+      <c r="AY37" s="44"/>
+      <c r="AZ37" s="44"/>
+      <c r="BA37" s="44"/>
+    </row>
+    <row r="38" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="183"/>
+      <c r="B38" s="32">
+        <v>3</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="42">
+        <v>19200</v>
+      </c>
+      <c r="E38" s="42">
+        <v>4</v>
+      </c>
+      <c r="F38" s="42">
+        <v>20221</v>
+      </c>
+      <c r="G38" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="H38" s="36">
+        <v>6.3</v>
+      </c>
+      <c r="I38" s="42">
+        <v>19782</v>
+      </c>
+      <c r="J38" s="36">
+        <v>1</v>
+      </c>
+      <c r="K38" s="42">
+        <v>16731</v>
+      </c>
+      <c r="L38" s="38">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="M38" s="36">
+        <f>ROUND(K38*(1-L38),0)</f>
+        <v>15610</v>
+      </c>
+      <c r="N38" s="27">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="O38" s="24">
+        <f t="shared" si="317"/>
+        <v>9943.57</v>
+      </c>
+      <c r="P38" s="38">
+        <v>0.246</v>
+      </c>
+      <c r="Q38" s="24">
+        <f t="shared" si="318"/>
+        <v>3840.06</v>
+      </c>
+      <c r="R38" s="38">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="S38" s="134">
+        <v>0.20180000000000001</v>
+      </c>
+      <c r="T38" s="24">
+        <f t="shared" si="319"/>
+        <v>1826.3700000000001</v>
+      </c>
+      <c r="U38" s="27">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="V38" s="24">
+        <f t="shared" si="320"/>
+        <v>3605.9100000000003</v>
+      </c>
+      <c r="W38" s="38">
+        <v>0.497</v>
+      </c>
+      <c r="X38" s="24">
+        <f t="shared" si="321"/>
+        <v>7758.17</v>
+      </c>
+      <c r="Y38" s="38">
+        <v>0.43</v>
+      </c>
+      <c r="Z38" s="24">
+        <f t="shared" si="322"/>
+        <v>6712.3</v>
+      </c>
+      <c r="AA38" s="147">
+        <v>2.3E-3</v>
+      </c>
+      <c r="AB38" s="148">
+        <f t="shared" si="234"/>
+        <v>35.902999999999999</v>
+      </c>
+      <c r="AC38" s="46">
+        <v>2.2599999999999999E-3</v>
+      </c>
+      <c r="AD38" s="17">
+        <f t="shared" si="324"/>
+        <v>35.278599999999997</v>
+      </c>
+      <c r="AE38" s="26">
+        <f>IF(M38&gt;0,(AG38+AP38)/M38,0)</f>
+        <v>2.468792825112108E-3</v>
+      </c>
+      <c r="AF38" s="46">
+        <v>3.1E-4</v>
+      </c>
+      <c r="AG38" s="36">
+        <f t="shared" si="325"/>
+        <v>4.8391000000000002</v>
+      </c>
+      <c r="AH38" s="27">
+        <v>0.20530000000000001</v>
+      </c>
+      <c r="AI38" s="40">
+        <f t="shared" si="326"/>
+        <v>32.133556000000006</v>
+      </c>
+      <c r="AJ38" s="27">
+        <f t="shared" si="327"/>
+        <v>0.86413669218485512</v>
+      </c>
+      <c r="AK38" s="28">
+        <f t="shared" si="6"/>
+        <v>0.87569342633005187</v>
+      </c>
+      <c r="AL38" s="42">
+        <v>172</v>
+      </c>
+      <c r="AM38" s="38">
+        <v>0.09</v>
+      </c>
+      <c r="AN38" s="27">
+        <v>0.21529999999999999</v>
+      </c>
+      <c r="AO38" s="134">
+        <v>0.21590000000000001</v>
+      </c>
+      <c r="AP38" s="40">
+        <f>AL38*(1-AM38)*AN38</f>
+        <v>33.698756000000003</v>
+      </c>
+      <c r="AQ38" s="135">
+        <f t="shared" si="239"/>
+        <v>33.792668000000006</v>
+      </c>
+      <c r="AR38" s="17">
+        <v>1.55</v>
+      </c>
+      <c r="AS38" s="17"/>
+      <c r="AT38" s="117">
+        <f>AT37+AL38-AS38</f>
+        <v>998.48000000000025</v>
+      </c>
+      <c r="AU38" s="101"/>
+      <c r="AV38" s="42"/>
+      <c r="AW38" s="47"/>
+      <c r="AX38" s="40"/>
+      <c r="AY38" s="40"/>
+      <c r="AZ38" s="40"/>
+      <c r="BA38" s="40"/>
+    </row>
+    <row r="39" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="184"/>
+      <c r="B39" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="49"/>
+      <c r="D39" s="50">
+        <f t="shared" ref="D39" si="329">SUM(D36:D38)</f>
+        <v>53320</v>
+      </c>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50">
+        <f t="shared" ref="F39" si="330">SUM(F36:F38)</f>
+        <v>58584</v>
+      </c>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="50">
+        <f t="shared" ref="I39:K39" si="331">SUM(I36:I38)</f>
+        <v>57932</v>
+      </c>
+      <c r="J39" s="51"/>
+      <c r="K39" s="50">
+        <f t="shared" si="331"/>
+        <v>49596</v>
+      </c>
+      <c r="L39" s="20">
+        <f t="shared" ref="L39" si="332">IF(K39&gt;0,(K36*L36+K37*L37+K38*L38)/K39,0)</f>
+        <v>7.0683482538914433E-2</v>
+      </c>
+      <c r="M39" s="51">
+        <f t="shared" ref="M39" si="333">M36+M37+M38</f>
+        <v>46090</v>
+      </c>
+      <c r="N39" s="52">
+        <f t="shared" ref="N39" si="334">IF(M39&gt;0,O39/M39,0)</f>
+        <v>0.64647363853330442</v>
+      </c>
+      <c r="O39" s="53">
+        <f t="shared" ref="O39" si="335">O36+O37+O38</f>
+        <v>29795.97</v>
+      </c>
+      <c r="P39" s="20">
+        <f t="shared" ref="P39" si="336">IF(M39&gt;0,Q39/M39,0)</f>
+        <v>0.26499518333694944</v>
+      </c>
+      <c r="Q39" s="53">
+        <f t="shared" ref="Q39" si="337">Q36+Q37+Q38</f>
+        <v>12213.627999999999</v>
+      </c>
+      <c r="R39" s="20">
+        <f t="shared" ref="R39" si="338">IF(M39&gt;0,T39/M39,0)</f>
+        <v>8.8531178129746146E-2</v>
+      </c>
+      <c r="S39" s="136"/>
+      <c r="T39" s="53">
+        <f t="shared" ref="T39" si="339">T36+T37+T38</f>
+        <v>4080.402</v>
+      </c>
+      <c r="U39" s="20">
+        <f t="shared" ref="U39" si="340">IF(M39&gt;0,V39/M39,0)</f>
+        <v>0.22866791060967673</v>
+      </c>
+      <c r="V39" s="53">
+        <f t="shared" ref="V39" si="341">V36+V37+V38</f>
+        <v>10539.304</v>
+      </c>
+      <c r="W39" s="20">
+        <f t="shared" ref="W39" si="342">IF(M39&gt;0,X39/M39,0)</f>
+        <v>0.50233356476459101</v>
+      </c>
+      <c r="X39" s="53">
+        <f t="shared" ref="X39" si="343">X36+X37+X38</f>
+        <v>23152.554</v>
+      </c>
+      <c r="Y39" s="20">
+        <f t="shared" ref="Y39" si="344">IF(M39&gt;0,Z39/M39,0)</f>
+        <v>0.42009372965936209</v>
+      </c>
+      <c r="Z39" s="53">
+        <f t="shared" ref="Z39" si="345">Z36+Z37+Z38</f>
+        <v>19362.12</v>
+      </c>
+      <c r="AA39" s="152">
+        <f t="shared" ref="AA39" si="346">IF(M39&gt;0,AB39/M39,0)</f>
+        <v>2.1872805380776738E-3</v>
+      </c>
+      <c r="AB39" s="55">
+        <f t="shared" ref="AB39" si="347">SUM(AB36:AB38)</f>
+        <v>100.81175999999999</v>
+      </c>
+      <c r="AC39" s="54">
+        <f t="shared" ref="AC39" si="348">IF(M39&gt;0,AD39/M39,0)</f>
+        <v>2.1704669125623779E-3</v>
+      </c>
+      <c r="AD39" s="55">
+        <f t="shared" ref="AD39" si="349">SUM(AD36:AD38)</f>
+        <v>100.03681999999999</v>
+      </c>
+      <c r="AE39" s="54">
+        <f t="shared" ref="AE39" si="350">IF(M39&gt;0,(AE36*M36+AE37*M37+AE38*M38)/M39,0)</f>
+        <v>2.2719922434367543E-3</v>
+      </c>
+      <c r="AF39" s="54">
+        <f t="shared" ref="AF39" si="351">IF(K39&gt;0,(K36*AF36+K37*AF37+K38*AF38)/K39,0)</f>
+        <v>2.9345410920235502E-4</v>
+      </c>
+      <c r="AG39" s="51">
+        <f t="shared" ref="AG39" si="352">SUM(AG36:AG38)</f>
+        <v>13.52528</v>
+      </c>
+      <c r="AH39" s="52">
+        <f t="shared" ref="AH39" si="353">IF(K39&gt;0,(K36*AH36+K37*AH37+K38*AH38)/K39,0)</f>
+        <v>0.20997682877651425</v>
+      </c>
+      <c r="AI39" s="57">
+        <f t="shared" ref="AI39" si="354">SUM(AI36:AI38)</f>
+        <v>89.421660700000004</v>
+      </c>
+      <c r="AJ39" s="52">
+        <f t="shared" ref="AJ39" si="355">IF(AND(AD39&gt;0),((AD36*AJ36+AD37*AJ37+AD38*AJ38)/AD39),0)</f>
+        <v>0.86601077244818558</v>
+      </c>
+      <c r="AK39" s="56">
+        <f t="shared" si="6"/>
+        <v>0.87203502916117082</v>
+      </c>
+      <c r="AL39" s="50">
+        <f t="shared" ref="AL39" si="356">SUM(AL36:AL38)</f>
+        <v>467</v>
+      </c>
+      <c r="AM39" s="20">
+        <f t="shared" ref="AM39" si="357">IF(AL39&gt;0,(AM36*AL36+AM37*AL37+AM38*AL38)/AL39,0)</f>
+        <v>8.7158458244111336E-2</v>
+      </c>
+      <c r="AN39" s="52">
+        <f>IF(K39&gt;0,(AN36*K36+AN37*K37+AN38*K38)/K39,0)</f>
+        <v>0.21385607710299215</v>
+      </c>
+      <c r="AO39" s="136">
+        <f>IF(L39&gt;0,(AO36*K36+AO37*K37+AO38*K38)/K39,0)</f>
+        <v>0.2139218606339221</v>
+      </c>
+      <c r="AP39" s="57">
+        <f t="shared" ref="AP39" si="358">SUM(AP36:AP38)</f>
+        <v>91.190842500000002</v>
+      </c>
+      <c r="AQ39" s="137">
+        <f t="shared" si="270"/>
+        <v>91.230032100000003</v>
+      </c>
+      <c r="AR39" s="55"/>
+      <c r="AS39" s="55">
+        <f t="shared" ref="AS39" si="359">SUM(AS36:AS38)</f>
+        <v>0</v>
+      </c>
+      <c r="AT39" s="102"/>
+      <c r="AU39" s="103">
+        <f>AT38</f>
+        <v>998.48000000000025</v>
+      </c>
+      <c r="AV39" s="50">
+        <f t="shared" ref="AV39" si="360">SUM(AV36:AV38)</f>
+        <v>0</v>
+      </c>
+      <c r="AW39" s="58"/>
+      <c r="AX39" s="57"/>
+      <c r="AY39" s="57"/>
+      <c r="AZ39" s="57"/>
+      <c r="BA39" s="57"/>
+    </row>
+    <row r="40" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="182">
+        <v>10</v>
+      </c>
+      <c r="B40" s="22">
+        <v>1</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="11">
+        <v>12517</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>13069</v>
+      </c>
+      <c r="G40" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H40" s="12">
+        <v>6.8</v>
+      </c>
+      <c r="I40" s="11">
+        <v>13099</v>
+      </c>
+      <c r="J40" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="K40" s="11">
+        <v>16647</v>
+      </c>
+      <c r="L40" s="13">
+        <v>6.3E-2</v>
+      </c>
+      <c r="M40" s="23">
+        <f>ROUND(K40*(1-L40),0)</f>
+        <v>15598</v>
+      </c>
+      <c r="N40" s="14">
+        <v>0.67</v>
+      </c>
+      <c r="O40" s="24">
+        <f t="shared" ref="O40:O42" si="361">M40*N40</f>
+        <v>10450.66</v>
+      </c>
+      <c r="P40" s="13">
+        <v>0.24</v>
+      </c>
+      <c r="Q40" s="24">
+        <f t="shared" ref="Q40:Q42" si="362">M40*P40</f>
+        <v>3743.52</v>
+      </c>
+      <c r="R40" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="S40" s="143">
+        <v>0.20569999999999999</v>
+      </c>
+      <c r="T40" s="24">
+        <f t="shared" ref="T40:T42" si="363">M40*R40</f>
+        <v>1403.82</v>
+      </c>
+      <c r="U40" s="25">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="V40" s="24">
+        <f t="shared" ref="V40:V42" si="364">M40*U40</f>
+        <v>3712.3239999999996</v>
+      </c>
+      <c r="W40" s="15">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="X40" s="24">
+        <f t="shared" ref="X40:X42" si="365">M40*W40</f>
+        <v>7611.8239999999996</v>
+      </c>
+      <c r="Y40" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="Z40" s="24">
+        <f t="shared" ref="Z40:Z42" si="366">Y40*M40</f>
+        <v>6551.16</v>
+      </c>
+      <c r="AA40" s="145">
+        <v>2.3500000000000001E-3</v>
+      </c>
+      <c r="AB40" s="18">
+        <f t="shared" ref="AB40" si="367">M40*AA40</f>
+        <v>36.655300000000004</v>
+      </c>
+      <c r="AC40" s="16">
+        <v>2.3700000000000001E-3</v>
+      </c>
+      <c r="AD40" s="17">
+        <f t="shared" ref="AD40:AD42" si="368">M40*AC40</f>
+        <v>36.967260000000003</v>
+      </c>
+      <c r="AE40" s="26">
+        <f>IF(M40&gt;0,(AG40+AP40)/M40,0)</f>
+        <v>2.3732482369534557E-3</v>
+      </c>
+      <c r="AF40" s="16">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="AG40" s="23">
+        <f t="shared" ref="AG40:AG42" si="369">AF40*M40</f>
+        <v>4.9913600000000002</v>
+      </c>
+      <c r="AH40" s="114">
+        <v>0.21110000000000001</v>
+      </c>
+      <c r="AI40" s="29">
+        <f t="shared" ref="AI40:AI42" si="370">AL40*(1-AM40)*AH40</f>
+        <v>31.905654000000006</v>
+      </c>
+      <c r="AJ40" s="27">
+        <f t="shared" ref="AJ40:AJ42" si="371">IF(AND(AH40&gt;0,AF40&gt;0,AC40&gt;0),((AC40-AF40)*AH40)/((AH40-AF40)*AC40),0)</f>
+        <v>0.86629208849749562</v>
+      </c>
+      <c r="AK40" s="59">
+        <f t="shared" si="6"/>
+        <v>0.86647220453107809</v>
+      </c>
+      <c r="AL40" s="11">
+        <v>165</v>
+      </c>
+      <c r="AM40" s="13">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AN40" s="14">
+        <v>0.21190000000000001</v>
+      </c>
+      <c r="AO40" s="130">
+        <v>0.21410000000000001</v>
+      </c>
+      <c r="AP40" s="29">
+        <f>AL40*(1-AM40)*AN40</f>
+        <v>32.026566000000003</v>
+      </c>
+      <c r="AQ40" s="131">
+        <f t="shared" ref="AQ40" si="372">AL40*(1-AM40)*AO40</f>
+        <v>32.359074000000007</v>
+      </c>
+      <c r="AR40" s="18">
+        <v>1.55</v>
+      </c>
+      <c r="AS40" s="18"/>
+      <c r="AT40" s="98">
+        <f>AT38+AL40-AS40</f>
+        <v>1163.4800000000002</v>
+      </c>
+      <c r="AU40" s="99"/>
+      <c r="AV40" s="11"/>
+      <c r="AW40" s="30"/>
+      <c r="AX40" s="19"/>
+      <c r="AY40" s="19"/>
+      <c r="AZ40" s="19"/>
+      <c r="BA40" s="19"/>
+    </row>
+    <row r="41" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="183"/>
+      <c r="B41" s="32">
+        <v>2</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="33">
+        <v>19503</v>
+      </c>
+      <c r="E41" s="33">
+        <v>3</v>
+      </c>
+      <c r="F41" s="33">
+        <v>18414</v>
+      </c>
+      <c r="G41" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="H41" s="34">
+        <v>5.8</v>
+      </c>
+      <c r="I41" s="33">
+        <v>17649</v>
+      </c>
+      <c r="J41" s="34">
+        <v>2</v>
+      </c>
+      <c r="K41" s="33">
+        <v>16361</v>
+      </c>
+      <c r="L41" s="35">
+        <v>6.2E-2</v>
+      </c>
+      <c r="M41" s="36">
+        <f>ROUND(K41*(1-L41),0)</f>
+        <v>15347</v>
+      </c>
+      <c r="N41" s="37">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="O41" s="24">
+        <f t="shared" si="361"/>
+        <v>8164.6040000000003</v>
+      </c>
+      <c r="P41" s="35">
+        <v>0.308</v>
+      </c>
+      <c r="Q41" s="24">
+        <f t="shared" si="362"/>
+        <v>4726.8760000000002</v>
+      </c>
+      <c r="R41" s="38">
+        <v>0.16</v>
+      </c>
+      <c r="S41" s="134">
+        <v>0.216</v>
+      </c>
+      <c r="T41" s="24">
+        <f t="shared" si="363"/>
+        <v>2455.52</v>
+      </c>
+      <c r="U41" s="27">
+        <v>0.21</v>
+      </c>
+      <c r="V41" s="24">
+        <f t="shared" si="364"/>
+        <v>3222.87</v>
+      </c>
+      <c r="W41" s="38">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="X41" s="24">
+        <f t="shared" si="365"/>
+        <v>8333.4210000000003</v>
+      </c>
+      <c r="Y41" s="38">
+        <v>0.42</v>
+      </c>
+      <c r="Z41" s="24">
+        <f t="shared" si="366"/>
+        <v>6445.74</v>
+      </c>
+      <c r="AA41" s="146"/>
+      <c r="AB41" s="18">
+        <f t="shared" si="234"/>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="39">
+        <v>2.4299999999999999E-3</v>
+      </c>
+      <c r="AD41" s="17">
+        <f t="shared" si="368"/>
+        <v>37.293209999999995</v>
+      </c>
+      <c r="AE41" s="26">
+        <f>IF(M41&gt;0,(AG41+AP41)/M41,0)</f>
+        <v>2.5358901153319869E-3</v>
+      </c>
+      <c r="AF41" s="39">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="AG41" s="36">
+        <f t="shared" si="369"/>
+        <v>4.9110400000000007</v>
+      </c>
+      <c r="AH41" s="27">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="AI41" s="40">
+        <f t="shared" si="370"/>
+        <v>32.691052800000001</v>
+      </c>
+      <c r="AJ41" s="27">
+        <f t="shared" si="371"/>
+        <v>0.86961555203615704</v>
+      </c>
+      <c r="AK41" s="28">
+        <f t="shared" si="6"/>
+        <v>0.87507179637578247</v>
+      </c>
+      <c r="AL41" s="33">
+        <v>168</v>
+      </c>
+      <c r="AM41" s="35">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AN41" s="37">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="AO41" s="132"/>
+      <c r="AP41" s="40">
+        <f>AL41*(1-AM41)*AN41</f>
+        <v>34.007265600000004</v>
+      </c>
+      <c r="AQ41" s="133">
+        <f t="shared" si="239"/>
+        <v>0</v>
+      </c>
+      <c r="AR41" s="41">
+        <v>1.55</v>
+      </c>
+      <c r="AS41" s="41"/>
+      <c r="AT41" s="117">
+        <f>AT40+AL41-AS41</f>
+        <v>1331.4800000000002</v>
+      </c>
+      <c r="AU41" s="101"/>
+      <c r="AV41" s="42"/>
+      <c r="AW41" s="43"/>
+      <c r="AX41" s="44"/>
+      <c r="AY41" s="44"/>
+      <c r="AZ41" s="44"/>
+      <c r="BA41" s="44"/>
+    </row>
+    <row r="42" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="183"/>
+      <c r="B42" s="32">
+        <v>3</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="42">
+        <v>17950</v>
+      </c>
+      <c r="E42" s="42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="42">
+        <v>15724</v>
+      </c>
+      <c r="G42" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="H42" s="36">
+        <v>5.9</v>
+      </c>
+      <c r="I42" s="42">
+        <v>15767</v>
+      </c>
+      <c r="J42" s="36">
+        <v>1.7</v>
+      </c>
+      <c r="K42" s="42">
+        <v>16023</v>
+      </c>
+      <c r="L42" s="38">
+        <v>6.3E-2</v>
+      </c>
+      <c r="M42" s="36">
+        <f>ROUND(K42*(1-L42),0)</f>
+        <v>15014</v>
+      </c>
+      <c r="N42" s="27">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="O42" s="24">
+        <f t="shared" si="361"/>
+        <v>8197.6440000000002</v>
+      </c>
+      <c r="P42" s="38">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="Q42" s="24">
+        <f t="shared" si="362"/>
+        <v>5375.0119999999997</v>
+      </c>
+      <c r="R42" s="38">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="S42" s="134">
+        <v>0.2039</v>
+      </c>
+      <c r="T42" s="24">
+        <f t="shared" si="363"/>
+        <v>1441.3440000000001</v>
+      </c>
+      <c r="U42" s="27"/>
+      <c r="V42" s="24">
+        <f t="shared" si="364"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="38"/>
+      <c r="X42" s="24">
+        <f t="shared" si="365"/>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="38">
+        <v>0.43</v>
+      </c>
+      <c r="Z42" s="24">
+        <f t="shared" si="366"/>
+        <v>6456.0199999999995</v>
+      </c>
+      <c r="AA42" s="147"/>
+      <c r="AB42" s="148">
+        <f t="shared" si="234"/>
+        <v>0</v>
+      </c>
+      <c r="AC42" s="46">
+        <v>2.4199999999999998E-3</v>
+      </c>
+      <c r="AD42" s="17">
+        <f t="shared" si="368"/>
+        <v>36.333880000000001</v>
+      </c>
+      <c r="AE42" s="26">
+        <f>IF(M42&gt;0,(AG42+AP42)/M42,0)</f>
+        <v>3.1E-4</v>
+      </c>
+      <c r="AF42" s="46">
+        <v>3.1E-4</v>
+      </c>
+      <c r="AG42" s="36">
+        <f t="shared" si="369"/>
+        <v>4.6543400000000004</v>
+      </c>
+      <c r="AH42" s="27">
+        <v>0.2072</v>
+      </c>
+      <c r="AI42" s="40">
+        <f t="shared" si="370"/>
+        <v>30.956508799999998</v>
+      </c>
+      <c r="AJ42" s="27">
+        <f t="shared" si="371"/>
+        <v>0.87320726588848874</v>
+      </c>
+      <c r="AK42" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AL42" s="42">
+        <v>164</v>
+      </c>
+      <c r="AM42" s="38">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AN42" s="27"/>
+      <c r="AO42" s="134"/>
+      <c r="AP42" s="40">
+        <f>AL42*(1-AM42)*AN42</f>
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="135">
+        <f t="shared" si="239"/>
+        <v>0</v>
+      </c>
+      <c r="AR42" s="17">
+        <v>1.55</v>
+      </c>
+      <c r="AS42" s="17"/>
+      <c r="AT42" s="117">
+        <f>AT41+AL42-AS42</f>
+        <v>1495.4800000000002</v>
+      </c>
+      <c r="AU42" s="101"/>
+      <c r="AV42" s="42"/>
+      <c r="AW42" s="47"/>
+      <c r="AX42" s="40"/>
+      <c r="AY42" s="40"/>
+      <c r="AZ42" s="40"/>
+      <c r="BA42" s="40"/>
+    </row>
+    <row r="43" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="184"/>
+      <c r="B43" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="49"/>
+      <c r="D43" s="50">
+        <f t="shared" ref="D43" si="373">SUM(D40:D42)</f>
+        <v>49970</v>
+      </c>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50">
+        <f t="shared" ref="F43" si="374">SUM(F40:F42)</f>
+        <v>47207</v>
+      </c>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="50">
+        <f t="shared" ref="I43:K43" si="375">SUM(I40:I42)</f>
+        <v>46515</v>
+      </c>
+      <c r="J43" s="51"/>
+      <c r="K43" s="50">
+        <f t="shared" si="375"/>
+        <v>49031</v>
+      </c>
+      <c r="L43" s="20">
+        <f t="shared" ref="L43" si="376">IF(K43&gt;0,(K40*L40+K41*L41+K42*L42)/K43,0)</f>
+        <v>6.2666313148824218E-2</v>
+      </c>
+      <c r="M43" s="51">
+        <f t="shared" ref="M43" si="377">M40+M41+M42</f>
+        <v>45959</v>
+      </c>
+      <c r="N43" s="52">
+        <f t="shared" ref="N43" si="378">IF(M43&gt;0,O43/M43,0)</f>
+        <v>0.5834092995931156</v>
+      </c>
+      <c r="O43" s="53">
+        <f t="shared" ref="O43" si="379">O40+O41+O42</f>
+        <v>26812.907999999999</v>
+      </c>
+      <c r="P43" s="20">
+        <f t="shared" ref="P43" si="380">IF(M43&gt;0,Q43/M43,0)</f>
+        <v>0.30125564089732149</v>
+      </c>
+      <c r="Q43" s="53">
+        <f t="shared" ref="Q43" si="381">Q40+Q41+Q42</f>
+        <v>13845.407999999999</v>
+      </c>
+      <c r="R43" s="20">
+        <f t="shared" ref="R43" si="382">IF(M43&gt;0,T43/M43,0)</f>
+        <v>0.11533505950956288</v>
+      </c>
+      <c r="S43" s="136"/>
+      <c r="T43" s="53">
+        <f t="shared" ref="T43" si="383">T40+T41+T42</f>
+        <v>5300.6840000000002</v>
+      </c>
+      <c r="U43" s="20">
+        <f t="shared" ref="U43" si="384">IF(M43&gt;0,V43/M43,0)</f>
+        <v>0.15089958441219348</v>
+      </c>
+      <c r="V43" s="53">
+        <f t="shared" ref="V43" si="385">V40+V41+V42</f>
+        <v>6935.1939999999995</v>
+      </c>
+      <c r="W43" s="20">
+        <f t="shared" ref="W43" si="386">IF(M43&gt;0,X43/M43,0)</f>
+        <v>0.34694499445157639</v>
+      </c>
+      <c r="X43" s="53">
+        <f t="shared" ref="X43" si="387">X40+X41+X42</f>
+        <v>15945.244999999999</v>
+      </c>
+      <c r="Y43" s="20">
+        <f t="shared" ref="Y43" si="388">IF(M43&gt;0,Z43/M43,0)</f>
+        <v>0.423266824778607</v>
+      </c>
+      <c r="Z43" s="53">
+        <f t="shared" ref="Z43" si="389">Z40+Z41+Z42</f>
+        <v>19452.919999999998</v>
+      </c>
+      <c r="AA43" s="152">
+        <f t="shared" ref="AA43" si="390">IF(M43&gt;0,AB43/M43,0)</f>
+        <v>7.9756522117539557E-4</v>
+      </c>
+      <c r="AB43" s="55">
+        <f t="shared" ref="AB43" si="391">SUM(AB40:AB42)</f>
+        <v>36.655300000000004</v>
+      </c>
+      <c r="AC43" s="54">
+        <f t="shared" ref="AC43" si="392">IF(M43&gt;0,AD43/M43,0)</f>
+        <v>2.4063698078722337E-3</v>
+      </c>
+      <c r="AD43" s="55">
+        <f t="shared" ref="AD43" si="393">SUM(AD40:AD42)</f>
+        <v>110.59434999999999</v>
+      </c>
+      <c r="AE43" s="54">
+        <f t="shared" ref="AE43" si="394">IF(M43&gt;0,(AE40*M40+AE41*M41+AE42*M42)/M43,0)</f>
+        <v>1.7535318784133687E-3</v>
+      </c>
+      <c r="AF43" s="54">
+        <f t="shared" ref="AF43" si="395">IF(K43&gt;0,(K40*AF40+K41*AF41+K42*AF42)/K43,0)</f>
+        <v>3.1673206746752057E-4</v>
+      </c>
+      <c r="AG43" s="51">
+        <f t="shared" ref="AG43" si="396">SUM(AG40:AG42)</f>
+        <v>14.556740000000001</v>
+      </c>
+      <c r="AH43" s="52">
+        <f t="shared" ref="AH43" si="397">IF(K43&gt;0,(K40*AH40+K41*AH41+K42*AH42)/K43,0)</f>
+        <v>0.21065972344027251</v>
+      </c>
+      <c r="AI43" s="57">
+        <f t="shared" ref="AI43" si="398">SUM(AI40:AI42)</f>
+        <v>95.553215600000001</v>
+      </c>
+      <c r="AJ43" s="52">
+        <f t="shared" ref="AJ43" si="399">IF(AND(AD43&gt;0),((AD40*AJ40+AD41*AJ41+AD42*AJ42)/AD43),0)</f>
+        <v>0.86968464742277252</v>
+      </c>
+      <c r="AK43" s="56">
+        <f t="shared" si="6"/>
+        <v>0.82115510875134401</v>
+      </c>
+      <c r="AL43" s="50">
+        <f t="shared" ref="AL43" si="400">SUM(AL40:AL42)</f>
+        <v>497</v>
+      </c>
+      <c r="AM43" s="20">
+        <f t="shared" ref="AM43" si="401">IF(AL43&gt;0,(AM40*AL40+AM41*AL41+AM42*AL42)/AL43,0)</f>
+        <v>8.7340040241448688E-2</v>
+      </c>
+      <c r="AN43" s="52">
+        <f>IF(K43&gt;0,(AN40*K40+AN41*K41+AN42*K42)/K43,0)</f>
+        <v>0.14608948420387102</v>
+      </c>
+      <c r="AO43" s="136">
+        <f>IF(L43&gt;0,(AO40*K40+AO41*K41+AO42*K42)/K43,0)</f>
+        <v>7.2691209642879007E-2</v>
+      </c>
+      <c r="AP43" s="57">
+        <f t="shared" ref="AP43" si="402">SUM(AP40:AP42)</f>
+        <v>66.033831600000013</v>
+      </c>
+      <c r="AQ43" s="137">
+        <f t="shared" si="270"/>
+        <v>32.359074000000007</v>
+      </c>
+      <c r="AR43" s="55"/>
+      <c r="AS43" s="55">
+        <f t="shared" ref="AS43" si="403">SUM(AS40:AS42)</f>
+        <v>0</v>
+      </c>
+      <c r="AT43" s="102"/>
+      <c r="AU43" s="103">
+        <f>AT42</f>
+        <v>1495.4800000000002</v>
+      </c>
+      <c r="AV43" s="50">
+        <f t="shared" ref="AV43" si="404">SUM(AV40:AV42)</f>
+        <v>0</v>
+      </c>
+      <c r="AW43" s="58"/>
+      <c r="AX43" s="57"/>
+      <c r="AY43" s="57"/>
+      <c r="AZ43" s="57"/>
+      <c r="BA43" s="57"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -48089,8 +50770,28 @@
     <protectedRange sqref="AE20:AE22" name="Range1_1_1_1_1_2_1_4_1_1_1"/>
     <protectedRange sqref="AE24:AE26" name="Range1_1_1_1_1_2_1_5_1_1_1"/>
     <protectedRange sqref="AB16:AB27" name="Range1_1_1_1_1_2_2_1_1_1_1"/>
+    <protectedRange sqref="AP28:AQ43 AK28:AK43 M28:M43" name="Range1_1_1_1_1_1_1_1_1_2"/>
+    <protectedRange sqref="AH31:AJ31 AH35:AJ35 AH39:AJ39 AH43:AJ43 AH28:AI30 AH32:AI34 AH36:AI38 AH40:AI42" name="Range1_1_1_1_1_1_1_2"/>
+    <protectedRange sqref="AJ28:AJ30 AJ32:AJ34 AJ36:AJ38 AJ40:AJ42" name="Range1_1_1_1_2"/>
+    <protectedRange sqref="AD31:AE31 AD28:AD30 AD35:AE35 AD32:AD34 AD39:AE39 AD36:AD38 AD43:AE43 AD40:AD42" name="Range1_1_1_1_1_2_2_1_2"/>
+    <protectedRange sqref="O28:O43" name="Range1_1_1_1_1_5_1_1_2"/>
+    <protectedRange sqref="Q28:Q43" name="Range1_1_1_1_1_7_1_1_2"/>
+    <protectedRange sqref="T28:T43" name="Range1_1_1_1_1_8_1_1_2"/>
+    <protectedRange sqref="V28:V43" name="Range1_1_1_1_1_10_1_1_2"/>
+    <protectedRange sqref="X28:X43" name="Range1_1_1_1_1_12_1_1_2"/>
+    <protectedRange sqref="Z28:Z43" name="Range1_1_1_1_1_16_1_1_2"/>
+    <protectedRange sqref="AG28:AG43" name="Range1_1_1_1_1_18_1_1_2"/>
+    <protectedRange sqref="AE28:AE30" name="Range1_1_1_1_1_2_1_6_1_1_1"/>
+    <protectedRange sqref="AE32:AE34" name="Range1_1_1_1_1_2_1_7_1_1_1"/>
+    <protectedRange sqref="AE36:AE38" name="Range1_1_1_1_1_2_1_8_1_1_1"/>
+    <protectedRange sqref="AE40:AE42" name="Range1_1_1_1_1_2_1_9_1_1_1"/>
+    <protectedRange sqref="AB28:AB43" name="Range1_1_1_1_1_2_2_1_1_1_2"/>
   </protectedRanges>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="AZ1:BA1"/>
@@ -48104,5 +50805,6 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/dispatchers_rep/Doklad_Dispecheri_2025!.xlsx
+++ b/dispatchers_rep/Doklad_Dispecheri_2025!.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E761D1-2FF6-44A8-B593-C2167EBE6562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC8499B-7B68-45A9-94B0-68EE160B5804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -681,12 +681,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="AU44" authorId="0" shapeId="0" xr:uid="{41A52672-E3F2-47AC-9339-BF8901AF3B67}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+корекция на концентрат
+след замер на 
+автомобилна везна</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="70">
   <si>
     <t xml:space="preserve">Подадена руда
  от МГТЛ 
@@ -1763,6 +1789,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1770,6 +1799,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1789,12 +1821,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2214,13 +2240,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="187" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -2349,19 +2375,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="191" t="s">
+      <c r="AX1" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="191"/>
-      <c r="AZ1" s="191" t="s">
+      <c r="AY1" s="182"/>
+      <c r="AZ1" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="191"/>
+      <c r="BA1" s="182"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="186"/>
+      <c r="A2" s="192"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="188"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -2552,7 +2578,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="182">
+      <c r="A4" s="183">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -2714,7 +2740,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" s="183"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -2874,7 +2900,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="183"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -3034,7 +3060,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -3205,7 +3231,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="182">
+      <c r="A8" s="183">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -3369,7 +3395,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" s="183"/>
+      <c r="A9" s="184"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -3529,7 +3555,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" s="183"/>
+      <c r="A10" s="184"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -3689,7 +3715,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="184"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -3860,7 +3886,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182">
+      <c r="A12" s="183">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -4024,7 +4050,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" s="183"/>
+      <c r="A13" s="184"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -4184,7 +4210,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14" s="183"/>
+      <c r="A14" s="184"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -4344,7 +4370,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="184"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -4515,7 +4541,7 @@
       <c r="BA15" s="57"/>
     </row>
     <row r="16" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182">
+      <c r="A16" s="183">
         <v>4</v>
       </c>
       <c r="B16" s="22">
@@ -4679,7 +4705,7 @@
       <c r="BA16" s="19"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A17" s="183"/>
+      <c r="A17" s="184"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -4839,7 +4865,7 @@
       <c r="BA17" s="44"/>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18" s="183"/>
+      <c r="A18" s="184"/>
       <c r="B18" s="32">
         <v>3</v>
       </c>
@@ -4999,7 +5025,7 @@
       <c r="BA18" s="40"/>
     </row>
     <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="184"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="48" t="s">
         <v>35</v>
       </c>
@@ -5170,7 +5196,7 @@
       <c r="BA19" s="57"/>
     </row>
     <row r="20" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="182">
+      <c r="A20" s="183">
         <v>5</v>
       </c>
       <c r="B20" s="22">
@@ -5334,7 +5360,7 @@
       <c r="BA20" s="19"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" s="183"/>
+      <c r="A21" s="184"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
@@ -5494,7 +5520,7 @@
       <c r="BA21" s="44"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22" s="183"/>
+      <c r="A22" s="184"/>
       <c r="B22" s="32">
         <v>3</v>
       </c>
@@ -5654,7 +5680,7 @@
       <c r="BA22" s="40"/>
     </row>
     <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="184"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
@@ -5825,7 +5851,7 @@
       <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182">
+      <c r="A24" s="183">
         <v>6</v>
       </c>
       <c r="B24" s="22">
@@ -5991,7 +6017,7 @@
       <c r="BA24" s="19"/>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A25" s="183"/>
+      <c r="A25" s="184"/>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -6151,7 +6177,7 @@
       <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A26" s="183"/>
+      <c r="A26" s="184"/>
       <c r="B26" s="32">
         <v>3</v>
       </c>
@@ -6311,7 +6337,7 @@
       <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="184"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="48" t="s">
         <v>35</v>
       </c>
@@ -6482,7 +6508,7 @@
       <c r="BA27" s="57"/>
     </row>
     <row r="28" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="182">
+      <c r="A28" s="183">
         <v>7</v>
       </c>
       <c r="B28" s="22">
@@ -6644,7 +6670,7 @@
       <c r="BA28" s="19"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A29" s="183"/>
+      <c r="A29" s="184"/>
       <c r="B29" s="32">
         <v>2</v>
       </c>
@@ -6804,7 +6830,7 @@
       <c r="BA29" s="44"/>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A30" s="183"/>
+      <c r="A30" s="184"/>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -6964,7 +6990,7 @@
       <c r="BA30" s="40"/>
     </row>
     <row r="31" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="184"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="48" t="s">
         <v>35</v>
       </c>
@@ -7135,7 +7161,7 @@
       <c r="BA31" s="57"/>
     </row>
     <row r="32" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="182">
+      <c r="A32" s="183">
         <v>8</v>
       </c>
       <c r="B32" s="22">
@@ -7297,7 +7323,7 @@
       <c r="BA32" s="19"/>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A33" s="183"/>
+      <c r="A33" s="184"/>
       <c r="B33" s="32">
         <v>2</v>
       </c>
@@ -7457,7 +7483,7 @@
       <c r="BA33" s="44"/>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A34" s="183"/>
+      <c r="A34" s="184"/>
       <c r="B34" s="32">
         <v>3</v>
       </c>
@@ -7617,7 +7643,7 @@
       <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="184"/>
+      <c r="A35" s="185"/>
       <c r="B35" s="48" t="s">
         <v>35</v>
       </c>
@@ -7788,7 +7814,7 @@
       <c r="BA35" s="57"/>
     </row>
     <row r="36" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="182">
+      <c r="A36" s="183">
         <v>9</v>
       </c>
       <c r="B36" s="22">
@@ -7952,7 +7978,7 @@
       <c r="BA36" s="19"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A37" s="183"/>
+      <c r="A37" s="184"/>
       <c r="B37" s="32">
         <v>2</v>
       </c>
@@ -8112,7 +8138,7 @@
       <c r="BA37" s="44"/>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A38" s="183"/>
+      <c r="A38" s="184"/>
       <c r="B38" s="32">
         <v>3</v>
       </c>
@@ -8272,7 +8298,7 @@
       <c r="BA38" s="40"/>
     </row>
     <row r="39" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="184"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="48" t="s">
         <v>35</v>
       </c>
@@ -8443,7 +8469,7 @@
       <c r="BA39" s="57"/>
     </row>
     <row r="40" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="182">
+      <c r="A40" s="183">
         <v>10</v>
       </c>
       <c r="B40" s="22">
@@ -8607,7 +8633,7 @@
       <c r="BA40" s="19"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A41" s="183"/>
+      <c r="A41" s="184"/>
       <c r="B41" s="32">
         <v>2</v>
       </c>
@@ -8767,7 +8793,7 @@
       <c r="BA41" s="44"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A42" s="183"/>
+      <c r="A42" s="184"/>
       <c r="B42" s="32">
         <v>3</v>
       </c>
@@ -8927,7 +8953,7 @@
       <c r="BA42" s="40"/>
     </row>
     <row r="43" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="184"/>
+      <c r="A43" s="185"/>
       <c r="B43" s="48" t="s">
         <v>35</v>
       </c>
@@ -9098,7 +9124,7 @@
       <c r="BA43" s="57"/>
     </row>
     <row r="44" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="182">
+      <c r="A44" s="183">
         <v>11</v>
       </c>
       <c r="B44" s="22">
@@ -9262,7 +9288,7 @@
       <c r="BA44" s="19"/>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A45" s="183"/>
+      <c r="A45" s="184"/>
       <c r="B45" s="32">
         <v>2</v>
       </c>
@@ -9422,7 +9448,7 @@
       <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A46" s="183"/>
+      <c r="A46" s="184"/>
       <c r="B46" s="32">
         <v>3</v>
       </c>
@@ -9582,7 +9608,7 @@
       <c r="BA46" s="40"/>
     </row>
     <row r="47" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="184"/>
+      <c r="A47" s="185"/>
       <c r="B47" s="48" t="s">
         <v>35</v>
       </c>
@@ -9753,7 +9779,7 @@
       <c r="BA47" s="57"/>
     </row>
     <row r="48" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="182">
+      <c r="A48" s="183">
         <v>12</v>
       </c>
       <c r="B48" s="22">
@@ -9919,7 +9945,7 @@
       <c r="BA48" s="19"/>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A49" s="183"/>
+      <c r="A49" s="184"/>
       <c r="B49" s="32">
         <v>2</v>
       </c>
@@ -10079,7 +10105,7 @@
       <c r="BA49" s="44"/>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A50" s="183"/>
+      <c r="A50" s="184"/>
       <c r="B50" s="32">
         <v>3</v>
       </c>
@@ -10239,7 +10265,7 @@
       <c r="BA50" s="40"/>
     </row>
     <row r="51" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="184"/>
+      <c r="A51" s="185"/>
       <c r="B51" s="48" t="s">
         <v>35</v>
       </c>
@@ -10410,7 +10436,7 @@
       <c r="BA51" s="57"/>
     </row>
     <row r="52" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="182">
+      <c r="A52" s="183">
         <v>13</v>
       </c>
       <c r="B52" s="22">
@@ -10574,7 +10600,7 @@
       <c r="BA52" s="19"/>
     </row>
     <row r="53" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A53" s="183"/>
+      <c r="A53" s="184"/>
       <c r="B53" s="32">
         <v>2</v>
       </c>
@@ -10734,7 +10760,7 @@
       <c r="BA53" s="44"/>
     </row>
     <row r="54" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A54" s="183"/>
+      <c r="A54" s="184"/>
       <c r="B54" s="32">
         <v>3</v>
       </c>
@@ -10894,7 +10920,7 @@
       <c r="BA54" s="40"/>
     </row>
     <row r="55" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="184"/>
+      <c r="A55" s="185"/>
       <c r="B55" s="48" t="s">
         <v>35</v>
       </c>
@@ -11065,7 +11091,7 @@
       <c r="BA55" s="57"/>
     </row>
     <row r="56" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="182">
+      <c r="A56" s="183">
         <v>14</v>
       </c>
       <c r="B56" s="22">
@@ -11227,7 +11253,7 @@
       <c r="BA56" s="19"/>
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A57" s="183"/>
+      <c r="A57" s="184"/>
       <c r="B57" s="32">
         <v>2</v>
       </c>
@@ -11387,7 +11413,7 @@
       <c r="BA57" s="44"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A58" s="183"/>
+      <c r="A58" s="184"/>
       <c r="B58" s="32">
         <v>3</v>
       </c>
@@ -11547,7 +11573,7 @@
       <c r="BA58" s="40"/>
     </row>
     <row r="59" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="184"/>
+      <c r="A59" s="185"/>
       <c r="B59" s="48" t="s">
         <v>35</v>
       </c>
@@ -11718,7 +11744,7 @@
       <c r="BA59" s="57"/>
     </row>
     <row r="60" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="182">
+      <c r="A60" s="183">
         <v>15</v>
       </c>
       <c r="B60" s="22">
@@ -11880,7 +11906,7 @@
       <c r="BA60" s="19"/>
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A61" s="183"/>
+      <c r="A61" s="184"/>
       <c r="B61" s="32">
         <v>2</v>
       </c>
@@ -12040,7 +12066,7 @@
       <c r="BA61" s="44"/>
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A62" s="183"/>
+      <c r="A62" s="184"/>
       <c r="B62" s="32">
         <v>3</v>
       </c>
@@ -12200,7 +12226,7 @@
       <c r="BA62" s="40"/>
     </row>
     <row r="63" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="184"/>
+      <c r="A63" s="185"/>
       <c r="B63" s="48" t="s">
         <v>35</v>
       </c>
@@ -12371,7 +12397,7 @@
       <c r="BA63" s="57"/>
     </row>
     <row r="64" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="182">
+      <c r="A64" s="183">
         <v>16</v>
       </c>
       <c r="B64" s="22">
@@ -12535,7 +12561,7 @@
       <c r="BA64" s="19"/>
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A65" s="183"/>
+      <c r="A65" s="184"/>
       <c r="B65" s="32">
         <v>2</v>
       </c>
@@ -12695,7 +12721,7 @@
       <c r="BA65" s="44"/>
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A66" s="183"/>
+      <c r="A66" s="184"/>
       <c r="B66" s="32">
         <v>3</v>
       </c>
@@ -12855,7 +12881,7 @@
       <c r="BA66" s="40"/>
     </row>
     <row r="67" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="184"/>
+      <c r="A67" s="185"/>
       <c r="B67" s="48" t="s">
         <v>35</v>
       </c>
@@ -13026,7 +13052,7 @@
       <c r="BA67" s="57"/>
     </row>
     <row r="68" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="182">
+      <c r="A68" s="183">
         <v>17</v>
       </c>
       <c r="B68" s="22">
@@ -13190,7 +13216,7 @@
       <c r="BA68" s="19"/>
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A69" s="183"/>
+      <c r="A69" s="184"/>
       <c r="B69" s="32">
         <v>2</v>
       </c>
@@ -13350,7 +13376,7 @@
       <c r="BA69" s="44"/>
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A70" s="183"/>
+      <c r="A70" s="184"/>
       <c r="B70" s="32">
         <v>3</v>
       </c>
@@ -13510,7 +13536,7 @@
       <c r="BA70" s="40"/>
     </row>
     <row r="71" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="184"/>
+      <c r="A71" s="185"/>
       <c r="B71" s="48" t="s">
         <v>35</v>
       </c>
@@ -13681,7 +13707,7 @@
       <c r="BA71" s="57"/>
     </row>
     <row r="72" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="182">
+      <c r="A72" s="183">
         <v>18</v>
       </c>
       <c r="B72" s="22">
@@ -13847,7 +13873,7 @@
       <c r="BA72" s="19"/>
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A73" s="183"/>
+      <c r="A73" s="184"/>
       <c r="B73" s="32">
         <v>2</v>
       </c>
@@ -14007,7 +14033,7 @@
       <c r="BA73" s="44"/>
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A74" s="183"/>
+      <c r="A74" s="184"/>
       <c r="B74" s="32">
         <v>3</v>
       </c>
@@ -14167,7 +14193,7 @@
       <c r="BA74" s="40"/>
     </row>
     <row r="75" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="184"/>
+      <c r="A75" s="185"/>
       <c r="B75" s="48" t="s">
         <v>35</v>
       </c>
@@ -14338,7 +14364,7 @@
       <c r="BA75" s="57"/>
     </row>
     <row r="76" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="182">
+      <c r="A76" s="183">
         <v>19</v>
       </c>
       <c r="B76" s="22">
@@ -14502,7 +14528,7 @@
       <c r="BA76" s="175"/>
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A77" s="183"/>
+      <c r="A77" s="184"/>
       <c r="B77" s="32">
         <v>2</v>
       </c>
@@ -14662,7 +14688,7 @@
       <c r="BA77" s="176"/>
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A78" s="183"/>
+      <c r="A78" s="184"/>
       <c r="B78" s="32">
         <v>3</v>
       </c>
@@ -14822,7 +14848,7 @@
       <c r="BA78" s="177"/>
     </row>
     <row r="79" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="184"/>
+      <c r="A79" s="185"/>
       <c r="B79" s="48" t="s">
         <v>35</v>
       </c>
@@ -14993,7 +15019,7 @@
       <c r="BA79" s="179"/>
     </row>
     <row r="80" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="183">
+      <c r="A80" s="184">
         <v>20</v>
       </c>
       <c r="B80" s="32">
@@ -15159,7 +15185,7 @@
       <c r="BA80" s="168"/>
     </row>
     <row r="81" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A81" s="183"/>
+      <c r="A81" s="184"/>
       <c r="B81" s="32">
         <v>2</v>
       </c>
@@ -15319,7 +15345,7 @@
       <c r="BA81" s="44"/>
     </row>
     <row r="82" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A82" s="183"/>
+      <c r="A82" s="184"/>
       <c r="B82" s="32">
         <v>3</v>
       </c>
@@ -15479,7 +15505,7 @@
       <c r="BA82" s="40"/>
     </row>
     <row r="83" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="184"/>
+      <c r="A83" s="185"/>
       <c r="B83" s="48" t="s">
         <v>35</v>
       </c>
@@ -15650,7 +15676,7 @@
       <c r="BA83" s="57"/>
     </row>
     <row r="84" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="182">
+      <c r="A84" s="183">
         <v>21</v>
       </c>
       <c r="B84" s="22">
@@ -15812,7 +15838,7 @@
       <c r="BA84" s="19"/>
     </row>
     <row r="85" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A85" s="183"/>
+      <c r="A85" s="184"/>
       <c r="B85" s="32">
         <v>2</v>
       </c>
@@ -15972,7 +15998,7 @@
       <c r="BA85" s="44"/>
     </row>
     <row r="86" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A86" s="183"/>
+      <c r="A86" s="184"/>
       <c r="B86" s="32">
         <v>3</v>
       </c>
@@ -16132,7 +16158,7 @@
       <c r="BA86" s="40"/>
     </row>
     <row r="87" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="184"/>
+      <c r="A87" s="185"/>
       <c r="B87" s="48" t="s">
         <v>35</v>
       </c>
@@ -16303,7 +16329,7 @@
       <c r="BA87" s="57"/>
     </row>
     <row r="88" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="182">
+      <c r="A88" s="183">
         <v>22</v>
       </c>
       <c r="B88" s="22">
@@ -16465,7 +16491,7 @@
       <c r="BA88" s="19"/>
     </row>
     <row r="89" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A89" s="183"/>
+      <c r="A89" s="184"/>
       <c r="B89" s="32">
         <v>2</v>
       </c>
@@ -16625,7 +16651,7 @@
       <c r="BA89" s="44"/>
     </row>
     <row r="90" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A90" s="183"/>
+      <c r="A90" s="184"/>
       <c r="B90" s="32">
         <v>3</v>
       </c>
@@ -16785,7 +16811,7 @@
       <c r="BA90" s="40"/>
     </row>
     <row r="91" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="184"/>
+      <c r="A91" s="185"/>
       <c r="B91" s="48" t="s">
         <v>35</v>
       </c>
@@ -16956,7 +16982,7 @@
       <c r="BA91" s="57"/>
     </row>
     <row r="92" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="182">
+      <c r="A92" s="183">
         <v>23</v>
       </c>
       <c r="B92" s="22">
@@ -17120,7 +17146,7 @@
       <c r="BA92" s="19"/>
     </row>
     <row r="93" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A93" s="183"/>
+      <c r="A93" s="184"/>
       <c r="B93" s="32">
         <v>2</v>
       </c>
@@ -17280,7 +17306,7 @@
       <c r="BA93" s="44"/>
     </row>
     <row r="94" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A94" s="183"/>
+      <c r="A94" s="184"/>
       <c r="B94" s="32">
         <v>3</v>
       </c>
@@ -17440,7 +17466,7 @@
       <c r="BA94" s="40"/>
     </row>
     <row r="95" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="184"/>
+      <c r="A95" s="185"/>
       <c r="B95" s="48" t="s">
         <v>35</v>
       </c>
@@ -17611,7 +17637,7 @@
       <c r="BA95" s="57"/>
     </row>
     <row r="96" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="182">
+      <c r="A96" s="183">
         <v>24</v>
       </c>
       <c r="B96" s="22">
@@ -17777,7 +17803,7 @@
       <c r="BA96" s="19"/>
     </row>
     <row r="97" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A97" s="183"/>
+      <c r="A97" s="184"/>
       <c r="B97" s="32">
         <v>2</v>
       </c>
@@ -17937,7 +17963,7 @@
       <c r="BA97" s="44"/>
     </row>
     <row r="98" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A98" s="183"/>
+      <c r="A98" s="184"/>
       <c r="B98" s="32">
         <v>3</v>
       </c>
@@ -18097,7 +18123,7 @@
       <c r="BA98" s="40"/>
     </row>
     <row r="99" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="184"/>
+      <c r="A99" s="185"/>
       <c r="B99" s="48" t="s">
         <v>35</v>
       </c>
@@ -18265,7 +18291,7 @@
       <c r="BA99" s="57"/>
     </row>
     <row r="100" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="192">
+      <c r="A100" s="186">
         <v>25</v>
       </c>
       <c r="B100" s="32">
@@ -18431,7 +18457,7 @@
       <c r="BA100" s="19"/>
     </row>
     <row r="101" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A101" s="192"/>
+      <c r="A101" s="186"/>
       <c r="B101" s="32">
         <v>2</v>
       </c>
@@ -18591,7 +18617,7 @@
       <c r="BA101" s="44"/>
     </row>
     <row r="102" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A102" s="192"/>
+      <c r="A102" s="186"/>
       <c r="B102" s="32">
         <v>3</v>
       </c>
@@ -18751,7 +18777,7 @@
       <c r="BA102" s="40"/>
     </row>
     <row r="103" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="192"/>
+      <c r="A103" s="186"/>
       <c r="B103" s="65" t="s">
         <v>35</v>
       </c>
@@ -18922,7 +18948,7 @@
       <c r="BA103" s="57"/>
     </row>
     <row r="104" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="182">
+      <c r="A104" s="183">
         <v>26</v>
       </c>
       <c r="B104" s="22">
@@ -19088,7 +19114,7 @@
       <c r="BA104" s="19"/>
     </row>
     <row r="105" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A105" s="183"/>
+      <c r="A105" s="184"/>
       <c r="B105" s="32">
         <v>2</v>
       </c>
@@ -19248,7 +19274,7 @@
       <c r="BA105" s="44"/>
     </row>
     <row r="106" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A106" s="183"/>
+      <c r="A106" s="184"/>
       <c r="B106" s="32">
         <v>3</v>
       </c>
@@ -19408,7 +19434,7 @@
       <c r="BA106" s="40"/>
     </row>
     <row r="107" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="184"/>
+      <c r="A107" s="185"/>
       <c r="B107" s="48" t="s">
         <v>35</v>
       </c>
@@ -19579,7 +19605,7 @@
       <c r="BA107" s="57"/>
     </row>
     <row r="108" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="182">
+      <c r="A108" s="183">
         <v>27</v>
       </c>
       <c r="B108" s="22">
@@ -19745,7 +19771,7 @@
       <c r="BA108" s="19"/>
     </row>
     <row r="109" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A109" s="183"/>
+      <c r="A109" s="184"/>
       <c r="B109" s="32">
         <v>2</v>
       </c>
@@ -19905,7 +19931,7 @@
       <c r="BA109" s="44"/>
     </row>
     <row r="110" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A110" s="183"/>
+      <c r="A110" s="184"/>
       <c r="B110" s="32">
         <v>3</v>
       </c>
@@ -20065,7 +20091,7 @@
       <c r="BA110" s="40"/>
     </row>
     <row r="111" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="184"/>
+      <c r="A111" s="185"/>
       <c r="B111" s="48" t="s">
         <v>35</v>
       </c>
@@ -20236,7 +20262,7 @@
       <c r="BA111" s="57"/>
     </row>
     <row r="112" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="182">
+      <c r="A112" s="183">
         <v>28</v>
       </c>
       <c r="B112" s="22">
@@ -20398,7 +20424,7 @@
       <c r="BA112" s="19"/>
     </row>
     <row r="113" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A113" s="183"/>
+      <c r="A113" s="184"/>
       <c r="B113" s="32">
         <v>2</v>
       </c>
@@ -20558,7 +20584,7 @@
       <c r="BA113" s="44"/>
     </row>
     <row r="114" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A114" s="183"/>
+      <c r="A114" s="184"/>
       <c r="B114" s="32">
         <v>3</v>
       </c>
@@ -20718,7 +20744,7 @@
       <c r="BA114" s="40"/>
     </row>
     <row r="115" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="184"/>
+      <c r="A115" s="185"/>
       <c r="B115" s="48" t="s">
         <v>35</v>
       </c>
@@ -20889,7 +20915,7 @@
       <c r="BA115" s="57"/>
     </row>
     <row r="116" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="183">
+      <c r="A116" s="184">
         <v>29</v>
       </c>
       <c r="B116" s="32">
@@ -21051,7 +21077,7 @@
       <c r="BA116" s="19"/>
     </row>
     <row r="117" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A117" s="183"/>
+      <c r="A117" s="184"/>
       <c r="B117" s="32">
         <v>2</v>
       </c>
@@ -21211,7 +21237,7 @@
       <c r="BA117" s="44"/>
     </row>
     <row r="118" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A118" s="183"/>
+      <c r="A118" s="184"/>
       <c r="B118" s="32">
         <v>3</v>
       </c>
@@ -21371,7 +21397,7 @@
       <c r="BA118" s="40"/>
     </row>
     <row r="119" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="184"/>
+      <c r="A119" s="185"/>
       <c r="B119" s="48" t="s">
         <v>35</v>
       </c>
@@ -21542,7 +21568,7 @@
       <c r="BA119" s="57"/>
     </row>
     <row r="120" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="182">
+      <c r="A120" s="183">
         <v>30</v>
       </c>
       <c r="B120" s="22">
@@ -21708,7 +21734,7 @@
       <c r="BA120" s="19"/>
     </row>
     <row r="121" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A121" s="183"/>
+      <c r="A121" s="184"/>
       <c r="B121" s="32">
         <v>2</v>
       </c>
@@ -21868,7 +21894,7 @@
       <c r="BA121" s="44"/>
     </row>
     <row r="122" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A122" s="183"/>
+      <c r="A122" s="184"/>
       <c r="B122" s="32">
         <v>3</v>
       </c>
@@ -22028,7 +22054,7 @@
       <c r="BA122" s="40"/>
     </row>
     <row r="123" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="184"/>
+      <c r="A123" s="185"/>
       <c r="B123" s="48" t="s">
         <v>35</v>
       </c>
@@ -22199,7 +22225,7 @@
       <c r="BA123" s="57"/>
     </row>
     <row r="124" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="182">
+      <c r="A124" s="183">
         <v>31</v>
       </c>
       <c r="B124" s="22">
@@ -22309,7 +22335,7 @@
       <c r="BA124" s="19"/>
     </row>
     <row r="125" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A125" s="183"/>
+      <c r="A125" s="184"/>
       <c r="B125" s="32">
         <v>2</v>
       </c>
@@ -22417,7 +22443,7 @@
       <c r="BA125" s="44"/>
     </row>
     <row r="126" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A126" s="183"/>
+      <c r="A126" s="184"/>
       <c r="B126" s="32">
         <v>3</v>
       </c>
@@ -22525,7 +22551,7 @@
       <c r="BA126" s="40"/>
     </row>
     <row r="127" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="184"/>
+      <c r="A127" s="185"/>
       <c r="B127" s="48" t="s">
         <v>35</v>
       </c>
@@ -22918,6 +22944,26 @@
     <protectedRange sqref="AB1" name="Range1_1_1_1_1_1_1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="36">
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="A120:A123"/>
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A100:A103"/>
@@ -22934,26 +22980,6 @@
     <mergeCell ref="A68:A71"/>
     <mergeCell ref="A84:A87"/>
     <mergeCell ref="AX1:AY1"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23031,13 +23057,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="187" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -23166,19 +23192,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="191" t="s">
+      <c r="AX1" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="191"/>
-      <c r="AZ1" s="191" t="s">
+      <c r="AY1" s="182"/>
+      <c r="AZ1" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="191"/>
+      <c r="BA1" s="182"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="186"/>
+      <c r="A2" s="192"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="188"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -23369,7 +23395,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="182">
+      <c r="A4" s="183">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -23533,7 +23559,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" s="183"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -23692,7 +23718,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="183"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -23851,7 +23877,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -24022,7 +24048,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="182">
+      <c r="A8" s="183">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -24186,7 +24212,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" s="183"/>
+      <c r="A9" s="184"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -24346,7 +24372,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" s="183"/>
+      <c r="A10" s="184"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -24506,7 +24532,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="184"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -24677,7 +24703,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182">
+      <c r="A12" s="183">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -24839,7 +24865,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" s="183"/>
+      <c r="A13" s="184"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -24999,7 +25025,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14" s="183"/>
+      <c r="A14" s="184"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -25159,7 +25185,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="184"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -25330,7 +25356,7 @@
       <c r="BA15" s="57"/>
     </row>
     <row r="16" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182">
+      <c r="A16" s="183">
         <v>4</v>
       </c>
       <c r="B16" s="22">
@@ -25492,7 +25518,7 @@
       <c r="BA16" s="19"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A17" s="183"/>
+      <c r="A17" s="184"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -25652,7 +25678,7 @@
       <c r="BA17" s="44"/>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18" s="183"/>
+      <c r="A18" s="184"/>
       <c r="B18" s="32">
         <v>3</v>
       </c>
@@ -25812,7 +25838,7 @@
       <c r="BA18" s="40"/>
     </row>
     <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="184"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="48" t="s">
         <v>35</v>
       </c>
@@ -25983,7 +26009,7 @@
       <c r="BA19" s="57"/>
     </row>
     <row r="20" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="182">
+      <c r="A20" s="183">
         <v>5</v>
       </c>
       <c r="B20" s="22">
@@ -26145,7 +26171,7 @@
       <c r="BA20" s="19"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" s="183"/>
+      <c r="A21" s="184"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
@@ -26305,7 +26331,7 @@
       <c r="BA21" s="44"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22" s="183"/>
+      <c r="A22" s="184"/>
       <c r="B22" s="32">
         <v>3</v>
       </c>
@@ -26465,7 +26491,7 @@
       <c r="BA22" s="40"/>
     </row>
     <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="184"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
@@ -26636,7 +26662,7 @@
       <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182">
+      <c r="A24" s="183">
         <v>6</v>
       </c>
       <c r="B24" s="22">
@@ -26798,7 +26824,7 @@
       <c r="BA24" s="19"/>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A25" s="183"/>
+      <c r="A25" s="184"/>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -26958,7 +26984,7 @@
       <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A26" s="183"/>
+      <c r="A26" s="184"/>
       <c r="B26" s="32">
         <v>3</v>
       </c>
@@ -27118,7 +27144,7 @@
       <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="184"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="48" t="s">
         <v>35</v>
       </c>
@@ -27289,7 +27315,7 @@
       <c r="BA27" s="57"/>
     </row>
     <row r="28" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="182">
+      <c r="A28" s="183">
         <v>7</v>
       </c>
       <c r="B28" s="22">
@@ -27453,7 +27479,7 @@
       <c r="BA28" s="19"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A29" s="183"/>
+      <c r="A29" s="184"/>
       <c r="B29" s="32">
         <v>2</v>
       </c>
@@ -27611,7 +27637,7 @@
       <c r="BA29" s="44"/>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A30" s="183"/>
+      <c r="A30" s="184"/>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -27769,7 +27795,7 @@
       <c r="BA30" s="40"/>
     </row>
     <row r="31" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="184"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="48" t="s">
         <v>35</v>
       </c>
@@ -27940,7 +27966,7 @@
       <c r="BA31" s="57"/>
     </row>
     <row r="32" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="182">
+      <c r="A32" s="183">
         <v>8</v>
       </c>
       <c r="B32" s="22">
@@ -28104,7 +28130,7 @@
       <c r="BA32" s="19"/>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A33" s="183"/>
+      <c r="A33" s="184"/>
       <c r="B33" s="32">
         <v>2</v>
       </c>
@@ -28264,7 +28290,7 @@
       <c r="BA33" s="44"/>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A34" s="183"/>
+      <c r="A34" s="184"/>
       <c r="B34" s="32">
         <v>3</v>
       </c>
@@ -28424,7 +28450,7 @@
       <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="184"/>
+      <c r="A35" s="185"/>
       <c r="B35" s="48" t="s">
         <v>35</v>
       </c>
@@ -28595,7 +28621,7 @@
       <c r="BA35" s="57"/>
     </row>
     <row r="36" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="182">
+      <c r="A36" s="183">
         <v>9</v>
       </c>
       <c r="B36" s="22">
@@ -28759,7 +28785,7 @@
       <c r="BA36" s="19"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A37" s="183"/>
+      <c r="A37" s="184"/>
       <c r="B37" s="32">
         <v>2</v>
       </c>
@@ -28919,7 +28945,7 @@
       <c r="BA37" s="44"/>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A38" s="183"/>
+      <c r="A38" s="184"/>
       <c r="B38" s="32">
         <v>3</v>
       </c>
@@ -29079,7 +29105,7 @@
       <c r="BA38" s="40"/>
     </row>
     <row r="39" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="184"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="48" t="s">
         <v>35</v>
       </c>
@@ -29250,7 +29276,7 @@
       <c r="BA39" s="57"/>
     </row>
     <row r="40" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="182">
+      <c r="A40" s="183">
         <v>10</v>
       </c>
       <c r="B40" s="22">
@@ -29414,7 +29440,7 @@
       <c r="BA40" s="19"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A41" s="183"/>
+      <c r="A41" s="184"/>
       <c r="B41" s="32">
         <v>2</v>
       </c>
@@ -29570,7 +29596,7 @@
       <c r="BA41" s="44"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A42" s="183"/>
+      <c r="A42" s="184"/>
       <c r="B42" s="32">
         <v>3</v>
       </c>
@@ -29718,7 +29744,7 @@
       <c r="BA42" s="40"/>
     </row>
     <row r="43" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="184"/>
+      <c r="A43" s="185"/>
       <c r="B43" s="48" t="s">
         <v>35</v>
       </c>
@@ -29889,7 +29915,7 @@
       <c r="BA43" s="57"/>
     </row>
     <row r="44" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="182">
+      <c r="A44" s="183">
         <v>11</v>
       </c>
       <c r="B44" s="22">
@@ -30051,7 +30077,7 @@
       <c r="BA44" s="19"/>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A45" s="183"/>
+      <c r="A45" s="184"/>
       <c r="B45" s="32">
         <v>2</v>
       </c>
@@ -30211,7 +30237,7 @@
       <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A46" s="183"/>
+      <c r="A46" s="184"/>
       <c r="B46" s="32">
         <v>3</v>
       </c>
@@ -30371,7 +30397,7 @@
       <c r="BA46" s="40"/>
     </row>
     <row r="47" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="184"/>
+      <c r="A47" s="185"/>
       <c r="B47" s="48" t="s">
         <v>35</v>
       </c>
@@ -30542,7 +30568,7 @@
       <c r="BA47" s="57"/>
     </row>
     <row r="48" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="182">
+      <c r="A48" s="183">
         <v>12</v>
       </c>
       <c r="B48" s="22">
@@ -30704,7 +30730,7 @@
       <c r="BA48" s="19"/>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A49" s="183"/>
+      <c r="A49" s="184"/>
       <c r="B49" s="32">
         <v>2</v>
       </c>
@@ -30864,7 +30890,7 @@
       <c r="BA49" s="44"/>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A50" s="183"/>
+      <c r="A50" s="184"/>
       <c r="B50" s="32">
         <v>3</v>
       </c>
@@ -31024,7 +31050,7 @@
       <c r="BA50" s="40"/>
     </row>
     <row r="51" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="184"/>
+      <c r="A51" s="185"/>
       <c r="B51" s="48" t="s">
         <v>35</v>
       </c>
@@ -31829,7 +31855,7 @@
       <c r="BA55" s="57"/>
     </row>
     <row r="56" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="182">
+      <c r="A56" s="183">
         <v>14</v>
       </c>
       <c r="B56" s="22">
@@ -31993,7 +32019,7 @@
       <c r="BA56" s="19"/>
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A57" s="183"/>
+      <c r="A57" s="184"/>
       <c r="B57" s="32">
         <v>2</v>
       </c>
@@ -32153,7 +32179,7 @@
       <c r="BA57" s="44"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A58" s="183"/>
+      <c r="A58" s="184"/>
       <c r="B58" s="32">
         <v>3</v>
       </c>
@@ -32313,7 +32339,7 @@
       <c r="BA58" s="40"/>
     </row>
     <row r="59" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="184"/>
+      <c r="A59" s="185"/>
       <c r="B59" s="48" t="s">
         <v>35</v>
       </c>
@@ -32484,7 +32510,7 @@
       <c r="BA59" s="57"/>
     </row>
     <row r="60" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="182">
+      <c r="A60" s="183">
         <v>15</v>
       </c>
       <c r="B60" s="22">
@@ -32648,7 +32674,7 @@
       <c r="BA60" s="19"/>
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A61" s="183"/>
+      <c r="A61" s="184"/>
       <c r="B61" s="32">
         <v>2</v>
       </c>
@@ -32808,7 +32834,7 @@
       <c r="BA61" s="44"/>
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A62" s="183"/>
+      <c r="A62" s="184"/>
       <c r="B62" s="32">
         <v>3</v>
       </c>
@@ -32968,7 +32994,7 @@
       <c r="BA62" s="40"/>
     </row>
     <row r="63" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="184"/>
+      <c r="A63" s="185"/>
       <c r="B63" s="48" t="s">
         <v>35</v>
       </c>
@@ -33139,7 +33165,7 @@
       <c r="BA63" s="57"/>
     </row>
     <row r="64" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="182">
+      <c r="A64" s="183">
         <v>16</v>
       </c>
       <c r="B64" s="22">
@@ -33305,7 +33331,7 @@
       <c r="BA64" s="19"/>
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A65" s="183"/>
+      <c r="A65" s="184"/>
       <c r="B65" s="32">
         <v>2</v>
       </c>
@@ -33465,7 +33491,7 @@
       <c r="BA65" s="44"/>
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A66" s="183"/>
+      <c r="A66" s="184"/>
       <c r="B66" s="32">
         <v>3</v>
       </c>
@@ -33625,7 +33651,7 @@
       <c r="BA66" s="40"/>
     </row>
     <row r="67" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="184"/>
+      <c r="A67" s="185"/>
       <c r="B67" s="48" t="s">
         <v>35</v>
       </c>
@@ -33796,7 +33822,7 @@
       <c r="BA67" s="57"/>
     </row>
     <row r="68" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="182">
+      <c r="A68" s="183">
         <v>17</v>
       </c>
       <c r="B68" s="22">
@@ -33960,7 +33986,7 @@
       <c r="BA68" s="19"/>
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A69" s="183"/>
+      <c r="A69" s="184"/>
       <c r="B69" s="32">
         <v>2</v>
       </c>
@@ -34120,7 +34146,7 @@
       <c r="BA69" s="44"/>
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A70" s="183"/>
+      <c r="A70" s="184"/>
       <c r="B70" s="32">
         <v>3</v>
       </c>
@@ -34280,7 +34306,7 @@
       <c r="BA70" s="40"/>
     </row>
     <row r="71" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="184"/>
+      <c r="A71" s="185"/>
       <c r="B71" s="48" t="s">
         <v>35</v>
       </c>
@@ -34451,7 +34477,7 @@
       <c r="BA71" s="57"/>
     </row>
     <row r="72" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="182">
+      <c r="A72" s="183">
         <v>18</v>
       </c>
       <c r="B72" s="22">
@@ -34615,7 +34641,7 @@
       <c r="BA72" s="19"/>
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A73" s="183"/>
+      <c r="A73" s="184"/>
       <c r="B73" s="32">
         <v>2</v>
       </c>
@@ -34775,7 +34801,7 @@
       <c r="BA73" s="44"/>
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A74" s="183"/>
+      <c r="A74" s="184"/>
       <c r="B74" s="32">
         <v>3</v>
       </c>
@@ -34935,7 +34961,7 @@
       <c r="BA74" s="40"/>
     </row>
     <row r="75" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="184"/>
+      <c r="A75" s="185"/>
       <c r="B75" s="48" t="s">
         <v>35</v>
       </c>
@@ -35106,7 +35132,7 @@
       <c r="BA75" s="57"/>
     </row>
     <row r="76" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="182">
+      <c r="A76" s="183">
         <v>19</v>
       </c>
       <c r="B76" s="22">
@@ -35268,7 +35294,7 @@
       <c r="BA76" s="19"/>
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A77" s="183"/>
+      <c r="A77" s="184"/>
       <c r="B77" s="32">
         <v>2</v>
       </c>
@@ -35428,7 +35454,7 @@
       <c r="BA77" s="44"/>
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A78" s="183"/>
+      <c r="A78" s="184"/>
       <c r="B78" s="32">
         <v>3</v>
       </c>
@@ -35588,7 +35614,7 @@
       <c r="BA78" s="40"/>
     </row>
     <row r="79" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="184"/>
+      <c r="A79" s="185"/>
       <c r="B79" s="48" t="s">
         <v>35</v>
       </c>
@@ -35759,7 +35785,7 @@
       <c r="BA79" s="57"/>
     </row>
     <row r="80" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="182">
+      <c r="A80" s="183">
         <v>20</v>
       </c>
       <c r="B80" s="22">
@@ -35921,7 +35947,7 @@
       <c r="BA80" s="19"/>
     </row>
     <row r="81" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A81" s="183"/>
+      <c r="A81" s="184"/>
       <c r="B81" s="32">
         <v>2</v>
       </c>
@@ -36081,7 +36107,7 @@
       <c r="BA81" s="44"/>
     </row>
     <row r="82" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A82" s="183"/>
+      <c r="A82" s="184"/>
       <c r="B82" s="32">
         <v>3</v>
       </c>
@@ -36241,7 +36267,7 @@
       <c r="BA82" s="40"/>
     </row>
     <row r="83" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="184"/>
+      <c r="A83" s="185"/>
       <c r="B83" s="48" t="s">
         <v>35</v>
       </c>
@@ -36412,7 +36438,7 @@
       <c r="BA83" s="57"/>
     </row>
     <row r="84" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="182">
+      <c r="A84" s="183">
         <v>21</v>
       </c>
       <c r="B84" s="22">
@@ -36576,7 +36602,7 @@
       <c r="BA84" s="19"/>
     </row>
     <row r="85" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A85" s="183"/>
+      <c r="A85" s="184"/>
       <c r="B85" s="32">
         <v>2</v>
       </c>
@@ -36736,7 +36762,7 @@
       <c r="BA85" s="44"/>
     </row>
     <row r="86" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A86" s="183"/>
+      <c r="A86" s="184"/>
       <c r="B86" s="32">
         <v>3</v>
       </c>
@@ -36896,7 +36922,7 @@
       <c r="BA86" s="40"/>
     </row>
     <row r="87" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="184"/>
+      <c r="A87" s="185"/>
       <c r="B87" s="48" t="s">
         <v>35</v>
       </c>
@@ -37067,7 +37093,7 @@
       <c r="BA87" s="57"/>
     </row>
     <row r="88" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="182">
+      <c r="A88" s="183">
         <v>22</v>
       </c>
       <c r="B88" s="22">
@@ -37231,7 +37257,7 @@
       <c r="BA88" s="19"/>
     </row>
     <row r="89" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A89" s="183"/>
+      <c r="A89" s="184"/>
       <c r="B89" s="32">
         <v>2</v>
       </c>
@@ -37391,7 +37417,7 @@
       <c r="BA89" s="44"/>
     </row>
     <row r="90" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A90" s="183"/>
+      <c r="A90" s="184"/>
       <c r="B90" s="32">
         <v>3</v>
       </c>
@@ -37551,7 +37577,7 @@
       <c r="BA90" s="40"/>
     </row>
     <row r="91" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="184"/>
+      <c r="A91" s="185"/>
       <c r="B91" s="48" t="s">
         <v>35</v>
       </c>
@@ -37722,7 +37748,7 @@
       <c r="BA91" s="57"/>
     </row>
     <row r="92" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="182">
+      <c r="A92" s="183">
         <v>23</v>
       </c>
       <c r="B92" s="22">
@@ -37886,7 +37912,7 @@
       <c r="BA92" s="19"/>
     </row>
     <row r="93" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A93" s="183"/>
+      <c r="A93" s="184"/>
       <c r="B93" s="32">
         <v>2</v>
       </c>
@@ -38044,7 +38070,7 @@
       <c r="BA93" s="44"/>
     </row>
     <row r="94" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A94" s="183"/>
+      <c r="A94" s="184"/>
       <c r="B94" s="32">
         <v>3</v>
       </c>
@@ -38198,7 +38224,7 @@
       <c r="BA94" s="40"/>
     </row>
     <row r="95" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="184"/>
+      <c r="A95" s="185"/>
       <c r="B95" s="48" t="s">
         <v>35</v>
       </c>
@@ -38369,7 +38395,7 @@
       <c r="BA95" s="57"/>
     </row>
     <row r="96" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="182">
+      <c r="A96" s="183">
         <v>24</v>
       </c>
       <c r="B96" s="22">
@@ -38533,7 +38559,7 @@
       <c r="BA96" s="19"/>
     </row>
     <row r="97" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A97" s="183"/>
+      <c r="A97" s="184"/>
       <c r="B97" s="32">
         <v>2</v>
       </c>
@@ -38693,7 +38719,7 @@
       <c r="BA97" s="44"/>
     </row>
     <row r="98" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A98" s="183"/>
+      <c r="A98" s="184"/>
       <c r="B98" s="32">
         <v>3</v>
       </c>
@@ -38853,7 +38879,7 @@
       <c r="BA98" s="40"/>
     </row>
     <row r="99" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="184"/>
+      <c r="A99" s="185"/>
       <c r="B99" s="48" t="s">
         <v>35</v>
       </c>
@@ -39024,7 +39050,7 @@
       <c r="BA99" s="57"/>
     </row>
     <row r="100" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="192">
+      <c r="A100" s="186">
         <v>25</v>
       </c>
       <c r="B100" s="32">
@@ -39188,7 +39214,7 @@
       <c r="BA100" s="19"/>
     </row>
     <row r="101" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A101" s="192"/>
+      <c r="A101" s="186"/>
       <c r="B101" s="32">
         <v>2</v>
       </c>
@@ -39348,7 +39374,7 @@
       <c r="BA101" s="44"/>
     </row>
     <row r="102" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A102" s="192"/>
+      <c r="A102" s="186"/>
       <c r="B102" s="32">
         <v>3</v>
       </c>
@@ -39508,7 +39534,7 @@
       <c r="BA102" s="40"/>
     </row>
     <row r="103" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="192"/>
+      <c r="A103" s="186"/>
       <c r="B103" s="65" t="s">
         <v>35</v>
       </c>
@@ -39679,7 +39705,7 @@
       <c r="BA103" s="57"/>
     </row>
     <row r="104" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="182">
+      <c r="A104" s="183">
         <v>26</v>
       </c>
       <c r="B104" s="22">
@@ -39841,7 +39867,7 @@
       <c r="BA104" s="19"/>
     </row>
     <row r="105" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A105" s="183"/>
+      <c r="A105" s="184"/>
       <c r="B105" s="32">
         <v>2</v>
       </c>
@@ -40001,7 +40027,7 @@
       <c r="BA105" s="44"/>
     </row>
     <row r="106" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A106" s="183"/>
+      <c r="A106" s="184"/>
       <c r="B106" s="32">
         <v>3</v>
       </c>
@@ -40161,7 +40187,7 @@
       <c r="BA106" s="40"/>
     </row>
     <row r="107" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="184"/>
+      <c r="A107" s="185"/>
       <c r="B107" s="48" t="s">
         <v>35</v>
       </c>
@@ -40332,7 +40358,7 @@
       <c r="BA107" s="57"/>
     </row>
     <row r="108" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="182">
+      <c r="A108" s="183">
         <v>27</v>
       </c>
       <c r="B108" s="22">
@@ -40494,7 +40520,7 @@
       <c r="BA108" s="19"/>
     </row>
     <row r="109" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A109" s="183"/>
+      <c r="A109" s="184"/>
       <c r="B109" s="32">
         <v>2</v>
       </c>
@@ -40650,7 +40676,7 @@
       <c r="BA109" s="44"/>
     </row>
     <row r="110" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A110" s="183"/>
+      <c r="A110" s="184"/>
       <c r="B110" s="32">
         <v>3</v>
       </c>
@@ -40800,7 +40826,7 @@
       <c r="BA110" s="40"/>
     </row>
     <row r="111" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="184"/>
+      <c r="A111" s="185"/>
       <c r="B111" s="48" t="s">
         <v>35</v>
       </c>
@@ -40971,7 +40997,7 @@
       <c r="BA111" s="57"/>
     </row>
     <row r="112" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="182">
+      <c r="A112" s="183">
         <v>28</v>
       </c>
       <c r="B112" s="22">
@@ -41135,7 +41161,7 @@
       <c r="BA112" s="19"/>
     </row>
     <row r="113" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A113" s="183"/>
+      <c r="A113" s="184"/>
       <c r="B113" s="32">
         <v>2</v>
       </c>
@@ -41295,7 +41321,7 @@
       <c r="BA113" s="44"/>
     </row>
     <row r="114" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A114" s="183"/>
+      <c r="A114" s="184"/>
       <c r="B114" s="32">
         <v>3</v>
       </c>
@@ -41455,7 +41481,7 @@
       <c r="BA114" s="40"/>
     </row>
     <row r="115" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="184"/>
+      <c r="A115" s="185"/>
       <c r="B115" s="48" t="s">
         <v>35</v>
       </c>
@@ -41626,7 +41652,7 @@
       <c r="BA115" s="57"/>
     </row>
     <row r="116" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="183">
+      <c r="A116" s="184">
         <v>29</v>
       </c>
       <c r="B116" s="32">
@@ -41790,7 +41816,7 @@
       <c r="BA116" s="19"/>
     </row>
     <row r="117" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A117" s="183"/>
+      <c r="A117" s="184"/>
       <c r="B117" s="32">
         <v>2</v>
       </c>
@@ -41950,7 +41976,7 @@
       <c r="BA117" s="44"/>
     </row>
     <row r="118" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A118" s="183"/>
+      <c r="A118" s="184"/>
       <c r="B118" s="32">
         <v>3</v>
       </c>
@@ -42110,7 +42136,7 @@
       <c r="BA118" s="40"/>
     </row>
     <row r="119" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="184"/>
+      <c r="A119" s="185"/>
       <c r="B119" s="48" t="s">
         <v>35</v>
       </c>
@@ -42281,7 +42307,7 @@
       <c r="BA119" s="57"/>
     </row>
     <row r="120" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="182">
+      <c r="A120" s="183">
         <v>30</v>
       </c>
       <c r="B120" s="22">
@@ -42445,7 +42471,7 @@
       <c r="BA120" s="19"/>
     </row>
     <row r="121" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A121" s="183"/>
+      <c r="A121" s="184"/>
       <c r="B121" s="32">
         <v>2</v>
       </c>
@@ -42605,7 +42631,7 @@
       <c r="BA121" s="44"/>
     </row>
     <row r="122" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A122" s="183"/>
+      <c r="A122" s="184"/>
       <c r="B122" s="32">
         <v>3</v>
       </c>
@@ -42765,7 +42791,7 @@
       <c r="BA122" s="40"/>
     </row>
     <row r="123" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="184"/>
+      <c r="A123" s="185"/>
       <c r="B123" s="48" t="s">
         <v>35</v>
       </c>
@@ -42936,7 +42962,7 @@
       <c r="BA123" s="57"/>
     </row>
     <row r="124" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="182">
+      <c r="A124" s="183">
         <v>31</v>
       </c>
       <c r="B124" s="22">
@@ -43100,7 +43126,7 @@
       <c r="BA124" s="19"/>
     </row>
     <row r="125" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A125" s="183"/>
+      <c r="A125" s="184"/>
       <c r="B125" s="32">
         <v>2</v>
       </c>
@@ -43256,7 +43282,7 @@
       <c r="BA125" s="44"/>
     </row>
     <row r="126" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A126" s="183"/>
+      <c r="A126" s="184"/>
       <c r="B126" s="32">
         <v>3</v>
       </c>
@@ -43406,7 +43432,7 @@
       <c r="BA126" s="40"/>
     </row>
     <row r="127" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="184"/>
+      <c r="A127" s="185"/>
       <c r="B127" s="48" t="s">
         <v>35</v>
       </c>
@@ -43842,18 +43868,16 @@
     <protectedRange sqref="AB112:AB127" name="Range1_1_1_1_1_2_2_1_1_4"/>
   </protectedRanges>
   <mergeCells count="35">
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A32:A35"/>
@@ -43867,16 +43891,18 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -43886,22 +43912,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6555BB66-49A2-4157-88D4-D9BD7AEDD16F}">
-  <dimension ref="A1:BA43"/>
+  <dimension ref="A1:BA47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="187" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -44030,19 +44056,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="191" t="s">
+      <c r="AX1" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="191"/>
-      <c r="AZ1" s="191" t="s">
+      <c r="AY1" s="182"/>
+      <c r="AZ1" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="191"/>
+      <c r="BA1" s="182"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="186"/>
+      <c r="A2" s="192"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="188"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -44233,7 +44259,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="182">
+      <c r="A4" s="183">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -44355,7 +44381,7 @@
         <v>0.89341832658664044</v>
       </c>
       <c r="AK4" s="59">
-        <f t="shared" ref="AK4:AK43" si="6">IF(AND(AE4&gt;0,AN4&gt;0,AF4&gt;0),((AN4*(AE4-AF4))/(AE4*(AN4-AF4))),0)</f>
+        <f t="shared" ref="AK4:AK47" si="6">IF(AND(AE4&gt;0,AN4&gt;0,AF4&gt;0),((AN4*(AE4-AF4))/(AE4*(AN4-AF4))),0)</f>
         <v>0.89517063729570767</v>
       </c>
       <c r="AL4" s="11">
@@ -44397,7 +44423,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="183"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -44557,7 +44583,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="183"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -44717,7 +44743,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -44888,7 +44914,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="182">
+      <c r="A8" s="183">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -45050,7 +45076,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="183"/>
+      <c r="A9" s="184"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -45210,7 +45236,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="183"/>
+      <c r="A10" s="184"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -45370,7 +45396,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="184"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -45541,7 +45567,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182">
+      <c r="A12" s="183">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -45703,7 +45729,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="183"/>
+      <c r="A13" s="184"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -45859,7 +45885,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="183"/>
+      <c r="A14" s="184"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -46009,7 +46035,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="184"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -46180,7 +46206,7 @@
       <c r="BA15" s="57"/>
     </row>
     <row r="16" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182">
+      <c r="A16" s="183">
         <v>4</v>
       </c>
       <c r="B16" s="22">
@@ -46344,7 +46370,7 @@
       <c r="BA16" s="19"/>
     </row>
     <row r="17" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="183"/>
+      <c r="A17" s="184"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -46504,7 +46530,7 @@
       <c r="BA17" s="44"/>
     </row>
     <row r="18" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="183"/>
+      <c r="A18" s="184"/>
       <c r="B18" s="32">
         <v>3</v>
       </c>
@@ -46664,7 +46690,7 @@
       <c r="BA18" s="40"/>
     </row>
     <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="184"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="48" t="s">
         <v>35</v>
       </c>
@@ -46835,7 +46861,7 @@
       <c r="BA19" s="57"/>
     </row>
     <row r="20" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="182">
+      <c r="A20" s="183">
         <v>5</v>
       </c>
       <c r="B20" s="22">
@@ -46999,7 +47025,7 @@
       <c r="BA20" s="19"/>
     </row>
     <row r="21" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="183"/>
+      <c r="A21" s="184"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
@@ -47159,7 +47185,7 @@
       <c r="BA21" s="44"/>
     </row>
     <row r="22" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="183"/>
+      <c r="A22" s="184"/>
       <c r="B22" s="32">
         <v>3</v>
       </c>
@@ -47319,7 +47345,7 @@
       <c r="BA22" s="40"/>
     </row>
     <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="184"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
@@ -47490,7 +47516,7 @@
       <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182">
+      <c r="A24" s="183">
         <v>6</v>
       </c>
       <c r="B24" s="22">
@@ -47654,7 +47680,7 @@
       <c r="BA24" s="19"/>
     </row>
     <row r="25" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="183"/>
+      <c r="A25" s="184"/>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -47810,7 +47836,7 @@
       <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="183"/>
+      <c r="A26" s="184"/>
       <c r="B26" s="32">
         <v>3</v>
       </c>
@@ -47960,7 +47986,7 @@
       <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="184"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="48" t="s">
         <v>35</v>
       </c>
@@ -48131,7 +48157,7 @@
       <c r="BA27" s="57"/>
     </row>
     <row r="28" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="182">
+      <c r="A28" s="183">
         <v>7</v>
       </c>
       <c r="B28" s="22">
@@ -48297,7 +48323,7 @@
       <c r="BA28" s="19"/>
     </row>
     <row r="29" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="183"/>
+      <c r="A29" s="184"/>
       <c r="B29" s="32">
         <v>2</v>
       </c>
@@ -48457,7 +48483,7 @@
       <c r="BA29" s="44"/>
     </row>
     <row r="30" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="183"/>
+      <c r="A30" s="184"/>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -48617,7 +48643,7 @@
       <c r="BA30" s="40"/>
     </row>
     <row r="31" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="184"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="48" t="s">
         <v>35</v>
       </c>
@@ -48788,7 +48814,7 @@
       <c r="BA31" s="57"/>
     </row>
     <row r="32" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="182">
+      <c r="A32" s="183">
         <v>8</v>
       </c>
       <c r="B32" s="22">
@@ -48954,7 +48980,7 @@
       <c r="BA32" s="19"/>
     </row>
     <row r="33" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="183"/>
+      <c r="A33" s="184"/>
       <c r="B33" s="32">
         <v>2</v>
       </c>
@@ -49114,7 +49140,7 @@
       <c r="BA33" s="44"/>
     </row>
     <row r="34" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="183"/>
+      <c r="A34" s="184"/>
       <c r="B34" s="32">
         <v>3</v>
       </c>
@@ -49274,7 +49300,7 @@
       <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="184"/>
+      <c r="A35" s="185"/>
       <c r="B35" s="48" t="s">
         <v>35</v>
       </c>
@@ -49445,7 +49471,7 @@
       <c r="BA35" s="57"/>
     </row>
     <row r="36" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="182">
+      <c r="A36" s="183">
         <v>9</v>
       </c>
       <c r="B36" s="22">
@@ -49607,7 +49633,7 @@
       <c r="BA36" s="19"/>
     </row>
     <row r="37" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="183"/>
+      <c r="A37" s="184"/>
       <c r="B37" s="32">
         <v>2</v>
       </c>
@@ -49767,7 +49793,7 @@
       <c r="BA37" s="44"/>
     </row>
     <row r="38" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="183"/>
+      <c r="A38" s="184"/>
       <c r="B38" s="32">
         <v>3</v>
       </c>
@@ -49927,7 +49953,7 @@
       <c r="BA38" s="40"/>
     </row>
     <row r="39" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="184"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="48" t="s">
         <v>35</v>
       </c>
@@ -50098,7 +50124,7 @@
       <c r="BA39" s="57"/>
     </row>
     <row r="40" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="182">
+      <c r="A40" s="183">
         <v>10</v>
       </c>
       <c r="B40" s="22">
@@ -50260,7 +50286,7 @@
       <c r="BA40" s="19"/>
     </row>
     <row r="41" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="183"/>
+      <c r="A41" s="184"/>
       <c r="B41" s="32">
         <v>2</v>
       </c>
@@ -50416,7 +50442,7 @@
       <c r="BA41" s="44"/>
     </row>
     <row r="42" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="183"/>
+      <c r="A42" s="184"/>
       <c r="B42" s="32">
         <v>3</v>
       </c>
@@ -50566,7 +50592,7 @@
       <c r="BA42" s="40"/>
     </row>
     <row r="43" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="184"/>
+      <c r="A43" s="185"/>
       <c r="B43" s="48" t="s">
         <v>35</v>
       </c>
@@ -50735,6 +50761,663 @@
       <c r="AY43" s="57"/>
       <c r="AZ43" s="57"/>
       <c r="BA43" s="57"/>
+    </row>
+    <row r="44" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="183">
+        <v>11</v>
+      </c>
+      <c r="B44" s="22">
+        <v>1</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="11">
+        <v>3600</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0</v>
+      </c>
+      <c r="F44" s="11">
+        <v>8878</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="H44" s="12">
+        <v>6.9</v>
+      </c>
+      <c r="I44" s="11">
+        <v>9730</v>
+      </c>
+      <c r="J44" s="12">
+        <v>4.2</v>
+      </c>
+      <c r="K44" s="11">
+        <v>16156</v>
+      </c>
+      <c r="L44" s="13">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="M44" s="23">
+        <f>ROUND(K44*(1-L44),0)</f>
+        <v>15090</v>
+      </c>
+      <c r="N44" s="14">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="O44" s="24">
+        <f t="shared" ref="O44:O46" si="405">M44*N44</f>
+        <v>8827.65</v>
+      </c>
+      <c r="P44" s="13">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="Q44" s="24">
+        <f t="shared" ref="Q44:Q46" si="406">M44*P44</f>
+        <v>4149.75</v>
+      </c>
+      <c r="R44" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S44" s="143">
+        <v>0.2011</v>
+      </c>
+      <c r="T44" s="24">
+        <f t="shared" ref="T44:T46" si="407">M44*R44</f>
+        <v>2112.6000000000004</v>
+      </c>
+      <c r="U44" s="25">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="V44" s="24">
+        <f t="shared" ref="V44:V46" si="408">M44*U44</f>
+        <v>3485.79</v>
+      </c>
+      <c r="W44" s="15">
+        <v>0.503</v>
+      </c>
+      <c r="X44" s="24">
+        <f t="shared" ref="X44:X46" si="409">M44*W44</f>
+        <v>7590.27</v>
+      </c>
+      <c r="Y44" s="15">
+        <v>0.44</v>
+      </c>
+      <c r="Z44" s="24">
+        <f t="shared" ref="Z44:Z46" si="410">Y44*M44</f>
+        <v>6639.6</v>
+      </c>
+      <c r="AA44" s="145">
+        <v>2.4599999999999999E-3</v>
+      </c>
+      <c r="AB44" s="18">
+        <f t="shared" ref="AB44:AB46" si="411">M44*AA44</f>
+        <v>37.121400000000001</v>
+      </c>
+      <c r="AC44" s="16">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AD44" s="17">
+        <f t="shared" ref="AD44:AD46" si="412">M44*AC44</f>
+        <v>36.215999999999994</v>
+      </c>
+      <c r="AE44" s="26">
+        <f>IF(M44&gt;0,(AG44+AP44)/M44,0)</f>
+        <v>2.5725410205434066E-3</v>
+      </c>
+      <c r="AF44" s="16">
+        <v>3.1E-4</v>
+      </c>
+      <c r="AG44" s="23">
+        <f t="shared" ref="AG44:AG46" si="413">AF44*M44</f>
+        <v>4.6779000000000002</v>
+      </c>
+      <c r="AH44" s="114">
+        <v>0.20880000000000001</v>
+      </c>
+      <c r="AI44" s="29">
+        <f t="shared" ref="AI44:AI46" si="414">AL44*(1-AM44)*AH44</f>
+        <v>34.011432000000006</v>
+      </c>
+      <c r="AJ44" s="27">
+        <f t="shared" ref="AJ44:AJ46" si="415">IF(AND(AH44&gt;0,AF44&gt;0,AC44&gt;0),((AC44-AF44)*AH44)/((AH44-AF44)*AC44),0)</f>
+        <v>0.87212815962396284</v>
+      </c>
+      <c r="AK44" s="59">
+        <f t="shared" si="6"/>
+        <v>0.88079928539383623</v>
+      </c>
+      <c r="AL44" s="11">
+        <v>179</v>
+      </c>
+      <c r="AM44" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="AN44" s="14">
+        <v>0.20960000000000001</v>
+      </c>
+      <c r="AO44" s="130">
+        <v>0.2072</v>
+      </c>
+      <c r="AP44" s="29">
+        <f>AL44*(1-AM44)*AN44</f>
+        <v>34.141744000000003</v>
+      </c>
+      <c r="AQ44" s="131">
+        <f t="shared" ref="AQ44:AQ46" si="416">AL44*(1-AM44)*AO44</f>
+        <v>33.750807999999999</v>
+      </c>
+      <c r="AR44" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="AS44" s="18">
+        <v>1018.58</v>
+      </c>
+      <c r="AT44" s="98">
+        <f>AT42+AL44-AS44-AU44</f>
+        <v>642.9000000000002</v>
+      </c>
+      <c r="AU44" s="99">
+        <v>13</v>
+      </c>
+      <c r="AV44" s="11"/>
+      <c r="AW44" s="30"/>
+      <c r="AX44" s="19"/>
+      <c r="AY44" s="19"/>
+      <c r="AZ44" s="19"/>
+      <c r="BA44" s="19"/>
+    </row>
+    <row r="45" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="184"/>
+      <c r="B45" s="32">
+        <v>2</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="33">
+        <v>21700</v>
+      </c>
+      <c r="E45" s="33">
+        <v>3</v>
+      </c>
+      <c r="F45" s="33">
+        <v>17660</v>
+      </c>
+      <c r="G45" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="H45" s="34">
+        <v>10</v>
+      </c>
+      <c r="I45" s="33">
+        <v>17150</v>
+      </c>
+      <c r="J45" s="34">
+        <v>3</v>
+      </c>
+      <c r="K45" s="33">
+        <v>15801</v>
+      </c>
+      <c r="L45" s="35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M45" s="36">
+        <f>ROUND(K45*(1-L45),0)</f>
+        <v>14695</v>
+      </c>
+      <c r="N45" s="37">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="O45" s="24">
+        <f t="shared" si="405"/>
+        <v>8141.0300000000007</v>
+      </c>
+      <c r="P45" s="35">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="Q45" s="24">
+        <f t="shared" si="406"/>
+        <v>3835.395</v>
+      </c>
+      <c r="R45" s="38">
+        <v>0.185</v>
+      </c>
+      <c r="S45" s="134">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="T45" s="24">
+        <f t="shared" si="407"/>
+        <v>2718.5749999999998</v>
+      </c>
+      <c r="U45" s="27">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="V45" s="24">
+        <f t="shared" si="408"/>
+        <v>3453.3249999999998</v>
+      </c>
+      <c r="W45" s="38">
+        <v>0.499</v>
+      </c>
+      <c r="X45" s="24">
+        <f t="shared" si="409"/>
+        <v>7332.8050000000003</v>
+      </c>
+      <c r="Y45" s="38">
+        <v>0.44</v>
+      </c>
+      <c r="Z45" s="24">
+        <f t="shared" si="410"/>
+        <v>6465.8</v>
+      </c>
+      <c r="AA45" s="146">
+        <v>2.48E-3</v>
+      </c>
+      <c r="AB45" s="18">
+        <f t="shared" si="411"/>
+        <v>36.443600000000004</v>
+      </c>
+      <c r="AC45" s="39">
+        <v>2.4399999999999999E-3</v>
+      </c>
+      <c r="AD45" s="17">
+        <f t="shared" si="412"/>
+        <v>35.855799999999995</v>
+      </c>
+      <c r="AE45" s="26">
+        <f>IF(M45&gt;0,(AG45+AP45)/M45,0)</f>
+        <v>2.3899900918679822E-3</v>
+      </c>
+      <c r="AF45" s="39">
+        <v>3.1E-4</v>
+      </c>
+      <c r="AG45" s="36">
+        <f t="shared" si="413"/>
+        <v>4.5554500000000004</v>
+      </c>
+      <c r="AH45" s="27">
+        <v>0.21410000000000001</v>
+      </c>
+      <c r="AI45" s="40">
+        <f t="shared" si="414"/>
+        <v>30.594033600000007</v>
+      </c>
+      <c r="AJ45" s="27">
+        <f t="shared" si="415"/>
+        <v>0.87421661673512929</v>
+      </c>
+      <c r="AK45" s="28">
+        <f t="shared" si="6"/>
+        <v>0.87155547317939197</v>
+      </c>
+      <c r="AL45" s="33">
+        <v>156</v>
+      </c>
+      <c r="AM45" s="35">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AN45" s="37">
+        <v>0.21390000000000001</v>
+      </c>
+      <c r="AO45" s="132">
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="AP45" s="40">
+        <f>AL45*(1-AM45)*AN45</f>
+        <v>30.565454400000004</v>
+      </c>
+      <c r="AQ45" s="133">
+        <f t="shared" si="416"/>
+        <v>31.122748800000004</v>
+      </c>
+      <c r="AR45" s="41">
+        <v>1.6</v>
+      </c>
+      <c r="AS45" s="41"/>
+      <c r="AT45" s="117">
+        <f>AT44+AL45-AS45</f>
+        <v>798.9000000000002</v>
+      </c>
+      <c r="AU45" s="101"/>
+      <c r="AV45" s="42"/>
+      <c r="AW45" s="43"/>
+      <c r="AX45" s="44"/>
+      <c r="AY45" s="44"/>
+      <c r="AZ45" s="44"/>
+      <c r="BA45" s="44"/>
+    </row>
+    <row r="46" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="184"/>
+      <c r="B46" s="32">
+        <v>3</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="42">
+        <v>17670</v>
+      </c>
+      <c r="E46" s="42">
+        <v>1</v>
+      </c>
+      <c r="F46" s="42">
+        <v>19268</v>
+      </c>
+      <c r="G46" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="H46" s="36">
+        <v>9</v>
+      </c>
+      <c r="I46" s="42">
+        <v>19282</v>
+      </c>
+      <c r="J46" s="36">
+        <v>1.6</v>
+      </c>
+      <c r="K46" s="42">
+        <v>16569</v>
+      </c>
+      <c r="L46" s="38">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="M46" s="36">
+        <f>ROUND(K46*(1-L46),0)</f>
+        <v>15426</v>
+      </c>
+      <c r="N46" s="27">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="O46" s="24">
+        <f t="shared" si="405"/>
+        <v>7913.5380000000005</v>
+      </c>
+      <c r="P46" s="38">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="Q46" s="24">
+        <f t="shared" si="406"/>
+        <v>6340.0859999999993</v>
+      </c>
+      <c r="R46" s="38">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="S46" s="134">
+        <v>0.21260000000000001</v>
+      </c>
+      <c r="T46" s="24">
+        <f t="shared" si="407"/>
+        <v>1172.376</v>
+      </c>
+      <c r="U46" s="27">
+        <v>0.253</v>
+      </c>
+      <c r="V46" s="24">
+        <f t="shared" si="408"/>
+        <v>3902.7780000000002</v>
+      </c>
+      <c r="W46" s="38">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="X46" s="24">
+        <f t="shared" si="409"/>
+        <v>7466.1840000000002</v>
+      </c>
+      <c r="Y46" s="38">
+        <v>0.44</v>
+      </c>
+      <c r="Z46" s="24">
+        <f t="shared" si="410"/>
+        <v>6787.44</v>
+      </c>
+      <c r="AA46" s="147">
+        <v>2.6099999999999999E-3</v>
+      </c>
+      <c r="AB46" s="148">
+        <f t="shared" si="411"/>
+        <v>40.261859999999999</v>
+      </c>
+      <c r="AC46" s="46">
+        <v>2.7899999999999999E-3</v>
+      </c>
+      <c r="AD46" s="17">
+        <f t="shared" si="412"/>
+        <v>43.038539999999998</v>
+      </c>
+      <c r="AE46" s="26">
+        <f>IF(M46&gt;0,(AG46+AP46)/M46,0)</f>
+        <v>2.7313980941267991E-3</v>
+      </c>
+      <c r="AF46" s="46">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="AG46" s="36">
+        <f t="shared" si="413"/>
+        <v>4.9363200000000003</v>
+      </c>
+      <c r="AH46" s="27">
+        <v>0.21859999999999999</v>
+      </c>
+      <c r="AI46" s="40">
+        <f t="shared" si="414"/>
+        <v>37.403553000000002</v>
+      </c>
+      <c r="AJ46" s="27">
+        <f t="shared" si="415"/>
+        <v>0.88660252229388048</v>
+      </c>
+      <c r="AK46" s="28">
+        <f t="shared" si="6"/>
+        <v>0.88414529086737415</v>
+      </c>
+      <c r="AL46" s="42">
+        <v>187</v>
+      </c>
+      <c r="AM46" s="38">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AN46" s="27">
+        <v>0.21740000000000001</v>
+      </c>
+      <c r="AO46" s="134">
+        <v>0.2132</v>
+      </c>
+      <c r="AP46" s="40">
+        <f>AL46*(1-AM46)*AN46</f>
+        <v>37.198227000000003</v>
+      </c>
+      <c r="AQ46" s="135">
+        <f t="shared" si="416"/>
+        <v>36.479586000000005</v>
+      </c>
+      <c r="AR46" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="AS46" s="17"/>
+      <c r="AT46" s="117">
+        <f>AT45+AL46-AS46</f>
+        <v>985.9000000000002</v>
+      </c>
+      <c r="AU46" s="101"/>
+      <c r="AV46" s="42"/>
+      <c r="AW46" s="47"/>
+      <c r="AX46" s="40"/>
+      <c r="AY46" s="40"/>
+      <c r="AZ46" s="40"/>
+      <c r="BA46" s="40"/>
+    </row>
+    <row r="47" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="185"/>
+      <c r="B47" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="49"/>
+      <c r="D47" s="50">
+        <f t="shared" ref="D47" si="417">SUM(D44:D46)</f>
+        <v>42970</v>
+      </c>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50">
+        <f t="shared" ref="F47" si="418">SUM(F44:F46)</f>
+        <v>45806</v>
+      </c>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="50">
+        <f t="shared" ref="I47:K47" si="419">SUM(I44:I46)</f>
+        <v>46162</v>
+      </c>
+      <c r="J47" s="51"/>
+      <c r="K47" s="50">
+        <f t="shared" si="419"/>
+        <v>48526</v>
+      </c>
+      <c r="L47" s="20">
+        <f t="shared" ref="L47" si="420">IF(K47&gt;0,(K44*L44+K45*L45+K46*L46)/K47,0)</f>
+        <v>6.8326814491200608E-2</v>
+      </c>
+      <c r="M47" s="51">
+        <f t="shared" ref="M47" si="421">M44+M45+M46</f>
+        <v>45211</v>
+      </c>
+      <c r="N47" s="52">
+        <f t="shared" ref="N47" si="422">IF(M47&gt;0,O47/M47,0)</f>
+        <v>0.55035761208555445</v>
+      </c>
+      <c r="O47" s="53">
+        <f t="shared" ref="O47" si="423">O44+O45+O46</f>
+        <v>24882.218000000001</v>
+      </c>
+      <c r="P47" s="20">
+        <f t="shared" ref="P47" si="424">IF(M47&gt;0,Q47/M47,0)</f>
+        <v>0.31685277919090488</v>
+      </c>
+      <c r="Q47" s="53">
+        <f t="shared" ref="Q47" si="425">Q44+Q45+Q46</f>
+        <v>14325.231</v>
+      </c>
+      <c r="R47" s="20">
+        <f t="shared" ref="R47" si="426">IF(M47&gt;0,T47/M47,0)</f>
+        <v>0.13278960872354073</v>
+      </c>
+      <c r="S47" s="136"/>
+      <c r="T47" s="53">
+        <f t="shared" ref="T47" si="427">T44+T45+T46</f>
+        <v>6003.5510000000004</v>
+      </c>
+      <c r="U47" s="20">
+        <f t="shared" ref="U47" si="428">IF(M47&gt;0,V47/M47,0)</f>
+        <v>0.23980652938444183</v>
+      </c>
+      <c r="V47" s="53">
+        <f t="shared" ref="V47" si="429">V44+V45+V46</f>
+        <v>10841.893</v>
+      </c>
+      <c r="W47" s="20">
+        <f t="shared" ref="W47" si="430">IF(M47&gt;0,X47/M47,0)</f>
+        <v>0.49521707106677582</v>
+      </c>
+      <c r="X47" s="53">
+        <f t="shared" ref="X47" si="431">X44+X45+X46</f>
+        <v>22389.259000000002</v>
+      </c>
+      <c r="Y47" s="20">
+        <f t="shared" ref="Y47" si="432">IF(M47&gt;0,Z47/M47,0)</f>
+        <v>0.44</v>
+      </c>
+      <c r="Z47" s="53">
+        <f t="shared" ref="Z47" si="433">Z44+Z45+Z46</f>
+        <v>19892.84</v>
+      </c>
+      <c r="AA47" s="152">
+        <f t="shared" ref="AA47" si="434">IF(M47&gt;0,AB47/M47,0)</f>
+        <v>2.5176806529384442E-3</v>
+      </c>
+      <c r="AB47" s="55">
+        <f t="shared" ref="AB47" si="435">SUM(AB44:AB46)</f>
+        <v>113.82686</v>
+      </c>
+      <c r="AC47" s="54">
+        <f t="shared" ref="AC47" si="436">IF(M47&gt;0,AD47/M47,0)</f>
+        <v>2.5460693194134169E-3</v>
+      </c>
+      <c r="AD47" s="55">
+        <f t="shared" ref="AD47" si="437">SUM(AD44:AD46)</f>
+        <v>115.11033999999999</v>
+      </c>
+      <c r="AE47" s="54">
+        <f t="shared" ref="AE47" si="438">IF(M47&gt;0,(AE44*M44+AE45*M45+AE46*M46)/M47,0)</f>
+        <v>2.5674082723231074E-3</v>
+      </c>
+      <c r="AF47" s="54">
+        <f t="shared" ref="AF47" si="439">IF(K47&gt;0,(K44*AF44+K45*AF45+K46*AF46)/K47,0)</f>
+        <v>3.1341445822857849E-4</v>
+      </c>
+      <c r="AG47" s="51">
+        <f t="shared" ref="AG47" si="440">SUM(AG44:AG46)</f>
+        <v>14.169670000000002</v>
+      </c>
+      <c r="AH47" s="52">
+        <f t="shared" ref="AH47" si="441">IF(K47&gt;0,(K44*AH44+K45*AH45+K46*AH46)/K47,0)</f>
+        <v>0.21387195111898777</v>
+      </c>
+      <c r="AI47" s="57">
+        <f t="shared" ref="AI47" si="442">SUM(AI44:AI46)</f>
+        <v>102.00901860000002</v>
+      </c>
+      <c r="AJ47" s="52">
+        <f t="shared" ref="AJ47" si="443">IF(AND(AD47&gt;0),((AD44*AJ44+AD45*AJ45+AD46*AJ46)/AD47),0)</f>
+        <v>0.87819050586697034</v>
+      </c>
+      <c r="AK47" s="56">
+        <f t="shared" si="6"/>
+        <v>0.87921542899595684</v>
+      </c>
+      <c r="AL47" s="50">
+        <f t="shared" ref="AL47" si="444">SUM(AL44:AL46)</f>
+        <v>522</v>
+      </c>
+      <c r="AM47" s="20">
+        <f t="shared" ref="AM47" si="445">IF(AL47&gt;0,(AM44*AL44+AM45*AL45+AM46*AL46)/AL47,0)</f>
+        <v>8.6415708812260544E-2</v>
+      </c>
+      <c r="AN47" s="52">
+        <f>IF(K47&gt;0,(AN44*K44+AN45*K45+AN46*K46)/K47,0)</f>
+        <v>0.21366344021761532</v>
+      </c>
+      <c r="AO47" s="136">
+        <f>IF(L47&gt;0,(AO44*K44+AO45*K45+AO46*K46)/K47,0)</f>
+        <v>0.21270023904710877</v>
+      </c>
+      <c r="AP47" s="57">
+        <f t="shared" ref="AP47" si="446">SUM(AP44:AP46)</f>
+        <v>101.90542540000001</v>
+      </c>
+      <c r="AQ47" s="137">
+        <f t="shared" ref="AQ47" si="447">SUM(AQ44:AQ46)</f>
+        <v>101.3531428</v>
+      </c>
+      <c r="AR47" s="55"/>
+      <c r="AS47" s="55">
+        <f t="shared" ref="AS47" si="448">SUM(AS44:AS46)</f>
+        <v>1018.58</v>
+      </c>
+      <c r="AT47" s="102"/>
+      <c r="AU47" s="103">
+        <f>AT46</f>
+        <v>985.9000000000002</v>
+      </c>
+      <c r="AV47" s="50">
+        <f t="shared" ref="AV47" si="449">SUM(AV44:AV46)</f>
+        <v>0</v>
+      </c>
+      <c r="AW47" s="58"/>
+      <c r="AX47" s="57"/>
+      <c r="AY47" s="57"/>
+      <c r="AZ47" s="57"/>
+      <c r="BA47" s="57"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -50786,13 +51469,22 @@
     <protectedRange sqref="AE36:AE38" name="Range1_1_1_1_1_2_1_8_1_1_1"/>
     <protectedRange sqref="AE40:AE42" name="Range1_1_1_1_1_2_1_9_1_1_1"/>
     <protectedRange sqref="AB28:AB43" name="Range1_1_1_1_1_2_2_1_1_1_2"/>
+    <protectedRange sqref="AP44:AQ47 AK44:AK47 M44:M47" name="Range1_1_1_1_1_1_1_1_1_3"/>
+    <protectedRange sqref="AH47:AJ47 AH44:AI46" name="Range1_1_1_1_1_1_1_3"/>
+    <protectedRange sqref="AJ44:AJ46" name="Range1_1_1_1_3"/>
+    <protectedRange sqref="AD47:AE47 AD44:AD46" name="Range1_1_1_1_1_2_2_1_3"/>
+    <protectedRange sqref="O44:O47" name="Range1_1_1_1_1_5_1_1_3"/>
+    <protectedRange sqref="Q44:Q47" name="Range1_1_1_1_1_7_1_1_3"/>
+    <protectedRange sqref="T44:T47" name="Range1_1_1_1_1_8_1_1_3"/>
+    <protectedRange sqref="V44:V47" name="Range1_1_1_1_1_10_1_1_3"/>
+    <protectedRange sqref="X44:X47" name="Range1_1_1_1_1_12_1_1_3"/>
+    <protectedRange sqref="Z44:Z47" name="Range1_1_1_1_1_16_1_1_3"/>
+    <protectedRange sqref="AG44:AG47" name="Range1_1_1_1_1_18_1_1_3"/>
+    <protectedRange sqref="AE44:AE46" name="Range1_1_1_1_1_2_1_10_1_1_1"/>
+    <protectedRange sqref="AB44:AB47" name="Range1_1_1_1_1_2_2_1_1_1_3"/>
   </protectedRanges>
-  <mergeCells count="15">
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A24:A27"/>
+  <mergeCells count="16">
+    <mergeCell ref="A44:A47"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="A4:A7"/>
@@ -50803,6 +51495,11 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/dispatchers_rep/Doklad_Dispecheri_2025!.xlsx
+++ b/dispatchers_rep/Doklad_Dispecheri_2025!.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC8499B-7B68-45A9-94B0-68EE160B5804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD41947-C8F1-4479-BD74-8CEE728E8814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,12 +707,124 @@
         </r>
       </text>
     </comment>
+    <comment ref="AU48" authorId="0" shapeId="0" xr:uid="{7847B497-A528-4B94-A1A3-AC32CAB6C8B9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+корекция на концентрат
+след замер на 
+автомобилна везна</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU52" authorId="0" shapeId="0" xr:uid="{2AD0FADA-EAA7-4F26-AAF1-64759C76EE01}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+корекция на концентрат
+след замер на 
+автомобилна везна</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU56" authorId="0" shapeId="0" xr:uid="{32315E95-2858-4CA9-862E-FF72451210CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+корекция на концентрат
+след замер на 
+автомобилна везна</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU60" authorId="0" shapeId="0" xr:uid="{62121CFE-CAF6-417B-94A8-A0E6A31F2CA3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+корекция на концентрат
+след замер на 
+автомобилна везна</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="70">
   <si>
     <t xml:space="preserve">Подадена руда
  от МГТЛ 
@@ -1789,9 +1901,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1799,9 +1908,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1821,6 +1927,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2240,13 +2352,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="185" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -2375,19 +2487,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="182" t="s">
+      <c r="AX1" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="182"/>
-      <c r="AZ1" s="182" t="s">
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="182"/>
+      <c r="BA1" s="191"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="192"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="188"/>
+      <c r="A2" s="190"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="186"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -2578,7 +2690,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183">
+      <c r="A4" s="182">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -2740,7 +2852,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" s="184"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -2900,7 +3012,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="184"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -3060,7 +3172,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="184"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -3231,7 +3343,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="183">
+      <c r="A8" s="182">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -3395,7 +3507,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" s="184"/>
+      <c r="A9" s="183"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -3555,7 +3667,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" s="184"/>
+      <c r="A10" s="183"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -3715,7 +3827,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="184"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -3886,7 +3998,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="183">
+      <c r="A12" s="182">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -4050,7 +4162,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" s="184"/>
+      <c r="A13" s="183"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -4210,7 +4322,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14" s="184"/>
+      <c r="A14" s="183"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -4370,7 +4482,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="184"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -4541,7 +4653,7 @@
       <c r="BA15" s="57"/>
     </row>
     <row r="16" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="183">
+      <c r="A16" s="182">
         <v>4</v>
       </c>
       <c r="B16" s="22">
@@ -4705,7 +4817,7 @@
       <c r="BA16" s="19"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A17" s="184"/>
+      <c r="A17" s="183"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -4865,7 +4977,7 @@
       <c r="BA17" s="44"/>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18" s="184"/>
+      <c r="A18" s="183"/>
       <c r="B18" s="32">
         <v>3</v>
       </c>
@@ -5025,7 +5137,7 @@
       <c r="BA18" s="40"/>
     </row>
     <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+      <c r="A19" s="184"/>
       <c r="B19" s="48" t="s">
         <v>35</v>
       </c>
@@ -5196,7 +5308,7 @@
       <c r="BA19" s="57"/>
     </row>
     <row r="20" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="183">
+      <c r="A20" s="182">
         <v>5</v>
       </c>
       <c r="B20" s="22">
@@ -5360,7 +5472,7 @@
       <c r="BA20" s="19"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" s="184"/>
+      <c r="A21" s="183"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
@@ -5520,7 +5632,7 @@
       <c r="BA21" s="44"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22" s="184"/>
+      <c r="A22" s="183"/>
       <c r="B22" s="32">
         <v>3</v>
       </c>
@@ -5680,7 +5792,7 @@
       <c r="BA22" s="40"/>
     </row>
     <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="185"/>
+      <c r="A23" s="184"/>
       <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
@@ -5851,7 +5963,7 @@
       <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="183">
+      <c r="A24" s="182">
         <v>6</v>
       </c>
       <c r="B24" s="22">
@@ -6017,7 +6129,7 @@
       <c r="BA24" s="19"/>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A25" s="184"/>
+      <c r="A25" s="183"/>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -6177,7 +6289,7 @@
       <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A26" s="184"/>
+      <c r="A26" s="183"/>
       <c r="B26" s="32">
         <v>3</v>
       </c>
@@ -6337,7 +6449,7 @@
       <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
+      <c r="A27" s="184"/>
       <c r="B27" s="48" t="s">
         <v>35</v>
       </c>
@@ -6508,7 +6620,7 @@
       <c r="BA27" s="57"/>
     </row>
     <row r="28" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="183">
+      <c r="A28" s="182">
         <v>7</v>
       </c>
       <c r="B28" s="22">
@@ -6670,7 +6782,7 @@
       <c r="BA28" s="19"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A29" s="184"/>
+      <c r="A29" s="183"/>
       <c r="B29" s="32">
         <v>2</v>
       </c>
@@ -6830,7 +6942,7 @@
       <c r="BA29" s="44"/>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A30" s="184"/>
+      <c r="A30" s="183"/>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -6990,7 +7102,7 @@
       <c r="BA30" s="40"/>
     </row>
     <row r="31" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185"/>
+      <c r="A31" s="184"/>
       <c r="B31" s="48" t="s">
         <v>35</v>
       </c>
@@ -7161,7 +7273,7 @@
       <c r="BA31" s="57"/>
     </row>
     <row r="32" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="183">
+      <c r="A32" s="182">
         <v>8</v>
       </c>
       <c r="B32" s="22">
@@ -7323,7 +7435,7 @@
       <c r="BA32" s="19"/>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A33" s="184"/>
+      <c r="A33" s="183"/>
       <c r="B33" s="32">
         <v>2</v>
       </c>
@@ -7483,7 +7595,7 @@
       <c r="BA33" s="44"/>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A34" s="184"/>
+      <c r="A34" s="183"/>
       <c r="B34" s="32">
         <v>3</v>
       </c>
@@ -7643,7 +7755,7 @@
       <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="185"/>
+      <c r="A35" s="184"/>
       <c r="B35" s="48" t="s">
         <v>35</v>
       </c>
@@ -7814,7 +7926,7 @@
       <c r="BA35" s="57"/>
     </row>
     <row r="36" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="183">
+      <c r="A36" s="182">
         <v>9</v>
       </c>
       <c r="B36" s="22">
@@ -7978,7 +8090,7 @@
       <c r="BA36" s="19"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A37" s="184"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="32">
         <v>2</v>
       </c>
@@ -8138,7 +8250,7 @@
       <c r="BA37" s="44"/>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A38" s="184"/>
+      <c r="A38" s="183"/>
       <c r="B38" s="32">
         <v>3</v>
       </c>
@@ -8298,7 +8410,7 @@
       <c r="BA38" s="40"/>
     </row>
     <row r="39" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="185"/>
+      <c r="A39" s="184"/>
       <c r="B39" s="48" t="s">
         <v>35</v>
       </c>
@@ -8469,7 +8581,7 @@
       <c r="BA39" s="57"/>
     </row>
     <row r="40" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="183">
+      <c r="A40" s="182">
         <v>10</v>
       </c>
       <c r="B40" s="22">
@@ -8633,7 +8745,7 @@
       <c r="BA40" s="19"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A41" s="184"/>
+      <c r="A41" s="183"/>
       <c r="B41" s="32">
         <v>2</v>
       </c>
@@ -8793,7 +8905,7 @@
       <c r="BA41" s="44"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A42" s="184"/>
+      <c r="A42" s="183"/>
       <c r="B42" s="32">
         <v>3</v>
       </c>
@@ -8953,7 +9065,7 @@
       <c r="BA42" s="40"/>
     </row>
     <row r="43" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="185"/>
+      <c r="A43" s="184"/>
       <c r="B43" s="48" t="s">
         <v>35</v>
       </c>
@@ -9124,7 +9236,7 @@
       <c r="BA43" s="57"/>
     </row>
     <row r="44" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="183">
+      <c r="A44" s="182">
         <v>11</v>
       </c>
       <c r="B44" s="22">
@@ -9288,7 +9400,7 @@
       <c r="BA44" s="19"/>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A45" s="184"/>
+      <c r="A45" s="183"/>
       <c r="B45" s="32">
         <v>2</v>
       </c>
@@ -9448,7 +9560,7 @@
       <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A46" s="184"/>
+      <c r="A46" s="183"/>
       <c r="B46" s="32">
         <v>3</v>
       </c>
@@ -9608,7 +9720,7 @@
       <c r="BA46" s="40"/>
     </row>
     <row r="47" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="185"/>
+      <c r="A47" s="184"/>
       <c r="B47" s="48" t="s">
         <v>35</v>
       </c>
@@ -9779,7 +9891,7 @@
       <c r="BA47" s="57"/>
     </row>
     <row r="48" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="183">
+      <c r="A48" s="182">
         <v>12</v>
       </c>
       <c r="B48" s="22">
@@ -9945,7 +10057,7 @@
       <c r="BA48" s="19"/>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A49" s="184"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="32">
         <v>2</v>
       </c>
@@ -10105,7 +10217,7 @@
       <c r="BA49" s="44"/>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A50" s="184"/>
+      <c r="A50" s="183"/>
       <c r="B50" s="32">
         <v>3</v>
       </c>
@@ -10265,7 +10377,7 @@
       <c r="BA50" s="40"/>
     </row>
     <row r="51" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="185"/>
+      <c r="A51" s="184"/>
       <c r="B51" s="48" t="s">
         <v>35</v>
       </c>
@@ -10436,7 +10548,7 @@
       <c r="BA51" s="57"/>
     </row>
     <row r="52" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="183">
+      <c r="A52" s="182">
         <v>13</v>
       </c>
       <c r="B52" s="22">
@@ -10600,7 +10712,7 @@
       <c r="BA52" s="19"/>
     </row>
     <row r="53" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A53" s="184"/>
+      <c r="A53" s="183"/>
       <c r="B53" s="32">
         <v>2</v>
       </c>
@@ -10760,7 +10872,7 @@
       <c r="BA53" s="44"/>
     </row>
     <row r="54" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A54" s="184"/>
+      <c r="A54" s="183"/>
       <c r="B54" s="32">
         <v>3</v>
       </c>
@@ -10920,7 +11032,7 @@
       <c r="BA54" s="40"/>
     </row>
     <row r="55" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="185"/>
+      <c r="A55" s="184"/>
       <c r="B55" s="48" t="s">
         <v>35</v>
       </c>
@@ -11091,7 +11203,7 @@
       <c r="BA55" s="57"/>
     </row>
     <row r="56" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="183">
+      <c r="A56" s="182">
         <v>14</v>
       </c>
       <c r="B56" s="22">
@@ -11253,7 +11365,7 @@
       <c r="BA56" s="19"/>
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A57" s="184"/>
+      <c r="A57" s="183"/>
       <c r="B57" s="32">
         <v>2</v>
       </c>
@@ -11413,7 +11525,7 @@
       <c r="BA57" s="44"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A58" s="184"/>
+      <c r="A58" s="183"/>
       <c r="B58" s="32">
         <v>3</v>
       </c>
@@ -11573,7 +11685,7 @@
       <c r="BA58" s="40"/>
     </row>
     <row r="59" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="185"/>
+      <c r="A59" s="184"/>
       <c r="B59" s="48" t="s">
         <v>35</v>
       </c>
@@ -11744,7 +11856,7 @@
       <c r="BA59" s="57"/>
     </row>
     <row r="60" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="183">
+      <c r="A60" s="182">
         <v>15</v>
       </c>
       <c r="B60" s="22">
@@ -11906,7 +12018,7 @@
       <c r="BA60" s="19"/>
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A61" s="184"/>
+      <c r="A61" s="183"/>
       <c r="B61" s="32">
         <v>2</v>
       </c>
@@ -12066,7 +12178,7 @@
       <c r="BA61" s="44"/>
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A62" s="184"/>
+      <c r="A62" s="183"/>
       <c r="B62" s="32">
         <v>3</v>
       </c>
@@ -12226,7 +12338,7 @@
       <c r="BA62" s="40"/>
     </row>
     <row r="63" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="185"/>
+      <c r="A63" s="184"/>
       <c r="B63" s="48" t="s">
         <v>35</v>
       </c>
@@ -12397,7 +12509,7 @@
       <c r="BA63" s="57"/>
     </row>
     <row r="64" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="183">
+      <c r="A64" s="182">
         <v>16</v>
       </c>
       <c r="B64" s="22">
@@ -12561,7 +12673,7 @@
       <c r="BA64" s="19"/>
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A65" s="184"/>
+      <c r="A65" s="183"/>
       <c r="B65" s="32">
         <v>2</v>
       </c>
@@ -12721,7 +12833,7 @@
       <c r="BA65" s="44"/>
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A66" s="184"/>
+      <c r="A66" s="183"/>
       <c r="B66" s="32">
         <v>3</v>
       </c>
@@ -12881,7 +12993,7 @@
       <c r="BA66" s="40"/>
     </row>
     <row r="67" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="185"/>
+      <c r="A67" s="184"/>
       <c r="B67" s="48" t="s">
         <v>35</v>
       </c>
@@ -13052,7 +13164,7 @@
       <c r="BA67" s="57"/>
     </row>
     <row r="68" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="183">
+      <c r="A68" s="182">
         <v>17</v>
       </c>
       <c r="B68" s="22">
@@ -13216,7 +13328,7 @@
       <c r="BA68" s="19"/>
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A69" s="184"/>
+      <c r="A69" s="183"/>
       <c r="B69" s="32">
         <v>2</v>
       </c>
@@ -13376,7 +13488,7 @@
       <c r="BA69" s="44"/>
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A70" s="184"/>
+      <c r="A70" s="183"/>
       <c r="B70" s="32">
         <v>3</v>
       </c>
@@ -13536,7 +13648,7 @@
       <c r="BA70" s="40"/>
     </row>
     <row r="71" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="185"/>
+      <c r="A71" s="184"/>
       <c r="B71" s="48" t="s">
         <v>35</v>
       </c>
@@ -13707,7 +13819,7 @@
       <c r="BA71" s="57"/>
     </row>
     <row r="72" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="183">
+      <c r="A72" s="182">
         <v>18</v>
       </c>
       <c r="B72" s="22">
@@ -13873,7 +13985,7 @@
       <c r="BA72" s="19"/>
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A73" s="184"/>
+      <c r="A73" s="183"/>
       <c r="B73" s="32">
         <v>2</v>
       </c>
@@ -14033,7 +14145,7 @@
       <c r="BA73" s="44"/>
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A74" s="184"/>
+      <c r="A74" s="183"/>
       <c r="B74" s="32">
         <v>3</v>
       </c>
@@ -14193,7 +14305,7 @@
       <c r="BA74" s="40"/>
     </row>
     <row r="75" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="185"/>
+      <c r="A75" s="184"/>
       <c r="B75" s="48" t="s">
         <v>35</v>
       </c>
@@ -14364,7 +14476,7 @@
       <c r="BA75" s="57"/>
     </row>
     <row r="76" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="183">
+      <c r="A76" s="182">
         <v>19</v>
       </c>
       <c r="B76" s="22">
@@ -14528,7 +14640,7 @@
       <c r="BA76" s="175"/>
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A77" s="184"/>
+      <c r="A77" s="183"/>
       <c r="B77" s="32">
         <v>2</v>
       </c>
@@ -14688,7 +14800,7 @@
       <c r="BA77" s="176"/>
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A78" s="184"/>
+      <c r="A78" s="183"/>
       <c r="B78" s="32">
         <v>3</v>
       </c>
@@ -14848,7 +14960,7 @@
       <c r="BA78" s="177"/>
     </row>
     <row r="79" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="185"/>
+      <c r="A79" s="184"/>
       <c r="B79" s="48" t="s">
         <v>35</v>
       </c>
@@ -15019,7 +15131,7 @@
       <c r="BA79" s="179"/>
     </row>
     <row r="80" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="184">
+      <c r="A80" s="183">
         <v>20</v>
       </c>
       <c r="B80" s="32">
@@ -15185,7 +15297,7 @@
       <c r="BA80" s="168"/>
     </row>
     <row r="81" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A81" s="184"/>
+      <c r="A81" s="183"/>
       <c r="B81" s="32">
         <v>2</v>
       </c>
@@ -15345,7 +15457,7 @@
       <c r="BA81" s="44"/>
     </row>
     <row r="82" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A82" s="184"/>
+      <c r="A82" s="183"/>
       <c r="B82" s="32">
         <v>3</v>
       </c>
@@ -15505,7 +15617,7 @@
       <c r="BA82" s="40"/>
     </row>
     <row r="83" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="185"/>
+      <c r="A83" s="184"/>
       <c r="B83" s="48" t="s">
         <v>35</v>
       </c>
@@ -15676,7 +15788,7 @@
       <c r="BA83" s="57"/>
     </row>
     <row r="84" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="183">
+      <c r="A84" s="182">
         <v>21</v>
       </c>
       <c r="B84" s="22">
@@ -15838,7 +15950,7 @@
       <c r="BA84" s="19"/>
     </row>
     <row r="85" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A85" s="184"/>
+      <c r="A85" s="183"/>
       <c r="B85" s="32">
         <v>2</v>
       </c>
@@ -15998,7 +16110,7 @@
       <c r="BA85" s="44"/>
     </row>
     <row r="86" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A86" s="184"/>
+      <c r="A86" s="183"/>
       <c r="B86" s="32">
         <v>3</v>
       </c>
@@ -16158,7 +16270,7 @@
       <c r="BA86" s="40"/>
     </row>
     <row r="87" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="185"/>
+      <c r="A87" s="184"/>
       <c r="B87" s="48" t="s">
         <v>35</v>
       </c>
@@ -16329,7 +16441,7 @@
       <c r="BA87" s="57"/>
     </row>
     <row r="88" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="183">
+      <c r="A88" s="182">
         <v>22</v>
       </c>
       <c r="B88" s="22">
@@ -16491,7 +16603,7 @@
       <c r="BA88" s="19"/>
     </row>
     <row r="89" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A89" s="184"/>
+      <c r="A89" s="183"/>
       <c r="B89" s="32">
         <v>2</v>
       </c>
@@ -16651,7 +16763,7 @@
       <c r="BA89" s="44"/>
     </row>
     <row r="90" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A90" s="184"/>
+      <c r="A90" s="183"/>
       <c r="B90" s="32">
         <v>3</v>
       </c>
@@ -16811,7 +16923,7 @@
       <c r="BA90" s="40"/>
     </row>
     <row r="91" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="185"/>
+      <c r="A91" s="184"/>
       <c r="B91" s="48" t="s">
         <v>35</v>
       </c>
@@ -16982,7 +17094,7 @@
       <c r="BA91" s="57"/>
     </row>
     <row r="92" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="183">
+      <c r="A92" s="182">
         <v>23</v>
       </c>
       <c r="B92" s="22">
@@ -17146,7 +17258,7 @@
       <c r="BA92" s="19"/>
     </row>
     <row r="93" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A93" s="184"/>
+      <c r="A93" s="183"/>
       <c r="B93" s="32">
         <v>2</v>
       </c>
@@ -17306,7 +17418,7 @@
       <c r="BA93" s="44"/>
     </row>
     <row r="94" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A94" s="184"/>
+      <c r="A94" s="183"/>
       <c r="B94" s="32">
         <v>3</v>
       </c>
@@ -17466,7 +17578,7 @@
       <c r="BA94" s="40"/>
     </row>
     <row r="95" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="185"/>
+      <c r="A95" s="184"/>
       <c r="B95" s="48" t="s">
         <v>35</v>
       </c>
@@ -17637,7 +17749,7 @@
       <c r="BA95" s="57"/>
     </row>
     <row r="96" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="183">
+      <c r="A96" s="182">
         <v>24</v>
       </c>
       <c r="B96" s="22">
@@ -17803,7 +17915,7 @@
       <c r="BA96" s="19"/>
     </row>
     <row r="97" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A97" s="184"/>
+      <c r="A97" s="183"/>
       <c r="B97" s="32">
         <v>2</v>
       </c>
@@ -17963,7 +18075,7 @@
       <c r="BA97" s="44"/>
     </row>
     <row r="98" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A98" s="184"/>
+      <c r="A98" s="183"/>
       <c r="B98" s="32">
         <v>3</v>
       </c>
@@ -18123,7 +18235,7 @@
       <c r="BA98" s="40"/>
     </row>
     <row r="99" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="185"/>
+      <c r="A99" s="184"/>
       <c r="B99" s="48" t="s">
         <v>35</v>
       </c>
@@ -18291,7 +18403,7 @@
       <c r="BA99" s="57"/>
     </row>
     <row r="100" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="186">
+      <c r="A100" s="192">
         <v>25</v>
       </c>
       <c r="B100" s="32">
@@ -18457,7 +18569,7 @@
       <c r="BA100" s="19"/>
     </row>
     <row r="101" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A101" s="186"/>
+      <c r="A101" s="192"/>
       <c r="B101" s="32">
         <v>2</v>
       </c>
@@ -18617,7 +18729,7 @@
       <c r="BA101" s="44"/>
     </row>
     <row r="102" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A102" s="186"/>
+      <c r="A102" s="192"/>
       <c r="B102" s="32">
         <v>3</v>
       </c>
@@ -18777,7 +18889,7 @@
       <c r="BA102" s="40"/>
     </row>
     <row r="103" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="186"/>
+      <c r="A103" s="192"/>
       <c r="B103" s="65" t="s">
         <v>35</v>
       </c>
@@ -18948,7 +19060,7 @@
       <c r="BA103" s="57"/>
     </row>
     <row r="104" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="183">
+      <c r="A104" s="182">
         <v>26</v>
       </c>
       <c r="B104" s="22">
@@ -19114,7 +19226,7 @@
       <c r="BA104" s="19"/>
     </row>
     <row r="105" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A105" s="184"/>
+      <c r="A105" s="183"/>
       <c r="B105" s="32">
         <v>2</v>
       </c>
@@ -19274,7 +19386,7 @@
       <c r="BA105" s="44"/>
     </row>
     <row r="106" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A106" s="184"/>
+      <c r="A106" s="183"/>
       <c r="B106" s="32">
         <v>3</v>
       </c>
@@ -19434,7 +19546,7 @@
       <c r="BA106" s="40"/>
     </row>
     <row r="107" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="185"/>
+      <c r="A107" s="184"/>
       <c r="B107" s="48" t="s">
         <v>35</v>
       </c>
@@ -19605,7 +19717,7 @@
       <c r="BA107" s="57"/>
     </row>
     <row r="108" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="183">
+      <c r="A108" s="182">
         <v>27</v>
       </c>
       <c r="B108" s="22">
@@ -19771,7 +19883,7 @@
       <c r="BA108" s="19"/>
     </row>
     <row r="109" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A109" s="184"/>
+      <c r="A109" s="183"/>
       <c r="B109" s="32">
         <v>2</v>
       </c>
@@ -19931,7 +20043,7 @@
       <c r="BA109" s="44"/>
     </row>
     <row r="110" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A110" s="184"/>
+      <c r="A110" s="183"/>
       <c r="B110" s="32">
         <v>3</v>
       </c>
@@ -20091,7 +20203,7 @@
       <c r="BA110" s="40"/>
     </row>
     <row r="111" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="185"/>
+      <c r="A111" s="184"/>
       <c r="B111" s="48" t="s">
         <v>35</v>
       </c>
@@ -20262,7 +20374,7 @@
       <c r="BA111" s="57"/>
     </row>
     <row r="112" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="183">
+      <c r="A112" s="182">
         <v>28</v>
       </c>
       <c r="B112" s="22">
@@ -20424,7 +20536,7 @@
       <c r="BA112" s="19"/>
     </row>
     <row r="113" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A113" s="184"/>
+      <c r="A113" s="183"/>
       <c r="B113" s="32">
         <v>2</v>
       </c>
@@ -20584,7 +20696,7 @@
       <c r="BA113" s="44"/>
     </row>
     <row r="114" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A114" s="184"/>
+      <c r="A114" s="183"/>
       <c r="B114" s="32">
         <v>3</v>
       </c>
@@ -20744,7 +20856,7 @@
       <c r="BA114" s="40"/>
     </row>
     <row r="115" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="185"/>
+      <c r="A115" s="184"/>
       <c r="B115" s="48" t="s">
         <v>35</v>
       </c>
@@ -20915,7 +21027,7 @@
       <c r="BA115" s="57"/>
     </row>
     <row r="116" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="184">
+      <c r="A116" s="183">
         <v>29</v>
       </c>
       <c r="B116" s="32">
@@ -21077,7 +21189,7 @@
       <c r="BA116" s="19"/>
     </row>
     <row r="117" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A117" s="184"/>
+      <c r="A117" s="183"/>
       <c r="B117" s="32">
         <v>2</v>
       </c>
@@ -21237,7 +21349,7 @@
       <c r="BA117" s="44"/>
     </row>
     <row r="118" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A118" s="184"/>
+      <c r="A118" s="183"/>
       <c r="B118" s="32">
         <v>3</v>
       </c>
@@ -21397,7 +21509,7 @@
       <c r="BA118" s="40"/>
     </row>
     <row r="119" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="185"/>
+      <c r="A119" s="184"/>
       <c r="B119" s="48" t="s">
         <v>35</v>
       </c>
@@ -21568,7 +21680,7 @@
       <c r="BA119" s="57"/>
     </row>
     <row r="120" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="183">
+      <c r="A120" s="182">
         <v>30</v>
       </c>
       <c r="B120" s="22">
@@ -21734,7 +21846,7 @@
       <c r="BA120" s="19"/>
     </row>
     <row r="121" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A121" s="184"/>
+      <c r="A121" s="183"/>
       <c r="B121" s="32">
         <v>2</v>
       </c>
@@ -21894,7 +22006,7 @@
       <c r="BA121" s="44"/>
     </row>
     <row r="122" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A122" s="184"/>
+      <c r="A122" s="183"/>
       <c r="B122" s="32">
         <v>3</v>
       </c>
@@ -22054,7 +22166,7 @@
       <c r="BA122" s="40"/>
     </row>
     <row r="123" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="185"/>
+      <c r="A123" s="184"/>
       <c r="B123" s="48" t="s">
         <v>35</v>
       </c>
@@ -22225,7 +22337,7 @@
       <c r="BA123" s="57"/>
     </row>
     <row r="124" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="183">
+      <c r="A124" s="182">
         <v>31</v>
       </c>
       <c r="B124" s="22">
@@ -22335,7 +22447,7 @@
       <c r="BA124" s="19"/>
     </row>
     <row r="125" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A125" s="184"/>
+      <c r="A125" s="183"/>
       <c r="B125" s="32">
         <v>2</v>
       </c>
@@ -22443,7 +22555,7 @@
       <c r="BA125" s="44"/>
     </row>
     <row r="126" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A126" s="184"/>
+      <c r="A126" s="183"/>
       <c r="B126" s="32">
         <v>3</v>
       </c>
@@ -22551,7 +22663,7 @@
       <c r="BA126" s="40"/>
     </row>
     <row r="127" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="185"/>
+      <c r="A127" s="184"/>
       <c r="B127" s="48" t="s">
         <v>35</v>
       </c>
@@ -22944,26 +23056,6 @@
     <protectedRange sqref="AB1" name="Range1_1_1_1_1_1_1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="36">
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="A120:A123"/>
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A100:A103"/>
@@ -22980,6 +23072,26 @@
     <mergeCell ref="A68:A71"/>
     <mergeCell ref="A84:A87"/>
     <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23057,13 +23169,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="185" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -23192,19 +23304,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="182" t="s">
+      <c r="AX1" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="182"/>
-      <c r="AZ1" s="182" t="s">
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="182"/>
+      <c r="BA1" s="191"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="192"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="188"/>
+      <c r="A2" s="190"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="186"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -23395,7 +23507,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183">
+      <c r="A4" s="182">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -23559,7 +23671,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" s="184"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -23718,7 +23830,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="184"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -23877,7 +23989,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="184"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -24048,7 +24160,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="183">
+      <c r="A8" s="182">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -24212,7 +24324,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" s="184"/>
+      <c r="A9" s="183"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -24372,7 +24484,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" s="184"/>
+      <c r="A10" s="183"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -24532,7 +24644,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="184"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -24703,7 +24815,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="183">
+      <c r="A12" s="182">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -24865,7 +24977,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" s="184"/>
+      <c r="A13" s="183"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -25025,7 +25137,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14" s="184"/>
+      <c r="A14" s="183"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -25185,7 +25297,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="184"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -25356,7 +25468,7 @@
       <c r="BA15" s="57"/>
     </row>
     <row r="16" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="183">
+      <c r="A16" s="182">
         <v>4</v>
       </c>
       <c r="B16" s="22">
@@ -25518,7 +25630,7 @@
       <c r="BA16" s="19"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A17" s="184"/>
+      <c r="A17" s="183"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -25678,7 +25790,7 @@
       <c r="BA17" s="44"/>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18" s="184"/>
+      <c r="A18" s="183"/>
       <c r="B18" s="32">
         <v>3</v>
       </c>
@@ -25838,7 +25950,7 @@
       <c r="BA18" s="40"/>
     </row>
     <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+      <c r="A19" s="184"/>
       <c r="B19" s="48" t="s">
         <v>35</v>
       </c>
@@ -26009,7 +26121,7 @@
       <c r="BA19" s="57"/>
     </row>
     <row r="20" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="183">
+      <c r="A20" s="182">
         <v>5</v>
       </c>
       <c r="B20" s="22">
@@ -26171,7 +26283,7 @@
       <c r="BA20" s="19"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" s="184"/>
+      <c r="A21" s="183"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
@@ -26331,7 +26443,7 @@
       <c r="BA21" s="44"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22" s="184"/>
+      <c r="A22" s="183"/>
       <c r="B22" s="32">
         <v>3</v>
       </c>
@@ -26491,7 +26603,7 @@
       <c r="BA22" s="40"/>
     </row>
     <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="185"/>
+      <c r="A23" s="184"/>
       <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
@@ -26662,7 +26774,7 @@
       <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="183">
+      <c r="A24" s="182">
         <v>6</v>
       </c>
       <c r="B24" s="22">
@@ -26824,7 +26936,7 @@
       <c r="BA24" s="19"/>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A25" s="184"/>
+      <c r="A25" s="183"/>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -26984,7 +27096,7 @@
       <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A26" s="184"/>
+      <c r="A26" s="183"/>
       <c r="B26" s="32">
         <v>3</v>
       </c>
@@ -27144,7 +27256,7 @@
       <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
+      <c r="A27" s="184"/>
       <c r="B27" s="48" t="s">
         <v>35</v>
       </c>
@@ -27315,7 +27427,7 @@
       <c r="BA27" s="57"/>
     </row>
     <row r="28" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="183">
+      <c r="A28" s="182">
         <v>7</v>
       </c>
       <c r="B28" s="22">
@@ -27479,7 +27591,7 @@
       <c r="BA28" s="19"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A29" s="184"/>
+      <c r="A29" s="183"/>
       <c r="B29" s="32">
         <v>2</v>
       </c>
@@ -27637,7 +27749,7 @@
       <c r="BA29" s="44"/>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A30" s="184"/>
+      <c r="A30" s="183"/>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -27795,7 +27907,7 @@
       <c r="BA30" s="40"/>
     </row>
     <row r="31" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185"/>
+      <c r="A31" s="184"/>
       <c r="B31" s="48" t="s">
         <v>35</v>
       </c>
@@ -27966,7 +28078,7 @@
       <c r="BA31" s="57"/>
     </row>
     <row r="32" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="183">
+      <c r="A32" s="182">
         <v>8</v>
       </c>
       <c r="B32" s="22">
@@ -28130,7 +28242,7 @@
       <c r="BA32" s="19"/>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A33" s="184"/>
+      <c r="A33" s="183"/>
       <c r="B33" s="32">
         <v>2</v>
       </c>
@@ -28290,7 +28402,7 @@
       <c r="BA33" s="44"/>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A34" s="184"/>
+      <c r="A34" s="183"/>
       <c r="B34" s="32">
         <v>3</v>
       </c>
@@ -28450,7 +28562,7 @@
       <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="185"/>
+      <c r="A35" s="184"/>
       <c r="B35" s="48" t="s">
         <v>35</v>
       </c>
@@ -28621,7 +28733,7 @@
       <c r="BA35" s="57"/>
     </row>
     <row r="36" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="183">
+      <c r="A36" s="182">
         <v>9</v>
       </c>
       <c r="B36" s="22">
@@ -28785,7 +28897,7 @@
       <c r="BA36" s="19"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A37" s="184"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="32">
         <v>2</v>
       </c>
@@ -28945,7 +29057,7 @@
       <c r="BA37" s="44"/>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A38" s="184"/>
+      <c r="A38" s="183"/>
       <c r="B38" s="32">
         <v>3</v>
       </c>
@@ -29105,7 +29217,7 @@
       <c r="BA38" s="40"/>
     </row>
     <row r="39" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="185"/>
+      <c r="A39" s="184"/>
       <c r="B39" s="48" t="s">
         <v>35</v>
       </c>
@@ -29276,7 +29388,7 @@
       <c r="BA39" s="57"/>
     </row>
     <row r="40" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="183">
+      <c r="A40" s="182">
         <v>10</v>
       </c>
       <c r="B40" s="22">
@@ -29440,7 +29552,7 @@
       <c r="BA40" s="19"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A41" s="184"/>
+      <c r="A41" s="183"/>
       <c r="B41" s="32">
         <v>2</v>
       </c>
@@ -29596,7 +29708,7 @@
       <c r="BA41" s="44"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A42" s="184"/>
+      <c r="A42" s="183"/>
       <c r="B42" s="32">
         <v>3</v>
       </c>
@@ -29744,7 +29856,7 @@
       <c r="BA42" s="40"/>
     </row>
     <row r="43" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="185"/>
+      <c r="A43" s="184"/>
       <c r="B43" s="48" t="s">
         <v>35</v>
       </c>
@@ -29915,7 +30027,7 @@
       <c r="BA43" s="57"/>
     </row>
     <row r="44" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="183">
+      <c r="A44" s="182">
         <v>11</v>
       </c>
       <c r="B44" s="22">
@@ -30077,7 +30189,7 @@
       <c r="BA44" s="19"/>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A45" s="184"/>
+      <c r="A45" s="183"/>
       <c r="B45" s="32">
         <v>2</v>
       </c>
@@ -30237,7 +30349,7 @@
       <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A46" s="184"/>
+      <c r="A46" s="183"/>
       <c r="B46" s="32">
         <v>3</v>
       </c>
@@ -30397,7 +30509,7 @@
       <c r="BA46" s="40"/>
     </row>
     <row r="47" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="185"/>
+      <c r="A47" s="184"/>
       <c r="B47" s="48" t="s">
         <v>35</v>
       </c>
@@ -30568,7 +30680,7 @@
       <c r="BA47" s="57"/>
     </row>
     <row r="48" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="183">
+      <c r="A48" s="182">
         <v>12</v>
       </c>
       <c r="B48" s="22">
@@ -30730,7 +30842,7 @@
       <c r="BA48" s="19"/>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A49" s="184"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="32">
         <v>2</v>
       </c>
@@ -30890,7 +31002,7 @@
       <c r="BA49" s="44"/>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A50" s="184"/>
+      <c r="A50" s="183"/>
       <c r="B50" s="32">
         <v>3</v>
       </c>
@@ -31050,7 +31162,7 @@
       <c r="BA50" s="40"/>
     </row>
     <row r="51" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="185"/>
+      <c r="A51" s="184"/>
       <c r="B51" s="48" t="s">
         <v>35</v>
       </c>
@@ -31855,7 +31967,7 @@
       <c r="BA55" s="57"/>
     </row>
     <row r="56" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="183">
+      <c r="A56" s="182">
         <v>14</v>
       </c>
       <c r="B56" s="22">
@@ -32019,7 +32131,7 @@
       <c r="BA56" s="19"/>
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A57" s="184"/>
+      <c r="A57" s="183"/>
       <c r="B57" s="32">
         <v>2</v>
       </c>
@@ -32179,7 +32291,7 @@
       <c r="BA57" s="44"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A58" s="184"/>
+      <c r="A58" s="183"/>
       <c r="B58" s="32">
         <v>3</v>
       </c>
@@ -32339,7 +32451,7 @@
       <c r="BA58" s="40"/>
     </row>
     <row r="59" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="185"/>
+      <c r="A59" s="184"/>
       <c r="B59" s="48" t="s">
         <v>35</v>
       </c>
@@ -32510,7 +32622,7 @@
       <c r="BA59" s="57"/>
     </row>
     <row r="60" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="183">
+      <c r="A60" s="182">
         <v>15</v>
       </c>
       <c r="B60" s="22">
@@ -32674,7 +32786,7 @@
       <c r="BA60" s="19"/>
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A61" s="184"/>
+      <c r="A61" s="183"/>
       <c r="B61" s="32">
         <v>2</v>
       </c>
@@ -32834,7 +32946,7 @@
       <c r="BA61" s="44"/>
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A62" s="184"/>
+      <c r="A62" s="183"/>
       <c r="B62" s="32">
         <v>3</v>
       </c>
@@ -32994,7 +33106,7 @@
       <c r="BA62" s="40"/>
     </row>
     <row r="63" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="185"/>
+      <c r="A63" s="184"/>
       <c r="B63" s="48" t="s">
         <v>35</v>
       </c>
@@ -33165,7 +33277,7 @@
       <c r="BA63" s="57"/>
     </row>
     <row r="64" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="183">
+      <c r="A64" s="182">
         <v>16</v>
       </c>
       <c r="B64" s="22">
@@ -33331,7 +33443,7 @@
       <c r="BA64" s="19"/>
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A65" s="184"/>
+      <c r="A65" s="183"/>
       <c r="B65" s="32">
         <v>2</v>
       </c>
@@ -33491,7 +33603,7 @@
       <c r="BA65" s="44"/>
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A66" s="184"/>
+      <c r="A66" s="183"/>
       <c r="B66" s="32">
         <v>3</v>
       </c>
@@ -33651,7 +33763,7 @@
       <c r="BA66" s="40"/>
     </row>
     <row r="67" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="185"/>
+      <c r="A67" s="184"/>
       <c r="B67" s="48" t="s">
         <v>35</v>
       </c>
@@ -33822,7 +33934,7 @@
       <c r="BA67" s="57"/>
     </row>
     <row r="68" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="183">
+      <c r="A68" s="182">
         <v>17</v>
       </c>
       <c r="B68" s="22">
@@ -33986,7 +34098,7 @@
       <c r="BA68" s="19"/>
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A69" s="184"/>
+      <c r="A69" s="183"/>
       <c r="B69" s="32">
         <v>2</v>
       </c>
@@ -34146,7 +34258,7 @@
       <c r="BA69" s="44"/>
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A70" s="184"/>
+      <c r="A70" s="183"/>
       <c r="B70" s="32">
         <v>3</v>
       </c>
@@ -34306,7 +34418,7 @@
       <c r="BA70" s="40"/>
     </row>
     <row r="71" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="185"/>
+      <c r="A71" s="184"/>
       <c r="B71" s="48" t="s">
         <v>35</v>
       </c>
@@ -34477,7 +34589,7 @@
       <c r="BA71" s="57"/>
     </row>
     <row r="72" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="183">
+      <c r="A72" s="182">
         <v>18</v>
       </c>
       <c r="B72" s="22">
@@ -34641,7 +34753,7 @@
       <c r="BA72" s="19"/>
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A73" s="184"/>
+      <c r="A73" s="183"/>
       <c r="B73" s="32">
         <v>2</v>
       </c>
@@ -34801,7 +34913,7 @@
       <c r="BA73" s="44"/>
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A74" s="184"/>
+      <c r="A74" s="183"/>
       <c r="B74" s="32">
         <v>3</v>
       </c>
@@ -34961,7 +35073,7 @@
       <c r="BA74" s="40"/>
     </row>
     <row r="75" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="185"/>
+      <c r="A75" s="184"/>
       <c r="B75" s="48" t="s">
         <v>35</v>
       </c>
@@ -35132,7 +35244,7 @@
       <c r="BA75" s="57"/>
     </row>
     <row r="76" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="183">
+      <c r="A76" s="182">
         <v>19</v>
       </c>
       <c r="B76" s="22">
@@ -35294,7 +35406,7 @@
       <c r="BA76" s="19"/>
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A77" s="184"/>
+      <c r="A77" s="183"/>
       <c r="B77" s="32">
         <v>2</v>
       </c>
@@ -35454,7 +35566,7 @@
       <c r="BA77" s="44"/>
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A78" s="184"/>
+      <c r="A78" s="183"/>
       <c r="B78" s="32">
         <v>3</v>
       </c>
@@ -35614,7 +35726,7 @@
       <c r="BA78" s="40"/>
     </row>
     <row r="79" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="185"/>
+      <c r="A79" s="184"/>
       <c r="B79" s="48" t="s">
         <v>35</v>
       </c>
@@ -35785,7 +35897,7 @@
       <c r="BA79" s="57"/>
     </row>
     <row r="80" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="183">
+      <c r="A80" s="182">
         <v>20</v>
       </c>
       <c r="B80" s="22">
@@ -35947,7 +36059,7 @@
       <c r="BA80" s="19"/>
     </row>
     <row r="81" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A81" s="184"/>
+      <c r="A81" s="183"/>
       <c r="B81" s="32">
         <v>2</v>
       </c>
@@ -36107,7 +36219,7 @@
       <c r="BA81" s="44"/>
     </row>
     <row r="82" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A82" s="184"/>
+      <c r="A82" s="183"/>
       <c r="B82" s="32">
         <v>3</v>
       </c>
@@ -36267,7 +36379,7 @@
       <c r="BA82" s="40"/>
     </row>
     <row r="83" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="185"/>
+      <c r="A83" s="184"/>
       <c r="B83" s="48" t="s">
         <v>35</v>
       </c>
@@ -36438,7 +36550,7 @@
       <c r="BA83" s="57"/>
     </row>
     <row r="84" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="183">
+      <c r="A84" s="182">
         <v>21</v>
       </c>
       <c r="B84" s="22">
@@ -36602,7 +36714,7 @@
       <c r="BA84" s="19"/>
     </row>
     <row r="85" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A85" s="184"/>
+      <c r="A85" s="183"/>
       <c r="B85" s="32">
         <v>2</v>
       </c>
@@ -36762,7 +36874,7 @@
       <c r="BA85" s="44"/>
     </row>
     <row r="86" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A86" s="184"/>
+      <c r="A86" s="183"/>
       <c r="B86" s="32">
         <v>3</v>
       </c>
@@ -36922,7 +37034,7 @@
       <c r="BA86" s="40"/>
     </row>
     <row r="87" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="185"/>
+      <c r="A87" s="184"/>
       <c r="B87" s="48" t="s">
         <v>35</v>
       </c>
@@ -37093,7 +37205,7 @@
       <c r="BA87" s="57"/>
     </row>
     <row r="88" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="183">
+      <c r="A88" s="182">
         <v>22</v>
       </c>
       <c r="B88" s="22">
@@ -37257,7 +37369,7 @@
       <c r="BA88" s="19"/>
     </row>
     <row r="89" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A89" s="184"/>
+      <c r="A89" s="183"/>
       <c r="B89" s="32">
         <v>2</v>
       </c>
@@ -37417,7 +37529,7 @@
       <c r="BA89" s="44"/>
     </row>
     <row r="90" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A90" s="184"/>
+      <c r="A90" s="183"/>
       <c r="B90" s="32">
         <v>3</v>
       </c>
@@ -37577,7 +37689,7 @@
       <c r="BA90" s="40"/>
     </row>
     <row r="91" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="185"/>
+      <c r="A91" s="184"/>
       <c r="B91" s="48" t="s">
         <v>35</v>
       </c>
@@ -37748,7 +37860,7 @@
       <c r="BA91" s="57"/>
     </row>
     <row r="92" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="183">
+      <c r="A92" s="182">
         <v>23</v>
       </c>
       <c r="B92" s="22">
@@ -37912,7 +38024,7 @@
       <c r="BA92" s="19"/>
     </row>
     <row r="93" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A93" s="184"/>
+      <c r="A93" s="183"/>
       <c r="B93" s="32">
         <v>2</v>
       </c>
@@ -38070,7 +38182,7 @@
       <c r="BA93" s="44"/>
     </row>
     <row r="94" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A94" s="184"/>
+      <c r="A94" s="183"/>
       <c r="B94" s="32">
         <v>3</v>
       </c>
@@ -38224,7 +38336,7 @@
       <c r="BA94" s="40"/>
     </row>
     <row r="95" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="185"/>
+      <c r="A95" s="184"/>
       <c r="B95" s="48" t="s">
         <v>35</v>
       </c>
@@ -38395,7 +38507,7 @@
       <c r="BA95" s="57"/>
     </row>
     <row r="96" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="183">
+      <c r="A96" s="182">
         <v>24</v>
       </c>
       <c r="B96" s="22">
@@ -38559,7 +38671,7 @@
       <c r="BA96" s="19"/>
     </row>
     <row r="97" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A97" s="184"/>
+      <c r="A97" s="183"/>
       <c r="B97" s="32">
         <v>2</v>
       </c>
@@ -38719,7 +38831,7 @@
       <c r="BA97" s="44"/>
     </row>
     <row r="98" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A98" s="184"/>
+      <c r="A98" s="183"/>
       <c r="B98" s="32">
         <v>3</v>
       </c>
@@ -38879,7 +38991,7 @@
       <c r="BA98" s="40"/>
     </row>
     <row r="99" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="185"/>
+      <c r="A99" s="184"/>
       <c r="B99" s="48" t="s">
         <v>35</v>
       </c>
@@ -39050,7 +39162,7 @@
       <c r="BA99" s="57"/>
     </row>
     <row r="100" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="186">
+      <c r="A100" s="192">
         <v>25</v>
       </c>
       <c r="B100" s="32">
@@ -39214,7 +39326,7 @@
       <c r="BA100" s="19"/>
     </row>
     <row r="101" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A101" s="186"/>
+      <c r="A101" s="192"/>
       <c r="B101" s="32">
         <v>2</v>
       </c>
@@ -39374,7 +39486,7 @@
       <c r="BA101" s="44"/>
     </row>
     <row r="102" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A102" s="186"/>
+      <c r="A102" s="192"/>
       <c r="B102" s="32">
         <v>3</v>
       </c>
@@ -39534,7 +39646,7 @@
       <c r="BA102" s="40"/>
     </row>
     <row r="103" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="186"/>
+      <c r="A103" s="192"/>
       <c r="B103" s="65" t="s">
         <v>35</v>
       </c>
@@ -39705,7 +39817,7 @@
       <c r="BA103" s="57"/>
     </row>
     <row r="104" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="183">
+      <c r="A104" s="182">
         <v>26</v>
       </c>
       <c r="B104" s="22">
@@ -39867,7 +39979,7 @@
       <c r="BA104" s="19"/>
     </row>
     <row r="105" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A105" s="184"/>
+      <c r="A105" s="183"/>
       <c r="B105" s="32">
         <v>2</v>
       </c>
@@ -40027,7 +40139,7 @@
       <c r="BA105" s="44"/>
     </row>
     <row r="106" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A106" s="184"/>
+      <c r="A106" s="183"/>
       <c r="B106" s="32">
         <v>3</v>
       </c>
@@ -40187,7 +40299,7 @@
       <c r="BA106" s="40"/>
     </row>
     <row r="107" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="185"/>
+      <c r="A107" s="184"/>
       <c r="B107" s="48" t="s">
         <v>35</v>
       </c>
@@ -40358,7 +40470,7 @@
       <c r="BA107" s="57"/>
     </row>
     <row r="108" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="183">
+      <c r="A108" s="182">
         <v>27</v>
       </c>
       <c r="B108" s="22">
@@ -40520,7 +40632,7 @@
       <c r="BA108" s="19"/>
     </row>
     <row r="109" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A109" s="184"/>
+      <c r="A109" s="183"/>
       <c r="B109" s="32">
         <v>2</v>
       </c>
@@ -40676,7 +40788,7 @@
       <c r="BA109" s="44"/>
     </row>
     <row r="110" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A110" s="184"/>
+      <c r="A110" s="183"/>
       <c r="B110" s="32">
         <v>3</v>
       </c>
@@ -40826,7 +40938,7 @@
       <c r="BA110" s="40"/>
     </row>
     <row r="111" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="185"/>
+      <c r="A111" s="184"/>
       <c r="B111" s="48" t="s">
         <v>35</v>
       </c>
@@ -40997,7 +41109,7 @@
       <c r="BA111" s="57"/>
     </row>
     <row r="112" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="183">
+      <c r="A112" s="182">
         <v>28</v>
       </c>
       <c r="B112" s="22">
@@ -41161,7 +41273,7 @@
       <c r="BA112" s="19"/>
     </row>
     <row r="113" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A113" s="184"/>
+      <c r="A113" s="183"/>
       <c r="B113" s="32">
         <v>2</v>
       </c>
@@ -41321,7 +41433,7 @@
       <c r="BA113" s="44"/>
     </row>
     <row r="114" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A114" s="184"/>
+      <c r="A114" s="183"/>
       <c r="B114" s="32">
         <v>3</v>
       </c>
@@ -41481,7 +41593,7 @@
       <c r="BA114" s="40"/>
     </row>
     <row r="115" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="185"/>
+      <c r="A115" s="184"/>
       <c r="B115" s="48" t="s">
         <v>35</v>
       </c>
@@ -41652,7 +41764,7 @@
       <c r="BA115" s="57"/>
     </row>
     <row r="116" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="184">
+      <c r="A116" s="183">
         <v>29</v>
       </c>
       <c r="B116" s="32">
@@ -41816,7 +41928,7 @@
       <c r="BA116" s="19"/>
     </row>
     <row r="117" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A117" s="184"/>
+      <c r="A117" s="183"/>
       <c r="B117" s="32">
         <v>2</v>
       </c>
@@ -41976,7 +42088,7 @@
       <c r="BA117" s="44"/>
     </row>
     <row r="118" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A118" s="184"/>
+      <c r="A118" s="183"/>
       <c r="B118" s="32">
         <v>3</v>
       </c>
@@ -42136,7 +42248,7 @@
       <c r="BA118" s="40"/>
     </row>
     <row r="119" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="185"/>
+      <c r="A119" s="184"/>
       <c r="B119" s="48" t="s">
         <v>35</v>
       </c>
@@ -42307,7 +42419,7 @@
       <c r="BA119" s="57"/>
     </row>
     <row r="120" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="183">
+      <c r="A120" s="182">
         <v>30</v>
       </c>
       <c r="B120" s="22">
@@ -42471,7 +42583,7 @@
       <c r="BA120" s="19"/>
     </row>
     <row r="121" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A121" s="184"/>
+      <c r="A121" s="183"/>
       <c r="B121" s="32">
         <v>2</v>
       </c>
@@ -42631,7 +42743,7 @@
       <c r="BA121" s="44"/>
     </row>
     <row r="122" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A122" s="184"/>
+      <c r="A122" s="183"/>
       <c r="B122" s="32">
         <v>3</v>
       </c>
@@ -42791,7 +42903,7 @@
       <c r="BA122" s="40"/>
     </row>
     <row r="123" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="185"/>
+      <c r="A123" s="184"/>
       <c r="B123" s="48" t="s">
         <v>35</v>
       </c>
@@ -42962,7 +43074,7 @@
       <c r="BA123" s="57"/>
     </row>
     <row r="124" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="183">
+      <c r="A124" s="182">
         <v>31</v>
       </c>
       <c r="B124" s="22">
@@ -43126,7 +43238,7 @@
       <c r="BA124" s="19"/>
     </row>
     <row r="125" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A125" s="184"/>
+      <c r="A125" s="183"/>
       <c r="B125" s="32">
         <v>2</v>
       </c>
@@ -43282,7 +43394,7 @@
       <c r="BA125" s="44"/>
     </row>
     <row r="126" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A126" s="184"/>
+      <c r="A126" s="183"/>
       <c r="B126" s="32">
         <v>3</v>
       </c>
@@ -43432,7 +43544,7 @@
       <c r="BA126" s="40"/>
     </row>
     <row r="127" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="185"/>
+      <c r="A127" s="184"/>
       <c r="B127" s="48" t="s">
         <v>35</v>
       </c>
@@ -43868,16 +43980,18 @@
     <protectedRange sqref="AB112:AB127" name="Range1_1_1_1_1_2_2_1_1_4"/>
   </protectedRanges>
   <mergeCells count="35">
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A56:A59"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A32:A35"/>
@@ -43891,18 +44005,16 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -43912,22 +44024,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6555BB66-49A2-4157-88D4-D9BD7AEDD16F}">
-  <dimension ref="A1:BA47"/>
+  <dimension ref="A1:BA75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="185" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -44056,19 +44168,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="182" t="s">
+      <c r="AX1" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="182"/>
-      <c r="AZ1" s="182" t="s">
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="182"/>
+      <c r="BA1" s="191"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="192"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="188"/>
+      <c r="A2" s="190"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="186"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -44259,7 +44371,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183">
+      <c r="A4" s="182">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -44381,7 +44493,7 @@
         <v>0.89341832658664044</v>
       </c>
       <c r="AK4" s="59">
-        <f t="shared" ref="AK4:AK47" si="6">IF(AND(AE4&gt;0,AN4&gt;0,AF4&gt;0),((AN4*(AE4-AF4))/(AE4*(AN4-AF4))),0)</f>
+        <f t="shared" ref="AK4:AK67" si="6">IF(AND(AE4&gt;0,AN4&gt;0,AF4&gt;0),((AN4*(AE4-AF4))/(AE4*(AN4-AF4))),0)</f>
         <v>0.89517063729570767</v>
       </c>
       <c r="AL4" s="11">
@@ -44423,7 +44535,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="184"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -44583,7 +44695,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="184"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -44743,7 +44855,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="184"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -44914,7 +45026,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="183">
+      <c r="A8" s="182">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -45076,7 +45188,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="184"/>
+      <c r="A9" s="183"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -45236,7 +45348,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="184"/>
+      <c r="A10" s="183"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -45396,7 +45508,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="184"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -45567,7 +45679,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="183">
+      <c r="A12" s="182">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -45729,7 +45841,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="184"/>
+      <c r="A13" s="183"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -45885,7 +45997,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="184"/>
+      <c r="A14" s="183"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -46035,7 +46147,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="184"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -46206,7 +46318,7 @@
       <c r="BA15" s="57"/>
     </row>
     <row r="16" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="183">
+      <c r="A16" s="182">
         <v>4</v>
       </c>
       <c r="B16" s="22">
@@ -46370,7 +46482,7 @@
       <c r="BA16" s="19"/>
     </row>
     <row r="17" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="184"/>
+      <c r="A17" s="183"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -46530,7 +46642,7 @@
       <c r="BA17" s="44"/>
     </row>
     <row r="18" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="184"/>
+      <c r="A18" s="183"/>
       <c r="B18" s="32">
         <v>3</v>
       </c>
@@ -46690,7 +46802,7 @@
       <c r="BA18" s="40"/>
     </row>
     <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+      <c r="A19" s="184"/>
       <c r="B19" s="48" t="s">
         <v>35</v>
       </c>
@@ -46861,7 +46973,7 @@
       <c r="BA19" s="57"/>
     </row>
     <row r="20" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="183">
+      <c r="A20" s="182">
         <v>5</v>
       </c>
       <c r="B20" s="22">
@@ -47025,7 +47137,7 @@
       <c r="BA20" s="19"/>
     </row>
     <row r="21" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="184"/>
+      <c r="A21" s="183"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
@@ -47185,7 +47297,7 @@
       <c r="BA21" s="44"/>
     </row>
     <row r="22" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="184"/>
+      <c r="A22" s="183"/>
       <c r="B22" s="32">
         <v>3</v>
       </c>
@@ -47345,7 +47457,7 @@
       <c r="BA22" s="40"/>
     </row>
     <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="185"/>
+      <c r="A23" s="184"/>
       <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
@@ -47516,7 +47628,7 @@
       <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="183">
+      <c r="A24" s="182">
         <v>6</v>
       </c>
       <c r="B24" s="22">
@@ -47680,7 +47792,7 @@
       <c r="BA24" s="19"/>
     </row>
     <row r="25" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="184"/>
+      <c r="A25" s="183"/>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -47836,7 +47948,7 @@
       <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="184"/>
+      <c r="A26" s="183"/>
       <c r="B26" s="32">
         <v>3</v>
       </c>
@@ -47986,7 +48098,7 @@
       <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
+      <c r="A27" s="184"/>
       <c r="B27" s="48" t="s">
         <v>35</v>
       </c>
@@ -48157,7 +48269,7 @@
       <c r="BA27" s="57"/>
     </row>
     <row r="28" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="183">
+      <c r="A28" s="182">
         <v>7</v>
       </c>
       <c r="B28" s="22">
@@ -48323,7 +48435,7 @@
       <c r="BA28" s="19"/>
     </row>
     <row r="29" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="184"/>
+      <c r="A29" s="183"/>
       <c r="B29" s="32">
         <v>2</v>
       </c>
@@ -48483,7 +48595,7 @@
       <c r="BA29" s="44"/>
     </row>
     <row r="30" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="184"/>
+      <c r="A30" s="183"/>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -48643,7 +48755,7 @@
       <c r="BA30" s="40"/>
     </row>
     <row r="31" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185"/>
+      <c r="A31" s="184"/>
       <c r="B31" s="48" t="s">
         <v>35</v>
       </c>
@@ -48814,7 +48926,7 @@
       <c r="BA31" s="57"/>
     </row>
     <row r="32" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="183">
+      <c r="A32" s="182">
         <v>8</v>
       </c>
       <c r="B32" s="22">
@@ -48980,7 +49092,7 @@
       <c r="BA32" s="19"/>
     </row>
     <row r="33" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="184"/>
+      <c r="A33" s="183"/>
       <c r="B33" s="32">
         <v>2</v>
       </c>
@@ -49140,7 +49252,7 @@
       <c r="BA33" s="44"/>
     </row>
     <row r="34" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="184"/>
+      <c r="A34" s="183"/>
       <c r="B34" s="32">
         <v>3</v>
       </c>
@@ -49300,7 +49412,7 @@
       <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="185"/>
+      <c r="A35" s="184"/>
       <c r="B35" s="48" t="s">
         <v>35</v>
       </c>
@@ -49471,7 +49583,7 @@
       <c r="BA35" s="57"/>
     </row>
     <row r="36" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="183">
+      <c r="A36" s="182">
         <v>9</v>
       </c>
       <c r="B36" s="22">
@@ -49633,7 +49745,7 @@
       <c r="BA36" s="19"/>
     </row>
     <row r="37" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="184"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="32">
         <v>2</v>
       </c>
@@ -49793,7 +49905,7 @@
       <c r="BA37" s="44"/>
     </row>
     <row r="38" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="184"/>
+      <c r="A38" s="183"/>
       <c r="B38" s="32">
         <v>3</v>
       </c>
@@ -49953,7 +50065,7 @@
       <c r="BA38" s="40"/>
     </row>
     <row r="39" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="185"/>
+      <c r="A39" s="184"/>
       <c r="B39" s="48" t="s">
         <v>35</v>
       </c>
@@ -50124,7 +50236,7 @@
       <c r="BA39" s="57"/>
     </row>
     <row r="40" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="183">
+      <c r="A40" s="182">
         <v>10</v>
       </c>
       <c r="B40" s="22">
@@ -50286,7 +50398,7 @@
       <c r="BA40" s="19"/>
     </row>
     <row r="41" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="184"/>
+      <c r="A41" s="183"/>
       <c r="B41" s="32">
         <v>2</v>
       </c>
@@ -50442,7 +50554,7 @@
       <c r="BA41" s="44"/>
     </row>
     <row r="42" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="184"/>
+      <c r="A42" s="183"/>
       <c r="B42" s="32">
         <v>3</v>
       </c>
@@ -50592,7 +50704,7 @@
       <c r="BA42" s="40"/>
     </row>
     <row r="43" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="185"/>
+      <c r="A43" s="184"/>
       <c r="B43" s="48" t="s">
         <v>35</v>
       </c>
@@ -50763,7 +50875,7 @@
       <c r="BA43" s="57"/>
     </row>
     <row r="44" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="183">
+      <c r="A44" s="182">
         <v>11</v>
       </c>
       <c r="B44" s="22">
@@ -50929,7 +51041,7 @@
       <c r="BA44" s="19"/>
     </row>
     <row r="45" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="184"/>
+      <c r="A45" s="183"/>
       <c r="B45" s="32">
         <v>2</v>
       </c>
@@ -51089,7 +51201,7 @@
       <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="184"/>
+      <c r="A46" s="183"/>
       <c r="B46" s="32">
         <v>3</v>
       </c>
@@ -51249,7 +51361,7 @@
       <c r="BA46" s="40"/>
     </row>
     <row r="47" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="185"/>
+      <c r="A47" s="184"/>
       <c r="B47" s="48" t="s">
         <v>35</v>
       </c>
@@ -51418,6 +51530,4481 @@
       <c r="AY47" s="57"/>
       <c r="AZ47" s="57"/>
       <c r="BA47" s="57"/>
+    </row>
+    <row r="48" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="182">
+        <v>12</v>
+      </c>
+      <c r="B48" s="22">
+        <v>1</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="11">
+        <v>5817</v>
+      </c>
+      <c r="E48" s="11">
+        <v>1</v>
+      </c>
+      <c r="F48" s="11">
+        <v>14633</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="H48" s="12">
+        <v>5.9</v>
+      </c>
+      <c r="I48" s="11">
+        <v>14120</v>
+      </c>
+      <c r="J48" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="K48" s="11">
+        <v>15691</v>
+      </c>
+      <c r="L48" s="13">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="M48" s="23">
+        <f>ROUND(K48*(1-L48),0)</f>
+        <v>14655</v>
+      </c>
+      <c r="N48" s="14">
+        <v>0.505</v>
+      </c>
+      <c r="O48" s="24">
+        <f t="shared" ref="O48:O50" si="450">M48*N48</f>
+        <v>7400.7749999999996</v>
+      </c>
+      <c r="P48" s="13">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="Q48" s="24">
+        <f t="shared" ref="Q48:Q50" si="451">M48*P48</f>
+        <v>5041.32</v>
+      </c>
+      <c r="R48" s="15">
+        <v>0.151</v>
+      </c>
+      <c r="S48" s="143">
+        <v>0.2034</v>
+      </c>
+      <c r="T48" s="24">
+        <f t="shared" ref="T48:T50" si="452">M48*R48</f>
+        <v>2212.9049999999997</v>
+      </c>
+      <c r="U48" s="25">
+        <v>0.247</v>
+      </c>
+      <c r="V48" s="24">
+        <f t="shared" ref="V48:V50" si="453">M48*U48</f>
+        <v>3619.7849999999999</v>
+      </c>
+      <c r="W48" s="15">
+        <v>0.48</v>
+      </c>
+      <c r="X48" s="24">
+        <f t="shared" ref="X48:X50" si="454">M48*W48</f>
+        <v>7034.4</v>
+      </c>
+      <c r="Y48" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="Z48" s="24">
+        <f t="shared" ref="Z48:Z50" si="455">Y48*M48</f>
+        <v>6594.75</v>
+      </c>
+      <c r="AA48" s="145">
+        <v>2.7799999999999999E-3</v>
+      </c>
+      <c r="AB48" s="18">
+        <f t="shared" ref="AB48:AB74" si="456">M48*AA48</f>
+        <v>40.740899999999996</v>
+      </c>
+      <c r="AC48" s="16">
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="AD48" s="17">
+        <f t="shared" ref="AD48:AD50" si="457">M48*AC48</f>
+        <v>43.085699999999996</v>
+      </c>
+      <c r="AE48" s="26">
+        <f>IF(M48&gt;0,(AG48+AP48)/M48,0)</f>
+        <v>3.0335697031729785E-3</v>
+      </c>
+      <c r="AF48" s="16">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="AG48" s="23">
+        <f t="shared" ref="AG48:AG50" si="458">AF48*M48</f>
+        <v>4.6896000000000004</v>
+      </c>
+      <c r="AH48" s="114">
+        <v>0.21179999999999999</v>
+      </c>
+      <c r="AI48" s="29">
+        <f t="shared" ref="AI48:AI50" si="459">AL48*(1-AM48)*AH48</f>
+        <v>38.354861999999997</v>
+      </c>
+      <c r="AJ48" s="27">
+        <f t="shared" ref="AJ48:AJ50" si="460">IF(AND(AH48&gt;0,AF48&gt;0,AC48&gt;0),((AC48-AF48)*AH48)/((AH48-AF48)*AC48),0)</f>
+        <v>0.89250491193261861</v>
+      </c>
+      <c r="AK48" s="59">
+        <f t="shared" si="6"/>
+        <v>0.8958190974517477</v>
+      </c>
+      <c r="AL48" s="11">
+        <v>199</v>
+      </c>
+      <c r="AM48" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="AN48" s="14">
+        <v>0.21959999999999999</v>
+      </c>
+      <c r="AO48" s="130">
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="AP48" s="29">
+        <f>AL48*(1-AM48)*AN48</f>
+        <v>39.767364000000001</v>
+      </c>
+      <c r="AQ48" s="131">
+        <f t="shared" ref="AQ48:AQ70" si="461">AL48*(1-AM48)*AO48</f>
+        <v>39.441401999999997</v>
+      </c>
+      <c r="AR48" s="18">
+        <v>1.62</v>
+      </c>
+      <c r="AS48" s="18">
+        <v>1001.06</v>
+      </c>
+      <c r="AT48" s="98">
+        <f>AT46+AL48-AS48+AU48</f>
+        <v>187.84000000000015</v>
+      </c>
+      <c r="AU48" s="99">
+        <v>4</v>
+      </c>
+      <c r="AV48" s="11"/>
+      <c r="AW48" s="30"/>
+      <c r="AX48" s="19"/>
+      <c r="AY48" s="19"/>
+      <c r="AZ48" s="19"/>
+      <c r="BA48" s="19"/>
+    </row>
+    <row r="49" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="183"/>
+      <c r="B49" s="32">
+        <v>2</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="33">
+        <v>19500</v>
+      </c>
+      <c r="E49" s="33">
+        <v>4</v>
+      </c>
+      <c r="F49" s="33">
+        <v>16223</v>
+      </c>
+      <c r="G49" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="H49" s="34">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I49" s="33">
+        <v>15642</v>
+      </c>
+      <c r="J49" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="K49" s="33">
+        <v>15644</v>
+      </c>
+      <c r="L49" s="35">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M49" s="36">
+        <f>ROUND(K49*(1-L49),0)</f>
+        <v>14627</v>
+      </c>
+      <c r="N49" s="37">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="O49" s="24">
+        <f t="shared" si="450"/>
+        <v>8907.8429999999989</v>
+      </c>
+      <c r="P49" s="35">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="Q49" s="24">
+        <f t="shared" si="451"/>
+        <v>3451.9719999999998</v>
+      </c>
+      <c r="R49" s="38">
+        <v>0.155</v>
+      </c>
+      <c r="S49" s="134">
+        <v>0.2059</v>
+      </c>
+      <c r="T49" s="24">
+        <f t="shared" si="452"/>
+        <v>2267.1849999999999</v>
+      </c>
+      <c r="U49" s="27">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="V49" s="24">
+        <f t="shared" si="453"/>
+        <v>3495.8530000000001</v>
+      </c>
+      <c r="W49" s="38">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="X49" s="24">
+        <f t="shared" si="454"/>
+        <v>7211.1109999999999</v>
+      </c>
+      <c r="Y49" s="38">
+        <v>0.44</v>
+      </c>
+      <c r="Z49" s="24">
+        <f t="shared" si="455"/>
+        <v>6435.88</v>
+      </c>
+      <c r="AA49" s="146">
+        <v>2.8E-3</v>
+      </c>
+      <c r="AB49" s="18">
+        <f t="shared" si="456"/>
+        <v>40.955599999999997</v>
+      </c>
+      <c r="AC49" s="39">
+        <v>2.8500000000000001E-3</v>
+      </c>
+      <c r="AD49" s="17">
+        <f t="shared" si="457"/>
+        <v>41.686950000000003</v>
+      </c>
+      <c r="AE49" s="26">
+        <f>IF(M49&gt;0,(AG49+AP49)/M49,0)</f>
+        <v>2.8342796609010733E-3</v>
+      </c>
+      <c r="AF49" s="39">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AG49" s="36">
+        <f t="shared" si="458"/>
+        <v>4.3880999999999997</v>
+      </c>
+      <c r="AH49" s="27">
+        <v>0.21390000000000001</v>
+      </c>
+      <c r="AI49" s="40">
+        <f t="shared" si="459"/>
+        <v>35.115321299999998</v>
+      </c>
+      <c r="AJ49" s="27">
+        <f t="shared" si="460"/>
+        <v>0.89599349497338854</v>
+      </c>
+      <c r="AK49" s="28">
+        <f t="shared" si="6"/>
+        <v>0.89534256027332715</v>
+      </c>
+      <c r="AL49" s="33">
+        <v>181</v>
+      </c>
+      <c r="AM49" s="35">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AN49" s="37">
+        <v>0.2258</v>
+      </c>
+      <c r="AO49" s="132">
+        <v>0.2233</v>
+      </c>
+      <c r="AP49" s="40">
+        <f>AL49*(1-AM49)*AN49</f>
+        <v>37.0689086</v>
+      </c>
+      <c r="AQ49" s="133">
+        <f t="shared" si="461"/>
+        <v>36.658491099999999</v>
+      </c>
+      <c r="AR49" s="41">
+        <v>1.6</v>
+      </c>
+      <c r="AS49" s="41"/>
+      <c r="AT49" s="117">
+        <f>AT48+AL49-AS49</f>
+        <v>368.84000000000015</v>
+      </c>
+      <c r="AU49" s="101"/>
+      <c r="AV49" s="42"/>
+      <c r="AW49" s="43"/>
+      <c r="AX49" s="44"/>
+      <c r="AY49" s="44"/>
+      <c r="AZ49" s="44"/>
+      <c r="BA49" s="44"/>
+    </row>
+    <row r="50" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="183"/>
+      <c r="B50" s="32">
+        <v>3</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="42">
+        <v>19403</v>
+      </c>
+      <c r="E50" s="42">
+        <v>1</v>
+      </c>
+      <c r="F50" s="42">
+        <v>16484</v>
+      </c>
+      <c r="G50" s="36">
+        <v>1.3</v>
+      </c>
+      <c r="H50" s="36">
+        <v>6.5</v>
+      </c>
+      <c r="I50" s="42">
+        <v>16106</v>
+      </c>
+      <c r="J50" s="36">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K50" s="42">
+        <v>15408</v>
+      </c>
+      <c r="L50" s="38">
+        <v>6.3E-2</v>
+      </c>
+      <c r="M50" s="36">
+        <f>ROUND(K50*(1-L50),0)</f>
+        <v>14437</v>
+      </c>
+      <c r="N50" s="27">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="O50" s="24">
+        <f t="shared" si="450"/>
+        <v>8387.896999999999</v>
+      </c>
+      <c r="P50" s="38">
+        <v>0.36</v>
+      </c>
+      <c r="Q50" s="24">
+        <f t="shared" si="451"/>
+        <v>5197.32</v>
+      </c>
+      <c r="R50" s="38">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="S50" s="134">
+        <v>0.19819999999999999</v>
+      </c>
+      <c r="T50" s="24">
+        <f t="shared" si="452"/>
+        <v>851.7829999999999</v>
+      </c>
+      <c r="U50" s="27">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="V50" s="24">
+        <f t="shared" si="453"/>
+        <v>3291.636</v>
+      </c>
+      <c r="W50" s="38">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="X50" s="24">
+        <f t="shared" si="454"/>
+        <v>7492.8029999999999</v>
+      </c>
+      <c r="Y50" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="Z50" s="24">
+        <f t="shared" si="455"/>
+        <v>7218.5</v>
+      </c>
+      <c r="AA50" s="147">
+        <v>2.81E-3</v>
+      </c>
+      <c r="AB50" s="148">
+        <f t="shared" si="456"/>
+        <v>40.567970000000003</v>
+      </c>
+      <c r="AC50" s="46">
+        <v>2.9199999999999999E-3</v>
+      </c>
+      <c r="AD50" s="17">
+        <f t="shared" si="457"/>
+        <v>42.156039999999997</v>
+      </c>
+      <c r="AE50" s="26">
+        <f>IF(M50&gt;0,(AG50+AP50)/M50,0)</f>
+        <v>2.9021469003255524E-3</v>
+      </c>
+      <c r="AF50" s="46">
+        <v>2.9E-4</v>
+      </c>
+      <c r="AG50" s="36">
+        <f t="shared" si="458"/>
+        <v>4.1867299999999998</v>
+      </c>
+      <c r="AH50" s="27">
+        <v>0.2114</v>
+      </c>
+      <c r="AI50" s="40">
+        <f t="shared" si="459"/>
+        <v>35.089017600000005</v>
+      </c>
+      <c r="AJ50" s="27">
+        <f t="shared" si="460"/>
+        <v>0.90192219468783075</v>
+      </c>
+      <c r="AK50" s="28">
+        <f t="shared" si="6"/>
+        <v>0.90122430660122077</v>
+      </c>
+      <c r="AL50" s="42">
+        <v>182</v>
+      </c>
+      <c r="AM50" s="38">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AN50" s="27">
+        <v>0.22720000000000001</v>
+      </c>
+      <c r="AO50" s="134">
+        <v>0.2208</v>
+      </c>
+      <c r="AP50" s="40">
+        <f>AL50*(1-AM50)*AN50</f>
+        <v>37.711564800000005</v>
+      </c>
+      <c r="AQ50" s="135">
+        <f t="shared" si="461"/>
+        <v>36.649267200000004</v>
+      </c>
+      <c r="AR50" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="AS50" s="17"/>
+      <c r="AT50" s="117">
+        <f>AT49+AL50-AS50</f>
+        <v>550.84000000000015</v>
+      </c>
+      <c r="AU50" s="101"/>
+      <c r="AV50" s="42"/>
+      <c r="AW50" s="47"/>
+      <c r="AX50" s="40"/>
+      <c r="AY50" s="40"/>
+      <c r="AZ50" s="40"/>
+      <c r="BA50" s="40"/>
+    </row>
+    <row r="51" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="184"/>
+      <c r="B51" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="49"/>
+      <c r="D51" s="50">
+        <f t="shared" ref="D51" si="462">SUM(D48:D50)</f>
+        <v>44720</v>
+      </c>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50">
+        <f t="shared" ref="F51" si="463">SUM(F48:F50)</f>
+        <v>47340</v>
+      </c>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="50">
+        <f t="shared" ref="I51:K51" si="464">SUM(I48:I50)</f>
+        <v>45868</v>
+      </c>
+      <c r="J51" s="51"/>
+      <c r="K51" s="50">
+        <f t="shared" si="464"/>
+        <v>46743</v>
+      </c>
+      <c r="L51" s="20">
+        <f t="shared" ref="L51" si="465">IF(K51&gt;0,(K48*L48+K49*L49+K50*L50)/K51,0)</f>
+        <v>6.4676422138074147E-2</v>
+      </c>
+      <c r="M51" s="51">
+        <f t="shared" ref="M51" si="466">M48+M49+M50</f>
+        <v>43719</v>
+      </c>
+      <c r="N51" s="52">
+        <f t="shared" ref="N51" si="467">IF(M51&gt;0,O51/M51,0)</f>
+        <v>0.56489203778677466</v>
+      </c>
+      <c r="O51" s="53">
+        <f t="shared" ref="O51" si="468">O48+O49+O50</f>
+        <v>24696.514999999999</v>
+      </c>
+      <c r="P51" s="20">
+        <f t="shared" ref="P51" si="469">IF(M51&gt;0,Q51/M51,0)</f>
+        <v>0.31315016354445435</v>
+      </c>
+      <c r="Q51" s="53">
+        <f t="shared" ref="Q51" si="470">Q48+Q49+Q50</f>
+        <v>13690.611999999999</v>
+      </c>
+      <c r="R51" s="20">
+        <f t="shared" ref="R51" si="471">IF(M51&gt;0,T51/M51,0)</f>
+        <v>0.121957798668771</v>
+      </c>
+      <c r="S51" s="136"/>
+      <c r="T51" s="53">
+        <f t="shared" ref="T51" si="472">T48+T49+T50</f>
+        <v>5331.8729999999996</v>
+      </c>
+      <c r="U51" s="20">
+        <f t="shared" ref="U51" si="473">IF(M51&gt;0,V51/M51,0)</f>
+        <v>0.23804922344975868</v>
+      </c>
+      <c r="V51" s="53">
+        <f t="shared" ref="V51" si="474">V48+V49+V50</f>
+        <v>10407.273999999999</v>
+      </c>
+      <c r="W51" s="20">
+        <f t="shared" ref="W51" si="475">IF(M51&gt;0,X51/M51,0)</f>
+        <v>0.49722807017543857</v>
+      </c>
+      <c r="X51" s="53">
+        <f t="shared" ref="X51" si="476">X48+X49+X50</f>
+        <v>21738.313999999998</v>
+      </c>
+      <c r="Y51" s="20">
+        <f t="shared" ref="Y51" si="477">IF(M51&gt;0,Z51/M51,0)</f>
+        <v>0.46316544294242779</v>
+      </c>
+      <c r="Z51" s="53">
+        <f t="shared" ref="Z51" si="478">Z48+Z49+Z50</f>
+        <v>20249.13</v>
+      </c>
+      <c r="AA51" s="152">
+        <f t="shared" ref="AA51" si="479">IF(M51&gt;0,AB51/M51,0)</f>
+        <v>2.7965980466158878E-3</v>
+      </c>
+      <c r="AB51" s="55">
+        <f t="shared" ref="AB51" si="480">SUM(AB48:AB50)</f>
+        <v>122.26446999999999</v>
+      </c>
+      <c r="AC51" s="54">
+        <f t="shared" ref="AC51" si="481">IF(M51&gt;0,AD51/M51,0)</f>
+        <v>2.9032843843637777E-3</v>
+      </c>
+      <c r="AD51" s="55">
+        <f t="shared" ref="AD51" si="482">SUM(AD48:AD50)</f>
+        <v>126.92868999999999</v>
+      </c>
+      <c r="AE51" s="54">
+        <f t="shared" ref="AE51" si="483">IF(M51&gt;0,(AE48*M48+AE49*M49+AE50*M50)/M51,0)</f>
+        <v>2.9234947597154555E-3</v>
+      </c>
+      <c r="AF51" s="54">
+        <f t="shared" ref="AF51" si="484">IF(K51&gt;0,(K48*AF48+K49*AF49+K50*AF50)/K51,0)</f>
+        <v>3.0341741009348998E-4</v>
+      </c>
+      <c r="AG51" s="51">
+        <f t="shared" ref="AG51" si="485">SUM(AG48:AG50)</f>
+        <v>13.264430000000001</v>
+      </c>
+      <c r="AH51" s="52">
+        <f t="shared" ref="AH51" si="486">IF(K51&gt;0,(K48*AH48+K49*AH49+K50*AH50)/K51,0)</f>
+        <v>0.21237097747256276</v>
+      </c>
+      <c r="AI51" s="57">
+        <f t="shared" ref="AI51" si="487">SUM(AI48:AI50)</f>
+        <v>108.55920090000001</v>
+      </c>
+      <c r="AJ51" s="52">
+        <f t="shared" ref="AJ51" si="488">IF(AND(AD51&gt;0),((AD48*AJ48+AD49*AJ49+AD50*AJ50)/AD51),0)</f>
+        <v>0.89677836449335546</v>
+      </c>
+      <c r="AK51" s="56">
+        <f t="shared" si="6"/>
+        <v>0.8974287703437166</v>
+      </c>
+      <c r="AL51" s="50">
+        <f t="shared" ref="AL51" si="489">SUM(AL48:AL50)</f>
+        <v>562</v>
+      </c>
+      <c r="AM51" s="20">
+        <f t="shared" ref="AM51" si="490">IF(AL51&gt;0,(AM48*AL48+AM49*AL49+AM50*AL50)/AL51,0)</f>
+        <v>9.0318505338078281E-2</v>
+      </c>
+      <c r="AN51" s="52">
+        <f>IF(K51&gt;0,(AN48*K48+AN49*K49+AN50*K50)/K51,0)</f>
+        <v>0.22418022805553775</v>
+      </c>
+      <c r="AO51" s="136">
+        <f>IF(L51&gt;0,(AO48*K48+AO49*K49+AO50*K50)/K51,0)</f>
+        <v>0.22062964294118906</v>
+      </c>
+      <c r="AP51" s="57">
+        <f t="shared" ref="AP51" si="491">SUM(AP48:AP50)</f>
+        <v>114.54783740000001</v>
+      </c>
+      <c r="AQ51" s="137">
+        <f t="shared" ref="AQ51:AQ71" si="492">SUM(AQ48:AQ50)</f>
+        <v>112.7491603</v>
+      </c>
+      <c r="AR51" s="55"/>
+      <c r="AS51" s="55">
+        <f t="shared" ref="AS51" si="493">SUM(AS48:AS50)</f>
+        <v>1001.06</v>
+      </c>
+      <c r="AT51" s="102"/>
+      <c r="AU51" s="103">
+        <f>AT50</f>
+        <v>550.84000000000015</v>
+      </c>
+      <c r="AV51" s="50">
+        <f t="shared" ref="AV51" si="494">SUM(AV48:AV50)</f>
+        <v>0</v>
+      </c>
+      <c r="AW51" s="58"/>
+      <c r="AX51" s="57"/>
+      <c r="AY51" s="57"/>
+      <c r="AZ51" s="57"/>
+      <c r="BA51" s="57"/>
+    </row>
+    <row r="52" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="182">
+        <v>13</v>
+      </c>
+      <c r="B52" s="22">
+        <v>1</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="11">
+        <v>2944</v>
+      </c>
+      <c r="E52" s="11">
+        <v>2</v>
+      </c>
+      <c r="F52" s="11">
+        <v>5680</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="H52" s="12">
+        <v>6.6</v>
+      </c>
+      <c r="I52" s="11">
+        <v>5861</v>
+      </c>
+      <c r="J52" s="12">
+        <v>3.6</v>
+      </c>
+      <c r="K52" s="11">
+        <v>15440</v>
+      </c>
+      <c r="L52" s="13">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="M52" s="23">
+        <f>ROUND(K52*(1-L52),0)</f>
+        <v>14375</v>
+      </c>
+      <c r="N52" s="14">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="O52" s="24">
+        <f t="shared" ref="O52:O54" si="495">M52*N52</f>
+        <v>9933.125</v>
+      </c>
+      <c r="P52" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="Q52" s="24">
+        <f t="shared" ref="Q52:Q54" si="496">M52*P52</f>
+        <v>3593.75</v>
+      </c>
+      <c r="R52" s="15">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="S52" s="143">
+        <v>0.2286</v>
+      </c>
+      <c r="T52" s="24">
+        <f t="shared" ref="T52:T54" si="497">M52*R52</f>
+        <v>848.125</v>
+      </c>
+      <c r="U52" s="25">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="V52" s="24">
+        <f t="shared" ref="V52:V54" si="498">M52*U52</f>
+        <v>3780.625</v>
+      </c>
+      <c r="W52" s="15">
+        <v>0.46</v>
+      </c>
+      <c r="X52" s="24">
+        <f t="shared" ref="X52:X54" si="499">M52*W52</f>
+        <v>6612.5</v>
+      </c>
+      <c r="Y52" s="15">
+        <v>0.52</v>
+      </c>
+      <c r="Z52" s="24">
+        <f t="shared" ref="Z52:Z54" si="500">Y52*M52</f>
+        <v>7475</v>
+      </c>
+      <c r="AA52" s="145">
+        <v>2.8500000000000001E-3</v>
+      </c>
+      <c r="AB52" s="18">
+        <f t="shared" ref="AB52" si="501">M52*AA52</f>
+        <v>40.96875</v>
+      </c>
+      <c r="AC52" s="16">
+        <v>3.1099999999999999E-3</v>
+      </c>
+      <c r="AD52" s="17">
+        <f t="shared" ref="AD52:AD54" si="502">M52*AC52</f>
+        <v>44.706249999999997</v>
+      </c>
+      <c r="AE52" s="26">
+        <f>IF(M52&gt;0,(AG52+AP52)/M52,0)</f>
+        <v>3.12038528E-3</v>
+      </c>
+      <c r="AF52" s="16">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="AG52" s="23">
+        <f t="shared" ref="AG52:AG54" si="503">AF52*M52</f>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="AH52" s="114">
+        <v>0.2114</v>
+      </c>
+      <c r="AI52" s="29">
+        <f t="shared" ref="AI52:AI54" si="504">AL52*(1-AM52)*AH52</f>
+        <v>37.755194400000001</v>
+      </c>
+      <c r="AJ52" s="27">
+        <f t="shared" ref="AJ52:AJ54" si="505">IF(AND(AH52&gt;0,AF52&gt;0,AC52&gt;0),((AC52-AF52)*AH52)/((AH52-AF52)*AC52),0)</f>
+        <v>0.89846613374670281</v>
+      </c>
+      <c r="AK52" s="59">
+        <f t="shared" si="6"/>
+        <v>0.89872447885129714</v>
+      </c>
+      <c r="AL52" s="11">
+        <v>198</v>
+      </c>
+      <c r="AM52" s="13">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="AN52" s="14">
+        <v>0.22539999999999999</v>
+      </c>
+      <c r="AO52" s="130">
+        <v>0.21729999999999999</v>
+      </c>
+      <c r="AP52" s="29">
+        <f>AL52*(1-AM52)*AN52</f>
+        <v>40.255538399999999</v>
+      </c>
+      <c r="AQ52" s="131">
+        <f t="shared" ref="AQ52" si="506">AL52*(1-AM52)*AO52</f>
+        <v>38.8089108</v>
+      </c>
+      <c r="AR52" s="18">
+        <v>1.62</v>
+      </c>
+      <c r="AS52" s="18">
+        <v>505.5</v>
+      </c>
+      <c r="AT52" s="98">
+        <f>AT50+AL52-AS52+AU52</f>
+        <v>240.34000000000015</v>
+      </c>
+      <c r="AU52" s="144">
+        <v>-3</v>
+      </c>
+      <c r="AV52" s="11"/>
+      <c r="AW52" s="30"/>
+      <c r="AX52" s="19"/>
+      <c r="AY52" s="19"/>
+      <c r="AZ52" s="19"/>
+      <c r="BA52" s="19"/>
+    </row>
+    <row r="53" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="183"/>
+      <c r="B53" s="32">
+        <v>2</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="33">
+        <v>21000</v>
+      </c>
+      <c r="E53" s="33">
+        <v>0</v>
+      </c>
+      <c r="F53" s="33">
+        <v>19997</v>
+      </c>
+      <c r="G53" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="H53" s="34">
+        <v>5.2</v>
+      </c>
+      <c r="I53" s="33">
+        <v>13632</v>
+      </c>
+      <c r="J53" s="34">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K53" s="33">
+        <v>15635</v>
+      </c>
+      <c r="L53" s="35">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="M53" s="36">
+        <f>ROUND(K53*(1-L53),0)</f>
+        <v>14603</v>
+      </c>
+      <c r="N53" s="37">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="O53" s="24">
+        <f t="shared" si="495"/>
+        <v>9827.8190000000013</v>
+      </c>
+      <c r="P53" s="35">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="Q53" s="24">
+        <f t="shared" si="496"/>
+        <v>3300.2780000000002</v>
+      </c>
+      <c r="R53" s="38">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="S53" s="134">
+        <v>0.22009999999999999</v>
+      </c>
+      <c r="T53" s="24">
+        <f t="shared" si="497"/>
+        <v>1474.903</v>
+      </c>
+      <c r="U53" s="27">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="V53" s="24">
+        <f t="shared" si="498"/>
+        <v>3855.192</v>
+      </c>
+      <c r="W53" s="38">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="X53" s="24">
+        <f t="shared" si="499"/>
+        <v>6775.7920000000004</v>
+      </c>
+      <c r="Y53" s="38">
+        <v>0.54</v>
+      </c>
+      <c r="Z53" s="24">
+        <f t="shared" si="500"/>
+        <v>7885.6200000000008</v>
+      </c>
+      <c r="AA53" s="146">
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="AB53" s="18">
+        <f t="shared" si="456"/>
+        <v>39.574130000000004</v>
+      </c>
+      <c r="AC53" s="39">
+        <v>2.98E-3</v>
+      </c>
+      <c r="AD53" s="17">
+        <f t="shared" si="502"/>
+        <v>43.516939999999998</v>
+      </c>
+      <c r="AE53" s="26">
+        <f>IF(M53&gt;0,(AG53+AP53)/M53,0)</f>
+        <v>2.6273678696158323E-3</v>
+      </c>
+      <c r="AF53" s="39">
+        <v>3.3E-4</v>
+      </c>
+      <c r="AG53" s="36">
+        <f t="shared" si="503"/>
+        <v>4.8189900000000003</v>
+      </c>
+      <c r="AH53" s="27">
+        <v>0.20849999999999999</v>
+      </c>
+      <c r="AI53" s="40">
+        <f t="shared" si="504"/>
+        <v>32.219504999999998</v>
+      </c>
+      <c r="AJ53" s="27">
+        <f t="shared" si="505"/>
+        <v>0.89067144077198135</v>
+      </c>
+      <c r="AK53" s="28">
+        <f t="shared" si="6"/>
+        <v>0.87573015420468037</v>
+      </c>
+      <c r="AL53" s="33">
+        <v>170</v>
+      </c>
+      <c r="AM53" s="35">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="AN53" s="37">
+        <v>0.21709999999999999</v>
+      </c>
+      <c r="AO53" s="132">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="AP53" s="40">
+        <f>AL53*(1-AM53)*AN53</f>
+        <v>33.548462999999998</v>
+      </c>
+      <c r="AQ53" s="133">
+        <f t="shared" si="461"/>
+        <v>33.872976000000001</v>
+      </c>
+      <c r="AR53" s="41">
+        <v>1.6</v>
+      </c>
+      <c r="AS53" s="41"/>
+      <c r="AT53" s="117">
+        <f>AT52+AL53-AS53</f>
+        <v>410.34000000000015</v>
+      </c>
+      <c r="AU53" s="101"/>
+      <c r="AV53" s="42"/>
+      <c r="AW53" s="43"/>
+      <c r="AX53" s="44"/>
+      <c r="AY53" s="44"/>
+      <c r="AZ53" s="44"/>
+      <c r="BA53" s="44"/>
+    </row>
+    <row r="54" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="183"/>
+      <c r="B54" s="32">
+        <v>3</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="42">
+        <v>14500</v>
+      </c>
+      <c r="E54" s="42">
+        <v>1</v>
+      </c>
+      <c r="F54" s="42">
+        <v>16825</v>
+      </c>
+      <c r="G54" s="36">
+        <v>1</v>
+      </c>
+      <c r="H54" s="36">
+        <v>6.1</v>
+      </c>
+      <c r="I54" s="42">
+        <v>15997</v>
+      </c>
+      <c r="J54" s="36">
+        <v>5.6</v>
+      </c>
+      <c r="K54" s="42">
+        <v>15660</v>
+      </c>
+      <c r="L54" s="38">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="M54" s="36">
+        <f>ROUND(K54*(1-L54),0)</f>
+        <v>14611</v>
+      </c>
+      <c r="N54" s="27">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="O54" s="24">
+        <f t="shared" si="495"/>
+        <v>10534.530999999999</v>
+      </c>
+      <c r="P54" s="38">
+        <v>0.216</v>
+      </c>
+      <c r="Q54" s="24">
+        <f t="shared" si="496"/>
+        <v>3155.9760000000001</v>
+      </c>
+      <c r="R54" s="38">
+        <v>6.3E-2</v>
+      </c>
+      <c r="S54" s="134">
+        <v>0.20519999999999999</v>
+      </c>
+      <c r="T54" s="24">
+        <f t="shared" si="497"/>
+        <v>920.49300000000005</v>
+      </c>
+      <c r="U54" s="27">
+        <v>0.251</v>
+      </c>
+      <c r="V54" s="24">
+        <f t="shared" si="498"/>
+        <v>3667.3609999999999</v>
+      </c>
+      <c r="W54" s="38">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="X54" s="24">
+        <f t="shared" si="499"/>
+        <v>7086.335</v>
+      </c>
+      <c r="Y54" s="38"/>
+      <c r="Z54" s="24">
+        <f t="shared" si="500"/>
+        <v>0</v>
+      </c>
+      <c r="AA54" s="147">
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="AB54" s="148">
+        <f t="shared" si="456"/>
+        <v>39.15748</v>
+      </c>
+      <c r="AC54" s="46">
+        <v>2.9299999999999999E-3</v>
+      </c>
+      <c r="AD54" s="17">
+        <f t="shared" si="502"/>
+        <v>42.810229999999997</v>
+      </c>
+      <c r="AE54" s="26">
+        <f>IF(M54&gt;0,(AG54+AP54)/M54,0)</f>
+        <v>2.7607331599479846E-3</v>
+      </c>
+      <c r="AF54" s="46">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="AG54" s="36">
+        <f t="shared" si="503"/>
+        <v>4.96774</v>
+      </c>
+      <c r="AH54" s="27">
+        <v>0.21490000000000001</v>
+      </c>
+      <c r="AI54" s="40">
+        <f t="shared" si="504"/>
+        <v>33.587580600000003</v>
+      </c>
+      <c r="AJ54" s="27">
+        <f t="shared" si="505"/>
+        <v>0.88535979975210788</v>
+      </c>
+      <c r="AK54" s="28">
+        <f t="shared" si="6"/>
+        <v>0.87816368881687557</v>
+      </c>
+      <c r="AL54" s="42">
+        <v>171</v>
+      </c>
+      <c r="AM54" s="38">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AN54" s="27">
+        <v>0.2263</v>
+      </c>
+      <c r="AO54" s="134">
+        <v>0.2278</v>
+      </c>
+      <c r="AP54" s="40">
+        <f>AL54*(1-AM54)*AN54</f>
+        <v>35.369332200000002</v>
+      </c>
+      <c r="AQ54" s="135">
+        <f t="shared" si="461"/>
+        <v>35.603773200000006</v>
+      </c>
+      <c r="AR54" s="17">
+        <v>1.55</v>
+      </c>
+      <c r="AS54" s="17"/>
+      <c r="AT54" s="117">
+        <f>AT53+AL54-AS54</f>
+        <v>581.34000000000015</v>
+      </c>
+      <c r="AU54" s="101"/>
+      <c r="AV54" s="42"/>
+      <c r="AW54" s="47"/>
+      <c r="AX54" s="40"/>
+      <c r="AY54" s="40"/>
+      <c r="AZ54" s="40"/>
+      <c r="BA54" s="40"/>
+    </row>
+    <row r="55" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="184"/>
+      <c r="B55" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="49"/>
+      <c r="D55" s="50">
+        <f t="shared" ref="D55" si="507">SUM(D52:D54)</f>
+        <v>38444</v>
+      </c>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50">
+        <f t="shared" ref="F55" si="508">SUM(F52:F54)</f>
+        <v>42502</v>
+      </c>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="50">
+        <f t="shared" ref="I55:K55" si="509">SUM(I52:I54)</f>
+        <v>35490</v>
+      </c>
+      <c r="J55" s="51"/>
+      <c r="K55" s="50">
+        <f t="shared" si="509"/>
+        <v>46735</v>
+      </c>
+      <c r="L55" s="20">
+        <f t="shared" ref="L55" si="510">IF(K55&gt;0,(K52*L52+K53*L53+K54*L54)/K55,0)</f>
+        <v>6.7326200920081319E-2</v>
+      </c>
+      <c r="M55" s="51">
+        <f t="shared" ref="M55" si="511">M52+M53+M54</f>
+        <v>43589</v>
+      </c>
+      <c r="N55" s="52">
+        <f t="shared" ref="N55" si="512">IF(M55&gt;0,O55/M55,0)</f>
+        <v>0.69502569455596597</v>
+      </c>
+      <c r="O55" s="53">
+        <f t="shared" ref="O55" si="513">O52+O53+O54</f>
+        <v>30295.475000000002</v>
+      </c>
+      <c r="P55" s="20">
+        <f t="shared" ref="P55" si="514">IF(M55&gt;0,Q55/M55,0)</f>
+        <v>0.23056284842506139</v>
+      </c>
+      <c r="Q55" s="53">
+        <f t="shared" ref="Q55" si="515">Q52+Q53+Q54</f>
+        <v>10050.004000000001</v>
+      </c>
+      <c r="R55" s="20">
+        <f t="shared" ref="R55" si="516">IF(M55&gt;0,T55/M55,0)</f>
+        <v>7.4411457018972685E-2</v>
+      </c>
+      <c r="S55" s="136"/>
+      <c r="T55" s="53">
+        <f t="shared" ref="T55" si="517">T52+T53+T54</f>
+        <v>3243.5210000000002</v>
+      </c>
+      <c r="U55" s="20">
+        <f t="shared" ref="U55" si="518">IF(M55&gt;0,V55/M55,0)</f>
+        <v>0.25931262474477507</v>
+      </c>
+      <c r="V55" s="53">
+        <f t="shared" ref="V55" si="519">V52+V53+V54</f>
+        <v>11303.178</v>
+      </c>
+      <c r="W55" s="20">
+        <f t="shared" ref="W55" si="520">IF(M55&gt;0,X55/M55,0)</f>
+        <v>0.46972004404781026</v>
+      </c>
+      <c r="X55" s="53">
+        <f t="shared" ref="X55" si="521">X52+X53+X54</f>
+        <v>20474.627</v>
+      </c>
+      <c r="Y55" s="20">
+        <f t="shared" ref="Y55" si="522">IF(M55&gt;0,Z55/M55,0)</f>
+        <v>0.35239670559086012</v>
+      </c>
+      <c r="Z55" s="53">
+        <f t="shared" ref="Z55" si="523">Z52+Z53+Z54</f>
+        <v>15360.62</v>
+      </c>
+      <c r="AA55" s="152">
+        <f t="shared" ref="AA55" si="524">IF(M55&gt;0,AB55/M55,0)</f>
+        <v>2.7461139278258276E-3</v>
+      </c>
+      <c r="AB55" s="55">
+        <f t="shared" ref="AB55" si="525">SUM(AB52:AB54)</f>
+        <v>119.70035999999999</v>
+      </c>
+      <c r="AC55" s="54">
+        <f t="shared" ref="AC55" si="526">IF(M55&gt;0,AD55/M55,0)</f>
+        <v>3.006112092500401E-3</v>
+      </c>
+      <c r="AD55" s="55">
+        <f t="shared" ref="AD55" si="527">SUM(AD52:AD54)</f>
+        <v>131.03341999999998</v>
+      </c>
+      <c r="AE55" s="54">
+        <f t="shared" ref="AE55" si="528">IF(M55&gt;0,(AE52*M52+AE53*M53+AE54*M54)/M55,0)</f>
+        <v>2.8346615797563606E-3</v>
+      </c>
+      <c r="AF55" s="54">
+        <f t="shared" ref="AF55" si="529">IF(K55&gt;0,(K52*AF52+K53*AF53+K54*AF54)/K55,0)</f>
+        <v>3.3004707392746336E-4</v>
+      </c>
+      <c r="AG55" s="51">
+        <f t="shared" ref="AG55" si="530">SUM(AG52:AG54)</f>
+        <v>14.38673</v>
+      </c>
+      <c r="AH55" s="52">
+        <f t="shared" ref="AH55" si="531">IF(K55&gt;0,(K52*AH52+K53*AH53+K54*AH54)/K55,0)</f>
+        <v>0.21160259976463039</v>
+      </c>
+      <c r="AI55" s="57">
+        <f t="shared" ref="AI55" si="532">SUM(AI52:AI54)</f>
+        <v>103.56227999999999</v>
+      </c>
+      <c r="AJ55" s="52">
+        <f t="shared" ref="AJ55" si="533">IF(AND(AD55&gt;0),((AD52*AJ52+AD53*AJ53+AD54*AJ54)/AD55),0)</f>
+        <v>0.89159547159604857</v>
+      </c>
+      <c r="AK55" s="56">
+        <f t="shared" si="6"/>
+        <v>0.88487746848047366</v>
+      </c>
+      <c r="AL55" s="50">
+        <f t="shared" ref="AL55" si="534">SUM(AL52:AL54)</f>
+        <v>539</v>
+      </c>
+      <c r="AM55" s="20">
+        <f t="shared" ref="AM55" si="535">IF(AL55&gt;0,(AM52*AL52+AM53*AL53+AM54*AL54)/AL55,0)</f>
+        <v>9.1985157699443404E-2</v>
+      </c>
+      <c r="AN55" s="52">
+        <f>IF(K55&gt;0,(AN52*K52+AN53*K53+AN54*K54)/K55,0)</f>
+        <v>0.2229248421953568</v>
+      </c>
+      <c r="AO55" s="136">
+        <f>IF(L55&gt;0,(AO52*K52+AO53*K53+AO54*K54)/K55,0)</f>
+        <v>0.22145398523590457</v>
+      </c>
+      <c r="AP55" s="57">
+        <f t="shared" ref="AP55" si="536">SUM(AP52:AP54)</f>
+        <v>109.17333360000001</v>
+      </c>
+      <c r="AQ55" s="137">
+        <f t="shared" si="492"/>
+        <v>108.28566000000001</v>
+      </c>
+      <c r="AR55" s="55"/>
+      <c r="AS55" s="55">
+        <f t="shared" ref="AS55" si="537">SUM(AS52:AS54)</f>
+        <v>505.5</v>
+      </c>
+      <c r="AT55" s="102"/>
+      <c r="AU55" s="103">
+        <f>AT54</f>
+        <v>581.34000000000015</v>
+      </c>
+      <c r="AV55" s="50">
+        <f t="shared" ref="AV55" si="538">SUM(AV52:AV54)</f>
+        <v>0</v>
+      </c>
+      <c r="AW55" s="58"/>
+      <c r="AX55" s="57"/>
+      <c r="AY55" s="57"/>
+      <c r="AZ55" s="57"/>
+      <c r="BA55" s="57"/>
+    </row>
+    <row r="56" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="182">
+        <v>14</v>
+      </c>
+      <c r="B56" s="22">
+        <v>1</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="11">
+        <v>3720</v>
+      </c>
+      <c r="E56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>13378</v>
+      </c>
+      <c r="G56" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="H56" s="12">
+        <v>6.2</v>
+      </c>
+      <c r="I56" s="11">
+        <v>14646</v>
+      </c>
+      <c r="J56" s="12">
+        <v>5.2</v>
+      </c>
+      <c r="K56" s="11">
+        <v>15571</v>
+      </c>
+      <c r="L56" s="13">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M56" s="23">
+        <f>ROUND(K56*(1-L56),0)</f>
+        <v>14559</v>
+      </c>
+      <c r="N56" s="14">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="O56" s="24">
+        <f t="shared" ref="O56:O58" si="539">M56*N56</f>
+        <v>9987.4740000000002</v>
+      </c>
+      <c r="P56" s="13">
+        <v>0.26</v>
+      </c>
+      <c r="Q56" s="24">
+        <f t="shared" ref="Q56:Q58" si="540">M56*P56</f>
+        <v>3785.34</v>
+      </c>
+      <c r="R56" s="15">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="S56" s="143">
+        <v>0.22850000000000001</v>
+      </c>
+      <c r="T56" s="24">
+        <f t="shared" ref="T56:T58" si="541">M56*R56</f>
+        <v>786.18600000000004</v>
+      </c>
+      <c r="U56" s="25">
+        <v>0.255</v>
+      </c>
+      <c r="V56" s="24">
+        <f t="shared" ref="V56:V58" si="542">M56*U56</f>
+        <v>3712.5450000000001</v>
+      </c>
+      <c r="W56" s="15">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="X56" s="24">
+        <f t="shared" ref="X56:X58" si="543">M56*W56</f>
+        <v>6886.4069999999992</v>
+      </c>
+      <c r="Y56" s="15">
+        <v>0.46</v>
+      </c>
+      <c r="Z56" s="24">
+        <f t="shared" ref="Z56:Z58" si="544">Y56*M56</f>
+        <v>6697.14</v>
+      </c>
+      <c r="AA56" s="145">
+        <v>2.7799999999999999E-3</v>
+      </c>
+      <c r="AB56" s="18">
+        <f t="shared" ref="AB56" si="545">M56*AA56</f>
+        <v>40.474019999999996</v>
+      </c>
+      <c r="AC56" s="16">
+        <v>2.97E-3</v>
+      </c>
+      <c r="AD56" s="17">
+        <f t="shared" ref="AD56:AD58" si="546">M56*AC56</f>
+        <v>43.240229999999997</v>
+      </c>
+      <c r="AE56" s="26">
+        <f>IF(M56&gt;0,(AG56+AP56)/M56,0)</f>
+        <v>2.6870537124802528E-3</v>
+      </c>
+      <c r="AF56" s="16">
+        <v>3.3E-4</v>
+      </c>
+      <c r="AG56" s="23">
+        <f t="shared" ref="AG56:AG58" si="547">AF56*M56</f>
+        <v>4.8044700000000002</v>
+      </c>
+      <c r="AH56" s="114">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="AI56" s="29">
+        <f t="shared" ref="AI56:AI58" si="548">AL56*(1-AM56)*AH56</f>
+        <v>33.173524999999998</v>
+      </c>
+      <c r="AJ56" s="27">
+        <f t="shared" ref="AJ56:AJ58" si="549">IF(AND(AH56&gt;0,AF56&gt;0,AC56&gt;0),((AC56-AF56)*AH56)/((AH56-AF56)*AC56),0)</f>
+        <v>0.89029461723188663</v>
+      </c>
+      <c r="AK56" s="59">
+        <f t="shared" si="6"/>
+        <v>0.87852986503593233</v>
+      </c>
+      <c r="AL56" s="11">
+        <v>175</v>
+      </c>
+      <c r="AM56" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AN56" s="14">
+        <v>0.2162</v>
+      </c>
+      <c r="AO56" s="130">
+        <v>0.2167</v>
+      </c>
+      <c r="AP56" s="29">
+        <f>AL56*(1-AM56)*AN56</f>
+        <v>34.316344999999998</v>
+      </c>
+      <c r="AQ56" s="131">
+        <f t="shared" ref="AQ56" si="550">AL56*(1-AM56)*AO56</f>
+        <v>34.3957075</v>
+      </c>
+      <c r="AR56" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="AS56" s="18">
+        <v>504.22</v>
+      </c>
+      <c r="AT56" s="98">
+        <f>AT54+AL56-AS56+AU56</f>
+        <v>260.12000000000012</v>
+      </c>
+      <c r="AU56" s="99">
+        <v>8</v>
+      </c>
+      <c r="AV56" s="11"/>
+      <c r="AW56" s="30"/>
+      <c r="AX56" s="19"/>
+      <c r="AY56" s="19"/>
+      <c r="AZ56" s="19"/>
+      <c r="BA56" s="19"/>
+    </row>
+    <row r="57" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="183"/>
+      <c r="B57" s="32">
+        <v>2</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="33">
+        <v>20900</v>
+      </c>
+      <c r="E57" s="33">
+        <v>4</v>
+      </c>
+      <c r="F57" s="33">
+        <v>15774</v>
+      </c>
+      <c r="G57" s="34">
+        <v>1</v>
+      </c>
+      <c r="H57" s="34">
+        <v>6.8</v>
+      </c>
+      <c r="I57" s="33">
+        <v>15824</v>
+      </c>
+      <c r="J57" s="34">
+        <v>5.6</v>
+      </c>
+      <c r="K57" s="33">
+        <v>16694</v>
+      </c>
+      <c r="L57" s="35">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="M57" s="36">
+        <f>ROUND(K57*(1-L57),0)</f>
+        <v>15559</v>
+      </c>
+      <c r="N57" s="37">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="O57" s="24">
+        <f t="shared" si="539"/>
+        <v>10144.468000000001</v>
+      </c>
+      <c r="P57" s="35">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="Q57" s="24">
+        <f t="shared" si="540"/>
+        <v>4014.2220000000002</v>
+      </c>
+      <c r="R57" s="38">
+        <v>0.09</v>
+      </c>
+      <c r="S57" s="134">
+        <v>0.2162</v>
+      </c>
+      <c r="T57" s="24">
+        <f t="shared" si="541"/>
+        <v>1400.31</v>
+      </c>
+      <c r="U57" s="27">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="V57" s="24">
+        <f t="shared" si="542"/>
+        <v>3563.011</v>
+      </c>
+      <c r="W57" s="38">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="X57" s="24">
+        <f t="shared" si="543"/>
+        <v>7452.7609999999995</v>
+      </c>
+      <c r="Y57" s="38">
+        <v>0.44</v>
+      </c>
+      <c r="Z57" s="24">
+        <f t="shared" si="544"/>
+        <v>6845.96</v>
+      </c>
+      <c r="AA57" s="146">
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="AB57" s="18">
+        <f t="shared" si="456"/>
+        <v>42.16489</v>
+      </c>
+      <c r="AC57" s="39">
+        <v>2.8E-3</v>
+      </c>
+      <c r="AD57" s="17">
+        <f t="shared" si="546"/>
+        <v>43.565199999999997</v>
+      </c>
+      <c r="AE57" s="26">
+        <f>IF(M57&gt;0,(AG57+AP57)/M57,0)</f>
+        <v>2.6702000128542968E-3</v>
+      </c>
+      <c r="AF57" s="39">
+        <v>3.1E-4</v>
+      </c>
+      <c r="AG57" s="36">
+        <f t="shared" si="547"/>
+        <v>4.8232900000000001</v>
+      </c>
+      <c r="AH57" s="27">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="AI57" s="40">
+        <f t="shared" si="548"/>
+        <v>34.9760445</v>
+      </c>
+      <c r="AJ57" s="27">
+        <f t="shared" si="549"/>
+        <v>0.89059853190287985</v>
+      </c>
+      <c r="AK57" s="28">
+        <f t="shared" si="6"/>
+        <v>0.88514656093087796</v>
+      </c>
+      <c r="AL57" s="33">
+        <v>185</v>
+      </c>
+      <c r="AM57" s="35">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="AN57" s="37">
+        <v>0.2208</v>
+      </c>
+      <c r="AO57" s="132">
+        <v>0.22009999999999999</v>
+      </c>
+      <c r="AP57" s="40">
+        <f>AL57*(1-AM57)*AN57</f>
+        <v>36.722352000000001</v>
+      </c>
+      <c r="AQ57" s="133">
+        <f t="shared" si="461"/>
+        <v>36.605931499999997</v>
+      </c>
+      <c r="AR57" s="41">
+        <v>1.55</v>
+      </c>
+      <c r="AS57" s="41"/>
+      <c r="AT57" s="117">
+        <f>AT56+AL57-AS57</f>
+        <v>445.12000000000012</v>
+      </c>
+      <c r="AU57" s="101"/>
+      <c r="AV57" s="42"/>
+      <c r="AW57" s="43"/>
+      <c r="AX57" s="44"/>
+      <c r="AY57" s="44"/>
+      <c r="AZ57" s="44"/>
+      <c r="BA57" s="44"/>
+    </row>
+    <row r="58" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="183"/>
+      <c r="B58" s="32">
+        <v>3</v>
+      </c>
+      <c r="C58" s="180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="42">
+        <v>21600</v>
+      </c>
+      <c r="E58" s="42">
+        <v>2</v>
+      </c>
+      <c r="F58" s="42">
+        <v>19733</v>
+      </c>
+      <c r="G58" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="H58" s="36">
+        <v>6.4</v>
+      </c>
+      <c r="I58" s="42">
+        <v>18614</v>
+      </c>
+      <c r="J58" s="36">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K58" s="42">
+        <v>16788</v>
+      </c>
+      <c r="L58" s="38">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="M58" s="36">
+        <f>ROUND(K58*(1-L58),0)</f>
+        <v>15646</v>
+      </c>
+      <c r="N58" s="27">
+        <v>0.72</v>
+      </c>
+      <c r="O58" s="24">
+        <f t="shared" si="539"/>
+        <v>11265.119999999999</v>
+      </c>
+      <c r="P58" s="38">
+        <v>0.218</v>
+      </c>
+      <c r="Q58" s="24">
+        <f t="shared" si="540"/>
+        <v>3410.828</v>
+      </c>
+      <c r="R58" s="38">
+        <v>6.2E-2</v>
+      </c>
+      <c r="S58" s="134">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="T58" s="24">
+        <f t="shared" si="541"/>
+        <v>970.05200000000002</v>
+      </c>
+      <c r="U58" s="27">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="V58" s="24">
+        <f t="shared" si="542"/>
+        <v>3551.6420000000003</v>
+      </c>
+      <c r="W58" s="38">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="X58" s="24">
+        <f t="shared" si="543"/>
+        <v>7494.4339999999993</v>
+      </c>
+      <c r="Y58" s="38">
+        <v>0.41</v>
+      </c>
+      <c r="Z58" s="24">
+        <f t="shared" si="544"/>
+        <v>6414.86</v>
+      </c>
+      <c r="AA58" s="147">
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="AB58" s="148">
+        <f t="shared" si="456"/>
+        <v>39.740840000000006</v>
+      </c>
+      <c r="AC58" s="46">
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="AD58" s="17">
+        <f t="shared" si="546"/>
+        <v>41.931280000000001</v>
+      </c>
+      <c r="AE58" s="26">
+        <f>IF(M58&gt;0,(AG58+AP58)/M58,0)</f>
+        <v>2.6999616515403298E-3</v>
+      </c>
+      <c r="AF58" s="46">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AG58" s="36">
+        <f t="shared" si="547"/>
+        <v>4.6937999999999995</v>
+      </c>
+      <c r="AH58" s="27">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="AI58" s="40">
+        <f t="shared" si="548"/>
+        <v>36.114563199999999</v>
+      </c>
+      <c r="AJ58" s="27">
+        <f t="shared" si="549"/>
+        <v>0.88929254698280924</v>
+      </c>
+      <c r="AK58" s="28">
+        <f t="shared" si="6"/>
+        <v>0.89007407617546253</v>
+      </c>
+      <c r="AL58" s="42">
+        <v>184</v>
+      </c>
+      <c r="AM58" s="38">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AN58" s="27">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AO58" s="134">
+        <v>0.22739999999999999</v>
+      </c>
+      <c r="AP58" s="40">
+        <f>AL58*(1-AM58)*AN58</f>
+        <v>37.549800000000005</v>
+      </c>
+      <c r="AQ58" s="135">
+        <f t="shared" si="461"/>
+        <v>37.950331200000001</v>
+      </c>
+      <c r="AR58" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="AS58" s="17"/>
+      <c r="AT58" s="117">
+        <f>AT57+AL58-AS58</f>
+        <v>629.12000000000012</v>
+      </c>
+      <c r="AU58" s="101"/>
+      <c r="AV58" s="42"/>
+      <c r="AW58" s="47"/>
+      <c r="AX58" s="40"/>
+      <c r="AY58" s="40"/>
+      <c r="AZ58" s="40"/>
+      <c r="BA58" s="40"/>
+    </row>
+    <row r="59" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="184"/>
+      <c r="B59" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="49"/>
+      <c r="D59" s="50">
+        <f t="shared" ref="D59" si="551">SUM(D56:D58)</f>
+        <v>46220</v>
+      </c>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50">
+        <f t="shared" ref="F59" si="552">SUM(F56:F58)</f>
+        <v>48885</v>
+      </c>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="50">
+        <f t="shared" ref="I59:K59" si="553">SUM(I56:I58)</f>
+        <v>49084</v>
+      </c>
+      <c r="J59" s="51"/>
+      <c r="K59" s="50">
+        <f t="shared" si="553"/>
+        <v>49053</v>
+      </c>
+      <c r="L59" s="20">
+        <f t="shared" ref="L59" si="554">IF(K59&gt;0,(K56*L56+K57*L57+K58*L58)/K59,0)</f>
+        <v>6.7047703504372808E-2</v>
+      </c>
+      <c r="M59" s="51">
+        <f t="shared" ref="M59" si="555">M56+M57+M58</f>
+        <v>45764</v>
+      </c>
+      <c r="N59" s="52">
+        <f t="shared" ref="N59" si="556">IF(M59&gt;0,O59/M59,0)</f>
+        <v>0.68606463595839529</v>
+      </c>
+      <c r="O59" s="53">
+        <f t="shared" ref="O59" si="557">O56+O57+O58</f>
+        <v>31397.062000000002</v>
+      </c>
+      <c r="P59" s="20">
+        <f t="shared" ref="P59" si="558">IF(M59&gt;0,Q59/M59,0)</f>
+        <v>0.24496088628616378</v>
+      </c>
+      <c r="Q59" s="53">
+        <f t="shared" ref="Q59" si="559">Q56+Q57+Q58</f>
+        <v>11210.39</v>
+      </c>
+      <c r="R59" s="20">
+        <f t="shared" ref="R59" si="560">IF(M59&gt;0,T59/M59,0)</f>
+        <v>6.8974477755440966E-2</v>
+      </c>
+      <c r="S59" s="136"/>
+      <c r="T59" s="53">
+        <f t="shared" ref="T59" si="561">T56+T57+T58</f>
+        <v>3156.5480000000002</v>
+      </c>
+      <c r="U59" s="20">
+        <f t="shared" ref="U59" si="562">IF(M59&gt;0,V59/M59,0)</f>
+        <v>0.23658766716196136</v>
+      </c>
+      <c r="V59" s="53">
+        <f t="shared" ref="V59" si="563">V56+V57+V58</f>
+        <v>10827.198</v>
+      </c>
+      <c r="W59" s="20">
+        <f t="shared" ref="W59" si="564">IF(M59&gt;0,X59/M59,0)</f>
+        <v>0.47709120706231972</v>
+      </c>
+      <c r="X59" s="53">
+        <f t="shared" ref="X59" si="565">X56+X57+X58</f>
+        <v>21833.601999999999</v>
+      </c>
+      <c r="Y59" s="20">
+        <f t="shared" ref="Y59" si="566">IF(M59&gt;0,Z59/M59,0)</f>
+        <v>0.43610610960580365</v>
+      </c>
+      <c r="Z59" s="53">
+        <f t="shared" ref="Z59" si="567">Z56+Z57+Z58</f>
+        <v>19957.96</v>
+      </c>
+      <c r="AA59" s="152">
+        <f t="shared" ref="AA59" si="568">IF(M59&gt;0,AB59/M59,0)</f>
+        <v>2.6741488943274189E-3</v>
+      </c>
+      <c r="AB59" s="55">
+        <f t="shared" ref="AB59" si="569">SUM(AB56:AB58)</f>
+        <v>122.37975</v>
+      </c>
+      <c r="AC59" s="54">
+        <f t="shared" ref="AC59" si="570">IF(M59&gt;0,AD59/M59,0)</f>
+        <v>2.8130563324884192E-3</v>
+      </c>
+      <c r="AD59" s="55">
+        <f t="shared" ref="AD59" si="571">SUM(AD56:AD58)</f>
+        <v>128.73671000000002</v>
+      </c>
+      <c r="AE59" s="54">
+        <f t="shared" ref="AE59" si="572">IF(M59&gt;0,(AE56*M56+AE57*M57+AE58*M58)/M59,0)</f>
+        <v>2.6857367581505113E-3</v>
+      </c>
+      <c r="AF59" s="54">
+        <f t="shared" ref="AF59" si="573">IF(K59&gt;0,(K56*AF56+K57*AF57+K58*AF58)/K59,0)</f>
+        <v>3.1292622265712596E-4</v>
+      </c>
+      <c r="AG59" s="51">
+        <f t="shared" ref="AG59" si="574">SUM(AG56:AG58)</f>
+        <v>14.32156</v>
+      </c>
+      <c r="AH59" s="52">
+        <f t="shared" ref="AH59" si="575">IF(K59&gt;0,(K56*AH56+K57*AH57+K58*AH58)/K59,0)</f>
+        <v>0.21197501477993189</v>
+      </c>
+      <c r="AI59" s="57">
+        <f t="shared" ref="AI59" si="576">SUM(AI56:AI58)</f>
+        <v>104.2641327</v>
+      </c>
+      <c r="AJ59" s="52">
+        <f t="shared" ref="AJ59" si="577">IF(AND(AD59&gt;0),((AD56*AJ56+AD57*AJ57+AD58*AJ58)/AD59),0)</f>
+        <v>0.89007107582890221</v>
+      </c>
+      <c r="AK59" s="56">
+        <f t="shared" si="6"/>
+        <v>0.88473990865145824</v>
+      </c>
+      <c r="AL59" s="50">
+        <f t="shared" ref="AL59" si="578">SUM(AL56:AL58)</f>
+        <v>544</v>
+      </c>
+      <c r="AM59" s="20">
+        <f t="shared" ref="AM59" si="579">IF(AL59&gt;0,(AM56*AL56+AM57*AL57+AM58*AL58)/AL59,0)</f>
+        <v>9.5720588235294127E-2</v>
+      </c>
+      <c r="AN59" s="52">
+        <f>IF(K59&gt;0,(AN56*K56+AN57*K57+AN58*K58)/K59,0)</f>
+        <v>0.22077722871180153</v>
+      </c>
+      <c r="AO59" s="136">
+        <f>IF(L59&gt;0,(AO56*K56+AO57*K57+AO58*K58)/K59,0)</f>
+        <v>0.22151909771063949</v>
+      </c>
+      <c r="AP59" s="57">
+        <f t="shared" ref="AP59" si="580">SUM(AP56:AP58)</f>
+        <v>108.588497</v>
+      </c>
+      <c r="AQ59" s="137">
+        <f t="shared" si="492"/>
+        <v>108.95197020000001</v>
+      </c>
+      <c r="AR59" s="55"/>
+      <c r="AS59" s="55">
+        <f t="shared" ref="AS59" si="581">SUM(AS56:AS58)</f>
+        <v>504.22</v>
+      </c>
+      <c r="AT59" s="102"/>
+      <c r="AU59" s="103">
+        <f>AT58</f>
+        <v>629.12000000000012</v>
+      </c>
+      <c r="AV59" s="50">
+        <f t="shared" ref="AV59" si="582">SUM(AV56:AV58)</f>
+        <v>0</v>
+      </c>
+      <c r="AW59" s="58"/>
+      <c r="AX59" s="57"/>
+      <c r="AY59" s="57"/>
+      <c r="AZ59" s="57"/>
+      <c r="BA59" s="57"/>
+    </row>
+    <row r="60" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="182">
+        <v>15</v>
+      </c>
+      <c r="B60" s="22">
+        <v>1</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="11">
+        <v>640</v>
+      </c>
+      <c r="E60" s="11">
+        <v>3</v>
+      </c>
+      <c r="F60" s="11">
+        <v>13158</v>
+      </c>
+      <c r="G60" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="H60" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="I60" s="11">
+        <v>13215</v>
+      </c>
+      <c r="J60" s="12">
+        <v>6</v>
+      </c>
+      <c r="K60" s="11">
+        <v>16564</v>
+      </c>
+      <c r="L60" s="13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M60" s="23">
+        <f>ROUND(K60*(1-L60),0)</f>
+        <v>15322</v>
+      </c>
+      <c r="N60" s="14">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="O60" s="24">
+        <f t="shared" ref="O60:O62" si="583">M60*N60</f>
+        <v>8764.1839999999993</v>
+      </c>
+      <c r="P60" s="13">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="Q60" s="24">
+        <f t="shared" ref="Q60:Q62" si="584">M60*P60</f>
+        <v>5485.2759999999998</v>
+      </c>
+      <c r="R60" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S60" s="143">
+        <v>0.2077</v>
+      </c>
+      <c r="T60" s="24">
+        <f t="shared" ref="T60:T62" si="585">M60*R60</f>
+        <v>1072.5400000000002</v>
+      </c>
+      <c r="U60" s="25">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="V60" s="24">
+        <f t="shared" ref="V60:V62" si="586">M60*U60</f>
+        <v>3646.636</v>
+      </c>
+      <c r="W60" s="15">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="X60" s="24">
+        <f t="shared" ref="X60:X62" si="587">M60*W60</f>
+        <v>7140.0520000000006</v>
+      </c>
+      <c r="Y60" s="15">
+        <v>0.41</v>
+      </c>
+      <c r="Z60" s="24">
+        <f t="shared" ref="Z60:Z62" si="588">Y60*M60</f>
+        <v>6282.0199999999995</v>
+      </c>
+      <c r="AA60" s="145">
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="AB60" s="18">
+        <f t="shared" ref="AB60" si="589">M60*AA60</f>
+        <v>39.071100000000001</v>
+      </c>
+      <c r="AC60" s="16">
+        <v>2.66E-3</v>
+      </c>
+      <c r="AD60" s="17">
+        <f t="shared" ref="AD60:AD62" si="590">M60*AC60</f>
+        <v>40.756520000000002</v>
+      </c>
+      <c r="AE60" s="26">
+        <f>IF(M60&gt;0,(AG60+AP60)/M60,0)</f>
+        <v>2.6718813601357529E-3</v>
+      </c>
+      <c r="AF60" s="16">
+        <v>3.1E-4</v>
+      </c>
+      <c r="AG60" s="23">
+        <f t="shared" ref="AG60:AG62" si="591">AF60*M60</f>
+        <v>4.7498199999999997</v>
+      </c>
+      <c r="AH60" s="114">
+        <v>0.2099</v>
+      </c>
+      <c r="AI60" s="29">
+        <f t="shared" ref="AI60:AI62" si="592">AL60*(1-AM60)*AH60</f>
+        <v>33.272088600000004</v>
+      </c>
+      <c r="AJ60" s="27">
+        <f t="shared" ref="AJ60:AJ62" si="593">IF(AND(AH60&gt;0,AF60&gt;0,AC60&gt;0),((AC60-AF60)*AH60)/((AH60-AF60)*AC60),0)</f>
+        <v>0.88476535104161469</v>
+      </c>
+      <c r="AK60" s="59">
+        <f t="shared" si="6"/>
+        <v>0.88517883548132226</v>
+      </c>
+      <c r="AL60" s="11">
+        <v>174</v>
+      </c>
+      <c r="AM60" s="13">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AN60" s="14">
+        <v>0.2283</v>
+      </c>
+      <c r="AO60" s="130">
+        <v>0.2278</v>
+      </c>
+      <c r="AP60" s="29">
+        <f>AL60*(1-AM60)*AN60</f>
+        <v>36.188746200000004</v>
+      </c>
+      <c r="AQ60" s="131">
+        <f t="shared" ref="AQ60" si="594">AL60*(1-AM60)*AO60</f>
+        <v>36.109489200000006</v>
+      </c>
+      <c r="AR60" s="18">
+        <v>1.55</v>
+      </c>
+      <c r="AS60" s="18">
+        <v>507.66</v>
+      </c>
+      <c r="AT60" s="98">
+        <f>AT58+AL60-AS60+AU60</f>
+        <v>297.46000000000009</v>
+      </c>
+      <c r="AU60" s="99">
+        <v>2</v>
+      </c>
+      <c r="AV60" s="11"/>
+      <c r="AW60" s="30"/>
+      <c r="AX60" s="19"/>
+      <c r="AY60" s="19"/>
+      <c r="AZ60" s="19"/>
+      <c r="BA60" s="19"/>
+    </row>
+    <row r="61" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="183"/>
+      <c r="B61" s="32">
+        <v>2</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="33">
+        <v>19233</v>
+      </c>
+      <c r="E61" s="33">
+        <v>7</v>
+      </c>
+      <c r="F61" s="33">
+        <v>17750</v>
+      </c>
+      <c r="G61" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="H61" s="34">
+        <v>5.8</v>
+      </c>
+      <c r="I61" s="33">
+        <v>17289</v>
+      </c>
+      <c r="J61" s="34">
+        <v>5.6</v>
+      </c>
+      <c r="K61" s="33">
+        <v>16675</v>
+      </c>
+      <c r="L61" s="35">
+        <v>6.3E-2</v>
+      </c>
+      <c r="M61" s="36">
+        <f>ROUND(K61*(1-L61),0)</f>
+        <v>15624</v>
+      </c>
+      <c r="N61" s="37">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="O61" s="24">
+        <f t="shared" si="583"/>
+        <v>10749.312</v>
+      </c>
+      <c r="P61" s="35">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="Q61" s="24">
+        <f t="shared" si="584"/>
+        <v>4202.8560000000007</v>
+      </c>
+      <c r="R61" s="38">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="S61" s="134">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="T61" s="24">
+        <f t="shared" si="585"/>
+        <v>671.83199999999999</v>
+      </c>
+      <c r="U61" s="27">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="V61" s="24">
+        <f t="shared" si="586"/>
+        <v>3296.6639999999998</v>
+      </c>
+      <c r="W61" s="38">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="X61" s="24">
+        <f t="shared" si="587"/>
+        <v>7936.9920000000002</v>
+      </c>
+      <c r="Y61" s="38">
+        <v>0.41</v>
+      </c>
+      <c r="Z61" s="24">
+        <f t="shared" si="588"/>
+        <v>6405.8399999999992</v>
+      </c>
+      <c r="AA61" s="146">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AB61" s="18">
+        <f t="shared" si="456"/>
+        <v>39.06</v>
+      </c>
+      <c r="AC61" s="39">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="AD61" s="17">
+        <f t="shared" si="590"/>
+        <v>40.622399999999999</v>
+      </c>
+      <c r="AE61" s="26">
+        <f>IF(M61&gt;0,(AG61+AP61)/M61,0)</f>
+        <v>2.6240995391705068E-3</v>
+      </c>
+      <c r="AF61" s="39">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AG61" s="36">
+        <f t="shared" si="591"/>
+        <v>4.6871999999999998</v>
+      </c>
+      <c r="AH61" s="27">
+        <v>0.2175</v>
+      </c>
+      <c r="AI61" s="40">
+        <f t="shared" si="592"/>
+        <v>34.2786525</v>
+      </c>
+      <c r="AJ61" s="27">
+        <f t="shared" si="593"/>
+        <v>0.8858372290692732</v>
+      </c>
+      <c r="AK61" s="28">
+        <f t="shared" si="6"/>
+        <v>0.88682979482005164</v>
+      </c>
+      <c r="AL61" s="33">
+        <v>173</v>
+      </c>
+      <c r="AM61" s="35">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AN61" s="37">
+        <v>0.23039999999999999</v>
+      </c>
+      <c r="AO61" s="132">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="AP61" s="40">
+        <f>AL61*(1-AM61)*AN61</f>
+        <v>36.311731200000004</v>
+      </c>
+      <c r="AQ61" s="133">
+        <f t="shared" si="461"/>
+        <v>36.406293000000005</v>
+      </c>
+      <c r="AR61" s="41">
+        <v>1.6</v>
+      </c>
+      <c r="AS61" s="41"/>
+      <c r="AT61" s="117">
+        <f>AT60+AL61-AS61</f>
+        <v>470.46000000000009</v>
+      </c>
+      <c r="AU61" s="101"/>
+      <c r="AV61" s="42"/>
+      <c r="AW61" s="43"/>
+      <c r="AX61" s="44"/>
+      <c r="AY61" s="44"/>
+      <c r="AZ61" s="44"/>
+      <c r="BA61" s="44"/>
+    </row>
+    <row r="62" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="183"/>
+      <c r="B62" s="32">
+        <v>3</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="42">
+        <v>20000</v>
+      </c>
+      <c r="E62" s="42">
+        <v>6</v>
+      </c>
+      <c r="F62" s="42">
+        <v>19170</v>
+      </c>
+      <c r="G62" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H62" s="36">
+        <v>6.4</v>
+      </c>
+      <c r="I62" s="42">
+        <v>18481</v>
+      </c>
+      <c r="J62" s="36">
+        <v>4.5</v>
+      </c>
+      <c r="K62" s="42">
+        <v>16808</v>
+      </c>
+      <c r="L62" s="38">
+        <v>6.2E-2</v>
+      </c>
+      <c r="M62" s="36">
+        <f>ROUND(K62*(1-L62),0)</f>
+        <v>15766</v>
+      </c>
+      <c r="N62" s="27">
+        <v>0.751</v>
+      </c>
+      <c r="O62" s="24">
+        <f t="shared" si="583"/>
+        <v>11840.266</v>
+      </c>
+      <c r="P62" s="38">
+        <v>0.188</v>
+      </c>
+      <c r="Q62" s="24">
+        <f t="shared" si="584"/>
+        <v>2964.0079999999998</v>
+      </c>
+      <c r="R62" s="38">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="S62" s="134">
+        <v>0.1991</v>
+      </c>
+      <c r="T62" s="24">
+        <f t="shared" si="585"/>
+        <v>961.726</v>
+      </c>
+      <c r="U62" s="27">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="V62" s="24">
+        <f t="shared" si="586"/>
+        <v>3358.1579999999999</v>
+      </c>
+      <c r="W62" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="X62" s="24">
+        <f t="shared" si="587"/>
+        <v>7883</v>
+      </c>
+      <c r="Y62" s="38">
+        <v>0.41</v>
+      </c>
+      <c r="Z62" s="24">
+        <f t="shared" si="588"/>
+        <v>6464.0599999999995</v>
+      </c>
+      <c r="AA62" s="147">
+        <v>2.3400000000000001E-3</v>
+      </c>
+      <c r="AB62" s="148">
+        <f t="shared" si="456"/>
+        <v>36.892440000000001</v>
+      </c>
+      <c r="AC62" s="46">
+        <v>2.48E-3</v>
+      </c>
+      <c r="AD62" s="17">
+        <f t="shared" si="590"/>
+        <v>39.099679999999999</v>
+      </c>
+      <c r="AE62" s="26">
+        <f>IF(M62&gt;0,(AG62+AP62)/M62,0)</f>
+        <v>2.6381097044272483E-3</v>
+      </c>
+      <c r="AF62" s="46">
+        <v>2.9E-4</v>
+      </c>
+      <c r="AG62" s="36">
+        <f t="shared" si="591"/>
+        <v>4.5721400000000001</v>
+      </c>
+      <c r="AH62" s="27">
+        <v>0.21160000000000001</v>
+      </c>
+      <c r="AI62" s="40">
+        <f t="shared" si="592"/>
+        <v>34.237303199999999</v>
+      </c>
+      <c r="AJ62" s="27">
+        <f t="shared" si="593"/>
+        <v>0.88427642616489166</v>
+      </c>
+      <c r="AK62" s="28">
+        <f t="shared" si="6"/>
+        <v>0.89120238841272392</v>
+      </c>
+      <c r="AL62" s="42">
+        <v>178</v>
+      </c>
+      <c r="AM62" s="38">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="AN62" s="27">
+        <v>0.2288</v>
+      </c>
+      <c r="AO62" s="134">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="AP62" s="40">
+        <f>AL62*(1-AM62)*AN62</f>
+        <v>37.020297599999999</v>
+      </c>
+      <c r="AQ62" s="135">
+        <f t="shared" si="461"/>
+        <v>35.822962799999999</v>
+      </c>
+      <c r="AR62" s="17">
+        <v>1.55</v>
+      </c>
+      <c r="AS62" s="17"/>
+      <c r="AT62" s="117">
+        <f>AT61+AL62-AS62</f>
+        <v>648.46</v>
+      </c>
+      <c r="AU62" s="101"/>
+      <c r="AV62" s="42"/>
+      <c r="AW62" s="47"/>
+      <c r="AX62" s="40"/>
+      <c r="AY62" s="40"/>
+      <c r="AZ62" s="40"/>
+      <c r="BA62" s="40"/>
+    </row>
+    <row r="63" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="184"/>
+      <c r="B63" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="49"/>
+      <c r="D63" s="50">
+        <f t="shared" ref="D63" si="595">SUM(D60:D62)</f>
+        <v>39873</v>
+      </c>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50">
+        <f t="shared" ref="F63" si="596">SUM(F60:F62)</f>
+        <v>50078</v>
+      </c>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="50">
+        <f t="shared" ref="I63:K63" si="597">SUM(I60:I62)</f>
+        <v>48985</v>
+      </c>
+      <c r="J63" s="51"/>
+      <c r="K63" s="50">
+        <f t="shared" si="597"/>
+        <v>50047</v>
+      </c>
+      <c r="L63" s="20">
+        <f t="shared" ref="L63" si="598">IF(K63&gt;0,(K60*L60+K61*L61+K62*L62)/K63,0)</f>
+        <v>6.663578236457729E-2</v>
+      </c>
+      <c r="M63" s="51">
+        <f t="shared" ref="M63" si="599">M60+M61+M62</f>
+        <v>46712</v>
+      </c>
+      <c r="N63" s="52">
+        <f t="shared" ref="N63" si="600">IF(M63&gt;0,O63/M63,0)</f>
+        <v>0.67121429183079295</v>
+      </c>
+      <c r="O63" s="53">
+        <f t="shared" ref="O63" si="601">O60+O61+O62</f>
+        <v>31353.761999999999</v>
+      </c>
+      <c r="P63" s="20">
+        <f t="shared" ref="P63" si="602">IF(M63&gt;0,Q63/M63,0)</f>
+        <v>0.27085417023462927</v>
+      </c>
+      <c r="Q63" s="53">
+        <f t="shared" ref="Q63" si="603">Q60+Q61+Q62</f>
+        <v>12652.140000000001</v>
+      </c>
+      <c r="R63" s="20">
+        <f t="shared" ref="R63" si="604">IF(M63&gt;0,T63/M63,0)</f>
+        <v>5.7931537934577851E-2</v>
+      </c>
+      <c r="S63" s="136"/>
+      <c r="T63" s="53">
+        <f t="shared" ref="T63" si="605">T60+T61+T62</f>
+        <v>2706.0980000000004</v>
+      </c>
+      <c r="U63" s="20">
+        <f t="shared" ref="U63" si="606">IF(M63&gt;0,V63/M63,0)</f>
+        <v>0.22053129816749439</v>
+      </c>
+      <c r="V63" s="53">
+        <f t="shared" ref="V63" si="607">V60+V61+V62</f>
+        <v>10301.457999999999</v>
+      </c>
+      <c r="W63" s="20">
+        <f t="shared" ref="W63" si="608">IF(M63&gt;0,X63/M63,0)</f>
+        <v>0.49152346292173321</v>
+      </c>
+      <c r="X63" s="53">
+        <f t="shared" ref="X63" si="609">X60+X61+X62</f>
+        <v>22960.044000000002</v>
+      </c>
+      <c r="Y63" s="20">
+        <f t="shared" ref="Y63" si="610">IF(M63&gt;0,Z63/M63,0)</f>
+        <v>0.41</v>
+      </c>
+      <c r="Z63" s="53">
+        <f t="shared" ref="Z63" si="611">Z60+Z61+Z62</f>
+        <v>19151.919999999998</v>
+      </c>
+      <c r="AA63" s="152">
+        <f t="shared" ref="AA63" si="612">IF(M63&gt;0,AB63/M63,0)</f>
+        <v>2.4623980989895529E-3</v>
+      </c>
+      <c r="AB63" s="55">
+        <f t="shared" ref="AB63" si="613">SUM(AB60:AB62)</f>
+        <v>115.02354</v>
+      </c>
+      <c r="AC63" s="54">
+        <f t="shared" ref="AC63" si="614">IF(M63&gt;0,AD63/M63,0)</f>
+        <v>2.5791787977393391E-3</v>
+      </c>
+      <c r="AD63" s="55">
+        <f t="shared" ref="AD63" si="615">SUM(AD60:AD62)</f>
+        <v>120.4786</v>
+      </c>
+      <c r="AE63" s="54">
+        <f t="shared" ref="AE63" si="616">IF(M63&gt;0,(AE60*M60+AE61*M61+AE62*M62)/M63,0)</f>
+        <v>2.6445010917965409E-3</v>
+      </c>
+      <c r="AF63" s="54">
+        <f t="shared" ref="AF63" si="617">IF(K63&gt;0,(K60*AF60+K61*AF61+K62*AF62)/K63,0)</f>
+        <v>2.9995124582892082E-4</v>
+      </c>
+      <c r="AG63" s="51">
+        <f t="shared" ref="AG63" si="618">SUM(AG60:AG62)</f>
+        <v>14.009160000000001</v>
+      </c>
+      <c r="AH63" s="52">
+        <f t="shared" ref="AH63" si="619">IF(K63&gt;0,(K60*AH60+K61*AH61+K62*AH62)/K63,0)</f>
+        <v>0.21300315503426781</v>
+      </c>
+      <c r="AI63" s="57">
+        <f t="shared" ref="AI63" si="620">SUM(AI60:AI62)</f>
+        <v>101.78804430000001</v>
+      </c>
+      <c r="AJ63" s="52">
+        <f t="shared" ref="AJ63" si="621">IF(AND(AD63&gt;0),((AD60*AJ60+AD61*AJ61+AD62*AJ62)/AD63),0)</f>
+        <v>0.88496808789087122</v>
+      </c>
+      <c r="AK63" s="56">
+        <f t="shared" si="6"/>
+        <v>0.88773742331974848</v>
+      </c>
+      <c r="AL63" s="50">
+        <f t="shared" ref="AL63" si="622">SUM(AL60:AL62)</f>
+        <v>525</v>
+      </c>
+      <c r="AM63" s="20">
+        <f t="shared" ref="AM63" si="623">IF(AL63&gt;0,(AM60*AL60+AM61*AL61+AM62*AL62)/AL63,0)</f>
+        <v>8.9678095238095237E-2</v>
+      </c>
+      <c r="AN63" s="52">
+        <f>IF(K63&gt;0,(AN60*K60+AN61*K61+AN62*K62)/K63,0)</f>
+        <v>0.22916761444242414</v>
+      </c>
+      <c r="AO63" s="136">
+        <f>IF(L63&gt;0,(AO60*K60+AO61*K61+AO62*K62)/K63,0)</f>
+        <v>0.22671679421343938</v>
+      </c>
+      <c r="AP63" s="57">
+        <f t="shared" ref="AP63" si="624">SUM(AP60:AP62)</f>
+        <v>109.52077500000001</v>
+      </c>
+      <c r="AQ63" s="137">
+        <f t="shared" si="492"/>
+        <v>108.33874500000002</v>
+      </c>
+      <c r="AR63" s="55"/>
+      <c r="AS63" s="55">
+        <f t="shared" ref="AS63" si="625">SUM(AS60:AS62)</f>
+        <v>507.66</v>
+      </c>
+      <c r="AT63" s="102"/>
+      <c r="AU63" s="103">
+        <f>AT62</f>
+        <v>648.46</v>
+      </c>
+      <c r="AV63" s="50">
+        <f t="shared" ref="AV63" si="626">SUM(AV60:AV62)</f>
+        <v>0</v>
+      </c>
+      <c r="AW63" s="58"/>
+      <c r="AX63" s="57"/>
+      <c r="AY63" s="57"/>
+      <c r="AZ63" s="57"/>
+      <c r="BA63" s="57"/>
+    </row>
+    <row r="64" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="182">
+        <v>16</v>
+      </c>
+      <c r="B64" s="22">
+        <v>1</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="11">
+        <v>21200</v>
+      </c>
+      <c r="E64" s="11">
+        <v>1</v>
+      </c>
+      <c r="F64" s="11">
+        <v>19265</v>
+      </c>
+      <c r="G64" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="H64" s="12">
+        <v>6.8</v>
+      </c>
+      <c r="I64" s="11">
+        <v>18819</v>
+      </c>
+      <c r="J64" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="K64" s="11">
+        <v>16981</v>
+      </c>
+      <c r="L64" s="13">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="M64" s="23">
+        <f>ROUND(K64*(1-L64),0)</f>
+        <v>15809</v>
+      </c>
+      <c r="N64" s="14">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="O64" s="24">
+        <f t="shared" ref="O64:O66" si="627">M64*N64</f>
+        <v>13532.503999999999</v>
+      </c>
+      <c r="P64" s="13">
+        <v>0.122</v>
+      </c>
+      <c r="Q64" s="24">
+        <f t="shared" ref="Q64:Q66" si="628">M64*P64</f>
+        <v>1928.6979999999999</v>
+      </c>
+      <c r="R64" s="15">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="S64" s="143">
+        <v>0.21790000000000001</v>
+      </c>
+      <c r="T64" s="24">
+        <f t="shared" ref="T64:T66" si="629">M64*R64</f>
+        <v>347.798</v>
+      </c>
+      <c r="U64" s="25">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="V64" s="24">
+        <f t="shared" ref="V64:V66" si="630">M64*U64</f>
+        <v>3367.317</v>
+      </c>
+      <c r="W64" s="15">
+        <v>0.502</v>
+      </c>
+      <c r="X64" s="24">
+        <f t="shared" ref="X64:X66" si="631">M64*W64</f>
+        <v>7936.1180000000004</v>
+      </c>
+      <c r="Y64" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="Z64" s="24">
+        <f t="shared" ref="Z64:Z66" si="632">Y64*M64</f>
+        <v>6323.6</v>
+      </c>
+      <c r="AA64" s="145">
+        <v>2.3E-3</v>
+      </c>
+      <c r="AB64" s="18">
+        <f t="shared" ref="AB64" si="633">M64*AA64</f>
+        <v>36.360700000000001</v>
+      </c>
+      <c r="AC64" s="16">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="AD64" s="17">
+        <f t="shared" ref="AD64:AD66" si="634">M64*AC64</f>
+        <v>38.099689999999995</v>
+      </c>
+      <c r="AE64" s="26">
+        <f>IF(M64&gt;0,(AG64+AP64)/M64,0)</f>
+        <v>2.5688645455120497E-3</v>
+      </c>
+      <c r="AF64" s="16">
+        <v>2.9E-4</v>
+      </c>
+      <c r="AG64" s="23">
+        <f t="shared" ref="AG64:AG66" si="635">AF64*M64</f>
+        <v>4.5846099999999996</v>
+      </c>
+      <c r="AH64" s="114">
+        <v>0.21870000000000001</v>
+      </c>
+      <c r="AI64" s="29">
+        <f t="shared" ref="AI64:AI66" si="636">AL64*(1-AM64)*AH64</f>
+        <v>34.005225600000003</v>
+      </c>
+      <c r="AJ64" s="27">
+        <f t="shared" ref="AJ64:AJ66" si="637">IF(AND(AH64&gt;0,AF64&gt;0,AC64&gt;0),((AC64-AF64)*AH64)/((AH64-AF64)*AC64),0)</f>
+        <v>0.88083605370462237</v>
+      </c>
+      <c r="AK64" s="59">
+        <f t="shared" si="6"/>
+        <v>0.88822137114446098</v>
+      </c>
+      <c r="AL64" s="11">
+        <v>172</v>
+      </c>
+      <c r="AM64" s="13">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AN64" s="14">
+        <v>0.23169999999999999</v>
+      </c>
+      <c r="AO64" s="130">
+        <v>0.218</v>
+      </c>
+      <c r="AP64" s="29">
+        <f>AL64*(1-AM64)*AN64</f>
+        <v>36.026569599999995</v>
+      </c>
+      <c r="AQ64" s="131">
+        <f t="shared" ref="AQ64" si="638">AL64*(1-AM64)*AO64</f>
+        <v>33.896383999999998</v>
+      </c>
+      <c r="AR64" s="18">
+        <v>1.55</v>
+      </c>
+      <c r="AS64" s="18"/>
+      <c r="AT64" s="98">
+        <f>AT62+AL64-AS64</f>
+        <v>820.46</v>
+      </c>
+      <c r="AU64" s="99"/>
+      <c r="AV64" s="11"/>
+      <c r="AW64" s="30"/>
+      <c r="AX64" s="19"/>
+      <c r="AY64" s="19"/>
+      <c r="AZ64" s="19"/>
+      <c r="BA64" s="19"/>
+    </row>
+    <row r="65" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="183"/>
+      <c r="B65" s="32">
+        <v>2</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" s="33">
+        <v>19473</v>
+      </c>
+      <c r="E65" s="33">
+        <v>3</v>
+      </c>
+      <c r="F65" s="33">
+        <v>17718</v>
+      </c>
+      <c r="G65" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="H65" s="34">
+        <v>5.4</v>
+      </c>
+      <c r="I65" s="33">
+        <v>17601</v>
+      </c>
+      <c r="J65" s="34">
+        <v>3.8</v>
+      </c>
+      <c r="K65" s="33">
+        <v>16967</v>
+      </c>
+      <c r="L65" s="35">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="M65" s="36">
+        <f>ROUND(K65*(1-L65),0)</f>
+        <v>15830</v>
+      </c>
+      <c r="N65" s="37">
+        <v>0.72</v>
+      </c>
+      <c r="O65" s="24">
+        <f t="shared" si="627"/>
+        <v>11397.6</v>
+      </c>
+      <c r="P65" s="35">
+        <v>0.224</v>
+      </c>
+      <c r="Q65" s="24">
+        <f t="shared" si="628"/>
+        <v>3545.92</v>
+      </c>
+      <c r="R65" s="38">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="S65" s="134">
+        <v>0.214</v>
+      </c>
+      <c r="T65" s="24">
+        <f t="shared" si="629"/>
+        <v>886.48</v>
+      </c>
+      <c r="U65" s="27">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="V65" s="24">
+        <f t="shared" si="630"/>
+        <v>3308.47</v>
+      </c>
+      <c r="W65" s="38">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="X65" s="24">
+        <f t="shared" si="631"/>
+        <v>8168.2800000000007</v>
+      </c>
+      <c r="Y65" s="38">
+        <v>0.42</v>
+      </c>
+      <c r="Z65" s="24">
+        <f t="shared" si="632"/>
+        <v>6648.5999999999995</v>
+      </c>
+      <c r="AA65" s="146">
+        <v>2.32E-3</v>
+      </c>
+      <c r="AB65" s="18">
+        <f t="shared" si="456"/>
+        <v>36.7256</v>
+      </c>
+      <c r="AC65" s="39">
+        <v>2.4399999999999999E-3</v>
+      </c>
+      <c r="AD65" s="17">
+        <f t="shared" si="634"/>
+        <v>38.6252</v>
+      </c>
+      <c r="AE65" s="26">
+        <f>IF(M65&gt;0,(AG65+AP65)/M65,0)</f>
+        <v>2.5425895135818069E-3</v>
+      </c>
+      <c r="AF65" s="39">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AG65" s="36">
+        <f t="shared" si="635"/>
+        <v>4.7489999999999997</v>
+      </c>
+      <c r="AH65" s="27">
+        <v>0.2198</v>
+      </c>
+      <c r="AI65" s="40">
+        <f t="shared" si="636"/>
+        <v>33.403005999999998</v>
+      </c>
+      <c r="AJ65" s="27">
+        <f t="shared" si="637"/>
+        <v>0.87824788080212102</v>
+      </c>
+      <c r="AK65" s="28">
+        <f t="shared" si="6"/>
+        <v>0.883144228718307</v>
+      </c>
+      <c r="AL65" s="33">
+        <v>167</v>
+      </c>
+      <c r="AM65" s="35">
+        <v>0.09</v>
+      </c>
+      <c r="AN65" s="37">
+        <v>0.2336</v>
+      </c>
+      <c r="AO65" s="132">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="AP65" s="40">
+        <f>AL65*(1-AM65)*AN65</f>
+        <v>35.500191999999998</v>
+      </c>
+      <c r="AQ65" s="133">
+        <f t="shared" si="461"/>
+        <v>32.886308</v>
+      </c>
+      <c r="AR65" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="AS65" s="41"/>
+      <c r="AT65" s="117">
+        <f>AT64+AL65-AS65</f>
+        <v>987.46</v>
+      </c>
+      <c r="AU65" s="101"/>
+      <c r="AV65" s="42"/>
+      <c r="AW65" s="43"/>
+      <c r="AX65" s="44"/>
+      <c r="AY65" s="44"/>
+      <c r="AZ65" s="44"/>
+      <c r="BA65" s="44"/>
+    </row>
+    <row r="66" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="183"/>
+      <c r="B66" s="32">
+        <v>3</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" s="42">
+        <v>17900</v>
+      </c>
+      <c r="E66" s="42">
+        <v>3</v>
+      </c>
+      <c r="F66" s="42">
+        <v>17403</v>
+      </c>
+      <c r="G66" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H66" s="36">
+        <v>6.7</v>
+      </c>
+      <c r="I66" s="42">
+        <v>16797</v>
+      </c>
+      <c r="J66" s="36">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K66" s="42">
+        <v>17066</v>
+      </c>
+      <c r="L66" s="38">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="M66" s="36">
+        <f>ROUND(K66*(1-L66),0)</f>
+        <v>16025</v>
+      </c>
+      <c r="N66" s="27">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="O66" s="24">
+        <f t="shared" si="627"/>
+        <v>11185.449999999999</v>
+      </c>
+      <c r="P66" s="38">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="Q66" s="24">
+        <f t="shared" si="628"/>
+        <v>4246.625</v>
+      </c>
+      <c r="R66" s="38">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="S66" s="134">
+        <v>0.2142</v>
+      </c>
+      <c r="T66" s="24">
+        <f t="shared" si="629"/>
+        <v>592.92499999999995</v>
+      </c>
+      <c r="U66" s="27">
+        <v>0.215</v>
+      </c>
+      <c r="V66" s="24">
+        <f t="shared" si="630"/>
+        <v>3445.375</v>
+      </c>
+      <c r="W66" s="38">
+        <v>0.502</v>
+      </c>
+      <c r="X66" s="24">
+        <f t="shared" si="631"/>
+        <v>8044.55</v>
+      </c>
+      <c r="Y66" s="38">
+        <v>0.42</v>
+      </c>
+      <c r="Z66" s="24">
+        <f t="shared" si="632"/>
+        <v>6730.5</v>
+      </c>
+      <c r="AA66" s="147">
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="AB66" s="148">
+        <f t="shared" si="456"/>
+        <v>35.895999999999994</v>
+      </c>
+      <c r="AC66" s="46">
+        <v>2.3500000000000001E-3</v>
+      </c>
+      <c r="AD66" s="17">
+        <f t="shared" si="634"/>
+        <v>37.658750000000005</v>
+      </c>
+      <c r="AE66" s="26">
+        <f>IF(M66&gt;0,(AG66+AP66)/M66,0)</f>
+        <v>2.5270326989079561E-3</v>
+      </c>
+      <c r="AF66" s="46">
+        <v>2.9E-4</v>
+      </c>
+      <c r="AG66" s="36">
+        <f t="shared" si="635"/>
+        <v>4.6472499999999997</v>
+      </c>
+      <c r="AH66" s="27">
+        <v>0.22070000000000001</v>
+      </c>
+      <c r="AI66" s="40">
+        <f t="shared" si="636"/>
+        <v>33.941453000000003</v>
+      </c>
+      <c r="AJ66" s="27">
+        <f t="shared" si="637"/>
+        <v>0.87774910780392834</v>
+      </c>
+      <c r="AK66" s="28">
+        <f t="shared" si="6"/>
+        <v>0.88634360046265004</v>
+      </c>
+      <c r="AL66" s="42">
+        <v>169</v>
+      </c>
+      <c r="AM66" s="38">
+        <v>0.09</v>
+      </c>
+      <c r="AN66" s="27">
+        <v>0.2331</v>
+      </c>
+      <c r="AO66" s="134">
+        <v>0.2155</v>
+      </c>
+      <c r="AP66" s="40">
+        <f>AL66*(1-AM66)*AN66</f>
+        <v>35.848448999999995</v>
+      </c>
+      <c r="AQ66" s="135">
+        <f t="shared" si="461"/>
+        <v>33.141745</v>
+      </c>
+      <c r="AR66" s="17">
+        <v>1.55</v>
+      </c>
+      <c r="AS66" s="17"/>
+      <c r="AT66" s="117">
+        <f>AT65+AL66-AS66</f>
+        <v>1156.46</v>
+      </c>
+      <c r="AU66" s="101"/>
+      <c r="AV66" s="42"/>
+      <c r="AW66" s="47"/>
+      <c r="AX66" s="40"/>
+      <c r="AY66" s="40"/>
+      <c r="AZ66" s="40"/>
+      <c r="BA66" s="40"/>
+    </row>
+    <row r="67" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="184"/>
+      <c r="B67" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="49"/>
+      <c r="D67" s="50">
+        <f t="shared" ref="D67" si="639">SUM(D64:D66)</f>
+        <v>58573</v>
+      </c>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50">
+        <f t="shared" ref="F67" si="640">SUM(F64:F66)</f>
+        <v>54386</v>
+      </c>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="50">
+        <f t="shared" ref="I67:K67" si="641">SUM(I64:I66)</f>
+        <v>53217</v>
+      </c>
+      <c r="J67" s="51"/>
+      <c r="K67" s="50">
+        <f t="shared" si="641"/>
+        <v>51014</v>
+      </c>
+      <c r="L67" s="20">
+        <f t="shared" ref="L67" si="642">IF(K67&gt;0,(K64*L64+K65*L65+K66*L66)/K67,0)</f>
+        <v>6.5658525110753915E-2</v>
+      </c>
+      <c r="M67" s="51">
+        <f t="shared" ref="M67" si="643">M64+M65+M66</f>
+        <v>47664</v>
+      </c>
+      <c r="N67" s="52">
+        <f t="shared" ref="N67" si="644">IF(M67&gt;0,O67/M67,0)</f>
+        <v>0.7577113544813695</v>
+      </c>
+      <c r="O67" s="53">
+        <f t="shared" ref="O67" si="645">O64+O65+O66</f>
+        <v>36115.553999999996</v>
+      </c>
+      <c r="P67" s="20">
+        <f t="shared" ref="P67" si="646">IF(M67&gt;0,Q67/M67,0)</f>
+        <v>0.20395357082913732</v>
+      </c>
+      <c r="Q67" s="53">
+        <f t="shared" ref="Q67" si="647">Q64+Q65+Q66</f>
+        <v>9721.2430000000004</v>
+      </c>
+      <c r="R67" s="20">
+        <f t="shared" ref="R67" si="648">IF(M67&gt;0,T67/M67,0)</f>
+        <v>3.8335074689493119E-2</v>
+      </c>
+      <c r="S67" s="136"/>
+      <c r="T67" s="53">
+        <f t="shared" ref="T67" si="649">T64+T65+T66</f>
+        <v>1827.203</v>
+      </c>
+      <c r="U67" s="20">
+        <f t="shared" ref="U67" si="650">IF(M67&gt;0,V67/M67,0)</f>
+        <v>0.21234394931184961</v>
+      </c>
+      <c r="V67" s="53">
+        <f t="shared" ref="V67" si="651">V64+V65+V66</f>
+        <v>10121.162</v>
+      </c>
+      <c r="W67" s="20">
+        <f t="shared" ref="W67" si="652">IF(M67&gt;0,X67/M67,0)</f>
+        <v>0.50664963074857339</v>
+      </c>
+      <c r="X67" s="53">
+        <f t="shared" ref="X67" si="653">X64+X65+X66</f>
+        <v>24148.948</v>
+      </c>
+      <c r="Y67" s="20">
+        <f t="shared" ref="Y67" si="654">IF(M67&gt;0,Z67/M67,0)</f>
+        <v>0.41336648204095333</v>
+      </c>
+      <c r="Z67" s="53">
+        <f t="shared" ref="Z67" si="655">Z64+Z65+Z66</f>
+        <v>19702.7</v>
+      </c>
+      <c r="AA67" s="152">
+        <f t="shared" ref="AA67" si="656">IF(M67&gt;0,AB67/M67,0)</f>
+        <v>2.2864698724404157E-3</v>
+      </c>
+      <c r="AB67" s="55">
+        <f t="shared" ref="AB67" si="657">SUM(AB64:AB66)</f>
+        <v>108.98229999999998</v>
+      </c>
+      <c r="AC67" s="54">
+        <f t="shared" ref="AC67" si="658">IF(M67&gt;0,AD67/M67,0)</f>
+        <v>2.3997910372608256E-3</v>
+      </c>
+      <c r="AD67" s="55">
+        <f t="shared" ref="AD67" si="659">SUM(AD64:AD66)</f>
+        <v>114.38363999999999</v>
+      </c>
+      <c r="AE67" s="54">
+        <f t="shared" ref="AE67" si="660">IF(M67&gt;0,(AE64*M64+AE65*M65+AE66*M66)/M67,0)</f>
+        <v>2.5460739887546153E-3</v>
+      </c>
+      <c r="AF67" s="54">
+        <f t="shared" ref="AF67" si="661">IF(K67&gt;0,(K64*AF64+K65*AF65+K66*AF66)/K67,0)</f>
+        <v>2.933259497392872E-4</v>
+      </c>
+      <c r="AG67" s="51">
+        <f t="shared" ref="AG67" si="662">SUM(AG64:AG66)</f>
+        <v>13.98086</v>
+      </c>
+      <c r="AH67" s="52">
+        <f t="shared" ref="AH67" si="663">IF(K67&gt;0,(K64*AH64+K65*AH65+K66*AH66)/K67,0)</f>
+        <v>0.21973492570666878</v>
+      </c>
+      <c r="AI67" s="57">
+        <f t="shared" ref="AI67" si="664">SUM(AI64:AI66)</f>
+        <v>101.34968459999999</v>
+      </c>
+      <c r="AJ67" s="52">
+        <f t="shared" ref="AJ67" si="665">IF(AND(AD67&gt;0),((AD64*AJ64+AD65*AJ65+AD66*AJ66)/AD67),0)</f>
+        <v>0.8789457552324681</v>
+      </c>
+      <c r="AK67" s="56">
+        <f t="shared" si="6"/>
+        <v>0.88590907772725025</v>
+      </c>
+      <c r="AL67" s="50">
+        <f t="shared" ref="AL67" si="666">SUM(AL64:AL66)</f>
+        <v>508</v>
+      </c>
+      <c r="AM67" s="20">
+        <f t="shared" ref="AM67" si="667">IF(AL67&gt;0,(AM64*AL64+AM65*AL65+AM66*AL66)/AL67,0)</f>
+        <v>9.203149606299213E-2</v>
+      </c>
+      <c r="AN67" s="52">
+        <f>IF(K67&gt;0,(AN64*K64+AN65*K65+AN66*K66)/K67,0)</f>
+        <v>0.23280028031520761</v>
+      </c>
+      <c r="AO67" s="136">
+        <f>IF(L67&gt;0,(AO64*K64+AO65*K65+AO66*K66)/K67,0)</f>
+        <v>0.21663150899753009</v>
+      </c>
+      <c r="AP67" s="57">
+        <f t="shared" ref="AP67" si="668">SUM(AP64:AP66)</f>
+        <v>107.37521059999997</v>
+      </c>
+      <c r="AQ67" s="137">
+        <f t="shared" si="492"/>
+        <v>99.924436999999998</v>
+      </c>
+      <c r="AR67" s="55"/>
+      <c r="AS67" s="55">
+        <f t="shared" ref="AS67" si="669">SUM(AS64:AS66)</f>
+        <v>0</v>
+      </c>
+      <c r="AT67" s="102"/>
+      <c r="AU67" s="103">
+        <f>AT66</f>
+        <v>1156.46</v>
+      </c>
+      <c r="AV67" s="50">
+        <f t="shared" ref="AV67" si="670">SUM(AV64:AV66)</f>
+        <v>0</v>
+      </c>
+      <c r="AW67" s="58"/>
+      <c r="AX67" s="57"/>
+      <c r="AY67" s="57"/>
+      <c r="AZ67" s="57"/>
+      <c r="BA67" s="57"/>
+    </row>
+    <row r="68" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="182">
+        <v>17</v>
+      </c>
+      <c r="B68" s="22">
+        <v>1</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="11">
+        <v>17600</v>
+      </c>
+      <c r="E68" s="11">
+        <v>0</v>
+      </c>
+      <c r="F68" s="11">
+        <v>18766</v>
+      </c>
+      <c r="G68" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="H68" s="12">
+        <v>5.7</v>
+      </c>
+      <c r="I68" s="11">
+        <v>18096</v>
+      </c>
+      <c r="J68" s="12">
+        <v>3.9</v>
+      </c>
+      <c r="K68" s="11">
+        <v>17200</v>
+      </c>
+      <c r="L68" s="13">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="M68" s="23">
+        <f>ROUND(K68*(1-L68),0)</f>
+        <v>16065</v>
+      </c>
+      <c r="N68" s="14">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="O68" s="24">
+        <f t="shared" ref="O68:O70" si="671">M68*N68</f>
+        <v>11277.63</v>
+      </c>
+      <c r="P68" s="13">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="Q68" s="24">
+        <f t="shared" ref="Q68:Q70" si="672">M68*P68</f>
+        <v>4321.4850000000006</v>
+      </c>
+      <c r="R68" s="15">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="S68" s="143">
+        <v>0.22689999999999999</v>
+      </c>
+      <c r="T68" s="24">
+        <f t="shared" ref="T68:T70" si="673">M68*R68</f>
+        <v>465.88500000000005</v>
+      </c>
+      <c r="U68" s="25">
+        <v>0.218</v>
+      </c>
+      <c r="V68" s="24">
+        <f t="shared" ref="V68:V70" si="674">M68*U68</f>
+        <v>3502.17</v>
+      </c>
+      <c r="W68" s="15">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="X68" s="24">
+        <f t="shared" ref="X68:X70" si="675">M68*W68</f>
+        <v>8144.9549999999999</v>
+      </c>
+      <c r="Y68" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="Z68" s="24">
+        <f t="shared" ref="Z68:Z70" si="676">Y68*M68</f>
+        <v>6747.3</v>
+      </c>
+      <c r="AA68" s="145">
+        <v>2.4299999999999999E-3</v>
+      </c>
+      <c r="AB68" s="18">
+        <f t="shared" ref="AB68" si="677">M68*AA68</f>
+        <v>39.037949999999995</v>
+      </c>
+      <c r="AC68" s="16">
+        <v>2.49E-3</v>
+      </c>
+      <c r="AD68" s="17">
+        <f t="shared" ref="AD68:AD70" si="678">M68*AC68</f>
+        <v>40.001849999999997</v>
+      </c>
+      <c r="AE68" s="26">
+        <f>IF(M68&gt;0,(AG68+AP68)/M68,0)</f>
+        <v>2.5389333333333333E-3</v>
+      </c>
+      <c r="AF68" s="16">
+        <v>2.9E-4</v>
+      </c>
+      <c r="AG68" s="23">
+        <f t="shared" ref="AG68:AG70" si="679">AF68*M68</f>
+        <v>4.6588500000000002</v>
+      </c>
+      <c r="AH68" s="114">
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="AI68" s="29">
+        <f t="shared" ref="AI68:AI70" si="680">AL68*(1-AM68)*AH68</f>
+        <v>33.656633999999997</v>
+      </c>
+      <c r="AJ68" s="27">
+        <f t="shared" ref="AJ68:AJ70" si="681">IF(AND(AH68&gt;0,AF68&gt;0,AC68&gt;0),((AC68-AF68)*AH68)/((AH68-AF68)*AC68),0)</f>
+        <v>0.88471212790105758</v>
+      </c>
+      <c r="AK68" s="59">
+        <f t="shared" ref="AK68:AK75" si="682">IF(AND(AE68&gt;0,AN68&gt;0,AF68&gt;0),((AN68*(AE68-AF68))/(AE68*(AN68-AF68))),0)</f>
+        <v>0.88687886835656815</v>
+      </c>
+      <c r="AL68" s="11">
+        <v>170</v>
+      </c>
+      <c r="AM68" s="13">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="AN68" s="14">
+        <v>0.23380000000000001</v>
+      </c>
+      <c r="AO68" s="130">
+        <v>0.22309999999999999</v>
+      </c>
+      <c r="AP68" s="29">
+        <f>AL68*(1-AM68)*AN68</f>
+        <v>36.129114000000001</v>
+      </c>
+      <c r="AQ68" s="131">
+        <f t="shared" ref="AQ68" si="683">AL68*(1-AM68)*AO68</f>
+        <v>34.475642999999998</v>
+      </c>
+      <c r="AR68" s="18">
+        <v>1.55</v>
+      </c>
+      <c r="AS68" s="18"/>
+      <c r="AT68" s="98">
+        <f>AT66+AL68-AS68</f>
+        <v>1326.46</v>
+      </c>
+      <c r="AU68" s="99"/>
+      <c r="AV68" s="11"/>
+      <c r="AW68" s="30"/>
+      <c r="AX68" s="19"/>
+      <c r="AY68" s="19"/>
+      <c r="AZ68" s="19"/>
+      <c r="BA68" s="19"/>
+    </row>
+    <row r="69" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="183"/>
+      <c r="B69" s="32">
+        <v>2</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" s="33">
+        <v>20690</v>
+      </c>
+      <c r="E69" s="33">
+        <v>2</v>
+      </c>
+      <c r="F69" s="33">
+        <v>18614</v>
+      </c>
+      <c r="G69" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="H69" s="34">
+        <v>5.9</v>
+      </c>
+      <c r="I69" s="33">
+        <v>18960</v>
+      </c>
+      <c r="J69" s="34">
+        <v>3</v>
+      </c>
+      <c r="K69" s="33">
+        <v>17310</v>
+      </c>
+      <c r="L69" s="35">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="M69" s="36">
+        <f>ROUND(K69*(1-L69),0)</f>
+        <v>16133</v>
+      </c>
+      <c r="N69" s="37">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="O69" s="24">
+        <f t="shared" si="671"/>
+        <v>11083.371000000001</v>
+      </c>
+      <c r="P69" s="35">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="Q69" s="24">
+        <f t="shared" si="672"/>
+        <v>4549.5059999999994</v>
+      </c>
+      <c r="R69" s="38">
+        <v>3.1E-2</v>
+      </c>
+      <c r="S69" s="134">
+        <v>0.22120000000000001</v>
+      </c>
+      <c r="T69" s="24">
+        <f t="shared" si="673"/>
+        <v>500.12299999999999</v>
+      </c>
+      <c r="U69" s="27">
+        <v>0.24</v>
+      </c>
+      <c r="V69" s="24">
+        <f t="shared" si="674"/>
+        <v>3871.92</v>
+      </c>
+      <c r="W69" s="38">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="X69" s="24">
+        <f t="shared" si="675"/>
+        <v>7856.7709999999997</v>
+      </c>
+      <c r="Y69" s="38">
+        <v>0.42</v>
+      </c>
+      <c r="Z69" s="24">
+        <f t="shared" si="676"/>
+        <v>6775.86</v>
+      </c>
+      <c r="AA69" s="146">
+        <v>2.4299999999999999E-3</v>
+      </c>
+      <c r="AB69" s="18">
+        <f t="shared" si="456"/>
+        <v>39.203189999999999</v>
+      </c>
+      <c r="AC69" s="39">
+        <v>2.5699999999999998E-3</v>
+      </c>
+      <c r="AD69" s="17">
+        <f t="shared" si="678"/>
+        <v>41.46181</v>
+      </c>
+      <c r="AE69" s="26">
+        <f>IF(M69&gt;0,(AG69+AP69)/M69,0)</f>
+        <v>2.6759844542242608E-3</v>
+      </c>
+      <c r="AF69" s="39">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AG69" s="36">
+        <f t="shared" si="679"/>
+        <v>4.8398999999999992</v>
+      </c>
+      <c r="AH69" s="27">
+        <v>0.21820000000000001</v>
+      </c>
+      <c r="AI69" s="40">
+        <f t="shared" si="680"/>
+        <v>35.261338199999997</v>
+      </c>
+      <c r="AJ69" s="27">
+        <f t="shared" si="681"/>
+        <v>0.88448454740421023</v>
+      </c>
+      <c r="AK69" s="28">
+        <f t="shared" si="682"/>
+        <v>0.88901611340907083</v>
+      </c>
+      <c r="AL69" s="33">
+        <v>177</v>
+      </c>
+      <c r="AM69" s="35">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="AN69" s="37">
+        <v>0.23719999999999999</v>
+      </c>
+      <c r="AO69" s="132">
+        <v>0.22509999999999999</v>
+      </c>
+      <c r="AP69" s="40">
+        <f>AL69*(1-AM69)*AN69</f>
+        <v>38.331757199999998</v>
+      </c>
+      <c r="AQ69" s="133">
+        <f t="shared" si="461"/>
+        <v>36.3763851</v>
+      </c>
+      <c r="AR69" s="41">
+        <v>1.6</v>
+      </c>
+      <c r="AS69" s="41"/>
+      <c r="AT69" s="117">
+        <f>AT68+AL69-AS69</f>
+        <v>1503.46</v>
+      </c>
+      <c r="AU69" s="101"/>
+      <c r="AV69" s="42"/>
+      <c r="AW69" s="43"/>
+      <c r="AX69" s="44"/>
+      <c r="AY69" s="44"/>
+      <c r="AZ69" s="44"/>
+      <c r="BA69" s="44"/>
+    </row>
+    <row r="70" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="183"/>
+      <c r="B70" s="32">
+        <v>3</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="42">
+        <v>19000</v>
+      </c>
+      <c r="E70" s="42">
+        <v>2</v>
+      </c>
+      <c r="F70" s="42">
+        <v>19650</v>
+      </c>
+      <c r="G70" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="H70" s="36">
+        <v>4.8</v>
+      </c>
+      <c r="I70" s="42">
+        <v>18640</v>
+      </c>
+      <c r="J70" s="36">
+        <v>2.8</v>
+      </c>
+      <c r="K70" s="42">
+        <v>17377</v>
+      </c>
+      <c r="L70" s="38">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="M70" s="36">
+        <f>ROUND(K70*(1-L70),0)</f>
+        <v>16352</v>
+      </c>
+      <c r="N70" s="27">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="O70" s="24">
+        <f t="shared" si="671"/>
+        <v>11969.663999999999</v>
+      </c>
+      <c r="P70" s="38">
+        <v>0.221</v>
+      </c>
+      <c r="Q70" s="24">
+        <f t="shared" si="672"/>
+        <v>3613.7919999999999</v>
+      </c>
+      <c r="R70" s="38">
+        <v>4.7E-2</v>
+      </c>
+      <c r="S70" s="134">
+        <v>0.2082</v>
+      </c>
+      <c r="T70" s="24">
+        <f t="shared" si="673"/>
+        <v>768.54399999999998</v>
+      </c>
+      <c r="U70" s="27">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="V70" s="24">
+        <f t="shared" si="674"/>
+        <v>3711.904</v>
+      </c>
+      <c r="W70" s="38">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="X70" s="24">
+        <f t="shared" si="675"/>
+        <v>8061.5360000000001</v>
+      </c>
+      <c r="Y70" s="38">
+        <v>0.42</v>
+      </c>
+      <c r="Z70" s="24">
+        <f t="shared" si="676"/>
+        <v>6867.84</v>
+      </c>
+      <c r="AA70" s="147">
+        <v>2.3900000000000002E-3</v>
+      </c>
+      <c r="AB70" s="148">
+        <f t="shared" si="456"/>
+        <v>39.081280000000007</v>
+      </c>
+      <c r="AC70" s="46">
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="AD70" s="17">
+        <f t="shared" si="678"/>
+        <v>41.534080000000003</v>
+      </c>
+      <c r="AE70" s="26">
+        <f>IF(M70&gt;0,(AG70+AP70)/M70,0)</f>
+        <v>2.6547720462328766E-3</v>
+      </c>
+      <c r="AF70" s="46">
+        <v>3.1E-4</v>
+      </c>
+      <c r="AG70" s="36">
+        <f t="shared" si="679"/>
+        <v>5.0691199999999998</v>
+      </c>
+      <c r="AH70" s="27">
+        <v>0.22</v>
+      </c>
+      <c r="AI70" s="40">
+        <f t="shared" si="680"/>
+        <v>37.0777</v>
+      </c>
+      <c r="AJ70" s="27">
+        <f t="shared" si="681"/>
+        <v>0.87919161682012181</v>
+      </c>
+      <c r="AK70" s="28">
+        <f t="shared" si="682"/>
+        <v>0.88443430886262553</v>
+      </c>
+      <c r="AL70" s="42">
+        <v>185</v>
+      </c>
+      <c r="AM70" s="38">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AN70" s="27">
+        <v>0.22750000000000001</v>
+      </c>
+      <c r="AO70" s="134">
+        <v>0.2238</v>
+      </c>
+      <c r="AP70" s="40">
+        <f>AL70*(1-AM70)*AN70</f>
+        <v>38.3417125</v>
+      </c>
+      <c r="AQ70" s="135">
+        <f t="shared" si="461"/>
+        <v>37.718133000000002</v>
+      </c>
+      <c r="AR70" s="17">
+        <v>1.58</v>
+      </c>
+      <c r="AS70" s="17"/>
+      <c r="AT70" s="117">
+        <f>AT69+AL70-AS70</f>
+        <v>1688.46</v>
+      </c>
+      <c r="AU70" s="101"/>
+      <c r="AV70" s="42"/>
+      <c r="AW70" s="47"/>
+      <c r="AX70" s="40"/>
+      <c r="AY70" s="40"/>
+      <c r="AZ70" s="40"/>
+      <c r="BA70" s="40"/>
+    </row>
+    <row r="71" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="184"/>
+      <c r="B71" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="49"/>
+      <c r="D71" s="50">
+        <f t="shared" ref="D71" si="684">SUM(D68:D70)</f>
+        <v>57290</v>
+      </c>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50">
+        <f t="shared" ref="F71" si="685">SUM(F68:F70)</f>
+        <v>57030</v>
+      </c>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="50">
+        <f t="shared" ref="I71:K71" si="686">SUM(I68:I70)</f>
+        <v>55696</v>
+      </c>
+      <c r="J71" s="51"/>
+      <c r="K71" s="50">
+        <f t="shared" si="686"/>
+        <v>51887</v>
+      </c>
+      <c r="L71" s="20">
+        <f t="shared" ref="L71" si="687">IF(K71&gt;0,(K68*L68+K69*L69+K70*L70)/K71,0)</f>
+        <v>6.4322913253801531E-2</v>
+      </c>
+      <c r="M71" s="51">
+        <f t="shared" ref="M71" si="688">M68+M69+M70</f>
+        <v>48550</v>
+      </c>
+      <c r="N71" s="52">
+        <f t="shared" ref="N71" si="689">IF(M71&gt;0,O71/M71,0)</f>
+        <v>0.7071197734294542</v>
+      </c>
+      <c r="O71" s="53">
+        <f t="shared" ref="O71" si="690">O68+O69+O70</f>
+        <v>34330.665000000001</v>
+      </c>
+      <c r="P71" s="20">
+        <f t="shared" ref="P71" si="691">IF(M71&gt;0,Q71/M71,0)</f>
+        <v>0.2571530998970134</v>
+      </c>
+      <c r="Q71" s="53">
+        <f t="shared" ref="Q71" si="692">Q68+Q69+Q70</f>
+        <v>12484.782999999999</v>
+      </c>
+      <c r="R71" s="20">
+        <f t="shared" ref="R71" si="693">IF(M71&gt;0,T71/M71,0)</f>
+        <v>3.5727126673532443E-2</v>
+      </c>
+      <c r="S71" s="136"/>
+      <c r="T71" s="53">
+        <f t="shared" ref="T71" si="694">T68+T69+T70</f>
+        <v>1734.5520000000001</v>
+      </c>
+      <c r="U71" s="20">
+        <f t="shared" ref="U71" si="695">IF(M71&gt;0,V71/M71,0)</f>
+        <v>0.22834179196704429</v>
+      </c>
+      <c r="V71" s="53">
+        <f t="shared" ref="V71" si="696">V68+V69+V70</f>
+        <v>11085.994000000001</v>
+      </c>
+      <c r="W71" s="20">
+        <f t="shared" ref="W71" si="697">IF(M71&gt;0,X71/M71,0)</f>
+        <v>0.49563876416065911</v>
+      </c>
+      <c r="X71" s="53">
+        <f t="shared" ref="X71" si="698">X68+X69+X70</f>
+        <v>24063.261999999999</v>
+      </c>
+      <c r="Y71" s="20">
+        <f t="shared" ref="Y71" si="699">IF(M71&gt;0,Z71/M71,0)</f>
+        <v>0.42</v>
+      </c>
+      <c r="Z71" s="53">
+        <f t="shared" ref="Z71" si="700">Z68+Z69+Z70</f>
+        <v>20391</v>
+      </c>
+      <c r="AA71" s="152">
+        <f t="shared" ref="AA71" si="701">IF(M71&gt;0,AB71/M71,0)</f>
+        <v>2.4165277033985585E-3</v>
+      </c>
+      <c r="AB71" s="55">
+        <f t="shared" ref="AB71" si="702">SUM(AB68:AB70)</f>
+        <v>117.32242000000001</v>
+      </c>
+      <c r="AC71" s="54">
+        <f t="shared" ref="AC71" si="703">IF(M71&gt;0,AD71/M71,0)</f>
+        <v>2.5334240988671474E-3</v>
+      </c>
+      <c r="AD71" s="55">
+        <f t="shared" ref="AD71" si="704">SUM(AD68:AD70)</f>
+        <v>122.99774000000001</v>
+      </c>
+      <c r="AE71" s="54">
+        <f t="shared" ref="AE71" si="705">IF(M71&gt;0,(AE68*M68+AE69*M69+AE70*M70)/M71,0)</f>
+        <v>2.6234902924819775E-3</v>
+      </c>
+      <c r="AF71" s="54">
+        <f t="shared" ref="AF71" si="706">IF(K71&gt;0,(K68*AF68+K69*AF69+K70*AF70)/K71,0)</f>
+        <v>3.0003411259082237E-4</v>
+      </c>
+      <c r="AG71" s="51">
+        <f t="shared" ref="AG71" si="707">SUM(AG68:AG70)</f>
+        <v>14.567869999999999</v>
+      </c>
+      <c r="AH71" s="52">
+        <f t="shared" ref="AH71" si="708">IF(K71&gt;0,(K68*AH68+K69*AH69+K70*AH70)/K71,0)</f>
+        <v>0.21867022568273362</v>
+      </c>
+      <c r="AI71" s="57">
+        <f t="shared" ref="AI71" si="709">SUM(AI68:AI70)</f>
+        <v>105.9956722</v>
+      </c>
+      <c r="AJ71" s="52">
+        <f t="shared" ref="AJ71" si="710">IF(AND(AD71&gt;0),((AD68*AJ68+AD69*AJ69+AD70*AJ70)/AD71),0)</f>
+        <v>0.88277123656275769</v>
+      </c>
+      <c r="AK71" s="56">
+        <f t="shared" si="682"/>
+        <v>0.88677828207496201</v>
+      </c>
+      <c r="AL71" s="50">
+        <f t="shared" ref="AL71" si="711">SUM(AL68:AL70)</f>
+        <v>532</v>
+      </c>
+      <c r="AM71" s="20">
+        <f t="shared" ref="AM71" si="712">IF(AL71&gt;0,(AM68*AL68+AM69*AL69+AM70*AL70)/AL71,0)</f>
+        <v>8.8973684210526316E-2</v>
+      </c>
+      <c r="AN71" s="52">
+        <f>IF(K71&gt;0,(AN68*K68+AN69*K69+AN70*K70)/K71,0)</f>
+        <v>0.23282439724786555</v>
+      </c>
+      <c r="AO71" s="136">
+        <f>IF(L71&gt;0,(AO68*K68+AO69*K69+AO70*K70)/K71,0)</f>
+        <v>0.22400164973885558</v>
+      </c>
+      <c r="AP71" s="57">
+        <f t="shared" ref="AP71" si="713">SUM(AP68:AP70)</f>
+        <v>112.8025837</v>
+      </c>
+      <c r="AQ71" s="137">
+        <f t="shared" si="492"/>
+        <v>108.57016110000001</v>
+      </c>
+      <c r="AR71" s="55"/>
+      <c r="AS71" s="55">
+        <f t="shared" ref="AS71" si="714">SUM(AS68:AS70)</f>
+        <v>0</v>
+      </c>
+      <c r="AT71" s="102"/>
+      <c r="AU71" s="103">
+        <f>AT70</f>
+        <v>1688.46</v>
+      </c>
+      <c r="AV71" s="50">
+        <f t="shared" ref="AV71" si="715">SUM(AV68:AV70)</f>
+        <v>0</v>
+      </c>
+      <c r="AW71" s="58"/>
+      <c r="AX71" s="57"/>
+      <c r="AY71" s="57"/>
+      <c r="AZ71" s="57"/>
+      <c r="BA71" s="57"/>
+    </row>
+    <row r="72" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="182">
+        <v>18</v>
+      </c>
+      <c r="B72" s="22">
+        <v>1</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="11">
+        <v>6400</v>
+      </c>
+      <c r="E72" s="11">
+        <v>0</v>
+      </c>
+      <c r="F72" s="11">
+        <v>15636</v>
+      </c>
+      <c r="G72" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="H72" s="12">
+        <v>6</v>
+      </c>
+      <c r="I72" s="11">
+        <v>15068</v>
+      </c>
+      <c r="J72" s="121">
+        <v>3.8</v>
+      </c>
+      <c r="K72" s="11">
+        <v>17359</v>
+      </c>
+      <c r="L72" s="13">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="M72" s="23">
+        <f>ROUND(K72*(1-L72),0)</f>
+        <v>16370</v>
+      </c>
+      <c r="N72" s="14">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="O72" s="24">
+        <f t="shared" ref="O72:O74" si="716">M72*N72</f>
+        <v>10820.57</v>
+      </c>
+      <c r="P72" s="13">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="Q72" s="24">
+        <f t="shared" ref="Q72:Q74" si="717">M72*P72</f>
+        <v>4943.74</v>
+      </c>
+      <c r="R72" s="15">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="S72" s="143">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="T72" s="24">
+        <f t="shared" ref="T72:T74" si="718">M72*R72</f>
+        <v>605.68999999999994</v>
+      </c>
+      <c r="U72" s="25"/>
+      <c r="V72" s="24">
+        <f t="shared" ref="V72:V74" si="719">M72*U72</f>
+        <v>0</v>
+      </c>
+      <c r="W72" s="15"/>
+      <c r="X72" s="24">
+        <f t="shared" ref="X72:X74" si="720">M72*W72</f>
+        <v>0</v>
+      </c>
+      <c r="Y72" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="Z72" s="24">
+        <f t="shared" ref="Z72:Z74" si="721">Y72*M72</f>
+        <v>6875.4</v>
+      </c>
+      <c r="AA72" s="145"/>
+      <c r="AB72" s="18">
+        <f t="shared" ref="AB72" si="722">M72*AA72</f>
+        <v>0</v>
+      </c>
+      <c r="AC72" s="16">
+        <v>2.48E-3</v>
+      </c>
+      <c r="AD72" s="17">
+        <f t="shared" ref="AD72:AD74" si="723">M72*AC72</f>
+        <v>40.5976</v>
+      </c>
+      <c r="AE72" s="26">
+        <f>IF(M72&gt;0,(AG72+AP72)/M72,0)</f>
+        <v>3.1E-4</v>
+      </c>
+      <c r="AF72" s="16">
+        <v>3.1E-4</v>
+      </c>
+      <c r="AG72" s="23">
+        <f t="shared" ref="AG72:AG74" si="724">AF72*M72</f>
+        <v>5.0747</v>
+      </c>
+      <c r="AH72" s="114">
+        <v>0.22009999999999999</v>
+      </c>
+      <c r="AI72" s="29">
+        <f t="shared" ref="AI72:AI74" si="725">AL72*(1-AM72)*AH72</f>
+        <v>33.611911200000002</v>
+      </c>
+      <c r="AJ72" s="27">
+        <f t="shared" ref="AJ72:AJ74" si="726">IF(AND(AH72&gt;0,AF72&gt;0,AC72&gt;0),((AC72-AF72)*AH72)/((AH72-AF72)*AC72),0)</f>
+        <v>0.87623413258110028</v>
+      </c>
+      <c r="AK72" s="59">
+        <f t="shared" si="682"/>
+        <v>0</v>
+      </c>
+      <c r="AL72" s="11">
+        <v>168</v>
+      </c>
+      <c r="AM72" s="13">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="AN72" s="14"/>
+      <c r="AO72" s="130"/>
+      <c r="AP72" s="29">
+        <f>AL72*(1-AM72)*AN72</f>
+        <v>0</v>
+      </c>
+      <c r="AQ72" s="131">
+        <f t="shared" ref="AQ72:AQ75" si="727">AL72*(1-AM72)*AO72</f>
+        <v>0</v>
+      </c>
+      <c r="AR72" s="18">
+        <v>1.55</v>
+      </c>
+      <c r="AS72" s="18">
+        <v>1005.26</v>
+      </c>
+      <c r="AT72" s="98">
+        <f>AT70+AL72-AS72</f>
+        <v>851.2</v>
+      </c>
+      <c r="AU72" s="99"/>
+      <c r="AV72" s="11"/>
+      <c r="AW72" s="30"/>
+      <c r="AX72" s="19"/>
+      <c r="AY72" s="19"/>
+      <c r="AZ72" s="19"/>
+      <c r="BA72" s="19"/>
+    </row>
+    <row r="73" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="183"/>
+      <c r="B73" s="32">
+        <v>2</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="122"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="36">
+        <f>ROUND(K73*(1-L73),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="37"/>
+      <c r="O73" s="24">
+        <f t="shared" si="716"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="24">
+        <f t="shared" si="717"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="38"/>
+      <c r="S73" s="134"/>
+      <c r="T73" s="24">
+        <f t="shared" si="718"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="27"/>
+      <c r="V73" s="24">
+        <f t="shared" si="719"/>
+        <v>0</v>
+      </c>
+      <c r="W73" s="38"/>
+      <c r="X73" s="24">
+        <f t="shared" si="720"/>
+        <v>0</v>
+      </c>
+      <c r="Y73" s="38"/>
+      <c r="Z73" s="24">
+        <f t="shared" si="721"/>
+        <v>0</v>
+      </c>
+      <c r="AA73" s="146"/>
+      <c r="AB73" s="18">
+        <f t="shared" si="456"/>
+        <v>0</v>
+      </c>
+      <c r="AC73" s="39"/>
+      <c r="AD73" s="17">
+        <f t="shared" si="723"/>
+        <v>0</v>
+      </c>
+      <c r="AE73" s="26">
+        <f>IF(M73&gt;0,(AG73+AP73)/M73,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF73" s="39"/>
+      <c r="AG73" s="36">
+        <f t="shared" si="724"/>
+        <v>0</v>
+      </c>
+      <c r="AH73" s="27"/>
+      <c r="AI73" s="40">
+        <f t="shared" si="725"/>
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="27">
+        <f t="shared" si="726"/>
+        <v>0</v>
+      </c>
+      <c r="AK73" s="28">
+        <f t="shared" si="682"/>
+        <v>0</v>
+      </c>
+      <c r="AL73" s="33"/>
+      <c r="AM73" s="35"/>
+      <c r="AN73" s="37"/>
+      <c r="AO73" s="132"/>
+      <c r="AP73" s="40">
+        <f>AL73*(1-AM73)*AN73</f>
+        <v>0</v>
+      </c>
+      <c r="AQ73" s="133">
+        <f t="shared" si="727"/>
+        <v>0</v>
+      </c>
+      <c r="AR73" s="41"/>
+      <c r="AS73" s="41"/>
+      <c r="AT73" s="117">
+        <f>AT72+AL73-AS73</f>
+        <v>851.2</v>
+      </c>
+      <c r="AU73" s="101"/>
+      <c r="AV73" s="42"/>
+      <c r="AW73" s="43"/>
+      <c r="AX73" s="44"/>
+      <c r="AY73" s="44"/>
+      <c r="AZ73" s="44"/>
+      <c r="BA73" s="44"/>
+    </row>
+    <row r="74" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="183"/>
+      <c r="B74" s="32">
+        <v>3</v>
+      </c>
+      <c r="C74" s="45"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="36">
+        <f>ROUND(K74*(1-L74),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N74" s="27"/>
+      <c r="O74" s="24">
+        <f t="shared" si="716"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="38"/>
+      <c r="Q74" s="24">
+        <f t="shared" si="717"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="38"/>
+      <c r="S74" s="134"/>
+      <c r="T74" s="24">
+        <f t="shared" si="718"/>
+        <v>0</v>
+      </c>
+      <c r="U74" s="27"/>
+      <c r="V74" s="24">
+        <f t="shared" si="719"/>
+        <v>0</v>
+      </c>
+      <c r="W74" s="38"/>
+      <c r="X74" s="24">
+        <f t="shared" si="720"/>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="38"/>
+      <c r="Z74" s="24">
+        <f t="shared" si="721"/>
+        <v>0</v>
+      </c>
+      <c r="AA74" s="147"/>
+      <c r="AB74" s="148">
+        <f t="shared" si="456"/>
+        <v>0</v>
+      </c>
+      <c r="AC74" s="46"/>
+      <c r="AD74" s="17">
+        <f t="shared" si="723"/>
+        <v>0</v>
+      </c>
+      <c r="AE74" s="26">
+        <f>IF(M74&gt;0,(AG74+AP74)/M74,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF74" s="46"/>
+      <c r="AG74" s="36">
+        <f t="shared" si="724"/>
+        <v>0</v>
+      </c>
+      <c r="AH74" s="27"/>
+      <c r="AI74" s="40">
+        <f t="shared" si="725"/>
+        <v>0</v>
+      </c>
+      <c r="AJ74" s="27">
+        <f t="shared" si="726"/>
+        <v>0</v>
+      </c>
+      <c r="AK74" s="28">
+        <f t="shared" si="682"/>
+        <v>0</v>
+      </c>
+      <c r="AL74" s="42"/>
+      <c r="AM74" s="38"/>
+      <c r="AN74" s="27"/>
+      <c r="AO74" s="134"/>
+      <c r="AP74" s="40">
+        <f>AL74*(1-AM74)*AN74</f>
+        <v>0</v>
+      </c>
+      <c r="AQ74" s="135">
+        <f t="shared" si="727"/>
+        <v>0</v>
+      </c>
+      <c r="AR74" s="17"/>
+      <c r="AS74" s="17"/>
+      <c r="AT74" s="117">
+        <f>AT73+AL74-AS74</f>
+        <v>851.2</v>
+      </c>
+      <c r="AU74" s="101"/>
+      <c r="AV74" s="42"/>
+      <c r="AW74" s="47"/>
+      <c r="AX74" s="40"/>
+      <c r="AY74" s="40"/>
+      <c r="AZ74" s="40"/>
+      <c r="BA74" s="40"/>
+    </row>
+    <row r="75" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="184"/>
+      <c r="B75" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="49"/>
+      <c r="D75" s="50">
+        <f t="shared" ref="D75" si="728">SUM(D72:D74)</f>
+        <v>6400</v>
+      </c>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50">
+        <f t="shared" ref="F75" si="729">SUM(F72:F74)</f>
+        <v>15636</v>
+      </c>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="50">
+        <f t="shared" ref="I75:K75" si="730">SUM(I72:I74)</f>
+        <v>15068</v>
+      </c>
+      <c r="J75" s="51"/>
+      <c r="K75" s="50">
+        <f t="shared" si="730"/>
+        <v>17359</v>
+      </c>
+      <c r="L75" s="20">
+        <f t="shared" ref="L75" si="731">IF(K75&gt;0,(K72*L72+K73*L73+K74*L74)/K75,0)</f>
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="M75" s="51">
+        <f t="shared" ref="M75" si="732">M72+M73+M74</f>
+        <v>16370</v>
+      </c>
+      <c r="N75" s="52">
+        <f t="shared" ref="N75" si="733">IF(M75&gt;0,O75/M75,0)</f>
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="O75" s="53">
+        <f t="shared" ref="O75" si="734">O72+O73+O74</f>
+        <v>10820.57</v>
+      </c>
+      <c r="P75" s="20">
+        <f t="shared" ref="P75" si="735">IF(M75&gt;0,Q75/M75,0)</f>
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="Q75" s="53">
+        <f t="shared" ref="Q75" si="736">Q72+Q73+Q74</f>
+        <v>4943.74</v>
+      </c>
+      <c r="R75" s="20">
+        <f t="shared" ref="R75" si="737">IF(M75&gt;0,T75/M75,0)</f>
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="S75" s="136"/>
+      <c r="T75" s="53">
+        <f t="shared" ref="T75" si="738">T72+T73+T74</f>
+        <v>605.68999999999994</v>
+      </c>
+      <c r="U75" s="20">
+        <f t="shared" ref="U75" si="739">IF(M75&gt;0,V75/M75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V75" s="53">
+        <f t="shared" ref="V75" si="740">V72+V73+V74</f>
+        <v>0</v>
+      </c>
+      <c r="W75" s="20">
+        <f t="shared" ref="W75" si="741">IF(M75&gt;0,X75/M75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X75" s="53">
+        <f t="shared" ref="X75" si="742">X72+X73+X74</f>
+        <v>0</v>
+      </c>
+      <c r="Y75" s="20">
+        <f t="shared" ref="Y75" si="743">IF(M75&gt;0,Z75/M75,0)</f>
+        <v>0.42</v>
+      </c>
+      <c r="Z75" s="53">
+        <f t="shared" ref="Z75" si="744">Z72+Z73+Z74</f>
+        <v>6875.4</v>
+      </c>
+      <c r="AA75" s="152">
+        <f t="shared" ref="AA75" si="745">IF(M75&gt;0,AB75/M75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB75" s="55">
+        <f t="shared" ref="AB75" si="746">SUM(AB72:AB74)</f>
+        <v>0</v>
+      </c>
+      <c r="AC75" s="54">
+        <f t="shared" ref="AC75" si="747">IF(M75&gt;0,AD75/M75,0)</f>
+        <v>2.48E-3</v>
+      </c>
+      <c r="AD75" s="55">
+        <f t="shared" ref="AD75" si="748">SUM(AD72:AD74)</f>
+        <v>40.5976</v>
+      </c>
+      <c r="AE75" s="54">
+        <f t="shared" ref="AE75" si="749">IF(M75&gt;0,(AE72*M72+AE73*M73+AE74*M74)/M75,0)</f>
+        <v>3.1E-4</v>
+      </c>
+      <c r="AF75" s="54">
+        <f t="shared" ref="AF75" si="750">IF(K75&gt;0,(K72*AF72+K73*AF73+K74*AF74)/K75,0)</f>
+        <v>3.1E-4</v>
+      </c>
+      <c r="AG75" s="51">
+        <f t="shared" ref="AG75" si="751">SUM(AG72:AG74)</f>
+        <v>5.0747</v>
+      </c>
+      <c r="AH75" s="52">
+        <f t="shared" ref="AH75" si="752">IF(K75&gt;0,(K72*AH72+K73*AH73+K74*AH74)/K75,0)</f>
+        <v>0.22009999999999999</v>
+      </c>
+      <c r="AI75" s="57">
+        <f t="shared" ref="AI75" si="753">SUM(AI72:AI74)</f>
+        <v>33.611911200000002</v>
+      </c>
+      <c r="AJ75" s="52">
+        <f t="shared" ref="AJ75" si="754">IF(AND(AD75&gt;0),((AD72*AJ72+AD73*AJ73+AD74*AJ74)/AD75),0)</f>
+        <v>0.87623413258110028</v>
+      </c>
+      <c r="AK75" s="56">
+        <f t="shared" si="682"/>
+        <v>0</v>
+      </c>
+      <c r="AL75" s="50">
+        <f t="shared" ref="AL75" si="755">SUM(AL72:AL74)</f>
+        <v>168</v>
+      </c>
+      <c r="AM75" s="20">
+        <f t="shared" ref="AM75" si="756">IF(AL75&gt;0,(AM72*AL72+AM73*AL73+AM74*AL74)/AL75,0)</f>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="AN75" s="52">
+        <f>IF(K75&gt;0,(AN72*K72+AN73*K73+AN74*K74)/K75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO75" s="136">
+        <f>IF(L75&gt;0,(AO72*K72+AO73*K73+AO74*K74)/K75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP75" s="57">
+        <f t="shared" ref="AP75" si="757">SUM(AP72:AP74)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ75" s="137">
+        <f t="shared" ref="AQ75" si="758">SUM(AQ72:AQ74)</f>
+        <v>0</v>
+      </c>
+      <c r="AR75" s="55"/>
+      <c r="AS75" s="55">
+        <f t="shared" ref="AS75" si="759">SUM(AS72:AS74)</f>
+        <v>1005.26</v>
+      </c>
+      <c r="AT75" s="102"/>
+      <c r="AU75" s="103">
+        <f>AT74</f>
+        <v>851.2</v>
+      </c>
+      <c r="AV75" s="50">
+        <f t="shared" ref="AV75" si="760">SUM(AV72:AV74)</f>
+        <v>0</v>
+      </c>
+      <c r="AW75" s="58"/>
+      <c r="AX75" s="57"/>
+      <c r="AY75" s="57"/>
+      <c r="AZ75" s="57"/>
+      <c r="BA75" s="57"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -51482,8 +56069,34 @@
     <protectedRange sqref="AG44:AG47" name="Range1_1_1_1_1_18_1_1_3"/>
     <protectedRange sqref="AE44:AE46" name="Range1_1_1_1_1_2_1_10_1_1_1"/>
     <protectedRange sqref="AB44:AB47" name="Range1_1_1_1_1_2_2_1_1_1_3"/>
+    <protectedRange sqref="AP48:AQ75 AK48:AK75 M48:M75" name="Range1_1_1_1_1_1_1_1_1_4"/>
+    <protectedRange sqref="AH51:AJ51 AH55:AJ55 AH59:AJ59 AH63:AJ63 AH67:AJ67 AH71:AJ71 AH75:AJ75 AH48:AI50 AH52:AI54 AH56:AI58 AH60:AI62 AH64:AI66 AH68:AI70 AH72:AI74" name="Range1_1_1_1_1_1_1_4"/>
+    <protectedRange sqref="AJ48:AJ50 AJ52:AJ54 AJ56:AJ58 AJ60:AJ62 AJ64:AJ66 AJ68:AJ70 AJ72:AJ74" name="Range1_1_1_1_4"/>
+    <protectedRange sqref="AD51:AE51 AD48:AD50 AD55:AE55 AD52:AD54 AD59:AE59 AD56:AD58 AD63:AE63 AD60:AD62 AD67:AE67 AD64:AD66 AD71:AE71 AD68:AD70 AD75:AE75 AD72:AD74" name="Range1_1_1_1_1_2_2_1_4"/>
+    <protectedRange sqref="O48:O75" name="Range1_1_1_1_1_5_1_1_4"/>
+    <protectedRange sqref="Q48:Q75" name="Range1_1_1_1_1_7_1_1_4"/>
+    <protectedRange sqref="T48:T75" name="Range1_1_1_1_1_8_1_1_4"/>
+    <protectedRange sqref="V48:V75" name="Range1_1_1_1_1_10_1_1_4"/>
+    <protectedRange sqref="X48:X75" name="Range1_1_1_1_1_12_1_1_4"/>
+    <protectedRange sqref="Z48:Z75" name="Range1_1_1_1_1_16_1_1_4"/>
+    <protectedRange sqref="AG48:AG75" name="Range1_1_1_1_1_18_1_1_4"/>
+    <protectedRange sqref="AE48:AE50" name="Range1_1_1_1_1_2_1_11_1_1_1"/>
+    <protectedRange sqref="AE52:AE54" name="Range1_1_1_1_1_2_1_12_1_1_1"/>
+    <protectedRange sqref="AE56:AE58" name="Range1_1_1_1_1_2_1_13_1_1_1"/>
+    <protectedRange sqref="AE60:AE62" name="Range1_1_1_1_1_2_1_14_1_1_1"/>
+    <protectedRange sqref="AE64:AE66" name="Range1_1_1_1_1_2_1_15_1_1_1"/>
+    <protectedRange sqref="AE68:AE70" name="Range1_1_1_1_1_2_1_16_1_1_1"/>
+    <protectedRange sqref="AE72:AE74" name="Range1_1_1_1_1_2_1_17_1_1_1"/>
+    <protectedRange sqref="AB48:AB75" name="Range1_1_1_1_1_2_2_1_1_1_4"/>
   </protectedRanges>
-  <mergeCells count="16">
+  <mergeCells count="23">
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A67"/>
     <mergeCell ref="A44:A47"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="AZ1:BA1"/>

--- a/dispatchers_rep/Doklad_Dispecheri_2025!.xlsx
+++ b/dispatchers_rep/Doklad_Dispecheri_2025!.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD41947-C8F1-4479-BD74-8CEE728E8814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AB2ACC-FE8B-4BE4-9D89-E63205EB6759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -824,7 +824,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="70">
   <si>
     <t xml:space="preserve">Подадена руда
  от МГТЛ 
@@ -1901,6 +1901,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1908,6 +1911,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1927,12 +1933,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2352,13 +2352,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="187" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -2487,19 +2487,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="191" t="s">
+      <c r="AX1" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="191"/>
-      <c r="AZ1" s="191" t="s">
+      <c r="AY1" s="182"/>
+      <c r="AZ1" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="191"/>
+      <c r="BA1" s="182"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="186"/>
+      <c r="A2" s="192"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="188"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -2690,7 +2690,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="182">
+      <c r="A4" s="183">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -2852,7 +2852,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" s="183"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -3012,7 +3012,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="183"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -3172,7 +3172,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -3343,7 +3343,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="182">
+      <c r="A8" s="183">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -3507,7 +3507,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" s="183"/>
+      <c r="A9" s="184"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -3667,7 +3667,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" s="183"/>
+      <c r="A10" s="184"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -3827,7 +3827,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="184"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -3998,7 +3998,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182">
+      <c r="A12" s="183">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -4162,7 +4162,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" s="183"/>
+      <c r="A13" s="184"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -4322,7 +4322,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14" s="183"/>
+      <c r="A14" s="184"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -4482,7 +4482,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="184"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -4653,7 +4653,7 @@
       <c r="BA15" s="57"/>
     </row>
     <row r="16" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182">
+      <c r="A16" s="183">
         <v>4</v>
       </c>
       <c r="B16" s="22">
@@ -4817,7 +4817,7 @@
       <c r="BA16" s="19"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A17" s="183"/>
+      <c r="A17" s="184"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -4977,7 +4977,7 @@
       <c r="BA17" s="44"/>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18" s="183"/>
+      <c r="A18" s="184"/>
       <c r="B18" s="32">
         <v>3</v>
       </c>
@@ -5137,7 +5137,7 @@
       <c r="BA18" s="40"/>
     </row>
     <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="184"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="48" t="s">
         <v>35</v>
       </c>
@@ -5308,7 +5308,7 @@
       <c r="BA19" s="57"/>
     </row>
     <row r="20" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="182">
+      <c r="A20" s="183">
         <v>5</v>
       </c>
       <c r="B20" s="22">
@@ -5472,7 +5472,7 @@
       <c r="BA20" s="19"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" s="183"/>
+      <c r="A21" s="184"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
@@ -5632,7 +5632,7 @@
       <c r="BA21" s="44"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22" s="183"/>
+      <c r="A22" s="184"/>
       <c r="B22" s="32">
         <v>3</v>
       </c>
@@ -5792,7 +5792,7 @@
       <c r="BA22" s="40"/>
     </row>
     <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="184"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
@@ -5963,7 +5963,7 @@
       <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182">
+      <c r="A24" s="183">
         <v>6</v>
       </c>
       <c r="B24" s="22">
@@ -6129,7 +6129,7 @@
       <c r="BA24" s="19"/>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A25" s="183"/>
+      <c r="A25" s="184"/>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -6289,7 +6289,7 @@
       <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A26" s="183"/>
+      <c r="A26" s="184"/>
       <c r="B26" s="32">
         <v>3</v>
       </c>
@@ -6449,7 +6449,7 @@
       <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="184"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="48" t="s">
         <v>35</v>
       </c>
@@ -6620,7 +6620,7 @@
       <c r="BA27" s="57"/>
     </row>
     <row r="28" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="182">
+      <c r="A28" s="183">
         <v>7</v>
       </c>
       <c r="B28" s="22">
@@ -6782,7 +6782,7 @@
       <c r="BA28" s="19"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A29" s="183"/>
+      <c r="A29" s="184"/>
       <c r="B29" s="32">
         <v>2</v>
       </c>
@@ -6942,7 +6942,7 @@
       <c r="BA29" s="44"/>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A30" s="183"/>
+      <c r="A30" s="184"/>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -7102,7 +7102,7 @@
       <c r="BA30" s="40"/>
     </row>
     <row r="31" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="184"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="48" t="s">
         <v>35</v>
       </c>
@@ -7273,7 +7273,7 @@
       <c r="BA31" s="57"/>
     </row>
     <row r="32" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="182">
+      <c r="A32" s="183">
         <v>8</v>
       </c>
       <c r="B32" s="22">
@@ -7435,7 +7435,7 @@
       <c r="BA32" s="19"/>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A33" s="183"/>
+      <c r="A33" s="184"/>
       <c r="B33" s="32">
         <v>2</v>
       </c>
@@ -7595,7 +7595,7 @@
       <c r="BA33" s="44"/>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A34" s="183"/>
+      <c r="A34" s="184"/>
       <c r="B34" s="32">
         <v>3</v>
       </c>
@@ -7755,7 +7755,7 @@
       <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="184"/>
+      <c r="A35" s="185"/>
       <c r="B35" s="48" t="s">
         <v>35</v>
       </c>
@@ -7926,7 +7926,7 @@
       <c r="BA35" s="57"/>
     </row>
     <row r="36" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="182">
+      <c r="A36" s="183">
         <v>9</v>
       </c>
       <c r="B36" s="22">
@@ -8090,7 +8090,7 @@
       <c r="BA36" s="19"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A37" s="183"/>
+      <c r="A37" s="184"/>
       <c r="B37" s="32">
         <v>2</v>
       </c>
@@ -8250,7 +8250,7 @@
       <c r="BA37" s="44"/>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A38" s="183"/>
+      <c r="A38" s="184"/>
       <c r="B38" s="32">
         <v>3</v>
       </c>
@@ -8410,7 +8410,7 @@
       <c r="BA38" s="40"/>
     </row>
     <row r="39" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="184"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="48" t="s">
         <v>35</v>
       </c>
@@ -8581,7 +8581,7 @@
       <c r="BA39" s="57"/>
     </row>
     <row r="40" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="182">
+      <c r="A40" s="183">
         <v>10</v>
       </c>
       <c r="B40" s="22">
@@ -8745,7 +8745,7 @@
       <c r="BA40" s="19"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A41" s="183"/>
+      <c r="A41" s="184"/>
       <c r="B41" s="32">
         <v>2</v>
       </c>
@@ -8905,7 +8905,7 @@
       <c r="BA41" s="44"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A42" s="183"/>
+      <c r="A42" s="184"/>
       <c r="B42" s="32">
         <v>3</v>
       </c>
@@ -9065,7 +9065,7 @@
       <c r="BA42" s="40"/>
     </row>
     <row r="43" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="184"/>
+      <c r="A43" s="185"/>
       <c r="B43" s="48" t="s">
         <v>35</v>
       </c>
@@ -9236,7 +9236,7 @@
       <c r="BA43" s="57"/>
     </row>
     <row r="44" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="182">
+      <c r="A44" s="183">
         <v>11</v>
       </c>
       <c r="B44" s="22">
@@ -9400,7 +9400,7 @@
       <c r="BA44" s="19"/>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A45" s="183"/>
+      <c r="A45" s="184"/>
       <c r="B45" s="32">
         <v>2</v>
       </c>
@@ -9560,7 +9560,7 @@
       <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A46" s="183"/>
+      <c r="A46" s="184"/>
       <c r="B46" s="32">
         <v>3</v>
       </c>
@@ -9720,7 +9720,7 @@
       <c r="BA46" s="40"/>
     </row>
     <row r="47" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="184"/>
+      <c r="A47" s="185"/>
       <c r="B47" s="48" t="s">
         <v>35</v>
       </c>
@@ -9891,7 +9891,7 @@
       <c r="BA47" s="57"/>
     </row>
     <row r="48" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="182">
+      <c r="A48" s="183">
         <v>12</v>
       </c>
       <c r="B48" s="22">
@@ -10057,7 +10057,7 @@
       <c r="BA48" s="19"/>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A49" s="183"/>
+      <c r="A49" s="184"/>
       <c r="B49" s="32">
         <v>2</v>
       </c>
@@ -10217,7 +10217,7 @@
       <c r="BA49" s="44"/>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A50" s="183"/>
+      <c r="A50" s="184"/>
       <c r="B50" s="32">
         <v>3</v>
       </c>
@@ -10377,7 +10377,7 @@
       <c r="BA50" s="40"/>
     </row>
     <row r="51" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="184"/>
+      <c r="A51" s="185"/>
       <c r="B51" s="48" t="s">
         <v>35</v>
       </c>
@@ -10548,7 +10548,7 @@
       <c r="BA51" s="57"/>
     </row>
     <row r="52" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="182">
+      <c r="A52" s="183">
         <v>13</v>
       </c>
       <c r="B52" s="22">
@@ -10712,7 +10712,7 @@
       <c r="BA52" s="19"/>
     </row>
     <row r="53" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A53" s="183"/>
+      <c r="A53" s="184"/>
       <c r="B53" s="32">
         <v>2</v>
       </c>
@@ -10872,7 +10872,7 @@
       <c r="BA53" s="44"/>
     </row>
     <row r="54" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A54" s="183"/>
+      <c r="A54" s="184"/>
       <c r="B54" s="32">
         <v>3</v>
       </c>
@@ -11032,7 +11032,7 @@
       <c r="BA54" s="40"/>
     </row>
     <row r="55" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="184"/>
+      <c r="A55" s="185"/>
       <c r="B55" s="48" t="s">
         <v>35</v>
       </c>
@@ -11203,7 +11203,7 @@
       <c r="BA55" s="57"/>
     </row>
     <row r="56" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="182">
+      <c r="A56" s="183">
         <v>14</v>
       </c>
       <c r="B56" s="22">
@@ -11365,7 +11365,7 @@
       <c r="BA56" s="19"/>
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A57" s="183"/>
+      <c r="A57" s="184"/>
       <c r="B57" s="32">
         <v>2</v>
       </c>
@@ -11525,7 +11525,7 @@
       <c r="BA57" s="44"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A58" s="183"/>
+      <c r="A58" s="184"/>
       <c r="B58" s="32">
         <v>3</v>
       </c>
@@ -11685,7 +11685,7 @@
       <c r="BA58" s="40"/>
     </row>
     <row r="59" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="184"/>
+      <c r="A59" s="185"/>
       <c r="B59" s="48" t="s">
         <v>35</v>
       </c>
@@ -11856,7 +11856,7 @@
       <c r="BA59" s="57"/>
     </row>
     <row r="60" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="182">
+      <c r="A60" s="183">
         <v>15</v>
       </c>
       <c r="B60" s="22">
@@ -12018,7 +12018,7 @@
       <c r="BA60" s="19"/>
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A61" s="183"/>
+      <c r="A61" s="184"/>
       <c r="B61" s="32">
         <v>2</v>
       </c>
@@ -12178,7 +12178,7 @@
       <c r="BA61" s="44"/>
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A62" s="183"/>
+      <c r="A62" s="184"/>
       <c r="B62" s="32">
         <v>3</v>
       </c>
@@ -12338,7 +12338,7 @@
       <c r="BA62" s="40"/>
     </row>
     <row r="63" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="184"/>
+      <c r="A63" s="185"/>
       <c r="B63" s="48" t="s">
         <v>35</v>
       </c>
@@ -12509,7 +12509,7 @@
       <c r="BA63" s="57"/>
     </row>
     <row r="64" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="182">
+      <c r="A64" s="183">
         <v>16</v>
       </c>
       <c r="B64" s="22">
@@ -12673,7 +12673,7 @@
       <c r="BA64" s="19"/>
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A65" s="183"/>
+      <c r="A65" s="184"/>
       <c r="B65" s="32">
         <v>2</v>
       </c>
@@ -12833,7 +12833,7 @@
       <c r="BA65" s="44"/>
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A66" s="183"/>
+      <c r="A66" s="184"/>
       <c r="B66" s="32">
         <v>3</v>
       </c>
@@ -12993,7 +12993,7 @@
       <c r="BA66" s="40"/>
     </row>
     <row r="67" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="184"/>
+      <c r="A67" s="185"/>
       <c r="B67" s="48" t="s">
         <v>35</v>
       </c>
@@ -13164,7 +13164,7 @@
       <c r="BA67" s="57"/>
     </row>
     <row r="68" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="182">
+      <c r="A68" s="183">
         <v>17</v>
       </c>
       <c r="B68" s="22">
@@ -13328,7 +13328,7 @@
       <c r="BA68" s="19"/>
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A69" s="183"/>
+      <c r="A69" s="184"/>
       <c r="B69" s="32">
         <v>2</v>
       </c>
@@ -13488,7 +13488,7 @@
       <c r="BA69" s="44"/>
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A70" s="183"/>
+      <c r="A70" s="184"/>
       <c r="B70" s="32">
         <v>3</v>
       </c>
@@ -13648,7 +13648,7 @@
       <c r="BA70" s="40"/>
     </row>
     <row r="71" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="184"/>
+      <c r="A71" s="185"/>
       <c r="B71" s="48" t="s">
         <v>35</v>
       </c>
@@ -13819,7 +13819,7 @@
       <c r="BA71" s="57"/>
     </row>
     <row r="72" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="182">
+      <c r="A72" s="183">
         <v>18</v>
       </c>
       <c r="B72" s="22">
@@ -13985,7 +13985,7 @@
       <c r="BA72" s="19"/>
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A73" s="183"/>
+      <c r="A73" s="184"/>
       <c r="B73" s="32">
         <v>2</v>
       </c>
@@ -14145,7 +14145,7 @@
       <c r="BA73" s="44"/>
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A74" s="183"/>
+      <c r="A74" s="184"/>
       <c r="B74" s="32">
         <v>3</v>
       </c>
@@ -14305,7 +14305,7 @@
       <c r="BA74" s="40"/>
     </row>
     <row r="75" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="184"/>
+      <c r="A75" s="185"/>
       <c r="B75" s="48" t="s">
         <v>35</v>
       </c>
@@ -14476,7 +14476,7 @@
       <c r="BA75" s="57"/>
     </row>
     <row r="76" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="182">
+      <c r="A76" s="183">
         <v>19</v>
       </c>
       <c r="B76" s="22">
@@ -14640,7 +14640,7 @@
       <c r="BA76" s="175"/>
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A77" s="183"/>
+      <c r="A77" s="184"/>
       <c r="B77" s="32">
         <v>2</v>
       </c>
@@ -14800,7 +14800,7 @@
       <c r="BA77" s="176"/>
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A78" s="183"/>
+      <c r="A78" s="184"/>
       <c r="B78" s="32">
         <v>3</v>
       </c>
@@ -14960,7 +14960,7 @@
       <c r="BA78" s="177"/>
     </row>
     <row r="79" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="184"/>
+      <c r="A79" s="185"/>
       <c r="B79" s="48" t="s">
         <v>35</v>
       </c>
@@ -15131,7 +15131,7 @@
       <c r="BA79" s="179"/>
     </row>
     <row r="80" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="183">
+      <c r="A80" s="184">
         <v>20</v>
       </c>
       <c r="B80" s="32">
@@ -15297,7 +15297,7 @@
       <c r="BA80" s="168"/>
     </row>
     <row r="81" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A81" s="183"/>
+      <c r="A81" s="184"/>
       <c r="B81" s="32">
         <v>2</v>
       </c>
@@ -15457,7 +15457,7 @@
       <c r="BA81" s="44"/>
     </row>
     <row r="82" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A82" s="183"/>
+      <c r="A82" s="184"/>
       <c r="B82" s="32">
         <v>3</v>
       </c>
@@ -15617,7 +15617,7 @@
       <c r="BA82" s="40"/>
     </row>
     <row r="83" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="184"/>
+      <c r="A83" s="185"/>
       <c r="B83" s="48" t="s">
         <v>35</v>
       </c>
@@ -15788,7 +15788,7 @@
       <c r="BA83" s="57"/>
     </row>
     <row r="84" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="182">
+      <c r="A84" s="183">
         <v>21</v>
       </c>
       <c r="B84" s="22">
@@ -15950,7 +15950,7 @@
       <c r="BA84" s="19"/>
     </row>
     <row r="85" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A85" s="183"/>
+      <c r="A85" s="184"/>
       <c r="B85" s="32">
         <v>2</v>
       </c>
@@ -16110,7 +16110,7 @@
       <c r="BA85" s="44"/>
     </row>
     <row r="86" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A86" s="183"/>
+      <c r="A86" s="184"/>
       <c r="B86" s="32">
         <v>3</v>
       </c>
@@ -16270,7 +16270,7 @@
       <c r="BA86" s="40"/>
     </row>
     <row r="87" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="184"/>
+      <c r="A87" s="185"/>
       <c r="B87" s="48" t="s">
         <v>35</v>
       </c>
@@ -16441,7 +16441,7 @@
       <c r="BA87" s="57"/>
     </row>
     <row r="88" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="182">
+      <c r="A88" s="183">
         <v>22</v>
       </c>
       <c r="B88" s="22">
@@ -16603,7 +16603,7 @@
       <c r="BA88" s="19"/>
     </row>
     <row r="89" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A89" s="183"/>
+      <c r="A89" s="184"/>
       <c r="B89" s="32">
         <v>2</v>
       </c>
@@ -16763,7 +16763,7 @@
       <c r="BA89" s="44"/>
     </row>
     <row r="90" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A90" s="183"/>
+      <c r="A90" s="184"/>
       <c r="B90" s="32">
         <v>3</v>
       </c>
@@ -16923,7 +16923,7 @@
       <c r="BA90" s="40"/>
     </row>
     <row r="91" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="184"/>
+      <c r="A91" s="185"/>
       <c r="B91" s="48" t="s">
         <v>35</v>
       </c>
@@ -17094,7 +17094,7 @@
       <c r="BA91" s="57"/>
     </row>
     <row r="92" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="182">
+      <c r="A92" s="183">
         <v>23</v>
       </c>
       <c r="B92" s="22">
@@ -17258,7 +17258,7 @@
       <c r="BA92" s="19"/>
     </row>
     <row r="93" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A93" s="183"/>
+      <c r="A93" s="184"/>
       <c r="B93" s="32">
         <v>2</v>
       </c>
@@ -17418,7 +17418,7 @@
       <c r="BA93" s="44"/>
     </row>
     <row r="94" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A94" s="183"/>
+      <c r="A94" s="184"/>
       <c r="B94" s="32">
         <v>3</v>
       </c>
@@ -17578,7 +17578,7 @@
       <c r="BA94" s="40"/>
     </row>
     <row r="95" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="184"/>
+      <c r="A95" s="185"/>
       <c r="B95" s="48" t="s">
         <v>35</v>
       </c>
@@ -17749,7 +17749,7 @@
       <c r="BA95" s="57"/>
     </row>
     <row r="96" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="182">
+      <c r="A96" s="183">
         <v>24</v>
       </c>
       <c r="B96" s="22">
@@ -17915,7 +17915,7 @@
       <c r="BA96" s="19"/>
     </row>
     <row r="97" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A97" s="183"/>
+      <c r="A97" s="184"/>
       <c r="B97" s="32">
         <v>2</v>
       </c>
@@ -18075,7 +18075,7 @@
       <c r="BA97" s="44"/>
     </row>
     <row r="98" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A98" s="183"/>
+      <c r="A98" s="184"/>
       <c r="B98" s="32">
         <v>3</v>
       </c>
@@ -18235,7 +18235,7 @@
       <c r="BA98" s="40"/>
     </row>
     <row r="99" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="184"/>
+      <c r="A99" s="185"/>
       <c r="B99" s="48" t="s">
         <v>35</v>
       </c>
@@ -18403,7 +18403,7 @@
       <c r="BA99" s="57"/>
     </row>
     <row r="100" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="192">
+      <c r="A100" s="186">
         <v>25</v>
       </c>
       <c r="B100" s="32">
@@ -18569,7 +18569,7 @@
       <c r="BA100" s="19"/>
     </row>
     <row r="101" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A101" s="192"/>
+      <c r="A101" s="186"/>
       <c r="B101" s="32">
         <v>2</v>
       </c>
@@ -18729,7 +18729,7 @@
       <c r="BA101" s="44"/>
     </row>
     <row r="102" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A102" s="192"/>
+      <c r="A102" s="186"/>
       <c r="B102" s="32">
         <v>3</v>
       </c>
@@ -18889,7 +18889,7 @@
       <c r="BA102" s="40"/>
     </row>
     <row r="103" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="192"/>
+      <c r="A103" s="186"/>
       <c r="B103" s="65" t="s">
         <v>35</v>
       </c>
@@ -19060,7 +19060,7 @@
       <c r="BA103" s="57"/>
     </row>
     <row r="104" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="182">
+      <c r="A104" s="183">
         <v>26</v>
       </c>
       <c r="B104" s="22">
@@ -19226,7 +19226,7 @@
       <c r="BA104" s="19"/>
     </row>
     <row r="105" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A105" s="183"/>
+      <c r="A105" s="184"/>
       <c r="B105" s="32">
         <v>2</v>
       </c>
@@ -19386,7 +19386,7 @@
       <c r="BA105" s="44"/>
     </row>
     <row r="106" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A106" s="183"/>
+      <c r="A106" s="184"/>
       <c r="B106" s="32">
         <v>3</v>
       </c>
@@ -19546,7 +19546,7 @@
       <c r="BA106" s="40"/>
     </row>
     <row r="107" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="184"/>
+      <c r="A107" s="185"/>
       <c r="B107" s="48" t="s">
         <v>35</v>
       </c>
@@ -19717,7 +19717,7 @@
       <c r="BA107" s="57"/>
     </row>
     <row r="108" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="182">
+      <c r="A108" s="183">
         <v>27</v>
       </c>
       <c r="B108" s="22">
@@ -19883,7 +19883,7 @@
       <c r="BA108" s="19"/>
     </row>
     <row r="109" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A109" s="183"/>
+      <c r="A109" s="184"/>
       <c r="B109" s="32">
         <v>2</v>
       </c>
@@ -20043,7 +20043,7 @@
       <c r="BA109" s="44"/>
     </row>
     <row r="110" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A110" s="183"/>
+      <c r="A110" s="184"/>
       <c r="B110" s="32">
         <v>3</v>
       </c>
@@ -20203,7 +20203,7 @@
       <c r="BA110" s="40"/>
     </row>
     <row r="111" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="184"/>
+      <c r="A111" s="185"/>
       <c r="B111" s="48" t="s">
         <v>35</v>
       </c>
@@ -20374,7 +20374,7 @@
       <c r="BA111" s="57"/>
     </row>
     <row r="112" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="182">
+      <c r="A112" s="183">
         <v>28</v>
       </c>
       <c r="B112" s="22">
@@ -20536,7 +20536,7 @@
       <c r="BA112" s="19"/>
     </row>
     <row r="113" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A113" s="183"/>
+      <c r="A113" s="184"/>
       <c r="B113" s="32">
         <v>2</v>
       </c>
@@ -20696,7 +20696,7 @@
       <c r="BA113" s="44"/>
     </row>
     <row r="114" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A114" s="183"/>
+      <c r="A114" s="184"/>
       <c r="B114" s="32">
         <v>3</v>
       </c>
@@ -20856,7 +20856,7 @@
       <c r="BA114" s="40"/>
     </row>
     <row r="115" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="184"/>
+      <c r="A115" s="185"/>
       <c r="B115" s="48" t="s">
         <v>35</v>
       </c>
@@ -21027,7 +21027,7 @@
       <c r="BA115" s="57"/>
     </row>
     <row r="116" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="183">
+      <c r="A116" s="184">
         <v>29</v>
       </c>
       <c r="B116" s="32">
@@ -21189,7 +21189,7 @@
       <c r="BA116" s="19"/>
     </row>
     <row r="117" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A117" s="183"/>
+      <c r="A117" s="184"/>
       <c r="B117" s="32">
         <v>2</v>
       </c>
@@ -21349,7 +21349,7 @@
       <c r="BA117" s="44"/>
     </row>
     <row r="118" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A118" s="183"/>
+      <c r="A118" s="184"/>
       <c r="B118" s="32">
         <v>3</v>
       </c>
@@ -21509,7 +21509,7 @@
       <c r="BA118" s="40"/>
     </row>
     <row r="119" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="184"/>
+      <c r="A119" s="185"/>
       <c r="B119" s="48" t="s">
         <v>35</v>
       </c>
@@ -21680,7 +21680,7 @@
       <c r="BA119" s="57"/>
     </row>
     <row r="120" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="182">
+      <c r="A120" s="183">
         <v>30</v>
       </c>
       <c r="B120" s="22">
@@ -21846,7 +21846,7 @@
       <c r="BA120" s="19"/>
     </row>
     <row r="121" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A121" s="183"/>
+      <c r="A121" s="184"/>
       <c r="B121" s="32">
         <v>2</v>
       </c>
@@ -22006,7 +22006,7 @@
       <c r="BA121" s="44"/>
     </row>
     <row r="122" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A122" s="183"/>
+      <c r="A122" s="184"/>
       <c r="B122" s="32">
         <v>3</v>
       </c>
@@ -22166,7 +22166,7 @@
       <c r="BA122" s="40"/>
     </row>
     <row r="123" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="184"/>
+      <c r="A123" s="185"/>
       <c r="B123" s="48" t="s">
         <v>35</v>
       </c>
@@ -22337,7 +22337,7 @@
       <c r="BA123" s="57"/>
     </row>
     <row r="124" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="182">
+      <c r="A124" s="183">
         <v>31</v>
       </c>
       <c r="B124" s="22">
@@ -22447,7 +22447,7 @@
       <c r="BA124" s="19"/>
     </row>
     <row r="125" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A125" s="183"/>
+      <c r="A125" s="184"/>
       <c r="B125" s="32">
         <v>2</v>
       </c>
@@ -22555,7 +22555,7 @@
       <c r="BA125" s="44"/>
     </row>
     <row r="126" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A126" s="183"/>
+      <c r="A126" s="184"/>
       <c r="B126" s="32">
         <v>3</v>
       </c>
@@ -22663,7 +22663,7 @@
       <c r="BA126" s="40"/>
     </row>
     <row r="127" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="184"/>
+      <c r="A127" s="185"/>
       <c r="B127" s="48" t="s">
         <v>35</v>
       </c>
@@ -23056,6 +23056,26 @@
     <protectedRange sqref="AB1" name="Range1_1_1_1_1_1_1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="36">
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="A120:A123"/>
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A100:A103"/>
@@ -23072,26 +23092,6 @@
     <mergeCell ref="A68:A71"/>
     <mergeCell ref="A84:A87"/>
     <mergeCell ref="AX1:AY1"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23169,13 +23169,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="187" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -23304,19 +23304,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="191" t="s">
+      <c r="AX1" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="191"/>
-      <c r="AZ1" s="191" t="s">
+      <c r="AY1" s="182"/>
+      <c r="AZ1" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="191"/>
+      <c r="BA1" s="182"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="186"/>
+      <c r="A2" s="192"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="188"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -23507,7 +23507,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="182">
+      <c r="A4" s="183">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -23671,7 +23671,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" s="183"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -23830,7 +23830,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="183"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -23989,7 +23989,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -24160,7 +24160,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="182">
+      <c r="A8" s="183">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -24324,7 +24324,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" s="183"/>
+      <c r="A9" s="184"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -24484,7 +24484,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" s="183"/>
+      <c r="A10" s="184"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -24644,7 +24644,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="184"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -24815,7 +24815,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182">
+      <c r="A12" s="183">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -24977,7 +24977,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" s="183"/>
+      <c r="A13" s="184"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -25137,7 +25137,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14" s="183"/>
+      <c r="A14" s="184"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -25297,7 +25297,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="184"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -25468,7 +25468,7 @@
       <c r="BA15" s="57"/>
     </row>
     <row r="16" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182">
+      <c r="A16" s="183">
         <v>4</v>
       </c>
       <c r="B16" s="22">
@@ -25630,7 +25630,7 @@
       <c r="BA16" s="19"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A17" s="183"/>
+      <c r="A17" s="184"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -25790,7 +25790,7 @@
       <c r="BA17" s="44"/>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18" s="183"/>
+      <c r="A18" s="184"/>
       <c r="B18" s="32">
         <v>3</v>
       </c>
@@ -25950,7 +25950,7 @@
       <c r="BA18" s="40"/>
     </row>
     <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="184"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="48" t="s">
         <v>35</v>
       </c>
@@ -26121,7 +26121,7 @@
       <c r="BA19" s="57"/>
     </row>
     <row r="20" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="182">
+      <c r="A20" s="183">
         <v>5</v>
       </c>
       <c r="B20" s="22">
@@ -26283,7 +26283,7 @@
       <c r="BA20" s="19"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" s="183"/>
+      <c r="A21" s="184"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
@@ -26443,7 +26443,7 @@
       <c r="BA21" s="44"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22" s="183"/>
+      <c r="A22" s="184"/>
       <c r="B22" s="32">
         <v>3</v>
       </c>
@@ -26603,7 +26603,7 @@
       <c r="BA22" s="40"/>
     </row>
     <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="184"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
@@ -26774,7 +26774,7 @@
       <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182">
+      <c r="A24" s="183">
         <v>6</v>
       </c>
       <c r="B24" s="22">
@@ -26936,7 +26936,7 @@
       <c r="BA24" s="19"/>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A25" s="183"/>
+      <c r="A25" s="184"/>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -27096,7 +27096,7 @@
       <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A26" s="183"/>
+      <c r="A26" s="184"/>
       <c r="B26" s="32">
         <v>3</v>
       </c>
@@ -27256,7 +27256,7 @@
       <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="184"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="48" t="s">
         <v>35</v>
       </c>
@@ -27427,7 +27427,7 @@
       <c r="BA27" s="57"/>
     </row>
     <row r="28" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="182">
+      <c r="A28" s="183">
         <v>7</v>
       </c>
       <c r="B28" s="22">
@@ -27591,7 +27591,7 @@
       <c r="BA28" s="19"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A29" s="183"/>
+      <c r="A29" s="184"/>
       <c r="B29" s="32">
         <v>2</v>
       </c>
@@ -27749,7 +27749,7 @@
       <c r="BA29" s="44"/>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A30" s="183"/>
+      <c r="A30" s="184"/>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -27907,7 +27907,7 @@
       <c r="BA30" s="40"/>
     </row>
     <row r="31" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="184"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="48" t="s">
         <v>35</v>
       </c>
@@ -28078,7 +28078,7 @@
       <c r="BA31" s="57"/>
     </row>
     <row r="32" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="182">
+      <c r="A32" s="183">
         <v>8</v>
       </c>
       <c r="B32" s="22">
@@ -28242,7 +28242,7 @@
       <c r="BA32" s="19"/>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A33" s="183"/>
+      <c r="A33" s="184"/>
       <c r="B33" s="32">
         <v>2</v>
       </c>
@@ -28402,7 +28402,7 @@
       <c r="BA33" s="44"/>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A34" s="183"/>
+      <c r="A34" s="184"/>
       <c r="B34" s="32">
         <v>3</v>
       </c>
@@ -28562,7 +28562,7 @@
       <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="184"/>
+      <c r="A35" s="185"/>
       <c r="B35" s="48" t="s">
         <v>35</v>
       </c>
@@ -28733,7 +28733,7 @@
       <c r="BA35" s="57"/>
     </row>
     <row r="36" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="182">
+      <c r="A36" s="183">
         <v>9</v>
       </c>
       <c r="B36" s="22">
@@ -28897,7 +28897,7 @@
       <c r="BA36" s="19"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A37" s="183"/>
+      <c r="A37" s="184"/>
       <c r="B37" s="32">
         <v>2</v>
       </c>
@@ -29057,7 +29057,7 @@
       <c r="BA37" s="44"/>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A38" s="183"/>
+      <c r="A38" s="184"/>
       <c r="B38" s="32">
         <v>3</v>
       </c>
@@ -29217,7 +29217,7 @@
       <c r="BA38" s="40"/>
     </row>
     <row r="39" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="184"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="48" t="s">
         <v>35</v>
       </c>
@@ -29388,7 +29388,7 @@
       <c r="BA39" s="57"/>
     </row>
     <row r="40" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="182">
+      <c r="A40" s="183">
         <v>10</v>
       </c>
       <c r="B40" s="22">
@@ -29552,7 +29552,7 @@
       <c r="BA40" s="19"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A41" s="183"/>
+      <c r="A41" s="184"/>
       <c r="B41" s="32">
         <v>2</v>
       </c>
@@ -29708,7 +29708,7 @@
       <c r="BA41" s="44"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A42" s="183"/>
+      <c r="A42" s="184"/>
       <c r="B42" s="32">
         <v>3</v>
       </c>
@@ -29856,7 +29856,7 @@
       <c r="BA42" s="40"/>
     </row>
     <row r="43" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="184"/>
+      <c r="A43" s="185"/>
       <c r="B43" s="48" t="s">
         <v>35</v>
       </c>
@@ -30027,7 +30027,7 @@
       <c r="BA43" s="57"/>
     </row>
     <row r="44" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="182">
+      <c r="A44" s="183">
         <v>11</v>
       </c>
       <c r="B44" s="22">
@@ -30189,7 +30189,7 @@
       <c r="BA44" s="19"/>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A45" s="183"/>
+      <c r="A45" s="184"/>
       <c r="B45" s="32">
         <v>2</v>
       </c>
@@ -30349,7 +30349,7 @@
       <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A46" s="183"/>
+      <c r="A46" s="184"/>
       <c r="B46" s="32">
         <v>3</v>
       </c>
@@ -30509,7 +30509,7 @@
       <c r="BA46" s="40"/>
     </row>
     <row r="47" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="184"/>
+      <c r="A47" s="185"/>
       <c r="B47" s="48" t="s">
         <v>35</v>
       </c>
@@ -30680,7 +30680,7 @@
       <c r="BA47" s="57"/>
     </row>
     <row r="48" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="182">
+      <c r="A48" s="183">
         <v>12</v>
       </c>
       <c r="B48" s="22">
@@ -30842,7 +30842,7 @@
       <c r="BA48" s="19"/>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A49" s="183"/>
+      <c r="A49" s="184"/>
       <c r="B49" s="32">
         <v>2</v>
       </c>
@@ -31002,7 +31002,7 @@
       <c r="BA49" s="44"/>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A50" s="183"/>
+      <c r="A50" s="184"/>
       <c r="B50" s="32">
         <v>3</v>
       </c>
@@ -31162,7 +31162,7 @@
       <c r="BA50" s="40"/>
     </row>
     <row r="51" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="184"/>
+      <c r="A51" s="185"/>
       <c r="B51" s="48" t="s">
         <v>35</v>
       </c>
@@ -31967,7 +31967,7 @@
       <c r="BA55" s="57"/>
     </row>
     <row r="56" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="182">
+      <c r="A56" s="183">
         <v>14</v>
       </c>
       <c r="B56" s="22">
@@ -32131,7 +32131,7 @@
       <c r="BA56" s="19"/>
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A57" s="183"/>
+      <c r="A57" s="184"/>
       <c r="B57" s="32">
         <v>2</v>
       </c>
@@ -32291,7 +32291,7 @@
       <c r="BA57" s="44"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A58" s="183"/>
+      <c r="A58" s="184"/>
       <c r="B58" s="32">
         <v>3</v>
       </c>
@@ -32451,7 +32451,7 @@
       <c r="BA58" s="40"/>
     </row>
     <row r="59" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="184"/>
+      <c r="A59" s="185"/>
       <c r="B59" s="48" t="s">
         <v>35</v>
       </c>
@@ -32622,7 +32622,7 @@
       <c r="BA59" s="57"/>
     </row>
     <row r="60" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="182">
+      <c r="A60" s="183">
         <v>15</v>
       </c>
       <c r="B60" s="22">
@@ -32786,7 +32786,7 @@
       <c r="BA60" s="19"/>
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A61" s="183"/>
+      <c r="A61" s="184"/>
       <c r="B61" s="32">
         <v>2</v>
       </c>
@@ -32946,7 +32946,7 @@
       <c r="BA61" s="44"/>
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A62" s="183"/>
+      <c r="A62" s="184"/>
       <c r="B62" s="32">
         <v>3</v>
       </c>
@@ -33106,7 +33106,7 @@
       <c r="BA62" s="40"/>
     </row>
     <row r="63" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="184"/>
+      <c r="A63" s="185"/>
       <c r="B63" s="48" t="s">
         <v>35</v>
       </c>
@@ -33277,7 +33277,7 @@
       <c r="BA63" s="57"/>
     </row>
     <row r="64" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="182">
+      <c r="A64" s="183">
         <v>16</v>
       </c>
       <c r="B64" s="22">
@@ -33443,7 +33443,7 @@
       <c r="BA64" s="19"/>
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A65" s="183"/>
+      <c r="A65" s="184"/>
       <c r="B65" s="32">
         <v>2</v>
       </c>
@@ -33603,7 +33603,7 @@
       <c r="BA65" s="44"/>
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A66" s="183"/>
+      <c r="A66" s="184"/>
       <c r="B66" s="32">
         <v>3</v>
       </c>
@@ -33763,7 +33763,7 @@
       <c r="BA66" s="40"/>
     </row>
     <row r="67" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="184"/>
+      <c r="A67" s="185"/>
       <c r="B67" s="48" t="s">
         <v>35</v>
       </c>
@@ -33934,7 +33934,7 @@
       <c r="BA67" s="57"/>
     </row>
     <row r="68" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="182">
+      <c r="A68" s="183">
         <v>17</v>
       </c>
       <c r="B68" s="22">
@@ -34098,7 +34098,7 @@
       <c r="BA68" s="19"/>
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A69" s="183"/>
+      <c r="A69" s="184"/>
       <c r="B69" s="32">
         <v>2</v>
       </c>
@@ -34258,7 +34258,7 @@
       <c r="BA69" s="44"/>
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A70" s="183"/>
+      <c r="A70" s="184"/>
       <c r="B70" s="32">
         <v>3</v>
       </c>
@@ -34418,7 +34418,7 @@
       <c r="BA70" s="40"/>
     </row>
     <row r="71" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="184"/>
+      <c r="A71" s="185"/>
       <c r="B71" s="48" t="s">
         <v>35</v>
       </c>
@@ -34589,7 +34589,7 @@
       <c r="BA71" s="57"/>
     </row>
     <row r="72" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="182">
+      <c r="A72" s="183">
         <v>18</v>
       </c>
       <c r="B72" s="22">
@@ -34753,7 +34753,7 @@
       <c r="BA72" s="19"/>
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A73" s="183"/>
+      <c r="A73" s="184"/>
       <c r="B73" s="32">
         <v>2</v>
       </c>
@@ -34913,7 +34913,7 @@
       <c r="BA73" s="44"/>
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A74" s="183"/>
+      <c r="A74" s="184"/>
       <c r="B74" s="32">
         <v>3</v>
       </c>
@@ -35073,7 +35073,7 @@
       <c r="BA74" s="40"/>
     </row>
     <row r="75" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="184"/>
+      <c r="A75" s="185"/>
       <c r="B75" s="48" t="s">
         <v>35</v>
       </c>
@@ -35244,7 +35244,7 @@
       <c r="BA75" s="57"/>
     </row>
     <row r="76" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="182">
+      <c r="A76" s="183">
         <v>19</v>
       </c>
       <c r="B76" s="22">
@@ -35406,7 +35406,7 @@
       <c r="BA76" s="19"/>
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A77" s="183"/>
+      <c r="A77" s="184"/>
       <c r="B77" s="32">
         <v>2</v>
       </c>
@@ -35566,7 +35566,7 @@
       <c r="BA77" s="44"/>
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A78" s="183"/>
+      <c r="A78" s="184"/>
       <c r="B78" s="32">
         <v>3</v>
       </c>
@@ -35726,7 +35726,7 @@
       <c r="BA78" s="40"/>
     </row>
     <row r="79" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="184"/>
+      <c r="A79" s="185"/>
       <c r="B79" s="48" t="s">
         <v>35</v>
       </c>
@@ -35897,7 +35897,7 @@
       <c r="BA79" s="57"/>
     </row>
     <row r="80" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="182">
+      <c r="A80" s="183">
         <v>20</v>
       </c>
       <c r="B80" s="22">
@@ -36059,7 +36059,7 @@
       <c r="BA80" s="19"/>
     </row>
     <row r="81" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A81" s="183"/>
+      <c r="A81" s="184"/>
       <c r="B81" s="32">
         <v>2</v>
       </c>
@@ -36219,7 +36219,7 @@
       <c r="BA81" s="44"/>
     </row>
     <row r="82" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A82" s="183"/>
+      <c r="A82" s="184"/>
       <c r="B82" s="32">
         <v>3</v>
       </c>
@@ -36379,7 +36379,7 @@
       <c r="BA82" s="40"/>
     </row>
     <row r="83" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="184"/>
+      <c r="A83" s="185"/>
       <c r="B83" s="48" t="s">
         <v>35</v>
       </c>
@@ -36550,7 +36550,7 @@
       <c r="BA83" s="57"/>
     </row>
     <row r="84" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="182">
+      <c r="A84" s="183">
         <v>21</v>
       </c>
       <c r="B84" s="22">
@@ -36714,7 +36714,7 @@
       <c r="BA84" s="19"/>
     </row>
     <row r="85" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A85" s="183"/>
+      <c r="A85" s="184"/>
       <c r="B85" s="32">
         <v>2</v>
       </c>
@@ -36874,7 +36874,7 @@
       <c r="BA85" s="44"/>
     </row>
     <row r="86" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A86" s="183"/>
+      <c r="A86" s="184"/>
       <c r="B86" s="32">
         <v>3</v>
       </c>
@@ -37034,7 +37034,7 @@
       <c r="BA86" s="40"/>
     </row>
     <row r="87" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="184"/>
+      <c r="A87" s="185"/>
       <c r="B87" s="48" t="s">
         <v>35</v>
       </c>
@@ -37205,7 +37205,7 @@
       <c r="BA87" s="57"/>
     </row>
     <row r="88" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="182">
+      <c r="A88" s="183">
         <v>22</v>
       </c>
       <c r="B88" s="22">
@@ -37369,7 +37369,7 @@
       <c r="BA88" s="19"/>
     </row>
     <row r="89" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A89" s="183"/>
+      <c r="A89" s="184"/>
       <c r="B89" s="32">
         <v>2</v>
       </c>
@@ -37529,7 +37529,7 @@
       <c r="BA89" s="44"/>
     </row>
     <row r="90" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A90" s="183"/>
+      <c r="A90" s="184"/>
       <c r="B90" s="32">
         <v>3</v>
       </c>
@@ -37689,7 +37689,7 @@
       <c r="BA90" s="40"/>
     </row>
     <row r="91" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="184"/>
+      <c r="A91" s="185"/>
       <c r="B91" s="48" t="s">
         <v>35</v>
       </c>
@@ -37860,7 +37860,7 @@
       <c r="BA91" s="57"/>
     </row>
     <row r="92" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="182">
+      <c r="A92" s="183">
         <v>23</v>
       </c>
       <c r="B92" s="22">
@@ -38024,7 +38024,7 @@
       <c r="BA92" s="19"/>
     </row>
     <row r="93" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A93" s="183"/>
+      <c r="A93" s="184"/>
       <c r="B93" s="32">
         <v>2</v>
       </c>
@@ -38182,7 +38182,7 @@
       <c r="BA93" s="44"/>
     </row>
     <row r="94" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A94" s="183"/>
+      <c r="A94" s="184"/>
       <c r="B94" s="32">
         <v>3</v>
       </c>
@@ -38336,7 +38336,7 @@
       <c r="BA94" s="40"/>
     </row>
     <row r="95" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="184"/>
+      <c r="A95" s="185"/>
       <c r="B95" s="48" t="s">
         <v>35</v>
       </c>
@@ -38507,7 +38507,7 @@
       <c r="BA95" s="57"/>
     </row>
     <row r="96" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="182">
+      <c r="A96" s="183">
         <v>24</v>
       </c>
       <c r="B96" s="22">
@@ -38671,7 +38671,7 @@
       <c r="BA96" s="19"/>
     </row>
     <row r="97" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A97" s="183"/>
+      <c r="A97" s="184"/>
       <c r="B97" s="32">
         <v>2</v>
       </c>
@@ -38831,7 +38831,7 @@
       <c r="BA97" s="44"/>
     </row>
     <row r="98" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A98" s="183"/>
+      <c r="A98" s="184"/>
       <c r="B98" s="32">
         <v>3</v>
       </c>
@@ -38991,7 +38991,7 @@
       <c r="BA98" s="40"/>
     </row>
     <row r="99" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="184"/>
+      <c r="A99" s="185"/>
       <c r="B99" s="48" t="s">
         <v>35</v>
       </c>
@@ -39162,7 +39162,7 @@
       <c r="BA99" s="57"/>
     </row>
     <row r="100" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="192">
+      <c r="A100" s="186">
         <v>25</v>
       </c>
       <c r="B100" s="32">
@@ -39326,7 +39326,7 @@
       <c r="BA100" s="19"/>
     </row>
     <row r="101" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A101" s="192"/>
+      <c r="A101" s="186"/>
       <c r="B101" s="32">
         <v>2</v>
       </c>
@@ -39486,7 +39486,7 @@
       <c r="BA101" s="44"/>
     </row>
     <row r="102" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A102" s="192"/>
+      <c r="A102" s="186"/>
       <c r="B102" s="32">
         <v>3</v>
       </c>
@@ -39646,7 +39646,7 @@
       <c r="BA102" s="40"/>
     </row>
     <row r="103" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="192"/>
+      <c r="A103" s="186"/>
       <c r="B103" s="65" t="s">
         <v>35</v>
       </c>
@@ -39817,7 +39817,7 @@
       <c r="BA103" s="57"/>
     </row>
     <row r="104" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="182">
+      <c r="A104" s="183">
         <v>26</v>
       </c>
       <c r="B104" s="22">
@@ -39979,7 +39979,7 @@
       <c r="BA104" s="19"/>
     </row>
     <row r="105" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A105" s="183"/>
+      <c r="A105" s="184"/>
       <c r="B105" s="32">
         <v>2</v>
       </c>
@@ -40139,7 +40139,7 @@
       <c r="BA105" s="44"/>
     </row>
     <row r="106" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A106" s="183"/>
+      <c r="A106" s="184"/>
       <c r="B106" s="32">
         <v>3</v>
       </c>
@@ -40299,7 +40299,7 @@
       <c r="BA106" s="40"/>
     </row>
     <row r="107" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="184"/>
+      <c r="A107" s="185"/>
       <c r="B107" s="48" t="s">
         <v>35</v>
       </c>
@@ -40470,7 +40470,7 @@
       <c r="BA107" s="57"/>
     </row>
     <row r="108" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="182">
+      <c r="A108" s="183">
         <v>27</v>
       </c>
       <c r="B108" s="22">
@@ -40632,7 +40632,7 @@
       <c r="BA108" s="19"/>
     </row>
     <row r="109" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A109" s="183"/>
+      <c r="A109" s="184"/>
       <c r="B109" s="32">
         <v>2</v>
       </c>
@@ -40788,7 +40788,7 @@
       <c r="BA109" s="44"/>
     </row>
     <row r="110" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A110" s="183"/>
+      <c r="A110" s="184"/>
       <c r="B110" s="32">
         <v>3</v>
       </c>
@@ -40938,7 +40938,7 @@
       <c r="BA110" s="40"/>
     </row>
     <row r="111" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="184"/>
+      <c r="A111" s="185"/>
       <c r="B111" s="48" t="s">
         <v>35</v>
       </c>
@@ -41109,7 +41109,7 @@
       <c r="BA111" s="57"/>
     </row>
     <row r="112" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="182">
+      <c r="A112" s="183">
         <v>28</v>
       </c>
       <c r="B112" s="22">
@@ -41273,7 +41273,7 @@
       <c r="BA112" s="19"/>
     </row>
     <row r="113" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A113" s="183"/>
+      <c r="A113" s="184"/>
       <c r="B113" s="32">
         <v>2</v>
       </c>
@@ -41433,7 +41433,7 @@
       <c r="BA113" s="44"/>
     </row>
     <row r="114" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A114" s="183"/>
+      <c r="A114" s="184"/>
       <c r="B114" s="32">
         <v>3</v>
       </c>
@@ -41593,7 +41593,7 @@
       <c r="BA114" s="40"/>
     </row>
     <row r="115" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="184"/>
+      <c r="A115" s="185"/>
       <c r="B115" s="48" t="s">
         <v>35</v>
       </c>
@@ -41764,7 +41764,7 @@
       <c r="BA115" s="57"/>
     </row>
     <row r="116" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="183">
+      <c r="A116" s="184">
         <v>29</v>
       </c>
       <c r="B116" s="32">
@@ -41928,7 +41928,7 @@
       <c r="BA116" s="19"/>
     </row>
     <row r="117" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A117" s="183"/>
+      <c r="A117" s="184"/>
       <c r="B117" s="32">
         <v>2</v>
       </c>
@@ -42088,7 +42088,7 @@
       <c r="BA117" s="44"/>
     </row>
     <row r="118" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A118" s="183"/>
+      <c r="A118" s="184"/>
       <c r="B118" s="32">
         <v>3</v>
       </c>
@@ -42248,7 +42248,7 @@
       <c r="BA118" s="40"/>
     </row>
     <row r="119" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="184"/>
+      <c r="A119" s="185"/>
       <c r="B119" s="48" t="s">
         <v>35</v>
       </c>
@@ -42419,7 +42419,7 @@
       <c r="BA119" s="57"/>
     </row>
     <row r="120" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="182">
+      <c r="A120" s="183">
         <v>30</v>
       </c>
       <c r="B120" s="22">
@@ -42583,7 +42583,7 @@
       <c r="BA120" s="19"/>
     </row>
     <row r="121" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A121" s="183"/>
+      <c r="A121" s="184"/>
       <c r="B121" s="32">
         <v>2</v>
       </c>
@@ -42743,7 +42743,7 @@
       <c r="BA121" s="44"/>
     </row>
     <row r="122" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A122" s="183"/>
+      <c r="A122" s="184"/>
       <c r="B122" s="32">
         <v>3</v>
       </c>
@@ -42903,7 +42903,7 @@
       <c r="BA122" s="40"/>
     </row>
     <row r="123" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="184"/>
+      <c r="A123" s="185"/>
       <c r="B123" s="48" t="s">
         <v>35</v>
       </c>
@@ -43074,7 +43074,7 @@
       <c r="BA123" s="57"/>
     </row>
     <row r="124" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="182">
+      <c r="A124" s="183">
         <v>31</v>
       </c>
       <c r="B124" s="22">
@@ -43238,7 +43238,7 @@
       <c r="BA124" s="19"/>
     </row>
     <row r="125" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A125" s="183"/>
+      <c r="A125" s="184"/>
       <c r="B125" s="32">
         <v>2</v>
       </c>
@@ -43394,7 +43394,7 @@
       <c r="BA125" s="44"/>
     </row>
     <row r="126" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A126" s="183"/>
+      <c r="A126" s="184"/>
       <c r="B126" s="32">
         <v>3</v>
       </c>
@@ -43544,7 +43544,7 @@
       <c r="BA126" s="40"/>
     </row>
     <row r="127" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="184"/>
+      <c r="A127" s="185"/>
       <c r="B127" s="48" t="s">
         <v>35</v>
       </c>
@@ -43980,18 +43980,16 @@
     <protectedRange sqref="AB112:AB127" name="Range1_1_1_1_1_2_2_1_1_4"/>
   </protectedRanges>
   <mergeCells count="35">
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A32:A35"/>
@@ -44005,16 +44003,18 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44026,20 +44026,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6555BB66-49A2-4157-88D4-D9BD7AEDD16F}">
   <dimension ref="A1:BA75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B72" sqref="A72:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="187" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -44168,19 +44168,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="191" t="s">
+      <c r="AX1" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="191"/>
-      <c r="AZ1" s="191" t="s">
+      <c r="AY1" s="182"/>
+      <c r="AZ1" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="191"/>
+      <c r="BA1" s="182"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="186"/>
+      <c r="A2" s="192"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="188"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -44371,7 +44371,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="182">
+      <c r="A4" s="183">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -44535,7 +44535,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="183"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -44695,7 +44695,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="183"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -44855,7 +44855,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -45026,7 +45026,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="182">
+      <c r="A8" s="183">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -45188,7 +45188,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="183"/>
+      <c r="A9" s="184"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -45348,7 +45348,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="183"/>
+      <c r="A10" s="184"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -45508,7 +45508,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="184"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -45679,7 +45679,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182">
+      <c r="A12" s="183">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -45841,7 +45841,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="183"/>
+      <c r="A13" s="184"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -45997,7 +45997,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="183"/>
+      <c r="A14" s="184"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -46147,7 +46147,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="184"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -46318,7 +46318,7 @@
       <c r="BA15" s="57"/>
     </row>
     <row r="16" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182">
+      <c r="A16" s="183">
         <v>4</v>
       </c>
       <c r="B16" s="22">
@@ -46482,7 +46482,7 @@
       <c r="BA16" s="19"/>
     </row>
     <row r="17" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="183"/>
+      <c r="A17" s="184"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -46642,7 +46642,7 @@
       <c r="BA17" s="44"/>
     </row>
     <row r="18" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="183"/>
+      <c r="A18" s="184"/>
       <c r="B18" s="32">
         <v>3</v>
       </c>
@@ -46802,7 +46802,7 @@
       <c r="BA18" s="40"/>
     </row>
     <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="184"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="48" t="s">
         <v>35</v>
       </c>
@@ -46973,7 +46973,7 @@
       <c r="BA19" s="57"/>
     </row>
     <row r="20" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="182">
+      <c r="A20" s="183">
         <v>5</v>
       </c>
       <c r="B20" s="22">
@@ -47137,7 +47137,7 @@
       <c r="BA20" s="19"/>
     </row>
     <row r="21" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="183"/>
+      <c r="A21" s="184"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
@@ -47297,7 +47297,7 @@
       <c r="BA21" s="44"/>
     </row>
     <row r="22" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="183"/>
+      <c r="A22" s="184"/>
       <c r="B22" s="32">
         <v>3</v>
       </c>
@@ -47457,7 +47457,7 @@
       <c r="BA22" s="40"/>
     </row>
     <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="184"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
@@ -47628,7 +47628,7 @@
       <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182">
+      <c r="A24" s="183">
         <v>6</v>
       </c>
       <c r="B24" s="22">
@@ -47792,7 +47792,7 @@
       <c r="BA24" s="19"/>
     </row>
     <row r="25" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="183"/>
+      <c r="A25" s="184"/>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -47948,7 +47948,7 @@
       <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="183"/>
+      <c r="A26" s="184"/>
       <c r="B26" s="32">
         <v>3</v>
       </c>
@@ -48098,7 +48098,7 @@
       <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="184"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="48" t="s">
         <v>35</v>
       </c>
@@ -48269,7 +48269,7 @@
       <c r="BA27" s="57"/>
     </row>
     <row r="28" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="182">
+      <c r="A28" s="183">
         <v>7</v>
       </c>
       <c r="B28" s="22">
@@ -48435,7 +48435,7 @@
       <c r="BA28" s="19"/>
     </row>
     <row r="29" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="183"/>
+      <c r="A29" s="184"/>
       <c r="B29" s="32">
         <v>2</v>
       </c>
@@ -48595,7 +48595,7 @@
       <c r="BA29" s="44"/>
     </row>
     <row r="30" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="183"/>
+      <c r="A30" s="184"/>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -48755,7 +48755,7 @@
       <c r="BA30" s="40"/>
     </row>
     <row r="31" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="184"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="48" t="s">
         <v>35</v>
       </c>
@@ -48926,7 +48926,7 @@
       <c r="BA31" s="57"/>
     </row>
     <row r="32" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="182">
+      <c r="A32" s="183">
         <v>8</v>
       </c>
       <c r="B32" s="22">
@@ -49092,7 +49092,7 @@
       <c r="BA32" s="19"/>
     </row>
     <row r="33" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="183"/>
+      <c r="A33" s="184"/>
       <c r="B33" s="32">
         <v>2</v>
       </c>
@@ -49252,7 +49252,7 @@
       <c r="BA33" s="44"/>
     </row>
     <row r="34" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="183"/>
+      <c r="A34" s="184"/>
       <c r="B34" s="32">
         <v>3</v>
       </c>
@@ -49412,7 +49412,7 @@
       <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="184"/>
+      <c r="A35" s="185"/>
       <c r="B35" s="48" t="s">
         <v>35</v>
       </c>
@@ -49583,7 +49583,7 @@
       <c r="BA35" s="57"/>
     </row>
     <row r="36" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="182">
+      <c r="A36" s="183">
         <v>9</v>
       </c>
       <c r="B36" s="22">
@@ -49745,7 +49745,7 @@
       <c r="BA36" s="19"/>
     </row>
     <row r="37" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="183"/>
+      <c r="A37" s="184"/>
       <c r="B37" s="32">
         <v>2</v>
       </c>
@@ -49905,7 +49905,7 @@
       <c r="BA37" s="44"/>
     </row>
     <row r="38" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="183"/>
+      <c r="A38" s="184"/>
       <c r="B38" s="32">
         <v>3</v>
       </c>
@@ -50065,7 +50065,7 @@
       <c r="BA38" s="40"/>
     </row>
     <row r="39" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="184"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="48" t="s">
         <v>35</v>
       </c>
@@ -50236,7 +50236,7 @@
       <c r="BA39" s="57"/>
     </row>
     <row r="40" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="182">
+      <c r="A40" s="183">
         <v>10</v>
       </c>
       <c r="B40" s="22">
@@ -50398,7 +50398,7 @@
       <c r="BA40" s="19"/>
     </row>
     <row r="41" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="183"/>
+      <c r="A41" s="184"/>
       <c r="B41" s="32">
         <v>2</v>
       </c>
@@ -50554,7 +50554,7 @@
       <c r="BA41" s="44"/>
     </row>
     <row r="42" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="183"/>
+      <c r="A42" s="184"/>
       <c r="B42" s="32">
         <v>3</v>
       </c>
@@ -50704,7 +50704,7 @@
       <c r="BA42" s="40"/>
     </row>
     <row r="43" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="184"/>
+      <c r="A43" s="185"/>
       <c r="B43" s="48" t="s">
         <v>35</v>
       </c>
@@ -50875,7 +50875,7 @@
       <c r="BA43" s="57"/>
     </row>
     <row r="44" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="182">
+      <c r="A44" s="183">
         <v>11</v>
       </c>
       <c r="B44" s="22">
@@ -51041,7 +51041,7 @@
       <c r="BA44" s="19"/>
     </row>
     <row r="45" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="183"/>
+      <c r="A45" s="184"/>
       <c r="B45" s="32">
         <v>2</v>
       </c>
@@ -51201,7 +51201,7 @@
       <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="183"/>
+      <c r="A46" s="184"/>
       <c r="B46" s="32">
         <v>3</v>
       </c>
@@ -51361,7 +51361,7 @@
       <c r="BA46" s="40"/>
     </row>
     <row r="47" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="184"/>
+      <c r="A47" s="185"/>
       <c r="B47" s="48" t="s">
         <v>35</v>
       </c>
@@ -51532,7 +51532,7 @@
       <c r="BA47" s="57"/>
     </row>
     <row r="48" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="182">
+      <c r="A48" s="183">
         <v>12</v>
       </c>
       <c r="B48" s="22">
@@ -51698,7 +51698,7 @@
       <c r="BA48" s="19"/>
     </row>
     <row r="49" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="183"/>
+      <c r="A49" s="184"/>
       <c r="B49" s="32">
         <v>2</v>
       </c>
@@ -51858,7 +51858,7 @@
       <c r="BA49" s="44"/>
     </row>
     <row r="50" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="183"/>
+      <c r="A50" s="184"/>
       <c r="B50" s="32">
         <v>3</v>
       </c>
@@ -52018,7 +52018,7 @@
       <c r="BA50" s="40"/>
     </row>
     <row r="51" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="184"/>
+      <c r="A51" s="185"/>
       <c r="B51" s="48" t="s">
         <v>35</v>
       </c>
@@ -52189,7 +52189,7 @@
       <c r="BA51" s="57"/>
     </row>
     <row r="52" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="182">
+      <c r="A52" s="183">
         <v>13</v>
       </c>
       <c r="B52" s="22">
@@ -52355,7 +52355,7 @@
       <c r="BA52" s="19"/>
     </row>
     <row r="53" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="183"/>
+      <c r="A53" s="184"/>
       <c r="B53" s="32">
         <v>2</v>
       </c>
@@ -52515,7 +52515,7 @@
       <c r="BA53" s="44"/>
     </row>
     <row r="54" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="183"/>
+      <c r="A54" s="184"/>
       <c r="B54" s="32">
         <v>3</v>
       </c>
@@ -52673,7 +52673,7 @@
       <c r="BA54" s="40"/>
     </row>
     <row r="55" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="184"/>
+      <c r="A55" s="185"/>
       <c r="B55" s="48" t="s">
         <v>35</v>
       </c>
@@ -52844,7 +52844,7 @@
       <c r="BA55" s="57"/>
     </row>
     <row r="56" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="182">
+      <c r="A56" s="183">
         <v>14</v>
       </c>
       <c r="B56" s="22">
@@ -53010,7 +53010,7 @@
       <c r="BA56" s="19"/>
     </row>
     <row r="57" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="183"/>
+      <c r="A57" s="184"/>
       <c r="B57" s="32">
         <v>2</v>
       </c>
@@ -53170,7 +53170,7 @@
       <c r="BA57" s="44"/>
     </row>
     <row r="58" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="183"/>
+      <c r="A58" s="184"/>
       <c r="B58" s="32">
         <v>3</v>
       </c>
@@ -53330,7 +53330,7 @@
       <c r="BA58" s="40"/>
     </row>
     <row r="59" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="184"/>
+      <c r="A59" s="185"/>
       <c r="B59" s="48" t="s">
         <v>35</v>
       </c>
@@ -53501,7 +53501,7 @@
       <c r="BA59" s="57"/>
     </row>
     <row r="60" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="182">
+      <c r="A60" s="183">
         <v>15</v>
       </c>
       <c r="B60" s="22">
@@ -53667,7 +53667,7 @@
       <c r="BA60" s="19"/>
     </row>
     <row r="61" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="183"/>
+      <c r="A61" s="184"/>
       <c r="B61" s="32">
         <v>2</v>
       </c>
@@ -53827,7 +53827,7 @@
       <c r="BA61" s="44"/>
     </row>
     <row r="62" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="183"/>
+      <c r="A62" s="184"/>
       <c r="B62" s="32">
         <v>3</v>
       </c>
@@ -53987,7 +53987,7 @@
       <c r="BA62" s="40"/>
     </row>
     <row r="63" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="184"/>
+      <c r="A63" s="185"/>
       <c r="B63" s="48" t="s">
         <v>35</v>
       </c>
@@ -54158,7 +54158,7 @@
       <c r="BA63" s="57"/>
     </row>
     <row r="64" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="182">
+      <c r="A64" s="183">
         <v>16</v>
       </c>
       <c r="B64" s="22">
@@ -54320,7 +54320,7 @@
       <c r="BA64" s="19"/>
     </row>
     <row r="65" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="183"/>
+      <c r="A65" s="184"/>
       <c r="B65" s="32">
         <v>2</v>
       </c>
@@ -54480,7 +54480,7 @@
       <c r="BA65" s="44"/>
     </row>
     <row r="66" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="183"/>
+      <c r="A66" s="184"/>
       <c r="B66" s="32">
         <v>3</v>
       </c>
@@ -54640,7 +54640,7 @@
       <c r="BA66" s="40"/>
     </row>
     <row r="67" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="184"/>
+      <c r="A67" s="185"/>
       <c r="B67" s="48" t="s">
         <v>35</v>
       </c>
@@ -54811,7 +54811,7 @@
       <c r="BA67" s="57"/>
     </row>
     <row r="68" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="182">
+      <c r="A68" s="183">
         <v>17</v>
       </c>
       <c r="B68" s="22">
@@ -54973,7 +54973,7 @@
       <c r="BA68" s="19"/>
     </row>
     <row r="69" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="183"/>
+      <c r="A69" s="184"/>
       <c r="B69" s="32">
         <v>2</v>
       </c>
@@ -55133,7 +55133,7 @@
       <c r="BA69" s="44"/>
     </row>
     <row r="70" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="183"/>
+      <c r="A70" s="184"/>
       <c r="B70" s="32">
         <v>3</v>
       </c>
@@ -55293,7 +55293,7 @@
       <c r="BA70" s="40"/>
     </row>
     <row r="71" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="184"/>
+      <c r="A71" s="185"/>
       <c r="B71" s="48" t="s">
         <v>35</v>
       </c>
@@ -55464,7 +55464,7 @@
       <c r="BA71" s="57"/>
     </row>
     <row r="72" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="182">
+      <c r="A72" s="183">
         <v>18</v>
       </c>
       <c r="B72" s="22">
@@ -55528,15 +55528,19 @@
         <f t="shared" ref="T72:T74" si="718">M72*R72</f>
         <v>605.68999999999994</v>
       </c>
-      <c r="U72" s="25"/>
+      <c r="U72" s="25">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="V72" s="24">
         <f t="shared" ref="V72:V74" si="719">M72*U72</f>
-        <v>0</v>
-      </c>
-      <c r="W72" s="15"/>
+        <v>3912.43</v>
+      </c>
+      <c r="W72" s="15">
+        <v>0.48499999999999999</v>
+      </c>
       <c r="X72" s="24">
         <f t="shared" ref="X72:X74" si="720">M72*W72</f>
-        <v>0</v>
+        <v>7939.45</v>
       </c>
       <c r="Y72" s="15">
         <v>0.42</v>
@@ -55545,10 +55549,12 @@
         <f t="shared" ref="Z72:Z74" si="721">Y72*M72</f>
         <v>6875.4</v>
       </c>
-      <c r="AA72" s="145"/>
+      <c r="AA72" s="145">
+        <v>2.33E-3</v>
+      </c>
       <c r="AB72" s="18">
-        <f t="shared" ref="AB72" si="722">M72*AA72</f>
-        <v>0</v>
+        <f t="shared" ref="AB72:AB74" si="722">M72*AA72</f>
+        <v>38.142099999999999</v>
       </c>
       <c r="AC72" s="16">
         <v>2.48E-3</v>
@@ -55559,7 +55565,7 @@
       </c>
       <c r="AE72" s="26">
         <f>IF(M72&gt;0,(AG72+AP72)/M72,0)</f>
-        <v>3.1E-4</v>
+        <v>2.5134559804520468E-3</v>
       </c>
       <c r="AF72" s="16">
         <v>3.1E-4</v>
@@ -55581,7 +55587,7 @@
       </c>
       <c r="AK72" s="59">
         <f t="shared" si="682"/>
-        <v>0</v>
+        <v>0.87781593051769879</v>
       </c>
       <c r="AL72" s="11">
         <v>168</v>
@@ -55589,15 +55595,19 @@
       <c r="AM72" s="13">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="AN72" s="14"/>
-      <c r="AO72" s="130"/>
+      <c r="AN72" s="14">
+        <v>0.23619999999999999</v>
+      </c>
+      <c r="AO72" s="130">
+        <v>0.22789999999999999</v>
+      </c>
       <c r="AP72" s="29">
         <f>AL72*(1-AM72)*AN72</f>
-        <v>0</v>
+        <v>36.070574400000005</v>
       </c>
       <c r="AQ72" s="131">
         <f t="shared" ref="AQ72:AQ75" si="727">AL72*(1-AM72)*AO72</f>
-        <v>0</v>
+        <v>34.803064800000001</v>
       </c>
       <c r="AR72" s="18">
         <v>1.55</v>
@@ -55618,106 +55628,152 @@
       <c r="BA72" s="19"/>
     </row>
     <row r="73" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="183"/>
+      <c r="A73" s="184"/>
       <c r="B73" s="32">
         <v>2</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="33"/>
-      <c r="J73" s="122"/>
-      <c r="K73" s="33"/>
-      <c r="L73" s="35"/>
+      <c r="D73" s="33">
+        <v>21478</v>
+      </c>
+      <c r="E73" s="33">
+        <v>5</v>
+      </c>
+      <c r="F73" s="33">
+        <v>17543</v>
+      </c>
+      <c r="G73" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="H73" s="34">
+        <v>6.5</v>
+      </c>
+      <c r="I73" s="33">
+        <v>17200</v>
+      </c>
+      <c r="J73" s="122">
+        <v>3.5</v>
+      </c>
+      <c r="K73" s="33">
+        <v>17278</v>
+      </c>
+      <c r="L73" s="35">
+        <v>6.4000000000000001E-2</v>
+      </c>
       <c r="M73" s="36">
         <f>ROUND(K73*(1-L73),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N73" s="37"/>
+        <v>16172</v>
+      </c>
+      <c r="N73" s="37">
+        <v>0.72299999999999998</v>
+      </c>
       <c r="O73" s="24">
         <f t="shared" si="716"/>
-        <v>0</v>
-      </c>
-      <c r="P73" s="35"/>
+        <v>11692.356</v>
+      </c>
+      <c r="P73" s="35">
+        <v>0.247</v>
+      </c>
       <c r="Q73" s="24">
         <f t="shared" si="717"/>
-        <v>0</v>
-      </c>
-      <c r="R73" s="38"/>
-      <c r="S73" s="134"/>
+        <v>3994.4839999999999</v>
+      </c>
+      <c r="R73" s="38">
+        <v>0.03</v>
+      </c>
+      <c r="S73" s="134">
+        <v>0.23319999999999999</v>
+      </c>
       <c r="T73" s="24">
         <f t="shared" si="718"/>
-        <v>0</v>
-      </c>
-      <c r="U73" s="27"/>
+        <v>485.15999999999997</v>
+      </c>
+      <c r="U73" s="27">
+        <v>0.253</v>
+      </c>
       <c r="V73" s="24">
         <f t="shared" si="719"/>
-        <v>0</v>
-      </c>
-      <c r="W73" s="38"/>
+        <v>4091.5160000000001</v>
+      </c>
+      <c r="W73" s="38">
+        <v>0.47599999999999998</v>
+      </c>
       <c r="X73" s="24">
         <f t="shared" si="720"/>
-        <v>0</v>
-      </c>
-      <c r="Y73" s="38"/>
+        <v>7697.8719999999994</v>
+      </c>
+      <c r="Y73" s="38">
+        <v>0.42</v>
+      </c>
       <c r="Z73" s="24">
         <f t="shared" si="721"/>
-        <v>0</v>
+        <v>6792.24</v>
       </c>
       <c r="AA73" s="146"/>
       <c r="AB73" s="18">
-        <f t="shared" si="456"/>
+        <f t="shared" si="722"/>
         <v>0</v>
       </c>
-      <c r="AC73" s="39"/>
+      <c r="AC73" s="39">
+        <v>2.5899999999999999E-3</v>
+      </c>
       <c r="AD73" s="17">
         <f t="shared" si="723"/>
-        <v>0</v>
+        <v>41.885480000000001</v>
       </c>
       <c r="AE73" s="26">
         <f>IF(M73&gt;0,(AG73+AP73)/M73,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF73" s="39"/>
+        <v>2.7570446759831811E-3</v>
+      </c>
+      <c r="AF73" s="39">
+        <v>3.2000000000000003E-4</v>
+      </c>
       <c r="AG73" s="36">
         <f t="shared" si="724"/>
-        <v>0</v>
-      </c>
-      <c r="AH73" s="27"/>
+        <v>5.1750400000000001</v>
+      </c>
+      <c r="AH73" s="27">
+        <v>0.217</v>
+      </c>
       <c r="AI73" s="40">
         <f t="shared" si="725"/>
-        <v>0</v>
+        <v>37.526895000000003</v>
       </c>
       <c r="AJ73" s="27">
         <f t="shared" si="726"/>
-        <v>0</v>
+        <v>0.87774224288900315</v>
       </c>
       <c r="AK73" s="28">
         <f t="shared" si="682"/>
-        <v>0</v>
-      </c>
-      <c r="AL73" s="33"/>
-      <c r="AM73" s="35"/>
-      <c r="AN73" s="37"/>
+        <v>0.88517658898043228</v>
+      </c>
+      <c r="AL73" s="33">
+        <v>189</v>
+      </c>
+      <c r="AM73" s="35">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AN73" s="37">
+        <v>0.22789999999999999</v>
+      </c>
       <c r="AO73" s="132"/>
       <c r="AP73" s="40">
         <f>AL73*(1-AM73)*AN73</f>
-        <v>0</v>
+        <v>39.411886500000001</v>
       </c>
       <c r="AQ73" s="133">
         <f t="shared" si="727"/>
         <v>0</v>
       </c>
-      <c r="AR73" s="41"/>
+      <c r="AR73" s="41">
+        <v>1.55</v>
+      </c>
       <c r="AS73" s="41"/>
       <c r="AT73" s="117">
         <f>AT72+AL73-AS73</f>
-        <v>851.2</v>
+        <v>1040.2</v>
       </c>
       <c r="AU73" s="101"/>
       <c r="AV73" s="42"/>
@@ -55728,39 +55784,67 @@
       <c r="BA73" s="44"/>
     </row>
     <row r="74" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="183"/>
+      <c r="A74" s="184"/>
       <c r="B74" s="32">
         <v>3</v>
       </c>
-      <c r="C74" s="45"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="42"/>
-      <c r="L74" s="38"/>
+      <c r="C74" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" s="42">
+        <v>20593</v>
+      </c>
+      <c r="E74" s="42">
+        <v>1</v>
+      </c>
+      <c r="F74" s="42">
+        <v>19513</v>
+      </c>
+      <c r="G74" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="H74" s="36">
+        <v>6</v>
+      </c>
+      <c r="I74" s="42">
+        <v>18828</v>
+      </c>
+      <c r="J74" s="36">
+        <v>2.8</v>
+      </c>
+      <c r="K74" s="42">
+        <v>17164</v>
+      </c>
+      <c r="L74" s="38">
+        <v>6.3E-2</v>
+      </c>
       <c r="M74" s="36">
         <f>ROUND(K74*(1-L74),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N74" s="27"/>
+        <v>16083</v>
+      </c>
+      <c r="N74" s="27">
+        <v>0.70099999999999996</v>
+      </c>
       <c r="O74" s="24">
         <f t="shared" si="716"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="38"/>
+        <v>11274.182999999999</v>
+      </c>
+      <c r="P74" s="38">
+        <v>0.27700000000000002</v>
+      </c>
       <c r="Q74" s="24">
         <f t="shared" si="717"/>
-        <v>0</v>
-      </c>
-      <c r="R74" s="38"/>
-      <c r="S74" s="134"/>
+        <v>4454.991</v>
+      </c>
+      <c r="R74" s="38">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="S74" s="134">
+        <v>0.2447</v>
+      </c>
       <c r="T74" s="24">
         <f t="shared" si="718"/>
-        <v>0</v>
+        <v>353.82599999999996</v>
       </c>
       <c r="U74" s="27"/>
       <c r="V74" s="24">
@@ -55772,45 +55856,57 @@
         <f t="shared" si="720"/>
         <v>0</v>
       </c>
-      <c r="Y74" s="38"/>
+      <c r="Y74" s="38">
+        <v>0.42</v>
+      </c>
       <c r="Z74" s="24">
         <f t="shared" si="721"/>
-        <v>0</v>
+        <v>6754.86</v>
       </c>
       <c r="AA74" s="147"/>
       <c r="AB74" s="148">
-        <f t="shared" si="456"/>
+        <f t="shared" si="722"/>
         <v>0</v>
       </c>
-      <c r="AC74" s="46"/>
+      <c r="AC74" s="46">
+        <v>2.5899999999999999E-3</v>
+      </c>
       <c r="AD74" s="17">
         <f t="shared" si="723"/>
-        <v>0</v>
+        <v>41.654969999999999</v>
       </c>
       <c r="AE74" s="26">
         <f>IF(M74&gt;0,(AG74+AP74)/M74,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF74" s="46"/>
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="AF74" s="46">
+        <v>3.2000000000000003E-4</v>
+      </c>
       <c r="AG74" s="36">
         <f t="shared" si="724"/>
-        <v>0</v>
-      </c>
-      <c r="AH74" s="27"/>
+        <v>5.14656</v>
+      </c>
+      <c r="AH74" s="27">
+        <v>0.2225</v>
+      </c>
       <c r="AI74" s="40">
         <f t="shared" si="725"/>
-        <v>0</v>
+        <v>36.278179999999999</v>
       </c>
       <c r="AJ74" s="27">
         <f t="shared" si="726"/>
-        <v>0</v>
+        <v>0.87771020123167032</v>
       </c>
       <c r="AK74" s="28">
         <f t="shared" si="682"/>
         <v>0</v>
       </c>
-      <c r="AL74" s="42"/>
-      <c r="AM74" s="38"/>
+      <c r="AL74" s="42">
+        <v>178</v>
+      </c>
+      <c r="AM74" s="38">
+        <v>8.4000000000000005E-2</v>
+      </c>
       <c r="AN74" s="27"/>
       <c r="AO74" s="134"/>
       <c r="AP74" s="40">
@@ -55821,11 +55917,13 @@
         <f t="shared" si="727"/>
         <v>0</v>
       </c>
-      <c r="AR74" s="17"/>
+      <c r="AR74" s="17">
+        <v>1.55</v>
+      </c>
       <c r="AS74" s="17"/>
       <c r="AT74" s="117">
         <f>AT73+AL74-AS74</f>
-        <v>851.2</v>
+        <v>1218.2</v>
       </c>
       <c r="AU74" s="101"/>
       <c r="AV74" s="42"/>
@@ -55836,79 +55934,79 @@
       <c r="BA74" s="40"/>
     </row>
     <row r="75" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="184"/>
+      <c r="A75" s="185"/>
       <c r="B75" s="48" t="s">
         <v>35</v>
       </c>
       <c r="C75" s="49"/>
       <c r="D75" s="50">
         <f t="shared" ref="D75" si="728">SUM(D72:D74)</f>
-        <v>6400</v>
+        <v>48471</v>
       </c>
       <c r="E75" s="50"/>
       <c r="F75" s="50">
         <f t="shared" ref="F75" si="729">SUM(F72:F74)</f>
-        <v>15636</v>
+        <v>52692</v>
       </c>
       <c r="G75" s="51"/>
       <c r="H75" s="51"/>
       <c r="I75" s="50">
         <f t="shared" ref="I75:K75" si="730">SUM(I72:I74)</f>
-        <v>15068</v>
+        <v>51096</v>
       </c>
       <c r="J75" s="51"/>
       <c r="K75" s="50">
         <f t="shared" si="730"/>
-        <v>17359</v>
+        <v>51801</v>
       </c>
       <c r="L75" s="20">
         <f t="shared" ref="L75" si="731">IF(K75&gt;0,(K72*L72+K73*L73+K74*L74)/K75,0)</f>
-        <v>5.7000000000000002E-2</v>
+        <v>6.1322889519507352E-2</v>
       </c>
       <c r="M75" s="51">
         <f t="shared" ref="M75" si="732">M72+M73+M74</f>
-        <v>16370</v>
+        <v>48625</v>
       </c>
       <c r="N75" s="52">
         <f t="shared" ref="N75" si="733">IF(M75&gt;0,O75/M75,0)</f>
-        <v>0.66100000000000003</v>
+        <v>0.69485057069408729</v>
       </c>
       <c r="O75" s="53">
         <f t="shared" ref="O75" si="734">O72+O73+O74</f>
-        <v>10820.57</v>
+        <v>33787.108999999997</v>
       </c>
       <c r="P75" s="20">
         <f t="shared" ref="P75" si="735">IF(M75&gt;0,Q75/M75,0)</f>
-        <v>0.30199999999999999</v>
+        <v>0.27543886889460156</v>
       </c>
       <c r="Q75" s="53">
         <f t="shared" ref="Q75" si="736">Q72+Q73+Q74</f>
-        <v>4943.74</v>
+        <v>13393.215</v>
       </c>
       <c r="R75" s="20">
         <f t="shared" ref="R75" si="737">IF(M75&gt;0,T75/M75,0)</f>
-        <v>3.6999999999999998E-2</v>
+        <v>2.9710560411311052E-2</v>
       </c>
       <c r="S75" s="136"/>
       <c r="T75" s="53">
         <f t="shared" ref="T75" si="738">T72+T73+T74</f>
-        <v>605.68999999999994</v>
+        <v>1444.6759999999999</v>
       </c>
       <c r="U75" s="20">
         <f t="shared" ref="U75" si="739">IF(M75&gt;0,V75/M75,0)</f>
-        <v>0</v>
+        <v>0.16460557326478148</v>
       </c>
       <c r="V75" s="53">
         <f t="shared" ref="V75" si="740">V72+V73+V74</f>
-        <v>0</v>
+        <v>8003.9459999999999</v>
       </c>
       <c r="W75" s="20">
         <f t="shared" ref="W75" si="741">IF(M75&gt;0,X75/M75,0)</f>
-        <v>0</v>
+        <v>0.32159016966580978</v>
       </c>
       <c r="X75" s="53">
         <f t="shared" ref="X75" si="742">X72+X73+X74</f>
-        <v>0</v>
+        <v>15637.322</v>
       </c>
       <c r="Y75" s="20">
         <f t="shared" ref="Y75" si="743">IF(M75&gt;0,Z75/M75,0)</f>
@@ -55916,75 +56014,75 @@
       </c>
       <c r="Z75" s="53">
         <f t="shared" ref="Z75" si="744">Z72+Z73+Z74</f>
-        <v>6875.4</v>
+        <v>20422.5</v>
       </c>
       <c r="AA75" s="152">
         <f t="shared" ref="AA75" si="745">IF(M75&gt;0,AB75/M75,0)</f>
-        <v>0</v>
+        <v>7.8441336760925453E-4</v>
       </c>
       <c r="AB75" s="55">
         <f t="shared" ref="AB75" si="746">SUM(AB72:AB74)</f>
-        <v>0</v>
+        <v>38.142099999999999</v>
       </c>
       <c r="AC75" s="54">
         <f t="shared" ref="AC75" si="747">IF(M75&gt;0,AD75/M75,0)</f>
-        <v>2.48E-3</v>
+        <v>2.5529676092544986E-3</v>
       </c>
       <c r="AD75" s="55">
         <f t="shared" ref="AD75" si="748">SUM(AD72:AD74)</f>
-        <v>40.5976</v>
+        <v>124.13804999999999</v>
       </c>
       <c r="AE75" s="54">
         <f t="shared" ref="AE75" si="749">IF(M75&gt;0,(AE72*M72+AE73*M73+AE74*M74)/M75,0)</f>
-        <v>3.1E-4</v>
+        <v>1.8689719465295631E-3</v>
       </c>
       <c r="AF75" s="54">
         <f t="shared" ref="AF75" si="750">IF(K75&gt;0,(K72*AF72+K73*AF73+K74*AF74)/K75,0)</f>
-        <v>3.1E-4</v>
+        <v>3.1664890639176855E-4</v>
       </c>
       <c r="AG75" s="51">
         <f t="shared" ref="AG75" si="751">SUM(AG72:AG74)</f>
-        <v>5.0747</v>
+        <v>15.3963</v>
       </c>
       <c r="AH75" s="52">
         <f t="shared" ref="AH75" si="752">IF(K75&gt;0,(K72*AH72+K73*AH73+K74*AH74)/K75,0)</f>
-        <v>0.22009999999999999</v>
+        <v>0.21986123626957008</v>
       </c>
       <c r="AI75" s="57">
         <f t="shared" ref="AI75" si="753">SUM(AI72:AI74)</f>
-        <v>33.611911200000002</v>
+        <v>107.4169862</v>
       </c>
       <c r="AJ75" s="52">
         <f t="shared" ref="AJ75" si="754">IF(AND(AD75&gt;0),((AD72*AJ72+AD73*AJ73+AD74*AJ74)/AD75),0)</f>
-        <v>0.87623413258110028</v>
+        <v>0.87723828497029044</v>
       </c>
       <c r="AK75" s="56">
         <f t="shared" si="682"/>
-        <v>0</v>
+        <v>0.83227430151470538</v>
       </c>
       <c r="AL75" s="50">
         <f t="shared" ref="AL75" si="755">SUM(AL72:AL74)</f>
-        <v>168</v>
+        <v>535</v>
       </c>
       <c r="AM75" s="20">
         <f t="shared" ref="AM75" si="756">IF(AL75&gt;0,(AM72*AL72+AM73*AL73+AM74*AL74)/AL75,0)</f>
-        <v>9.0999999999999998E-2</v>
+        <v>8.6551401869158898E-2</v>
       </c>
       <c r="AN75" s="52">
         <f>IF(K75&gt;0,(AN72*K72+AN73*K73+AN74*K74)/K75,0)</f>
-        <v>0</v>
+        <v>0.15516789251172755</v>
       </c>
       <c r="AO75" s="136">
         <f>IF(L75&gt;0,(AO72*K72+AO73*K73+AO74*K74)/K75,0)</f>
-        <v>0</v>
+        <v>7.6371423331595911E-2</v>
       </c>
       <c r="AP75" s="57">
         <f t="shared" ref="AP75" si="757">SUM(AP72:AP74)</f>
-        <v>0</v>
+        <v>75.482460900000007</v>
       </c>
       <c r="AQ75" s="137">
         <f t="shared" ref="AQ75" si="758">SUM(AQ72:AQ74)</f>
-        <v>0</v>
+        <v>34.803064800000001</v>
       </c>
       <c r="AR75" s="55"/>
       <c r="AS75" s="55">
@@ -55994,7 +56092,7 @@
       <c r="AT75" s="102"/>
       <c r="AU75" s="103">
         <f>AT74</f>
-        <v>851.2</v>
+        <v>1218.2</v>
       </c>
       <c r="AV75" s="50">
         <f t="shared" ref="AV75" si="760">SUM(AV72:AV74)</f>
@@ -56069,34 +56167,39 @@
     <protectedRange sqref="AG44:AG47" name="Range1_1_1_1_1_18_1_1_3"/>
     <protectedRange sqref="AE44:AE46" name="Range1_1_1_1_1_2_1_10_1_1_1"/>
     <protectedRange sqref="AB44:AB47" name="Range1_1_1_1_1_2_2_1_1_1_3"/>
-    <protectedRange sqref="AP48:AQ75 AK48:AK75 M48:M75" name="Range1_1_1_1_1_1_1_1_1_4"/>
-    <protectedRange sqref="AH51:AJ51 AH55:AJ55 AH59:AJ59 AH63:AJ63 AH67:AJ67 AH71:AJ71 AH75:AJ75 AH48:AI50 AH52:AI54 AH56:AI58 AH60:AI62 AH64:AI66 AH68:AI70 AH72:AI74" name="Range1_1_1_1_1_1_1_4"/>
-    <protectedRange sqref="AJ48:AJ50 AJ52:AJ54 AJ56:AJ58 AJ60:AJ62 AJ64:AJ66 AJ68:AJ70 AJ72:AJ74" name="Range1_1_1_1_4"/>
-    <protectedRange sqref="AD51:AE51 AD48:AD50 AD55:AE55 AD52:AD54 AD59:AE59 AD56:AD58 AD63:AE63 AD60:AD62 AD67:AE67 AD64:AD66 AD71:AE71 AD68:AD70 AD75:AE75 AD72:AD74" name="Range1_1_1_1_1_2_2_1_4"/>
-    <protectedRange sqref="O48:O75" name="Range1_1_1_1_1_5_1_1_4"/>
-    <protectedRange sqref="Q48:Q75" name="Range1_1_1_1_1_7_1_1_4"/>
-    <protectedRange sqref="T48:T75" name="Range1_1_1_1_1_8_1_1_4"/>
-    <protectedRange sqref="V48:V75" name="Range1_1_1_1_1_10_1_1_4"/>
-    <protectedRange sqref="X48:X75" name="Range1_1_1_1_1_12_1_1_4"/>
-    <protectedRange sqref="Z48:Z75" name="Range1_1_1_1_1_16_1_1_4"/>
-    <protectedRange sqref="AG48:AG75" name="Range1_1_1_1_1_18_1_1_4"/>
+    <protectedRange sqref="AP48:AQ71 AK48:AK71 M48:M71" name="Range1_1_1_1_1_1_1_1_1_4"/>
+    <protectedRange sqref="AH51:AJ51 AH55:AJ55 AH59:AJ59 AH63:AJ63 AH67:AJ67 AH71:AJ71 AH48:AI50 AH52:AI54 AH56:AI58 AH60:AI62 AH64:AI66 AH68:AI70" name="Range1_1_1_1_1_1_1_4"/>
+    <protectedRange sqref="AJ48:AJ50 AJ52:AJ54 AJ56:AJ58 AJ60:AJ62 AJ64:AJ66 AJ68:AJ70" name="Range1_1_1_1_4"/>
+    <protectedRange sqref="AD51:AE51 AD48:AD50 AD55:AE55 AD52:AD54 AD59:AE59 AD56:AD58 AD63:AE63 AD60:AD62 AD67:AE67 AD64:AD66 AD71:AE71 AD68:AD70" name="Range1_1_1_1_1_2_2_1_4"/>
+    <protectedRange sqref="O48:O71" name="Range1_1_1_1_1_5_1_1_4"/>
+    <protectedRange sqref="Q48:Q71" name="Range1_1_1_1_1_7_1_1_4"/>
+    <protectedRange sqref="T48:T71" name="Range1_1_1_1_1_8_1_1_4"/>
+    <protectedRange sqref="V48:V71" name="Range1_1_1_1_1_10_1_1_4"/>
+    <protectedRange sqref="X48:X71" name="Range1_1_1_1_1_12_1_1_4"/>
+    <protectedRange sqref="Z48:Z71" name="Range1_1_1_1_1_16_1_1_4"/>
+    <protectedRange sqref="AG48:AG71" name="Range1_1_1_1_1_18_1_1_4"/>
     <protectedRange sqref="AE48:AE50" name="Range1_1_1_1_1_2_1_11_1_1_1"/>
     <protectedRange sqref="AE52:AE54" name="Range1_1_1_1_1_2_1_12_1_1_1"/>
     <protectedRange sqref="AE56:AE58" name="Range1_1_1_1_1_2_1_13_1_1_1"/>
     <protectedRange sqref="AE60:AE62" name="Range1_1_1_1_1_2_1_14_1_1_1"/>
     <protectedRange sqref="AE64:AE66" name="Range1_1_1_1_1_2_1_15_1_1_1"/>
     <protectedRange sqref="AE68:AE70" name="Range1_1_1_1_1_2_1_16_1_1_1"/>
-    <protectedRange sqref="AE72:AE74" name="Range1_1_1_1_1_2_1_17_1_1_1"/>
-    <protectedRange sqref="AB48:AB75" name="Range1_1_1_1_1_2_2_1_1_1_4"/>
+    <protectedRange sqref="AB48:AB71" name="Range1_1_1_1_1_2_2_1_1_1_4"/>
+    <protectedRange sqref="AP72:AQ75 AK72:AK75 M72:M75" name="Range1_1_1_1_1_1_1_1_1_5"/>
+    <protectedRange sqref="AH75:AJ75 AH72:AI74" name="Range1_1_1_1_1_1_1_5"/>
+    <protectedRange sqref="AJ72:AJ74" name="Range1_1_1_1_5"/>
+    <protectedRange sqref="AD75:AE75 AD72:AD74" name="Range1_1_1_1_1_2_2_1_5"/>
+    <protectedRange sqref="O72:O75" name="Range1_1_1_1_1_5_1_1_5"/>
+    <protectedRange sqref="Q72:Q75" name="Range1_1_1_1_1_7_1_1_5"/>
+    <protectedRange sqref="T72:T75" name="Range1_1_1_1_1_8_1_1_5"/>
+    <protectedRange sqref="V72:V75" name="Range1_1_1_1_1_10_1_1_5"/>
+    <protectedRange sqref="X72:X75" name="Range1_1_1_1_1_12_1_1_5"/>
+    <protectedRange sqref="Z72:Z75" name="Range1_1_1_1_1_16_1_1_5"/>
+    <protectedRange sqref="AG72:AG75" name="Range1_1_1_1_1_18_1_1_5"/>
+    <protectedRange sqref="AE72:AE74" name="Range1_1_1_1_1_2_1_17_1_1_1_1"/>
+    <protectedRange sqref="AB72:AB75" name="Range1_1_1_1_1_2_2_1_1_1_5"/>
   </protectedRanges>
   <mergeCells count="23">
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A64:A67"/>
     <mergeCell ref="A44:A47"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="AZ1:BA1"/>
@@ -56113,6 +56216,13 @@
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/dispatchers_rep/Doklad_Dispecheri_2025!.xlsx
+++ b/dispatchers_rep/Doklad_Dispecheri_2025!.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AB2ACC-FE8B-4BE4-9D89-E63205EB6759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918F1921-2B6A-43BA-A7C2-3A861E46D79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -819,12 +819,90 @@
         </r>
       </text>
     </comment>
+    <comment ref="AU76" authorId="0" shapeId="0" xr:uid="{8C33EB23-F9AC-4DA1-B116-6651B154FCE6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+корекция на концентрат
+след замер на 
+автомобилна везна</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU80" authorId="0" shapeId="0" xr:uid="{5E59FA8C-86D1-4BDF-A51C-00D437628388}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+корекция на концентрат
+след замер на 
+автомобилна везна</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU84" authorId="0" shapeId="0" xr:uid="{37A7F0B6-8E2F-4FF5-9B53-6D7A509824B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+корекция на концентрат
+след замер на 
+автомобилна везна</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="70">
   <si>
     <t xml:space="preserve">Подадена руда
  от МГТЛ 
@@ -1901,9 +1979,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1911,9 +1986,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1933,6 +2005,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2352,13 +2430,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="185" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -2487,19 +2565,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="182" t="s">
+      <c r="AX1" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="182"/>
-      <c r="AZ1" s="182" t="s">
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="182"/>
+      <c r="BA1" s="191"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="192"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="188"/>
+      <c r="A2" s="190"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="186"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -2690,7 +2768,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183">
+      <c r="A4" s="182">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -2852,7 +2930,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" s="184"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -3012,7 +3090,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="184"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -3172,7 +3250,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="184"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -3343,7 +3421,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="183">
+      <c r="A8" s="182">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -3507,7 +3585,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" s="184"/>
+      <c r="A9" s="183"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -3667,7 +3745,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" s="184"/>
+      <c r="A10" s="183"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -3827,7 +3905,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="184"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -3998,7 +4076,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="183">
+      <c r="A12" s="182">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -4162,7 +4240,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" s="184"/>
+      <c r="A13" s="183"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -4322,7 +4400,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14" s="184"/>
+      <c r="A14" s="183"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -4482,7 +4560,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="184"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -4653,7 +4731,7 @@
       <c r="BA15" s="57"/>
     </row>
     <row r="16" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="183">
+      <c r="A16" s="182">
         <v>4</v>
       </c>
       <c r="B16" s="22">
@@ -4817,7 +4895,7 @@
       <c r="BA16" s="19"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A17" s="184"/>
+      <c r="A17" s="183"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -4977,7 +5055,7 @@
       <c r="BA17" s="44"/>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18" s="184"/>
+      <c r="A18" s="183"/>
       <c r="B18" s="32">
         <v>3</v>
       </c>
@@ -5137,7 +5215,7 @@
       <c r="BA18" s="40"/>
     </row>
     <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+      <c r="A19" s="184"/>
       <c r="B19" s="48" t="s">
         <v>35</v>
       </c>
@@ -5308,7 +5386,7 @@
       <c r="BA19" s="57"/>
     </row>
     <row r="20" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="183">
+      <c r="A20" s="182">
         <v>5</v>
       </c>
       <c r="B20" s="22">
@@ -5472,7 +5550,7 @@
       <c r="BA20" s="19"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" s="184"/>
+      <c r="A21" s="183"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
@@ -5632,7 +5710,7 @@
       <c r="BA21" s="44"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22" s="184"/>
+      <c r="A22" s="183"/>
       <c r="B22" s="32">
         <v>3</v>
       </c>
@@ -5792,7 +5870,7 @@
       <c r="BA22" s="40"/>
     </row>
     <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="185"/>
+      <c r="A23" s="184"/>
       <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
@@ -5963,7 +6041,7 @@
       <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="183">
+      <c r="A24" s="182">
         <v>6</v>
       </c>
       <c r="B24" s="22">
@@ -6129,7 +6207,7 @@
       <c r="BA24" s="19"/>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A25" s="184"/>
+      <c r="A25" s="183"/>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -6289,7 +6367,7 @@
       <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A26" s="184"/>
+      <c r="A26" s="183"/>
       <c r="B26" s="32">
         <v>3</v>
       </c>
@@ -6449,7 +6527,7 @@
       <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
+      <c r="A27" s="184"/>
       <c r="B27" s="48" t="s">
         <v>35</v>
       </c>
@@ -6620,7 +6698,7 @@
       <c r="BA27" s="57"/>
     </row>
     <row r="28" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="183">
+      <c r="A28" s="182">
         <v>7</v>
       </c>
       <c r="B28" s="22">
@@ -6782,7 +6860,7 @@
       <c r="BA28" s="19"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A29" s="184"/>
+      <c r="A29" s="183"/>
       <c r="B29" s="32">
         <v>2</v>
       </c>
@@ -6942,7 +7020,7 @@
       <c r="BA29" s="44"/>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A30" s="184"/>
+      <c r="A30" s="183"/>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -7102,7 +7180,7 @@
       <c r="BA30" s="40"/>
     </row>
     <row r="31" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185"/>
+      <c r="A31" s="184"/>
       <c r="B31" s="48" t="s">
         <v>35</v>
       </c>
@@ -7273,7 +7351,7 @@
       <c r="BA31" s="57"/>
     </row>
     <row r="32" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="183">
+      <c r="A32" s="182">
         <v>8</v>
       </c>
       <c r="B32" s="22">
@@ -7435,7 +7513,7 @@
       <c r="BA32" s="19"/>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A33" s="184"/>
+      <c r="A33" s="183"/>
       <c r="B33" s="32">
         <v>2</v>
       </c>
@@ -7595,7 +7673,7 @@
       <c r="BA33" s="44"/>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A34" s="184"/>
+      <c r="A34" s="183"/>
       <c r="B34" s="32">
         <v>3</v>
       </c>
@@ -7755,7 +7833,7 @@
       <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="185"/>
+      <c r="A35" s="184"/>
       <c r="B35" s="48" t="s">
         <v>35</v>
       </c>
@@ -7926,7 +8004,7 @@
       <c r="BA35" s="57"/>
     </row>
     <row r="36" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="183">
+      <c r="A36" s="182">
         <v>9</v>
       </c>
       <c r="B36" s="22">
@@ -8090,7 +8168,7 @@
       <c r="BA36" s="19"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A37" s="184"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="32">
         <v>2</v>
       </c>
@@ -8250,7 +8328,7 @@
       <c r="BA37" s="44"/>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A38" s="184"/>
+      <c r="A38" s="183"/>
       <c r="B38" s="32">
         <v>3</v>
       </c>
@@ -8410,7 +8488,7 @@
       <c r="BA38" s="40"/>
     </row>
     <row r="39" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="185"/>
+      <c r="A39" s="184"/>
       <c r="B39" s="48" t="s">
         <v>35</v>
       </c>
@@ -8581,7 +8659,7 @@
       <c r="BA39" s="57"/>
     </row>
     <row r="40" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="183">
+      <c r="A40" s="182">
         <v>10</v>
       </c>
       <c r="B40" s="22">
@@ -8745,7 +8823,7 @@
       <c r="BA40" s="19"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A41" s="184"/>
+      <c r="A41" s="183"/>
       <c r="B41" s="32">
         <v>2</v>
       </c>
@@ -8905,7 +8983,7 @@
       <c r="BA41" s="44"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A42" s="184"/>
+      <c r="A42" s="183"/>
       <c r="B42" s="32">
         <v>3</v>
       </c>
@@ -9065,7 +9143,7 @@
       <c r="BA42" s="40"/>
     </row>
     <row r="43" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="185"/>
+      <c r="A43" s="184"/>
       <c r="B43" s="48" t="s">
         <v>35</v>
       </c>
@@ -9236,7 +9314,7 @@
       <c r="BA43" s="57"/>
     </row>
     <row r="44" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="183">
+      <c r="A44" s="182">
         <v>11</v>
       </c>
       <c r="B44" s="22">
@@ -9400,7 +9478,7 @@
       <c r="BA44" s="19"/>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A45" s="184"/>
+      <c r="A45" s="183"/>
       <c r="B45" s="32">
         <v>2</v>
       </c>
@@ -9560,7 +9638,7 @@
       <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A46" s="184"/>
+      <c r="A46" s="183"/>
       <c r="B46" s="32">
         <v>3</v>
       </c>
@@ -9720,7 +9798,7 @@
       <c r="BA46" s="40"/>
     </row>
     <row r="47" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="185"/>
+      <c r="A47" s="184"/>
       <c r="B47" s="48" t="s">
         <v>35</v>
       </c>
@@ -9891,7 +9969,7 @@
       <c r="BA47" s="57"/>
     </row>
     <row r="48" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="183">
+      <c r="A48" s="182">
         <v>12</v>
       </c>
       <c r="B48" s="22">
@@ -10057,7 +10135,7 @@
       <c r="BA48" s="19"/>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A49" s="184"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="32">
         <v>2</v>
       </c>
@@ -10217,7 +10295,7 @@
       <c r="BA49" s="44"/>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A50" s="184"/>
+      <c r="A50" s="183"/>
       <c r="B50" s="32">
         <v>3</v>
       </c>
@@ -10377,7 +10455,7 @@
       <c r="BA50" s="40"/>
     </row>
     <row r="51" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="185"/>
+      <c r="A51" s="184"/>
       <c r="B51" s="48" t="s">
         <v>35</v>
       </c>
@@ -10548,7 +10626,7 @@
       <c r="BA51" s="57"/>
     </row>
     <row r="52" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="183">
+      <c r="A52" s="182">
         <v>13</v>
       </c>
       <c r="B52" s="22">
@@ -10712,7 +10790,7 @@
       <c r="BA52" s="19"/>
     </row>
     <row r="53" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A53" s="184"/>
+      <c r="A53" s="183"/>
       <c r="B53" s="32">
         <v>2</v>
       </c>
@@ -10872,7 +10950,7 @@
       <c r="BA53" s="44"/>
     </row>
     <row r="54" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A54" s="184"/>
+      <c r="A54" s="183"/>
       <c r="B54" s="32">
         <v>3</v>
       </c>
@@ -11032,7 +11110,7 @@
       <c r="BA54" s="40"/>
     </row>
     <row r="55" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="185"/>
+      <c r="A55" s="184"/>
       <c r="B55" s="48" t="s">
         <v>35</v>
       </c>
@@ -11203,7 +11281,7 @@
       <c r="BA55" s="57"/>
     </row>
     <row r="56" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="183">
+      <c r="A56" s="182">
         <v>14</v>
       </c>
       <c r="B56" s="22">
@@ -11365,7 +11443,7 @@
       <c r="BA56" s="19"/>
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A57" s="184"/>
+      <c r="A57" s="183"/>
       <c r="B57" s="32">
         <v>2</v>
       </c>
@@ -11525,7 +11603,7 @@
       <c r="BA57" s="44"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A58" s="184"/>
+      <c r="A58" s="183"/>
       <c r="B58" s="32">
         <v>3</v>
       </c>
@@ -11685,7 +11763,7 @@
       <c r="BA58" s="40"/>
     </row>
     <row r="59" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="185"/>
+      <c r="A59" s="184"/>
       <c r="B59" s="48" t="s">
         <v>35</v>
       </c>
@@ -11856,7 +11934,7 @@
       <c r="BA59" s="57"/>
     </row>
     <row r="60" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="183">
+      <c r="A60" s="182">
         <v>15</v>
       </c>
       <c r="B60" s="22">
@@ -12018,7 +12096,7 @@
       <c r="BA60" s="19"/>
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A61" s="184"/>
+      <c r="A61" s="183"/>
       <c r="B61" s="32">
         <v>2</v>
       </c>
@@ -12178,7 +12256,7 @@
       <c r="BA61" s="44"/>
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A62" s="184"/>
+      <c r="A62" s="183"/>
       <c r="B62" s="32">
         <v>3</v>
       </c>
@@ -12338,7 +12416,7 @@
       <c r="BA62" s="40"/>
     </row>
     <row r="63" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="185"/>
+      <c r="A63" s="184"/>
       <c r="B63" s="48" t="s">
         <v>35</v>
       </c>
@@ -12509,7 +12587,7 @@
       <c r="BA63" s="57"/>
     </row>
     <row r="64" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="183">
+      <c r="A64" s="182">
         <v>16</v>
       </c>
       <c r="B64" s="22">
@@ -12673,7 +12751,7 @@
       <c r="BA64" s="19"/>
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A65" s="184"/>
+      <c r="A65" s="183"/>
       <c r="B65" s="32">
         <v>2</v>
       </c>
@@ -12833,7 +12911,7 @@
       <c r="BA65" s="44"/>
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A66" s="184"/>
+      <c r="A66" s="183"/>
       <c r="B66" s="32">
         <v>3</v>
       </c>
@@ -12993,7 +13071,7 @@
       <c r="BA66" s="40"/>
     </row>
     <row r="67" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="185"/>
+      <c r="A67" s="184"/>
       <c r="B67" s="48" t="s">
         <v>35</v>
       </c>
@@ -13164,7 +13242,7 @@
       <c r="BA67" s="57"/>
     </row>
     <row r="68" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="183">
+      <c r="A68" s="182">
         <v>17</v>
       </c>
       <c r="B68" s="22">
@@ -13328,7 +13406,7 @@
       <c r="BA68" s="19"/>
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A69" s="184"/>
+      <c r="A69" s="183"/>
       <c r="B69" s="32">
         <v>2</v>
       </c>
@@ -13488,7 +13566,7 @@
       <c r="BA69" s="44"/>
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A70" s="184"/>
+      <c r="A70" s="183"/>
       <c r="B70" s="32">
         <v>3</v>
       </c>
@@ -13648,7 +13726,7 @@
       <c r="BA70" s="40"/>
     </row>
     <row r="71" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="185"/>
+      <c r="A71" s="184"/>
       <c r="B71" s="48" t="s">
         <v>35</v>
       </c>
@@ -13819,7 +13897,7 @@
       <c r="BA71" s="57"/>
     </row>
     <row r="72" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="183">
+      <c r="A72" s="182">
         <v>18</v>
       </c>
       <c r="B72" s="22">
@@ -13985,7 +14063,7 @@
       <c r="BA72" s="19"/>
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A73" s="184"/>
+      <c r="A73" s="183"/>
       <c r="B73" s="32">
         <v>2</v>
       </c>
@@ -14145,7 +14223,7 @@
       <c r="BA73" s="44"/>
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A74" s="184"/>
+      <c r="A74" s="183"/>
       <c r="B74" s="32">
         <v>3</v>
       </c>
@@ -14305,7 +14383,7 @@
       <c r="BA74" s="40"/>
     </row>
     <row r="75" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="185"/>
+      <c r="A75" s="184"/>
       <c r="B75" s="48" t="s">
         <v>35</v>
       </c>
@@ -14476,7 +14554,7 @@
       <c r="BA75" s="57"/>
     </row>
     <row r="76" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="183">
+      <c r="A76" s="182">
         <v>19</v>
       </c>
       <c r="B76" s="22">
@@ -14640,7 +14718,7 @@
       <c r="BA76" s="175"/>
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A77" s="184"/>
+      <c r="A77" s="183"/>
       <c r="B77" s="32">
         <v>2</v>
       </c>
@@ -14800,7 +14878,7 @@
       <c r="BA77" s="176"/>
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A78" s="184"/>
+      <c r="A78" s="183"/>
       <c r="B78" s="32">
         <v>3</v>
       </c>
@@ -14960,7 +15038,7 @@
       <c r="BA78" s="177"/>
     </row>
     <row r="79" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="185"/>
+      <c r="A79" s="184"/>
       <c r="B79" s="48" t="s">
         <v>35</v>
       </c>
@@ -15131,7 +15209,7 @@
       <c r="BA79" s="179"/>
     </row>
     <row r="80" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="184">
+      <c r="A80" s="183">
         <v>20</v>
       </c>
       <c r="B80" s="32">
@@ -15297,7 +15375,7 @@
       <c r="BA80" s="168"/>
     </row>
     <row r="81" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A81" s="184"/>
+      <c r="A81" s="183"/>
       <c r="B81" s="32">
         <v>2</v>
       </c>
@@ -15457,7 +15535,7 @@
       <c r="BA81" s="44"/>
     </row>
     <row r="82" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A82" s="184"/>
+      <c r="A82" s="183"/>
       <c r="B82" s="32">
         <v>3</v>
       </c>
@@ -15617,7 +15695,7 @@
       <c r="BA82" s="40"/>
     </row>
     <row r="83" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="185"/>
+      <c r="A83" s="184"/>
       <c r="B83" s="48" t="s">
         <v>35</v>
       </c>
@@ -15788,7 +15866,7 @@
       <c r="BA83" s="57"/>
     </row>
     <row r="84" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="183">
+      <c r="A84" s="182">
         <v>21</v>
       </c>
       <c r="B84" s="22">
@@ -15950,7 +16028,7 @@
       <c r="BA84" s="19"/>
     </row>
     <row r="85" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A85" s="184"/>
+      <c r="A85" s="183"/>
       <c r="B85" s="32">
         <v>2</v>
       </c>
@@ -16110,7 +16188,7 @@
       <c r="BA85" s="44"/>
     </row>
     <row r="86" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A86" s="184"/>
+      <c r="A86" s="183"/>
       <c r="B86" s="32">
         <v>3</v>
       </c>
@@ -16270,7 +16348,7 @@
       <c r="BA86" s="40"/>
     </row>
     <row r="87" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="185"/>
+      <c r="A87" s="184"/>
       <c r="B87" s="48" t="s">
         <v>35</v>
       </c>
@@ -16441,7 +16519,7 @@
       <c r="BA87" s="57"/>
     </row>
     <row r="88" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="183">
+      <c r="A88" s="182">
         <v>22</v>
       </c>
       <c r="B88" s="22">
@@ -16603,7 +16681,7 @@
       <c r="BA88" s="19"/>
     </row>
     <row r="89" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A89" s="184"/>
+      <c r="A89" s="183"/>
       <c r="B89" s="32">
         <v>2</v>
       </c>
@@ -16763,7 +16841,7 @@
       <c r="BA89" s="44"/>
     </row>
     <row r="90" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A90" s="184"/>
+      <c r="A90" s="183"/>
       <c r="B90" s="32">
         <v>3</v>
       </c>
@@ -16923,7 +17001,7 @@
       <c r="BA90" s="40"/>
     </row>
     <row r="91" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="185"/>
+      <c r="A91" s="184"/>
       <c r="B91" s="48" t="s">
         <v>35</v>
       </c>
@@ -17094,7 +17172,7 @@
       <c r="BA91" s="57"/>
     </row>
     <row r="92" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="183">
+      <c r="A92" s="182">
         <v>23</v>
       </c>
       <c r="B92" s="22">
@@ -17258,7 +17336,7 @@
       <c r="BA92" s="19"/>
     </row>
     <row r="93" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A93" s="184"/>
+      <c r="A93" s="183"/>
       <c r="B93" s="32">
         <v>2</v>
       </c>
@@ -17418,7 +17496,7 @@
       <c r="BA93" s="44"/>
     </row>
     <row r="94" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A94" s="184"/>
+      <c r="A94" s="183"/>
       <c r="B94" s="32">
         <v>3</v>
       </c>
@@ -17578,7 +17656,7 @@
       <c r="BA94" s="40"/>
     </row>
     <row r="95" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="185"/>
+      <c r="A95" s="184"/>
       <c r="B95" s="48" t="s">
         <v>35</v>
       </c>
@@ -17749,7 +17827,7 @@
       <c r="BA95" s="57"/>
     </row>
     <row r="96" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="183">
+      <c r="A96" s="182">
         <v>24</v>
       </c>
       <c r="B96" s="22">
@@ -17915,7 +17993,7 @@
       <c r="BA96" s="19"/>
     </row>
     <row r="97" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A97" s="184"/>
+      <c r="A97" s="183"/>
       <c r="B97" s="32">
         <v>2</v>
       </c>
@@ -18075,7 +18153,7 @@
       <c r="BA97" s="44"/>
     </row>
     <row r="98" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A98" s="184"/>
+      <c r="A98" s="183"/>
       <c r="B98" s="32">
         <v>3</v>
       </c>
@@ -18235,7 +18313,7 @@
       <c r="BA98" s="40"/>
     </row>
     <row r="99" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="185"/>
+      <c r="A99" s="184"/>
       <c r="B99" s="48" t="s">
         <v>35</v>
       </c>
@@ -18403,7 +18481,7 @@
       <c r="BA99" s="57"/>
     </row>
     <row r="100" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="186">
+      <c r="A100" s="192">
         <v>25</v>
       </c>
       <c r="B100" s="32">
@@ -18569,7 +18647,7 @@
       <c r="BA100" s="19"/>
     </row>
     <row r="101" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A101" s="186"/>
+      <c r="A101" s="192"/>
       <c r="B101" s="32">
         <v>2</v>
       </c>
@@ -18729,7 +18807,7 @@
       <c r="BA101" s="44"/>
     </row>
     <row r="102" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A102" s="186"/>
+      <c r="A102" s="192"/>
       <c r="B102" s="32">
         <v>3</v>
       </c>
@@ -18889,7 +18967,7 @@
       <c r="BA102" s="40"/>
     </row>
     <row r="103" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="186"/>
+      <c r="A103" s="192"/>
       <c r="B103" s="65" t="s">
         <v>35</v>
       </c>
@@ -19060,7 +19138,7 @@
       <c r="BA103" s="57"/>
     </row>
     <row r="104" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="183">
+      <c r="A104" s="182">
         <v>26</v>
       </c>
       <c r="B104" s="22">
@@ -19226,7 +19304,7 @@
       <c r="BA104" s="19"/>
     </row>
     <row r="105" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A105" s="184"/>
+      <c r="A105" s="183"/>
       <c r="B105" s="32">
         <v>2</v>
       </c>
@@ -19386,7 +19464,7 @@
       <c r="BA105" s="44"/>
     </row>
     <row r="106" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A106" s="184"/>
+      <c r="A106" s="183"/>
       <c r="B106" s="32">
         <v>3</v>
       </c>
@@ -19546,7 +19624,7 @@
       <c r="BA106" s="40"/>
     </row>
     <row r="107" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="185"/>
+      <c r="A107" s="184"/>
       <c r="B107" s="48" t="s">
         <v>35</v>
       </c>
@@ -19717,7 +19795,7 @@
       <c r="BA107" s="57"/>
     </row>
     <row r="108" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="183">
+      <c r="A108" s="182">
         <v>27</v>
       </c>
       <c r="B108" s="22">
@@ -19883,7 +19961,7 @@
       <c r="BA108" s="19"/>
     </row>
     <row r="109" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A109" s="184"/>
+      <c r="A109" s="183"/>
       <c r="B109" s="32">
         <v>2</v>
       </c>
@@ -20043,7 +20121,7 @@
       <c r="BA109" s="44"/>
     </row>
     <row r="110" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A110" s="184"/>
+      <c r="A110" s="183"/>
       <c r="B110" s="32">
         <v>3</v>
       </c>
@@ -20203,7 +20281,7 @@
       <c r="BA110" s="40"/>
     </row>
     <row r="111" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="185"/>
+      <c r="A111" s="184"/>
       <c r="B111" s="48" t="s">
         <v>35</v>
       </c>
@@ -20374,7 +20452,7 @@
       <c r="BA111" s="57"/>
     </row>
     <row r="112" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="183">
+      <c r="A112" s="182">
         <v>28</v>
       </c>
       <c r="B112" s="22">
@@ -20536,7 +20614,7 @@
       <c r="BA112" s="19"/>
     </row>
     <row r="113" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A113" s="184"/>
+      <c r="A113" s="183"/>
       <c r="B113" s="32">
         <v>2</v>
       </c>
@@ -20696,7 +20774,7 @@
       <c r="BA113" s="44"/>
     </row>
     <row r="114" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A114" s="184"/>
+      <c r="A114" s="183"/>
       <c r="B114" s="32">
         <v>3</v>
       </c>
@@ -20856,7 +20934,7 @@
       <c r="BA114" s="40"/>
     </row>
     <row r="115" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="185"/>
+      <c r="A115" s="184"/>
       <c r="B115" s="48" t="s">
         <v>35</v>
       </c>
@@ -21027,7 +21105,7 @@
       <c r="BA115" s="57"/>
     </row>
     <row r="116" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="184">
+      <c r="A116" s="183">
         <v>29</v>
       </c>
       <c r="B116" s="32">
@@ -21189,7 +21267,7 @@
       <c r="BA116" s="19"/>
     </row>
     <row r="117" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A117" s="184"/>
+      <c r="A117" s="183"/>
       <c r="B117" s="32">
         <v>2</v>
       </c>
@@ -21349,7 +21427,7 @@
       <c r="BA117" s="44"/>
     </row>
     <row r="118" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A118" s="184"/>
+      <c r="A118" s="183"/>
       <c r="B118" s="32">
         <v>3</v>
       </c>
@@ -21509,7 +21587,7 @@
       <c r="BA118" s="40"/>
     </row>
     <row r="119" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="185"/>
+      <c r="A119" s="184"/>
       <c r="B119" s="48" t="s">
         <v>35</v>
       </c>
@@ -21680,7 +21758,7 @@
       <c r="BA119" s="57"/>
     </row>
     <row r="120" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="183">
+      <c r="A120" s="182">
         <v>30</v>
       </c>
       <c r="B120" s="22">
@@ -21846,7 +21924,7 @@
       <c r="BA120" s="19"/>
     </row>
     <row r="121" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A121" s="184"/>
+      <c r="A121" s="183"/>
       <c r="B121" s="32">
         <v>2</v>
       </c>
@@ -22006,7 +22084,7 @@
       <c r="BA121" s="44"/>
     </row>
     <row r="122" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A122" s="184"/>
+      <c r="A122" s="183"/>
       <c r="B122" s="32">
         <v>3</v>
       </c>
@@ -22166,7 +22244,7 @@
       <c r="BA122" s="40"/>
     </row>
     <row r="123" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="185"/>
+      <c r="A123" s="184"/>
       <c r="B123" s="48" t="s">
         <v>35</v>
       </c>
@@ -22337,7 +22415,7 @@
       <c r="BA123" s="57"/>
     </row>
     <row r="124" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="183">
+      <c r="A124" s="182">
         <v>31</v>
       </c>
       <c r="B124" s="22">
@@ -22447,7 +22525,7 @@
       <c r="BA124" s="19"/>
     </row>
     <row r="125" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A125" s="184"/>
+      <c r="A125" s="183"/>
       <c r="B125" s="32">
         <v>2</v>
       </c>
@@ -22555,7 +22633,7 @@
       <c r="BA125" s="44"/>
     </row>
     <row r="126" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A126" s="184"/>
+      <c r="A126" s="183"/>
       <c r="B126" s="32">
         <v>3</v>
       </c>
@@ -22663,7 +22741,7 @@
       <c r="BA126" s="40"/>
     </row>
     <row r="127" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="185"/>
+      <c r="A127" s="184"/>
       <c r="B127" s="48" t="s">
         <v>35</v>
       </c>
@@ -23056,26 +23134,6 @@
     <protectedRange sqref="AB1" name="Range1_1_1_1_1_1_1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="36">
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="A120:A123"/>
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A100:A103"/>
@@ -23092,6 +23150,26 @@
     <mergeCell ref="A68:A71"/>
     <mergeCell ref="A84:A87"/>
     <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23169,13 +23247,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="185" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -23304,19 +23382,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="182" t="s">
+      <c r="AX1" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="182"/>
-      <c r="AZ1" s="182" t="s">
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="182"/>
+      <c r="BA1" s="191"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="192"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="188"/>
+      <c r="A2" s="190"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="186"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -23507,7 +23585,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183">
+      <c r="A4" s="182">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -23671,7 +23749,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" s="184"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -23830,7 +23908,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="184"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -23989,7 +24067,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="184"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -24160,7 +24238,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="183">
+      <c r="A8" s="182">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -24324,7 +24402,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" s="184"/>
+      <c r="A9" s="183"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -24484,7 +24562,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" s="184"/>
+      <c r="A10" s="183"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -24644,7 +24722,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="184"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -24815,7 +24893,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="183">
+      <c r="A12" s="182">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -24977,7 +25055,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" s="184"/>
+      <c r="A13" s="183"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -25137,7 +25215,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14" s="184"/>
+      <c r="A14" s="183"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -25297,7 +25375,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="184"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -25468,7 +25546,7 @@
       <c r="BA15" s="57"/>
     </row>
     <row r="16" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="183">
+      <c r="A16" s="182">
         <v>4</v>
       </c>
       <c r="B16" s="22">
@@ -25630,7 +25708,7 @@
       <c r="BA16" s="19"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A17" s="184"/>
+      <c r="A17" s="183"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -25790,7 +25868,7 @@
       <c r="BA17" s="44"/>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18" s="184"/>
+      <c r="A18" s="183"/>
       <c r="B18" s="32">
         <v>3</v>
       </c>
@@ -25950,7 +26028,7 @@
       <c r="BA18" s="40"/>
     </row>
     <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+      <c r="A19" s="184"/>
       <c r="B19" s="48" t="s">
         <v>35</v>
       </c>
@@ -26121,7 +26199,7 @@
       <c r="BA19" s="57"/>
     </row>
     <row r="20" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="183">
+      <c r="A20" s="182">
         <v>5</v>
       </c>
       <c r="B20" s="22">
@@ -26283,7 +26361,7 @@
       <c r="BA20" s="19"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" s="184"/>
+      <c r="A21" s="183"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
@@ -26443,7 +26521,7 @@
       <c r="BA21" s="44"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22" s="184"/>
+      <c r="A22" s="183"/>
       <c r="B22" s="32">
         <v>3</v>
       </c>
@@ -26603,7 +26681,7 @@
       <c r="BA22" s="40"/>
     </row>
     <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="185"/>
+      <c r="A23" s="184"/>
       <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
@@ -26774,7 +26852,7 @@
       <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="183">
+      <c r="A24" s="182">
         <v>6</v>
       </c>
       <c r="B24" s="22">
@@ -26936,7 +27014,7 @@
       <c r="BA24" s="19"/>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A25" s="184"/>
+      <c r="A25" s="183"/>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -27096,7 +27174,7 @@
       <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A26" s="184"/>
+      <c r="A26" s="183"/>
       <c r="B26" s="32">
         <v>3</v>
       </c>
@@ -27256,7 +27334,7 @@
       <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
+      <c r="A27" s="184"/>
       <c r="B27" s="48" t="s">
         <v>35</v>
       </c>
@@ -27427,7 +27505,7 @@
       <c r="BA27" s="57"/>
     </row>
     <row r="28" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="183">
+      <c r="A28" s="182">
         <v>7</v>
       </c>
       <c r="B28" s="22">
@@ -27591,7 +27669,7 @@
       <c r="BA28" s="19"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A29" s="184"/>
+      <c r="A29" s="183"/>
       <c r="B29" s="32">
         <v>2</v>
       </c>
@@ -27749,7 +27827,7 @@
       <c r="BA29" s="44"/>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A30" s="184"/>
+      <c r="A30" s="183"/>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -27907,7 +27985,7 @@
       <c r="BA30" s="40"/>
     </row>
     <row r="31" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185"/>
+      <c r="A31" s="184"/>
       <c r="B31" s="48" t="s">
         <v>35</v>
       </c>
@@ -28078,7 +28156,7 @@
       <c r="BA31" s="57"/>
     </row>
     <row r="32" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="183">
+      <c r="A32" s="182">
         <v>8</v>
       </c>
       <c r="B32" s="22">
@@ -28242,7 +28320,7 @@
       <c r="BA32" s="19"/>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A33" s="184"/>
+      <c r="A33" s="183"/>
       <c r="B33" s="32">
         <v>2</v>
       </c>
@@ -28402,7 +28480,7 @@
       <c r="BA33" s="44"/>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A34" s="184"/>
+      <c r="A34" s="183"/>
       <c r="B34" s="32">
         <v>3</v>
       </c>
@@ -28562,7 +28640,7 @@
       <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="185"/>
+      <c r="A35" s="184"/>
       <c r="B35" s="48" t="s">
         <v>35</v>
       </c>
@@ -28733,7 +28811,7 @@
       <c r="BA35" s="57"/>
     </row>
     <row r="36" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="183">
+      <c r="A36" s="182">
         <v>9</v>
       </c>
       <c r="B36" s="22">
@@ -28897,7 +28975,7 @@
       <c r="BA36" s="19"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A37" s="184"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="32">
         <v>2</v>
       </c>
@@ -29057,7 +29135,7 @@
       <c r="BA37" s="44"/>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A38" s="184"/>
+      <c r="A38" s="183"/>
       <c r="B38" s="32">
         <v>3</v>
       </c>
@@ -29217,7 +29295,7 @@
       <c r="BA38" s="40"/>
     </row>
     <row r="39" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="185"/>
+      <c r="A39" s="184"/>
       <c r="B39" s="48" t="s">
         <v>35</v>
       </c>
@@ -29388,7 +29466,7 @@
       <c r="BA39" s="57"/>
     </row>
     <row r="40" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="183">
+      <c r="A40" s="182">
         <v>10</v>
       </c>
       <c r="B40" s="22">
@@ -29552,7 +29630,7 @@
       <c r="BA40" s="19"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A41" s="184"/>
+      <c r="A41" s="183"/>
       <c r="B41" s="32">
         <v>2</v>
       </c>
@@ -29708,7 +29786,7 @@
       <c r="BA41" s="44"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A42" s="184"/>
+      <c r="A42" s="183"/>
       <c r="B42" s="32">
         <v>3</v>
       </c>
@@ -29856,7 +29934,7 @@
       <c r="BA42" s="40"/>
     </row>
     <row r="43" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="185"/>
+      <c r="A43" s="184"/>
       <c r="B43" s="48" t="s">
         <v>35</v>
       </c>
@@ -30027,7 +30105,7 @@
       <c r="BA43" s="57"/>
     </row>
     <row r="44" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="183">
+      <c r="A44" s="182">
         <v>11</v>
       </c>
       <c r="B44" s="22">
@@ -30189,7 +30267,7 @@
       <c r="BA44" s="19"/>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A45" s="184"/>
+      <c r="A45" s="183"/>
       <c r="B45" s="32">
         <v>2</v>
       </c>
@@ -30349,7 +30427,7 @@
       <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A46" s="184"/>
+      <c r="A46" s="183"/>
       <c r="B46" s="32">
         <v>3</v>
       </c>
@@ -30509,7 +30587,7 @@
       <c r="BA46" s="40"/>
     </row>
     <row r="47" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="185"/>
+      <c r="A47" s="184"/>
       <c r="B47" s="48" t="s">
         <v>35</v>
       </c>
@@ -30680,7 +30758,7 @@
       <c r="BA47" s="57"/>
     </row>
     <row r="48" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="183">
+      <c r="A48" s="182">
         <v>12</v>
       </c>
       <c r="B48" s="22">
@@ -30842,7 +30920,7 @@
       <c r="BA48" s="19"/>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A49" s="184"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="32">
         <v>2</v>
       </c>
@@ -31002,7 +31080,7 @@
       <c r="BA49" s="44"/>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A50" s="184"/>
+      <c r="A50" s="183"/>
       <c r="B50" s="32">
         <v>3</v>
       </c>
@@ -31162,7 +31240,7 @@
       <c r="BA50" s="40"/>
     </row>
     <row r="51" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="185"/>
+      <c r="A51" s="184"/>
       <c r="B51" s="48" t="s">
         <v>35</v>
       </c>
@@ -31967,7 +32045,7 @@
       <c r="BA55" s="57"/>
     </row>
     <row r="56" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="183">
+      <c r="A56" s="182">
         <v>14</v>
       </c>
       <c r="B56" s="22">
@@ -32131,7 +32209,7 @@
       <c r="BA56" s="19"/>
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A57" s="184"/>
+      <c r="A57" s="183"/>
       <c r="B57" s="32">
         <v>2</v>
       </c>
@@ -32291,7 +32369,7 @@
       <c r="BA57" s="44"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A58" s="184"/>
+      <c r="A58" s="183"/>
       <c r="B58" s="32">
         <v>3</v>
       </c>
@@ -32451,7 +32529,7 @@
       <c r="BA58" s="40"/>
     </row>
     <row r="59" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="185"/>
+      <c r="A59" s="184"/>
       <c r="B59" s="48" t="s">
         <v>35</v>
       </c>
@@ -32622,7 +32700,7 @@
       <c r="BA59" s="57"/>
     </row>
     <row r="60" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="183">
+      <c r="A60" s="182">
         <v>15</v>
       </c>
       <c r="B60" s="22">
@@ -32786,7 +32864,7 @@
       <c r="BA60" s="19"/>
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A61" s="184"/>
+      <c r="A61" s="183"/>
       <c r="B61" s="32">
         <v>2</v>
       </c>
@@ -32946,7 +33024,7 @@
       <c r="BA61" s="44"/>
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A62" s="184"/>
+      <c r="A62" s="183"/>
       <c r="B62" s="32">
         <v>3</v>
       </c>
@@ -33106,7 +33184,7 @@
       <c r="BA62" s="40"/>
     </row>
     <row r="63" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="185"/>
+      <c r="A63" s="184"/>
       <c r="B63" s="48" t="s">
         <v>35</v>
       </c>
@@ -33277,7 +33355,7 @@
       <c r="BA63" s="57"/>
     </row>
     <row r="64" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="183">
+      <c r="A64" s="182">
         <v>16</v>
       </c>
       <c r="B64" s="22">
@@ -33443,7 +33521,7 @@
       <c r="BA64" s="19"/>
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A65" s="184"/>
+      <c r="A65" s="183"/>
       <c r="B65" s="32">
         <v>2</v>
       </c>
@@ -33603,7 +33681,7 @@
       <c r="BA65" s="44"/>
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A66" s="184"/>
+      <c r="A66" s="183"/>
       <c r="B66" s="32">
         <v>3</v>
       </c>
@@ -33763,7 +33841,7 @@
       <c r="BA66" s="40"/>
     </row>
     <row r="67" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="185"/>
+      <c r="A67" s="184"/>
       <c r="B67" s="48" t="s">
         <v>35</v>
       </c>
@@ -33934,7 +34012,7 @@
       <c r="BA67" s="57"/>
     </row>
     <row r="68" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="183">
+      <c r="A68" s="182">
         <v>17</v>
       </c>
       <c r="B68" s="22">
@@ -34098,7 +34176,7 @@
       <c r="BA68" s="19"/>
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A69" s="184"/>
+      <c r="A69" s="183"/>
       <c r="B69" s="32">
         <v>2</v>
       </c>
@@ -34258,7 +34336,7 @@
       <c r="BA69" s="44"/>
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A70" s="184"/>
+      <c r="A70" s="183"/>
       <c r="B70" s="32">
         <v>3</v>
       </c>
@@ -34418,7 +34496,7 @@
       <c r="BA70" s="40"/>
     </row>
     <row r="71" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="185"/>
+      <c r="A71" s="184"/>
       <c r="B71" s="48" t="s">
         <v>35</v>
       </c>
@@ -34589,7 +34667,7 @@
       <c r="BA71" s="57"/>
     </row>
     <row r="72" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="183">
+      <c r="A72" s="182">
         <v>18</v>
       </c>
       <c r="B72" s="22">
@@ -34753,7 +34831,7 @@
       <c r="BA72" s="19"/>
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A73" s="184"/>
+      <c r="A73" s="183"/>
       <c r="B73" s="32">
         <v>2</v>
       </c>
@@ -34913,7 +34991,7 @@
       <c r="BA73" s="44"/>
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A74" s="184"/>
+      <c r="A74" s="183"/>
       <c r="B74" s="32">
         <v>3</v>
       </c>
@@ -35073,7 +35151,7 @@
       <c r="BA74" s="40"/>
     </row>
     <row r="75" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="185"/>
+      <c r="A75" s="184"/>
       <c r="B75" s="48" t="s">
         <v>35</v>
       </c>
@@ -35244,7 +35322,7 @@
       <c r="BA75" s="57"/>
     </row>
     <row r="76" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="183">
+      <c r="A76" s="182">
         <v>19</v>
       </c>
       <c r="B76" s="22">
@@ -35406,7 +35484,7 @@
       <c r="BA76" s="19"/>
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A77" s="184"/>
+      <c r="A77" s="183"/>
       <c r="B77" s="32">
         <v>2</v>
       </c>
@@ -35566,7 +35644,7 @@
       <c r="BA77" s="44"/>
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A78" s="184"/>
+      <c r="A78" s="183"/>
       <c r="B78" s="32">
         <v>3</v>
       </c>
@@ -35726,7 +35804,7 @@
       <c r="BA78" s="40"/>
     </row>
     <row r="79" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="185"/>
+      <c r="A79" s="184"/>
       <c r="B79" s="48" t="s">
         <v>35</v>
       </c>
@@ -35897,7 +35975,7 @@
       <c r="BA79" s="57"/>
     </row>
     <row r="80" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="183">
+      <c r="A80" s="182">
         <v>20</v>
       </c>
       <c r="B80" s="22">
@@ -36059,7 +36137,7 @@
       <c r="BA80" s="19"/>
     </row>
     <row r="81" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A81" s="184"/>
+      <c r="A81" s="183"/>
       <c r="B81" s="32">
         <v>2</v>
       </c>
@@ -36219,7 +36297,7 @@
       <c r="BA81" s="44"/>
     </row>
     <row r="82" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A82" s="184"/>
+      <c r="A82" s="183"/>
       <c r="B82" s="32">
         <v>3</v>
       </c>
@@ -36379,7 +36457,7 @@
       <c r="BA82" s="40"/>
     </row>
     <row r="83" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="185"/>
+      <c r="A83" s="184"/>
       <c r="B83" s="48" t="s">
         <v>35</v>
       </c>
@@ -36550,7 +36628,7 @@
       <c r="BA83" s="57"/>
     </row>
     <row r="84" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="183">
+      <c r="A84" s="182">
         <v>21</v>
       </c>
       <c r="B84" s="22">
@@ -36714,7 +36792,7 @@
       <c r="BA84" s="19"/>
     </row>
     <row r="85" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A85" s="184"/>
+      <c r="A85" s="183"/>
       <c r="B85" s="32">
         <v>2</v>
       </c>
@@ -36874,7 +36952,7 @@
       <c r="BA85" s="44"/>
     </row>
     <row r="86" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A86" s="184"/>
+      <c r="A86" s="183"/>
       <c r="B86" s="32">
         <v>3</v>
       </c>
@@ -37034,7 +37112,7 @@
       <c r="BA86" s="40"/>
     </row>
     <row r="87" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="185"/>
+      <c r="A87" s="184"/>
       <c r="B87" s="48" t="s">
         <v>35</v>
       </c>
@@ -37205,7 +37283,7 @@
       <c r="BA87" s="57"/>
     </row>
     <row r="88" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="183">
+      <c r="A88" s="182">
         <v>22</v>
       </c>
       <c r="B88" s="22">
@@ -37369,7 +37447,7 @@
       <c r="BA88" s="19"/>
     </row>
     <row r="89" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A89" s="184"/>
+      <c r="A89" s="183"/>
       <c r="B89" s="32">
         <v>2</v>
       </c>
@@ -37529,7 +37607,7 @@
       <c r="BA89" s="44"/>
     </row>
     <row r="90" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A90" s="184"/>
+      <c r="A90" s="183"/>
       <c r="B90" s="32">
         <v>3</v>
       </c>
@@ -37689,7 +37767,7 @@
       <c r="BA90" s="40"/>
     </row>
     <row r="91" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="185"/>
+      <c r="A91" s="184"/>
       <c r="B91" s="48" t="s">
         <v>35</v>
       </c>
@@ -37860,7 +37938,7 @@
       <c r="BA91" s="57"/>
     </row>
     <row r="92" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="183">
+      <c r="A92" s="182">
         <v>23</v>
       </c>
       <c r="B92" s="22">
@@ -38024,7 +38102,7 @@
       <c r="BA92" s="19"/>
     </row>
     <row r="93" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A93" s="184"/>
+      <c r="A93" s="183"/>
       <c r="B93" s="32">
         <v>2</v>
       </c>
@@ -38182,7 +38260,7 @@
       <c r="BA93" s="44"/>
     </row>
     <row r="94" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A94" s="184"/>
+      <c r="A94" s="183"/>
       <c r="B94" s="32">
         <v>3</v>
       </c>
@@ -38336,7 +38414,7 @@
       <c r="BA94" s="40"/>
     </row>
     <row r="95" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="185"/>
+      <c r="A95" s="184"/>
       <c r="B95" s="48" t="s">
         <v>35</v>
       </c>
@@ -38507,7 +38585,7 @@
       <c r="BA95" s="57"/>
     </row>
     <row r="96" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="183">
+      <c r="A96" s="182">
         <v>24</v>
       </c>
       <c r="B96" s="22">
@@ -38671,7 +38749,7 @@
       <c r="BA96" s="19"/>
     </row>
     <row r="97" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A97" s="184"/>
+      <c r="A97" s="183"/>
       <c r="B97" s="32">
         <v>2</v>
       </c>
@@ -38831,7 +38909,7 @@
       <c r="BA97" s="44"/>
     </row>
     <row r="98" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A98" s="184"/>
+      <c r="A98" s="183"/>
       <c r="B98" s="32">
         <v>3</v>
       </c>
@@ -38991,7 +39069,7 @@
       <c r="BA98" s="40"/>
     </row>
     <row r="99" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="185"/>
+      <c r="A99" s="184"/>
       <c r="B99" s="48" t="s">
         <v>35</v>
       </c>
@@ -39162,7 +39240,7 @@
       <c r="BA99" s="57"/>
     </row>
     <row r="100" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="186">
+      <c r="A100" s="192">
         <v>25</v>
       </c>
       <c r="B100" s="32">
@@ -39326,7 +39404,7 @@
       <c r="BA100" s="19"/>
     </row>
     <row r="101" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A101" s="186"/>
+      <c r="A101" s="192"/>
       <c r="B101" s="32">
         <v>2</v>
       </c>
@@ -39486,7 +39564,7 @@
       <c r="BA101" s="44"/>
     </row>
     <row r="102" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A102" s="186"/>
+      <c r="A102" s="192"/>
       <c r="B102" s="32">
         <v>3</v>
       </c>
@@ -39646,7 +39724,7 @@
       <c r="BA102" s="40"/>
     </row>
     <row r="103" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="186"/>
+      <c r="A103" s="192"/>
       <c r="B103" s="65" t="s">
         <v>35</v>
       </c>
@@ -39817,7 +39895,7 @@
       <c r="BA103" s="57"/>
     </row>
     <row r="104" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="183">
+      <c r="A104" s="182">
         <v>26</v>
       </c>
       <c r="B104" s="22">
@@ -39979,7 +40057,7 @@
       <c r="BA104" s="19"/>
     </row>
     <row r="105" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A105" s="184"/>
+      <c r="A105" s="183"/>
       <c r="B105" s="32">
         <v>2</v>
       </c>
@@ -40139,7 +40217,7 @@
       <c r="BA105" s="44"/>
     </row>
     <row r="106" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A106" s="184"/>
+      <c r="A106" s="183"/>
       <c r="B106" s="32">
         <v>3</v>
       </c>
@@ -40299,7 +40377,7 @@
       <c r="BA106" s="40"/>
     </row>
     <row r="107" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="185"/>
+      <c r="A107" s="184"/>
       <c r="B107" s="48" t="s">
         <v>35</v>
       </c>
@@ -40470,7 +40548,7 @@
       <c r="BA107" s="57"/>
     </row>
     <row r="108" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="183">
+      <c r="A108" s="182">
         <v>27</v>
       </c>
       <c r="B108" s="22">
@@ -40632,7 +40710,7 @@
       <c r="BA108" s="19"/>
     </row>
     <row r="109" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A109" s="184"/>
+      <c r="A109" s="183"/>
       <c r="B109" s="32">
         <v>2</v>
       </c>
@@ -40788,7 +40866,7 @@
       <c r="BA109" s="44"/>
     </row>
     <row r="110" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A110" s="184"/>
+      <c r="A110" s="183"/>
       <c r="B110" s="32">
         <v>3</v>
       </c>
@@ -40938,7 +41016,7 @@
       <c r="BA110" s="40"/>
     </row>
     <row r="111" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="185"/>
+      <c r="A111" s="184"/>
       <c r="B111" s="48" t="s">
         <v>35</v>
       </c>
@@ -41109,7 +41187,7 @@
       <c r="BA111" s="57"/>
     </row>
     <row r="112" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="183">
+      <c r="A112" s="182">
         <v>28</v>
       </c>
       <c r="B112" s="22">
@@ -41273,7 +41351,7 @@
       <c r="BA112" s="19"/>
     </row>
     <row r="113" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A113" s="184"/>
+      <c r="A113" s="183"/>
       <c r="B113" s="32">
         <v>2</v>
       </c>
@@ -41433,7 +41511,7 @@
       <c r="BA113" s="44"/>
     </row>
     <row r="114" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A114" s="184"/>
+      <c r="A114" s="183"/>
       <c r="B114" s="32">
         <v>3</v>
       </c>
@@ -41593,7 +41671,7 @@
       <c r="BA114" s="40"/>
     </row>
     <row r="115" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="185"/>
+      <c r="A115" s="184"/>
       <c r="B115" s="48" t="s">
         <v>35</v>
       </c>
@@ -41764,7 +41842,7 @@
       <c r="BA115" s="57"/>
     </row>
     <row r="116" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="184">
+      <c r="A116" s="183">
         <v>29</v>
       </c>
       <c r="B116" s="32">
@@ -41928,7 +42006,7 @@
       <c r="BA116" s="19"/>
     </row>
     <row r="117" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A117" s="184"/>
+      <c r="A117" s="183"/>
       <c r="B117" s="32">
         <v>2</v>
       </c>
@@ -42088,7 +42166,7 @@
       <c r="BA117" s="44"/>
     </row>
     <row r="118" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A118" s="184"/>
+      <c r="A118" s="183"/>
       <c r="B118" s="32">
         <v>3</v>
       </c>
@@ -42248,7 +42326,7 @@
       <c r="BA118" s="40"/>
     </row>
     <row r="119" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="185"/>
+      <c r="A119" s="184"/>
       <c r="B119" s="48" t="s">
         <v>35</v>
       </c>
@@ -42419,7 +42497,7 @@
       <c r="BA119" s="57"/>
     </row>
     <row r="120" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="183">
+      <c r="A120" s="182">
         <v>30</v>
       </c>
       <c r="B120" s="22">
@@ -42583,7 +42661,7 @@
       <c r="BA120" s="19"/>
     </row>
     <row r="121" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A121" s="184"/>
+      <c r="A121" s="183"/>
       <c r="B121" s="32">
         <v>2</v>
       </c>
@@ -42743,7 +42821,7 @@
       <c r="BA121" s="44"/>
     </row>
     <row r="122" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A122" s="184"/>
+      <c r="A122" s="183"/>
       <c r="B122" s="32">
         <v>3</v>
       </c>
@@ -42903,7 +42981,7 @@
       <c r="BA122" s="40"/>
     </row>
     <row r="123" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="185"/>
+      <c r="A123" s="184"/>
       <c r="B123" s="48" t="s">
         <v>35</v>
       </c>
@@ -43074,7 +43152,7 @@
       <c r="BA123" s="57"/>
     </row>
     <row r="124" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="183">
+      <c r="A124" s="182">
         <v>31</v>
       </c>
       <c r="B124" s="22">
@@ -43238,7 +43316,7 @@
       <c r="BA124" s="19"/>
     </row>
     <row r="125" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A125" s="184"/>
+      <c r="A125" s="183"/>
       <c r="B125" s="32">
         <v>2</v>
       </c>
@@ -43394,7 +43472,7 @@
       <c r="BA125" s="44"/>
     </row>
     <row r="126" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A126" s="184"/>
+      <c r="A126" s="183"/>
       <c r="B126" s="32">
         <v>3</v>
       </c>
@@ -43544,7 +43622,7 @@
       <c r="BA126" s="40"/>
     </row>
     <row r="127" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="185"/>
+      <c r="A127" s="184"/>
       <c r="B127" s="48" t="s">
         <v>35</v>
       </c>
@@ -43980,16 +44058,18 @@
     <protectedRange sqref="AB112:AB127" name="Range1_1_1_1_1_2_2_1_1_4"/>
   </protectedRanges>
   <mergeCells count="35">
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A56:A59"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A32:A35"/>
@@ -44003,18 +44083,16 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44024,22 +44102,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6555BB66-49A2-4157-88D4-D9BD7AEDD16F}">
-  <dimension ref="A1:BA75"/>
+  <dimension ref="A1:BA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B72" sqref="A72:XFD75"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:53" s="21" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="185" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="125" t="s">
@@ -44168,19 +44246,19 @@
       <c r="AW1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="182" t="s">
+      <c r="AX1" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="182"/>
-      <c r="AZ1" s="182" t="s">
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="182"/>
+      <c r="BA1" s="191"/>
     </row>
     <row r="2" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="192"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="188"/>
+      <c r="A2" s="190"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="186"/>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
@@ -44371,7 +44449,7 @@
       <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183">
+      <c r="A4" s="182">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -44535,7 +44613,7 @@
       <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="184"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
@@ -44695,7 +44773,7 @@
       <c r="BA5" s="44"/>
     </row>
     <row r="6" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="184"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
@@ -44855,7 +44933,7 @@
       <c r="BA6" s="40"/>
     </row>
     <row r="7" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="184"/>
       <c r="B7" s="48" t="s">
         <v>35</v>
       </c>
@@ -45026,7 +45104,7 @@
       <c r="BA7" s="57"/>
     </row>
     <row r="8" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="183">
+      <c r="A8" s="182">
         <v>2</v>
       </c>
       <c r="B8" s="22">
@@ -45188,7 +45266,7 @@
       <c r="BA8" s="19"/>
     </row>
     <row r="9" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="184"/>
+      <c r="A9" s="183"/>
       <c r="B9" s="32">
         <v>2</v>
       </c>
@@ -45348,7 +45426,7 @@
       <c r="BA9" s="44"/>
     </row>
     <row r="10" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="184"/>
+      <c r="A10" s="183"/>
       <c r="B10" s="32">
         <v>3</v>
       </c>
@@ -45508,7 +45586,7 @@
       <c r="BA10" s="40"/>
     </row>
     <row r="11" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="184"/>
       <c r="B11" s="48" t="s">
         <v>35</v>
       </c>
@@ -45679,7 +45757,7 @@
       <c r="BA11" s="57"/>
     </row>
     <row r="12" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="183">
+      <c r="A12" s="182">
         <v>3</v>
       </c>
       <c r="B12" s="22">
@@ -45841,7 +45919,7 @@
       <c r="BA12" s="19"/>
     </row>
     <row r="13" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="184"/>
+      <c r="A13" s="183"/>
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -45997,7 +46075,7 @@
       <c r="BA13" s="44"/>
     </row>
     <row r="14" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="184"/>
+      <c r="A14" s="183"/>
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -46147,7 +46225,7 @@
       <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="184"/>
       <c r="B15" s="48" t="s">
         <v>35</v>
       </c>
@@ -46318,7 +46396,7 @@
       <c r="BA15" s="57"/>
     </row>
     <row r="16" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="183">
+      <c r="A16" s="182">
         <v>4</v>
       </c>
       <c r="B16" s="22">
@@ -46482,7 +46560,7 @@
       <c r="BA16" s="19"/>
     </row>
     <row r="17" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="184"/>
+      <c r="A17" s="183"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -46642,7 +46720,7 @@
       <c r="BA17" s="44"/>
     </row>
     <row r="18" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="184"/>
+      <c r="A18" s="183"/>
       <c r="B18" s="32">
         <v>3</v>
       </c>
@@ -46802,7 +46880,7 @@
       <c r="BA18" s="40"/>
     </row>
     <row r="19" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+      <c r="A19" s="184"/>
       <c r="B19" s="48" t="s">
         <v>35</v>
       </c>
@@ -46973,7 +47051,7 @@
       <c r="BA19" s="57"/>
     </row>
     <row r="20" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="183">
+      <c r="A20" s="182">
         <v>5</v>
       </c>
       <c r="B20" s="22">
@@ -47137,7 +47215,7 @@
       <c r="BA20" s="19"/>
     </row>
     <row r="21" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="184"/>
+      <c r="A21" s="183"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
@@ -47297,7 +47375,7 @@
       <c r="BA21" s="44"/>
     </row>
     <row r="22" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="184"/>
+      <c r="A22" s="183"/>
       <c r="B22" s="32">
         <v>3</v>
       </c>
@@ -47457,7 +47535,7 @@
       <c r="BA22" s="40"/>
     </row>
     <row r="23" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="185"/>
+      <c r="A23" s="184"/>
       <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
@@ -47628,7 +47706,7 @@
       <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="183">
+      <c r="A24" s="182">
         <v>6</v>
       </c>
       <c r="B24" s="22">
@@ -47792,7 +47870,7 @@
       <c r="BA24" s="19"/>
     </row>
     <row r="25" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="184"/>
+      <c r="A25" s="183"/>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -47948,7 +48026,7 @@
       <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="184"/>
+      <c r="A26" s="183"/>
       <c r="B26" s="32">
         <v>3</v>
       </c>
@@ -48098,7 +48176,7 @@
       <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
+      <c r="A27" s="184"/>
       <c r="B27" s="48" t="s">
         <v>35</v>
       </c>
@@ -48269,7 +48347,7 @@
       <c r="BA27" s="57"/>
     </row>
     <row r="28" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="183">
+      <c r="A28" s="182">
         <v>7</v>
       </c>
       <c r="B28" s="22">
@@ -48435,7 +48513,7 @@
       <c r="BA28" s="19"/>
     </row>
     <row r="29" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="184"/>
+      <c r="A29" s="183"/>
       <c r="B29" s="32">
         <v>2</v>
       </c>
@@ -48595,7 +48673,7 @@
       <c r="BA29" s="44"/>
     </row>
     <row r="30" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="184"/>
+      <c r="A30" s="183"/>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -48755,7 +48833,7 @@
       <c r="BA30" s="40"/>
     </row>
     <row r="31" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185"/>
+      <c r="A31" s="184"/>
       <c r="B31" s="48" t="s">
         <v>35</v>
       </c>
@@ -48926,7 +49004,7 @@
       <c r="BA31" s="57"/>
     </row>
     <row r="32" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="183">
+      <c r="A32" s="182">
         <v>8</v>
       </c>
       <c r="B32" s="22">
@@ -49092,7 +49170,7 @@
       <c r="BA32" s="19"/>
     </row>
     <row r="33" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="184"/>
+      <c r="A33" s="183"/>
       <c r="B33" s="32">
         <v>2</v>
       </c>
@@ -49252,7 +49330,7 @@
       <c r="BA33" s="44"/>
     </row>
     <row r="34" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="184"/>
+      <c r="A34" s="183"/>
       <c r="B34" s="32">
         <v>3</v>
       </c>
@@ -49412,7 +49490,7 @@
       <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="185"/>
+      <c r="A35" s="184"/>
       <c r="B35" s="48" t="s">
         <v>35</v>
       </c>
@@ -49583,7 +49661,7 @@
       <c r="BA35" s="57"/>
     </row>
     <row r="36" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="183">
+      <c r="A36" s="182">
         <v>9</v>
       </c>
       <c r="B36" s="22">
@@ -49745,7 +49823,7 @@
       <c r="BA36" s="19"/>
     </row>
     <row r="37" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="184"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="32">
         <v>2</v>
       </c>
@@ -49905,7 +49983,7 @@
       <c r="BA37" s="44"/>
     </row>
     <row r="38" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="184"/>
+      <c r="A38" s="183"/>
       <c r="B38" s="32">
         <v>3</v>
       </c>
@@ -50065,7 +50143,7 @@
       <c r="BA38" s="40"/>
     </row>
     <row r="39" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="185"/>
+      <c r="A39" s="184"/>
       <c r="B39" s="48" t="s">
         <v>35</v>
       </c>
@@ -50236,7 +50314,7 @@
       <c r="BA39" s="57"/>
     </row>
     <row r="40" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="183">
+      <c r="A40" s="182">
         <v>10</v>
       </c>
       <c r="B40" s="22">
@@ -50398,7 +50476,7 @@
       <c r="BA40" s="19"/>
     </row>
     <row r="41" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="184"/>
+      <c r="A41" s="183"/>
       <c r="B41" s="32">
         <v>2</v>
       </c>
@@ -50554,7 +50632,7 @@
       <c r="BA41" s="44"/>
     </row>
     <row r="42" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="184"/>
+      <c r="A42" s="183"/>
       <c r="B42" s="32">
         <v>3</v>
       </c>
@@ -50704,7 +50782,7 @@
       <c r="BA42" s="40"/>
     </row>
     <row r="43" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="185"/>
+      <c r="A43" s="184"/>
       <c r="B43" s="48" t="s">
         <v>35</v>
       </c>
@@ -50875,7 +50953,7 @@
       <c r="BA43" s="57"/>
     </row>
     <row r="44" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="183">
+      <c r="A44" s="182">
         <v>11</v>
       </c>
       <c r="B44" s="22">
@@ -51041,7 +51119,7 @@
       <c r="BA44" s="19"/>
     </row>
     <row r="45" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="184"/>
+      <c r="A45" s="183"/>
       <c r="B45" s="32">
         <v>2</v>
       </c>
@@ -51201,7 +51279,7 @@
       <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="184"/>
+      <c r="A46" s="183"/>
       <c r="B46" s="32">
         <v>3</v>
       </c>
@@ -51361,7 +51439,7 @@
       <c r="BA46" s="40"/>
     </row>
     <row r="47" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="185"/>
+      <c r="A47" s="184"/>
       <c r="B47" s="48" t="s">
         <v>35</v>
       </c>
@@ -51532,7 +51610,7 @@
       <c r="BA47" s="57"/>
     </row>
     <row r="48" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="183">
+      <c r="A48" s="182">
         <v>12</v>
       </c>
       <c r="B48" s="22">
@@ -51621,7 +51699,7 @@
         <v>2.7799999999999999E-3</v>
       </c>
       <c r="AB48" s="18">
-        <f t="shared" ref="AB48:AB74" si="456">M48*AA48</f>
+        <f t="shared" ref="AB48:AB70" si="456">M48*AA48</f>
         <v>40.740899999999996</v>
       </c>
       <c r="AC48" s="16">
@@ -51698,7 +51776,7 @@
       <c r="BA48" s="19"/>
     </row>
     <row r="49" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="184"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="32">
         <v>2</v>
       </c>
@@ -51858,7 +51936,7 @@
       <c r="BA49" s="44"/>
     </row>
     <row r="50" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="184"/>
+      <c r="A50" s="183"/>
       <c r="B50" s="32">
         <v>3</v>
       </c>
@@ -52018,7 +52096,7 @@
       <c r="BA50" s="40"/>
     </row>
     <row r="51" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="185"/>
+      <c r="A51" s="184"/>
       <c r="B51" s="48" t="s">
         <v>35</v>
       </c>
@@ -52189,7 +52267,7 @@
       <c r="BA51" s="57"/>
     </row>
     <row r="52" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="183">
+      <c r="A52" s="182">
         <v>13</v>
       </c>
       <c r="B52" s="22">
@@ -52355,7 +52433,7 @@
       <c r="BA52" s="19"/>
     </row>
     <row r="53" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="184"/>
+      <c r="A53" s="183"/>
       <c r="B53" s="32">
         <v>2</v>
       </c>
@@ -52515,7 +52593,7 @@
       <c r="BA53" s="44"/>
     </row>
     <row r="54" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="184"/>
+      <c r="A54" s="183"/>
       <c r="B54" s="32">
         <v>3</v>
       </c>
@@ -52673,7 +52751,7 @@
       <c r="BA54" s="40"/>
     </row>
     <row r="55" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="185"/>
+      <c r="A55" s="184"/>
       <c r="B55" s="48" t="s">
         <v>35</v>
       </c>
@@ -52844,7 +52922,7 @@
       <c r="BA55" s="57"/>
     </row>
     <row r="56" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="183">
+      <c r="A56" s="182">
         <v>14</v>
       </c>
       <c r="B56" s="22">
@@ -53010,7 +53088,7 @@
       <c r="BA56" s="19"/>
     </row>
     <row r="57" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="184"/>
+      <c r="A57" s="183"/>
       <c r="B57" s="32">
         <v>2</v>
       </c>
@@ -53170,7 +53248,7 @@
       <c r="BA57" s="44"/>
     </row>
     <row r="58" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="184"/>
+      <c r="A58" s="183"/>
       <c r="B58" s="32">
         <v>3</v>
       </c>
@@ -53330,7 +53408,7 @@
       <c r="BA58" s="40"/>
     </row>
     <row r="59" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="185"/>
+      <c r="A59" s="184"/>
       <c r="B59" s="48" t="s">
         <v>35</v>
       </c>
@@ -53501,7 +53579,7 @@
       <c r="BA59" s="57"/>
     </row>
     <row r="60" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="183">
+      <c r="A60" s="182">
         <v>15</v>
       </c>
       <c r="B60" s="22">
@@ -53667,7 +53745,7 @@
       <c r="BA60" s="19"/>
     </row>
     <row r="61" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="184"/>
+      <c r="A61" s="183"/>
       <c r="B61" s="32">
         <v>2</v>
       </c>
@@ -53827,7 +53905,7 @@
       <c r="BA61" s="44"/>
     </row>
     <row r="62" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="184"/>
+      <c r="A62" s="183"/>
       <c r="B62" s="32">
         <v>3</v>
       </c>
@@ -53987,7 +54065,7 @@
       <c r="BA62" s="40"/>
     </row>
     <row r="63" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="185"/>
+      <c r="A63" s="184"/>
       <c r="B63" s="48" t="s">
         <v>35</v>
       </c>
@@ -54158,7 +54236,7 @@
       <c r="BA63" s="57"/>
     </row>
     <row r="64" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="183">
+      <c r="A64" s="182">
         <v>16</v>
       </c>
       <c r="B64" s="22">
@@ -54320,7 +54398,7 @@
       <c r="BA64" s="19"/>
     </row>
     <row r="65" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="184"/>
+      <c r="A65" s="183"/>
       <c r="B65" s="32">
         <v>2</v>
       </c>
@@ -54480,7 +54558,7 @@
       <c r="BA65" s="44"/>
     </row>
     <row r="66" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="184"/>
+      <c r="A66" s="183"/>
       <c r="B66" s="32">
         <v>3</v>
       </c>
@@ -54640,7 +54718,7 @@
       <c r="BA66" s="40"/>
     </row>
     <row r="67" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="185"/>
+      <c r="A67" s="184"/>
       <c r="B67" s="48" t="s">
         <v>35</v>
       </c>
@@ -54811,7 +54889,7 @@
       <c r="BA67" s="57"/>
     </row>
     <row r="68" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="183">
+      <c r="A68" s="182">
         <v>17</v>
       </c>
       <c r="B68" s="22">
@@ -54933,7 +55011,7 @@
         <v>0.88471212790105758</v>
       </c>
       <c r="AK68" s="59">
-        <f t="shared" ref="AK68:AK75" si="682">IF(AND(AE68&gt;0,AN68&gt;0,AF68&gt;0),((AN68*(AE68-AF68))/(AE68*(AN68-AF68))),0)</f>
+        <f t="shared" ref="AK68:AK99" si="682">IF(AND(AE68&gt;0,AN68&gt;0,AF68&gt;0),((AN68*(AE68-AF68))/(AE68*(AN68-AF68))),0)</f>
         <v>0.88687886835656815</v>
       </c>
       <c r="AL68" s="11">
@@ -54973,7 +55051,7 @@
       <c r="BA68" s="19"/>
     </row>
     <row r="69" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="184"/>
+      <c r="A69" s="183"/>
       <c r="B69" s="32">
         <v>2</v>
       </c>
@@ -55133,7 +55211,7 @@
       <c r="BA69" s="44"/>
     </row>
     <row r="70" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="184"/>
+      <c r="A70" s="183"/>
       <c r="B70" s="32">
         <v>3</v>
       </c>
@@ -55293,7 +55371,7 @@
       <c r="BA70" s="40"/>
     </row>
     <row r="71" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="185"/>
+      <c r="A71" s="184"/>
       <c r="B71" s="48" t="s">
         <v>35</v>
       </c>
@@ -55464,7 +55542,7 @@
       <c r="BA71" s="57"/>
     </row>
     <row r="72" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="183">
+      <c r="A72" s="182">
         <v>18</v>
       </c>
       <c r="B72" s="22">
@@ -55606,7 +55684,7 @@
         <v>36.070574400000005</v>
       </c>
       <c r="AQ72" s="131">
-        <f t="shared" ref="AQ72:AQ75" si="727">AL72*(1-AM72)*AO72</f>
+        <f t="shared" ref="AQ72:AQ74" si="727">AL72*(1-AM72)*AO72</f>
         <v>34.803064800000001</v>
       </c>
       <c r="AR72" s="18">
@@ -55628,7 +55706,7 @@
       <c r="BA72" s="19"/>
     </row>
     <row r="73" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="184"/>
+      <c r="A73" s="183"/>
       <c r="B73" s="32">
         <v>2</v>
       </c>
@@ -55784,7 +55862,7 @@
       <c r="BA73" s="44"/>
     </row>
     <row r="74" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="184"/>
+      <c r="A74" s="183"/>
       <c r="B74" s="32">
         <v>3</v>
       </c>
@@ -55934,7 +56012,7 @@
       <c r="BA74" s="40"/>
     </row>
     <row r="75" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="185"/>
+      <c r="A75" s="184"/>
       <c r="B75" s="48" t="s">
         <v>35</v>
       </c>
@@ -56103,6 +56181,3924 @@
       <c r="AY75" s="57"/>
       <c r="AZ75" s="57"/>
       <c r="BA75" s="57"/>
+    </row>
+    <row r="76" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="182">
+        <v>19</v>
+      </c>
+      <c r="B76" s="22">
+        <v>1</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="11">
+        <v>7500</v>
+      </c>
+      <c r="E76" s="11">
+        <v>1</v>
+      </c>
+      <c r="F76" s="11">
+        <v>5375</v>
+      </c>
+      <c r="G76" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="H76" s="12">
+        <v>5</v>
+      </c>
+      <c r="I76" s="11">
+        <v>5326</v>
+      </c>
+      <c r="J76" s="12">
+        <v>7.3</v>
+      </c>
+      <c r="K76" s="11">
+        <v>15733</v>
+      </c>
+      <c r="L76" s="13">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="M76" s="23">
+        <f>ROUND(K76*(1-L76),0)</f>
+        <v>14852</v>
+      </c>
+      <c r="N76" s="14">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="O76" s="24">
+        <f t="shared" ref="O76:O78" si="761">M76*N76</f>
+        <v>10752.848</v>
+      </c>
+      <c r="P76" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="Q76" s="24">
+        <f t="shared" ref="Q76:Q78" si="762">M76*P76</f>
+        <v>2821.88</v>
+      </c>
+      <c r="R76" s="15">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="S76" s="143">
+        <v>0.2611</v>
+      </c>
+      <c r="T76" s="24">
+        <f t="shared" ref="T76:T78" si="763">M76*R76</f>
+        <v>1277.2719999999999</v>
+      </c>
+      <c r="U76" s="25">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="V76" s="24">
+        <f t="shared" ref="V76:V78" si="764">M76*U76</f>
+        <v>3579.3319999999999</v>
+      </c>
+      <c r="W76" s="15">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="X76" s="24">
+        <f t="shared" ref="X76:X78" si="765">M76*W76</f>
+        <v>7173.5159999999996</v>
+      </c>
+      <c r="Y76" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="Z76" s="24">
+        <f t="shared" ref="Z76:Z78" si="766">Y76*M76</f>
+        <v>6237.84</v>
+      </c>
+      <c r="AA76" s="145">
+        <v>2.4399999999999999E-3</v>
+      </c>
+      <c r="AB76" s="18">
+        <f t="shared" ref="AB76:AB99" si="767">M76*AA76</f>
+        <v>36.238880000000002</v>
+      </c>
+      <c r="AC76" s="16">
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="AD76" s="17">
+        <f t="shared" ref="AD76:AD78" si="768">M76*AC76</f>
+        <v>37.872600000000006</v>
+      </c>
+      <c r="AE76" s="26">
+        <f>IF(M76&gt;0,(AG76+AP76)/M76,0)</f>
+        <v>2.5621191085375707E-3</v>
+      </c>
+      <c r="AF76" s="16">
+        <v>3.1E-4</v>
+      </c>
+      <c r="AG76" s="23">
+        <f t="shared" ref="AG76:AG78" si="769">AF76*M76</f>
+        <v>4.60412</v>
+      </c>
+      <c r="AH76" s="114">
+        <v>0.21809999999999999</v>
+      </c>
+      <c r="AI76" s="29">
+        <f t="shared" ref="AI76:AI78" si="770">AL76*(1-AM76)*AH76</f>
+        <v>30.7291995</v>
+      </c>
+      <c r="AJ76" s="27">
+        <f t="shared" ref="AJ76:AJ78" si="771">IF(AND(AH76&gt;0,AF76&gt;0,AC76&gt;0),((AC76-AF76)*AH76)/((AH76-AF76)*AC76),0)</f>
+        <v>0.87968172254438315</v>
+      </c>
+      <c r="AK76" s="59">
+        <f t="shared" si="682"/>
+        <v>0.88015572445101853</v>
+      </c>
+      <c r="AL76" s="11">
+        <v>155</v>
+      </c>
+      <c r="AM76" s="13">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="AN76" s="14">
+        <v>0.2374</v>
+      </c>
+      <c r="AO76" s="130">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="AP76" s="29">
+        <f>AL76*(1-AM76)*AN76</f>
+        <v>33.448473</v>
+      </c>
+      <c r="AQ76" s="131">
+        <f t="shared" ref="AQ76:AQ98" si="772">AL76*(1-AM76)*AO76</f>
+        <v>31.842270000000003</v>
+      </c>
+      <c r="AR76" s="18">
+        <v>1.55</v>
+      </c>
+      <c r="AS76" s="18">
+        <v>1005.2</v>
+      </c>
+      <c r="AT76" s="98">
+        <f>AT74+AL76-AS76+AU76</f>
+        <v>379.52</v>
+      </c>
+      <c r="AU76" s="99">
+        <v>11.52</v>
+      </c>
+      <c r="AV76" s="11"/>
+      <c r="AW76" s="30"/>
+      <c r="AX76" s="19"/>
+      <c r="AY76" s="19"/>
+      <c r="AZ76" s="19"/>
+      <c r="BA76" s="19"/>
+    </row>
+    <row r="77" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="183"/>
+      <c r="B77" s="32">
+        <v>2</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" s="33">
+        <v>10400</v>
+      </c>
+      <c r="E77" s="33">
+        <v>2</v>
+      </c>
+      <c r="F77" s="33">
+        <v>7897</v>
+      </c>
+      <c r="G77" s="34">
+        <v>1.3</v>
+      </c>
+      <c r="H77" s="34">
+        <v>8.1</v>
+      </c>
+      <c r="I77" s="33">
+        <v>8798</v>
+      </c>
+      <c r="J77" s="34">
+        <v>7.9</v>
+      </c>
+      <c r="K77" s="33">
+        <v>14605</v>
+      </c>
+      <c r="L77" s="35">
+        <v>6.3E-2</v>
+      </c>
+      <c r="M77" s="36">
+        <f>ROUND(K77*(1-L77),0)</f>
+        <v>13685</v>
+      </c>
+      <c r="N77" s="37">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="O77" s="24">
+        <f t="shared" si="761"/>
+        <v>10427.969999999999</v>
+      </c>
+      <c r="P77" s="35">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="Q77" s="24">
+        <f t="shared" si="762"/>
+        <v>2695.9450000000002</v>
+      </c>
+      <c r="R77" s="38">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="S77" s="134">
+        <v>0.19919999999999999</v>
+      </c>
+      <c r="T77" s="24">
+        <f t="shared" si="763"/>
+        <v>561.08500000000004</v>
+      </c>
+      <c r="U77" s="27">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="V77" s="24">
+        <f t="shared" si="764"/>
+        <v>2832.7950000000001</v>
+      </c>
+      <c r="W77" s="38">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="X77" s="24">
+        <f t="shared" si="765"/>
+        <v>6924.61</v>
+      </c>
+      <c r="Y77" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="Z77" s="24">
+        <f t="shared" si="766"/>
+        <v>5474</v>
+      </c>
+      <c r="AA77" s="146">
+        <v>2.47E-3</v>
+      </c>
+      <c r="AB77" s="18">
+        <f t="shared" si="767"/>
+        <v>33.801949999999998</v>
+      </c>
+      <c r="AC77" s="39">
+        <v>2.48E-3</v>
+      </c>
+      <c r="AD77" s="17">
+        <f t="shared" si="768"/>
+        <v>33.938800000000001</v>
+      </c>
+      <c r="AE77" s="26">
+        <f>IF(M77&gt;0,(AG77+AP77)/M77,0)</f>
+        <v>2.7149187723785164E-3</v>
+      </c>
+      <c r="AF77" s="39">
+        <v>3.1E-4</v>
+      </c>
+      <c r="AG77" s="36">
+        <f t="shared" si="769"/>
+        <v>4.2423500000000001</v>
+      </c>
+      <c r="AH77" s="27">
+        <v>0.21390000000000001</v>
+      </c>
+      <c r="AI77" s="40">
+        <f t="shared" si="770"/>
+        <v>30.794969099999999</v>
+      </c>
+      <c r="AJ77" s="27">
+        <f t="shared" si="771"/>
+        <v>0.8762699564586357</v>
+      </c>
+      <c r="AK77" s="28">
+        <f t="shared" si="682"/>
+        <v>0.88701897413932629</v>
+      </c>
+      <c r="AL77" s="33">
+        <v>157</v>
+      </c>
+      <c r="AM77" s="35">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AN77" s="37">
+        <v>0.2286</v>
+      </c>
+      <c r="AO77" s="132">
+        <v>0.221</v>
+      </c>
+      <c r="AP77" s="40">
+        <f>AL77*(1-AM77)*AN77</f>
+        <v>32.911313399999997</v>
+      </c>
+      <c r="AQ77" s="133">
+        <f t="shared" si="772"/>
+        <v>31.817149000000001</v>
+      </c>
+      <c r="AR77" s="41">
+        <v>1.55</v>
+      </c>
+      <c r="AS77" s="41"/>
+      <c r="AT77" s="117">
+        <f>AT76+AL77-AS77</f>
+        <v>536.52</v>
+      </c>
+      <c r="AU77" s="101"/>
+      <c r="AV77" s="42"/>
+      <c r="AW77" s="43"/>
+      <c r="AX77" s="44"/>
+      <c r="AY77" s="44"/>
+      <c r="AZ77" s="44"/>
+      <c r="BA77" s="44"/>
+    </row>
+    <row r="78" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="183"/>
+      <c r="B78" s="32">
+        <v>3</v>
+      </c>
+      <c r="C78" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="42">
+        <v>15871</v>
+      </c>
+      <c r="E78" s="42">
+        <v>2</v>
+      </c>
+      <c r="F78" s="42">
+        <v>18717</v>
+      </c>
+      <c r="G78" s="36">
+        <v>1</v>
+      </c>
+      <c r="H78" s="36">
+        <v>5.8</v>
+      </c>
+      <c r="I78" s="42">
+        <v>18751</v>
+      </c>
+      <c r="J78" s="123">
+        <v>6</v>
+      </c>
+      <c r="K78" s="42">
+        <v>15212</v>
+      </c>
+      <c r="L78" s="38">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="M78" s="36">
+        <f>ROUND(K78*(1-L78),0)</f>
+        <v>14314</v>
+      </c>
+      <c r="N78" s="27">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="O78" s="24">
+        <f t="shared" si="761"/>
+        <v>11250.804</v>
+      </c>
+      <c r="P78" s="38">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="Q78" s="24">
+        <f t="shared" si="762"/>
+        <v>2476.3219999999997</v>
+      </c>
+      <c r="R78" s="38">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="S78" s="134">
+        <v>0.21859999999999999</v>
+      </c>
+      <c r="T78" s="24">
+        <f t="shared" si="763"/>
+        <v>586.87400000000002</v>
+      </c>
+      <c r="U78" s="27">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="V78" s="24">
+        <f t="shared" si="764"/>
+        <v>2977.3119999999999</v>
+      </c>
+      <c r="W78" s="38">
+        <v>0.501</v>
+      </c>
+      <c r="X78" s="24">
+        <f t="shared" si="765"/>
+        <v>7171.3140000000003</v>
+      </c>
+      <c r="Y78" s="38">
+        <v>0.41</v>
+      </c>
+      <c r="Z78" s="24">
+        <f t="shared" si="766"/>
+        <v>5868.74</v>
+      </c>
+      <c r="AA78" s="147">
+        <v>2.4399999999999999E-3</v>
+      </c>
+      <c r="AB78" s="148">
+        <f t="shared" si="767"/>
+        <v>34.926159999999996</v>
+      </c>
+      <c r="AC78" s="46">
+        <v>2.5699999999999998E-3</v>
+      </c>
+      <c r="AD78" s="17">
+        <f t="shared" si="768"/>
+        <v>36.78698</v>
+      </c>
+      <c r="AE78" s="26">
+        <f>IF(M78&gt;0,(AG78+AP78)/M78,0)</f>
+        <v>2.6163909459270638E-3</v>
+      </c>
+      <c r="AF78" s="46">
+        <v>3.1E-4</v>
+      </c>
+      <c r="AG78" s="36">
+        <f t="shared" si="769"/>
+        <v>4.4373399999999998</v>
+      </c>
+      <c r="AH78" s="27">
+        <v>0.22239999999999999</v>
+      </c>
+      <c r="AI78" s="40">
+        <f t="shared" si="770"/>
+        <v>30.491039999999998</v>
+      </c>
+      <c r="AJ78" s="27">
+        <f t="shared" si="771"/>
+        <v>0.8806048937639297</v>
+      </c>
+      <c r="AK78" s="28">
+        <f t="shared" si="682"/>
+        <v>0.88265248277007513</v>
+      </c>
+      <c r="AL78" s="42">
+        <v>150</v>
+      </c>
+      <c r="AM78" s="38">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AN78" s="27">
+        <v>0.24079999999999999</v>
+      </c>
+      <c r="AO78" s="134">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="AP78" s="40">
+        <f>AL78*(1-AM78)*AN78</f>
+        <v>33.013679999999994</v>
+      </c>
+      <c r="AQ78" s="135">
+        <f t="shared" si="772"/>
+        <v>31.985430000000001</v>
+      </c>
+      <c r="AR78" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="AS78" s="17"/>
+      <c r="AT78" s="117">
+        <f>AT77+AL78-AS78</f>
+        <v>686.52</v>
+      </c>
+      <c r="AU78" s="101"/>
+      <c r="AV78" s="42"/>
+      <c r="AW78" s="47"/>
+      <c r="AX78" s="40"/>
+      <c r="AY78" s="40"/>
+      <c r="AZ78" s="40"/>
+      <c r="BA78" s="40"/>
+    </row>
+    <row r="79" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="184"/>
+      <c r="B79" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" s="49"/>
+      <c r="D79" s="50">
+        <f t="shared" ref="D79" si="773">SUM(D76:D78)</f>
+        <v>33771</v>
+      </c>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50">
+        <f t="shared" ref="F79" si="774">SUM(F76:F78)</f>
+        <v>31989</v>
+      </c>
+      <c r="G79" s="51"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="50">
+        <f t="shared" ref="I79:K79" si="775">SUM(I76:I78)</f>
+        <v>32875</v>
+      </c>
+      <c r="J79" s="51"/>
+      <c r="K79" s="50">
+        <f t="shared" si="775"/>
+        <v>45550</v>
+      </c>
+      <c r="L79" s="20">
+        <f t="shared" ref="L79" si="776">IF(K79&gt;0,(K76*L76+K77*L77+K78*L78)/K79,0)</f>
+        <v>5.9246344676180021E-2</v>
+      </c>
+      <c r="M79" s="51">
+        <f t="shared" ref="M79" si="777">M76+M77+M78</f>
+        <v>42851</v>
+      </c>
+      <c r="N79" s="52">
+        <f t="shared" ref="N79" si="778">IF(M79&gt;0,O79/M79,0)</f>
+        <v>0.75684632797367624</v>
+      </c>
+      <c r="O79" s="53">
+        <f t="shared" ref="O79" si="779">O76+O77+O78</f>
+        <v>32431.621999999999</v>
+      </c>
+      <c r="P79" s="20">
+        <f t="shared" ref="P79" si="780">IF(M79&gt;0,Q79/M79,0)</f>
+        <v>0.18655683647989546</v>
+      </c>
+      <c r="Q79" s="53">
+        <f t="shared" ref="Q79" si="781">Q76+Q77+Q78</f>
+        <v>7994.1470000000008</v>
+      </c>
+      <c r="R79" s="20">
+        <f t="shared" ref="R79" si="782">IF(M79&gt;0,T79/M79,0)</f>
+        <v>5.6596835546428317E-2</v>
+      </c>
+      <c r="S79" s="136"/>
+      <c r="T79" s="53">
+        <f t="shared" ref="T79" si="783">T76+T77+T78</f>
+        <v>2425.2309999999998</v>
+      </c>
+      <c r="U79" s="20">
+        <f t="shared" ref="U79" si="784">IF(M79&gt;0,V79/M79,0)</f>
+        <v>0.2191183169587641</v>
+      </c>
+      <c r="V79" s="53">
+        <f t="shared" ref="V79" si="785">V76+V77+V78</f>
+        <v>9389.4390000000003</v>
+      </c>
+      <c r="W79" s="20">
+        <f t="shared" ref="W79" si="786">IF(M79&gt;0,X79/M79,0)</f>
+        <v>0.49635807799117881</v>
+      </c>
+      <c r="X79" s="53">
+        <f t="shared" ref="X79" si="787">X76+X77+X78</f>
+        <v>21269.440000000002</v>
+      </c>
+      <c r="Y79" s="20">
+        <f t="shared" ref="Y79" si="788">IF(M79&gt;0,Z79/M79,0)</f>
+        <v>0.41027233903526178</v>
+      </c>
+      <c r="Z79" s="53">
+        <f t="shared" ref="Z79" si="789">Z76+Z77+Z78</f>
+        <v>17580.580000000002</v>
+      </c>
+      <c r="AA79" s="152">
+        <f t="shared" ref="AA79" si="790">IF(M79&gt;0,AB79/M79,0)</f>
+        <v>2.4495808732585005E-3</v>
+      </c>
+      <c r="AB79" s="55">
+        <f t="shared" ref="AB79" si="791">SUM(AB76:AB78)</f>
+        <v>104.96699</v>
+      </c>
+      <c r="AC79" s="54">
+        <f t="shared" ref="AC79" si="792">IF(M79&gt;0,AD79/M79,0)</f>
+        <v>2.5343254533149754E-3</v>
+      </c>
+      <c r="AD79" s="55">
+        <f t="shared" ref="AD79" si="793">SUM(AD76:AD78)</f>
+        <v>108.59838000000001</v>
+      </c>
+      <c r="AE79" s="54">
+        <f t="shared" ref="AE79" si="794">IF(M79&gt;0,(AE76*M76+AE77*M77+AE78*M78)/M79,0)</f>
+        <v>2.6290466126811509E-3</v>
+      </c>
+      <c r="AF79" s="54">
+        <f t="shared" ref="AF79" si="795">IF(K79&gt;0,(K76*AF76+K77*AF77+K78*AF78)/K79,0)</f>
+        <v>3.1E-4</v>
+      </c>
+      <c r="AG79" s="51">
+        <f t="shared" ref="AG79" si="796">SUM(AG76:AG78)</f>
+        <v>13.283809999999999</v>
+      </c>
+      <c r="AH79" s="52">
+        <f t="shared" ref="AH79" si="797">IF(K79&gt;0,(K76*AH76+K77*AH77+K78*AH78)/K79,0)</f>
+        <v>0.21818936553238202</v>
+      </c>
+      <c r="AI79" s="57">
+        <f t="shared" ref="AI79" si="798">SUM(AI76:AI78)</f>
+        <v>92.015208599999994</v>
+      </c>
+      <c r="AJ79" s="52">
+        <f t="shared" ref="AJ79" si="799">IF(AND(AD79&gt;0),((AD76*AJ76+AD77*AJ77+AD78*AJ78)/AD79),0)</f>
+        <v>0.8789282070164266</v>
+      </c>
+      <c r="AK79" s="56">
+        <f t="shared" si="682"/>
+        <v>0.88324814055922551</v>
+      </c>
+      <c r="AL79" s="50">
+        <f t="shared" ref="AL79" si="800">SUM(AL76:AL78)</f>
+        <v>462</v>
+      </c>
+      <c r="AM79" s="20">
+        <f t="shared" ref="AM79" si="801">IF(AL79&gt;0,(AM76*AL76+AM77*AL77+AM78*AL78)/AL79,0)</f>
+        <v>8.6658008658008656E-2</v>
+      </c>
+      <c r="AN79" s="52">
+        <f>IF(K79&gt;0,(AN76*K76+AN77*K77+AN78*K78)/K79,0)</f>
+        <v>0.23571387047200876</v>
+      </c>
+      <c r="AO79" s="136">
+        <f>IF(L79&gt;0,(AO76*K76+AO77*K77+AO78*K78)/K79,0)</f>
+        <v>0.22683474423710207</v>
+      </c>
+      <c r="AP79" s="57">
+        <f t="shared" ref="AP79" si="802">SUM(AP76:AP78)</f>
+        <v>99.373466399999984</v>
+      </c>
+      <c r="AQ79" s="137">
+        <f t="shared" ref="AQ79:AQ99" si="803">SUM(AQ76:AQ78)</f>
+        <v>95.644848999999994</v>
+      </c>
+      <c r="AR79" s="55"/>
+      <c r="AS79" s="55">
+        <f t="shared" ref="AS79" si="804">SUM(AS76:AS78)</f>
+        <v>1005.2</v>
+      </c>
+      <c r="AT79" s="102"/>
+      <c r="AU79" s="103">
+        <f>AT78</f>
+        <v>686.52</v>
+      </c>
+      <c r="AV79" s="50">
+        <f t="shared" ref="AV79" si="805">SUM(AV76:AV78)</f>
+        <v>0</v>
+      </c>
+      <c r="AW79" s="58"/>
+      <c r="AX79" s="57"/>
+      <c r="AY79" s="57"/>
+      <c r="AZ79" s="57"/>
+      <c r="BA79" s="57"/>
+    </row>
+    <row r="80" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="182">
+        <v>20</v>
+      </c>
+      <c r="B80" s="22">
+        <v>1</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="11">
+        <v>6161</v>
+      </c>
+      <c r="E80" s="11">
+        <v>0</v>
+      </c>
+      <c r="F80" s="11">
+        <v>16452</v>
+      </c>
+      <c r="G80" s="12">
+        <v>1</v>
+      </c>
+      <c r="H80" s="12">
+        <v>6.2</v>
+      </c>
+      <c r="I80" s="11">
+        <v>16416</v>
+      </c>
+      <c r="J80" s="121">
+        <v>5.9</v>
+      </c>
+      <c r="K80" s="11">
+        <v>15429</v>
+      </c>
+      <c r="L80" s="13">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="M80" s="23">
+        <f>ROUND(K80*(1-L80),0)</f>
+        <v>14519</v>
+      </c>
+      <c r="N80" s="14">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="O80" s="24">
+        <f t="shared" ref="O80:O82" si="806">M80*N80</f>
+        <v>10715.021999999999</v>
+      </c>
+      <c r="P80" s="13">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="Q80" s="24">
+        <f t="shared" ref="Q80:Q82" si="807">M80*P80</f>
+        <v>3019.9519999999998</v>
+      </c>
+      <c r="R80" s="15">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="S80" s="143">
+        <v>0.17860000000000001</v>
+      </c>
+      <c r="T80" s="24">
+        <f t="shared" ref="T80:T82" si="808">M80*R80</f>
+        <v>784.02599999999995</v>
+      </c>
+      <c r="U80" s="25">
+        <v>0.223</v>
+      </c>
+      <c r="V80" s="24">
+        <f t="shared" ref="V80:V82" si="809">M80*U80</f>
+        <v>3237.7370000000001</v>
+      </c>
+      <c r="W80" s="15">
+        <v>0.498</v>
+      </c>
+      <c r="X80" s="24">
+        <f t="shared" ref="X80:X82" si="810">M80*W80</f>
+        <v>7230.4619999999995</v>
+      </c>
+      <c r="Y80" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="Z80" s="24">
+        <f t="shared" ref="Z80:Z82" si="811">Y80*M80</f>
+        <v>6097.98</v>
+      </c>
+      <c r="AA80" s="145">
+        <v>2.4299999999999999E-3</v>
+      </c>
+      <c r="AB80" s="18">
+        <f t="shared" ref="AB80" si="812">M80*AA80</f>
+        <v>35.281169999999996</v>
+      </c>
+      <c r="AC80" s="16">
+        <v>2.49E-3</v>
+      </c>
+      <c r="AD80" s="17">
+        <f t="shared" ref="AD80:AD82" si="813">M80*AC80</f>
+        <v>36.15231</v>
+      </c>
+      <c r="AE80" s="26">
+        <f>IF(M80&gt;0,(AG80+AP80)/M80,0)</f>
+        <v>2.8744757283559476E-3</v>
+      </c>
+      <c r="AF80" s="16">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="AG80" s="23">
+        <f t="shared" ref="AG80:AG82" si="814">AF80*M80</f>
+        <v>4.0653199999999998</v>
+      </c>
+      <c r="AH80" s="114">
+        <v>0.2072</v>
+      </c>
+      <c r="AI80" s="29">
+        <f t="shared" ref="AI80:AI82" si="815">AL80*(1-AM80)*AH80</f>
+        <v>33.483727199999997</v>
+      </c>
+      <c r="AJ80" s="27">
+        <f t="shared" ref="AJ80:AJ82" si="816">IF(AND(AH80&gt;0,AF80&gt;0,AC80&gt;0),((AC80-AF80)*AH80)/((AH80-AF80)*AC80),0)</f>
+        <v>0.88875121595991546</v>
+      </c>
+      <c r="AK80" s="59">
+        <f t="shared" si="682"/>
+        <v>0.90367642980013207</v>
+      </c>
+      <c r="AL80" s="11">
+        <v>177</v>
+      </c>
+      <c r="AM80" s="13">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="AN80" s="14">
+        <v>0.2331</v>
+      </c>
+      <c r="AO80" s="130">
+        <v>0.21590000000000001</v>
+      </c>
+      <c r="AP80" s="29">
+        <f>AL80*(1-AM80)*AN80</f>
+        <v>37.669193100000001</v>
+      </c>
+      <c r="AQ80" s="131">
+        <f t="shared" ref="AQ80" si="817">AL80*(1-AM80)*AO80</f>
+        <v>34.889655900000001</v>
+      </c>
+      <c r="AR80" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="AS80" s="18">
+        <v>503.54</v>
+      </c>
+      <c r="AT80" s="98">
+        <f>AT78+AL80-AS80+AU80</f>
+        <v>363.97999999999996</v>
+      </c>
+      <c r="AU80" s="99">
+        <v>4</v>
+      </c>
+      <c r="AV80" s="11"/>
+      <c r="AW80" s="30"/>
+      <c r="AX80" s="19"/>
+      <c r="AY80" s="19"/>
+      <c r="AZ80" s="19"/>
+      <c r="BA80" s="19"/>
+    </row>
+    <row r="81" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="183"/>
+      <c r="B81" s="32">
+        <v>2</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" s="33">
+        <v>23300</v>
+      </c>
+      <c r="E81" s="33">
+        <v>6</v>
+      </c>
+      <c r="F81" s="33">
+        <v>17388</v>
+      </c>
+      <c r="G81" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="H81" s="34">
+        <v>7.3</v>
+      </c>
+      <c r="I81" s="33">
+        <v>17484</v>
+      </c>
+      <c r="J81" s="34">
+        <v>5</v>
+      </c>
+      <c r="K81" s="33">
+        <v>15583</v>
+      </c>
+      <c r="L81" s="35">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="M81" s="36">
+        <f>ROUND(K81*(1-L81),0)</f>
+        <v>14523</v>
+      </c>
+      <c r="N81" s="37">
+        <v>0.748</v>
+      </c>
+      <c r="O81" s="24">
+        <f t="shared" si="806"/>
+        <v>10863.204</v>
+      </c>
+      <c r="P81" s="35">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="Q81" s="24">
+        <f t="shared" si="807"/>
+        <v>3035.3069999999998</v>
+      </c>
+      <c r="R81" s="38">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="S81" s="134">
+        <v>0.2006</v>
+      </c>
+      <c r="T81" s="24">
+        <f t="shared" si="808"/>
+        <v>624.48899999999992</v>
+      </c>
+      <c r="U81" s="27">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="V81" s="24">
+        <f t="shared" si="809"/>
+        <v>3282.1980000000003</v>
+      </c>
+      <c r="W81" s="38">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="X81" s="24">
+        <f t="shared" si="810"/>
+        <v>7145.3159999999998</v>
+      </c>
+      <c r="Y81" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="Z81" s="24">
+        <f t="shared" si="811"/>
+        <v>5809.2000000000007</v>
+      </c>
+      <c r="AA81" s="146">
+        <v>2.4299999999999999E-3</v>
+      </c>
+      <c r="AB81" s="18">
+        <f t="shared" si="767"/>
+        <v>35.290889999999997</v>
+      </c>
+      <c r="AC81" s="39">
+        <v>2.4299999999999999E-3</v>
+      </c>
+      <c r="AD81" s="17">
+        <f t="shared" si="813"/>
+        <v>35.290889999999997</v>
+      </c>
+      <c r="AE81" s="26">
+        <f>IF(M81&gt;0,(AG81+AP81)/M81,0)</f>
+        <v>2.5544061557529439E-3</v>
+      </c>
+      <c r="AF81" s="39">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="AG81" s="36">
+        <f t="shared" si="814"/>
+        <v>4.0664400000000001</v>
+      </c>
+      <c r="AH81" s="27">
+        <v>0.2109</v>
+      </c>
+      <c r="AI81" s="40">
+        <f t="shared" si="815"/>
+        <v>30.783385800000005</v>
+      </c>
+      <c r="AJ81" s="27">
+        <f t="shared" si="816"/>
+        <v>0.88594988810226372</v>
+      </c>
+      <c r="AK81" s="28">
+        <f t="shared" si="682"/>
+        <v>0.89148851666121243</v>
+      </c>
+      <c r="AL81" s="33">
+        <v>159</v>
+      </c>
+      <c r="AM81" s="35">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="AN81" s="37">
+        <v>0.2263</v>
+      </c>
+      <c r="AO81" s="132">
+        <v>0.23039999999999999</v>
+      </c>
+      <c r="AP81" s="40">
+        <f>AL81*(1-AM81)*AN81</f>
+        <v>33.031200600000005</v>
+      </c>
+      <c r="AQ81" s="133">
+        <f t="shared" si="772"/>
+        <v>33.629644800000001</v>
+      </c>
+      <c r="AR81" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="AS81" s="41"/>
+      <c r="AT81" s="117">
+        <f>AT80+AL81-AS81</f>
+        <v>522.98</v>
+      </c>
+      <c r="AU81" s="101"/>
+      <c r="AV81" s="42"/>
+      <c r="AW81" s="43"/>
+      <c r="AX81" s="44"/>
+      <c r="AY81" s="44"/>
+      <c r="AZ81" s="44"/>
+      <c r="BA81" s="44"/>
+    </row>
+    <row r="82" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="183"/>
+      <c r="B82" s="32">
+        <v>3</v>
+      </c>
+      <c r="C82" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" s="42">
+        <v>23987</v>
+      </c>
+      <c r="E82" s="42">
+        <v>1</v>
+      </c>
+      <c r="F82" s="42">
+        <v>20106</v>
+      </c>
+      <c r="G82" s="36">
+        <v>1.3</v>
+      </c>
+      <c r="H82" s="36">
+        <v>6.3</v>
+      </c>
+      <c r="I82" s="42">
+        <v>19447</v>
+      </c>
+      <c r="J82" s="36">
+        <v>3.9</v>
+      </c>
+      <c r="K82" s="42">
+        <v>15744</v>
+      </c>
+      <c r="L82" s="38">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="M82" s="36">
+        <f>ROUND(K82*(1-L82),0)</f>
+        <v>14736</v>
+      </c>
+      <c r="N82" s="27">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="O82" s="24">
+        <f t="shared" si="806"/>
+        <v>8797.3919999999998</v>
+      </c>
+      <c r="P82" s="38">
+        <v>0.37</v>
+      </c>
+      <c r="Q82" s="24">
+        <f t="shared" si="807"/>
+        <v>5452.32</v>
+      </c>
+      <c r="R82" s="38">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="S82" s="134">
+        <v>0.1956</v>
+      </c>
+      <c r="T82" s="24">
+        <f t="shared" si="808"/>
+        <v>486.28800000000001</v>
+      </c>
+      <c r="U82" s="27">
+        <v>0.23</v>
+      </c>
+      <c r="V82" s="24">
+        <f t="shared" si="809"/>
+        <v>3389.28</v>
+      </c>
+      <c r="W82" s="38">
+        <v>0.496</v>
+      </c>
+      <c r="X82" s="24">
+        <f t="shared" si="810"/>
+        <v>7309.0559999999996</v>
+      </c>
+      <c r="Y82" s="38">
+        <v>0.42</v>
+      </c>
+      <c r="Z82" s="24">
+        <f t="shared" si="811"/>
+        <v>6189.12</v>
+      </c>
+      <c r="AA82" s="147">
+        <v>2.5600000000000002E-3</v>
+      </c>
+      <c r="AB82" s="148">
+        <f t="shared" si="767"/>
+        <v>37.724160000000005</v>
+      </c>
+      <c r="AC82" s="46">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="AD82" s="17">
+        <f t="shared" si="813"/>
+        <v>38.313600000000001</v>
+      </c>
+      <c r="AE82" s="26">
+        <f>IF(M82&gt;0,(AG82+AP82)/M82,0)</f>
+        <v>2.591060043431054E-3</v>
+      </c>
+      <c r="AF82" s="46">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="AG82" s="36">
+        <f t="shared" si="814"/>
+        <v>4.12608</v>
+      </c>
+      <c r="AH82" s="27">
+        <v>0.21490000000000001</v>
+      </c>
+      <c r="AI82" s="40">
+        <f t="shared" si="815"/>
+        <v>32.283137600000003</v>
+      </c>
+      <c r="AJ82" s="27">
+        <f t="shared" si="816"/>
+        <v>0.89347182497867439</v>
+      </c>
+      <c r="AK82" s="28">
+        <f t="shared" si="682"/>
+        <v>0.89303912439062449</v>
+      </c>
+      <c r="AL82" s="42">
+        <v>164</v>
+      </c>
+      <c r="AM82" s="38">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AN82" s="27">
+        <v>0.22670000000000001</v>
+      </c>
+      <c r="AO82" s="134">
+        <v>0.22969999999999999</v>
+      </c>
+      <c r="AP82" s="40">
+        <f>AL82*(1-AM82)*AN82</f>
+        <v>34.055780800000008</v>
+      </c>
+      <c r="AQ82" s="135">
+        <f t="shared" si="772"/>
+        <v>34.506452800000005</v>
+      </c>
+      <c r="AR82" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="AS82" s="17"/>
+      <c r="AT82" s="117">
+        <f>AT81+AL82-AS82</f>
+        <v>686.98</v>
+      </c>
+      <c r="AU82" s="101"/>
+      <c r="AV82" s="42"/>
+      <c r="AW82" s="47"/>
+      <c r="AX82" s="40"/>
+      <c r="AY82" s="40"/>
+      <c r="AZ82" s="40"/>
+      <c r="BA82" s="40"/>
+    </row>
+    <row r="83" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="184"/>
+      <c r="B83" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="49"/>
+      <c r="D83" s="50">
+        <f t="shared" ref="D83" si="818">SUM(D80:D82)</f>
+        <v>53448</v>
+      </c>
+      <c r="E83" s="50"/>
+      <c r="F83" s="50">
+        <f t="shared" ref="F83" si="819">SUM(F80:F82)</f>
+        <v>53946</v>
+      </c>
+      <c r="G83" s="51"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="50">
+        <f t="shared" ref="I83:K83" si="820">SUM(I80:I82)</f>
+        <v>53347</v>
+      </c>
+      <c r="J83" s="51"/>
+      <c r="K83" s="50">
+        <f t="shared" si="820"/>
+        <v>46756</v>
+      </c>
+      <c r="L83" s="20">
+        <f t="shared" ref="L83" si="821">IF(K83&gt;0,(K80*L80+K81*L81+K82*L82)/K83,0)</f>
+        <v>6.368318504576953E-2</v>
+      </c>
+      <c r="M83" s="51">
+        <f t="shared" ref="M83" si="822">M80+M81+M82</f>
+        <v>43778</v>
+      </c>
+      <c r="N83" s="52">
+        <f t="shared" ref="N83" si="823">IF(M83&gt;0,O83/M83,0)</f>
+        <v>0.69385577230572426</v>
+      </c>
+      <c r="O83" s="53">
+        <f t="shared" ref="O83" si="824">O80+O81+O82</f>
+        <v>30375.617999999999</v>
+      </c>
+      <c r="P83" s="20">
+        <f t="shared" ref="P83" si="825">IF(M83&gt;0,Q83/M83,0)</f>
+        <v>0.26286214536982044</v>
+      </c>
+      <c r="Q83" s="53">
+        <f t="shared" ref="Q83" si="826">Q80+Q81+Q82</f>
+        <v>11507.579</v>
+      </c>
+      <c r="R83" s="20">
+        <f t="shared" ref="R83" si="827">IF(M83&gt;0,T83/M83,0)</f>
+        <v>4.3282082324455205E-2</v>
+      </c>
+      <c r="S83" s="136"/>
+      <c r="T83" s="53">
+        <f t="shared" ref="T83" si="828">T80+T81+T82</f>
+        <v>1894.8029999999999</v>
+      </c>
+      <c r="U83" s="20">
+        <f t="shared" ref="U83" si="829">IF(M83&gt;0,V83/M83,0)</f>
+        <v>0.22635147791127963</v>
+      </c>
+      <c r="V83" s="53">
+        <f t="shared" ref="V83" si="830">V80+V81+V82</f>
+        <v>9909.2150000000001</v>
+      </c>
+      <c r="W83" s="20">
+        <f t="shared" ref="W83" si="831">IF(M83&gt;0,X83/M83,0)</f>
+        <v>0.49533633331810495</v>
+      </c>
+      <c r="X83" s="53">
+        <f t="shared" ref="X83" si="832">X80+X81+X82</f>
+        <v>21684.833999999999</v>
+      </c>
+      <c r="Y83" s="20">
+        <f t="shared" ref="Y83" si="833">IF(M83&gt;0,Z83/M83,0)</f>
+        <v>0.4133651605829412</v>
+      </c>
+      <c r="Z83" s="53">
+        <f t="shared" ref="Z83" si="834">Z80+Z81+Z82</f>
+        <v>18096.3</v>
+      </c>
+      <c r="AA83" s="152">
+        <f t="shared" ref="AA83" si="835">IF(M83&gt;0,AB83/M83,0)</f>
+        <v>2.4737589656905297E-3</v>
+      </c>
+      <c r="AB83" s="55">
+        <f t="shared" ref="AB83" si="836">SUM(AB80:AB82)</f>
+        <v>108.29622000000001</v>
+      </c>
+      <c r="AC83" s="54">
+        <f t="shared" ref="AC83" si="837">IF(M83&gt;0,AD83/M83,0)</f>
+        <v>2.5071222988715795E-3</v>
+      </c>
+      <c r="AD83" s="55">
+        <f t="shared" ref="AD83" si="838">SUM(AD80:AD82)</f>
+        <v>109.7568</v>
+      </c>
+      <c r="AE83" s="54">
+        <f t="shared" ref="AE83" si="839">IF(M83&gt;0,(AE80*M80+AE81*M81+AE82*M82)/M83,0)</f>
+        <v>2.6728953926629818E-3</v>
+      </c>
+      <c r="AF83" s="54">
+        <f t="shared" ref="AF83" si="840">IF(K83&gt;0,(K80*AF80+K81*AF81+K82*AF82)/K83,0)</f>
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="AG83" s="51">
+        <f t="shared" ref="AG83" si="841">SUM(AG80:AG82)</f>
+        <v>12.25784</v>
+      </c>
+      <c r="AH83" s="52">
+        <f t="shared" ref="AH83" si="842">IF(K83&gt;0,(K80*AH80+K81*AH81+K82*AH82)/K83,0)</f>
+        <v>0.21102594533321928</v>
+      </c>
+      <c r="AI83" s="57">
+        <f t="shared" ref="AI83" si="843">SUM(AI80:AI82)</f>
+        <v>96.550250599999998</v>
+      </c>
+      <c r="AJ83" s="52">
+        <f t="shared" ref="AJ83" si="844">IF(AND(AD83&gt;0),((AD80*AJ80+AD81*AJ81+AD82*AJ82)/AD83),0)</f>
+        <v>0.88949834208260492</v>
+      </c>
+      <c r="AK83" s="56">
+        <f t="shared" si="682"/>
+        <v>0.89634218904739271</v>
+      </c>
+      <c r="AL83" s="50">
+        <f t="shared" ref="AL83" si="845">SUM(AL80:AL82)</f>
+        <v>500</v>
+      </c>
+      <c r="AM83" s="20">
+        <f t="shared" ref="AM83" si="846">IF(AL83&gt;0,(AM80*AL80+AM81*AL81+AM82*AL82)/AL83,0)</f>
+        <v>8.4426000000000001E-2</v>
+      </c>
+      <c r="AN83" s="52">
+        <f>IF(K83&gt;0,(AN80*K80+AN81*K81+AN82*K82)/K83,0)</f>
+        <v>0.22867862092565663</v>
+      </c>
+      <c r="AO83" s="136">
+        <f>IF(L83&gt;0,(AO80*K80+AO81*K81+AO82*K82)/K83,0)</f>
+        <v>0.22537944007186242</v>
+      </c>
+      <c r="AP83" s="57">
+        <f t="shared" ref="AP83" si="847">SUM(AP80:AP82)</f>
+        <v>104.75617450000001</v>
+      </c>
+      <c r="AQ83" s="137">
+        <f t="shared" si="803"/>
+        <v>103.02575350000001</v>
+      </c>
+      <c r="AR83" s="55"/>
+      <c r="AS83" s="55">
+        <f t="shared" ref="AS83" si="848">SUM(AS80:AS82)</f>
+        <v>503.54</v>
+      </c>
+      <c r="AT83" s="102"/>
+      <c r="AU83" s="103">
+        <f>AT82</f>
+        <v>686.98</v>
+      </c>
+      <c r="AV83" s="50">
+        <f t="shared" ref="AV83" si="849">SUM(AV80:AV82)</f>
+        <v>0</v>
+      </c>
+      <c r="AW83" s="58"/>
+      <c r="AX83" s="57"/>
+      <c r="AY83" s="57"/>
+      <c r="AZ83" s="57"/>
+      <c r="BA83" s="57"/>
+    </row>
+    <row r="84" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="182">
+        <v>21</v>
+      </c>
+      <c r="B84" s="22">
+        <v>1</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="11">
+        <v>6111</v>
+      </c>
+      <c r="E84" s="11">
+        <v>0</v>
+      </c>
+      <c r="F84" s="11">
+        <v>13454</v>
+      </c>
+      <c r="G84" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="H84" s="12">
+        <v>6.3</v>
+      </c>
+      <c r="I84" s="11">
+        <v>13432</v>
+      </c>
+      <c r="J84" s="12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K84" s="11">
+        <v>15187</v>
+      </c>
+      <c r="L84" s="13">
+        <v>6.2E-2</v>
+      </c>
+      <c r="M84" s="23">
+        <f>ROUND(K84*(1-L84),0)</f>
+        <v>14245</v>
+      </c>
+      <c r="N84" s="14">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="O84" s="24">
+        <f t="shared" ref="O84:O86" si="850">M84*N84</f>
+        <v>8675.2049999999999</v>
+      </c>
+      <c r="P84" s="13">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="Q84" s="24">
+        <f t="shared" ref="Q84:Q86" si="851">M84*P84</f>
+        <v>4928.7699999999995</v>
+      </c>
+      <c r="R84" s="15">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="S84" s="143">
+        <v>0.18049999999999999</v>
+      </c>
+      <c r="T84" s="24">
+        <f t="shared" ref="T84:T86" si="852">M84*R84</f>
+        <v>641.02499999999998</v>
+      </c>
+      <c r="U84" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="V84" s="24">
+        <f t="shared" ref="V84:V86" si="853">M84*U84</f>
+        <v>3133.9</v>
+      </c>
+      <c r="W84" s="15">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="X84" s="24">
+        <f t="shared" ref="X84:X86" si="854">M84*W84</f>
+        <v>7378.91</v>
+      </c>
+      <c r="Y84" s="15">
+        <v>0.41</v>
+      </c>
+      <c r="Z84" s="24">
+        <f t="shared" ref="Z84:Z86" si="855">Y84*M84</f>
+        <v>5840.45</v>
+      </c>
+      <c r="AA84" s="145">
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="AB84" s="18">
+        <f t="shared" ref="AB84" si="856">M84*AA84</f>
+        <v>36.324750000000002</v>
+      </c>
+      <c r="AC84" s="16">
+        <v>2.5600000000000002E-3</v>
+      </c>
+      <c r="AD84" s="17">
+        <f t="shared" ref="AD84:AD86" si="857">M84*AC84</f>
+        <v>36.467200000000005</v>
+      </c>
+      <c r="AE84" s="26">
+        <f>IF(M84&gt;0,(AG84+AP84)/M84,0)</f>
+        <v>2.7511154791154788E-3</v>
+      </c>
+      <c r="AF84" s="16">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="AG84" s="23">
+        <f t="shared" ref="AG84:AG86" si="858">AF84*M84</f>
+        <v>3.9885999999999995</v>
+      </c>
+      <c r="AH84" s="114">
+        <v>0.21290000000000001</v>
+      </c>
+      <c r="AI84" s="29">
+        <f t="shared" ref="AI84:AI86" si="859">AL84*(1-AM84)*AH84</f>
+        <v>32.583919200000004</v>
+      </c>
+      <c r="AJ84" s="27">
+        <f t="shared" ref="AJ84:AJ86" si="860">IF(AND(AH84&gt;0,AF84&gt;0,AC84&gt;0),((AC84-AF84)*AH84)/((AH84-AF84)*AC84),0)</f>
+        <v>0.89179786708682163</v>
+      </c>
+      <c r="AK84" s="59">
+        <f t="shared" si="682"/>
+        <v>0.89931792363984986</v>
+      </c>
+      <c r="AL84" s="11">
+        <v>168</v>
+      </c>
+      <c r="AM84" s="13">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AN84" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="AO84" s="130">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="AP84" s="29">
+        <f>AL84*(1-AM84)*AN84</f>
+        <v>35.201039999999999</v>
+      </c>
+      <c r="AQ84" s="131">
+        <f t="shared" ref="AQ84" si="861">AL84*(1-AM84)*AO84</f>
+        <v>35.706098400000002</v>
+      </c>
+      <c r="AR84" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="AS84" s="18">
+        <v>518.32000000000005</v>
+      </c>
+      <c r="AT84" s="98">
+        <f>AT82+AL84-AS84+AU84</f>
+        <v>339.08</v>
+      </c>
+      <c r="AU84" s="99">
+        <v>2.42</v>
+      </c>
+      <c r="AV84" s="11"/>
+      <c r="AW84" s="30"/>
+      <c r="AX84" s="19"/>
+      <c r="AY84" s="19"/>
+      <c r="AZ84" s="19"/>
+      <c r="BA84" s="19"/>
+    </row>
+    <row r="85" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="183"/>
+      <c r="B85" s="32">
+        <v>2</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D85" s="33">
+        <v>21000</v>
+      </c>
+      <c r="E85" s="33">
+        <v>5</v>
+      </c>
+      <c r="F85" s="33">
+        <v>18127</v>
+      </c>
+      <c r="G85" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="H85" s="34">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I85" s="33">
+        <v>17732</v>
+      </c>
+      <c r="J85" s="34">
+        <v>3.5</v>
+      </c>
+      <c r="K85" s="33">
+        <v>14780</v>
+      </c>
+      <c r="L85" s="35">
+        <v>0.06</v>
+      </c>
+      <c r="M85" s="36">
+        <f>ROUND(K85*(1-L85),0)</f>
+        <v>13893</v>
+      </c>
+      <c r="N85" s="37">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="O85" s="24">
+        <f t="shared" si="850"/>
+        <v>9905.7089999999989</v>
+      </c>
+      <c r="P85" s="35">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="Q85" s="24">
+        <f t="shared" si="851"/>
+        <v>3348.2129999999997</v>
+      </c>
+      <c r="R85" s="38">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="S85" s="134">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="T85" s="24">
+        <f t="shared" si="852"/>
+        <v>639.07799999999997</v>
+      </c>
+      <c r="U85" s="27">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="V85" s="24">
+        <f t="shared" si="853"/>
+        <v>2945.3159999999998</v>
+      </c>
+      <c r="W85" s="38">
+        <v>0.501</v>
+      </c>
+      <c r="X85" s="24">
+        <f t="shared" si="854"/>
+        <v>6960.393</v>
+      </c>
+      <c r="Y85" s="38">
+        <v>0.41</v>
+      </c>
+      <c r="Z85" s="24">
+        <f t="shared" si="855"/>
+        <v>5696.13</v>
+      </c>
+      <c r="AA85" s="146">
+        <v>2.7200000000000002E-3</v>
+      </c>
+      <c r="AB85" s="18">
+        <f t="shared" si="767"/>
+        <v>37.788960000000003</v>
+      </c>
+      <c r="AC85" s="39">
+        <v>2.6099999999999999E-3</v>
+      </c>
+      <c r="AD85" s="17">
+        <f t="shared" si="857"/>
+        <v>36.260729999999995</v>
+      </c>
+      <c r="AE85" s="26">
+        <f>IF(M85&gt;0,(AG85+AP85)/M85,0)</f>
+        <v>2.7524473115957677E-3</v>
+      </c>
+      <c r="AF85" s="39">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="AG85" s="36">
+        <f t="shared" si="858"/>
+        <v>3.8900399999999995</v>
+      </c>
+      <c r="AH85" s="27">
+        <v>0.21129999999999999</v>
+      </c>
+      <c r="AI85" s="40">
+        <f t="shared" si="859"/>
+        <v>32.916525299999996</v>
+      </c>
+      <c r="AJ85" s="27">
+        <f t="shared" si="860"/>
+        <v>0.89390484677416138</v>
+      </c>
+      <c r="AK85" s="28">
+        <f t="shared" si="682"/>
+        <v>0.89941446242502054</v>
+      </c>
+      <c r="AL85" s="33">
+        <v>171</v>
+      </c>
+      <c r="AM85" s="35">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AN85" s="37">
+        <v>0.2205</v>
+      </c>
+      <c r="AO85" s="132">
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="AP85" s="40">
+        <f>AL85*(1-AM85)*AN85</f>
+        <v>34.3497105</v>
+      </c>
+      <c r="AQ85" s="133">
+        <f t="shared" si="772"/>
+        <v>33.929101799999998</v>
+      </c>
+      <c r="AR85" s="41">
+        <v>1.55</v>
+      </c>
+      <c r="AS85" s="41"/>
+      <c r="AT85" s="117">
+        <f>AT84+AL85-AS85</f>
+        <v>510.08</v>
+      </c>
+      <c r="AU85" s="101"/>
+      <c r="AV85" s="42"/>
+      <c r="AW85" s="43"/>
+      <c r="AX85" s="44"/>
+      <c r="AY85" s="44"/>
+      <c r="AZ85" s="44"/>
+      <c r="BA85" s="44"/>
+    </row>
+    <row r="86" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="183"/>
+      <c r="B86" s="32">
+        <v>3</v>
+      </c>
+      <c r="C86" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="42">
+        <v>20869</v>
+      </c>
+      <c r="E86" s="42">
+        <v>1</v>
+      </c>
+      <c r="F86" s="42">
+        <v>19578</v>
+      </c>
+      <c r="G86" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="H86" s="36">
+        <v>5.5</v>
+      </c>
+      <c r="I86" s="42">
+        <v>18432</v>
+      </c>
+      <c r="J86" s="123">
+        <v>2.1</v>
+      </c>
+      <c r="K86" s="42">
+        <v>14874</v>
+      </c>
+      <c r="L86" s="38">
+        <v>6.3E-2</v>
+      </c>
+      <c r="M86" s="36">
+        <f>ROUND(K86*(1-L86),0)</f>
+        <v>13937</v>
+      </c>
+      <c r="N86" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="O86" s="24">
+        <f t="shared" si="850"/>
+        <v>9755.9</v>
+      </c>
+      <c r="P86" s="38">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="Q86" s="24">
+        <f t="shared" si="851"/>
+        <v>3665.431</v>
+      </c>
+      <c r="R86" s="38">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="S86" s="134">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="T86" s="24">
+        <f t="shared" si="852"/>
+        <v>515.66899999999998</v>
+      </c>
+      <c r="U86" s="27">
+        <v>0.17</v>
+      </c>
+      <c r="V86" s="24">
+        <f t="shared" si="853"/>
+        <v>2369.29</v>
+      </c>
+      <c r="W86" s="38">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="X86" s="24">
+        <f t="shared" si="854"/>
+        <v>7233.3029999999999</v>
+      </c>
+      <c r="Y86" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="Z86" s="24">
+        <f t="shared" si="855"/>
+        <v>5574.8</v>
+      </c>
+      <c r="AA86" s="147">
+        <v>2.64E-3</v>
+      </c>
+      <c r="AB86" s="148">
+        <f t="shared" si="767"/>
+        <v>36.793680000000002</v>
+      </c>
+      <c r="AC86" s="46">
+        <v>2.5300000000000001E-3</v>
+      </c>
+      <c r="AD86" s="17">
+        <f t="shared" si="857"/>
+        <v>35.26061</v>
+      </c>
+      <c r="AE86" s="26">
+        <f>IF(M86&gt;0,(AG86+AP86)/M86,0)</f>
+        <v>2.9881545956805624E-3</v>
+      </c>
+      <c r="AF86" s="46">
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG86" s="36">
+        <f t="shared" si="858"/>
+        <v>3.7629899999999998</v>
+      </c>
+      <c r="AH86" s="27">
+        <v>0.215</v>
+      </c>
+      <c r="AI86" s="40">
+        <f t="shared" si="859"/>
+        <v>34.896434999999997</v>
+      </c>
+      <c r="AJ86" s="27">
+        <f t="shared" si="860"/>
+        <v>0.89440383722991412</v>
+      </c>
+      <c r="AK86" s="28">
+        <f t="shared" si="682"/>
+        <v>0.91069673439191545</v>
+      </c>
+      <c r="AL86" s="42">
+        <v>177</v>
+      </c>
+      <c r="AM86" s="38">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AN86" s="27">
+        <v>0.2334</v>
+      </c>
+      <c r="AO86" s="134">
+        <v>0.2311</v>
+      </c>
+      <c r="AP86" s="40">
+        <f>AL86*(1-AM86)*AN86</f>
+        <v>37.882920599999999</v>
+      </c>
+      <c r="AQ86" s="135">
+        <f t="shared" si="772"/>
+        <v>37.509609900000001</v>
+      </c>
+      <c r="AR86" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="AS86" s="17"/>
+      <c r="AT86" s="117">
+        <f>AT85+AL86-AS86</f>
+        <v>687.07999999999993</v>
+      </c>
+      <c r="AU86" s="101"/>
+      <c r="AV86" s="42"/>
+      <c r="AW86" s="47"/>
+      <c r="AX86" s="40"/>
+      <c r="AY86" s="40"/>
+      <c r="AZ86" s="40"/>
+      <c r="BA86" s="40"/>
+    </row>
+    <row r="87" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="184"/>
+      <c r="B87" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" s="49"/>
+      <c r="D87" s="50">
+        <f t="shared" ref="D87" si="862">SUM(D84:D86)</f>
+        <v>47980</v>
+      </c>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50">
+        <f t="shared" ref="F87" si="863">SUM(F84:F86)</f>
+        <v>51159</v>
+      </c>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="50">
+        <f t="shared" ref="I87:K87" si="864">SUM(I84:I86)</f>
+        <v>49596</v>
+      </c>
+      <c r="J87" s="51"/>
+      <c r="K87" s="50">
+        <f t="shared" si="864"/>
+        <v>44841</v>
+      </c>
+      <c r="L87" s="20">
+        <f t="shared" ref="L87" si="865">IF(K87&gt;0,(K84*L84+K85*L85+K86*L86)/K87,0)</f>
+        <v>6.1672487232666523E-2</v>
+      </c>
+      <c r="M87" s="51">
+        <f t="shared" ref="M87" si="866">M84+M85+M86</f>
+        <v>42075</v>
+      </c>
+      <c r="N87" s="52">
+        <f t="shared" ref="N87" si="867">IF(M87&gt;0,O87/M87,0)</f>
+        <v>0.67348339869281038</v>
+      </c>
+      <c r="O87" s="53">
+        <f t="shared" ref="O87" si="868">O84+O85+O86</f>
+        <v>28336.813999999998</v>
+      </c>
+      <c r="P87" s="20">
+        <f t="shared" ref="P87" si="869">IF(M87&gt;0,Q87/M87,0)</f>
+        <v>0.28383633986928108</v>
+      </c>
+      <c r="Q87" s="53">
+        <f t="shared" ref="Q87" si="870">Q84+Q85+Q86</f>
+        <v>11942.414000000001</v>
+      </c>
+      <c r="R87" s="20">
+        <f t="shared" ref="R87" si="871">IF(M87&gt;0,T87/M87,0)</f>
+        <v>4.2680261437908498E-2</v>
+      </c>
+      <c r="S87" s="136"/>
+      <c r="T87" s="53">
+        <f t="shared" ref="T87" si="872">T84+T85+T86</f>
+        <v>1795.7719999999999</v>
+      </c>
+      <c r="U87" s="20">
+        <f t="shared" ref="U87" si="873">IF(M87&gt;0,V87/M87,0)</f>
+        <v>0.20079633986928108</v>
+      </c>
+      <c r="V87" s="53">
+        <f t="shared" ref="V87" si="874">V84+V85+V86</f>
+        <v>8448.5060000000012</v>
+      </c>
+      <c r="W87" s="20">
+        <f t="shared" ref="W87" si="875">IF(M87&gt;0,X87/M87,0)</f>
+        <v>0.51271790849673204</v>
+      </c>
+      <c r="X87" s="53">
+        <f t="shared" ref="X87" si="876">X84+X85+X86</f>
+        <v>21572.606</v>
+      </c>
+      <c r="Y87" s="20">
+        <f t="shared" ref="Y87" si="877">IF(M87&gt;0,Z87/M87,0)</f>
+        <v>0.40668758169934643</v>
+      </c>
+      <c r="Z87" s="53">
+        <f t="shared" ref="Z87" si="878">Z84+Z85+Z86</f>
+        <v>17111.38</v>
+      </c>
+      <c r="AA87" s="152">
+        <f t="shared" ref="AA87" si="879">IF(M87&gt;0,AB87/M87,0)</f>
+        <v>2.6359450980392154E-3</v>
+      </c>
+      <c r="AB87" s="55">
+        <f t="shared" ref="AB87" si="880">SUM(AB84:AB86)</f>
+        <v>110.90738999999999</v>
+      </c>
+      <c r="AC87" s="54">
+        <f t="shared" ref="AC87" si="881">IF(M87&gt;0,AD87/M87,0)</f>
+        <v>2.566572549019608E-3</v>
+      </c>
+      <c r="AD87" s="55">
+        <f t="shared" ref="AD87" si="882">SUM(AD84:AD86)</f>
+        <v>107.98854</v>
+      </c>
+      <c r="AE87" s="54">
+        <f t="shared" ref="AE87" si="883">IF(M87&gt;0,(AE84*M84+AE85*M85+AE86*M86)/M87,0)</f>
+        <v>2.8300725157456921E-3</v>
+      </c>
+      <c r="AF87" s="54">
+        <f t="shared" ref="AF87" si="884">IF(K87&gt;0,(K84*AF84+K85*AF85+K86*AF86)/K87,0)</f>
+        <v>2.7668294641065096E-4</v>
+      </c>
+      <c r="AG87" s="51">
+        <f t="shared" ref="AG87" si="885">SUM(AG84:AG86)</f>
+        <v>11.641629999999999</v>
+      </c>
+      <c r="AH87" s="52">
+        <f t="shared" ref="AH87" si="886">IF(K87&gt;0,(K84*AH84+K85*AH85+K86*AH86)/K87,0)</f>
+        <v>0.21306920675274862</v>
+      </c>
+      <c r="AI87" s="57">
+        <f t="shared" ref="AI87" si="887">SUM(AI84:AI86)</f>
+        <v>100.3968795</v>
+      </c>
+      <c r="AJ87" s="52">
+        <f t="shared" ref="AJ87" si="888">IF(AND(AD87&gt;0),((AD84*AJ84+AD85*AJ85+AD86*AJ86)/AD87),0)</f>
+        <v>0.8933562613242596</v>
+      </c>
+      <c r="AK87" s="56">
+        <f t="shared" si="682"/>
+        <v>0.90333090796992888</v>
+      </c>
+      <c r="AL87" s="50">
+        <f t="shared" ref="AL87" si="889">SUM(AL84:AL86)</f>
+        <v>516</v>
+      </c>
+      <c r="AM87" s="20">
+        <f t="shared" ref="AM87" si="890">IF(AL87&gt;0,(AM84*AL84+AM85*AL85+AM86*AL86)/AL87,0)</f>
+        <v>8.6941860465116289E-2</v>
+      </c>
+      <c r="AN87" s="52">
+        <f>IF(K87&gt;0,(AN84*K84+AN85*K85+AN86*K86)/K87,0)</f>
+        <v>0.2279965121206039</v>
+      </c>
+      <c r="AO87" s="136">
+        <f>IF(L87&gt;0,(AO84*K84+AO85*K85+AO86*K86)/K87,0)</f>
+        <v>0.22746130773176335</v>
+      </c>
+      <c r="AP87" s="57">
+        <f t="shared" ref="AP87" si="891">SUM(AP84:AP86)</f>
+        <v>107.4336711</v>
+      </c>
+      <c r="AQ87" s="137">
+        <f t="shared" si="803"/>
+        <v>107.1448101</v>
+      </c>
+      <c r="AR87" s="55"/>
+      <c r="AS87" s="55">
+        <f t="shared" ref="AS87" si="892">SUM(AS84:AS86)</f>
+        <v>518.32000000000005</v>
+      </c>
+      <c r="AT87" s="102"/>
+      <c r="AU87" s="103">
+        <f>AT86</f>
+        <v>687.07999999999993</v>
+      </c>
+      <c r="AV87" s="50">
+        <f t="shared" ref="AV87" si="893">SUM(AV84:AV86)</f>
+        <v>0</v>
+      </c>
+      <c r="AW87" s="58"/>
+      <c r="AX87" s="57"/>
+      <c r="AY87" s="57"/>
+      <c r="AZ87" s="57"/>
+      <c r="BA87" s="57"/>
+    </row>
+    <row r="88" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="182">
+        <v>22</v>
+      </c>
+      <c r="B88" s="22">
+        <v>1</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" s="11">
+        <v>5242</v>
+      </c>
+      <c r="E88" s="11">
+        <v>0</v>
+      </c>
+      <c r="F88" s="11">
+        <v>9510</v>
+      </c>
+      <c r="G88" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="H88" s="12">
+        <v>5.6</v>
+      </c>
+      <c r="I88" s="11">
+        <v>9758</v>
+      </c>
+      <c r="J88" s="121">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K88" s="11">
+        <v>15706</v>
+      </c>
+      <c r="L88" s="13">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="M88" s="23">
+        <f>ROUND(K88*(1-L88),0)</f>
+        <v>14779</v>
+      </c>
+      <c r="N88" s="14">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="O88" s="24">
+        <f t="shared" ref="O88:O90" si="894">M88*N88</f>
+        <v>10315.742</v>
+      </c>
+      <c r="P88" s="13">
+        <v>0.251</v>
+      </c>
+      <c r="Q88" s="24">
+        <f t="shared" ref="Q88:Q90" si="895">M88*P88</f>
+        <v>3709.529</v>
+      </c>
+      <c r="R88" s="15">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="S88" s="143">
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="T88" s="24">
+        <f t="shared" ref="T88:T90" si="896">M88*R88</f>
+        <v>753.72899999999993</v>
+      </c>
+      <c r="U88" s="25">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="V88" s="24">
+        <f t="shared" ref="V88:V90" si="897">M88*U88</f>
+        <v>3044.4739999999997</v>
+      </c>
+      <c r="W88" s="15">
+        <v>0.502</v>
+      </c>
+      <c r="X88" s="24">
+        <f t="shared" ref="X88:X90" si="898">M88*W88</f>
+        <v>7419.058</v>
+      </c>
+      <c r="Y88" s="15">
+        <v>0.41</v>
+      </c>
+      <c r="Z88" s="24">
+        <f t="shared" ref="Z88:Z90" si="899">Y88*M88</f>
+        <v>6059.3899999999994</v>
+      </c>
+      <c r="AA88" s="145">
+        <v>2.64E-3</v>
+      </c>
+      <c r="AB88" s="18">
+        <f t="shared" ref="AB88" si="900">M88*AA88</f>
+        <v>39.016559999999998</v>
+      </c>
+      <c r="AC88" s="16">
+        <v>2.5799999999999998E-3</v>
+      </c>
+      <c r="AD88" s="17">
+        <f t="shared" ref="AD88:AD90" si="901">M88*AC88</f>
+        <v>38.129819999999995</v>
+      </c>
+      <c r="AE88" s="26">
+        <f>IF(M88&gt;0,(AG88+AP88)/M88,0)</f>
+        <v>2.8017152175383989E-3</v>
+      </c>
+      <c r="AF88" s="16">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="AG88" s="23">
+        <f t="shared" ref="AG88:AG90" si="902">AF88*M88</f>
+        <v>3.8425399999999996</v>
+      </c>
+      <c r="AH88" s="114">
+        <v>0.21129999999999999</v>
+      </c>
+      <c r="AI88" s="29">
+        <f t="shared" ref="AI88:AI90" si="903">AL88*(1-AM88)*AH88</f>
+        <v>34.7212386</v>
+      </c>
+      <c r="AJ88" s="27">
+        <f t="shared" ref="AJ88:AJ90" si="904">IF(AND(AH88&gt;0,AF88&gt;0,AC88&gt;0),((AC88-AF88)*AH88)/((AH88-AF88)*AC88),0)</f>
+        <v>0.90033264570881189</v>
+      </c>
+      <c r="AK88" s="59">
+        <f t="shared" si="682"/>
+        <v>0.90823269009548591</v>
+      </c>
+      <c r="AL88" s="11">
+        <v>179</v>
+      </c>
+      <c r="AM88" s="13">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="AN88" s="14">
+        <v>0.2286</v>
+      </c>
+      <c r="AO88" s="130">
+        <v>0.22420000000000001</v>
+      </c>
+      <c r="AP88" s="29">
+        <f>AL88*(1-AM88)*AN88</f>
+        <v>37.564009200000001</v>
+      </c>
+      <c r="AQ88" s="131">
+        <f t="shared" ref="AQ88" si="905">AL88*(1-AM88)*AO88</f>
+        <v>36.840992400000005</v>
+      </c>
+      <c r="AR88" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="AS88" s="18">
+        <v>505.16</v>
+      </c>
+      <c r="AT88" s="98">
+        <f>AT86+AL88-AS88</f>
+        <v>360.9199999999999</v>
+      </c>
+      <c r="AU88" s="99"/>
+      <c r="AV88" s="11"/>
+      <c r="AW88" s="30"/>
+      <c r="AX88" s="19"/>
+      <c r="AY88" s="19"/>
+      <c r="AZ88" s="19"/>
+      <c r="BA88" s="19"/>
+    </row>
+    <row r="89" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="183"/>
+      <c r="B89" s="32">
+        <v>2</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D89" s="33">
+        <v>20700</v>
+      </c>
+      <c r="E89" s="33">
+        <v>4</v>
+      </c>
+      <c r="F89" s="33">
+        <v>18655</v>
+      </c>
+      <c r="G89" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="H89" s="34">
+        <v>6.8</v>
+      </c>
+      <c r="I89" s="33">
+        <v>17698</v>
+      </c>
+      <c r="J89" s="34">
+        <v>3.4</v>
+      </c>
+      <c r="K89" s="33">
+        <v>16038</v>
+      </c>
+      <c r="L89" s="35">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="M89" s="36">
+        <f>ROUND(K89*(1-L89),0)</f>
+        <v>14979</v>
+      </c>
+      <c r="N89" s="37">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="O89" s="24">
+        <f t="shared" si="894"/>
+        <v>9946.0560000000005</v>
+      </c>
+      <c r="P89" s="35">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="Q89" s="24">
+        <f t="shared" si="895"/>
+        <v>4224.0779999999995</v>
+      </c>
+      <c r="R89" s="38">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="S89" s="134">
+        <v>0.2142</v>
+      </c>
+      <c r="T89" s="24">
+        <f t="shared" si="896"/>
+        <v>808.86599999999999</v>
+      </c>
+      <c r="U89" s="27">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="V89" s="24">
+        <f t="shared" si="897"/>
+        <v>3175.5479999999998</v>
+      </c>
+      <c r="W89" s="38">
+        <v>0.499</v>
+      </c>
+      <c r="X89" s="24">
+        <f t="shared" si="898"/>
+        <v>7474.5209999999997</v>
+      </c>
+      <c r="Y89" s="38">
+        <v>0.41</v>
+      </c>
+      <c r="Z89" s="24">
+        <f t="shared" si="899"/>
+        <v>6141.3899999999994</v>
+      </c>
+      <c r="AA89" s="146">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="AB89" s="18">
+        <f t="shared" si="767"/>
+        <v>37.597290000000001</v>
+      </c>
+      <c r="AC89" s="39">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AD89" s="17">
+        <f t="shared" si="901"/>
+        <v>37.447499999999998</v>
+      </c>
+      <c r="AE89" s="26">
+        <f>IF(M89&gt;0,(AG89+AP89)/M89,0)</f>
+        <v>2.6752423392749853E-3</v>
+      </c>
+      <c r="AF89" s="39">
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG89" s="36">
+        <f t="shared" si="902"/>
+        <v>4.0443300000000004</v>
+      </c>
+      <c r="AH89" s="27">
+        <v>0.21</v>
+      </c>
+      <c r="AI89" s="40">
+        <f t="shared" si="903"/>
+        <v>33.626249999999999</v>
+      </c>
+      <c r="AJ89" s="27">
+        <f t="shared" si="904"/>
+        <v>0.89314833357173529</v>
+      </c>
+      <c r="AK89" s="28">
+        <f t="shared" si="682"/>
+        <v>0.90015474951138863</v>
+      </c>
+      <c r="AL89" s="33">
+        <v>175</v>
+      </c>
+      <c r="AM89" s="35">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AN89" s="37">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AO89" s="132">
+        <v>0.2288</v>
+      </c>
+      <c r="AP89" s="40">
+        <f>AL89*(1-AM89)*AN89</f>
+        <v>36.028125000000003</v>
+      </c>
+      <c r="AQ89" s="133">
+        <f t="shared" si="772"/>
+        <v>36.636600000000001</v>
+      </c>
+      <c r="AR89" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="AS89" s="41"/>
+      <c r="AT89" s="117">
+        <f>AT88+AL89-AS89</f>
+        <v>535.91999999999985</v>
+      </c>
+      <c r="AU89" s="101"/>
+      <c r="AV89" s="42"/>
+      <c r="AW89" s="43"/>
+      <c r="AX89" s="44"/>
+      <c r="AY89" s="44"/>
+      <c r="AZ89" s="44"/>
+      <c r="BA89" s="44"/>
+    </row>
+    <row r="90" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="183"/>
+      <c r="B90" s="32">
+        <v>3</v>
+      </c>
+      <c r="C90" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="42">
+        <v>18748</v>
+      </c>
+      <c r="E90" s="42">
+        <v>2</v>
+      </c>
+      <c r="F90" s="42">
+        <v>18036</v>
+      </c>
+      <c r="G90" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="H90" s="36">
+        <v>6.1</v>
+      </c>
+      <c r="I90" s="42">
+        <v>17219</v>
+      </c>
+      <c r="J90" s="123">
+        <v>2.8</v>
+      </c>
+      <c r="K90" s="42">
+        <v>16350</v>
+      </c>
+      <c r="L90" s="38">
+        <v>0.06</v>
+      </c>
+      <c r="M90" s="36">
+        <f>ROUND(K90*(1-L90),0)</f>
+        <v>15369</v>
+      </c>
+      <c r="N90" s="27">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="O90" s="24">
+        <f t="shared" si="894"/>
+        <v>10819.776</v>
+      </c>
+      <c r="P90" s="38">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="Q90" s="24">
+        <f t="shared" si="895"/>
+        <v>3673.1909999999998</v>
+      </c>
+      <c r="R90" s="38">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="S90" s="134">
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="T90" s="24">
+        <f t="shared" si="896"/>
+        <v>876.03300000000002</v>
+      </c>
+      <c r="U90" s="27">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="V90" s="24">
+        <f t="shared" si="897"/>
+        <v>3258.2280000000001</v>
+      </c>
+      <c r="W90" s="38">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="X90" s="24">
+        <f t="shared" si="898"/>
+        <v>7776.7139999999999</v>
+      </c>
+      <c r="Y90" s="38">
+        <v>0.41</v>
+      </c>
+      <c r="Z90" s="24">
+        <f t="shared" si="899"/>
+        <v>6301.29</v>
+      </c>
+      <c r="AA90" s="147">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="AB90" s="148">
+        <f t="shared" si="767"/>
+        <v>38.576190000000004</v>
+      </c>
+      <c r="AC90" s="46">
+        <v>2.49E-3</v>
+      </c>
+      <c r="AD90" s="17">
+        <f t="shared" si="901"/>
+        <v>38.268810000000002</v>
+      </c>
+      <c r="AE90" s="26">
+        <f>IF(M90&gt;0,(AG90+AP90)/M90,0)</f>
+        <v>2.6560873186284081E-3</v>
+      </c>
+      <c r="AF90" s="46">
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG90" s="36">
+        <f t="shared" si="902"/>
+        <v>4.1496300000000002</v>
+      </c>
+      <c r="AH90" s="27">
+        <v>0.2084</v>
+      </c>
+      <c r="AI90" s="40">
+        <f t="shared" si="903"/>
+        <v>32.941371200000006</v>
+      </c>
+      <c r="AJ90" s="27">
+        <f t="shared" si="904"/>
+        <v>0.89272286378010957</v>
+      </c>
+      <c r="AK90" s="28">
+        <f t="shared" si="682"/>
+        <v>0.89939342330963734</v>
+      </c>
+      <c r="AL90" s="42">
+        <v>172</v>
+      </c>
+      <c r="AM90" s="38">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="AN90" s="27">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="AO90" s="134">
+        <v>0.23980000000000001</v>
+      </c>
+      <c r="AP90" s="40">
+        <f>AL90*(1-AM90)*AN90</f>
+        <v>36.671776000000001</v>
+      </c>
+      <c r="AQ90" s="135">
+        <f t="shared" si="772"/>
+        <v>37.904706400000002</v>
+      </c>
+      <c r="AR90" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="AS90" s="17"/>
+      <c r="AT90" s="117">
+        <f>AT89+AL90-AS90</f>
+        <v>707.91999999999985</v>
+      </c>
+      <c r="AU90" s="101"/>
+      <c r="AV90" s="42"/>
+      <c r="AW90" s="47"/>
+      <c r="AX90" s="40"/>
+      <c r="AY90" s="40"/>
+      <c r="AZ90" s="40"/>
+      <c r="BA90" s="40"/>
+    </row>
+    <row r="91" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="184"/>
+      <c r="B91" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" s="49"/>
+      <c r="D91" s="50">
+        <f t="shared" ref="D91" si="906">SUM(D88:D90)</f>
+        <v>44690</v>
+      </c>
+      <c r="E91" s="50"/>
+      <c r="F91" s="50">
+        <f t="shared" ref="F91" si="907">SUM(F88:F90)</f>
+        <v>46201</v>
+      </c>
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="50">
+        <f t="shared" ref="I91:K91" si="908">SUM(I88:I90)</f>
+        <v>44675</v>
+      </c>
+      <c r="J91" s="51"/>
+      <c r="K91" s="50">
+        <f t="shared" si="908"/>
+        <v>48094</v>
+      </c>
+      <c r="L91" s="20">
+        <f t="shared" ref="L91" si="909">IF(K91&gt;0,(K88*L88+K89*L89+K90*L90)/K91,0)</f>
+        <v>6.1674262901817281E-2</v>
+      </c>
+      <c r="M91" s="51">
+        <f t="shared" ref="M91" si="910">M88+M89+M90</f>
+        <v>45127</v>
+      </c>
+      <c r="N91" s="52">
+        <f t="shared" ref="N91" si="911">IF(M91&gt;0,O91/M91,0)</f>
+        <v>0.68875781682806303</v>
+      </c>
+      <c r="O91" s="53">
+        <f t="shared" ref="O91" si="912">O88+O89+O90</f>
+        <v>31081.574000000001</v>
+      </c>
+      <c r="P91" s="20">
+        <f t="shared" ref="P91" si="913">IF(M91&gt;0,Q91/M91,0)</f>
+        <v>0.25720296053360514</v>
+      </c>
+      <c r="Q91" s="53">
+        <f t="shared" ref="Q91" si="914">Q88+Q89+Q90</f>
+        <v>11606.797999999999</v>
+      </c>
+      <c r="R91" s="20">
+        <f t="shared" ref="R91" si="915">IF(M91&gt;0,T91/M91,0)</f>
+        <v>5.4039222638331816E-2</v>
+      </c>
+      <c r="S91" s="136"/>
+      <c r="T91" s="53">
+        <f t="shared" ref="T91" si="916">T88+T89+T90</f>
+        <v>2438.6279999999997</v>
+      </c>
+      <c r="U91" s="20">
+        <f t="shared" ref="U91" si="917">IF(M91&gt;0,V91/M91,0)</f>
+        <v>0.2100350122986239</v>
+      </c>
+      <c r="V91" s="53">
+        <f t="shared" ref="V91" si="918">V88+V89+V90</f>
+        <v>9478.25</v>
+      </c>
+      <c r="W91" s="20">
+        <f t="shared" ref="W91" si="919">IF(M91&gt;0,X91/M91,0)</f>
+        <v>0.50236649899173436</v>
+      </c>
+      <c r="X91" s="53">
+        <f t="shared" ref="X91" si="920">X88+X89+X90</f>
+        <v>22670.292999999998</v>
+      </c>
+      <c r="Y91" s="20">
+        <f t="shared" ref="Y91" si="921">IF(M91&gt;0,Z91/M91,0)</f>
+        <v>0.41</v>
+      </c>
+      <c r="Z91" s="53">
+        <f t="shared" ref="Z91" si="922">Z88+Z89+Z90</f>
+        <v>18502.07</v>
+      </c>
+      <c r="AA91" s="152">
+        <f t="shared" ref="AA91" si="923">IF(M91&gt;0,AB91/M91,0)</f>
+        <v>2.552574733529816E-3</v>
+      </c>
+      <c r="AB91" s="55">
+        <f t="shared" ref="AB91" si="924">SUM(AB88:AB90)</f>
+        <v>115.19004000000001</v>
+      </c>
+      <c r="AC91" s="54">
+        <f t="shared" ref="AC91" si="925">IF(M91&gt;0,AD91/M91,0)</f>
+        <v>2.5227941143882819E-3</v>
+      </c>
+      <c r="AD91" s="55">
+        <f t="shared" ref="AD91" si="926">SUM(AD88:AD90)</f>
+        <v>113.84612999999999</v>
+      </c>
+      <c r="AE91" s="54">
+        <f t="shared" ref="AE91" si="927">IF(M91&gt;0,(AE88*M88+AE89*M89+AE90*M90)/M91,0)</f>
+        <v>2.7101382808518188E-3</v>
+      </c>
+      <c r="AF91" s="54">
+        <f t="shared" ref="AF91" si="928">IF(K91&gt;0,(K88*AF88+K89*AF89+K90*AF90)/K91,0)</f>
+        <v>2.667343119723874E-4</v>
+      </c>
+      <c r="AG91" s="51">
+        <f t="shared" ref="AG91" si="929">SUM(AG88:AG90)</f>
+        <v>12.0365</v>
+      </c>
+      <c r="AH91" s="52">
+        <f t="shared" ref="AH91" si="930">IF(K91&gt;0,(K88*AH88+K89*AH89+K90*AH90)/K91,0)</f>
+        <v>0.20988060464922861</v>
+      </c>
+      <c r="AI91" s="57">
+        <f t="shared" ref="AI91" si="931">SUM(AI88:AI90)</f>
+        <v>101.2888598</v>
+      </c>
+      <c r="AJ91" s="52">
+        <f t="shared" ref="AJ91" si="932">IF(AND(AD91&gt;0),((AD88*AJ88+AD89*AJ89+AD90*AJ90)/AD91),0)</f>
+        <v>0.89541151376059258</v>
+      </c>
+      <c r="AK91" s="56">
+        <f t="shared" si="682"/>
+        <v>0.90263248907648852</v>
+      </c>
+      <c r="AL91" s="50">
+        <f t="shared" ref="AL91" si="933">SUM(AL88:AL90)</f>
+        <v>526</v>
+      </c>
+      <c r="AM91" s="20">
+        <f t="shared" ref="AM91" si="934">IF(AL91&gt;0,(AM88*AL88+AM89*AL89+AM90*AL90)/AL91,0)</f>
+        <v>8.2671102661596968E-2</v>
+      </c>
+      <c r="AN91" s="52">
+        <f>IF(K91&gt;0,(AN88*K88+AN89*K89+AN90*K90)/K91,0)</f>
+        <v>0.22855536241527011</v>
+      </c>
+      <c r="AO91" s="136">
+        <f>IF(L91&gt;0,(AO88*K88+AO89*K89+AO90*K90)/K91,0)</f>
+        <v>0.23103733521853037</v>
+      </c>
+      <c r="AP91" s="57">
+        <f t="shared" ref="AP91" si="935">SUM(AP88:AP90)</f>
+        <v>110.2639102</v>
+      </c>
+      <c r="AQ91" s="137">
+        <f t="shared" si="803"/>
+        <v>111.3822988</v>
+      </c>
+      <c r="AR91" s="55"/>
+      <c r="AS91" s="55">
+        <f t="shared" ref="AS91" si="936">SUM(AS88:AS90)</f>
+        <v>505.16</v>
+      </c>
+      <c r="AT91" s="102"/>
+      <c r="AU91" s="103">
+        <f>AT90</f>
+        <v>707.91999999999985</v>
+      </c>
+      <c r="AV91" s="50">
+        <f t="shared" ref="AV91" si="937">SUM(AV88:AV90)</f>
+        <v>0</v>
+      </c>
+      <c r="AW91" s="58"/>
+      <c r="AX91" s="57"/>
+      <c r="AY91" s="57"/>
+      <c r="AZ91" s="57"/>
+      <c r="BA91" s="57"/>
+    </row>
+    <row r="92" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="182">
+        <v>23</v>
+      </c>
+      <c r="B92" s="22">
+        <v>1</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D92" s="11">
+        <v>15082</v>
+      </c>
+      <c r="E92" s="11">
+        <v>0</v>
+      </c>
+      <c r="F92" s="11">
+        <v>17669</v>
+      </c>
+      <c r="G92" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="H92" s="12">
+        <v>5.7</v>
+      </c>
+      <c r="I92" s="11">
+        <v>17585</v>
+      </c>
+      <c r="J92" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="K92" s="11">
+        <v>16342</v>
+      </c>
+      <c r="L92" s="13">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M92" s="23">
+        <f>ROUND(K92*(1-L92),0)</f>
+        <v>15394</v>
+      </c>
+      <c r="N92" s="14">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="O92" s="24">
+        <f t="shared" ref="O92:O94" si="938">M92*N92</f>
+        <v>10914.346</v>
+      </c>
+      <c r="P92" s="13">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="Q92" s="24">
+        <f t="shared" ref="Q92:Q94" si="939">M92*P92</f>
+        <v>3525.2260000000001</v>
+      </c>
+      <c r="R92" s="15">
+        <v>6.2E-2</v>
+      </c>
+      <c r="S92" s="143">
+        <v>0.19359999999999999</v>
+      </c>
+      <c r="T92" s="24">
+        <f t="shared" ref="T92:T94" si="940">M92*R92</f>
+        <v>954.428</v>
+      </c>
+      <c r="U92" s="25">
+        <v>0.216</v>
+      </c>
+      <c r="V92" s="24">
+        <f t="shared" ref="V92:V94" si="941">M92*U92</f>
+        <v>3325.1039999999998</v>
+      </c>
+      <c r="W92" s="15">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="X92" s="24">
+        <f t="shared" ref="X92:X94" si="942">M92*W92</f>
+        <v>7989.4859999999999</v>
+      </c>
+      <c r="Y92" s="15">
+        <v>0.41</v>
+      </c>
+      <c r="Z92" s="24">
+        <f t="shared" ref="Z92:Z94" si="943">Y92*M92</f>
+        <v>6311.54</v>
+      </c>
+      <c r="AA92" s="145">
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="AB92" s="18">
+        <f t="shared" ref="AB92" si="944">M92*AA92</f>
+        <v>39.2547</v>
+      </c>
+      <c r="AC92" s="16">
+        <v>2.4599999999999999E-3</v>
+      </c>
+      <c r="AD92" s="17">
+        <f t="shared" ref="AD92:AD94" si="945">M92*AC92</f>
+        <v>37.869239999999998</v>
+      </c>
+      <c r="AE92" s="26">
+        <f>IF(M92&gt;0,(AG92+AP92)/M92,0)</f>
+        <v>2.6864743016759775E-3</v>
+      </c>
+      <c r="AF92" s="16">
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG92" s="23">
+        <f t="shared" ref="AG92:AG94" si="946">AF92*M92</f>
+        <v>4.1563800000000004</v>
+      </c>
+      <c r="AH92" s="114">
+        <v>0.214</v>
+      </c>
+      <c r="AI92" s="29">
+        <f t="shared" ref="AI92:AI94" si="947">AL92*(1-AM92)*AH92</f>
+        <v>34.930363999999997</v>
+      </c>
+      <c r="AJ92" s="27">
+        <f t="shared" ref="AJ92:AJ94" si="948">IF(AND(AH92&gt;0,AF92&gt;0,AC92&gt;0),((AC92-AF92)*AH92)/((AH92-AF92)*AC92),0)</f>
+        <v>0.89136852628059349</v>
+      </c>
+      <c r="AK92" s="59">
+        <f t="shared" si="682"/>
+        <v>0.90056345071581845</v>
+      </c>
+      <c r="AL92" s="11">
+        <v>178</v>
+      </c>
+      <c r="AM92" s="13">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AN92" s="14">
+        <v>0.22789999999999999</v>
+      </c>
+      <c r="AO92" s="130">
+        <v>0.22470000000000001</v>
+      </c>
+      <c r="AP92" s="29">
+        <f>AL92*(1-AM92)*AN92</f>
+        <v>37.199205399999997</v>
+      </c>
+      <c r="AQ92" s="131">
+        <f t="shared" ref="AQ92" si="949">AL92*(1-AM92)*AO92</f>
+        <v>36.676882200000001</v>
+      </c>
+      <c r="AR92" s="18">
+        <v>1.55</v>
+      </c>
+      <c r="AS92" s="18"/>
+      <c r="AT92" s="98">
+        <f>AT90+AL92-AS92</f>
+        <v>885.91999999999985</v>
+      </c>
+      <c r="AU92" s="99"/>
+      <c r="AV92" s="11"/>
+      <c r="AW92" s="30"/>
+      <c r="AX92" s="19"/>
+      <c r="AY92" s="19"/>
+      <c r="AZ92" s="19"/>
+      <c r="BA92" s="19"/>
+    </row>
+    <row r="93" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="183"/>
+      <c r="B93" s="32">
+        <v>2</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D93" s="33">
+        <v>20742</v>
+      </c>
+      <c r="E93" s="33">
+        <v>2</v>
+      </c>
+      <c r="F93" s="33">
+        <v>19281</v>
+      </c>
+      <c r="G93" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="H93" s="34">
+        <v>6.7</v>
+      </c>
+      <c r="I93" s="33">
+        <v>19024</v>
+      </c>
+      <c r="J93" s="34">
+        <v>1.7</v>
+      </c>
+      <c r="K93" s="33">
+        <v>16320</v>
+      </c>
+      <c r="L93" s="35">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="M93" s="36">
+        <f>ROUND(K93*(1-L93),0)</f>
+        <v>15276</v>
+      </c>
+      <c r="N93" s="37">
+        <v>0.68</v>
+      </c>
+      <c r="O93" s="24">
+        <f t="shared" si="938"/>
+        <v>10387.68</v>
+      </c>
+      <c r="P93" s="35">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="Q93" s="24">
+        <f t="shared" si="939"/>
+        <v>3589.8599999999997</v>
+      </c>
+      <c r="R93" s="38">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S93" s="134">
+        <v>0.19969999999999999</v>
+      </c>
+      <c r="T93" s="24">
+        <f t="shared" si="940"/>
+        <v>1298.46</v>
+      </c>
+      <c r="U93" s="27">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="V93" s="24">
+        <f t="shared" si="941"/>
+        <v>3253.788</v>
+      </c>
+      <c r="W93" s="38">
+        <v>0.499</v>
+      </c>
+      <c r="X93" s="24">
+        <f t="shared" si="942"/>
+        <v>7622.7240000000002</v>
+      </c>
+      <c r="Y93" s="38">
+        <v>0.41</v>
+      </c>
+      <c r="Z93" s="24">
+        <f t="shared" si="943"/>
+        <v>6263.16</v>
+      </c>
+      <c r="AA93" s="146">
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="AB93" s="18">
+        <f t="shared" si="767"/>
+        <v>39.564839999999997</v>
+      </c>
+      <c r="AC93" s="39">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="AD93" s="17">
+        <f t="shared" si="945"/>
+        <v>38.342759999999998</v>
+      </c>
+      <c r="AE93" s="26">
+        <f>IF(M93&gt;0,(AG93+AP93)/M93,0)</f>
+        <v>2.8352105263157895E-3</v>
+      </c>
+      <c r="AF93" s="39">
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG93" s="36">
+        <f t="shared" si="946"/>
+        <v>4.1245200000000004</v>
+      </c>
+      <c r="AH93" s="27">
+        <v>0.2142</v>
+      </c>
+      <c r="AI93" s="40">
+        <f t="shared" si="947"/>
+        <v>36.846684000000003</v>
+      </c>
+      <c r="AJ93" s="27">
+        <f t="shared" si="948"/>
+        <v>0.89355661074674808</v>
+      </c>
+      <c r="AK93" s="28">
+        <f t="shared" si="682"/>
+        <v>0.9058426267635562</v>
+      </c>
+      <c r="AL93" s="33">
+        <v>188</v>
+      </c>
+      <c r="AM93" s="35">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AN93" s="37">
+        <v>0.2278</v>
+      </c>
+      <c r="AO93" s="132">
+        <v>0.22739999999999999</v>
+      </c>
+      <c r="AP93" s="40">
+        <f>AL93*(1-AM93)*AN93</f>
+        <v>39.186156000000004</v>
+      </c>
+      <c r="AQ93" s="133">
+        <f t="shared" si="772"/>
+        <v>39.117348</v>
+      </c>
+      <c r="AR93" s="41">
+        <v>1.6</v>
+      </c>
+      <c r="AS93" s="41"/>
+      <c r="AT93" s="117">
+        <f>AT92+AL93-AS93</f>
+        <v>1073.9199999999998</v>
+      </c>
+      <c r="AU93" s="101"/>
+      <c r="AV93" s="42"/>
+      <c r="AW93" s="43"/>
+      <c r="AX93" s="44"/>
+      <c r="AY93" s="44"/>
+      <c r="AZ93" s="44"/>
+      <c r="BA93" s="44"/>
+    </row>
+    <row r="94" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="183"/>
+      <c r="B94" s="32">
+        <v>3</v>
+      </c>
+      <c r="C94" s="180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" s="42">
+        <v>20170</v>
+      </c>
+      <c r="E94" s="42">
+        <v>1</v>
+      </c>
+      <c r="F94" s="42">
+        <v>18046</v>
+      </c>
+      <c r="G94" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="H94" s="36">
+        <v>5.3</v>
+      </c>
+      <c r="I94" s="42">
+        <v>17383</v>
+      </c>
+      <c r="J94" s="36">
+        <v>1.2</v>
+      </c>
+      <c r="K94" s="42">
+        <v>16308</v>
+      </c>
+      <c r="L94" s="38">
+        <v>6.3E-2</v>
+      </c>
+      <c r="M94" s="36">
+        <f>ROUND(K94*(1-L94),0)</f>
+        <v>15281</v>
+      </c>
+      <c r="N94" s="27">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="O94" s="24">
+        <f t="shared" si="938"/>
+        <v>9749.2780000000002</v>
+      </c>
+      <c r="P94" s="38">
+        <v>0.32</v>
+      </c>
+      <c r="Q94" s="24">
+        <f t="shared" si="939"/>
+        <v>4889.92</v>
+      </c>
+      <c r="R94" s="38">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S94" s="134">
+        <v>0.19869999999999999</v>
+      </c>
+      <c r="T94" s="24">
+        <f t="shared" si="940"/>
+        <v>641.80200000000002</v>
+      </c>
+      <c r="U94" s="27">
+        <v>0.217</v>
+      </c>
+      <c r="V94" s="24">
+        <f t="shared" si="941"/>
+        <v>3315.9769999999999</v>
+      </c>
+      <c r="W94" s="38">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="X94" s="24">
+        <f t="shared" si="942"/>
+        <v>7548.8140000000003</v>
+      </c>
+      <c r="Y94" s="38">
+        <v>0.41</v>
+      </c>
+      <c r="Z94" s="24">
+        <f t="shared" si="943"/>
+        <v>6265.21</v>
+      </c>
+      <c r="AA94" s="147">
+        <v>2.49E-3</v>
+      </c>
+      <c r="AB94" s="148">
+        <f t="shared" si="767"/>
+        <v>38.049689999999998</v>
+      </c>
+      <c r="AC94" s="46">
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="AD94" s="17">
+        <f t="shared" si="945"/>
+        <v>37.438449999999996</v>
+      </c>
+      <c r="AE94" s="26">
+        <f>IF(M94&gt;0,(AG94+AP94)/M94,0)</f>
+        <v>2.6238325502257707E-3</v>
+      </c>
+      <c r="AF94" s="46">
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG94" s="36">
+        <f t="shared" si="946"/>
+        <v>4.1258699999999999</v>
+      </c>
+      <c r="AH94" s="27">
+        <v>0.21410000000000001</v>
+      </c>
+      <c r="AI94" s="40">
+        <f t="shared" si="947"/>
+        <v>33.584582400000002</v>
+      </c>
+      <c r="AJ94" s="27">
+        <f t="shared" si="948"/>
+        <v>0.89091945060304445</v>
+      </c>
+      <c r="AK94" s="28">
+        <f t="shared" si="682"/>
+        <v>0.89815466599982341</v>
+      </c>
+      <c r="AL94" s="42">
+        <v>172</v>
+      </c>
+      <c r="AM94" s="38">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AN94" s="27">
+        <v>0.2293</v>
+      </c>
+      <c r="AO94" s="134">
+        <v>0.22620000000000001</v>
+      </c>
+      <c r="AP94" s="40">
+        <f>AL94*(1-AM94)*AN94</f>
+        <v>35.968915200000005</v>
+      </c>
+      <c r="AQ94" s="135">
+        <f t="shared" si="772"/>
+        <v>35.482636800000002</v>
+      </c>
+      <c r="AR94" s="17">
+        <v>1.56</v>
+      </c>
+      <c r="AS94" s="17"/>
+      <c r="AT94" s="117">
+        <f>AT93+AL94-AS94</f>
+        <v>1245.9199999999998</v>
+      </c>
+      <c r="AU94" s="101"/>
+      <c r="AV94" s="42"/>
+      <c r="AW94" s="47"/>
+      <c r="AX94" s="40"/>
+      <c r="AY94" s="40"/>
+      <c r="AZ94" s="40"/>
+      <c r="BA94" s="40"/>
+    </row>
+    <row r="95" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="184"/>
+      <c r="B95" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" s="49"/>
+      <c r="D95" s="50">
+        <f t="shared" ref="D95" si="950">SUM(D92:D94)</f>
+        <v>55994</v>
+      </c>
+      <c r="E95" s="50"/>
+      <c r="F95" s="50">
+        <f t="shared" ref="F95" si="951">SUM(F92:F94)</f>
+        <v>54996</v>
+      </c>
+      <c r="G95" s="51"/>
+      <c r="H95" s="51"/>
+      <c r="I95" s="50">
+        <f t="shared" ref="I95:K95" si="952">SUM(I92:I94)</f>
+        <v>53992</v>
+      </c>
+      <c r="J95" s="51"/>
+      <c r="K95" s="50">
+        <f t="shared" si="952"/>
+        <v>48970</v>
+      </c>
+      <c r="L95" s="20">
+        <f t="shared" ref="L95" si="953">IF(K95&gt;0,(K92*L92+K93*L93+K94*L94)/K95,0)</f>
+        <v>6.1664692668981017E-2</v>
+      </c>
+      <c r="M95" s="51">
+        <f t="shared" ref="M95" si="954">M92+M93+M94</f>
+        <v>45951</v>
+      </c>
+      <c r="N95" s="52">
+        <f t="shared" ref="N95" si="955">IF(M95&gt;0,O95/M95,0)</f>
+        <v>0.67574816652521152</v>
+      </c>
+      <c r="O95" s="53">
+        <f t="shared" ref="O95" si="956">O92+O93+O94</f>
+        <v>31051.303999999996</v>
+      </c>
+      <c r="P95" s="20">
+        <f t="shared" ref="P95" si="957">IF(M95&gt;0,Q95/M95,0)</f>
+        <v>0.26125668647037059</v>
+      </c>
+      <c r="Q95" s="53">
+        <f t="shared" ref="Q95" si="958">Q92+Q93+Q94</f>
+        <v>12005.005999999999</v>
+      </c>
+      <c r="R95" s="20">
+        <f t="shared" ref="R95" si="959">IF(M95&gt;0,T95/M95,0)</f>
+        <v>6.2995147004417745E-2</v>
+      </c>
+      <c r="S95" s="136"/>
+      <c r="T95" s="53">
+        <f t="shared" ref="T95" si="960">T92+T93+T94</f>
+        <v>2894.69</v>
+      </c>
+      <c r="U95" s="20">
+        <f t="shared" ref="U95" si="961">IF(M95&gt;0,V95/M95,0)</f>
+        <v>0.21533522665447974</v>
+      </c>
+      <c r="V95" s="53">
+        <f t="shared" ref="V95" si="962">V92+V93+V94</f>
+        <v>9894.8689999999988</v>
+      </c>
+      <c r="W95" s="20">
+        <f t="shared" ref="W95" si="963">IF(M95&gt;0,X95/M95,0)</f>
+        <v>0.5040374311766882</v>
+      </c>
+      <c r="X95" s="53">
+        <f t="shared" ref="X95" si="964">X92+X93+X94</f>
+        <v>23161.023999999998</v>
+      </c>
+      <c r="Y95" s="20">
+        <f t="shared" ref="Y95" si="965">IF(M95&gt;0,Z95/M95,0)</f>
+        <v>0.41</v>
+      </c>
+      <c r="Z95" s="53">
+        <f t="shared" ref="Z95" si="966">Z92+Z93+Z94</f>
+        <v>18839.91</v>
+      </c>
+      <c r="AA95" s="152">
+        <f t="shared" ref="AA95" si="967">IF(M95&gt;0,AB95/M95,0)</f>
+        <v>2.5433446497355877E-3</v>
+      </c>
+      <c r="AB95" s="55">
+        <f t="shared" ref="AB95" si="968">SUM(AB92:AB94)</f>
+        <v>116.86922999999999</v>
+      </c>
+      <c r="AC95" s="54">
+        <f t="shared" ref="AC95" si="969">IF(M95&gt;0,AD95/M95,0)</f>
+        <v>2.4732965550260055E-3</v>
+      </c>
+      <c r="AD95" s="55">
+        <f t="shared" ref="AD95" si="970">SUM(AD92:AD94)</f>
+        <v>113.65044999999998</v>
+      </c>
+      <c r="AE95" s="54">
+        <f t="shared" ref="AE95" si="971">IF(M95&gt;0,(AE92*M92+AE93*M93+AE94*M94)/M95,0)</f>
+        <v>2.7150888250527735E-3</v>
+      </c>
+      <c r="AF95" s="54">
+        <f t="shared" ref="AF95" si="972">IF(K95&gt;0,(K92*AF92+K93*AF93+K94*AF94)/K95,0)</f>
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG95" s="51">
+        <f t="shared" ref="AG95" si="973">SUM(AG92:AG94)</f>
+        <v>12.406770000000002</v>
+      </c>
+      <c r="AH95" s="52">
+        <f t="shared" ref="AH95" si="974">IF(K95&gt;0,(K92*AH92+K93*AH93+K94*AH94)/K95,0)</f>
+        <v>0.21409995507453544</v>
+      </c>
+      <c r="AI95" s="57">
+        <f t="shared" ref="AI95" si="975">SUM(AI92:AI94)</f>
+        <v>105.36163040000001</v>
+      </c>
+      <c r="AJ95" s="52">
+        <f t="shared" ref="AJ95" si="976">IF(AND(AD95&gt;0),((AD92*AJ92+AD93*AJ93+AD94*AJ94)/AD95),0)</f>
+        <v>0.89195879671282996</v>
+      </c>
+      <c r="AK95" s="56">
+        <f t="shared" si="682"/>
+        <v>0.90162189309772067</v>
+      </c>
+      <c r="AL95" s="50">
+        <f t="shared" ref="AL95" si="977">SUM(AL92:AL94)</f>
+        <v>538</v>
+      </c>
+      <c r="AM95" s="20">
+        <f t="shared" ref="AM95" si="978">IF(AL95&gt;0,(AM92*AL92+AM93*AL93+AM94*AL94)/AL95,0)</f>
+        <v>8.5297397769516725E-2</v>
+      </c>
+      <c r="AN95" s="52">
+        <f>IF(K95&gt;0,(AN92*K92+AN93*K93+AN94*K94)/K95,0)</f>
+        <v>0.22833290177659793</v>
+      </c>
+      <c r="AO95" s="136">
+        <f>IF(L95&gt;0,(AO92*K92+AO93*K93+AO94*K94)/K95,0)</f>
+        <v>0.22609934653869715</v>
+      </c>
+      <c r="AP95" s="57">
+        <f t="shared" ref="AP95" si="979">SUM(AP92:AP94)</f>
+        <v>112.35427659999999</v>
+      </c>
+      <c r="AQ95" s="137">
+        <f t="shared" si="803"/>
+        <v>111.27686700000001</v>
+      </c>
+      <c r="AR95" s="55"/>
+      <c r="AS95" s="55">
+        <f t="shared" ref="AS95" si="980">SUM(AS92:AS94)</f>
+        <v>0</v>
+      </c>
+      <c r="AT95" s="102"/>
+      <c r="AU95" s="103">
+        <f>AT94</f>
+        <v>1245.9199999999998</v>
+      </c>
+      <c r="AV95" s="50">
+        <f t="shared" ref="AV95" si="981">SUM(AV92:AV94)</f>
+        <v>0</v>
+      </c>
+      <c r="AW95" s="58"/>
+      <c r="AX95" s="57"/>
+      <c r="AY95" s="57"/>
+      <c r="AZ95" s="57"/>
+      <c r="BA95" s="57"/>
+    </row>
+    <row r="96" spans="1:53" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="182">
+        <v>24</v>
+      </c>
+      <c r="B96" s="22">
+        <v>1</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D96" s="11">
+        <v>7800</v>
+      </c>
+      <c r="E96" s="11">
+        <v>0</v>
+      </c>
+      <c r="F96" s="11">
+        <v>12641</v>
+      </c>
+      <c r="G96" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="H96" s="12">
+        <v>5</v>
+      </c>
+      <c r="I96" s="11">
+        <v>12155</v>
+      </c>
+      <c r="J96" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K96" s="11">
+        <v>16275</v>
+      </c>
+      <c r="L96" s="13">
+        <v>6.3E-2</v>
+      </c>
+      <c r="M96" s="23">
+        <f>ROUND(K96*(1-L96),0)</f>
+        <v>15250</v>
+      </c>
+      <c r="N96" s="14">
+        <v>0.752</v>
+      </c>
+      <c r="O96" s="24">
+        <f t="shared" ref="O96:O98" si="982">M96*N96</f>
+        <v>11468</v>
+      </c>
+      <c r="P96" s="13">
+        <v>0.186</v>
+      </c>
+      <c r="Q96" s="24">
+        <f t="shared" ref="Q96:Q98" si="983">M96*P96</f>
+        <v>2836.5</v>
+      </c>
+      <c r="R96" s="15">
+        <v>6.2E-2</v>
+      </c>
+      <c r="S96" s="143">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="T96" s="24">
+        <f t="shared" ref="T96:T98" si="984">M96*R96</f>
+        <v>945.5</v>
+      </c>
+      <c r="U96" s="25">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="V96" s="24">
+        <f t="shared" ref="V96:V98" si="985">M96*U96</f>
+        <v>3217.75</v>
+      </c>
+      <c r="W96" s="15">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="X96" s="24">
+        <f t="shared" ref="X96:X98" si="986">M96*W96</f>
+        <v>7747</v>
+      </c>
+      <c r="Y96" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="Z96" s="24">
+        <f t="shared" ref="Z96:Z98" si="987">Y96*M96</f>
+        <v>6100</v>
+      </c>
+      <c r="AA96" s="145">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="AB96" s="18">
+        <f t="shared" ref="AB96" si="988">M96*AA96</f>
+        <v>38.277500000000003</v>
+      </c>
+      <c r="AC96" s="16">
+        <v>2.3900000000000002E-3</v>
+      </c>
+      <c r="AD96" s="17">
+        <f t="shared" ref="AD96:AD98" si="989">M96*AC96</f>
+        <v>36.447500000000005</v>
+      </c>
+      <c r="AE96" s="26">
+        <f>IF(M96&gt;0,(AG96+AP96)/M96,0)</f>
+        <v>2.6646255737704915E-3</v>
+      </c>
+      <c r="AF96" s="16">
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG96" s="23">
+        <f t="shared" ref="AG96:AG98" si="990">AF96*M96</f>
+        <v>4.1174999999999997</v>
+      </c>
+      <c r="AH96" s="114">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="AI96" s="29">
+        <f t="shared" ref="AI96:AI98" si="991">AL96*(1-AM96)*AH96</f>
+        <v>33.443657999999999</v>
+      </c>
+      <c r="AJ96" s="27">
+        <f t="shared" ref="AJ96:AJ98" si="992">IF(AND(AH96&gt;0,AF96&gt;0,AC96&gt;0),((AC96-AF96)*AH96)/((AH96-AF96)*AC96),0)</f>
+        <v>0.88814828093742793</v>
+      </c>
+      <c r="AK96" s="59">
+        <f t="shared" si="682"/>
+        <v>0.89971057047243874</v>
+      </c>
+      <c r="AL96" s="11">
+        <v>170</v>
+      </c>
+      <c r="AM96" s="13">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="AN96" s="14">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="AO96" s="130">
+        <v>0.22919999999999999</v>
+      </c>
+      <c r="AP96" s="29">
+        <f>AL96*(1-AM96)*AN96</f>
+        <v>36.518039999999999</v>
+      </c>
+      <c r="AQ96" s="131">
+        <f t="shared" ref="AQ96" si="993">AL96*(1-AM96)*AO96</f>
+        <v>35.768951999999999</v>
+      </c>
+      <c r="AR96" s="18">
+        <v>1.55</v>
+      </c>
+      <c r="AS96" s="18"/>
+      <c r="AT96" s="98">
+        <f>AT94+AL96-AS96</f>
+        <v>1415.9199999999998</v>
+      </c>
+      <c r="AU96" s="99"/>
+      <c r="AV96" s="11"/>
+      <c r="AW96" s="30"/>
+      <c r="AX96" s="19"/>
+      <c r="AY96" s="19"/>
+      <c r="AZ96" s="19"/>
+      <c r="BA96" s="19"/>
+    </row>
+    <row r="97" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="183"/>
+      <c r="B97" s="32">
+        <v>2</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97" s="33">
+        <v>18843</v>
+      </c>
+      <c r="E97" s="33">
+        <v>2</v>
+      </c>
+      <c r="F97" s="33">
+        <v>17884</v>
+      </c>
+      <c r="G97" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="H97" s="34">
+        <v>7.7</v>
+      </c>
+      <c r="I97" s="33">
+        <v>17019</v>
+      </c>
+      <c r="J97" s="34">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K97" s="33">
+        <v>16271</v>
+      </c>
+      <c r="L97" s="35">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="M97" s="36">
+        <f>ROUND(K97*(1-L97),0)</f>
+        <v>15344</v>
+      </c>
+      <c r="N97" s="37">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="O97" s="24">
+        <f t="shared" si="982"/>
+        <v>13103.776</v>
+      </c>
+      <c r="P97" s="35">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="Q97" s="24">
+        <f t="shared" si="983"/>
+        <v>1825.9359999999999</v>
+      </c>
+      <c r="R97" s="38">
+        <v>2.7E-2</v>
+      </c>
+      <c r="S97" s="134">
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="T97" s="24">
+        <f t="shared" si="984"/>
+        <v>414.28800000000001</v>
+      </c>
+      <c r="U97" s="27">
+        <v>0.219</v>
+      </c>
+      <c r="V97" s="24">
+        <f t="shared" si="985"/>
+        <v>3360.3359999999998</v>
+      </c>
+      <c r="W97" s="38">
+        <v>0.497</v>
+      </c>
+      <c r="X97" s="24">
+        <f t="shared" si="986"/>
+        <v>7625.9679999999998</v>
+      </c>
+      <c r="Y97" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="Z97" s="24">
+        <f t="shared" si="987"/>
+        <v>6137.6</v>
+      </c>
+      <c r="AA97" s="146"/>
+      <c r="AB97" s="18">
+        <f t="shared" si="767"/>
+        <v>0</v>
+      </c>
+      <c r="AC97" s="39">
+        <v>2.4299999999999999E-3</v>
+      </c>
+      <c r="AD97" s="17">
+        <f t="shared" si="989"/>
+        <v>37.285919999999997</v>
+      </c>
+      <c r="AE97" s="26">
+        <f>IF(M97&gt;0,(AG97+AP97)/M97,0)</f>
+        <v>2.8188808654848805E-3</v>
+      </c>
+      <c r="AF97" s="39">
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG97" s="36">
+        <f t="shared" si="990"/>
+        <v>4.1428799999999999</v>
+      </c>
+      <c r="AH97" s="27">
+        <v>0.22109999999999999</v>
+      </c>
+      <c r="AI97" s="40">
+        <f t="shared" si="991"/>
+        <v>37.224395999999999</v>
+      </c>
+      <c r="AJ97" s="27">
+        <f t="shared" si="992"/>
+        <v>0.88997569774638119</v>
+      </c>
+      <c r="AK97" s="28">
+        <f t="shared" si="682"/>
+        <v>0.90526949300000525</v>
+      </c>
+      <c r="AL97" s="33">
+        <v>184</v>
+      </c>
+      <c r="AM97" s="35">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AN97" s="37">
+        <v>0.23230000000000001</v>
+      </c>
+      <c r="AO97" s="132"/>
+      <c r="AP97" s="40">
+        <f>AL97*(1-AM97)*AN97</f>
+        <v>39.110028000000007</v>
+      </c>
+      <c r="AQ97" s="133">
+        <f t="shared" si="772"/>
+        <v>0</v>
+      </c>
+      <c r="AR97" s="41">
+        <v>1.55</v>
+      </c>
+      <c r="AS97" s="41"/>
+      <c r="AT97" s="117">
+        <f>AT96+AL97-AS97</f>
+        <v>1599.9199999999998</v>
+      </c>
+      <c r="AU97" s="101"/>
+      <c r="AV97" s="42"/>
+      <c r="AW97" s="43"/>
+      <c r="AX97" s="44"/>
+      <c r="AY97" s="44"/>
+      <c r="AZ97" s="44"/>
+      <c r="BA97" s="44"/>
+    </row>
+    <row r="98" spans="1:53" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="183"/>
+      <c r="B98" s="32">
+        <v>3</v>
+      </c>
+      <c r="C98" s="180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" s="42">
+        <v>18233</v>
+      </c>
+      <c r="E98" s="42">
+        <v>0</v>
+      </c>
+      <c r="F98" s="42">
+        <v>16907</v>
+      </c>
+      <c r="G98" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="H98" s="36">
+        <v>7.3</v>
+      </c>
+      <c r="I98" s="42">
+        <v>16258</v>
+      </c>
+      <c r="J98" s="36">
+        <v>1.7</v>
+      </c>
+      <c r="K98" s="42">
+        <v>16246</v>
+      </c>
+      <c r="L98" s="38">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="M98" s="36">
+        <f>ROUND(K98*(1-L98),0)</f>
+        <v>15174</v>
+      </c>
+      <c r="N98" s="27">
+        <v>0.748</v>
+      </c>
+      <c r="O98" s="24">
+        <f t="shared" si="982"/>
+        <v>11350.152</v>
+      </c>
+      <c r="P98" s="38">
+        <v>0.152</v>
+      </c>
+      <c r="Q98" s="24">
+        <f t="shared" si="983"/>
+        <v>2306.4479999999999</v>
+      </c>
+      <c r="R98" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="S98" s="134">
+        <v>0.2107</v>
+      </c>
+      <c r="T98" s="24">
+        <f t="shared" si="984"/>
+        <v>1517.4</v>
+      </c>
+      <c r="U98" s="27"/>
+      <c r="V98" s="24">
+        <f t="shared" si="985"/>
+        <v>0</v>
+      </c>
+      <c r="W98" s="38"/>
+      <c r="X98" s="24">
+        <f t="shared" si="986"/>
+        <v>0</v>
+      </c>
+      <c r="Y98" s="38">
+        <v>0.41</v>
+      </c>
+      <c r="Z98" s="24">
+        <f t="shared" si="987"/>
+        <v>6221.3399999999992</v>
+      </c>
+      <c r="AA98" s="147"/>
+      <c r="AB98" s="148">
+        <f t="shared" si="767"/>
+        <v>0</v>
+      </c>
+      <c r="AC98" s="46">
+        <v>2.2899999999999999E-3</v>
+      </c>
+      <c r="AD98" s="17">
+        <f t="shared" si="989"/>
+        <v>34.748460000000001</v>
+      </c>
+      <c r="AE98" s="26">
+        <f>IF(M98&gt;0,(AG98+AP98)/M98,0)</f>
+        <v>2.7E-4</v>
+      </c>
+      <c r="AF98" s="46">
+        <v>2.7E-4</v>
+      </c>
+      <c r="AG98" s="36">
+        <f t="shared" si="990"/>
+        <v>4.0969800000000003</v>
+      </c>
+      <c r="AH98" s="27">
+        <v>0.21190000000000001</v>
+      </c>
+      <c r="AI98" s="40">
+        <f t="shared" si="991"/>
+        <v>32.466470400000006</v>
+      </c>
+      <c r="AJ98" s="27">
+        <f t="shared" si="992"/>
+        <v>0.88322145823011955</v>
+      </c>
+      <c r="AK98" s="28">
+        <f t="shared" si="682"/>
+        <v>0</v>
+      </c>
+      <c r="AL98" s="42">
+        <v>168</v>
+      </c>
+      <c r="AM98" s="38">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AN98" s="27"/>
+      <c r="AO98" s="134"/>
+      <c r="AP98" s="40">
+        <f>AL98*(1-AM98)*AN98</f>
+        <v>0</v>
+      </c>
+      <c r="AQ98" s="135">
+        <f t="shared" si="772"/>
+        <v>0</v>
+      </c>
+      <c r="AR98" s="17">
+        <v>1.55</v>
+      </c>
+      <c r="AS98" s="17"/>
+      <c r="AT98" s="117">
+        <f>AT97+AL98-AS98</f>
+        <v>1767.9199999999998</v>
+      </c>
+      <c r="AU98" s="101"/>
+      <c r="AV98" s="42"/>
+      <c r="AW98" s="47"/>
+      <c r="AX98" s="40"/>
+      <c r="AY98" s="40"/>
+      <c r="AZ98" s="40"/>
+      <c r="BA98" s="40"/>
+    </row>
+    <row r="99" spans="1:53" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="184"/>
+      <c r="B99" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C99" s="49"/>
+      <c r="D99" s="50">
+        <f t="shared" ref="D99" si="994">SUM(D96:D98)</f>
+        <v>44876</v>
+      </c>
+      <c r="E99" s="50"/>
+      <c r="F99" s="50">
+        <f t="shared" ref="F99" si="995">SUM(F96:F98)</f>
+        <v>47432</v>
+      </c>
+      <c r="G99" s="51"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="50">
+        <f t="shared" ref="I99:K99" si="996">SUM(I96:I98)</f>
+        <v>45432</v>
+      </c>
+      <c r="J99" s="51"/>
+      <c r="K99" s="50">
+        <f t="shared" si="996"/>
+        <v>48792</v>
+      </c>
+      <c r="L99" s="20">
+        <f t="shared" ref="L99" si="997">IF(K99&gt;0,(K96*L96+K97*L97+K98*L98)/K99,0)</f>
+        <v>6.199803246433841E-2</v>
+      </c>
+      <c r="M99" s="51">
+        <f t="shared" ref="M99" si="998">M96+M97+M98</f>
+        <v>45768</v>
+      </c>
+      <c r="N99" s="52">
+        <f t="shared" ref="N99" si="999">IF(M99&gt;0,O99/M99,0)</f>
+        <v>0.78486995280545357</v>
+      </c>
+      <c r="O99" s="53">
+        <f t="shared" ref="O99" si="1000">O96+O97+O98</f>
+        <v>35921.928</v>
+      </c>
+      <c r="P99" s="20">
+        <f t="shared" ref="P99" si="1001">IF(M99&gt;0,Q99/M99,0)</f>
+        <v>0.15226542562489076</v>
+      </c>
+      <c r="Q99" s="53">
+        <f t="shared" ref="Q99" si="1002">Q96+Q97+Q98</f>
+        <v>6968.884</v>
+      </c>
+      <c r="R99" s="20">
+        <f t="shared" ref="R99" si="1003">IF(M99&gt;0,T99/M99,0)</f>
+        <v>6.2864621569655652E-2</v>
+      </c>
+      <c r="S99" s="136"/>
+      <c r="T99" s="53">
+        <f t="shared" ref="T99" si="1004">T96+T97+T98</f>
+        <v>2877.1880000000001</v>
+      </c>
+      <c r="U99" s="20">
+        <f t="shared" ref="U99" si="1005">IF(M99&gt;0,V99/M99,0)</f>
+        <v>0.14372675231602866</v>
+      </c>
+      <c r="V99" s="53">
+        <f t="shared" ref="V99" si="1006">V96+V97+V98</f>
+        <v>6578.0859999999993</v>
+      </c>
+      <c r="W99" s="20">
+        <f t="shared" ref="W99" si="1007">IF(M99&gt;0,X99/M99,0)</f>
+        <v>0.33588900541863315</v>
+      </c>
+      <c r="X99" s="53">
+        <f t="shared" ref="X99" si="1008">X96+X97+X98</f>
+        <v>15372.968000000001</v>
+      </c>
+      <c r="Y99" s="20">
+        <f t="shared" ref="Y99" si="1009">IF(M99&gt;0,Z99/M99,0)</f>
+        <v>0.40331541688515993</v>
+      </c>
+      <c r="Z99" s="53">
+        <f t="shared" ref="Z99" si="1010">Z96+Z97+Z98</f>
+        <v>18458.939999999999</v>
+      </c>
+      <c r="AA99" s="152">
+        <f t="shared" ref="AA99" si="1011">IF(M99&gt;0,AB99/M99,0)</f>
+        <v>8.3633761580143343E-4</v>
+      </c>
+      <c r="AB99" s="55">
+        <f t="shared" ref="AB99" si="1012">SUM(AB96:AB98)</f>
+        <v>38.277500000000003</v>
+      </c>
+      <c r="AC99" s="54">
+        <f t="shared" ref="AC99" si="1013">IF(M99&gt;0,AD99/M99,0)</f>
+        <v>2.370256074112917E-3</v>
+      </c>
+      <c r="AD99" s="55">
+        <f t="shared" ref="AD99" si="1014">SUM(AD96:AD98)</f>
+        <v>108.48187999999999</v>
+      </c>
+      <c r="AE99" s="54">
+        <f t="shared" ref="AE99" si="1015">IF(M99&gt;0,(AE96*M96+AE97*M97+AE98*M98)/M99,0)</f>
+        <v>1.9224223911903516E-3</v>
+      </c>
+      <c r="AF99" s="54">
+        <f t="shared" ref="AF99" si="1016">IF(K99&gt;0,(K96*AF96+K97*AF97+K98*AF98)/K99,0)</f>
+        <v>2.7000000000000006E-4</v>
+      </c>
+      <c r="AG99" s="51">
+        <f t="shared" ref="AG99" si="1017">SUM(AG96:AG98)</f>
+        <v>12.35736</v>
+      </c>
+      <c r="AH99" s="52">
+        <f t="shared" ref="AH99" si="1018">IF(K99&gt;0,(K96*AH96+K97*AH97+K98*AH98)/K99,0)</f>
+        <v>0.21576852762747989</v>
+      </c>
+      <c r="AI99" s="57">
+        <f t="shared" ref="AI99" si="1019">SUM(AI96:AI98)</f>
+        <v>103.1345244</v>
+      </c>
+      <c r="AJ99" s="52">
+        <f t="shared" ref="AJ99" si="1020">IF(AND(AD99&gt;0),((AD96*AJ96+AD97*AJ97+AD98*AJ98)/AD99),0)</f>
+        <v>0.88719823670122278</v>
+      </c>
+      <c r="AK99" s="56">
+        <f t="shared" si="682"/>
+        <v>0.86104707668565406</v>
+      </c>
+      <c r="AL99" s="50">
+        <f t="shared" ref="AL99" si="1021">SUM(AL96:AL98)</f>
+        <v>522</v>
+      </c>
+      <c r="AM99" s="20">
+        <f t="shared" ref="AM99" si="1022">IF(AL99&gt;0,(AM96*AL96+AM97*AL97+AM98*AL98)/AL99,0)</f>
+        <v>8.498850574712645E-2</v>
+      </c>
+      <c r="AN99" s="52">
+        <f>IF(K99&gt;0,(AN96*K96+AN97*K97+AN98*K98)/K99,0)</f>
+        <v>0.15551941506804395</v>
+      </c>
+      <c r="AO99" s="136">
+        <f>IF(L99&gt;0,(AO96*K96+AO97*K97+AO98*K98)/K99,0)</f>
+        <v>7.6451672405312338E-2</v>
+      </c>
+      <c r="AP99" s="57">
+        <f t="shared" ref="AP99" si="1023">SUM(AP96:AP98)</f>
+        <v>75.628068000000013</v>
+      </c>
+      <c r="AQ99" s="137">
+        <f t="shared" si="803"/>
+        <v>35.768951999999999</v>
+      </c>
+      <c r="AR99" s="55"/>
+      <c r="AS99" s="55">
+        <f t="shared" ref="AS99" si="1024">SUM(AS96:AS98)</f>
+        <v>0</v>
+      </c>
+      <c r="AT99" s="102"/>
+      <c r="AU99" s="103">
+        <f>AT98</f>
+        <v>1767.9199999999998</v>
+      </c>
+      <c r="AV99" s="50">
+        <f t="shared" ref="AV99" si="1025">SUM(AV96:AV98)</f>
+        <v>0</v>
+      </c>
+      <c r="AW99" s="58"/>
+      <c r="AX99" s="57"/>
+      <c r="AY99" s="57"/>
+      <c r="AZ99" s="57"/>
+      <c r="BA99" s="57"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -56198,8 +60194,39 @@
     <protectedRange sqref="AG72:AG75" name="Range1_1_1_1_1_18_1_1_5"/>
     <protectedRange sqref="AE72:AE74" name="Range1_1_1_1_1_2_1_17_1_1_1_1"/>
     <protectedRange sqref="AB72:AB75" name="Range1_1_1_1_1_2_2_1_1_1_5"/>
+    <protectedRange sqref="AP76:AQ99 AK76:AK99 M76:M99" name="Range1_1_1_1_1_1_1_1_1_6"/>
+    <protectedRange sqref="AH79:AJ79 AH83:AJ83 AH87:AJ87 AH91:AJ91 AH95:AJ95 AH99:AJ99 AH76:AI78 AH80:AI82 AH84:AI86 AH88:AI90 AH92:AI94 AH96:AI98" name="Range1_1_1_1_1_1_1_6"/>
+    <protectedRange sqref="AJ76:AJ78 AJ80:AJ82 AJ84:AJ86 AJ88:AJ90 AJ92:AJ94 AJ96:AJ98" name="Range1_1_1_1_6"/>
+    <protectedRange sqref="AD79:AE79 AD76:AD78 AD83:AE83 AD80:AD82 AD87:AE87 AD84:AD86 AD91:AE91 AD88:AD90 AD95:AE95 AD92:AD94 AD99:AE99 AD96:AD98" name="Range1_1_1_1_1_2_2_1_6"/>
+    <protectedRange sqref="O76:O99" name="Range1_1_1_1_1_5_1_1_6"/>
+    <protectedRange sqref="Q76:Q99" name="Range1_1_1_1_1_7_1_1_6"/>
+    <protectedRange sqref="T76:T99" name="Range1_1_1_1_1_8_1_1_6"/>
+    <protectedRange sqref="V76:V99" name="Range1_1_1_1_1_10_1_1_6"/>
+    <protectedRange sqref="X76:X99" name="Range1_1_1_1_1_12_1_1_6"/>
+    <protectedRange sqref="Z76:Z99" name="Range1_1_1_1_1_16_1_1_6"/>
+    <protectedRange sqref="AG76:AG99" name="Range1_1_1_1_1_18_1_1_6"/>
+    <protectedRange sqref="AE76:AE78" name="Range1_1_1_1_1_2_1_18_1_1_1"/>
+    <protectedRange sqref="AE80:AE82" name="Range1_1_1_1_1_2_1_19_1_1_1"/>
+    <protectedRange sqref="AE84:AE86" name="Range1_1_1_1_1_2_1_20_1_1_1"/>
+    <protectedRange sqref="AE88:AE90" name="Range1_1_1_1_1_2_1_21_1_1_1"/>
+    <protectedRange sqref="AE92:AE94" name="Range1_1_1_1_1_2_1_22_1_1_1"/>
+    <protectedRange sqref="AE96:AE98" name="Range1_1_1_1_1_2_1_23_1_1_1"/>
+    <protectedRange sqref="AB76:AB99" name="Range1_1_1_1_1_2_2_1_1_1_6"/>
   </protectedRanges>
-  <mergeCells count="23">
+  <mergeCells count="29">
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A67"/>
     <mergeCell ref="A44:A47"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="AZ1:BA1"/>
@@ -56216,13 +60243,6 @@
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A64:A67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
